--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -38,151 +38,151 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30197715759277</t>
+    <t xml:space="preserve">8.30197906494141</t>
   </si>
   <si>
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11748790740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88687801361084</t>
+    <t xml:space="preserve">8.31735038757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11749172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88687705993652</t>
   </si>
   <si>
     <t xml:space="preserve">7.58708429336548</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50252962112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46409225463867</t>
+    <t xml:space="preserve">7.50253009796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46409320831299</t>
   </si>
   <si>
     <t xml:space="preserve">7.51021575927734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4564061164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98749780654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92600250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74151277542114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99518632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17582988739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26423072814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19889068603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84528732299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86834907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797161102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7837929725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6415810585022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17198657989502</t>
+    <t xml:space="preserve">7.45640563964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98749828338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92600297927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14508056640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74151372909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99518537521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17582893371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26423025131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28729104995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.198890209198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84528827667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86834859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41797065734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78379154205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64158201217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17198610305786</t>
   </si>
   <si>
     <t xml:space="preserve">7.33341407775879</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10664749145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53712034225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44487619400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20273494720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50637102127075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.233482837677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89909887313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91062688827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55633783340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72545289993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90993881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8561315536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02524566650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34810066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44034194946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13286209106445</t>
+    <t xml:space="preserve">7.10664796829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5371208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44487428665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20273447036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50637006759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23348379135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89909791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91062784194946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55633735656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72545003890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9099383354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85613012313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3480978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44034481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13286304473877</t>
   </si>
   <si>
     <t xml:space="preserve">8.28660297393799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00218296051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24816799163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15592384338379</t>
+    <t xml:space="preserve">8.00218391418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2481689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15592479705811</t>
   </si>
   <si>
     <t xml:space="preserve">8.39422225952148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24048137664795</t>
+    <t xml:space="preserve">8.24048233032227</t>
   </si>
   <si>
     <t xml:space="preserve">8.20204639434814</t>
@@ -191,73 +191,73 @@
     <t xml:space="preserve">8.38653469085693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14054870605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08674335479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41728210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25585556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94068813323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07905292510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05599212646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51721477508545</t>
+    <t xml:space="preserve">8.14055061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08674144744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4172830581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25585460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94068908691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07905387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05599308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51721382141113</t>
   </si>
   <si>
     <t xml:space="preserve">8.55564880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61714649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87850475311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87081813812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90925121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17061138153076</t>
+    <t xml:space="preserve">8.61714458465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87850570678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87081909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90925216674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17061042785645</t>
   </si>
   <si>
     <t xml:space="preserve">9.30897617340088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.347412109375</t>
+    <t xml:space="preserve">9.34741306304932</t>
   </si>
   <si>
     <t xml:space="preserve">9.40121936798096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10911273956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27822780609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28591632843018</t>
+    <t xml:space="preserve">9.1091136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27822875976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28591537475586</t>
   </si>
   <si>
     <t xml:space="preserve">9.05530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93231391906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45571708679199</t>
+    <t xml:space="preserve">8.93231296539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45571804046631</t>
   </si>
   <si>
     <t xml:space="preserve">8.40959644317627</t>
@@ -269,31 +269,31 @@
     <t xml:space="preserve">8.69401550292969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66326713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74782562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75551128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91693782806396</t>
+    <t xml:space="preserve">8.66326808929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74782371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75551319122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91694068908691</t>
   </si>
   <si>
     <t xml:space="preserve">9.11680030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14754962921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84775447845459</t>
+    <t xml:space="preserve">9.14755058288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84775638580322</t>
   </si>
   <si>
     <t xml:space="preserve">9.0322437286377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09535121917725</t>
+    <t xml:space="preserve">9.09535217285156</t>
   </si>
   <si>
     <t xml:space="preserve">9.20578956604004</t>
@@ -302,22 +302,22 @@
     <t xml:space="preserve">9.22945499420166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4424409866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46610641479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47399616241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39511108398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28467464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15056991577148</t>
+    <t xml:space="preserve">9.44244384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46610736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47399425506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39511203765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28467559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15057182312012</t>
   </si>
   <si>
     <t xml:space="preserve">9.11901664733887</t>
@@ -326,34 +326,34 @@
     <t xml:space="preserve">9.57654571533203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0498504638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0419626235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0104103088379</t>
+    <t xml:space="preserve">10.0498514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233953475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0419635772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0104074478149</t>
   </si>
   <si>
     <t xml:space="preserve">9.78953170776367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65542888641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85264015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67120742797852</t>
+    <t xml:space="preserve">9.65543079376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85264110565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6712064743042</t>
   </si>
   <si>
     <t xml:space="preserve">9.91574668884277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1918420791626</t>
+    <t xml:space="preserve">10.1918411254883</t>
   </si>
   <si>
     <t xml:space="preserve">9.93941307067871</t>
@@ -362,34 +362,34 @@
     <t xml:space="preserve">10.3338346481323</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81319904327393</t>
+    <t xml:space="preserve">9.81319713592529</t>
   </si>
   <si>
     <t xml:space="preserve">9.53710269927979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63965320587158</t>
+    <t xml:space="preserve">9.63965225219727</t>
   </si>
   <si>
     <t xml:space="preserve">10.1366243362427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628393173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048280715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3653879165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1208467483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8289737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90785980224609</t>
+    <t xml:space="preserve">10.2628383636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048290252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3653888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1208477020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82897472381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90786075592041</t>
   </si>
   <si>
     <t xml:space="preserve">10.0261859893799</t>
@@ -398,22 +398,22 @@
     <t xml:space="preserve">10.1839532852173</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2786149978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99463081359863</t>
+    <t xml:space="preserve">10.2786140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99463176727295</t>
   </si>
   <si>
     <t xml:space="preserve">10.1129579544067</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71853733062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88419437408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68698501586914</t>
+    <t xml:space="preserve">9.71853542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88419342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68698310852051</t>
   </si>
   <si>
     <t xml:space="preserve">9.56076908111572</t>
@@ -425,55 +425,55 @@
     <t xml:space="preserve">9.59232234954834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30834102630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4345531463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1821231842041</t>
+    <t xml:space="preserve">9.3083381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43455410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18212413787842</t>
   </si>
   <si>
     <t xml:space="preserve">9.04013252258301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22156620025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48977088928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69487190246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89996910095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87630748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0025224685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2312841415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1760663986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.152398109436</t>
+    <t xml:space="preserve">9.22156524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48977279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69486999511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89997100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87630653381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0025215148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2312850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1760654449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1524000167847</t>
   </si>
   <si>
     <t xml:space="preserve">10.0340728759766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97096824645996</t>
+    <t xml:space="preserve">9.97096538543701</t>
   </si>
   <si>
     <t xml:space="preserve">9.58443260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72642517089844</t>
+    <t xml:space="preserve">9.72642612457275</t>
   </si>
   <si>
     <t xml:space="preserve">9.80531024932861</t>
@@ -485,19 +485,19 @@
     <t xml:space="preserve">9.33989238739014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13479423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19001197814941</t>
+    <t xml:space="preserve">9.13479328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19001293182373</t>
   </si>
   <si>
     <t xml:space="preserve">9.36355781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24523258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14268207550049</t>
+    <t xml:space="preserve">9.24523162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14268112182617</t>
   </si>
   <si>
     <t xml:space="preserve">9.16634654998779</t>
@@ -506,118 +506,118 @@
     <t xml:space="preserve">9.38722324371338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17423534393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90603065490723</t>
+    <t xml:space="preserve">9.17423629760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90602970123291</t>
   </si>
   <si>
     <t xml:space="preserve">9.02435493469238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86841773986816</t>
+    <t xml:space="preserve">9.86841583251953</t>
   </si>
   <si>
     <t xml:space="preserve">10.0182962417603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1681776046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2943925857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707271575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4916019439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1602878570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3732757568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4837131500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862636566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.53892993927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547103881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.507378578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6099281311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022813796997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4363842010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3969430923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79741954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386917114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.256778717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936721801758</t>
+    <t xml:space="preserve">10.168176651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2943906784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707281112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.491602897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1602897644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3732776641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496103286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4837141036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862646102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5389308929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547094345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5073795318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6099290847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022785186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4363822937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3969421386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2567796707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936712265015</t>
   </si>
   <si>
     <t xml:space="preserve">11.3987703323364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5328731536865</t>
+    <t xml:space="preserve">11.5328741073608</t>
   </si>
   <si>
     <t xml:space="preserve">11.5249843597412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5092086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041105270386</t>
+    <t xml:space="preserve">11.5092096328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041095733643</t>
   </si>
   <si>
     <t xml:space="preserve">11.7260246276855</t>
   </si>
   <si>
-    <t xml:space="preserve">11.391676902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6304960250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6702995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4235200881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2563447952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4902448654175</t>
+    <t xml:space="preserve">11.3916778564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6304950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6703004837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4235210418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2563457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966859817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4902439117432</t>
   </si>
   <si>
     <t xml:space="preserve">12.3787965774536</t>
@@ -632,13 +632,13 @@
     <t xml:space="preserve">12.7370262145996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.888277053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.238543510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0474910736084</t>
+    <t xml:space="preserve">12.8882780075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2385444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0474901199341</t>
   </si>
   <si>
     <t xml:space="preserve">12.9599227905273</t>
@@ -647,64 +647,64 @@
     <t xml:space="preserve">13.0952548980713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9838066101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0395288467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2226257324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1270971298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2783479690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.525128364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6843423843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7082223892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.732105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763820648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6524963378906</t>
+    <t xml:space="preserve">12.9838047027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0395278930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2226247787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1270952224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2783489227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5251312255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6843433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7082242965698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092096328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7321062088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.676381111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6524953842163</t>
   </si>
   <si>
     <t xml:space="preserve">13.5808534622192</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5649309158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4694061279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3659172058105</t>
+    <t xml:space="preserve">13.5649347305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4694042205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3659181594849</t>
   </si>
   <si>
     <t xml:space="preserve">13.5171670913696</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4534816741943</t>
+    <t xml:space="preserve">13.4534826278687</t>
   </si>
   <si>
     <t xml:space="preserve">13.2146654129028</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4614448547363</t>
+    <t xml:space="preserve">13.4614419937134</t>
   </si>
   <si>
     <t xml:space="preserve">13.5569725036621</t>
@@ -719,46 +719,46 @@
     <t xml:space="preserve">13.6923036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7161846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5490102767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.880316734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8723564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7847890853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.951961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768268585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8086729049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.522087097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7290649414062</t>
+    <t xml:space="preserve">13.7161855697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490121841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8803176879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8723573684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7847909927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9519624710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768278121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8086719512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5220880508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7290668487549</t>
   </si>
   <si>
     <t xml:space="preserve">12.8166313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9201192855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6255769729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4982061386108</t>
+    <t xml:space="preserve">12.9201202392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6255760192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4982051849365</t>
   </si>
   <si>
     <t xml:space="preserve">12.8484735488892</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">12.9041986465454</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4265584945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5539321899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2991905212402</t>
+    <t xml:space="preserve">12.4265623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628749847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5539302825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2991895675659</t>
   </si>
   <si>
     <t xml:space="preserve">12.1399774551392</t>
@@ -788,25 +788,25 @@
     <t xml:space="preserve">12.0842542648315</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7021408081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7180643081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658271789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.678261756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9489240646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0285272598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1240558624268</t>
+    <t xml:space="preserve">11.7021436691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7180624008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658262252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6782608032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9489221572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0285291671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1240549087524</t>
   </si>
   <si>
     <t xml:space="preserve">11.9091186523438</t>
@@ -824,37 +824,37 @@
     <t xml:space="preserve">11.5906934738159</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4822854995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4026794433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927494049072</t>
+    <t xml:space="preserve">12.4822864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4026784896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927484512329</t>
   </si>
   <si>
     <t xml:space="preserve">12.6972217559814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8643951416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8405122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5857734680176</t>
+    <t xml:space="preserve">12.8643970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8405132293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5857744216919</t>
   </si>
   <si>
     <t xml:space="preserve">12.0046463012695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.10813331604</t>
+    <t xml:space="preserve">12.108136177063</t>
   </si>
   <si>
     <t xml:space="preserve">11.8931980133057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.96484375</t>
+    <t xml:space="preserve">11.9648418426514</t>
   </si>
   <si>
     <t xml:space="preserve">11.972804069519</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">12.1320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4633226394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474029541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4951648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3757562637329</t>
+    <t xml:space="preserve">11.4633235931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474010467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4951639175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3757553100586</t>
   </si>
   <si>
     <t xml:space="preserve">11.0652894973755</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">11.2245035171509</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2404260635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4155578613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4712839126587</t>
+    <t xml:space="preserve">11.240424156189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4155588150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4712829589844</t>
   </si>
   <si>
     <t xml:space="preserve">11.32799243927</t>
@@ -902,16 +902,16 @@
     <t xml:space="preserve">11.5747728347778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2961473464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4872055053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6170959472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5683860778809</t>
+    <t xml:space="preserve">11.2961483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4872045516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6170978546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5683851242065</t>
   </si>
   <si>
     <t xml:space="preserve">11.6252136230469</t>
@@ -920,52 +920,52 @@
     <t xml:space="preserve">11.5196771621704</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3491945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2193050384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787137985229</t>
+    <t xml:space="preserve">11.3491954803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2193059921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787128448486</t>
   </si>
   <si>
     <t xml:space="preserve">10.9189338684082</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0488243103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082340240479</t>
+    <t xml:space="preserve">11.0488224029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082321166992</t>
   </si>
   <si>
     <t xml:space="preserve">10.9838790893555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7971611022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9676427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3735513687134</t>
+    <t xml:space="preserve">10.7971620559692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.967643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3735504150391</t>
   </si>
   <si>
     <t xml:space="preserve">11.0650596618652</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1137685775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8783407211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.935170173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8377523422241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8458681106567</t>
+    <t xml:space="preserve">11.1137676239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8783416748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9351692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8377504348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8458700180054</t>
   </si>
   <si>
     <t xml:space="preserve">10.8945789337158</t>
@@ -974,193 +974,193 @@
     <t xml:space="preserve">11.0812969207764</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4222602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4466123580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2923679351807</t>
+    <t xml:space="preserve">11.4222583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4466142654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2923698425293</t>
   </si>
   <si>
     <t xml:space="preserve">11.1949501037598</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9026956558228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0407047271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3654317855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5034399032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6089773178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5359134674072</t>
+    <t xml:space="preserve">10.9026966094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0407056808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3654298782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5034408569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6089754104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5359144210815</t>
   </si>
   <si>
     <t xml:space="preserve">11.3410778045654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0975332260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.203070640564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8702239990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6429138183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373792648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427005767822</t>
+    <t xml:space="preserve">11.0975313186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2030668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8702230453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.642915725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373773574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427291870117</t>
   </si>
   <si>
     <t xml:space="preserve">9.85545349121094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70932674407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79862689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66061592102051</t>
+    <t xml:space="preserve">9.70932579040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79862499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66061782836914</t>
   </si>
   <si>
     <t xml:space="preserve">9.72556209564209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46578121185303</t>
+    <t xml:space="preserve">9.46578025817871</t>
   </si>
   <si>
     <t xml:space="preserve">9.49825382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44954490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40895366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36024570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27906322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33588981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30341815948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2628288269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19788265228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10858058929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98680877685547</t>
+    <t xml:space="preserve">9.44954586029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4089527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3602466583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2790641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33589172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30341720581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26282691955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19788074493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98680973052979</t>
   </si>
   <si>
     <t xml:space="preserve">9.09234619140625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11670112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07610988616943</t>
+    <t xml:space="preserve">9.11669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07611083984375</t>
   </si>
   <si>
     <t xml:space="preserve">9.22223663330078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52260684967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61190891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62814521789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41707229614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65249824523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88792705535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80674457550049</t>
+    <t xml:space="preserve">9.52260780334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61190986633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62814426422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41707324981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65249919891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88792514801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80674362182617</t>
   </si>
   <si>
     <t xml:space="preserve">9.83109951019287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83921718597412</t>
+    <t xml:space="preserve">9.8392162322998</t>
   </si>
   <si>
     <t xml:space="preserve">9.78238964080811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76615047454834</t>
+    <t xml:space="preserve">9.76615238189697</t>
   </si>
   <si>
     <t xml:space="preserve">9.74991703033447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74179840087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70120811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60378932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.352126121521</t>
+    <t xml:space="preserve">9.74179935455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70120716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60379123687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35212707519531</t>
   </si>
   <si>
     <t xml:space="preserve">9.32777214050293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44142532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21411991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10046291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12481880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18164443969727</t>
+    <t xml:space="preserve">9.44142627716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21411895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1004638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12481784820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18164539337158</t>
   </si>
   <si>
     <t xml:space="preserve">9.27094554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49013614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53884506225586</t>
+    <t xml:space="preserve">9.49013423919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53884601593018</t>
   </si>
   <si>
     <t xml:space="preserve">10.6023244857788</t>
@@ -1178,127 +1178,127 @@
     <t xml:space="preserve">10.4805536270142</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3587789535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2288904190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96910858154297</t>
+    <t xml:space="preserve">10.3587799072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2288885116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96910667419434</t>
   </si>
   <si>
     <t xml:space="preserve">9.81486129760742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84733486175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9293966293335</t>
+    <t xml:space="preserve">9.84733390808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92939472198486</t>
   </si>
   <si>
     <t xml:space="preserve">10.257640838623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2001972198486</t>
+    <t xml:space="preserve">10.2001981735229</t>
   </si>
   <si>
     <t xml:space="preserve">9.95401477813721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94580745697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0196628570557</t>
+    <t xml:space="preserve">9.94580936431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01966381073</t>
   </si>
   <si>
     <t xml:space="preserve">10.2248163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4545860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3397035598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673746109009</t>
+    <t xml:space="preserve">10.4545869827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3397026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673717498779</t>
   </si>
   <si>
     <t xml:space="preserve">10.2986717224121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.397144317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843595504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0043964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7418012619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5940923690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7007703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776786804199</t>
+    <t xml:space="preserve">10.3971433639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843576431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0043954849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7418022155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.594090461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956178665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7007722854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776805877686</t>
   </si>
   <si>
     <t xml:space="preserve">10.7089767456055</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8730983734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9551610946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9059247970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7992429733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9961891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.19313621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1685190200806</t>
+    <t xml:space="preserve">10.8730993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9551591873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9059238433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7992448806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9961881637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931381225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1685199737549</t>
   </si>
   <si>
     <t xml:space="preserve">11.2669916152954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2587852478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5460014343262</t>
+    <t xml:space="preserve">11.2587862014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459985733032</t>
   </si>
   <si>
     <t xml:space="preserve">11.6526794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7183303833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4803514480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4229097366333</t>
+    <t xml:space="preserve">11.7183275222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4803524017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4229078292847</t>
   </si>
   <si>
     <t xml:space="preserve">11.5952377319336</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6855030059814</t>
+    <t xml:space="preserve">11.6855039596558</t>
   </si>
   <si>
     <t xml:space="preserve">11.9070692062378</t>
@@ -1307,58 +1307,58 @@
     <t xml:space="preserve">11.9152755737305</t>
   </si>
   <si>
-    <t xml:space="preserve">11.792181968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8660383224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9316892623901</t>
+    <t xml:space="preserve">11.7921838760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.866039276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9316873550415</t>
   </si>
   <si>
     <t xml:space="preserve">11.7675666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5542068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5090713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2834024429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1603136062622</t>
+    <t xml:space="preserve">11.5542058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.509072303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2834033966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1603126525879</t>
   </si>
   <si>
     <t xml:space="preserve">10.8648929595947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0249128341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5981931686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5366487503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4381761550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6105051040649</t>
+    <t xml:space="preserve">11.0249137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5981950759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5366477966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4381742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6105031967163</t>
   </si>
   <si>
     <t xml:space="preserve">10.6679458618164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8197584152222</t>
+    <t xml:space="preserve">10.8197593688965</t>
   </si>
   <si>
     <t xml:space="preserve">11.148003578186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2464771270752</t>
+    <t xml:space="preserve">11.2464761734009</t>
   </si>
   <si>
     <t xml:space="preserve">11.1192827224731</t>
@@ -1367,55 +1367,55 @@
     <t xml:space="preserve">11.463939666748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9645099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8537292480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.541898727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6937103271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.755256652832</t>
+    <t xml:space="preserve">11.9645118713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8537302017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5418977737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6937112808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7552556991577</t>
   </si>
   <si>
     <t xml:space="preserve">11.6198539733887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9193782806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.354302406311</t>
+    <t xml:space="preserve">11.919379234314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.354305267334</t>
   </si>
   <si>
     <t xml:space="preserve">12.1737670898438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0876045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8085975646973</t>
+    <t xml:space="preserve">12.0876026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8085966110229</t>
   </si>
   <si>
     <t xml:space="preserve">11.7060194015503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8906574249268</t>
+    <t xml:space="preserve">11.8906555175781</t>
   </si>
   <si>
     <t xml:space="preserve">11.7429475784302</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9768209457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4035387039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6444721221924</t>
+    <t xml:space="preserve">11.9768199920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4035396575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6444730758667</t>
   </si>
   <si>
     <t xml:space="preserve">11.1726226806641</t>
@@ -1424,16 +1424,16 @@
     <t xml:space="preserve">11.201343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3490524291992</t>
+    <t xml:space="preserve">11.3490533828735</t>
   </si>
   <si>
     <t xml:space="preserve">11.2259635925293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4475259780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4885578155518</t>
+    <t xml:space="preserve">11.4475269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4885559082031</t>
   </si>
   <si>
     <t xml:space="preserve">11.4147024154663</t>
@@ -1442,40 +1442,40 @@
     <t xml:space="preserve">11.9398946762085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7019157409668</t>
+    <t xml:space="preserve">11.7019166946411</t>
   </si>
   <si>
     <t xml:space="preserve">11.7347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0670890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.276346206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3050651550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2230052947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2106952667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4363622665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5102195739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5471458435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7276792526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8220510482788</t>
+    <t xml:space="preserve">12.0670881271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2763442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3050661087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2230062484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2106962203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4363632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5102186203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5471467971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7276811599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8220520019531</t>
   </si>
   <si>
     <t xml:space="preserve">12.5389394760132</t>
@@ -1490,34 +1490,34 @@
     <t xml:space="preserve">12.7769174575806</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2241487503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.211841583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2405633926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5318794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2364568710327</t>
+    <t xml:space="preserve">13.2241497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2118396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2405624389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5318784713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2364597320557</t>
   </si>
   <si>
     <t xml:space="preserve">13.4539213180542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3513460159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3964786529541</t>
+    <t xml:space="preserve">13.3513441085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3964776992798</t>
   </si>
   <si>
     <t xml:space="preserve">13.3308296203613</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923740386963</t>
+    <t xml:space="preserve">13.3923749923706</t>
   </si>
   <si>
     <t xml:space="preserve">13.638560295105</t>
@@ -1526,10 +1526,10 @@
     <t xml:space="preserve">14.0857925415039</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0283470153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.186861038208</t>
+    <t xml:space="preserve">14.0283489227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1868619918823</t>
   </si>
   <si>
     <t xml:space="preserve">14.1952037811279</t>
@@ -1541,31 +1541,31 @@
     <t xml:space="preserve">13.5653257369995</t>
   </si>
   <si>
-    <t xml:space="preserve">13.231614112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0939598083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1648740768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2357883453369</t>
+    <t xml:space="preserve">13.2316150665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0939588546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1648731231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2357864379883</t>
   </si>
   <si>
     <t xml:space="preserve">12.8061351776123</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9646463394165</t>
+    <t xml:space="preserve">12.9646472930908</t>
   </si>
   <si>
     <t xml:space="preserve">12.693507194519</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6517934799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.018874168396</t>
+    <t xml:space="preserve">12.6517953872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0188760757446</t>
   </si>
   <si>
     <t xml:space="preserve">12.981333732605</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">13.0689325332642</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0981311798096</t>
+    <t xml:space="preserve">13.0981321334839</t>
   </si>
   <si>
     <t xml:space="preserve">12.9396190643311</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">13.1565313339233</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5475091934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5683650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4390525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4807682037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0856170654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5266523361206</t>
+    <t xml:space="preserve">12.547511100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5683660507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4390535354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.480767250061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.085618019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5266532897949</t>
   </si>
   <si>
     <t xml:space="preserve">12.5767087936401</t>
@@ -1607,67 +1607,67 @@
     <t xml:space="preserve">13.2191028594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1440162658691</t>
+    <t xml:space="preserve">13.1440172195435</t>
   </si>
   <si>
     <t xml:space="preserve">13.1106462478638</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0480737686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2566452026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2941875457764</t>
+    <t xml:space="preserve">13.0480756759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2566442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2941884994507</t>
   </si>
   <si>
     <t xml:space="preserve">13.2900152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3567562103271</t>
+    <t xml:space="preserve">13.3567571640015</t>
   </si>
   <si>
     <t xml:space="preserve">13.6988105773926</t>
   </si>
   <si>
-    <t xml:space="preserve">13.761381149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3650999069214</t>
+    <t xml:space="preserve">13.7613821029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3650989532471</t>
   </si>
   <si>
     <t xml:space="preserve">13.4276695251465</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2858438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2274417877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2399587631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1315011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1356716156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9145908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9896755218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0397329330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2263135910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4015111923218</t>
+    <t xml:space="preserve">13.2858448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2274436950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2399568557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1315021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1356725692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.914589881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9896764755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0397319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2263116836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4015121459961</t>
   </si>
   <si>
     <t xml:space="preserve">12.4098539352417</t>
@@ -1676,22 +1676,22 @@
     <t xml:space="preserve">12.626766204834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5808801651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809921264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4640817642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1595706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0636281967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428852081299</t>
+    <t xml:space="preserve">12.5808811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4640808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1595726013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0636301040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428842544556</t>
   </si>
   <si>
     <t xml:space="preserve">12.2471704483032</t>
@@ -1700,37 +1700,37 @@
     <t xml:space="preserve">12.2221412658691</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3514556884766</t>
+    <t xml:space="preserve">12.3514547348022</t>
   </si>
   <si>
     <t xml:space="preserve">12.7435636520386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5349950790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5391674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8383750915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0552845001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.026086807251</t>
+    <t xml:space="preserve">12.5349941253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5391664505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8383741378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0552854537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260887145996</t>
   </si>
   <si>
     <t xml:space="preserve">11.9468297958374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5922651290894</t>
+    <t xml:space="preserve">11.5922622680664</t>
   </si>
   <si>
     <t xml:space="preserve">11.4963216781616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3086109161377</t>
+    <t xml:space="preserve">11.3086090087891</t>
   </si>
   <si>
     <t xml:space="preserve">11.2001533508301</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">11.271068572998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5380353927612</t>
+    <t xml:space="preserve">11.5380344390869</t>
   </si>
   <si>
     <t xml:space="preserve">11.525520324707</t>
@@ -1748,43 +1748,43 @@
     <t xml:space="preserve">11.5296926498413</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5964345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7507762908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7591190338135</t>
+    <t xml:space="preserve">11.596435546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7507753372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7591180801392</t>
   </si>
   <si>
     <t xml:space="preserve">11.6882057189941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6047773361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7215757369995</t>
+    <t xml:space="preserve">11.6047763824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7215766906738</t>
   </si>
   <si>
     <t xml:space="preserve">12.3681392669678</t>
   </si>
   <si>
-    <t xml:space="preserve">12.272198677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2137994766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0386018753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3639678955078</t>
+    <t xml:space="preserve">12.2722005844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2137985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0386009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3639688491821</t>
   </si>
   <si>
     <t xml:space="preserve">12.4223680496216</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5975656509399</t>
+    <t xml:space="preserve">12.5975666046143</t>
   </si>
   <si>
     <t xml:space="preserve">12.2596836090088</t>
@@ -1796,28 +1796,28 @@
     <t xml:space="preserve">12.6100807189941</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2555131912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7382621765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7466049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7966623306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9259729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8508901596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840333938599</t>
+    <t xml:space="preserve">12.2555122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7382612228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7466039657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7966613769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9259738922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8508892059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840353012085</t>
   </si>
   <si>
     <t xml:space="preserve">11.4212369918823</t>
@@ -1829,37 +1829,37 @@
     <t xml:space="preserve">10.8581008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8205585479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7246170043945</t>
+    <t xml:space="preserve">10.8205595016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7246150970459</t>
   </si>
   <si>
     <t xml:space="preserve">10.7579879760742</t>
   </si>
   <si>
-    <t xml:space="preserve">10.641188621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9582166671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.137583732605</t>
+    <t xml:space="preserve">10.6411905288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9582147598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1375827789307</t>
   </si>
   <si>
     <t xml:space="preserve">11.20432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2084970474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1959838867188</t>
+    <t xml:space="preserve">11.2084980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1959829330444</t>
   </si>
   <si>
     <t xml:space="preserve">11.0916976928711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0541553497314</t>
+    <t xml:space="preserve">11.0541563034058</t>
   </si>
   <si>
     <t xml:space="preserve">10.7997007369995</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">10.3867349624634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2866201400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4117612838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3116483688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2062559127808</t>
+    <t xml:space="preserve">10.28662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4117631912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3116493225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2062568664551</t>
   </si>
   <si>
     <t xml:space="preserve">9.91958808898926</t>
@@ -1889,25 +1889,25 @@
     <t xml:space="preserve">10.1092948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96596050262451</t>
+    <t xml:space="preserve">9.9659595489502</t>
   </si>
   <si>
     <t xml:space="preserve">9.80154800415039</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0797843933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89007568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19026565551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13124847412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95840454101562</t>
+    <t xml:space="preserve">10.0797853469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89007663726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19026756286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13124942779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95840358734131</t>
   </si>
   <si>
     <t xml:space="preserve">9.26615142822266</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">9.14389514923096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97105121612549</t>
+    <t xml:space="preserve">8.9710521697998</t>
   </si>
   <si>
     <t xml:space="preserve">8.67595100402832</t>
@@ -1928,46 +1928,46 @@
     <t xml:space="preserve">8.43143844604492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54947948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64644050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62536144256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32014274597168</t>
+    <t xml:space="preserve">8.54947853088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64644145965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6253604888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32014465332031</t>
   </si>
   <si>
     <t xml:space="preserve">8.13127899169922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13296508789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78221797943115</t>
+    <t xml:space="preserve">8.13296604156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78221654891968</t>
   </si>
   <si>
     <t xml:space="preserve">7.79570865631104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74174690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02504253387451</t>
+    <t xml:space="preserve">7.74174737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927762985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02504348754883</t>
   </si>
   <si>
     <t xml:space="preserve">8.01155376434326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31339836120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44830322265625</t>
+    <t xml:space="preserve">8.31339645385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44830226898193</t>
   </si>
   <si>
     <t xml:space="preserve">8.49467468261719</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">8.74761772155762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76869583129883</t>
+    <t xml:space="preserve">8.76869678497314</t>
   </si>
   <si>
     <t xml:space="preserve">8.68859767913818</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">8.67173480987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98369789123535</t>
+    <t xml:space="preserve">8.98369884490967</t>
   </si>
   <si>
     <t xml:space="preserve">8.91203022003174</t>
@@ -2000,28 +2000,28 @@
     <t xml:space="preserve">8.85301113128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99634456634521</t>
+    <t xml:space="preserve">8.99634552001953</t>
   </si>
   <si>
     <t xml:space="preserve">9.30409240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05536556243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17340469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24507331848145</t>
+    <t xml:space="preserve">9.05536651611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17340564727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24507236480713</t>
   </si>
   <si>
     <t xml:space="preserve">9.23242568969727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41791725158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47693729400635</t>
+    <t xml:space="preserve">9.41791820526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47693634033203</t>
   </si>
   <si>
     <t xml:space="preserve">9.2408561706543</t>
@@ -2033,22 +2033,22 @@
     <t xml:space="preserve">9.2197790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43899440765381</t>
+    <t xml:space="preserve">9.43899631500244</t>
   </si>
   <si>
     <t xml:space="preserve">9.70880222320557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72144985198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94909858703613</t>
+    <t xml:space="preserve">9.72144889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94909954071045</t>
   </si>
   <si>
     <t xml:space="preserve">10.0081186294556</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0713529586792</t>
+    <t xml:space="preserve">10.0713539123535</t>
   </si>
   <si>
     <t xml:space="preserve">10.1177263259888</t>
@@ -2057,28 +2057,28 @@
     <t xml:space="preserve">10.2863550186157</t>
   </si>
   <si>
-    <t xml:space="preserve">10.155668258667</t>
+    <t xml:space="preserve">10.1556692123413</t>
   </si>
   <si>
     <t xml:space="preserve">10.1388053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0334129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0291976928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83948993682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90272426605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87321472167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99968814849854</t>
+    <t xml:space="preserve">10.0334119796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0291967391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8394889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90272521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87321281433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9996862411499</t>
   </si>
   <si>
     <t xml:space="preserve">9.75517463684082</t>
@@ -2096,25 +2096,25 @@
     <t xml:space="preserve">10.4339056015015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3833169937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4043951034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5266523361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5814561843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8681240081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7585153579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151819229126</t>
+    <t xml:space="preserve">10.3833160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4043960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.526650428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5814571380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.868124961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7585163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151828765869</t>
   </si>
   <si>
     <t xml:space="preserve">10.3622388839722</t>
@@ -2123,22 +2123,22 @@
     <t xml:space="preserve">10.5519466400146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8343982696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7247915267944</t>
+    <t xml:space="preserve">10.834400177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7247896194458</t>
   </si>
   <si>
     <t xml:space="preserve">10.6952800750732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4971418380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8133220672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807687759399</t>
+    <t xml:space="preserve">10.4971399307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8133201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807716369629</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898885726929</t>
@@ -2147,22 +2147,22 @@
     <t xml:space="preserve">10.4760627746582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5477304458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6025333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9608697891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0999889373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9945955276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782272338867</t>
+    <t xml:space="preserve">10.5477294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6025342941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9608707427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0999908447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9945964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782262802124</t>
   </si>
   <si>
     <t xml:space="preserve">11.133713722229</t>
@@ -2171,25 +2171,25 @@
     <t xml:space="preserve">10.8976345062256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4676322937012</t>
+    <t xml:space="preserve">10.4676332473755</t>
   </si>
   <si>
     <t xml:space="preserve">10.4381217956543</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2694940567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261587142944</t>
+    <t xml:space="preserve">10.269495010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1261577606201</t>
   </si>
   <si>
     <t xml:space="preserve">9.95331382751465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1303749084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92380332946777</t>
+    <t xml:space="preserve">10.1303730010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92380428314209</t>
   </si>
   <si>
     <t xml:space="preserve">9.84792137145996</t>
@@ -2198,55 +2198,55 @@
     <t xml:space="preserve">9.79733180999756</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0587062835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1345901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055723190308</t>
+    <t xml:space="preserve">10.0587072372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1345891952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055732727051</t>
   </si>
   <si>
     <t xml:space="preserve">10.5603771209717</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5690011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7285499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3922052383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95237064361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83162975311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65914440155029</t>
+    <t xml:space="preserve">10.5690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7285480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3922061920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95236873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83162879943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65914535522461</t>
   </si>
   <si>
     <t xml:space="preserve">9.65052032470703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50391006469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47372341156006</t>
+    <t xml:space="preserve">9.50390911102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47372531890869</t>
   </si>
   <si>
     <t xml:space="preserve">9.09856986999512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35729598999023</t>
+    <t xml:space="preserve">9.35729694366455</t>
   </si>
   <si>
     <t xml:space="preserve">9.58152675628662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2667407989502</t>
+    <t xml:space="preserve">9.26674270629883</t>
   </si>
   <si>
     <t xml:space="preserve">9.27536582946777</t>
@@ -2255,16 +2255,16 @@
     <t xml:space="preserve">9.25811767578125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55565452575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43060207366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31417465209961</t>
+    <t xml:space="preserve">9.55565357208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69795322418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43060302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31417560577393</t>
   </si>
   <si>
     <t xml:space="preserve">9.36160850524902</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">9.90493583679199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7540111541748</t>
+    <t xml:space="preserve">9.75401210784912</t>
   </si>
   <si>
     <t xml:space="preserve">9.64620876312256</t>
@@ -2288,46 +2288,46 @@
     <t xml:space="preserve">9.93512058258057</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89199924468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9264965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1765995025635</t>
+    <t xml:space="preserve">9.89200019836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92649555206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1766004562378</t>
   </si>
   <si>
     <t xml:space="preserve">9.93943214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96099472045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0644845962524</t>
+    <t xml:space="preserve">9.96099376678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0644836425781</t>
   </si>
   <si>
     <t xml:space="preserve">10.0601711273193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2844018936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1852235794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3404598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5301923751831</t>
+    <t xml:space="preserve">10.28440284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1852245330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3404588699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5301933288574</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827585220337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.362021446228</t>
+    <t xml:space="preserve">10.3663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3620195388794</t>
   </si>
   <si>
     <t xml:space="preserve">9.96530532836914</t>
@@ -2339,37 +2339,37 @@
     <t xml:space="preserve">9.61602401733398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74538516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81869316101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1119174957275</t>
+    <t xml:space="preserve">9.74538612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81869220733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1119184494019</t>
   </si>
   <si>
     <t xml:space="preserve">10.0256748199463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77125930786133</t>
+    <t xml:space="preserve">9.77126026153564</t>
   </si>
   <si>
     <t xml:space="preserve">9.41766548156738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18912410736084</t>
+    <t xml:space="preserve">9.18912506103516</t>
   </si>
   <si>
     <t xml:space="preserve">9.02957534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81828117370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74497604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9045238494873</t>
+    <t xml:space="preserve">8.81828308105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74497509002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90452289581299</t>
   </si>
   <si>
     <t xml:space="preserve">8.72772693634033</t>
@@ -2378,19 +2378,19 @@
     <t xml:space="preserve">8.44485282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58456420898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13782978057861</t>
+    <t xml:space="preserve">8.58456516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1378288269043</t>
   </si>
   <si>
     <t xml:space="preserve">8.17922592163086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4896993637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.317214012146</t>
+    <t xml:space="preserve">8.48969841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31721305847168</t>
   </si>
   <si>
     <t xml:space="preserve">8.41725540161133</t>
@@ -2405,22 +2405,22 @@
     <t xml:space="preserve">8.50867176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56559085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66304492950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60698890686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55006694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50349712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28788948059082</t>
+    <t xml:space="preserve">8.56559181213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66304588317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60698795318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55006980895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50349521636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28789043426514</t>
   </si>
   <si>
     <t xml:space="preserve">8.43967819213867</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">8.65873336791992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61561298370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87002658843994</t>
+    <t xml:space="preserve">8.61561107635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87002754211426</t>
   </si>
   <si>
     <t xml:space="preserve">8.97351741790771</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">8.89589881896973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76653480529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82690811157227</t>
+    <t xml:space="preserve">8.7665376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82690620422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.07269668579102</t>
@@ -2453,19 +2453,19 @@
     <t xml:space="preserve">8.90021133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77084922790527</t>
+    <t xml:space="preserve">8.77084732055664</t>
   </si>
   <si>
     <t xml:space="preserve">8.66735744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64579677581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40518093109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2844409942627</t>
+    <t xml:space="preserve">8.64579772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40517997741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28444194793701</t>
   </si>
   <si>
     <t xml:space="preserve">8.27926826477051</t>
@@ -2474,13 +2474,13 @@
     <t xml:space="preserve">8.14990234375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44312763214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39483261108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23787021636963</t>
+    <t xml:space="preserve">8.4431266784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39483165740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23786926269531</t>
   </si>
   <si>
     <t xml:space="preserve">7.89462566375732</t>
@@ -2489,31 +2489,31 @@
     <t xml:space="preserve">7.97396945953369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95844507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05158615112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91704845428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95326995849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0291633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3085880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08953475952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19647407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16370105743408</t>
+    <t xml:space="preserve">7.95844316482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05158805847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91704940795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95327138900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02916526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30858993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08953380584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19647598266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1637020111084</t>
   </si>
   <si>
     <t xml:space="preserve">8.06366157531738</t>
@@ -2522,67 +2522,67 @@
     <t xml:space="preserve">8.02054023742676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07918357849121</t>
+    <t xml:space="preserve">8.07918453216553</t>
   </si>
   <si>
     <t xml:space="preserve">8.09988307952881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12058162689209</t>
+    <t xml:space="preserve">8.12058067321777</t>
   </si>
   <si>
     <t xml:space="preserve">8.03261375427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11023426055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2344217300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31376361846924</t>
+    <t xml:space="preserve">8.11023139953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23442077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31376457214355</t>
   </si>
   <si>
     <t xml:space="preserve">8.07400989532471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80838298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47417449951172</t>
+    <t xml:space="preserve">7.80838489532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47417545318604</t>
   </si>
   <si>
     <t xml:space="preserve">8.6207857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77516078948975</t>
+    <t xml:space="preserve">8.77515983581543</t>
   </si>
   <si>
     <t xml:space="preserve">8.62854766845703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64148616790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68460559844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54489326477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54316902160645</t>
+    <t xml:space="preserve">8.6414852142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68460464477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54489421844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54316806793213</t>
   </si>
   <si>
     <t xml:space="preserve">8.539719581604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46631240844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39115619659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52923202514648</t>
+    <t xml:space="preserve">8.46631050109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39115715026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52923107147217</t>
   </si>
   <si>
     <t xml:space="preserve">8.47854614257812</t>
@@ -2591,16 +2591,16 @@
     <t xml:space="preserve">8.61312580108643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59390068054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59914302825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52573585510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53971862792969</t>
+    <t xml:space="preserve">8.59389972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59914207458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52573680877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53971767425537</t>
   </si>
   <si>
     <t xml:space="preserve">8.43485164642334</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">8.28279304504395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22511672973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39989471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47679805755615</t>
+    <t xml:space="preserve">8.2251148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39989566802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47679710388184</t>
   </si>
   <si>
     <t xml:space="preserve">8.65856838226318</t>
@@ -2630,16 +2630,16 @@
     <t xml:space="preserve">8.74770641326904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99676704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90063953399658</t>
+    <t xml:space="preserve">8.99676609039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90063858032227</t>
   </si>
   <si>
     <t xml:space="preserve">8.92248439788818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86568260192871</t>
+    <t xml:space="preserve">8.86568355560303</t>
   </si>
   <si>
     <t xml:space="preserve">8.84820461273193</t>
@@ -2648,94 +2648,94 @@
     <t xml:space="preserve">8.83509635925293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88752937316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744037628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81761837005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78266143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8263578414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94433403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18465518951416</t>
+    <t xml:space="preserve">8.88752746582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81761932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7826623916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82635879516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94433307647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18465423583984</t>
   </si>
   <si>
     <t xml:space="preserve">9.17154598236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15406799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07541751861572</t>
+    <t xml:space="preserve">9.15406703948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07541847229004</t>
   </si>
   <si>
     <t xml:space="preserve">9.07104778289795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90937805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85694313049316</t>
+    <t xml:space="preserve">8.9093770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85694408416748</t>
   </si>
   <si>
     <t xml:space="preserve">8.91374683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99239826202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96617889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93122386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87442016601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83072662353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4960241317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63235282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73721981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30900955200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15170764923096</t>
+    <t xml:space="preserve">8.99239730834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9661808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93122482299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87442111968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83072566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49602508544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63235187530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73721885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30901050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15170860290527</t>
   </si>
   <si>
     <t xml:space="preserve">8.05732822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22686290740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33872318267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36319255828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21113395690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26181888580322</t>
+    <t xml:space="preserve">8.22686386108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33872127532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36319160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21113204956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26181983947754</t>
   </si>
   <si>
     <t xml:space="preserve">8.32998275756836</t>
@@ -2744,31 +2744,31 @@
     <t xml:space="preserve">8.4418420791626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41562461853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22861194610596</t>
+    <t xml:space="preserve">8.41562557220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22861099243164</t>
   </si>
   <si>
     <t xml:space="preserve">8.26706314086914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57292652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19190692901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77767992019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67281246185303</t>
+    <t xml:space="preserve">8.5729284286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19190788269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77768087387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67281293869019</t>
   </si>
   <si>
     <t xml:space="preserve">7.69029140472412</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35471534729004</t>
+    <t xml:space="preserve">7.35471487045288</t>
   </si>
   <si>
     <t xml:space="preserve">7.13798856735229</t>
@@ -2780,40 +2780,40 @@
     <t xml:space="preserve">7.11701488494873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93349647521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80590724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4144024848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0423846244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91129970550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80992794036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08983707427979</t>
+    <t xml:space="preserve">6.93349695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.805908203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41440200805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04238367080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91129875183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80992841720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08983659744263</t>
   </si>
   <si>
     <t xml:space="preserve">4.1938304901123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204833030701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06012487411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15974807739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38521385192871</t>
+    <t xml:space="preserve">3.92204761505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06012392044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15974855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38521337509155</t>
   </si>
   <si>
     <t xml:space="preserve">4.56174087524414</t>
@@ -2822,76 +2822,76 @@
     <t xml:space="preserve">4.49532508850098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67534732818604</t>
+    <t xml:space="preserve">4.67534780502319</t>
   </si>
   <si>
     <t xml:space="preserve">4.70331192016602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96373319625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8658561706543</t>
+    <t xml:space="preserve">4.96373271942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86585664749146</t>
   </si>
   <si>
     <t xml:space="preserve">4.83964061737061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87634372711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79244947433472</t>
+    <t xml:space="preserve">4.87634325027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79244995117188</t>
   </si>
   <si>
     <t xml:space="preserve">5.01267194747925</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0476279258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17346906661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41116857528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28707504272461</t>
+    <t xml:space="preserve">5.04762744903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17346858978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41116809844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28707551956177</t>
   </si>
   <si>
     <t xml:space="preserve">5.24862384796143</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17871236801147</t>
+    <t xml:space="preserve">5.17871189117432</t>
   </si>
   <si>
     <t xml:space="preserve">4.94625520706177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03714036941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06860065460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03888845443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78720664978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93576860427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13152122497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17172145843506</t>
+    <t xml:space="preserve">5.03713989257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06860113143921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0388879776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78720617294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93576908111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13152170181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17172050476074</t>
   </si>
   <si>
     <t xml:space="preserve">5.16298198699951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26260614395142</t>
+    <t xml:space="preserve">5.26260566711426</t>
   </si>
   <si>
     <t xml:space="preserve">5.57021808624268</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">5.53176593780518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31853628158569</t>
+    <t xml:space="preserve">5.31853580474854</t>
   </si>
   <si>
     <t xml:space="preserve">5.39893388748169</t>
@@ -2918,13 +2918,13 @@
     <t xml:space="preserve">5.34650039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25211954116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02315855026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05461883544922</t>
+    <t xml:space="preserve">5.25211906433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02315950393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05461835861206</t>
   </si>
   <si>
     <t xml:space="preserve">5.439133644104</t>
@@ -2933,16 +2933,16 @@
     <t xml:space="preserve">4.95499467849731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11404323577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86236095428467</t>
+    <t xml:space="preserve">5.11404371261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86236143112183</t>
   </si>
   <si>
     <t xml:space="preserve">4.84837865829468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89382123947144</t>
+    <t xml:space="preserve">4.89382171630859</t>
   </si>
   <si>
     <t xml:space="preserve">4.97072505950928</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">4.88683080673218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10705280303955</t>
+    <t xml:space="preserve">5.10705232620239</t>
   </si>
   <si>
     <t xml:space="preserve">5.32028245925903</t>
@@ -2972,37 +2972,37 @@
     <t xml:space="preserve">5.93900203704834</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02639150619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91977643966675</t>
+    <t xml:space="preserve">6.02639198303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91977596282959</t>
   </si>
   <si>
     <t xml:space="preserve">5.83588218688965</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46534967422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47059297561646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46360206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40942049026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40767288208008</t>
+    <t xml:space="preserve">5.46535015106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47059392929077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46360158920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40942096710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40767335891724</t>
   </si>
   <si>
     <t xml:space="preserve">5.31503915786743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42165517807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08607912063599</t>
+    <t xml:space="preserve">5.42165565490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08607959747314</t>
   </si>
   <si>
     <t xml:space="preserve">5.15249490737915</t>
@@ -3014,10 +3014,10 @@
     <t xml:space="preserve">5.07559251785278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96198511123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11579132080078</t>
+    <t xml:space="preserve">4.96198606491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11579084396362</t>
   </si>
   <si>
     <t xml:space="preserve">5.02141046524048</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">5.10880041122437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02665376663208</t>
+    <t xml:space="preserve">5.02665424346924</t>
   </si>
   <si>
     <t xml:space="preserve">4.84663105010986</t>
@@ -3044,31 +3044,31 @@
     <t xml:space="preserve">5.01616716384888</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02490615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15948581695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04413175582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95848989486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92178678512573</t>
+    <t xml:space="preserve">5.02490663528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15948629379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0441312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95848941802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92178630828857</t>
   </si>
   <si>
     <t xml:space="preserve">4.82915353775024</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73477220535278</t>
+    <t xml:space="preserve">4.73477268218994</t>
   </si>
   <si>
     <t xml:space="preserve">4.50406360626221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42016935348511</t>
+    <t xml:space="preserve">4.42016983032227</t>
   </si>
   <si>
     <t xml:space="preserve">4.31005907058716</t>
@@ -3083,97 +3083,97 @@
     <t xml:space="preserve">4.72952890396118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44289112091064</t>
+    <t xml:space="preserve">4.44289064407349</t>
   </si>
   <si>
     <t xml:space="preserve">4.5232892036438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67709493637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65437412261963</t>
+    <t xml:space="preserve">4.67709589004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65437364578247</t>
   </si>
   <si>
     <t xml:space="preserve">4.55649757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50930690765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46910762786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42541265487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32753610610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30831098556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45337820053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40269136428833</t>
+    <t xml:space="preserve">4.50930738449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46910715103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42541313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32753705978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30831003189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45337772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40269184112549</t>
   </si>
   <si>
     <t xml:space="preserve">4.35812282562256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27859830856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3048152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29957151412964</t>
+    <t xml:space="preserve">4.27859878540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30481481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29957103729248</t>
   </si>
   <si>
     <t xml:space="preserve">4.21742582321167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17722606658936</t>
+    <t xml:space="preserve">4.1772255897522</t>
   </si>
   <si>
     <t xml:space="preserve">4.20606517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2182993888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19208240509033</t>
+    <t xml:space="preserve">4.21829986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19208192825317</t>
   </si>
   <si>
     <t xml:space="preserve">4.0478892326355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05313348770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03390741348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98496913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95088648796082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0076904296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17460489273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17810010910034</t>
+    <t xml:space="preserve">4.05313301086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03390693664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98496842384338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95088720321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00768947601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1746039390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17809963226318</t>
   </si>
   <si>
     <t xml:space="preserve">4.06274604797363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79620718955994</t>
+    <t xml:space="preserve">3.79620695114136</t>
   </si>
   <si>
     <t xml:space="preserve">3.75426030158997</t>
@@ -3182,64 +3182,64 @@
     <t xml:space="preserve">3.7228000164032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64677119255066</t>
+    <t xml:space="preserve">3.64677095413208</t>
   </si>
   <si>
     <t xml:space="preserve">3.58210253715515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72979187965393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61006712913513</t>
+    <t xml:space="preserve">3.72979140281677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61006760597229</t>
   </si>
   <si>
     <t xml:space="preserve">3.72367382049561</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62841892242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71231365203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74901676177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85213708877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77523446083069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89058804512024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86349701881409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79882979393005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70444798469543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80319857597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61356329917908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74377346038818</t>
+    <t xml:space="preserve">3.62841939926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71231412887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74901723861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85213685035706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77523422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89058828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86349725723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79882955551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70444822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80319929122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6135630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74377369880676</t>
   </si>
   <si>
     <t xml:space="preserve">3.82329773902893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91243553161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81543326377869</t>
+    <t xml:space="preserve">3.91243529319763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81543302536011</t>
   </si>
   <si>
     <t xml:space="preserve">3.83553266525269</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">3.66337513923645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55326414108276</t>
+    <t xml:space="preserve">3.55326390266418</t>
   </si>
   <si>
     <t xml:space="preserve">3.34527683258057</t>
@@ -3263,31 +3263,31 @@
     <t xml:space="preserve">3.55850744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74464726448059</t>
+    <t xml:space="preserve">3.74464750289917</t>
   </si>
   <si>
     <t xml:space="preserve">3.83291125297546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42191743850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3991961479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81866645812988</t>
+    <t xml:space="preserve">4.42191791534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39919567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81866693496704</t>
   </si>
   <si>
     <t xml:space="preserve">4.88857793807983</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8990650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93052577972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0039324760437</t>
+    <t xml:space="preserve">4.89906454086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93052625656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00393295288086</t>
   </si>
   <si>
     <t xml:space="preserve">5.39194250106812</t>
@@ -3296,10 +3296,10 @@
     <t xml:space="preserve">5.49506235122681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55973100662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4758358001709</t>
+    <t xml:space="preserve">5.55973148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47583675384521</t>
   </si>
   <si>
     <t xml:space="preserve">5.46185445785522</t>
@@ -3308,25 +3308,25 @@
     <t xml:space="preserve">5.68633937835693</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04515981674194</t>
+    <t xml:space="preserve">6.04515933990479</t>
   </si>
   <si>
     <t xml:space="preserve">5.98682880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90552043914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92496347427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73229551315308</t>
+    <t xml:space="preserve">5.90551996231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92496299743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73229598999023</t>
   </si>
   <si>
     <t xml:space="preserve">5.82067537307739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84895706176758</t>
+    <t xml:space="preserve">5.84895658493042</t>
   </si>
   <si>
     <t xml:space="preserve">5.88430833816528</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">6.12470054626465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01334285736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02218055725098</t>
+    <t xml:space="preserve">6.013343334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02218103408813</t>
   </si>
   <si>
     <t xml:space="preserve">6.02571582794189</t>
@@ -3353,13 +3353,13 @@
     <t xml:space="preserve">5.93203353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0045051574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97445631027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03278684616089</t>
+    <t xml:space="preserve">6.00450563430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97445583343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03278636932373</t>
   </si>
   <si>
     <t xml:space="preserve">5.94440650939941</t>
@@ -3368,13 +3368,13 @@
     <t xml:space="preserve">5.78885889053345</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77295112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93380117416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89137935638428</t>
+    <t xml:space="preserve">5.77295064926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93380165100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89137887954712</t>
   </si>
   <si>
     <t xml:space="preserve">5.81183767318726</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">5.77648496627808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98329305648804</t>
+    <t xml:space="preserve">5.9832935333252</t>
   </si>
   <si>
     <t xml:space="preserve">6.30322742462158</t>
@@ -3401,19 +3401,19 @@
     <t xml:space="preserve">6.14591217041016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32267141342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23429203033447</t>
+    <t xml:space="preserve">6.32267093658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23429107666016</t>
   </si>
   <si>
     <t xml:space="preserve">6.28908681869507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96561813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94970941543579</t>
+    <t xml:space="preserve">5.96561765670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94970989227295</t>
   </si>
   <si>
     <t xml:space="preserve">5.75881004333496</t>
@@ -3422,64 +3422,64 @@
     <t xml:space="preserve">5.55907201766968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46008682250977</t>
+    <t xml:space="preserve">5.46008729934692</t>
   </si>
   <si>
     <t xml:space="preserve">5.53255844116211</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6280083656311</t>
+    <t xml:space="preserve">5.62800788879395</t>
   </si>
   <si>
     <t xml:space="preserve">5.79946422576904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68280267715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6739649772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90905523300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00273656845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12293291091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25196695327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14060878753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21484851837158</t>
+    <t xml:space="preserve">5.6828031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67396545410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90905475616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00273704528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12293338775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25196743011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14060926437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21484804153442</t>
   </si>
   <si>
     <t xml:space="preserve">6.2219181060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28378438949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65497827529907</t>
+    <t xml:space="preserve">6.28378486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65497875213623</t>
   </si>
   <si>
     <t xml:space="preserve">6.66558361053467</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51533842086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36332559585571</t>
+    <t xml:space="preserve">6.51533889770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36332607269287</t>
   </si>
   <si>
     <t xml:space="preserve">6.39514207839966</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63553524017334</t>
+    <t xml:space="preserve">6.63553476333618</t>
   </si>
   <si>
     <t xml:space="preserve">6.56659841537476</t>
@@ -3488,31 +3488,31 @@
     <t xml:space="preserve">6.79461765289307</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7279052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6412935256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81805324554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94531965255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9276442527771</t>
+    <t xml:space="preserve">7.72790575027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64129304885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81805276870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94531869888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92764377593994</t>
   </si>
   <si>
     <t xml:space="preserve">8.20869064331055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46322345733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58695411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44024562835693</t>
+    <t xml:space="preserve">8.46322250366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58695316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4402437210083</t>
   </si>
   <si>
     <t xml:space="preserve">8.55160236358643</t>
@@ -3521,43 +3521,43 @@
     <t xml:space="preserve">8.75841045379639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76371288299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54630088806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57104682922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53746128082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43140697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24050617218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17157173156738</t>
+    <t xml:space="preserve">8.76371383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54630184173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57104587554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53746223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43140602111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24050807952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17157077789307</t>
   </si>
   <si>
     <t xml:space="preserve">8.03369903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33242225646973</t>
+    <t xml:space="preserve">8.33242130279541</t>
   </si>
   <si>
     <t xml:space="preserve">8.10970497131348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40489196777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45084953308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53569412231445</t>
+    <t xml:space="preserve">8.40489387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45084857940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53569602966309</t>
   </si>
   <si>
     <t xml:space="preserve">8.49503993988037</t>
@@ -3566,10 +3566,10 @@
     <t xml:space="preserve">8.54099655151367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54983425140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41549873352051</t>
+    <t xml:space="preserve">8.54983520507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41549968719482</t>
   </si>
   <si>
     <t xml:space="preserve">8.19985198974609</t>
@@ -3584,61 +3584,61 @@
     <t xml:space="preserve">8.04430484771729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43317413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12561511993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10086822509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15919780731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79684066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87638330459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86931324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8481011390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11854362487793</t>
+    <t xml:space="preserve">8.43317317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12561416625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10086727142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1591968536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79683971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87638282775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86931276321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84810256958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11854267120361</t>
   </si>
   <si>
     <t xml:space="preserve">7.94885492324829</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21576023101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65896987915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91703844070435</t>
+    <t xml:space="preserve">8.21575927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65896892547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91703796386719</t>
   </si>
   <si>
     <t xml:space="preserve">7.98774147033691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05314350128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41372966766357</t>
+    <t xml:space="preserve">8.05314254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41373062133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.5675106048584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65412330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44908237457275</t>
+    <t xml:space="preserve">8.65412425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44908142089844</t>
   </si>
   <si>
     <t xml:space="preserve">8.73366451263428</t>
@@ -3647,70 +3647,70 @@
     <t xml:space="preserve">8.64174938201904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66119289398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56927871704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33418941497803</t>
+    <t xml:space="preserve">8.66119384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5692777633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33418846130371</t>
   </si>
   <si>
     <t xml:space="preserve">8.28292846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36070251464844</t>
+    <t xml:space="preserve">8.36070346832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.39120388031006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22614288330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25125980377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48270511627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39299774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36967372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59573554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69441509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76797294616699</t>
+    <t xml:space="preserve">8.22614097595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25126075744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48270416259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3929967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36967277526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59573459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69441318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76797389984131</t>
   </si>
   <si>
     <t xml:space="preserve">8.63700199127197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64776515960693</t>
+    <t xml:space="preserve">8.64776706695557</t>
   </si>
   <si>
     <t xml:space="preserve">8.61547088623047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55447006225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56702899932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74106311798096</t>
+    <t xml:space="preserve">8.55447101593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56702995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74106121063232</t>
   </si>
   <si>
     <t xml:space="preserve">8.583176612854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57241058349609</t>
+    <t xml:space="preserve">8.57241249084473</t>
   </si>
   <si>
     <t xml:space="preserve">8.38043880462646</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">8.35352611541748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40914535522461</t>
+    <t xml:space="preserve">8.40914440155029</t>
   </si>
   <si>
     <t xml:space="preserve">8.46117496490479</t>
@@ -3734,19 +3734,19 @@
     <t xml:space="preserve">8.50961685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22793579101562</t>
+    <t xml:space="preserve">8.22793674468994</t>
   </si>
   <si>
     <t xml:space="preserve">8.22973155975342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24587726593018</t>
+    <t xml:space="preserve">8.24587821960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.4037618637085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39838123321533</t>
+    <t xml:space="preserve">8.39838027954102</t>
   </si>
   <si>
     <t xml:space="preserve">8.45758724212646</t>
@@ -3758,22 +3758,22 @@
     <t xml:space="preserve">7.93908023834229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82963609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07543563842773</t>
+    <t xml:space="preserve">7.82963705062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07543468475342</t>
   </si>
   <si>
     <t xml:space="preserve">8.04672908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87448978424072</t>
+    <t xml:space="preserve">7.87449073791504</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263999938965</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87090349197388</t>
+    <t xml:space="preserve">7.87090253829956</t>
   </si>
   <si>
     <t xml:space="preserve">7.64842891693115</t>
@@ -3788,106 +3788,106 @@
     <t xml:space="preserve">7.65740013122559</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57128000259399</t>
+    <t xml:space="preserve">7.57127952575684</t>
   </si>
   <si>
     <t xml:space="preserve">7.65919351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87987422943115</t>
+    <t xml:space="preserve">7.87987375259399</t>
   </si>
   <si>
     <t xml:space="preserve">7.80990171432495</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8762845993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8726954460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69328165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75787115097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80810785293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70584154129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67893028259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88884305953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84578466415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90319681167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69866466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73275423049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37392520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31471824645996</t>
+    <t xml:space="preserve">7.87628364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87269687652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69328212738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75787019729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80810737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70584201812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6789288520813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88884401321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84578418731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89243268966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90319776535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69866371154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73275327682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37392473220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31471872329712</t>
   </si>
   <si>
     <t xml:space="preserve">7.45466184616089</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47798538208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54436826705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61434030532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73634052276611</t>
+    <t xml:space="preserve">7.47798585891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54436779022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61433982849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73634147644043</t>
   </si>
   <si>
     <t xml:space="preserve">7.65201711654663</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74172496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61792755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60357618331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53539657592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47977924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44748449325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70404815673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65022277832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77760791778564</t>
+    <t xml:space="preserve">7.74172449111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61792802810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60357522964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53539705276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47977876663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44748497009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404720306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.650221824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77760648727417</t>
   </si>
   <si>
     <t xml:space="preserve">7.52822160720825</t>
@@ -3896,76 +3896,76 @@
     <t xml:space="preserve">7.24833488464355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24654102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6233115196228</t>
+    <t xml:space="preserve">7.24654150009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62331056594849</t>
   </si>
   <si>
     <t xml:space="preserve">7.68431186676025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72378253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98393201828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625663757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01084518432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15617179870605</t>
+    <t xml:space="preserve">7.72378158569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98393249511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625520706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01084613800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15617084503174</t>
   </si>
   <si>
     <t xml:space="preserve">8.14540576934814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37146759033203</t>
+    <t xml:space="preserve">8.37146854400635</t>
   </si>
   <si>
     <t xml:space="preserve">8.09516906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22255420684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59932422637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80385684967041</t>
+    <t xml:space="preserve">8.22255516052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59932518005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80385589599609</t>
   </si>
   <si>
     <t xml:space="preserve">8.65673542022705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5437068939209</t>
+    <t xml:space="preserve">8.54370594024658</t>
   </si>
   <si>
     <t xml:space="preserve">8.59035301208496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85947513580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80744457244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91868209838867</t>
+    <t xml:space="preserve">8.85947608947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8074426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91868114471436</t>
   </si>
   <si>
     <t xml:space="preserve">9.07387447357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89715194702148</t>
+    <t xml:space="preserve">8.8971529006958</t>
   </si>
   <si>
     <t xml:space="preserve">8.84691524505615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02902030944824</t>
+    <t xml:space="preserve">9.02902126312256</t>
   </si>
   <si>
     <t xml:space="preserve">9.02005004882812</t>
@@ -3977,13 +3977,13 @@
     <t xml:space="preserve">8.6352071762085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63879585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87203311920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83794498443604</t>
+    <t xml:space="preserve">8.63879489898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87203502655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83794403076172</t>
   </si>
   <si>
     <t xml:space="preserve">8.72491359710693</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">9.27122974395752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52689647674561</t>
+    <t xml:space="preserve">9.52689456939697</t>
   </si>
   <si>
     <t xml:space="preserve">9.78256034851074</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">9.41027641296387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.311598777771</t>
+    <t xml:space="preserve">9.31159973144531</t>
   </si>
   <si>
     <t xml:space="preserve">9.20843601226807</t>
@@ -4013,16 +4013,16 @@
     <t xml:space="preserve">9.18600749969482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99313831329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73926639556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51499843597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71873378753662</t>
+    <t xml:space="preserve">8.99313640594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73926734924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51499938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7187328338623</t>
   </si>
   <si>
     <t xml:space="preserve">8.66234302520752</t>
@@ -4034,25 +4034,25 @@
     <t xml:space="preserve">8.65506649017334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04204368591309</t>
+    <t xml:space="preserve">8.0420446395874</t>
   </si>
   <si>
     <t xml:space="preserve">8.11480617523193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87832975387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20394229888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1257209777832</t>
+    <t xml:space="preserve">7.87833023071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20394134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12572002410889</t>
   </si>
   <si>
     <t xml:space="preserve">8.14936923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26942729949951</t>
+    <t xml:space="preserve">8.2694263458252</t>
   </si>
   <si>
     <t xml:space="preserve">8.45315074920654</t>
@@ -4061,31 +4061,31 @@
     <t xml:space="preserve">8.34946537017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18211269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11116981506348</t>
+    <t xml:space="preserve">8.1821117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11116790771484</t>
   </si>
   <si>
     <t xml:space="preserve">8.03840732574463</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30762767791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05113983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28215980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21121692657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02749252319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29125499725342</t>
+    <t xml:space="preserve">8.30762672424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05113887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28216075897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21121597290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02749347686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2912540435791</t>
   </si>
   <si>
     <t xml:space="preserve">8.28943634033203</t>
@@ -4100,19 +4100,19 @@
     <t xml:space="preserve">8.46042728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44587421417236</t>
+    <t xml:space="preserve">8.44587516784668</t>
   </si>
   <si>
     <t xml:space="preserve">8.37675094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70781803131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82787704467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89518165588379</t>
+    <t xml:space="preserve">8.70781898498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82787609100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89518260955811</t>
   </si>
   <si>
     <t xml:space="preserve">8.89700126647949</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">8.86607646942139</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04798316955566</t>
+    <t xml:space="preserve">9.04798221588135</t>
   </si>
   <si>
     <t xml:space="preserve">9.12711048126221</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">9.1498498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33175563812256</t>
+    <t xml:space="preserve">9.33175468444824</t>
   </si>
   <si>
     <t xml:space="preserve">9.55458927154541</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">9.42270755767822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95884799957275</t>
+    <t xml:space="preserve">8.95884895324707</t>
   </si>
   <si>
     <t xml:space="preserve">9.37268447875977</t>
@@ -4163,19 +4163,19 @@
     <t xml:space="preserve">10.3731632232666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3140449523926</t>
+    <t xml:space="preserve">10.3140459060669</t>
   </si>
   <si>
     <t xml:space="preserve">10.1821632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3868083953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959035873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3049507141113</t>
+    <t xml:space="preserve">10.3868064880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.395902633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.304949760437</t>
   </si>
   <si>
     <t xml:space="preserve">10.4140930175781</t>
@@ -4193,13 +4193,13 @@
     <t xml:space="preserve">10.5414266586304</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7824516296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4777603149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2822113037109</t>
+    <t xml:space="preserve">10.7824506759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4777612686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2822122573853</t>
   </si>
   <si>
     <t xml:space="preserve">9.95932865142822</t>
@@ -4211,43 +4211,43 @@
     <t xml:space="preserve">9.93659210205078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82744789123535</t>
+    <t xml:space="preserve">9.82744884490967</t>
   </si>
   <si>
     <t xml:space="preserve">10.1321401596069</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4959516525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4049968719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9188814163208</t>
+    <t xml:space="preserve">10.4959506988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4049978256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9188823699951</t>
   </si>
   <si>
     <t xml:space="preserve">10.6960468292236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5050458908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8738851547241</t>
+    <t xml:space="preserve">10.5050468444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8738861083984</t>
   </si>
   <si>
     <t xml:space="preserve">12.2558870315552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5782890319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7601938247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7556457519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645967483521</t>
+    <t xml:space="preserve">11.5782880783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7601947784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7556467056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645977020264</t>
   </si>
   <si>
     <t xml:space="preserve">11.0825958251953</t>
@@ -4256,10 +4256,10 @@
     <t xml:space="preserve">11.319073677063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5009794235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2013149261475</t>
+    <t xml:space="preserve">11.5009784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2013158798218</t>
   </si>
   <si>
     <t xml:space="preserve">12.2695293426514</t>
@@ -4277,58 +4277,58 @@
     <t xml:space="preserve">12.6651735305786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3195543289185</t>
+    <t xml:space="preserve">12.3195533752441</t>
   </si>
   <si>
     <t xml:space="preserve">12.5287446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.510555267334</t>
+    <t xml:space="preserve">12.5105543136597</t>
   </si>
   <si>
     <t xml:space="preserve">12.6333417892456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6242446899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7288417816162</t>
+    <t xml:space="preserve">12.6242456436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7288408279419</t>
   </si>
   <si>
     <t xml:space="preserve">12.5878648757935</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6424369812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2108907699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0881052017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5110349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6247262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6974897384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6656551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6338205337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2654619216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3604831695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7970552444458</t>
+    <t xml:space="preserve">12.6424360275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2108917236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0881061553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5110359191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6247253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.69748878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6656541824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6338214874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2654628753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3604822158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7970542907715</t>
   </si>
   <si>
     <t xml:space="preserve">12.7379369735718</t>
@@ -4337,13 +4337,13 @@
     <t xml:space="preserve">13.4701061248779</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9516744613647</t>
+    <t xml:space="preserve">12.9516754150391</t>
   </si>
   <si>
     <t xml:space="preserve">13.5428686141968</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3882493972778</t>
+    <t xml:space="preserve">13.3882503509521</t>
   </si>
   <si>
     <t xml:space="preserve">13.3245820999146</t>
@@ -4355,19 +4355,19 @@
     <t xml:space="preserve">12.7151985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8425312042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.283652305603</t>
+    <t xml:space="preserve">12.8425331115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2836513519287</t>
   </si>
   <si>
     <t xml:space="preserve">12.9334859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4200830459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9930849075317</t>
+    <t xml:space="preserve">13.4200820922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9930858612061</t>
   </si>
   <si>
     <t xml:space="preserve">14.1795377731323</t>
@@ -4376,13 +4376,13 @@
     <t xml:space="preserve">14.0931329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7293214797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9112272262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2216005325317</t>
+    <t xml:space="preserve">13.7293224334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.911226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2216014862061</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270376205444</t>
@@ -4391,19 +4391,19 @@
     <t xml:space="preserve">14.2818222045898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6709480285645</t>
+    <t xml:space="preserve">14.6709489822388</t>
   </si>
   <si>
     <t xml:space="preserve">14.8516139984131</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0276441574097</t>
+    <t xml:space="preserve">15.027645111084</t>
   </si>
   <si>
     <t xml:space="preserve">14.4763851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5875644683838</t>
+    <t xml:space="preserve">14.5875625610352</t>
   </si>
   <si>
     <t xml:space="preserve">14.6199913024902</t>
@@ -4412,13 +4412,13 @@
     <t xml:space="preserve">14.5736665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7219038009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8284502029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7867593765259</t>
+    <t xml:space="preserve">14.7219047546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8284511566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7867584228516</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382169723511</t>
@@ -4433,25 +4433,25 @@
     <t xml:space="preserve">13.3831281661987</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9847383499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.192590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0119247436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2389154434204</t>
+    <t xml:space="preserve">12.9847393035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1925916671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.011926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2389163970947</t>
   </si>
   <si>
     <t xml:space="preserve">12.3084011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6737575531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3216915130615</t>
+    <t xml:space="preserve">11.6737565994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3216924667358</t>
   </si>
   <si>
     <t xml:space="preserve">11.5347833633423</t>
@@ -4466,7 +4466,7 @@
     <t xml:space="preserve">11.6644926071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3680152893066</t>
+    <t xml:space="preserve">11.368016242981</t>
   </si>
   <si>
     <t xml:space="preserve">11.1549224853516</t>
@@ -4475,7 +4475,7 @@
     <t xml:space="preserve">11.5625782012939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6082944869995</t>
+    <t xml:space="preserve">10.6082954406738</t>
   </si>
   <si>
     <t xml:space="preserve">10.2886562347412</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">11.3309564590454</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7478771209717</t>
+    <t xml:space="preserve">11.7478761672974</t>
   </si>
   <si>
     <t xml:space="preserve">11.8173627853394</t>
@@ -4493,10 +4493,10 @@
     <t xml:space="preserve">11.7154493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">11.581109046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1132316589355</t>
+    <t xml:space="preserve">11.5811080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1132326126099</t>
   </si>
   <si>
     <t xml:space="preserve">11.2938966751099</t>
@@ -4511,10 +4511,10 @@
     <t xml:space="preserve">11.6691246032715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4421358108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5718431472778</t>
+    <t xml:space="preserve">11.4421348571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5718421936035</t>
   </si>
   <si>
     <t xml:space="preserve">11.6969194412231</t>
@@ -4529,25 +4529,25 @@
     <t xml:space="preserve">12.6048774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2667093276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2945051193237</t>
+    <t xml:space="preserve">12.2667102813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.294506072998</t>
   </si>
   <si>
     <t xml:space="preserve">12.1555299758911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6922874450684</t>
+    <t xml:space="preserve">11.692286491394</t>
   </si>
   <si>
     <t xml:space="preserve">11.914644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0350866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053792953491</t>
+    <t xml:space="preserve">12.0350875854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053802490234</t>
   </si>
   <si>
     <t xml:space="preserve">12.1972227096558</t>
@@ -4556,13 +4556,13 @@
     <t xml:space="preserve">12.1694288253784</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9378070831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.317666053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8961153030396</t>
+    <t xml:space="preserve">11.9378061294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3176670074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8961143493652</t>
   </si>
   <si>
     <t xml:space="preserve">12.9476795196533</t>
@@ -4574,13 +4574,13 @@
     <t xml:space="preserve">13.0681219100952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8828239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7484846115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7392196655273</t>
+    <t xml:space="preserve">12.8828248977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7484836578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.739218711853</t>
   </si>
   <si>
     <t xml:space="preserve">12.683629989624</t>
@@ -4589,7 +4589,7 @@
     <t xml:space="preserve">13.1144466400146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2348909378052</t>
+    <t xml:space="preserve">13.2348899841309</t>
   </si>
   <si>
     <t xml:space="preserve">12.7809114456177</t>
@@ -4598,10 +4598,10 @@
     <t xml:space="preserve">12.3778877258301</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3825216293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9986362457275</t>
+    <t xml:space="preserve">12.3825197219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9986352920532</t>
   </si>
   <si>
     <t xml:space="preserve">13.2626848220825</t>
@@ -4622,7 +4622,7 @@
     <t xml:space="preserve">12.5492887496948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4288454055786</t>
+    <t xml:space="preserve">12.4288463592529</t>
   </si>
   <si>
     <t xml:space="preserve">12.7855434417725</t>
@@ -4637,7 +4637,7 @@
     <t xml:space="preserve">12.1647958755493</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5214939117432</t>
+    <t xml:space="preserve">12.5214948654175</t>
   </si>
   <si>
     <t xml:space="preserve">12.2898721694946</t>
@@ -4649,16 +4649,16 @@
     <t xml:space="preserve">13.4433507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7212963104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9019632339478</t>
+    <t xml:space="preserve">13.7212972640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9019622802734</t>
   </si>
   <si>
     <t xml:space="preserve">13.4248199462891</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7948093414307</t>
+    <t xml:space="preserve">12.7948083877563</t>
   </si>
   <si>
     <t xml:space="preserve">12.9106197357178</t>
@@ -4667,7 +4667,7 @@
     <t xml:space="preserve">13.5128364562988</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2441558837891</t>
+    <t xml:space="preserve">13.2441549301147</t>
   </si>
   <si>
     <t xml:space="preserve">13.6240158081055</t>
@@ -4676,7 +4676,7 @@
     <t xml:space="preserve">13.9297571182251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741674423218</t>
+    <t xml:space="preserve">13.8741683959961</t>
   </si>
   <si>
     <t xml:space="preserve">14.0455675125122</t>
@@ -4700,16 +4700,16 @@
     <t xml:space="preserve">14.9257335662842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7589645385742</t>
+    <t xml:space="preserve">14.7589635848999</t>
   </si>
   <si>
     <t xml:space="preserve">14.9674243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4214038848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5557460784912</t>
+    <t xml:space="preserve">15.4214029312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5557451248169</t>
   </si>
   <si>
     <t xml:space="preserve">15.2407388687134</t>
@@ -4718,16 +4718,16 @@
     <t xml:space="preserve">15.1388244628906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5134439468384</t>
+    <t xml:space="preserve">14.5134449005127</t>
   </si>
   <si>
     <t xml:space="preserve">14.8191862106323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7543334960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538326263428</t>
+    <t xml:space="preserve">14.7543325424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538316726685</t>
   </si>
   <si>
     <t xml:space="preserve">15.5279493331909</t>
@@ -4754,7 +4754,7 @@
     <t xml:space="preserve">15.3159732818604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8993711471558</t>
+    <t xml:space="preserve">14.8993701934814</t>
   </si>
   <si>
     <t xml:space="preserve">15.3346948623657</t>
@@ -4766,7 +4766,7 @@
     <t xml:space="preserve">15.2832069396973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0304355621338</t>
+    <t xml:space="preserve">15.0304365158081</t>
   </si>
   <si>
     <t xml:space="preserve">14.8010721206665</t>
@@ -4778,7 +4778,7 @@
     <t xml:space="preserve">14.3517026901245</t>
   </si>
   <si>
-    <t xml:space="preserve">14.529577255249</t>
+    <t xml:space="preserve">14.5295782089233</t>
   </si>
   <si>
     <t xml:space="preserve">14.4031934738159</t>
@@ -4787,7 +4787,7 @@
     <t xml:space="preserve">14.2627649307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7495813369751</t>
+    <t xml:space="preserve">14.7495803833008</t>
   </si>
   <si>
     <t xml:space="preserve">14.7776660919189</t>
@@ -4796,25 +4796,25 @@
     <t xml:space="preserve">14.4921293258667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3891506195068</t>
+    <t xml:space="preserve">14.3891496658325</t>
   </si>
   <si>
     <t xml:space="preserve">14.7074527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9087333679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2504405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5219326019287</t>
+    <t xml:space="preserve">14.9087324142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2504396438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.521933555603</t>
   </si>
   <si>
     <t xml:space="preserve">15.58278465271</t>
   </si>
   <si>
-    <t xml:space="preserve">15.465763092041</t>
+    <t xml:space="preserve">15.4657621383667</t>
   </si>
   <si>
     <t xml:space="preserve">15.5125703811646</t>
@@ -4823,7 +4823,7 @@
     <t xml:space="preserve">15.2457590103149</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7466173171997</t>
+    <t xml:space="preserve">15.7466163635254</t>
   </si>
   <si>
     <t xml:space="preserve">15.2036294937134</t>
@@ -4838,7 +4838,7 @@
     <t xml:space="preserve">14.7683038711548</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8244752883911</t>
+    <t xml:space="preserve">14.8244762420654</t>
   </si>
   <si>
     <t xml:space="preserve">14.8338375091553</t>
@@ -4847,7 +4847,7 @@
     <t xml:space="preserve">15.0117120742798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2270336151123</t>
+    <t xml:space="preserve">15.2270345687866</t>
   </si>
   <si>
     <t xml:space="preserve">15.1240549087524</t>
@@ -4856,7 +4856,7 @@
     <t xml:space="preserve">15.0023498535156</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4563999176025</t>
+    <t xml:space="preserve">15.4563989639282</t>
   </si>
   <si>
     <t xml:space="preserve">16.0976867675781</t>
@@ -4874,31 +4874,31 @@
     <t xml:space="preserve">15.0444784164429</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0725650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4142732620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1802253723145</t>
+    <t xml:space="preserve">15.072564125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4142723083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1802263259888</t>
   </si>
   <si>
     <t xml:space="preserve">15.2129917144775</t>
   </si>
   <si>
-    <t xml:space="preserve">14.885326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3704261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2861700057983</t>
+    <t xml:space="preserve">14.8853273391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3704271316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.286169052124</t>
   </si>
   <si>
     <t xml:space="preserve">14.1691465377808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2768077850342</t>
+    <t xml:space="preserve">14.2768068313599</t>
   </si>
   <si>
     <t xml:space="preserve">14.6419200897217</t>
@@ -4910,7 +4910,7 @@
     <t xml:space="preserve">14.84787940979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1615018844604</t>
+    <t xml:space="preserve">15.1615009307861</t>
   </si>
   <si>
     <t xml:space="preserve">16.2381114959717</t>
@@ -4919,10 +4919,10 @@
     <t xml:space="preserve">15.4610805511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2223529815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7308568954468</t>
+    <t xml:space="preserve">15.2223539352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7308559417725</t>
   </si>
   <si>
     <t xml:space="preserve">14.997670173645</t>
@@ -4931,16 +4931,16 @@
     <t xml:space="preserve">14.6793670654297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0397977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1053314208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1521396636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2598009109497</t>
+    <t xml:space="preserve">15.0397987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1053304672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.152138710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2597999572754</t>
   </si>
   <si>
     <t xml:space="preserve">15.339376449585</t>
@@ -4949,7 +4949,7 @@
     <t xml:space="preserve">14.7636241912842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4593629837036</t>
+    <t xml:space="preserve">14.4593639373779</t>
   </si>
   <si>
     <t xml:space="preserve">13.6121168136597</t>
@@ -4964,10 +4964,10 @@
     <t xml:space="preserve">12.6057195663452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3763551712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4091205596924</t>
+    <t xml:space="preserve">12.3763542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4091196060181</t>
   </si>
   <si>
     <t xml:space="preserve">12.8257217407227</t>
@@ -4979,7 +4979,7 @@
     <t xml:space="preserve">12.4044399261475</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0065612792969</t>
+    <t xml:space="preserve">12.0065603256226</t>
   </si>
   <si>
     <t xml:space="preserve">12.1189031600952</t>
@@ -4991,22 +4991,22 @@
     <t xml:space="preserve">12.4138021469116</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2406072616577</t>
+    <t xml:space="preserve">12.240608215332</t>
   </si>
   <si>
     <t xml:space="preserve">12.264012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6338043212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.320182800293</t>
+    <t xml:space="preserve">12.6338052749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3201837539673</t>
   </si>
   <si>
     <t xml:space="preserve">12.1657123565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1329460144043</t>
+    <t xml:space="preserve">12.1329469680786</t>
   </si>
   <si>
     <t xml:space="preserve">12.4606113433838</t>
@@ -5018,13 +5018,13 @@
     <t xml:space="preserve">12.582314491272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4840145111084</t>
+    <t xml:space="preserve">12.4840154647827</t>
   </si>
   <si>
     <t xml:space="preserve">12.4231643676758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2874164581299</t>
+    <t xml:space="preserve">12.2874174118042</t>
   </si>
   <si>
     <t xml:space="preserve">12.2686929702759</t>
@@ -5033,7 +5033,7 @@
     <t xml:space="preserve">12.2172031402588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1282644271851</t>
+    <t xml:space="preserve">12.1282653808594</t>
   </si>
   <si>
     <t xml:space="preserve">11.8801755905151</t>
@@ -5045,16 +5045,16 @@
     <t xml:space="preserve">11.4869785308838</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3278284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6274061203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7210264205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023019790649</t>
+    <t xml:space="preserve">11.3278274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274070739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7210254669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023010253906</t>
   </si>
   <si>
     <t xml:space="preserve">11.4682559967041</t>
@@ -5063,16 +5063,16 @@
     <t xml:space="preserve">11.3371896743774</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4729356765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4354887008667</t>
+    <t xml:space="preserve">11.472936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.435489654541</t>
   </si>
   <si>
     <t xml:space="preserve">11.3559141159058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5103845596313</t>
+    <t xml:space="preserve">11.510383605957</t>
   </si>
   <si>
     <t xml:space="preserve">11.5478315353394</t>
@@ -5084,16 +5084,16 @@
     <t xml:space="preserve">11.8414611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8703422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323043823242</t>
+    <t xml:space="preserve">11.870343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323053359985</t>
   </si>
   <si>
     <t xml:space="preserve">11.533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7548170089722</t>
+    <t xml:space="preserve">11.7548160552979</t>
   </si>
   <si>
     <t xml:space="preserve">11.4371185302734</t>
@@ -5108,7 +5108,7 @@
     <t xml:space="preserve">11.884783744812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9618015289307</t>
+    <t xml:space="preserve">11.9618005752563</t>
   </si>
   <si>
     <t xml:space="preserve">12.2361764907837</t>
@@ -5117,7 +5117,7 @@
     <t xml:space="preserve">12.3324489593506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3950252532959</t>
+    <t xml:space="preserve">12.3950262069702</t>
   </si>
   <si>
     <t xml:space="preserve">12.3468885421753</t>
@@ -5132,7 +5132,7 @@
     <t xml:space="preserve">12.4479761123657</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5394334793091</t>
+    <t xml:space="preserve">12.5394325256348</t>
   </si>
   <si>
     <t xml:space="preserve">12.0484457015991</t>
@@ -5150,7 +5150,7 @@
     <t xml:space="preserve">12.4720430374146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4768562316895</t>
+    <t xml:space="preserve">12.4768571853638</t>
   </si>
   <si>
     <t xml:space="preserve">12.5105514526367</t>
@@ -5162,10 +5162,10 @@
     <t xml:space="preserve">13.2037105560303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1988964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2711009979248</t>
+    <t xml:space="preserve">13.1988973617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2711000442505</t>
   </si>
   <si>
     <t xml:space="preserve">13.1603879928589</t>
@@ -5174,19 +5174,19 @@
     <t xml:space="preserve">12.789740562439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266927719116</t>
+    <t xml:space="preserve">13.1266937255859</t>
   </si>
   <si>
     <t xml:space="preserve">13.0978107452393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4636449813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7091388702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7235794067383</t>
+    <t xml:space="preserve">13.46364402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7091379165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7235803604126</t>
   </si>
   <si>
     <t xml:space="preserve">13.6610021591187</t>
@@ -5216,7 +5216,7 @@
     <t xml:space="preserve">14.3541612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4456205368042</t>
+    <t xml:space="preserve">14.4456195831299</t>
   </si>
   <si>
     <t xml:space="preserve">14.440806388855</t>
@@ -5246,16 +5246,16 @@
     <t xml:space="preserve">14.835521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8499631881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8066396713257</t>
+    <t xml:space="preserve">14.8499622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.806640625</t>
   </si>
   <si>
     <t xml:space="preserve">14.8114538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7873849868774</t>
+    <t xml:space="preserve">14.7873859405518</t>
   </si>
   <si>
     <t xml:space="preserve">14.7248086929321</t>
@@ -5276,25 +5276,25 @@
     <t xml:space="preserve">14.4167385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5900268554688</t>
+    <t xml:space="preserve">14.5900278091431</t>
   </si>
   <si>
     <t xml:space="preserve">14.7199954986572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.68630027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.209753036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.349347114563</t>
+    <t xml:space="preserve">14.6862993240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2097539901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3493480682373</t>
   </si>
   <si>
     <t xml:space="preserve">14.2867708206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5081958770752</t>
+    <t xml:space="preserve">14.5081968307495</t>
   </si>
   <si>
     <t xml:space="preserve">14.4071111679077</t>
@@ -5306,7 +5306,7 @@
     <t xml:space="preserve">14.5996551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4889421463013</t>
+    <t xml:space="preserve">14.4889430999756</t>
   </si>
   <si>
     <t xml:space="preserve">14.8595905303955</t>
@@ -5321,19 +5321,19 @@
     <t xml:space="preserve">14.5274515151978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1231079101562</t>
+    <t xml:space="preserve">14.1231088638306</t>
   </si>
   <si>
     <t xml:space="preserve">14.1134805679321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1616172790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.166431427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5226383209229</t>
+    <t xml:space="preserve">14.1616182327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1664304733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5226373672485</t>
   </si>
   <si>
     <t xml:space="preserve">14.4263648986816</t>
@@ -5363,10 +5363,10 @@
     <t xml:space="preserve">14.7970123291016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772880554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713882446289</t>
+    <t xml:space="preserve">15.1772871017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713872909546</t>
   </si>
   <si>
     <t xml:space="preserve">15.2831859588623</t>
@@ -5378,7 +5378,7 @@
     <t xml:space="preserve">15.0425062179565</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6911144256592</t>
+    <t xml:space="preserve">14.6911134719849</t>
   </si>
   <si>
     <t xml:space="preserve">14.821081161499</t>
@@ -5387,16 +5387,16 @@
     <t xml:space="preserve">14.8644027709961</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5467052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7501058578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7096719741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0832061767578</t>
+    <t xml:space="preserve">14.5467042922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7501068115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7096729278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0832080841064</t>
   </si>
   <si>
     <t xml:space="preserve">15.586443901062</t>
@@ -5411,16 +5411,16 @@
     <t xml:space="preserve">15.4901714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7164125442505</t>
+    <t xml:space="preserve">15.7164115905762</t>
   </si>
   <si>
     <t xml:space="preserve">15.4997987747192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5190534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8980979919434</t>
+    <t xml:space="preserve">15.5190544128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8980989456177</t>
   </si>
   <si>
     <t xml:space="preserve">15.081015586853</t>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="1927">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,154 +44,154 @@
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735038757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11749172210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88687705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58708429336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50253009796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46409320831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021575927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45640563964844</t>
+    <t xml:space="preserve">8.31735324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11748886108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88687896728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58708572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50252962112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46409225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5102162361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45640707015991</t>
   </si>
   <si>
     <t xml:space="preserve">6.98749828338623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92600297927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508056640625</t>
+    <t xml:space="preserve">6.92600250244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14508104324341</t>
   </si>
   <si>
     <t xml:space="preserve">6.74151372909546</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99518537521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17582893371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26423025131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729104995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.198890209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84528827667236</t>
+    <t xml:space="preserve">6.99518442153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17582941055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892625808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26423072814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28729009628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19889163970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84528779983521</t>
   </si>
   <si>
     <t xml:space="preserve">6.86834859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41797065734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78379154205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64158201217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17198610305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33341407775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10664796829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5371208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44487428665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20273447036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50637006759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23348379135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89909791946411</t>
+    <t xml:space="preserve">7.41797113418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7837929725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64158296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1719856262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33341360092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10664701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53711986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44487571716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20273637771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50637340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23348093032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89909744262695</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062784194946</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55633735656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72545003890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9099383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85613012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02524471282959</t>
+    <t xml:space="preserve">7.55633783340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72545051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90993928909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85613203048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02524662017822</t>
   </si>
   <si>
     <t xml:space="preserve">8.3480978012085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44034481048584</t>
+    <t xml:space="preserve">8.44034385681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.13286304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28660297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00218391418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2481689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15592479705811</t>
+    <t xml:space="preserve">8.28660488128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00218486785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24816703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15592384338379</t>
   </si>
   <si>
     <t xml:space="preserve">8.39422225952148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24048233032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20204639434814</t>
+    <t xml:space="preserve">8.24048137664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20204734802246</t>
   </si>
   <si>
     <t xml:space="preserve">8.38653469085693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14055061340332</t>
+    <t xml:space="preserve">8.140549659729</t>
   </si>
   <si>
     <t xml:space="preserve">8.08674144744873</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">8.25585460662842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94068908691406</t>
+    <t xml:space="preserve">7.94068813323975</t>
   </si>
   <si>
     <t xml:space="preserve">8.07905387878418</t>
@@ -215,58 +215,58 @@
     <t xml:space="preserve">8.51721382141113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55564880371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61714458465576</t>
+    <t xml:space="preserve">8.55565071105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61714553833008</t>
   </si>
   <si>
     <t xml:space="preserve">8.87850570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87081909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90925216674805</t>
+    <t xml:space="preserve">8.87081813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90925121307373</t>
   </si>
   <si>
     <t xml:space="preserve">9.17061042785645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30897617340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34741306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40121936798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1091136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27822875976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28591537475586</t>
+    <t xml:space="preserve">9.30897808074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34741115570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40122032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10911655426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27822685241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28591632843018</t>
   </si>
   <si>
     <t xml:space="preserve">9.05530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93231296539307</t>
+    <t xml:space="preserve">8.93231391906738</t>
   </si>
   <si>
     <t xml:space="preserve">8.45571804046631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40959644317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85544395446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69401550292969</t>
+    <t xml:space="preserve">8.40959453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85544586181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.694016456604</t>
   </si>
   <si>
     <t xml:space="preserve">8.66326808929443</t>
@@ -275,49 +275,49 @@
     <t xml:space="preserve">8.74782371520996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75551319122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91694068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11680030822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14755058288574</t>
+    <t xml:space="preserve">8.75551223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9169397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11680126190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14755153656006</t>
   </si>
   <si>
     <t xml:space="preserve">8.84775638580322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0322437286377</t>
+    <t xml:space="preserve">9.03224468231201</t>
   </si>
   <si>
     <t xml:space="preserve">9.09535217285156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20578956604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22945499420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44244384765625</t>
+    <t xml:space="preserve">9.20578765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22945308685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4424409866333</t>
   </si>
   <si>
     <t xml:space="preserve">9.46610736846924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47399425506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39511203765869</t>
+    <t xml:space="preserve">9.4739933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39511108398438</t>
   </si>
   <si>
     <t xml:space="preserve">9.28467559814453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15057182312012</t>
+    <t xml:space="preserve">9.1505708694458</t>
   </si>
   <si>
     <t xml:space="preserve">9.11901664733887</t>
@@ -326,37 +326,37 @@
     <t xml:space="preserve">9.57654571533203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0498514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233953475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0419635772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0104074478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78953170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65543079376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85264110565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6712064743042</t>
+    <t xml:space="preserve">10.0498504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233963012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0419616699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0104084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7895336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65542888641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85263919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67120838165283</t>
   </si>
   <si>
     <t xml:space="preserve">9.91574668884277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1918411254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93941307067871</t>
+    <t xml:space="preserve">10.1918430328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93941497802734</t>
   </si>
   <si>
     <t xml:space="preserve">10.3338346481323</t>
@@ -365,49 +365,49 @@
     <t xml:space="preserve">9.81319713592529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53710269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63965225219727</t>
+    <t xml:space="preserve">9.5371036529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63965129852295</t>
   </si>
   <si>
     <t xml:space="preserve">10.1366243362427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628383636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048290252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3653888702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1208477020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82897472381592</t>
+    <t xml:space="preserve">10.2628374099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048299789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3653879165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1208457946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82897567749023</t>
   </si>
   <si>
     <t xml:space="preserve">9.90786075592041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0261859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1839532852173</t>
+    <t xml:space="preserve">10.0261840820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1839551925659</t>
   </si>
   <si>
     <t xml:space="preserve">10.2786140441895</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99463176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1129579544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71853542327881</t>
+    <t xml:space="preserve">9.99462985992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1129570007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71853637695312</t>
   </si>
   <si>
     <t xml:space="preserve">9.88419342041016</t>
@@ -422,28 +422,28 @@
     <t xml:space="preserve">9.6633186340332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59232234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43455410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18212413787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04013252258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22156524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48977279663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69486999511719</t>
+    <t xml:space="preserve">9.59232330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30834007263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4345531463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1821231842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04013347625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22156620025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48977088928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6948709487915</t>
   </si>
   <si>
     <t xml:space="preserve">9.89997100830078</t>
@@ -452,52 +452,52 @@
     <t xml:space="preserve">9.87630653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0025215148926</t>
+    <t xml:space="preserve">10.0025205612183</t>
   </si>
   <si>
     <t xml:space="preserve">10.2312850952148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1760654449463</t>
+    <t xml:space="preserve">10.1760663986206</t>
   </si>
   <si>
     <t xml:space="preserve">10.1524000167847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0340728759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97096538543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58443260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72642612457275</t>
+    <t xml:space="preserve">10.0340738296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9709644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58443355560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72642517089844</t>
   </si>
   <si>
     <t xml:space="preserve">9.80531024932861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60021114349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33989238739014</t>
+    <t xml:space="preserve">9.60021209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33989429473877</t>
   </si>
   <si>
     <t xml:space="preserve">9.13479328155518</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19001293182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36355781555176</t>
+    <t xml:space="preserve">9.19001197814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36355686187744</t>
   </si>
   <si>
     <t xml:space="preserve">9.24523162841797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14268112182617</t>
+    <t xml:space="preserve">9.14268207550049</t>
   </si>
   <si>
     <t xml:space="preserve">9.16634654998779</t>
@@ -506,76 +506,76 @@
     <t xml:space="preserve">9.38722324371338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17423629760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90602970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02435493469238</t>
+    <t xml:space="preserve">9.17423534393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90603065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02435684204102</t>
   </si>
   <si>
     <t xml:space="preserve">9.86841583251953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0182962417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.168176651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2943906784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707281112671</t>
+    <t xml:space="preserve">10.0182971954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1681785583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2943916320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707252502441</t>
   </si>
   <si>
     <t xml:space="preserve">10.491602897644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1602897644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3732776641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3496103286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4837141036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862646102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5389308929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5073795318604</t>
+    <t xml:space="preserve">10.16028881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3732757568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496112823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.483715057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862627029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.538932800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5073804855347</t>
   </si>
   <si>
     <t xml:space="preserve">10.6099290847778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3022785186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4363822937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3969421386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7974214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386926651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567796707153</t>
+    <t xml:space="preserve">10.3022804260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4363832473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3969430923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79742050170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386917114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.256778717041</t>
   </si>
   <si>
     <t xml:space="preserve">11.1936712265015</t>
@@ -584,40 +584,40 @@
     <t xml:space="preserve">11.3987703323364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5328741073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5249843597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092096328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041095733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7260246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3916778564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6304950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6703004837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4235210418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2563457489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966859817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4902439117432</t>
+    <t xml:space="preserve">11.5328722000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5249853134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041105270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7260236740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3916788101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6304969787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6702995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4235181808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966878890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4902467727661</t>
   </si>
   <si>
     <t xml:space="preserve">12.3787965774536</t>
@@ -629,79 +629,79 @@
     <t xml:space="preserve">12.8564348220825</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7370262145996</t>
+    <t xml:space="preserve">12.7370252609253</t>
   </si>
   <si>
     <t xml:space="preserve">12.8882780075073</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2385444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0474901199341</t>
+    <t xml:space="preserve">13.2385473251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0474891662598</t>
   </si>
   <si>
     <t xml:space="preserve">12.9599227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0952548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9838047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0395278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2226247787476</t>
+    <t xml:space="preserve">13.0952558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9838056564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.039529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2226266860962</t>
   </si>
   <si>
     <t xml:space="preserve">13.1270952224731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2783489227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5251312255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6843433380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7082242965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092096328735</t>
+    <t xml:space="preserve">13.2783508300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5251302719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6843423843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7082223892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092067718506</t>
   </si>
   <si>
     <t xml:space="preserve">13.7321062088013</t>
   </si>
   <si>
-    <t xml:space="preserve">13.676381111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6524953842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5808534622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5649347305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4694042205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3659181594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5171670913696</t>
+    <t xml:space="preserve">13.6763820648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6524972915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5808515548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5649318695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4694023132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3659172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5171680450439</t>
   </si>
   <si>
     <t xml:space="preserve">13.4534826278687</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2146654129028</t>
+    <t xml:space="preserve">13.2146635055542</t>
   </si>
   <si>
     <t xml:space="preserve">13.4614419937134</t>
@@ -710,28 +710,28 @@
     <t xml:space="preserve">13.5569725036621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3897972106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499956130981</t>
+    <t xml:space="preserve">13.389796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3499946594238</t>
   </si>
   <si>
     <t xml:space="preserve">13.6923036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7161855697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5490121841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8803176879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8723573684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7847909927368</t>
+    <t xml:space="preserve">13.7161836624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490093231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.880316734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8723564147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7847900390625</t>
   </si>
   <si>
     <t xml:space="preserve">12.9519624710083</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">12.8086719512939</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5220880508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7290668487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8166313171387</t>
+    <t xml:space="preserve">12.522087097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7290658950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.816632270813</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201202392578</t>
@@ -758,49 +758,49 @@
     <t xml:space="preserve">12.6255760192871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4982051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8484735488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9041986465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4265623092651</t>
+    <t xml:space="preserve">12.4982070922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8484745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9041976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4265613555908</t>
   </si>
   <si>
     <t xml:space="preserve">12.3628749847412</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5539302825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2991895675659</t>
+    <t xml:space="preserve">12.5539312362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2991905212402</t>
   </si>
   <si>
     <t xml:space="preserve">12.1399774551392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1718196868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0842542648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7021436691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7180624008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658262252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6782608032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9489221572876</t>
+    <t xml:space="preserve">12.171820640564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0842533111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7021427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7180643081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658281326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6782598495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9489212036133</t>
   </si>
   <si>
     <t xml:space="preserve">12.0285291671753</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">12.1240549087524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9091186523438</t>
+    <t xml:space="preserve">11.9091176986694</t>
   </si>
   <si>
     <t xml:space="preserve">11.7499046325684</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">11.5906934738159</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4822864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4026784896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927484512329</t>
+    <t xml:space="preserve">12.4822854995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4026765823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927494049072</t>
   </si>
   <si>
     <t xml:space="preserve">12.6972217559814</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">12.8643970489502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8405132293701</t>
+    <t xml:space="preserve">12.8405141830444</t>
   </si>
   <si>
     <t xml:space="preserve">12.5857744216919</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">12.0046463012695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.108136177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8931980133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9648418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972804069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9568824768066</t>
+    <t xml:space="preserve">12.1081342697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8931970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.96484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9728031158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.956883430481</t>
   </si>
   <si>
     <t xml:space="preserve">12.1320161819458</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">11.4633235931396</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4474010467529</t>
+    <t xml:space="preserve">11.4474020004272</t>
   </si>
   <si>
     <t xml:space="preserve">11.4951639175415</t>
@@ -878,16 +878,16 @@
     <t xml:space="preserve">11.3757553100586</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652894973755</t>
+    <t xml:space="preserve">11.0652914047241</t>
   </si>
   <si>
     <t xml:space="preserve">11.2324638366699</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2245035171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.240424156189</t>
+    <t xml:space="preserve">11.2245025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2404232025146</t>
   </si>
   <si>
     <t xml:space="preserve">11.4155588150024</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">11.4712829589844</t>
   </si>
   <si>
-    <t xml:space="preserve">11.32799243927</t>
+    <t xml:space="preserve">11.3279914855957</t>
   </si>
   <si>
     <t xml:space="preserve">11.5747728347778</t>
@@ -905,37 +905,37 @@
     <t xml:space="preserve">11.2961483001709</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4872045516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6170978546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5683851242065</t>
+    <t xml:space="preserve">11.4872055053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6170959472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5683860778809</t>
   </si>
   <si>
     <t xml:space="preserve">11.6252136230469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5196771621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3491954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2193059921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787128448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9189338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0488224029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082321166992</t>
+    <t xml:space="preserve">11.5196762084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.349196434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2193050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787137985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9189329147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0488243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082330703735</t>
   </si>
   <si>
     <t xml:space="preserve">10.9838790893555</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">10.7971620559692</t>
   </si>
   <si>
-    <t xml:space="preserve">10.967643737793</t>
+    <t xml:space="preserve">10.9676418304443</t>
   </si>
   <si>
     <t xml:space="preserve">11.3735504150391</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">11.0650596618652</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1137676239014</t>
+    <t xml:space="preserve">11.1137685775757</t>
   </si>
   <si>
     <t xml:space="preserve">10.8783416748047</t>
@@ -962,13 +962,13 @@
     <t xml:space="preserve">10.9351692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8377504348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8458700180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8945789337158</t>
+    <t xml:space="preserve">10.8377494812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8458709716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8945770263672</t>
   </si>
   <si>
     <t xml:space="preserve">11.0812969207764</t>
@@ -977,52 +977,52 @@
     <t xml:space="preserve">11.4222583770752</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4466142654419</t>
+    <t xml:space="preserve">11.4466133117676</t>
   </si>
   <si>
     <t xml:space="preserve">11.2923698425293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1949501037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9026966094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0407056808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3654298782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5034408569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6089754104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5359144210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3410778045654</t>
+    <t xml:space="preserve">11.1949510574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9026956558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0407066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3654327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.503438949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6089763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5359134674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3410758972168</t>
   </si>
   <si>
     <t xml:space="preserve">11.0975313186646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2030668258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8702230453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.642915725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373773574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427291870117</t>
+    <t xml:space="preserve">11.2030687332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8702239990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6429147720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373792648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427101135254</t>
   </si>
   <si>
     <t xml:space="preserve">9.85545349121094</t>
@@ -1031,43 +1031,43 @@
     <t xml:space="preserve">9.70932579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79862499237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66061782836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72556209564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46578025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49825382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44954586029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4089527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3602466583252</t>
+    <t xml:space="preserve">9.79862594604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66061878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72556400299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46578121185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49825477600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44954490661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40895462036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36024475097656</t>
   </si>
   <si>
     <t xml:space="preserve">9.2790641784668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33589172363281</t>
+    <t xml:space="preserve">9.33588981628418</t>
   </si>
   <si>
     <t xml:space="preserve">9.30341720581055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26282691955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19788074493408</t>
+    <t xml:space="preserve">9.26282596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1978816986084</t>
   </si>
   <si>
     <t xml:space="preserve">9.10858154296875</t>
@@ -1076,70 +1076,70 @@
     <t xml:space="preserve">8.98680973052979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09234619140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07611083984375</t>
+    <t xml:space="preserve">9.09234428405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11669826507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07610988616943</t>
   </si>
   <si>
     <t xml:space="preserve">9.22223663330078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52260780334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61190986633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62814426422119</t>
+    <t xml:space="preserve">9.52260684967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61190795898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62814521789551</t>
   </si>
   <si>
     <t xml:space="preserve">9.41707324981689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65249919891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88792514801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80674362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83109951019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8392162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78238964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76615238189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74179935455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70120716094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60379123687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35212707519531</t>
+    <t xml:space="preserve">9.65249824523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88792705535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8067455291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83109760284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83921527862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78239059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76615142822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991607666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74179744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70120811462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60379028320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35212802886963</t>
   </si>
   <si>
     <t xml:space="preserve">9.32777214050293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44142627716064</t>
+    <t xml:space="preserve">9.44142532348633</t>
   </si>
   <si>
     <t xml:space="preserve">9.21411895751953</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">9.1004638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12481784820557</t>
+    <t xml:space="preserve">9.12481880187988</t>
   </si>
   <si>
     <t xml:space="preserve">9.18164539337158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27094554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49013423919678</t>
+    <t xml:space="preserve">9.27094650268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49013519287109</t>
   </si>
   <si>
     <t xml:space="preserve">9.53884601593018</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">10.6023244857788</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6835050582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6510334014893</t>
+    <t xml:space="preserve">10.6835060119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6510324478149</t>
   </si>
   <si>
     <t xml:space="preserve">10.5617322921753</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4805536270142</t>
+    <t xml:space="preserve">10.4805517196655</t>
   </si>
   <si>
     <t xml:space="preserve">10.3587799072266</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2288885116577</t>
+    <t xml:space="preserve">10.228889465332</t>
   </si>
   <si>
     <t xml:space="preserve">9.96910667419434</t>
@@ -1190,94 +1190,94 @@
     <t xml:space="preserve">9.81486129760742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84733390808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92939472198486</t>
+    <t xml:space="preserve">9.84733581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9293966293335</t>
   </si>
   <si>
     <t xml:space="preserve">10.257640838623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2001981735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95401477813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94580936431885</t>
+    <t xml:space="preserve">10.2001972198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95401382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94580841064453</t>
   </si>
   <si>
     <t xml:space="preserve">10.01966381073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248163223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4545869827271</t>
+    <t xml:space="preserve">10.2248153686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4545879364014</t>
   </si>
   <si>
     <t xml:space="preserve">10.3397026062012</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1673717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2986717224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3971433639526</t>
+    <t xml:space="preserve">10.1673727035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2986707687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.397144317627</t>
   </si>
   <si>
     <t xml:space="preserve">10.6843576431274</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0043954849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7418022155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.594090461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956178665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7007722854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776805877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7089767456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8730993270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9551591873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9059238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7992448806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9961881637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1931381225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1685199737549</t>
+    <t xml:space="preserve">11.0043973922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7418003082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5940914154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7007713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776796340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7089757919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8731002807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9551610946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9059228897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.799243927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9961910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931371688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1685180664062</t>
   </si>
   <si>
     <t xml:space="preserve">11.2669916152954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2587862014771</t>
+    <t xml:space="preserve">11.2587852478027</t>
   </si>
   <si>
     <t xml:space="preserve">11.5459985733032</t>
@@ -1286,22 +1286,22 @@
     <t xml:space="preserve">11.6526794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7183275222778</t>
+    <t xml:space="preserve">11.7183284759521</t>
   </si>
   <si>
     <t xml:space="preserve">11.4803524017334</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4229078292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5952377319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6855039596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9070692062378</t>
+    <t xml:space="preserve">11.422908782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5952367782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6855049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9070701599121</t>
   </si>
   <si>
     <t xml:space="preserve">11.9152755737305</t>
@@ -1313,37 +1313,37 @@
     <t xml:space="preserve">11.866039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9316873550415</t>
+    <t xml:space="preserve">11.9316883087158</t>
   </si>
   <si>
     <t xml:space="preserve">11.7675666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5542058944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.509072303772</t>
+    <t xml:space="preserve">11.5542068481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5090713500977</t>
   </si>
   <si>
     <t xml:space="preserve">11.2834033966064</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1603126525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8648929595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0249137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5981950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5366477966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4381742477417</t>
+    <t xml:space="preserve">11.1603145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.864893913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0249118804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5981931686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5366497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4381761550903</t>
   </si>
   <si>
     <t xml:space="preserve">10.6105031967163</t>
@@ -1355,16 +1355,16 @@
     <t xml:space="preserve">10.8197593688965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148003578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2464761734009</t>
+    <t xml:space="preserve">11.1480026245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2464780807495</t>
   </si>
   <si>
     <t xml:space="preserve">11.1192827224731</t>
   </si>
   <si>
-    <t xml:space="preserve">11.463939666748</t>
+    <t xml:space="preserve">11.4639387130737</t>
   </si>
   <si>
     <t xml:space="preserve">11.9645118713379</t>
@@ -1373,52 +1373,52 @@
     <t xml:space="preserve">11.8537302017212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5418977737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6937112808228</t>
+    <t xml:space="preserve">11.541895866394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6937093734741</t>
   </si>
   <si>
     <t xml:space="preserve">11.7552556991577</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6198539733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.919379234314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.354305267334</t>
+    <t xml:space="preserve">11.6198558807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9193782806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.354302406311</t>
   </si>
   <si>
     <t xml:space="preserve">12.1737670898438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0876026153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8085966110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7060194015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8906555175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7429475784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768199920654</t>
+    <t xml:space="preserve">12.0876035690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8085956573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7060203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8906574249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7429466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768209457397</t>
   </si>
   <si>
     <t xml:space="preserve">12.4035396575928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6444730758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1726226806641</t>
+    <t xml:space="preserve">11.6444711685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1726217269897</t>
   </si>
   <si>
     <t xml:space="preserve">11.201343536377</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">11.3490533828735</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2259635925293</t>
+    <t xml:space="preserve">11.225962638855</t>
   </si>
   <si>
     <t xml:space="preserve">11.4475269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4885559082031</t>
+    <t xml:space="preserve">11.4885587692261</t>
   </si>
   <si>
     <t xml:space="preserve">11.4147024154663</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9398946762085</t>
+    <t xml:space="preserve">11.9398927688599</t>
   </si>
   <si>
     <t xml:space="preserve">11.7019166946411</t>
@@ -1454,28 +1454,28 @@
     <t xml:space="preserve">12.2763442993164</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050661087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2230062484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2106962203979</t>
+    <t xml:space="preserve">12.3050651550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2230052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2106971740723</t>
   </si>
   <si>
     <t xml:space="preserve">12.4363632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5102186203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5471467971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7276811599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8220520019531</t>
+    <t xml:space="preserve">12.510217666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5471458435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7276802062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8220510482788</t>
   </si>
   <si>
     <t xml:space="preserve">12.5389394760132</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">12.5881767272949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4814958572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7769174575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2118396759033</t>
+    <t xml:space="preserve">12.4814977645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7769155502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2118406295776</t>
   </si>
   <si>
     <t xml:space="preserve">13.2405624389648</t>
@@ -1505,28 +1505,28 @@
     <t xml:space="preserve">13.2364597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4539213180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3513441085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3964776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3308296203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3923749923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.638560295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0857925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283489227295</t>
+    <t xml:space="preserve">13.4539222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3513460159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3964786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3308305740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3923759460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6385612487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0857934951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283479690552</t>
   </si>
   <si>
     <t xml:space="preserve">14.1868619918823</t>
@@ -1535,22 +1535,22 @@
     <t xml:space="preserve">14.1952037811279</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8698358535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5653257369995</t>
+    <t xml:space="preserve">13.869836807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5653266906738</t>
   </si>
   <si>
     <t xml:space="preserve">13.2316150665283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0939588546753</t>
+    <t xml:space="preserve">13.0939598083496</t>
   </si>
   <si>
     <t xml:space="preserve">13.1648731231689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2357864379883</t>
+    <t xml:space="preserve">13.2357883453369</t>
   </si>
   <si>
     <t xml:space="preserve">12.8061351776123</t>
@@ -1559,31 +1559,31 @@
     <t xml:space="preserve">12.9646472930908</t>
   </si>
   <si>
-    <t xml:space="preserve">12.693507194519</t>
+    <t xml:space="preserve">12.6935062408447</t>
   </si>
   <si>
     <t xml:space="preserve">12.6517953872681</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0188760757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.981333732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0689325332642</t>
+    <t xml:space="preserve">13.018874168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9813327789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0689315795898</t>
   </si>
   <si>
     <t xml:space="preserve">13.0981321334839</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9396190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1565313339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.547511100769</t>
+    <t xml:space="preserve">12.9396200180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.156530380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5475101470947</t>
   </si>
   <si>
     <t xml:space="preserve">12.5683660507202</t>
@@ -1598,40 +1598,40 @@
     <t xml:space="preserve">13.085618019104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5266532897949</t>
+    <t xml:space="preserve">12.5266523361206</t>
   </si>
   <si>
     <t xml:space="preserve">12.5767087936401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2191028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1440172195435</t>
+    <t xml:space="preserve">13.2191019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440143585205</t>
   </si>
   <si>
     <t xml:space="preserve">13.1106462478638</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0480756759644</t>
+    <t xml:space="preserve">13.04807472229</t>
   </si>
   <si>
     <t xml:space="preserve">13.2566442489624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2941884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2900152206421</t>
+    <t xml:space="preserve">13.2941875457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2900142669678</t>
   </si>
   <si>
     <t xml:space="preserve">13.3567571640015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6988105773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7613821029663</t>
+    <t xml:space="preserve">13.6988096237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.761381149292</t>
   </si>
   <si>
     <t xml:space="preserve">13.3650989532471</t>
@@ -1643,22 +1643,22 @@
     <t xml:space="preserve">13.2858448028564</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2274436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2399568557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1315021514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1356725692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.914589881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9896764755249</t>
+    <t xml:space="preserve">13.227442741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2399597167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1315011978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1356744766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9145889282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9896745681763</t>
   </si>
   <si>
     <t xml:space="preserve">13.0397319793701</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">12.2263116836548</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4015121459961</t>
+    <t xml:space="preserve">12.4015111923218</t>
   </si>
   <si>
     <t xml:space="preserve">12.4098539352417</t>
@@ -1676,28 +1676,28 @@
     <t xml:space="preserve">12.626766204834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5808811187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809930801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4640808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1595726013184</t>
+    <t xml:space="preserve">12.5808820724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4640817642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.159571647644</t>
   </si>
   <si>
     <t xml:space="preserve">12.0636301040649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428842544556</t>
+    <t xml:space="preserve">12.1428871154785</t>
   </si>
   <si>
     <t xml:space="preserve">12.2471704483032</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2221412658691</t>
+    <t xml:space="preserve">12.2221403121948</t>
   </si>
   <si>
     <t xml:space="preserve">12.3514547348022</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">12.5349941253662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5391664505005</t>
+    <t xml:space="preserve">12.5391674041748</t>
   </si>
   <si>
     <t xml:space="preserve">11.8383741378784</t>
@@ -1718,79 +1718,79 @@
     <t xml:space="preserve">12.0552854537964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0260887145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9468297958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922622680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4963216781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3086090087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2001533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.271068572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5380344390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.525520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5296926498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.596435546875</t>
+    <t xml:space="preserve">12.0260858535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9468326568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5922632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4963226318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3086080551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2001552581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2710676193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5380353927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5255212783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.529691696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5964336395264</t>
   </si>
   <si>
     <t xml:space="preserve">11.7507753372192</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7591180801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6882057189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6047763824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7215766906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3681392669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2722005844116</t>
+    <t xml:space="preserve">11.7591190338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6882047653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6047773361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7215757369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3681402206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.272198677063</t>
   </si>
   <si>
     <t xml:space="preserve">12.2137985229492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0386009216309</t>
+    <t xml:space="preserve">12.0386018753052</t>
   </si>
   <si>
     <t xml:space="preserve">12.3639688491821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4223680496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5975666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2596836090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2012844085693</t>
+    <t xml:space="preserve">12.4223690032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5975656509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2596826553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2012853622437</t>
   </si>
   <si>
     <t xml:space="preserve">12.6100807189941</t>
@@ -1802,13 +1802,13 @@
     <t xml:space="preserve">11.7382612228394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7466039657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7966613769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9259738922119</t>
+    <t xml:space="preserve">11.7466058731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7966623306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9259719848633</t>
   </si>
   <si>
     <t xml:space="preserve">11.8508892059326</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">11.6965494155884</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6840353012085</t>
+    <t xml:space="preserve">11.6840343475342</t>
   </si>
   <si>
     <t xml:space="preserve">11.4212369918823</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">10.9707279205322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8581008911133</t>
+    <t xml:space="preserve">10.8580980300903</t>
   </si>
   <si>
     <t xml:space="preserve">10.8205595016479</t>
@@ -1838,19 +1838,19 @@
     <t xml:space="preserve">10.7579879760742</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6411905288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9582147598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1375827789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.20432472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2084980010986</t>
+    <t xml:space="preserve">10.6411895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9582138061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.137583732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2043256759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084970474243</t>
   </si>
   <si>
     <t xml:space="preserve">11.1959829330444</t>
@@ -1865,19 +1865,19 @@
     <t xml:space="preserve">10.7997007369995</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7121019363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3867349624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.28662109375</t>
+    <t xml:space="preserve">10.7121028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3867359161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2866220474243</t>
   </si>
   <si>
     <t xml:space="preserve">10.4117631912231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3116493225098</t>
+    <t xml:space="preserve">10.3116502761841</t>
   </si>
   <si>
     <t xml:space="preserve">10.2062568664551</t>
@@ -1892,79 +1892,79 @@
     <t xml:space="preserve">9.9659595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80154800415039</t>
+    <t xml:space="preserve">9.80154895782471</t>
   </si>
   <si>
     <t xml:space="preserve">10.0797853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89007663726807</t>
+    <t xml:space="preserve">9.89007759094238</t>
   </si>
   <si>
     <t xml:space="preserve">9.19026756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13124942779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95840358734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26615142822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14389514923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9710521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67595100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69702816009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43143844604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54947853088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64644145965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6253604888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32014465332031</t>
+    <t xml:space="preserve">9.13124847412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95840454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26615047454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14389610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97105121612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.675950050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69703006744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43143939971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54947948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64644050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62536144256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32014274597168</t>
   </si>
   <si>
     <t xml:space="preserve">8.13127899169922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13296604156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78221654891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79570865631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74174737930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927762985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02504348754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01155376434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31339645385742</t>
+    <t xml:space="preserve">8.13296413421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78221702575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79570817947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74174642562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02504253387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01155281066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31339740753174</t>
   </si>
   <si>
     <t xml:space="preserve">8.44830226898193</t>
@@ -1973,46 +1973,46 @@
     <t xml:space="preserve">8.49467468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74761772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76869678497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68859767913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61271572113037</t>
+    <t xml:space="preserve">8.74761867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76869773864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68859958648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61271667480469</t>
   </si>
   <si>
     <t xml:space="preserve">8.67173480987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98369884490967</t>
+    <t xml:space="preserve">8.98369789123535</t>
   </si>
   <si>
     <t xml:space="preserve">8.91203022003174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77291202545166</t>
+    <t xml:space="preserve">8.77291297912598</t>
   </si>
   <si>
     <t xml:space="preserve">8.85301113128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99634552001953</t>
+    <t xml:space="preserve">8.99634456634521</t>
   </si>
   <si>
     <t xml:space="preserve">9.30409240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05536651611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17340564727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24507236480713</t>
+    <t xml:space="preserve">9.05536556243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17340660095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24507331848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.23242568969727</t>
@@ -2021,13 +2021,13 @@
     <t xml:space="preserve">9.41791820526123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47693634033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2408561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03007221221924</t>
+    <t xml:space="preserve">9.47693824768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24085712432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03007125854492</t>
   </si>
   <si>
     <t xml:space="preserve">9.2197790145874</t>
@@ -2036,22 +2036,22 @@
     <t xml:space="preserve">9.43899631500244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70880222320557</t>
+    <t xml:space="preserve">9.70880031585693</t>
   </si>
   <si>
     <t xml:space="preserve">9.72144889831543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94909954071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0081186294556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713539123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177263259888</t>
+    <t xml:space="preserve">9.94909858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0081176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0713529586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177272796631</t>
   </si>
   <si>
     <t xml:space="preserve">10.2863550186157</t>
@@ -2060,22 +2060,22 @@
     <t xml:space="preserve">10.1556692123413</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1388053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0334119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0291967391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8394889831543</t>
+    <t xml:space="preserve">10.13880443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0334129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0291957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83948993682861</t>
   </si>
   <si>
     <t xml:space="preserve">9.90272521972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87321281433105</t>
+    <t xml:space="preserve">9.873215675354</t>
   </si>
   <si>
     <t xml:space="preserve">9.9996862411499</t>
@@ -2084,55 +2084,55 @@
     <t xml:space="preserve">9.75517463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60762500762939</t>
+    <t xml:space="preserve">9.60762405395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.93223476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3791007995605</t>
+    <t xml:space="preserve">10.3790998458862</t>
   </si>
   <si>
     <t xml:space="preserve">10.4339056015015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3833160400391</t>
+    <t xml:space="preserve">10.3833169937134</t>
   </si>
   <si>
     <t xml:space="preserve">10.4043960571289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.526650428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5814571380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.868124961853</t>
+    <t xml:space="preserve">10.5266513824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5814580917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8681240081787</t>
   </si>
   <si>
     <t xml:space="preserve">10.7585163116455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3622388839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5519466400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.834400177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7247896194458</t>
+    <t xml:space="preserve">10.6151809692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3622369766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.551944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8343982696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7247905731201</t>
   </si>
   <si>
     <t xml:space="preserve">10.6952800750732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4971399307251</t>
+    <t xml:space="preserve">10.4971408843994</t>
   </si>
   <si>
     <t xml:space="preserve">10.8133201599121</t>
@@ -2141,121 +2141,121 @@
     <t xml:space="preserve">10.8807716369629</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5898885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4760627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5477294921875</t>
+    <t xml:space="preserve">10.5898876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4760637283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5477304458618</t>
   </si>
   <si>
     <t xml:space="preserve">10.6025342941284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9608707427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0999908447266</t>
+    <t xml:space="preserve">10.9608697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0999898910522</t>
   </si>
   <si>
     <t xml:space="preserve">10.9945964813232</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3782262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.133713722229</t>
+    <t xml:space="preserve">11.3782253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1337156295776</t>
   </si>
   <si>
     <t xml:space="preserve">10.8976345062256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4676332473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4381217956543</t>
+    <t xml:space="preserve">10.4676313400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4381189346313</t>
   </si>
   <si>
     <t xml:space="preserve">10.269495010376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1261577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95331382751465</t>
+    <t xml:space="preserve">10.1261568069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95331287384033</t>
   </si>
   <si>
     <t xml:space="preserve">10.1303730010986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92380428314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84792137145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79733180999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0587072372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1345891952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055732727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5603771209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690021514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7285480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3922061920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95236873626709</t>
+    <t xml:space="preserve">9.92380332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84791946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79733276367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0587062835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1345882415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055742263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5603761672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690011978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7285490036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.392204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95236778259277</t>
   </si>
   <si>
     <t xml:space="preserve">9.83162879943848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65914535522461</t>
+    <t xml:space="preserve">9.65914440155029</t>
   </si>
   <si>
     <t xml:space="preserve">9.65052032470703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50390911102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47372531890869</t>
+    <t xml:space="preserve">9.50391006469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47372341156006</t>
   </si>
   <si>
     <t xml:space="preserve">9.09856986999512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35729694366455</t>
+    <t xml:space="preserve">9.35729598999023</t>
   </si>
   <si>
     <t xml:space="preserve">9.58152675628662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26674270629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27536582946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25811767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55565357208252</t>
+    <t xml:space="preserve">9.26674175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27536678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25811862945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55565547943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.69795322418213</t>
@@ -2264,37 +2264,37 @@
     <t xml:space="preserve">9.43060302734375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31417560577393</t>
+    <t xml:space="preserve">9.31417655944824</t>
   </si>
   <si>
     <t xml:space="preserve">9.36160850524902</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54271697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8014440536499</t>
+    <t xml:space="preserve">9.54271793365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80144500732422</t>
   </si>
   <si>
     <t xml:space="preserve">9.90493583679199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75401210784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64620876312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93512058258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89200019836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92649555206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1766004562378</t>
+    <t xml:space="preserve">9.7540111541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64620780944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93512153625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89199924468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9264965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1765995025635</t>
   </si>
   <si>
     <t xml:space="preserve">9.93943214416504</t>
@@ -2303,28 +2303,28 @@
     <t xml:space="preserve">9.96099376678467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0644836425781</t>
+    <t xml:space="preserve">10.0644845962524</t>
   </si>
   <si>
     <t xml:space="preserve">10.0601711273193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.28440284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1852245330811</t>
+    <t xml:space="preserve">10.2844018936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1852235794067</t>
   </si>
   <si>
     <t xml:space="preserve">10.3404588699341</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5301933288574</t>
+    <t xml:space="preserve">10.5301923751831</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827585220337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3663320541382</t>
+    <t xml:space="preserve">10.3663311004639</t>
   </si>
   <si>
     <t xml:space="preserve">10.3620195388794</t>
@@ -2333,55 +2333,55 @@
     <t xml:space="preserve">9.96530532836914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79282093048096</t>
+    <t xml:space="preserve">9.79281902313232</t>
   </si>
   <si>
     <t xml:space="preserve">9.61602401733398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74538612365723</t>
+    <t xml:space="preserve">9.74538707733154</t>
   </si>
   <si>
     <t xml:space="preserve">9.81869220733643</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1119184494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0256748199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77126026153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41766548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18912506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02957534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81828308105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74497509002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90452289581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72772693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44485282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58456516265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1378288269043</t>
+    <t xml:space="preserve">10.1119174957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0256757736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77125930786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41766738891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18912410736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02957630157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81828212738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74497604370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9045238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72772884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44485187530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58456420898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13782978057861</t>
   </si>
   <si>
     <t xml:space="preserve">8.17922592163086</t>
@@ -2393,214 +2393,214 @@
     <t xml:space="preserve">8.31721305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41725540161133</t>
+    <t xml:space="preserve">8.41725635528564</t>
   </si>
   <si>
     <t xml:space="preserve">8.52764511108398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39655685424805</t>
+    <t xml:space="preserve">8.39655590057373</t>
   </si>
   <si>
     <t xml:space="preserve">8.50867176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56559181213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66304588317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60698795318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55006980895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50349521636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28789043426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43967819213867</t>
+    <t xml:space="preserve">8.56559085845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66304492950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60698890686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55006790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50349617004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28789138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43967628479004</t>
   </si>
   <si>
     <t xml:space="preserve">8.65873336791992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61561107635498</t>
+    <t xml:space="preserve">8.61561298370361</t>
   </si>
   <si>
     <t xml:space="preserve">8.87002754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97351741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89589881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7665376663208</t>
+    <t xml:space="preserve">8.97351837158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89590072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76653671264648</t>
   </si>
   <si>
     <t xml:space="preserve">8.82690620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07269668579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90021133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77084732055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66735744476318</t>
+    <t xml:space="preserve">9.07269763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90021324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77084922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6673583984375</t>
   </si>
   <si>
     <t xml:space="preserve">8.64579772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40517997741699</t>
+    <t xml:space="preserve">8.40518093109131</t>
   </si>
   <si>
     <t xml:space="preserve">8.28444194793701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27926826477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4431266784668</t>
+    <t xml:space="preserve">8.27926731109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14990329742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44312763214111</t>
   </si>
   <si>
     <t xml:space="preserve">8.39483165740967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23786926269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89462566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97396945953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95844316482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05158805847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91704940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95327138900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02916526794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30858993530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08953380584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19647598266602</t>
+    <t xml:space="preserve">8.23787021636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89462757110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97396898269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95844411849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05158710479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91704893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95327091217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02916431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30858898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08953475952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19647407531738</t>
   </si>
   <si>
     <t xml:space="preserve">8.1637020111084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06366157531738</t>
+    <t xml:space="preserve">8.0636625289917</t>
   </si>
   <si>
     <t xml:space="preserve">8.02054023742676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07918453216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09988307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12058067321777</t>
+    <t xml:space="preserve">8.07918548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09988117218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12058162689209</t>
   </si>
   <si>
     <t xml:space="preserve">8.03261375427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11023139953613</t>
+    <t xml:space="preserve">8.11023235321045</t>
   </si>
   <si>
     <t xml:space="preserve">8.23442077636719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31376457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07400989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80838489532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47417545318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6207857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77515983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62854766845703</t>
+    <t xml:space="preserve">8.31376552581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07401084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80838346481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47417449951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62078666687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62854862213135</t>
   </si>
   <si>
     <t xml:space="preserve">8.6414852142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68460464477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54489421844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54316806793213</t>
+    <t xml:space="preserve">8.68460750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54489326477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54316902160645</t>
   </si>
   <si>
     <t xml:space="preserve">8.539719581604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46631050109863</t>
+    <t xml:space="preserve">8.46631145477295</t>
   </si>
   <si>
     <t xml:space="preserve">8.39115715026855</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52923107147217</t>
+    <t xml:space="preserve">8.5292329788208</t>
   </si>
   <si>
     <t xml:space="preserve">8.47854614257812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61312580108643</t>
+    <t xml:space="preserve">8.61312675476074</t>
   </si>
   <si>
     <t xml:space="preserve">8.59389972686768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59914207458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52573680877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53971767425537</t>
+    <t xml:space="preserve">8.59914398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52573585510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53971862792969</t>
   </si>
   <si>
     <t xml:space="preserve">8.43485164642334</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">8.2251148223877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39989566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47679710388184</t>
+    <t xml:space="preserve">8.39989471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47679805755615</t>
   </si>
   <si>
     <t xml:space="preserve">8.65856838226318</t>
@@ -2624,70 +2624,70 @@
     <t xml:space="preserve">8.69177722930908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71799373626709</t>
+    <t xml:space="preserve">8.71799278259277</t>
   </si>
   <si>
     <t xml:space="preserve">8.74770641326904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99676609039307</t>
+    <t xml:space="preserve">8.99676704406738</t>
   </si>
   <si>
     <t xml:space="preserve">8.90063858032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92248439788818</t>
+    <t xml:space="preserve">8.9224853515625</t>
   </si>
   <si>
     <t xml:space="preserve">8.86568355560303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84820461273193</t>
+    <t xml:space="preserve">8.84820556640625</t>
   </si>
   <si>
     <t xml:space="preserve">8.83509635925293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88752746582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744132995605</t>
+    <t xml:space="preserve">8.88753032684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744228363037</t>
   </si>
   <si>
     <t xml:space="preserve">8.81761932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7826623916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82635879516602</t>
+    <t xml:space="preserve">8.78266334533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263578414917</t>
   </si>
   <si>
     <t xml:space="preserve">8.94433307647705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18465423583984</t>
+    <t xml:space="preserve">9.18465518951416</t>
   </si>
   <si>
     <t xml:space="preserve">9.17154598236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15406703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07541847229004</t>
+    <t xml:space="preserve">9.15406799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07541751861572</t>
   </si>
   <si>
     <t xml:space="preserve">9.07104778289795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9093770980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85694408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91374683380127</t>
+    <t xml:space="preserve">8.90937805175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85694313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91374588012695</t>
   </si>
   <si>
     <t xml:space="preserve">8.99239730834961</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">8.87442111968994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83072566986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49602508544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63235187530518</t>
+    <t xml:space="preserve">8.83072662353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4960241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63234996795654</t>
   </si>
   <si>
     <t xml:space="preserve">8.73721885681152</t>
@@ -2717,22 +2717,22 @@
     <t xml:space="preserve">8.30901050567627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15170860290527</t>
+    <t xml:space="preserve">8.15170955657959</t>
   </si>
   <si>
     <t xml:space="preserve">8.05732822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22686386108398</t>
+    <t xml:space="preserve">8.22686195373535</t>
   </si>
   <si>
     <t xml:space="preserve">8.33872127532959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36319160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21113204956055</t>
+    <t xml:space="preserve">8.36319065093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21113300323486</t>
   </si>
   <si>
     <t xml:space="preserve">8.26181983947754</t>
@@ -2753,31 +2753,31 @@
     <t xml:space="preserve">8.26706314086914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5729284286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19190788269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77768087387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67281293869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69029140472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35471487045288</t>
+    <t xml:space="preserve">8.57292747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19190692901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77768039703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67281246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6902904510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35471534729004</t>
   </si>
   <si>
     <t xml:space="preserve">7.13798856735229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08380746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11701488494873</t>
+    <t xml:space="preserve">7.08380699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11701536178589</t>
   </si>
   <si>
     <t xml:space="preserve">6.93349695205688</t>
@@ -2786,16 +2786,16 @@
     <t xml:space="preserve">6.805908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41440200805664</t>
+    <t xml:space="preserve">6.4144024848938</t>
   </si>
   <si>
     <t xml:space="preserve">5.04238367080688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91129875183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80992841720581</t>
+    <t xml:space="preserve">4.91129970550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80992746353149</t>
   </si>
   <si>
     <t xml:space="preserve">4.08983659744263</t>
@@ -2804,28 +2804,28 @@
     <t xml:space="preserve">4.1938304901123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204761505127</t>
+    <t xml:space="preserve">3.92204785346985</t>
   </si>
   <si>
     <t xml:space="preserve">4.06012392044067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15974855422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38521337509155</t>
+    <t xml:space="preserve">4.15974903106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38521385192871</t>
   </si>
   <si>
     <t xml:space="preserve">4.56174087524414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49532508850098</t>
+    <t xml:space="preserve">4.49532461166382</t>
   </si>
   <si>
     <t xml:space="preserve">4.67534780502319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70331192016602</t>
+    <t xml:space="preserve">4.70331239700317</t>
   </si>
   <si>
     <t xml:space="preserve">4.96373271942139</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">4.86585664749146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83964061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87634325027466</t>
+    <t xml:space="preserve">4.83963966369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87634420394897</t>
   </si>
   <si>
     <t xml:space="preserve">4.79244995117188</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">5.01267194747925</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04762744903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17346858978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41116809844971</t>
+    <t xml:space="preserve">5.0476279258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17346811294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41116857528687</t>
   </si>
   <si>
     <t xml:space="preserve">5.28707551956177</t>
@@ -2861,82 +2861,82 @@
     <t xml:space="preserve">5.24862384796143</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17871189117432</t>
+    <t xml:space="preserve">5.17871284484863</t>
   </si>
   <si>
     <t xml:space="preserve">4.94625520706177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03713989257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06860113143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0388879776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78720617294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93576908111572</t>
+    <t xml:space="preserve">5.03714036941528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06860065460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03888893127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78720664978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93576860427856</t>
   </si>
   <si>
     <t xml:space="preserve">5.13152170181274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17172050476074</t>
+    <t xml:space="preserve">5.17172145843506</t>
   </si>
   <si>
     <t xml:space="preserve">5.16298198699951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26260566711426</t>
+    <t xml:space="preserve">5.26260662078857</t>
   </si>
   <si>
     <t xml:space="preserve">5.57021808624268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58769559860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27833652496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53176593780518</t>
+    <t xml:space="preserve">5.58769607543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27833604812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53176546096802</t>
   </si>
   <si>
     <t xml:space="preserve">5.31853580474854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39893388748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44437694549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34650039672852</t>
+    <t xml:space="preserve">5.39893436431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44437646865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34649991989136</t>
   </si>
   <si>
     <t xml:space="preserve">5.25211906433105</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02315950393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05461835861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.439133644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95499467849731</t>
+    <t xml:space="preserve">5.02315807342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05461883544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43913316726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.954993724823</t>
   </si>
   <si>
     <t xml:space="preserve">5.11404371261597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86236143112183</t>
+    <t xml:space="preserve">4.86236095428467</t>
   </si>
   <si>
     <t xml:space="preserve">4.84837865829468</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">4.89382171630859</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97072505950928</t>
+    <t xml:space="preserve">4.97072458267212</t>
   </si>
   <si>
     <t xml:space="preserve">4.97771549224854</t>
@@ -2957,25 +2957,25 @@
     <t xml:space="preserve">4.88683080673218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10705232620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32028245925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58594751358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64362478256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93900203704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02639198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91977596282959</t>
+    <t xml:space="preserve">5.10705184936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32028341293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58594846725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64362525939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93900156021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02639102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91977691650391</t>
   </si>
   <si>
     <t xml:space="preserve">5.83588218688965</t>
@@ -2984,25 +2984,25 @@
     <t xml:space="preserve">5.46535015106201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47059392929077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46360158920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40942096710205</t>
+    <t xml:space="preserve">5.47059345245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4636025428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40942001342773</t>
   </si>
   <si>
     <t xml:space="preserve">5.40767335891724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31503915786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42165565490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08607959747314</t>
+    <t xml:space="preserve">5.31503963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42165517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08607864379883</t>
   </si>
   <si>
     <t xml:space="preserve">5.15249490737915</t>
@@ -3014,16 +3014,16 @@
     <t xml:space="preserve">5.07559251785278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96198606491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11579084396362</t>
+    <t xml:space="preserve">4.96198511123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11579179763794</t>
   </si>
   <si>
     <t xml:space="preserve">5.02141046524048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19793748855591</t>
+    <t xml:space="preserve">5.19793796539307</t>
   </si>
   <si>
     <t xml:space="preserve">5.10880041122437</t>
@@ -3035,25 +3035,25 @@
     <t xml:space="preserve">4.84663105010986</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87284851074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93227338790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01616716384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02490663528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15948629379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0441312789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95848941802979</t>
+    <t xml:space="preserve">4.87284898757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93227291107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01616668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02490615844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15948581695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04413175582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9584903717041</t>
   </si>
   <si>
     <t xml:space="preserve">4.92178630828857</t>
@@ -3077,31 +3077,31 @@
     <t xml:space="preserve">4.51455020904541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52678442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72952890396118</t>
+    <t xml:space="preserve">4.52678489685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72952938079834</t>
   </si>
   <si>
     <t xml:space="preserve">4.44289064407349</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5232892036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67709589004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65437364578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55649757385254</t>
+    <t xml:space="preserve">4.52328968048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67709493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65437412261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55649709701538</t>
   </si>
   <si>
     <t xml:space="preserve">4.50930738449097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46910715103149</t>
+    <t xml:space="preserve">4.46910762786865</t>
   </si>
   <si>
     <t xml:space="preserve">4.42541313171387</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">4.30831003189087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45337772369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40269184112549</t>
+    <t xml:space="preserve">4.45337820053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40269088745117</t>
   </si>
   <si>
     <t xml:space="preserve">4.35812282562256</t>
@@ -3125,19 +3125,19 @@
     <t xml:space="preserve">4.27859878540039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30481481552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29957103729248</t>
+    <t xml:space="preserve">4.30481576919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2995719909668</t>
   </si>
   <si>
     <t xml:space="preserve">4.21742582321167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1772255897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20606517791748</t>
+    <t xml:space="preserve">4.17722654342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20606470108032</t>
   </si>
   <si>
     <t xml:space="preserve">4.21829986572266</t>
@@ -3149,49 +3149,49 @@
     <t xml:space="preserve">4.0478892326355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05313301086426</t>
+    <t xml:space="preserve">4.0531325340271</t>
   </si>
   <si>
     <t xml:space="preserve">4.03390693664551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98496842384338</t>
+    <t xml:space="preserve">3.98496890068054</t>
   </si>
   <si>
     <t xml:space="preserve">3.95088720321655</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00768947601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1746039390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17809963226318</t>
+    <t xml:space="preserve">4.0076904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17460441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17810010910034</t>
   </si>
   <si>
     <t xml:space="preserve">4.06274604797363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79620695114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75426030158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7228000164032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64677095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58210253715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72979140281677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61006760597229</t>
+    <t xml:space="preserve">3.79620718955994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75426054000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72280049324036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6467707157135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58210206031799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72979164123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61006736755371</t>
   </si>
   <si>
     <t xml:space="preserve">3.72367382049561</t>
@@ -3200,52 +3200,52 @@
     <t xml:space="preserve">3.62841939926147</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71231412887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74901723861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85213685035706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77523422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89058828353882</t>
+    <t xml:space="preserve">3.71231341362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74901676177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8521363735199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77523446083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89058804512024</t>
   </si>
   <si>
     <t xml:space="preserve">3.86349725723267</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79882955551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70444822311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80319929122925</t>
+    <t xml:space="preserve">3.79882860183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70444774627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80319857597351</t>
   </si>
   <si>
     <t xml:space="preserve">3.6135630607605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74377369880676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82329773902893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91243529319763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81543302536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83553266525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87048816680908</t>
+    <t xml:space="preserve">3.7437732219696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82329797744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91243600845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81543350219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83553242683411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87048888206482</t>
   </si>
   <si>
     <t xml:space="preserve">3.76824235916138</t>
@@ -3254,19 +3254,19 @@
     <t xml:space="preserve">3.66337513923645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55326390266418</t>
+    <t xml:space="preserve">3.55326414108276</t>
   </si>
   <si>
     <t xml:space="preserve">3.34527683258057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55850744247437</t>
+    <t xml:space="preserve">3.55850768089294</t>
   </si>
   <si>
     <t xml:space="preserve">3.74464750289917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83291125297546</t>
+    <t xml:space="preserve">3.83291172981262</t>
   </si>
   <si>
     <t xml:space="preserve">4.42191791534424</t>
@@ -3275,16 +3275,16 @@
     <t xml:space="preserve">4.39919567108154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81866693496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88857793807983</t>
+    <t xml:space="preserve">4.81866598129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88857889175415</t>
   </si>
   <si>
     <t xml:space="preserve">4.89906454086304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93052625656128</t>
+    <t xml:space="preserve">4.93052577972412</t>
   </si>
   <si>
     <t xml:space="preserve">5.00393295288086</t>
@@ -3296,49 +3296,49 @@
     <t xml:space="preserve">5.49506235122681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55973148345947</t>
+    <t xml:space="preserve">5.55973100662231</t>
   </si>
   <si>
     <t xml:space="preserve">5.47583675384521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46185445785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68633937835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04515933990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98682880401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90551996231079</t>
+    <t xml:space="preserve">5.46185493469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68633890151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04515981674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98682975769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90552043914795</t>
   </si>
   <si>
     <t xml:space="preserve">5.92496299743652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73229598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82067537307739</t>
+    <t xml:space="preserve">5.73229646682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82067489624023</t>
   </si>
   <si>
     <t xml:space="preserve">5.84895658493042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88430833816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12470054626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.013343334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02218103408813</t>
+    <t xml:space="preserve">5.88430881500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12470102310181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01334238052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02218055725098</t>
   </si>
   <si>
     <t xml:space="preserve">6.02571582794189</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">5.93203353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00450563430786</t>
+    <t xml:space="preserve">6.0045051574707</t>
   </si>
   <si>
     <t xml:space="preserve">5.97445583343506</t>
@@ -3362,10 +3362,10 @@
     <t xml:space="preserve">6.03278636932373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94440650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78885889053345</t>
+    <t xml:space="preserve">5.94440603256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78885936737061</t>
   </si>
   <si>
     <t xml:space="preserve">5.77295064926147</t>
@@ -3374,10 +3374,10 @@
     <t xml:space="preserve">5.93380165100098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89137887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81183767318726</t>
+    <t xml:space="preserve">5.89137983322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8118371963501</t>
   </si>
   <si>
     <t xml:space="preserve">5.8542594909668</t>
@@ -3386,10 +3386,10 @@
     <t xml:space="preserve">5.77648496627808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9832935333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30322742462158</t>
+    <t xml:space="preserve">5.98329401016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30322790145874</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438972473145</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">6.25903797149658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14591217041016</t>
+    <t xml:space="preserve">6.14591264724731</t>
   </si>
   <si>
     <t xml:space="preserve">6.32267093658447</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">6.23429107666016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28908681869507</t>
+    <t xml:space="preserve">6.28908777236938</t>
   </si>
   <si>
     <t xml:space="preserve">5.96561765670776</t>
@@ -3419,22 +3419,22 @@
     <t xml:space="preserve">5.75881004333496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55907201766968</t>
+    <t xml:space="preserve">5.55907154083252</t>
   </si>
   <si>
     <t xml:space="preserve">5.46008729934692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53255844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62800788879395</t>
+    <t xml:space="preserve">5.53255796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6280083656311</t>
   </si>
   <si>
     <t xml:space="preserve">5.79946422576904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6828031539917</t>
+    <t xml:space="preserve">5.68280363082886</t>
   </si>
   <si>
     <t xml:space="preserve">5.67396545410156</t>
@@ -3455,13 +3455,13 @@
     <t xml:space="preserve">6.14060926437378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21484804153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2219181060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28378486633301</t>
+    <t xml:space="preserve">6.21484851837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22191858291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28378391265869</t>
   </si>
   <si>
     <t xml:space="preserve">6.65497875213623</t>
@@ -3473,13 +3473,13 @@
     <t xml:space="preserve">6.51533889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36332607269287</t>
+    <t xml:space="preserve">6.36332559585571</t>
   </si>
   <si>
     <t xml:space="preserve">6.39514207839966</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63553476333618</t>
+    <t xml:space="preserve">6.63553428649902</t>
   </si>
   <si>
     <t xml:space="preserve">6.56659841537476</t>
@@ -3488,16 +3488,16 @@
     <t xml:space="preserve">6.79461765289307</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72790575027466</t>
+    <t xml:space="preserve">7.7279052734375</t>
   </si>
   <si>
     <t xml:space="preserve">7.64129304885864</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81805276870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94531869888306</t>
+    <t xml:space="preserve">7.81805324554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94531917572021</t>
   </si>
   <si>
     <t xml:space="preserve">7.92764377593994</t>
@@ -3506,13 +3506,13 @@
     <t xml:space="preserve">8.20869064331055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46322250366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58695316314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4402437210083</t>
+    <t xml:space="preserve">8.46322345733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58695411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44024562835693</t>
   </si>
   <si>
     <t xml:space="preserve">8.55160236358643</t>
@@ -3524,40 +3524,40 @@
     <t xml:space="preserve">8.76371383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54630184173584</t>
+    <t xml:space="preserve">8.54629898071289</t>
   </si>
   <si>
     <t xml:space="preserve">8.57104587554932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53746223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43140602111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24050807952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17157077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03369903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33242130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10970497131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40489387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45084857940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53569602966309</t>
+    <t xml:space="preserve">8.53746128082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43140697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24050712585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17157173156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03369808197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33242034912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10970401763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40489292144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45084953308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53569412231445</t>
   </si>
   <si>
     <t xml:space="preserve">8.49503993988037</t>
@@ -3569,10 +3569,10 @@
     <t xml:space="preserve">8.54983520507812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41549968719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19985198974609</t>
+    <t xml:space="preserve">8.41549873352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19985294342041</t>
   </si>
   <si>
     <t xml:space="preserve">8.11324024200439</t>
@@ -3581,115 +3581,115 @@
     <t xml:space="preserve">8.05491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04430484771729</t>
+    <t xml:space="preserve">8.04430389404297</t>
   </si>
   <si>
     <t xml:space="preserve">8.43317317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12561416625977</t>
+    <t xml:space="preserve">8.12561321258545</t>
   </si>
   <si>
     <t xml:space="preserve">8.10086727142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1591968536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79683971405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87638282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86931276321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84810256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11854267120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94885492324829</t>
+    <t xml:space="preserve">8.15919780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79684114456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87638139724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86931228637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8481011390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11854362487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94885396957397</t>
   </si>
   <si>
     <t xml:space="preserve">8.21575927734375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65896892547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91703796386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98774147033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05314254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41373062133789</t>
+    <t xml:space="preserve">7.65896987915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91703748703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9877405166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05314350128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41373157501221</t>
   </si>
   <si>
     <t xml:space="preserve">8.5675106048584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65412425994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44908142089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73366451263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64174938201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66119384765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5692777633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33418846130371</t>
+    <t xml:space="preserve">8.6541223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44908237457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73366355895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64175033569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66119289398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56927871704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33418941497803</t>
   </si>
   <si>
     <t xml:space="preserve">8.28292846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36070346832275</t>
+    <t xml:space="preserve">8.36070251464844</t>
   </si>
   <si>
     <t xml:space="preserve">8.39120388031006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22614097595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25126075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48270416259766</t>
+    <t xml:space="preserve">8.22614288330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25125980377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48270511627197</t>
   </si>
   <si>
     <t xml:space="preserve">8.3929967880249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36967277526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59573459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69441318511963</t>
+    <t xml:space="preserve">8.36967372894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59573650360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69441413879395</t>
   </si>
   <si>
     <t xml:space="preserve">8.76797389984131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63700199127197</t>
+    <t xml:space="preserve">8.63700103759766</t>
   </si>
   <si>
     <t xml:space="preserve">8.64776706695557</t>
@@ -3698,82 +3698,82 @@
     <t xml:space="preserve">8.61547088623047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55447101593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56702995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74106121063232</t>
+    <t xml:space="preserve">8.55447006225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56702899932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74106216430664</t>
   </si>
   <si>
     <t xml:space="preserve">8.583176612854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57241249084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38043880462646</t>
+    <t xml:space="preserve">8.57241153717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38043785095215</t>
   </si>
   <si>
     <t xml:space="preserve">8.2404956817627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35352611541748</t>
+    <t xml:space="preserve">8.27099704742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3535270690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.40914440155029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46117496490479</t>
+    <t xml:space="preserve">8.4611759185791</t>
   </si>
   <si>
     <t xml:space="preserve">8.50961685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22793674468994</t>
+    <t xml:space="preserve">8.22793769836426</t>
   </si>
   <si>
     <t xml:space="preserve">8.22973155975342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24587821960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4037618637085</t>
+    <t xml:space="preserve">8.24587726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40376281738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.39838027954102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45758724212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05928707122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82963705062866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07543468475342</t>
+    <t xml:space="preserve">8.45758628845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05928611755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93907880783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82963609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0754337310791</t>
   </si>
   <si>
     <t xml:space="preserve">8.04672908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87449073791504</t>
+    <t xml:space="preserve">7.87448883056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263999938965</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87090253829956</t>
+    <t xml:space="preserve">7.87090301513672</t>
   </si>
   <si>
     <t xml:space="preserve">7.64842891693115</t>
@@ -3788,67 +3788,67 @@
     <t xml:space="preserve">7.65740013122559</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57127952575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65919351577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87987375259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80990171432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87628364562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87269687652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69328212738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75787019729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80810737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70584201812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6789288520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88884401321411</t>
+    <t xml:space="preserve">7.57128047943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65919399261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87987327575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80990076065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87628316879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87269639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69328260421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7578706741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80810880661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70584154129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67892932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88884353637695</t>
   </si>
   <si>
     <t xml:space="preserve">7.84578418731689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89243268966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90319776535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69866371154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73275327682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37392473220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31471872329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45466184616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47798585891724</t>
+    <t xml:space="preserve">7.89243125915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90319633483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69866418838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73275375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37392520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31471824645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45466232299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47798538208008</t>
   </si>
   <si>
     <t xml:space="preserve">7.54436779022217</t>
@@ -3857,10 +3857,10 @@
     <t xml:space="preserve">7.61433982849121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73634147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65201711654663</t>
+    <t xml:space="preserve">7.73634099960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65201616287231</t>
   </si>
   <si>
     <t xml:space="preserve">7.74172449111938</t>
@@ -3869,31 +3869,31 @@
     <t xml:space="preserve">7.61792802810669</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60357522964478</t>
+    <t xml:space="preserve">7.60357570648193</t>
   </si>
   <si>
     <t xml:space="preserve">7.53539705276489</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47977876663208</t>
+    <t xml:space="preserve">7.4797797203064</t>
   </si>
   <si>
     <t xml:space="preserve">7.44748497009277</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70404720306396</t>
+    <t xml:space="preserve">7.70404767990112</t>
   </si>
   <si>
     <t xml:space="preserve">7.650221824646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77760648727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52822160720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24833488464355</t>
+    <t xml:space="preserve">7.77760696411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52822208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2483344078064</t>
   </si>
   <si>
     <t xml:space="preserve">7.24654150009155</t>
@@ -3902,19 +3902,19 @@
     <t xml:space="preserve">7.62331056594849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68431186676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72378158569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98393249511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625520706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01084613800049</t>
+    <t xml:space="preserve">7.6843113899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72378206253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98393297195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01084518432617</t>
   </si>
   <si>
     <t xml:space="preserve">8.15617084503174</t>
@@ -3923,34 +3923,34 @@
     <t xml:space="preserve">8.14540576934814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37146854400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09516906738281</t>
+    <t xml:space="preserve">8.37146759033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09517097473145</t>
   </si>
   <si>
     <t xml:space="preserve">8.22255516052246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59932518005371</t>
+    <t xml:space="preserve">8.59932422637939</t>
   </si>
   <si>
     <t xml:space="preserve">8.80385589599609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65673542022705</t>
+    <t xml:space="preserve">8.65673637390137</t>
   </si>
   <si>
     <t xml:space="preserve">8.54370594024658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59035301208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85947608947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8074426651001</t>
+    <t xml:space="preserve">8.59035396575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85947418212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80744457244873</t>
   </si>
   <si>
     <t xml:space="preserve">8.91868114471436</t>
@@ -3962,34 +3962,34 @@
     <t xml:space="preserve">8.8971529006958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84691524505615</t>
+    <t xml:space="preserve">8.84691429138184</t>
   </si>
   <si>
     <t xml:space="preserve">9.02902126312256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02005004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88100337982178</t>
+    <t xml:space="preserve">9.02005100250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88100433349609</t>
   </si>
   <si>
     <t xml:space="preserve">8.6352071762085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63879489898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87203502655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83794403076172</t>
+    <t xml:space="preserve">8.63879585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87203407287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83794593811035</t>
   </si>
   <si>
     <t xml:space="preserve">8.72491359710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27122974395752</t>
+    <t xml:space="preserve">9.2712287902832</t>
   </si>
   <si>
     <t xml:space="preserve">9.52689456939697</t>
@@ -4001,34 +4001,34 @@
     <t xml:space="preserve">9.73322200775146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41027641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31159973144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20843601226807</t>
+    <t xml:space="preserve">9.41027545928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31159782409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20843505859375</t>
   </si>
   <si>
     <t xml:space="preserve">9.18600749969482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99313640594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73926734924316</t>
+    <t xml:space="preserve">8.99313735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73926639556885</t>
   </si>
   <si>
     <t xml:space="preserve">8.51499938964844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7187328338623</t>
+    <t xml:space="preserve">8.71873378753662</t>
   </si>
   <si>
     <t xml:space="preserve">8.66234302520752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76420974731445</t>
+    <t xml:space="preserve">8.76421070098877</t>
   </si>
   <si>
     <t xml:space="preserve">8.65506649017334</t>
@@ -4040,16 +4040,16 @@
     <t xml:space="preserve">8.11480617523193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87833023071289</t>
+    <t xml:space="preserve">7.87832927703857</t>
   </si>
   <si>
     <t xml:space="preserve">8.20394134521484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12572002410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14936923980713</t>
+    <t xml:space="preserve">8.1257209777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14936828613281</t>
   </si>
   <si>
     <t xml:space="preserve">8.2694263458252</t>
@@ -4061,10 +4061,10 @@
     <t xml:space="preserve">8.34946537017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1821117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11116790771484</t>
+    <t xml:space="preserve">8.18211078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11116886138916</t>
   </si>
   <si>
     <t xml:space="preserve">8.03840732574463</t>
@@ -4079,13 +4079,13 @@
     <t xml:space="preserve">8.28216075897217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21121597290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02749347686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2912540435791</t>
+    <t xml:space="preserve">8.21121692657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02749252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29125499725342</t>
   </si>
   <si>
     <t xml:space="preserve">8.28943634033203</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">8.30398845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39312267303467</t>
+    <t xml:space="preserve">8.39312171936035</t>
   </si>
   <si>
     <t xml:space="preserve">8.46042728424072</t>
@@ -4103,13 +4103,13 @@
     <t xml:space="preserve">8.44587516784668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37675094604492</t>
+    <t xml:space="preserve">8.37674999237061</t>
   </si>
   <si>
     <t xml:space="preserve">8.70781898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82787609100342</t>
+    <t xml:space="preserve">8.82787704467773</t>
   </si>
   <si>
     <t xml:space="preserve">8.89518260955811</t>
@@ -4127,7 +4127,7 @@
     <t xml:space="preserve">9.04798221588135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12711048126221</t>
+    <t xml:space="preserve">9.12711143493652</t>
   </si>
   <si>
     <t xml:space="preserve">9.1498498916626</t>
@@ -4136,13 +4136,13 @@
     <t xml:space="preserve">9.33175468444824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55458927154541</t>
+    <t xml:space="preserve">9.55459022521973</t>
   </si>
   <si>
     <t xml:space="preserve">9.7546854019165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79106712341309</t>
+    <t xml:space="preserve">9.79106616973877</t>
   </si>
   <si>
     <t xml:space="preserve">9.42270755767822</t>
@@ -4160,16 +4160,16 @@
     <t xml:space="preserve">9.88656711578369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3731632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3140459060669</t>
+    <t xml:space="preserve">10.3731641769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3140449523926</t>
   </si>
   <si>
     <t xml:space="preserve">10.1821632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3868064880371</t>
+    <t xml:space="preserve">10.3868074417114</t>
   </si>
   <si>
     <t xml:space="preserve">10.395902633667</t>
@@ -4193,7 +4193,7 @@
     <t xml:space="preserve">10.5414266586304</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7824506759644</t>
+    <t xml:space="preserve">10.7824516296387</t>
   </si>
   <si>
     <t xml:space="preserve">10.4777612686157</t>
@@ -4223,7 +4223,7 @@
     <t xml:space="preserve">10.4049978256226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9188823699951</t>
+    <t xml:space="preserve">10.9188814163208</t>
   </si>
   <si>
     <t xml:space="preserve">10.6960468292236</t>
@@ -4235,7 +4235,7 @@
     <t xml:space="preserve">11.8738861083984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2558870315552</t>
+    <t xml:space="preserve">12.2558879852295</t>
   </si>
   <si>
     <t xml:space="preserve">11.5782880783081</t>
@@ -4253,13 +4253,13 @@
     <t xml:space="preserve">11.0825958251953</t>
   </si>
   <si>
-    <t xml:space="preserve">11.319073677063</t>
+    <t xml:space="preserve">11.3190727233887</t>
   </si>
   <si>
     <t xml:space="preserve">11.5009784698486</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2013158798218</t>
+    <t xml:space="preserve">12.2013149261475</t>
   </si>
   <si>
     <t xml:space="preserve">12.2695293426514</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">12.5287446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5105543136597</t>
+    <t xml:space="preserve">12.510555267334</t>
   </si>
   <si>
     <t xml:space="preserve">12.6333417892456</t>
@@ -4301,7 +4301,7 @@
     <t xml:space="preserve">12.6424360275269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2108917236328</t>
+    <t xml:space="preserve">13.2108907699585</t>
   </si>
   <si>
     <t xml:space="preserve">13.0881061553955</t>
@@ -4310,10 +4310,10 @@
     <t xml:space="preserve">13.5110359191895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6247253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.69748878479</t>
+    <t xml:space="preserve">13.6247262954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6974897384644</t>
   </si>
   <si>
     <t xml:space="preserve">13.6656541824341</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">12.3604822158813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7970542907715</t>
+    <t xml:space="preserve">12.7970552444458</t>
   </si>
   <si>
     <t xml:space="preserve">12.7379369735718</t>
@@ -4343,28 +4343,28 @@
     <t xml:space="preserve">13.5428686141968</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3882503509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245820999146</t>
+    <t xml:space="preserve">13.3882493972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245811462402</t>
   </si>
   <si>
     <t xml:space="preserve">13.2199869155884</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7151985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8425331115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2836513519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4200820922852</t>
+    <t xml:space="preserve">12.71519947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8425321578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.283652305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4200830459595</t>
   </si>
   <si>
     <t xml:space="preserve">13.9930858612061</t>
@@ -4373,16 +4373,16 @@
     <t xml:space="preserve">14.1795377731323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0931329727173</t>
+    <t xml:space="preserve">14.093132019043</t>
   </si>
   <si>
     <t xml:space="preserve">13.7293224334717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.911226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2216014862061</t>
+    <t xml:space="preserve">13.9112272262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2216005325317</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270376205444</t>
@@ -4403,22 +4403,22 @@
     <t xml:space="preserve">14.4763851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5875625610352</t>
+    <t xml:space="preserve">14.5875635147095</t>
   </si>
   <si>
     <t xml:space="preserve">14.6199913024902</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5736665725708</t>
+    <t xml:space="preserve">14.5736656188965</t>
   </si>
   <si>
     <t xml:space="preserve">14.7219047546387</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8284511566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7867584228516</t>
+    <t xml:space="preserve">14.8284502029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7867593765259</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382169723511</t>
@@ -4436,28 +4436,28 @@
     <t xml:space="preserve">12.9847393035889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1925916671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.011926651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2389163970947</t>
+    <t xml:space="preserve">12.192590713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0119256973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2389154434204</t>
   </si>
   <si>
     <t xml:space="preserve">12.3084011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6737565994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3216924667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5347833633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5533142089844</t>
+    <t xml:space="preserve">11.6737575531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3216915130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5347843170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5533132553101</t>
   </si>
   <si>
     <t xml:space="preserve">11.8405246734619</t>
@@ -4478,7 +4478,7 @@
     <t xml:space="preserve">10.6082954406738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2886562347412</t>
+    <t xml:space="preserve">10.2886552810669</t>
   </si>
   <si>
     <t xml:space="preserve">11.3309564590454</t>
@@ -4487,16 +4487,16 @@
     <t xml:space="preserve">11.7478761672974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8173627853394</t>
+    <t xml:space="preserve">11.8173637390137</t>
   </si>
   <si>
     <t xml:space="preserve">11.7154493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5811080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1132326126099</t>
+    <t xml:space="preserve">11.581109046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1132316589355</t>
   </si>
   <si>
     <t xml:space="preserve">11.2938966751099</t>
@@ -4508,7 +4508,7 @@
     <t xml:space="preserve">11.789568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6691246032715</t>
+    <t xml:space="preserve">11.6691236495972</t>
   </si>
   <si>
     <t xml:space="preserve">11.4421348571777</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">12.2667102813721</t>
   </si>
   <si>
-    <t xml:space="preserve">12.294506072998</t>
+    <t xml:space="preserve">12.2945051193237</t>
   </si>
   <si>
     <t xml:space="preserve">12.1555299758911</t>
@@ -4565,13 +4565,13 @@
     <t xml:space="preserve">11.8961143493652</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9476795196533</t>
+    <t xml:space="preserve">12.947678565979</t>
   </si>
   <si>
     <t xml:space="preserve">12.8318681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0681219100952</t>
+    <t xml:space="preserve">13.0681228637695</t>
   </si>
   <si>
     <t xml:space="preserve">12.8828248977661</t>
@@ -4580,16 +4580,16 @@
     <t xml:space="preserve">12.7484836578369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.739218711853</t>
+    <t xml:space="preserve">12.7392177581787</t>
   </si>
   <si>
     <t xml:space="preserve">12.683629989624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1144466400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2348899841309</t>
+    <t xml:space="preserve">13.114447593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2348909378052</t>
   </si>
   <si>
     <t xml:space="preserve">12.7809114456177</t>
@@ -4598,10 +4598,10 @@
     <t xml:space="preserve">12.3778877258301</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3825197219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9986352920532</t>
+    <t xml:space="preserve">12.3825206756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9986362457275</t>
   </si>
   <si>
     <t xml:space="preserve">13.2626848220825</t>
@@ -4622,7 +4622,7 @@
     <t xml:space="preserve">12.5492887496948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4288463592529</t>
+    <t xml:space="preserve">12.4288454055786</t>
   </si>
   <si>
     <t xml:space="preserve">12.7855434417725</t>
@@ -4634,10 +4634,10 @@
     <t xml:space="preserve">11.8080978393555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1647958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5214948654175</t>
+    <t xml:space="preserve">12.1647968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5214939117432</t>
   </si>
   <si>
     <t xml:space="preserve">12.2898721694946</t>
@@ -4652,7 +4652,7 @@
     <t xml:space="preserve">13.7212972640991</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9019622802734</t>
+    <t xml:space="preserve">13.9019632339478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4248199462891</t>
@@ -4676,13 +4676,13 @@
     <t xml:space="preserve">13.9297571182251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741683959961</t>
+    <t xml:space="preserve">13.8741674423218</t>
   </si>
   <si>
     <t xml:space="preserve">14.0455675125122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.939022064209</t>
+    <t xml:space="preserve">13.9390211105347</t>
   </si>
   <si>
     <t xml:space="preserve">14.2540283203125</t>
@@ -4691,7 +4691,7 @@
     <t xml:space="preserve">14.6477870941162</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1845417022705</t>
+    <t xml:space="preserve">14.1845426559448</t>
   </si>
   <si>
     <t xml:space="preserve">14.5505037307739</t>
@@ -4727,10 +4727,10 @@
     <t xml:space="preserve">14.7543325424194</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4538316726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5279493331909</t>
+    <t xml:space="preserve">15.4538326263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5279483795166</t>
   </si>
   <si>
     <t xml:space="preserve">15.0878686904907</t>
@@ -5790,6 +5790,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.7349996566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8199996948242</t>
   </si>
 </sst>
 </file>
@@ -61875,7 +61878,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6494560185</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>2395283</v>
@@ -61896,6 +61899,32 @@
         <v>1925</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6493402778</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>2078081</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>14.8900003433228</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>14.7250003814697</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>14.7600002288818</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>14.8199996948242</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1931">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,166 +44,166 @@
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11748886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88688039779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58708477020264</t>
+    <t xml:space="preserve">8.31735324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11748790740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88687801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58708572387695</t>
   </si>
   <si>
     <t xml:space="preserve">7.50252819061279</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46409273147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021671295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45640516281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98749828338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92600154876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508390426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74151468276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99518537521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17583036422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26423120498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729104995728</t>
+    <t xml:space="preserve">7.46409177780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021575927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45640563964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98749780654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92599964141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14508247375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74151420593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99518632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17582988739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892530441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26423025131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28729152679443</t>
   </si>
   <si>
     <t xml:space="preserve">7.19889116287231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84528732299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86834907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797113418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78379201889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64158248901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17198610305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33341407775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10664653778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53711891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4448766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20273590087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50637197494507</t>
+    <t xml:space="preserve">6.84528827667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86834955215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41796827316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78379106521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64158296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17198467254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33341312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10664796829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53711843490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44487571716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20273447036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50637149810791</t>
   </si>
   <si>
     <t xml:space="preserve">7.233482837677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89909791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91062879562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55633544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72545194625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90993928909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85613107681274</t>
+    <t xml:space="preserve">6.89909839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9106273651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55633687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7254524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90994024276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85612916946411</t>
   </si>
   <si>
     <t xml:space="preserve">8.02524471282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34809875488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44034481048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13286399841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28660202026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00218296051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24816703796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15592479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39422130584717</t>
+    <t xml:space="preserve">8.34809970855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44034290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13286304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28660297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00218486785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24816799163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15592288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3942232131958</t>
   </si>
   <si>
     <t xml:space="preserve">8.24048233032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20204544067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38653373718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14055156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08674049377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41728115081787</t>
+    <t xml:space="preserve">8.20204734802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38653564453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14054775238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08674240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4172830581665</t>
   </si>
   <si>
     <t xml:space="preserve">8.25585460662842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9406886100769</t>
+    <t xml:space="preserve">7.94068813323975</t>
   </si>
   <si>
     <t xml:space="preserve">8.0790548324585</t>
@@ -212,16 +212,16 @@
     <t xml:space="preserve">8.05599212646484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51721382141113</t>
+    <t xml:space="preserve">8.51721477508545</t>
   </si>
   <si>
     <t xml:space="preserve">8.55564880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61714553833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87850379943848</t>
+    <t xml:space="preserve">8.61714649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87850475311279</t>
   </si>
   <si>
     <t xml:space="preserve">8.87081718444824</t>
@@ -230,121 +230,121 @@
     <t xml:space="preserve">8.90925216674805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17061042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30897617340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34741306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40122032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10911655426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27822685241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28591537475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05530643463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93231391906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45571804046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40959358215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85544395446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69401550292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66326808929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74782657623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75551414489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91693782806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11680126190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14754867553711</t>
+    <t xml:space="preserve">9.17061233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3089771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.347412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40122127532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10911464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27822875976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28591728210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05530548095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93231201171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45571708679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40959644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85544204711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.694016456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66326904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74782466888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75551128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91693878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11680221557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14754962921143</t>
   </si>
   <si>
     <t xml:space="preserve">8.84775638580322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03224468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09535121917725</t>
+    <t xml:space="preserve">9.0322437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09534931182861</t>
   </si>
   <si>
     <t xml:space="preserve">9.20578956604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22945594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4424409866333</t>
+    <t xml:space="preserve">9.22945404052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44244289398193</t>
   </si>
   <si>
     <t xml:space="preserve">9.46610641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47399425506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39511203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28467559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15056991577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11901664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57654666900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0498514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233972549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0419616699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0104074478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78953266143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65543079376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85263919830322</t>
+    <t xml:space="preserve">9.47399711608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39511108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28467464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1505708694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11901760101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57654476165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0498485565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233953475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0419626235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0104084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78953170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65542888641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85264015197754</t>
   </si>
   <si>
     <t xml:space="preserve">9.6712064743042</t>
@@ -353,19 +353,19 @@
     <t xml:space="preserve">9.91574764251709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1918411254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93941307067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.333833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81319808959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5371036529541</t>
+    <t xml:space="preserve">10.1918439865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93941211700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3338346481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81319999694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53710460662842</t>
   </si>
   <si>
     <t xml:space="preserve">9.63965320587158</t>
@@ -374,52 +374,52 @@
     <t xml:space="preserve">10.1366243362427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628383636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048299789429</t>
+    <t xml:space="preserve">10.2628374099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048290252686</t>
   </si>
   <si>
     <t xml:space="preserve">10.3653879165649</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1208448410034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82897567749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90786075592041</t>
+    <t xml:space="preserve">10.1208486557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82897472381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90785980224609</t>
   </si>
   <si>
     <t xml:space="preserve">10.0261850357056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1839551925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786130905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99463176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1129589080811</t>
+    <t xml:space="preserve">10.1839513778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786149978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99463272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1129560470581</t>
   </si>
   <si>
     <t xml:space="preserve">9.71853637695312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88419437408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68698501586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56076717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66331577301025</t>
+    <t xml:space="preserve">9.88419342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68698215484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56076812744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6633186340332</t>
   </si>
   <si>
     <t xml:space="preserve">9.59232234954834</t>
@@ -434,40 +434,40 @@
     <t xml:space="preserve">9.18212413787842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04013347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22156620025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48977088928223</t>
+    <t xml:space="preserve">9.04013252258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22156429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48977279663086</t>
   </si>
   <si>
     <t xml:space="preserve">9.69486999511719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89997005462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87630653381348</t>
+    <t xml:space="preserve">9.89997100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87630558013916</t>
   </si>
   <si>
     <t xml:space="preserve">10.0025205612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2312860488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1760663986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1524000167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0340747833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97096538543701</t>
+    <t xml:space="preserve">10.2312831878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1760654449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1524019241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0340719223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97096633911133</t>
   </si>
   <si>
     <t xml:space="preserve">9.58443355560303</t>
@@ -476,46 +476,46 @@
     <t xml:space="preserve">9.72642517089844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8053092956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60021018981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33989238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13479328155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19001483917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36355972290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24523258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14268207550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16634845733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38722229003906</t>
+    <t xml:space="preserve">9.80530834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60020923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33989143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13479423522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19001197814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36355781555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24523162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14268112182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16634750366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38722324371338</t>
   </si>
   <si>
     <t xml:space="preserve">9.17423629760742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90602874755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02435493469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86841773986816</t>
+    <t xml:space="preserve">8.90602970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0243558883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86841869354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.0182971954346</t>
@@ -524,97 +524,97 @@
     <t xml:space="preserve">10.1681776046753</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2943916320801</t>
+    <t xml:space="preserve">10.2943925857544</t>
   </si>
   <si>
     <t xml:space="preserve">10.2707271575928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.491602897644</t>
+    <t xml:space="preserve">10.4916019439697</t>
   </si>
   <si>
     <t xml:space="preserve">10.16028881073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3732757568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3496103286743</t>
+    <t xml:space="preserve">10.3732767105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496112823486</t>
   </si>
   <si>
     <t xml:space="preserve">10.4837131500244</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5862636566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.538932800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547103881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.507378578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6099271774292</t>
+    <t xml:space="preserve">10.5862627029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5389318466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.554708480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5073776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6099290847778</t>
   </si>
   <si>
     <t xml:space="preserve">10.3022804260254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4363832473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3969411849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79742050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386926651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567796707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936712265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3987722396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5328741073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5249862670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092096328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041086196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7260208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.391676902771</t>
+    <t xml:space="preserve">10.4363813400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3969421386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79742336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386917114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2567777633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936721801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3987703323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5328750610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5249853134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041095733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7260236740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3916778564453</t>
   </si>
   <si>
     <t xml:space="preserve">11.6304960250854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6703014373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4235181808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2563457489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966859817505</t>
+    <t xml:space="preserve">11.6703004837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4235210418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2563467025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966850280762</t>
   </si>
   <si>
     <t xml:space="preserve">12.4902458190918</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">12.3787975311279</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6892623901367</t>
+    <t xml:space="preserve">12.6892604827881</t>
   </si>
   <si>
     <t xml:space="preserve">12.8564357757568</t>
@@ -635,10 +635,10 @@
     <t xml:space="preserve">12.8882780075073</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2385444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.047492980957</t>
+    <t xml:space="preserve">13.238543510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0474901199341</t>
   </si>
   <si>
     <t xml:space="preserve">12.959924697876</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">13.0952548980713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9838037490845</t>
+    <t xml:space="preserve">12.9838056564331</t>
   </si>
   <si>
     <t xml:space="preserve">13.0395278930664</t>
@@ -659,100 +659,100 @@
     <t xml:space="preserve">13.1270961761475</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2783517837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5251264572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6843423843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7082233428955</t>
+    <t xml:space="preserve">13.2783479690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5251302719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6843414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7082242965698</t>
   </si>
   <si>
     <t xml:space="preserve">13.5092058181763</t>
   </si>
   <si>
-    <t xml:space="preserve">13.732105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.676381111145</t>
+    <t xml:space="preserve">13.7321062088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763820648193</t>
   </si>
   <si>
     <t xml:space="preserve">13.6525001525879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5808534622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5649347305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4694032669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3659162521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5171689987183</t>
+    <t xml:space="preserve">13.5808515548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5649318695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.469407081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3659172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5171680450439</t>
   </si>
   <si>
     <t xml:space="preserve">13.45348072052</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2146635055542</t>
+    <t xml:space="preserve">13.2146663665771</t>
   </si>
   <si>
     <t xml:space="preserve">13.461443901062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5569705963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3897981643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499965667725</t>
+    <t xml:space="preserve">13.5569725036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3897972106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3499937057495</t>
   </si>
   <si>
     <t xml:space="preserve">13.6923027038574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7161827087402</t>
+    <t xml:space="preserve">13.7161836624146</t>
   </si>
   <si>
     <t xml:space="preserve">13.5490112304688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8803176879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8723564147949</t>
+    <t xml:space="preserve">12.8803186416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8723554611206</t>
   </si>
   <si>
     <t xml:space="preserve">12.7847890853882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9519634246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768287658691</t>
+    <t xml:space="preserve">12.9519624710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768278121948</t>
   </si>
   <si>
     <t xml:space="preserve">12.8086719512939</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5220880508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7290630340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.816632270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201183319092</t>
+    <t xml:space="preserve">12.5220890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7290658950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8166332244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201202392578</t>
   </si>
   <si>
     <t xml:space="preserve">12.6255760192871</t>
@@ -761,37 +761,37 @@
     <t xml:space="preserve">12.4982051849365</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8484754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9041996002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4265604019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628759384155</t>
+    <t xml:space="preserve">12.8484735488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9041957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4265594482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628740310669</t>
   </si>
   <si>
     <t xml:space="preserve">12.5539302825928</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2991905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1399784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.171820640564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0842542648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7021427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7180633544922</t>
+    <t xml:space="preserve">12.2991914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1399755477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1718196868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0842533111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7021417617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7180652618408</t>
   </si>
   <si>
     <t xml:space="preserve">11.7658271789551</t>
@@ -800,40 +800,40 @@
     <t xml:space="preserve">11.6782598495483</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9489221572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.028528213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1240558624268</t>
+    <t xml:space="preserve">11.9489212036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0285272598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1240549087524</t>
   </si>
   <si>
     <t xml:space="preserve">11.9091196060181</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7499055862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7737874984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8533954620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5906934738159</t>
+    <t xml:space="preserve">11.749906539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7737884521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8533945083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5906925201416</t>
   </si>
   <si>
     <t xml:space="preserve">12.4822854995728</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4026784896851</t>
+    <t xml:space="preserve">12.4026775360107</t>
   </si>
   <si>
     <t xml:space="preserve">12.7927494049072</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6972217559814</t>
+    <t xml:space="preserve">12.6972208023071</t>
   </si>
   <si>
     <t xml:space="preserve">12.8643960952759</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">12.8405132293701</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5857734680176</t>
+    <t xml:space="preserve">12.5857753753662</t>
   </si>
   <si>
     <t xml:space="preserve">12.0046472549438</t>
@@ -857,100 +857,100 @@
     <t xml:space="preserve">11.9648427963257</t>
   </si>
   <si>
-    <t xml:space="preserve">11.972804069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9568824768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1320171356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4633226394653</t>
+    <t xml:space="preserve">11.9728059768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.956880569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1320161819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4633235931396</t>
   </si>
   <si>
     <t xml:space="preserve">11.4474020004272</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4951648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3757572174072</t>
+    <t xml:space="preserve">11.4951658248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3757562637329</t>
   </si>
   <si>
     <t xml:space="preserve">11.0652894973755</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2324638366699</t>
+    <t xml:space="preserve">11.2324628829956</t>
   </si>
   <si>
     <t xml:space="preserve">11.2245044708252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.240424156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4155607223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4712839126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3279914855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5747718811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2961492538452</t>
+    <t xml:space="preserve">11.2404260635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4155597686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4712820053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3279905319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5747728347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2961483001709</t>
   </si>
   <si>
     <t xml:space="preserve">11.4872055053711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.617094039917</t>
+    <t xml:space="preserve">11.6170959472656</t>
   </si>
   <si>
     <t xml:space="preserve">11.5683860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6252145767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5196752548218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3491954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2193040847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787147521973</t>
+    <t xml:space="preserve">11.6252126693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5196762084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3491945266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2193050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787137985229</t>
   </si>
   <si>
     <t xml:space="preserve">10.9189319610596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0488224029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082330703735</t>
+    <t xml:space="preserve">11.0488243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082340240479</t>
   </si>
   <si>
     <t xml:space="preserve">10.9838781356812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7971591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9676427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3735504150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0650615692139</t>
+    <t xml:space="preserve">10.7971601486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9676418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3735494613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0650596618652</t>
   </si>
   <si>
     <t xml:space="preserve">11.1137685775757</t>
@@ -959,43 +959,43 @@
     <t xml:space="preserve">10.878342628479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9351692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8377532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8458690643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8945808410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0812940597534</t>
+    <t xml:space="preserve">10.9351682662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8377504348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8458681106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8945779800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0812969207764</t>
   </si>
   <si>
     <t xml:space="preserve">11.4222593307495</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4466133117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.292368888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1949501037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9026975631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0407047271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3654336929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5034399032593</t>
+    <t xml:space="preserve">11.4466152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2923669815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1949510574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9026985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0407056808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3654298782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5034418106079</t>
   </si>
   <si>
     <t xml:space="preserve">11.6089763641357</t>
@@ -1004,100 +1004,100 @@
     <t xml:space="preserve">11.5359153747559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3410778045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0975303649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2030687332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8702249526978</t>
+    <t xml:space="preserve">11.3410768508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0975322723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2030696868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8702239990234</t>
   </si>
   <si>
     <t xml:space="preserve">10.6429147720337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5373783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427101135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85545539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70932579040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79862689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66061687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72556114196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46578025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49825382232666</t>
+    <t xml:space="preserve">10.5373802185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427005767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85545349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70932674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79862499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66061592102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72556304931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46578311920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49825191497803</t>
   </si>
   <si>
     <t xml:space="preserve">9.44954490661621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40895366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36024475097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27906131744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33588981628418</t>
+    <t xml:space="preserve">9.40895557403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36024379730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2790641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33589172363281</t>
   </si>
   <si>
     <t xml:space="preserve">9.30341815948486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26282596588135</t>
+    <t xml:space="preserve">9.26282691955566</t>
   </si>
   <si>
     <t xml:space="preserve">9.1978816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10858345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98680877685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09234714508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11669826507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07610988616943</t>
+    <t xml:space="preserve">9.10858058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98680686950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09234619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11670017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07611083984375</t>
   </si>
   <si>
     <t xml:space="preserve">9.22223472595215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52260780334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61190795898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62814521789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41707229614258</t>
+    <t xml:space="preserve">9.52260684967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61190700531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62814426422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41707420349121</t>
   </si>
   <si>
     <t xml:space="preserve">9.65249919891357</t>
@@ -1109,91 +1109,91 @@
     <t xml:space="preserve">9.80674362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83109855651855</t>
+    <t xml:space="preserve">9.83109664916992</t>
   </si>
   <si>
     <t xml:space="preserve">9.83921813964844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78238964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76615524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991607666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74179744720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70120716094971</t>
+    <t xml:space="preserve">9.78239154815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76615142822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991798400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74179935455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70120811462402</t>
   </si>
   <si>
     <t xml:space="preserve">9.60379028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.352126121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32777118682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44142818450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21411800384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10046291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1248197555542</t>
+    <t xml:space="preserve">9.35212802886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32777214050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44142627716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21411991119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10046482086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12481784820557</t>
   </si>
   <si>
     <t xml:space="preserve">9.18164539337158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27094554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49013614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53884506225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6023254394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6835041046143</t>
+    <t xml:space="preserve">9.27094650268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49013519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53884410858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6023244857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6835050582886</t>
   </si>
   <si>
     <t xml:space="preserve">10.6510334014893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5617332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4805517196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587808609009</t>
+    <t xml:space="preserve">10.5617341995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4805507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587789535522</t>
   </si>
   <si>
     <t xml:space="preserve">10.228889465332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96910762786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81486320495605</t>
+    <t xml:space="preserve">9.96910858154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81486225128174</t>
   </si>
   <si>
     <t xml:space="preserve">9.84733581542969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92939758300781</t>
+    <t xml:space="preserve">9.92939567565918</t>
   </si>
   <si>
     <t xml:space="preserve">10.257640838623</t>
@@ -1202,25 +1202,25 @@
     <t xml:space="preserve">10.2001981735229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95401477813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94580841064453</t>
+    <t xml:space="preserve">9.95401573181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94580936431885</t>
   </si>
   <si>
     <t xml:space="preserve">10.01966381073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.224817276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4545879364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3397026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673727035522</t>
+    <t xml:space="preserve">10.2248153686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4545850753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3397016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673736572266</t>
   </si>
   <si>
     <t xml:space="preserve">10.2986717224121</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">11.0043964385986</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7418003082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5940914154053</t>
+    <t xml:space="preserve">10.7418022155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5940923690796</t>
   </si>
   <si>
     <t xml:space="preserve">10.4956178665161</t>
@@ -1247,40 +1247,40 @@
     <t xml:space="preserve">10.7007703781128</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5776796340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7089786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8730993270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9551610946655</t>
+    <t xml:space="preserve">10.5776786804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7089757919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8730983734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9551601409912</t>
   </si>
   <si>
     <t xml:space="preserve">10.9059228897095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.799243927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9961919784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1931381225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1685199737549</t>
+    <t xml:space="preserve">10.7992429733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9961891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931371688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1685190200806</t>
   </si>
   <si>
     <t xml:space="preserve">11.2669925689697</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2587881088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459995269775</t>
+    <t xml:space="preserve">11.2587862014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459985733032</t>
   </si>
   <si>
     <t xml:space="preserve">11.6526784896851</t>
@@ -1289,94 +1289,94 @@
     <t xml:space="preserve">11.7183275222778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4803514480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4229078292847</t>
+    <t xml:space="preserve">11.4803504943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4229068756104</t>
   </si>
   <si>
     <t xml:space="preserve">11.5952377319336</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6855020523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9070682525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9152746200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7921838760376</t>
+    <t xml:space="preserve">11.6855039596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9070692062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9152755737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7921829223633</t>
   </si>
   <si>
     <t xml:space="preserve">11.8660383224487</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9316883087158</t>
+    <t xml:space="preserve">11.9316873550415</t>
   </si>
   <si>
     <t xml:space="preserve">11.7675657272339</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5542068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5090742111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2834053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1603116989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8648920059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0249128341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5981950759888</t>
+    <t xml:space="preserve">11.5542058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.509069442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2834043502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1603126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.864893913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0249118804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5981931686401</t>
   </si>
   <si>
     <t xml:space="preserve">10.5366487503052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4381742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6105041503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6679468154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8197584152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1480045318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2464771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1192827224731</t>
+    <t xml:space="preserve">10.438175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6105051040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6679458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8197603225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1480054855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2464780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1192817687988</t>
   </si>
   <si>
     <t xml:space="preserve">11.4639387130737</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9645109176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8537292480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5418977737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6937103271484</t>
+    <t xml:space="preserve">11.9645128250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8537282943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5418996810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6937093734741</t>
   </si>
   <si>
     <t xml:space="preserve">11.7552556991577</t>
@@ -1385,37 +1385,37 @@
     <t xml:space="preserve">11.6198558807373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.919376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3543033599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1737661361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0876026153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8085966110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7060194015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8906555175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7429466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768199920654</t>
+    <t xml:space="preserve">11.9193773269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3543014526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1737680435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0876016616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8085947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7060203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8906564712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7429485321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768209457397</t>
   </si>
   <si>
     <t xml:space="preserve">12.4035377502441</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6444711685181</t>
+    <t xml:space="preserve">11.6444730758667</t>
   </si>
   <si>
     <t xml:space="preserve">11.1726217269897</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">11.201343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3490533828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2259616851807</t>
+    <t xml:space="preserve">11.3490514755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2259607315063</t>
   </si>
   <si>
     <t xml:space="preserve">11.447527885437</t>
@@ -1439,22 +1439,22 @@
     <t xml:space="preserve">11.414701461792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9398946762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7019147872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7347402572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0670890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2763433456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3050651550293</t>
+    <t xml:space="preserve">11.9398927688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7019166946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7347412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0670881271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2763452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3050661087036</t>
   </si>
   <si>
     <t xml:space="preserve">12.2230033874512</t>
@@ -1463,142 +1463,142 @@
     <t xml:space="preserve">12.2106943130493</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4363632202148</t>
+    <t xml:space="preserve">12.4363651275635</t>
   </si>
   <si>
     <t xml:space="preserve">12.5102186203003</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5471458435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7276782989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8220510482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5389404296875</t>
+    <t xml:space="preserve">12.5471448898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7276811599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8220500946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389413833618</t>
   </si>
   <si>
     <t xml:space="preserve">12.5881767272949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4814968109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7769184112549</t>
+    <t xml:space="preserve">12.4814977645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7769155502319</t>
   </si>
   <si>
     <t xml:space="preserve">13.2241506576538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2118406295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2405624389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5318794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.236457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4539213180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3513460159302</t>
+    <t xml:space="preserve">13.211841583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2405614852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5318803787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2364597320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4539222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3513441085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.3964796066284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.330828666687</t>
+    <t xml:space="preserve">13.33083152771</t>
   </si>
   <si>
     <t xml:space="preserve">13.3923749923706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6385612487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0857906341553</t>
+    <t xml:space="preserve">13.6385583877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0857915878296</t>
   </si>
   <si>
     <t xml:space="preserve">14.0283498764038</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1868600845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1952028274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698358535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5653257369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2316160202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0939598083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1648740768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2357864379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.806134223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9646463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.693507194519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6517944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0188760757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9813346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0689334869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0981311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9396190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1565322875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5475091934204</t>
+    <t xml:space="preserve">14.186861038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1952047348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698377609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5653266906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.231614112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0939607620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1648721694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2357873916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8061351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9646472930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6935062408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6517934799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.018874168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.981333732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0689325332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0981302261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9396209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1565294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.547511100769</t>
   </si>
   <si>
     <t xml:space="preserve">12.5683660507202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4390525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.480767250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0856170654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5266532897949</t>
+    <t xml:space="preserve">12.4390535354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4807682037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.085618019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5266542434692</t>
   </si>
   <si>
     <t xml:space="preserve">12.5767087936401</t>
@@ -1607,19 +1607,19 @@
     <t xml:space="preserve">13.2191009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1440162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1106443405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0480737686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2566442489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2941865921021</t>
+    <t xml:space="preserve">13.1440172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1106472015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.04807472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2566452026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2941875457764</t>
   </si>
   <si>
     <t xml:space="preserve">13.2900152206421</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">13.6988105773926</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7613821029663</t>
+    <t xml:space="preserve">13.761381149292</t>
   </si>
   <si>
     <t xml:space="preserve">13.3650999069214</t>
@@ -1643,31 +1643,31 @@
     <t xml:space="preserve">13.2858428955078</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2274436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2399587631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1315040588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1356744766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9145908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9896764755249</t>
+    <t xml:space="preserve">13.2274446487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2399578094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1315031051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1356725692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9145889282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9896745681763</t>
   </si>
   <si>
     <t xml:space="preserve">13.0397319793701</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2263145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4015102386475</t>
+    <t xml:space="preserve">12.2263116836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4015111923218</t>
   </si>
   <si>
     <t xml:space="preserve">12.4098529815674</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">12.6267652511597</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5808811187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809930801392</t>
+    <t xml:space="preserve">12.5808801651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809940338135</t>
   </si>
   <si>
     <t xml:space="preserve">12.4640817642212</t>
@@ -1688,49 +1688,49 @@
     <t xml:space="preserve">12.1595697402954</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0636291503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428842544556</t>
+    <t xml:space="preserve">12.0636301040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428871154785</t>
   </si>
   <si>
     <t xml:space="preserve">12.2471704483032</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2221422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3514547348022</t>
+    <t xml:space="preserve">12.2221412658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3514537811279</t>
   </si>
   <si>
     <t xml:space="preserve">12.7435636520386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5349960327148</t>
+    <t xml:space="preserve">12.5349941253662</t>
   </si>
   <si>
     <t xml:space="preserve">12.5391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8383731842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0552864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260858535767</t>
+    <t xml:space="preserve">11.8383741378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0552883148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260877609253</t>
   </si>
   <si>
     <t xml:space="preserve">11.9468307495117</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5922632217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4963235855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3086099624634</t>
+    <t xml:space="preserve">11.5922651290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4963216781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3086090087891</t>
   </si>
   <si>
     <t xml:space="preserve">11.2001543045044</t>
@@ -1742,100 +1742,100 @@
     <t xml:space="preserve">11.5380353927612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5255222320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5296945571899</t>
+    <t xml:space="preserve">11.5255212783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5296926498413</t>
   </si>
   <si>
     <t xml:space="preserve">11.5964345932007</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7507772445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7591199874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6882066726685</t>
+    <t xml:space="preserve">11.7507762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7591180801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6882057189941</t>
   </si>
   <si>
     <t xml:space="preserve">11.6047773361206</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7215766906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3681402206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.272198677063</t>
+    <t xml:space="preserve">11.7215747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3681383132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2721977233887</t>
   </si>
   <si>
     <t xml:space="preserve">12.2137985229492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0386009216309</t>
+    <t xml:space="preserve">12.0386018753052</t>
   </si>
   <si>
     <t xml:space="preserve">12.3639678955078</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4223690032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5975675582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2596836090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.201283454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6100778579712</t>
+    <t xml:space="preserve">12.4223699569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5975646972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2596845626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2012853622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6100797653198</t>
   </si>
   <si>
     <t xml:space="preserve">12.2555122375488</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382612228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7466049194336</t>
+    <t xml:space="preserve">11.738260269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7466039657593</t>
   </si>
   <si>
     <t xml:space="preserve">11.7966613769531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9259748458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8508882522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965475082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840343475342</t>
+    <t xml:space="preserve">11.9259738922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8508901596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965484619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840324401855</t>
   </si>
   <si>
     <t xml:space="preserve">11.4212369918823</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9707269668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8581008911133</t>
+    <t xml:space="preserve">10.9707288742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.858099937439</t>
   </si>
   <si>
     <t xml:space="preserve">10.8205595016479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7246160507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7579889297485</t>
+    <t xml:space="preserve">10.7246170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7579870223999</t>
   </si>
   <si>
     <t xml:space="preserve">10.6411895751953</t>
@@ -1844,103 +1844,103 @@
     <t xml:space="preserve">10.9582138061523</t>
   </si>
   <si>
-    <t xml:space="preserve">11.137583732605</t>
+    <t xml:space="preserve">11.1375827789307</t>
   </si>
   <si>
     <t xml:space="preserve">11.2043256759644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.20849609375</t>
+    <t xml:space="preserve">11.2084970474243</t>
   </si>
   <si>
     <t xml:space="preserve">11.1959819793701</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0916986465454</t>
+    <t xml:space="preserve">11.0916996002197</t>
   </si>
   <si>
     <t xml:space="preserve">11.0541563034058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7997016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7121019363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3867359161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.28662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4117622375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3116493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2062549591064</t>
+    <t xml:space="preserve">10.7997007369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7121028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3867330551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2866201400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4117631912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3116502761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2062568664551</t>
   </si>
   <si>
     <t xml:space="preserve">9.91958808898926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1092958450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96596145629883</t>
+    <t xml:space="preserve">10.1092939376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9659595489502</t>
   </si>
   <si>
     <t xml:space="preserve">9.80154800415039</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0797853469849</t>
+    <t xml:space="preserve">10.0797843933105</t>
   </si>
   <si>
     <t xml:space="preserve">9.89007759094238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19026756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13124656677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95840358734131</t>
+    <t xml:space="preserve">9.19026851654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13124561309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95840454101562</t>
   </si>
   <si>
     <t xml:space="preserve">9.26615238189697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14389514923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9710521697998</t>
+    <t xml:space="preserve">9.14389610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97105121612549</t>
   </si>
   <si>
     <t xml:space="preserve">8.67595195770264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69702816009521</t>
+    <t xml:space="preserve">8.69702911376953</t>
   </si>
   <si>
     <t xml:space="preserve">8.43143939971924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54947948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64644145965576</t>
+    <t xml:space="preserve">8.54948043823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64643955230713</t>
   </si>
   <si>
     <t xml:space="preserve">8.62536144256592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32014465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13128089904785</t>
+    <t xml:space="preserve">8.320143699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13127994537354</t>
   </si>
   <si>
     <t xml:space="preserve">8.13296604156494</t>
@@ -1949,100 +1949,100 @@
     <t xml:space="preserve">7.78221845626831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79570817947388</t>
+    <t xml:space="preserve">7.79570865631104</t>
   </si>
   <si>
     <t xml:space="preserve">7.74174690246582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95927953720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02504348754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01155281066895</t>
+    <t xml:space="preserve">7.95927762985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02504444122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01155185699463</t>
   </si>
   <si>
     <t xml:space="preserve">8.31339836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44830131530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4946756362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74761867523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76869583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6885986328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61271476745605</t>
+    <t xml:space="preserve">8.44830226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49467468261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74761772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76869487762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68859767913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61271381378174</t>
   </si>
   <si>
     <t xml:space="preserve">8.67173480987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98369693756104</t>
+    <t xml:space="preserve">8.98369884490967</t>
   </si>
   <si>
     <t xml:space="preserve">8.91203117370605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77291107177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85301113128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99634552001953</t>
+    <t xml:space="preserve">8.77291297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85301208496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99634647369385</t>
   </si>
   <si>
     <t xml:space="preserve">9.30409240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05536460876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17340469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24507331848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23242378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41791820526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47693824768066</t>
+    <t xml:space="preserve">9.05536556243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17340564727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24507427215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23242568969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41791725158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47693634033203</t>
   </si>
   <si>
     <t xml:space="preserve">9.24085712432861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03007221221924</t>
+    <t xml:space="preserve">9.03007125854492</t>
   </si>
   <si>
     <t xml:space="preserve">9.2197790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43899631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70880317687988</t>
+    <t xml:space="preserve">9.43899440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70880126953125</t>
   </si>
   <si>
     <t xml:space="preserve">9.72144794464111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94909763336182</t>
+    <t xml:space="preserve">9.94909858703613</t>
   </si>
   <si>
     <t xml:space="preserve">10.0081176757812</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">10.0713529586792</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1177253723145</t>
+    <t xml:space="preserve">10.1177272796631</t>
   </si>
   <si>
     <t xml:space="preserve">10.28635597229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1556692123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1388053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.033411026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0291976928711</t>
+    <t xml:space="preserve">10.155668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.13880443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0334129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0291957855225</t>
   </si>
   <si>
     <t xml:space="preserve">9.8394889831543</t>
@@ -2078,16 +2078,16 @@
     <t xml:space="preserve">9.873215675354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9996862411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75517559051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60762500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93223571777344</t>
+    <t xml:space="preserve">9.99968719482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75517463684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60762405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93223476409912</t>
   </si>
   <si>
     <t xml:space="preserve">10.3791027069092</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">10.3833160400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4043960571289</t>
+    <t xml:space="preserve">10.4043951034546</t>
   </si>
   <si>
     <t xml:space="preserve">10.5266513824463</t>
@@ -2108,187 +2108,187 @@
     <t xml:space="preserve">10.5814552307129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.868124961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7585163116455</t>
+    <t xml:space="preserve">10.8681240081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7585153579712</t>
   </si>
   <si>
     <t xml:space="preserve">10.6151819229126</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3622379302979</t>
+    <t xml:space="preserve">10.3622369766235</t>
   </si>
   <si>
     <t xml:space="preserve">10.5519456863403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.834400177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7247905731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6952810287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971399307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8133192062378</t>
+    <t xml:space="preserve">10.8343992233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7247896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6952800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.497142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8133211135864</t>
   </si>
   <si>
     <t xml:space="preserve">10.8807716369629</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5898885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4760637283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5477294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6025352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9608697891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0999879837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9945974349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782272338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1337146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8976354598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4676303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.43812084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.269492149353</t>
+    <t xml:space="preserve">10.5898866653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4760627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5477304458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6025333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9608707427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0999898910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9945955276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1337156295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8976345062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4676332473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4381217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2694931030273</t>
   </si>
   <si>
     <t xml:space="preserve">10.1261587142944</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95331287384033</t>
+    <t xml:space="preserve">9.95331382751465</t>
   </si>
   <si>
     <t xml:space="preserve">10.1303730010986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92380332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84792137145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79733085632324</t>
+    <t xml:space="preserve">9.92380428314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84792041778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79733180999756</t>
   </si>
   <si>
     <t xml:space="preserve">10.0587072372437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1345891952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055742263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.560378074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7285499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3922052383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95236778259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83162975311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65914535522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65052032470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50390911102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47372245788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09856986999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35729789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58152675628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26674175262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27536582946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25811767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55565547943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69795513153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43060398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31417465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36161041259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54271602630615</t>
+    <t xml:space="preserve">10.1345901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055732727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5603761672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7285509109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.392204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95236873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83162879943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65914440155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65051937103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50390815734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47372341156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09857082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35729694366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5815258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26674270629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27536678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25811672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5556526184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69795417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43060302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31417655944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36160850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54271697998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.8014440536499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90493583679199</t>
+    <t xml:space="preserve">9.90493488311768</t>
   </si>
   <si>
     <t xml:space="preserve">9.75401210784912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64620971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93512058258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89200019836426</t>
+    <t xml:space="preserve">9.64620876312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93511867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89199924468994</t>
   </si>
   <si>
     <t xml:space="preserve">9.9264965057373</t>
@@ -2300,37 +2300,37 @@
     <t xml:space="preserve">9.93943119049072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96099185943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0644836425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0601720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.28440284729</t>
+    <t xml:space="preserve">9.96099281311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0644845962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0601711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2844018936157</t>
   </si>
   <si>
     <t xml:space="preserve">10.1852235794067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3404598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5301933288574</t>
+    <t xml:space="preserve">10.3404588699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5301923751831</t>
   </si>
   <si>
     <t xml:space="preserve">10.482759475708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3663320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3620185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96530437469482</t>
+    <t xml:space="preserve">10.3663330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3620204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96530532836914</t>
   </si>
   <si>
     <t xml:space="preserve">9.79282093048096</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">9.61602401733398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74538612365723</t>
+    <t xml:space="preserve">9.74538707733154</t>
   </si>
   <si>
     <t xml:space="preserve">9.81869411468506</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">10.1119174957275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.025673866272</t>
+    <t xml:space="preserve">10.0256767272949</t>
   </si>
   <si>
     <t xml:space="preserve">9.77125930786133</t>
@@ -2357,37 +2357,37 @@
     <t xml:space="preserve">9.41766548156738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18912220001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02957439422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81828212738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74497604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90452289581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72772789001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44485282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58456516265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13783073425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17922592163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48969745635986</t>
+    <t xml:space="preserve">9.18912315368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02957725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81828117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74497509002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9045238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72772598266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44485378265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58456420898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1378288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17922496795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48969841003418</t>
   </si>
   <si>
     <t xml:space="preserve">8.317214012146</t>
@@ -2396,145 +2396,145 @@
     <t xml:space="preserve">8.41725444793701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52764511108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39655590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5086727142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56559181213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66304588317871</t>
+    <t xml:space="preserve">8.52764320373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39655780792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50867176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56559276580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66304492950439</t>
   </si>
   <si>
     <t xml:space="preserve">8.60698795318604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55006694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50349712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28789138793945</t>
+    <t xml:space="preserve">8.55006790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50349617004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28789043426514</t>
   </si>
   <si>
     <t xml:space="preserve">8.43967723846436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65873432159424</t>
+    <t xml:space="preserve">8.65873336791992</t>
   </si>
   <si>
     <t xml:space="preserve">8.6156120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87002754211426</t>
+    <t xml:space="preserve">8.87002658843994</t>
   </si>
   <si>
     <t xml:space="preserve">8.97351741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89589977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76653480529785</t>
+    <t xml:space="preserve">8.89589881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76653671264648</t>
   </si>
   <si>
     <t xml:space="preserve">8.82690525054932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07269859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90021133422852</t>
+    <t xml:space="preserve">9.07269668579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90021228790283</t>
   </si>
   <si>
     <t xml:space="preserve">8.77084827423096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66735744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64579677581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40518188476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28444194793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27926731109619</t>
+    <t xml:space="preserve">8.66735649108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64579582214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40518093109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28444004058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27926826477051</t>
   </si>
   <si>
     <t xml:space="preserve">8.14990329742432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4431266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39483261108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23787117004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8946270942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97396945953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95844507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05158710479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91704940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95326948165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0291633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30859088897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08953380584717</t>
+    <t xml:space="preserve">8.44312763214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39483165740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23787021636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89462566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97396993637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95844459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05158996582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91705083847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95327091217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02916431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30858898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0895357131958</t>
   </si>
   <si>
     <t xml:space="preserve">8.19647407531738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16370296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06366157531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02053928375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07918453216553</t>
+    <t xml:space="preserve">8.16370105743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06366062164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02054023742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07918548583984</t>
   </si>
   <si>
     <t xml:space="preserve">8.09988403320312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12058162689209</t>
+    <t xml:space="preserve">8.12058067321777</t>
   </si>
   <si>
     <t xml:space="preserve">8.03261470794678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11023235321045</t>
+    <t xml:space="preserve">8.11023139953613</t>
   </si>
   <si>
     <t xml:space="preserve">8.2344217300415</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">8.31376361846924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07401180267334</t>
+    <t xml:space="preserve">8.07400989532471</t>
   </si>
   <si>
     <t xml:space="preserve">7.80838346481323</t>
@@ -2555,46 +2555,46 @@
     <t xml:space="preserve">8.62078666687012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77515983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62854957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6414852142334</t>
+    <t xml:space="preserve">8.77516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62854862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64148616790771</t>
   </si>
   <si>
     <t xml:space="preserve">8.68460655212402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54489326477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54316711425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.539719581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46631050109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39115524291992</t>
+    <t xml:space="preserve">8.54489421844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54316806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53972053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46631145477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39115715026855</t>
   </si>
   <si>
     <t xml:space="preserve">8.52923202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47854423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61312675476074</t>
+    <t xml:space="preserve">8.47854518890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61312580108643</t>
   </si>
   <si>
     <t xml:space="preserve">8.59389972686768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59914302825928</t>
+    <t xml:space="preserve">8.59914493560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.52573585510254</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">8.43485164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28279209136963</t>
+    <t xml:space="preserve">8.28279304504395</t>
   </si>
   <si>
     <t xml:space="preserve">8.22511577606201</t>
@@ -2615,91 +2615,91 @@
     <t xml:space="preserve">8.39989566802979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47679805755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65856838226318</t>
+    <t xml:space="preserve">8.47679901123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6585693359375</t>
   </si>
   <si>
     <t xml:space="preserve">8.69177627563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71799278259277</t>
+    <t xml:space="preserve">8.71799373626709</t>
   </si>
   <si>
     <t xml:space="preserve">8.74770641326904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99676704406738</t>
+    <t xml:space="preserve">8.9967679977417</t>
   </si>
   <si>
     <t xml:space="preserve">8.90063858032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9224853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86568355560303</t>
+    <t xml:space="preserve">8.92248630523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86568260192871</t>
   </si>
   <si>
     <t xml:space="preserve">8.84820461273193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83509540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88752841949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744037628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81761741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78266143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82635593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94433403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18465423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17154502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15406799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07541751861572</t>
+    <t xml:space="preserve">8.8350944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88753032684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81761837005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78266048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94433212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18465518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17154598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15406894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07541847229004</t>
   </si>
   <si>
     <t xml:space="preserve">9.07104873657227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90937805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85694408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91374683380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99239826202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9661808013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93122482299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87442207336426</t>
+    <t xml:space="preserve">8.90937519073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85694313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91374588012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99239730834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96618175506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93122386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87442111968994</t>
   </si>
   <si>
     <t xml:space="preserve">8.83072566986084</t>
@@ -2714,55 +2714,55 @@
     <t xml:space="preserve">8.73721885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30901050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15170764923096</t>
+    <t xml:space="preserve">8.30900955200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15170860290527</t>
   </si>
   <si>
     <t xml:space="preserve">8.05732822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22686290740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33872318267822</t>
+    <t xml:space="preserve">8.22686386108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33872222900391</t>
   </si>
   <si>
     <t xml:space="preserve">8.36319160461426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21113395690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26182079315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32998371124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44184112548828</t>
+    <t xml:space="preserve">8.21113300323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26181983947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32998275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4418420791626</t>
   </si>
   <si>
     <t xml:space="preserve">8.41562557220459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22861099243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26706314086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57292747497559</t>
+    <t xml:space="preserve">8.22861194610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26706218719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57292652130127</t>
   </si>
   <si>
     <t xml:space="preserve">8.19190788269043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77768039703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67281198501587</t>
+    <t xml:space="preserve">7.77767992019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67281246185303</t>
   </si>
   <si>
     <t xml:space="preserve">7.69029188156128</t>
@@ -2777,133 +2777,133 @@
     <t xml:space="preserve">7.08380699157715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11701488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93349599838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.805908203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41440105438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04238367080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91130018234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80992746353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08983707427979</t>
+    <t xml:space="preserve">7.11701440811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93349695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80590724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4144024848938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04238414764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91129922866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80992794036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08983659744263</t>
   </si>
   <si>
     <t xml:space="preserve">4.19383001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204856872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06012344360352</t>
+    <t xml:space="preserve">3.92204833030701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06012392044067</t>
   </si>
   <si>
     <t xml:space="preserve">4.15974855422974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38521432876587</t>
+    <t xml:space="preserve">4.38521385192871</t>
   </si>
   <si>
     <t xml:space="preserve">4.56174087524414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49532461166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67534780502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70331239700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96373271942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8658561706543</t>
+    <t xml:space="preserve">4.49532508850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67534685134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70331144332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96373319625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86585712432861</t>
   </si>
   <si>
     <t xml:space="preserve">4.83963966369629</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87634420394897</t>
+    <t xml:space="preserve">4.87634372711182</t>
   </si>
   <si>
     <t xml:space="preserve">4.79244995117188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01267099380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0476279258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17346954345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41116857528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28707456588745</t>
+    <t xml:space="preserve">5.01267194747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04762744903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17346858978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41116905212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28707551956177</t>
   </si>
   <si>
     <t xml:space="preserve">5.24862384796143</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17871189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0371413230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06860113143921</t>
+    <t xml:space="preserve">5.17871284484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94625473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03714084625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06860160827637</t>
   </si>
   <si>
     <t xml:space="preserve">5.0388879776001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78720664978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93576860427856</t>
+    <t xml:space="preserve">4.78720617294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93576812744141</t>
   </si>
   <si>
     <t xml:space="preserve">5.13152170181274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1717209815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16298198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26260566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57021760940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58769559860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27833557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53176641464233</t>
+    <t xml:space="preserve">5.17172145843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16298151016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26260614395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57021713256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58769607543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27833604812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53176593780518</t>
   </si>
   <si>
     <t xml:space="preserve">5.31853532791138</t>
@@ -2912,13 +2912,13 @@
     <t xml:space="preserve">5.39893388748169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44437694549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34650039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25211906433105</t>
+    <t xml:space="preserve">5.44437646865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34649991989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25212001800537</t>
   </si>
   <si>
     <t xml:space="preserve">5.02315855026245</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">5.05461835861206</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43913269042969</t>
+    <t xml:space="preserve">5.43913316726685</t>
   </si>
   <si>
     <t xml:space="preserve">4.95499515533447</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">5.11404418945312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86236190795898</t>
+    <t xml:space="preserve">4.86236095428467</t>
   </si>
   <si>
     <t xml:space="preserve">4.84837913513184</t>
@@ -2945,10 +2945,10 @@
     <t xml:space="preserve">4.89382123947144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97072553634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97771644592285</t>
+    <t xml:space="preserve">4.97072458267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97771596908569</t>
   </si>
   <si>
     <t xml:space="preserve">5.10006093978882</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">4.88683032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10705232620239</t>
+    <t xml:space="preserve">5.10705184936523</t>
   </si>
   <si>
     <t xml:space="preserve">5.32028293609619</t>
@@ -2966,13 +2966,13 @@
     <t xml:space="preserve">5.58594799041748</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64362573623657</t>
+    <t xml:space="preserve">5.6436243057251</t>
   </si>
   <si>
     <t xml:space="preserve">5.93900203704834</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02639198303223</t>
+    <t xml:space="preserve">6.02639150619507</t>
   </si>
   <si>
     <t xml:space="preserve">5.91977643966675</t>
@@ -2981,121 +2981,121 @@
     <t xml:space="preserve">5.83588218688965</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46535015106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47059345245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46360206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40942096710205</t>
+    <t xml:space="preserve">5.46535110473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47059392929077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4636025428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40942049026489</t>
   </si>
   <si>
     <t xml:space="preserve">5.40767335891724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31504011154175</t>
+    <t xml:space="preserve">5.31503915786743</t>
   </si>
   <si>
     <t xml:space="preserve">5.42165565490723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08607864379883</t>
+    <t xml:space="preserve">5.08607912063599</t>
   </si>
   <si>
     <t xml:space="preserve">5.15249490737915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01966238021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07559251785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96198558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11579132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02141094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19793701171875</t>
+    <t xml:space="preserve">5.01966333389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07559204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96198511123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11579179763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02140951156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19793796539307</t>
   </si>
   <si>
     <t xml:space="preserve">5.10880041122437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02665376663208</t>
+    <t xml:space="preserve">5.02665424346924</t>
   </si>
   <si>
     <t xml:space="preserve">4.84663105010986</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87284803390503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93227243423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01616716384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02490615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15948629379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04413223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95848989486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92178630828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82915353775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73477268218994</t>
+    <t xml:space="preserve">4.87284755706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93227338790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01616668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02490663528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15948581695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04413175582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9584903717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92178678512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82915306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7347731590271</t>
   </si>
   <si>
     <t xml:space="preserve">4.50406360626221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42017030715942</t>
+    <t xml:space="preserve">4.42016935348511</t>
   </si>
   <si>
     <t xml:space="preserve">4.31005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51454973220825</t>
+    <t xml:space="preserve">4.51455068588257</t>
   </si>
   <si>
     <t xml:space="preserve">4.52678489685059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7295298576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44289064407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52328968048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67709493637085</t>
+    <t xml:space="preserve">4.72952890396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44289112091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5232892036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67709541320801</t>
   </si>
   <si>
     <t xml:space="preserve">4.65437364578247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5564980506897</t>
+    <t xml:space="preserve">4.55649852752686</t>
   </si>
   <si>
     <t xml:space="preserve">4.50930690765381</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">4.42541265487671</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32753610610962</t>
+    <t xml:space="preserve">4.32753705978394</t>
   </si>
   <si>
     <t xml:space="preserve">4.30831050872803</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">4.40269184112549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35812282562256</t>
+    <t xml:space="preserve">4.3581223487854</t>
   </si>
   <si>
     <t xml:space="preserve">4.27859878540039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30481576919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29957151412964</t>
+    <t xml:space="preserve">4.3048152923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29957246780396</t>
   </si>
   <si>
     <t xml:space="preserve">4.21742582321167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1772255897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20606517791748</t>
+    <t xml:space="preserve">4.17722654342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20606565475464</t>
   </si>
   <si>
     <t xml:space="preserve">4.2182993888855</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">4.0478892326355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05313301086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03390789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98496866226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95088672637939</t>
+    <t xml:space="preserve">4.0531325340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03390693664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98496913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95088720321655</t>
   </si>
   <si>
     <t xml:space="preserve">4.0076904296875</t>
@@ -3167,37 +3167,37 @@
     <t xml:space="preserve">4.17460489273071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17810010910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06274652481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79620718955994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75426054000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7228000164032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64677143096924</t>
+    <t xml:space="preserve">4.1781005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06274557113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79620742797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75426030158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72280049324036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6467707157135</t>
   </si>
   <si>
     <t xml:space="preserve">3.58210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72979116439819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61006712913513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72367429733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62841939926147</t>
+    <t xml:space="preserve">3.72979140281677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61006736755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72367405891418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62841892242432</t>
   </si>
   <si>
     <t xml:space="preserve">3.71231341362</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">3.74901676177979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85213661193848</t>
+    <t xml:space="preserve">3.85213613510132</t>
   </si>
   <si>
     <t xml:space="preserve">3.77523398399353</t>
@@ -3215,70 +3215,70 @@
     <t xml:space="preserve">3.89058804512024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86349701881409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79882907867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70444750785828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80319786071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61356329917908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74377346038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82329845428467</t>
+    <t xml:space="preserve">3.86349725723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79882860183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70444798469543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80319881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6135630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74377369880676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82329773902893</t>
   </si>
   <si>
     <t xml:space="preserve">3.91243577003479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81543302536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83553266525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87048816680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76824235916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66337490081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55326390266418</t>
+    <t xml:space="preserve">3.81543326377869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83553242683411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87048840522766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76824259757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66337466239929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55326414108276</t>
   </si>
   <si>
     <t xml:space="preserve">3.34527683258057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55850744247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74464726448059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83291125297546</t>
+    <t xml:space="preserve">3.55850720405579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74464678764343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83291101455688</t>
   </si>
   <si>
     <t xml:space="preserve">4.42191696166992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3991961479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81866693496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88857841491699</t>
+    <t xml:space="preserve">4.39919567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81866645812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88857746124268</t>
   </si>
   <si>
     <t xml:space="preserve">4.89906454086304</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">4.93052530288696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00393295288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39194250106812</t>
+    <t xml:space="preserve">5.0039324760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39194345474243</t>
   </si>
   <si>
     <t xml:space="preserve">5.49506282806396</t>
@@ -3299,22 +3299,22 @@
     <t xml:space="preserve">5.55973100662231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47583675384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46185493469238</t>
+    <t xml:space="preserve">5.47583723068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46185445785522</t>
   </si>
   <si>
     <t xml:space="preserve">5.68633842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04515981674194</t>
+    <t xml:space="preserve">6.04515933990479</t>
   </si>
   <si>
     <t xml:space="preserve">5.98682928085327</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90551948547363</t>
+    <t xml:space="preserve">5.90551996231079</t>
   </si>
   <si>
     <t xml:space="preserve">5.92496347427368</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">5.88430833816528</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12470054626465</t>
+    <t xml:space="preserve">6.12470102310181</t>
   </si>
   <si>
     <t xml:space="preserve">6.01334285736084</t>
@@ -3341,79 +3341,79 @@
     <t xml:space="preserve">6.02218103408813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02571582794189</t>
+    <t xml:space="preserve">6.02571535110474</t>
   </si>
   <si>
     <t xml:space="preserve">6.11763048171997</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00980710983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93203401565552</t>
+    <t xml:space="preserve">6.00980758666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93203353881836</t>
   </si>
   <si>
     <t xml:space="preserve">6.0045051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97445583343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03278684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94440603256226</t>
+    <t xml:space="preserve">5.97445678710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03278636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94440650939941</t>
   </si>
   <si>
     <t xml:space="preserve">5.78885936737061</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77295112609863</t>
+    <t xml:space="preserve">5.77295064926147</t>
   </si>
   <si>
     <t xml:space="preserve">5.93380165100098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89137935638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81183767318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85425996780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77648591995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9832935333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30322790145874</t>
+    <t xml:space="preserve">5.89137887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81183815002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8542594909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77648544311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98329305648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30322742462158</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438972473145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25903797149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14591264724731</t>
+    <t xml:space="preserve">6.25903749465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14591217041016</t>
   </si>
   <si>
     <t xml:space="preserve">6.32267093658447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23429155349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28908634185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96561813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94970941543579</t>
+    <t xml:space="preserve">6.23429107666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28908729553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96561765670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94970989227295</t>
   </si>
   <si>
     <t xml:space="preserve">5.75880908966064</t>
@@ -3422,13 +3422,13 @@
     <t xml:space="preserve">5.55907201766968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46008729934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53255844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6280083656311</t>
+    <t xml:space="preserve">5.46008682250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53255796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62800788879395</t>
   </si>
   <si>
     <t xml:space="preserve">5.79946374893188</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">5.67396545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90905427932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00273704528809</t>
+    <t xml:space="preserve">5.90905475616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00273656845093</t>
   </si>
   <si>
     <t xml:space="preserve">6.12293338775635</t>
@@ -3455,19 +3455,19 @@
     <t xml:space="preserve">6.14060878753662</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21484851837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2219181060791</t>
+    <t xml:space="preserve">6.21484756469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22191858291626</t>
   </si>
   <si>
     <t xml:space="preserve">6.28378486633301</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65497827529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66558361053467</t>
+    <t xml:space="preserve">6.65497875213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66558313369751</t>
   </si>
   <si>
     <t xml:space="preserve">6.51533842086792</t>
@@ -3479,91 +3479,91 @@
     <t xml:space="preserve">6.39514207839966</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63553428649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56659841537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79461860656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72790622711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64129400253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81805181503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94531774520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92764377593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20868968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46322345733643</t>
+    <t xml:space="preserve">6.63553476333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5665979385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79461765289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72790670394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6412935256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81805324554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94531869888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92764282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20869064331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46322250366211</t>
   </si>
   <si>
     <t xml:space="preserve">8.58695411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4402437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55160331726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7584114074707</t>
+    <t xml:space="preserve">8.44024467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55160236358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75840950012207</t>
   </si>
   <si>
     <t xml:space="preserve">8.76371383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54629993438721</t>
+    <t xml:space="preserve">8.54630184173584</t>
   </si>
   <si>
     <t xml:space="preserve">8.57104587554932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53746223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43140506744385</t>
+    <t xml:space="preserve">8.53746128082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4314079284668</t>
   </si>
   <si>
     <t xml:space="preserve">8.24050712585449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17157173156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03369998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33242225646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10970592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40489292144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45084953308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53569507598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49503993988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099559783936</t>
+    <t xml:space="preserve">8.17157077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03369808197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33242130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10970497131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40489387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45085048675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53569412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49504089355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54099750518799</t>
   </si>
   <si>
     <t xml:space="preserve">8.54983520507812</t>
@@ -3572,76 +3572,76 @@
     <t xml:space="preserve">8.41549873352051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19985294342041</t>
+    <t xml:space="preserve">8.19985103607178</t>
   </si>
   <si>
     <t xml:space="preserve">8.11324119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05490875244141</t>
+    <t xml:space="preserve">8.05491065979004</t>
   </si>
   <si>
     <t xml:space="preserve">8.04430484771729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43317413330078</t>
+    <t xml:space="preserve">8.43317317962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.12561321258545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10086631774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15919876098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79684162139893</t>
+    <t xml:space="preserve">8.10086917877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1591968536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79684114456177</t>
   </si>
   <si>
     <t xml:space="preserve">7.87638330459595</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86931276321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84810161590576</t>
+    <t xml:space="preserve">7.86931180953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84810209274292</t>
   </si>
   <si>
     <t xml:space="preserve">8.1185417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94885492324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21576023101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65896987915039</t>
+    <t xml:space="preserve">7.94885396957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21575927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65896940231323</t>
   </si>
   <si>
     <t xml:space="preserve">7.91703844070435</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98774147033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05314159393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41373157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56751155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65412330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44908332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73366355895996</t>
+    <t xml:space="preserve">7.9877405166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05314350128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41373062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5675106048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65412425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44908237457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73366451263428</t>
   </si>
   <si>
     <t xml:space="preserve">8.64175033569336</t>
@@ -3659,22 +3659,22 @@
     <t xml:space="preserve">8.28292846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36070346832275</t>
+    <t xml:space="preserve">8.36070251464844</t>
   </si>
   <si>
     <t xml:space="preserve">8.39120388031006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22614288330078</t>
+    <t xml:space="preserve">8.22614192962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.25126075744629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48270416259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3929967880249</t>
+    <t xml:space="preserve">8.48270511627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39299774169922</t>
   </si>
   <si>
     <t xml:space="preserve">8.36967372894287</t>
@@ -3683,10 +3683,10 @@
     <t xml:space="preserve">8.59573554992676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69441318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76797389984131</t>
+    <t xml:space="preserve">8.69441413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76797294616699</t>
   </si>
   <si>
     <t xml:space="preserve">8.63700103759766</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">8.61547088623047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55446910858154</t>
+    <t xml:space="preserve">8.55447196960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.56702899932861</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">8.74106121063232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58317565917969</t>
+    <t xml:space="preserve">8.583176612854</t>
   </si>
   <si>
     <t xml:space="preserve">8.57241153717041</t>
@@ -3716,22 +3716,22 @@
     <t xml:space="preserve">8.38043880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24049472808838</t>
+    <t xml:space="preserve">8.2404956817627</t>
   </si>
   <si>
     <t xml:space="preserve">8.27099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35352802276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40914440155029</t>
+    <t xml:space="preserve">8.3535270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40914344787598</t>
   </si>
   <si>
     <t xml:space="preserve">8.46117496490479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50961780548096</t>
+    <t xml:space="preserve">8.50961589813232</t>
   </si>
   <si>
     <t xml:space="preserve">8.22793674468994</t>
@@ -3740,154 +3740,154 @@
     <t xml:space="preserve">8.2297306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24587726593018</t>
+    <t xml:space="preserve">8.24587821960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.40376377105713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39838123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45758819580078</t>
+    <t xml:space="preserve">8.39838027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45758628845215</t>
   </si>
   <si>
     <t xml:space="preserve">8.05928707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93908023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8296365737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07543468475342</t>
+    <t xml:space="preserve">7.93907880783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82963609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07543563842773</t>
   </si>
   <si>
     <t xml:space="preserve">8.04672813415527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87449073791504</t>
+    <t xml:space="preserve">7.8744912147522</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87090349197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64842891693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38289499282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51027965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65739965438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57128047943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65919399261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87987327575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80990076065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87628412246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87269687652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69328260421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75787210464478</t>
+    <t xml:space="preserve">7.87090253829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64842844009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38289546966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51027917861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65739917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57127952575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65919303894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87987232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80990171432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87628507614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87269735336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69328308105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75787115097046</t>
   </si>
   <si>
     <t xml:space="preserve">7.80810737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70584106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6789288520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88884305953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84578418731689</t>
+    <t xml:space="preserve">7.70584201812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67892932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88884353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84578514099121</t>
   </si>
   <si>
     <t xml:space="preserve">7.89243268966675</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90319585800171</t>
+    <t xml:space="preserve">7.90319633483887</t>
   </si>
   <si>
     <t xml:space="preserve">7.69866371154785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73275279998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37392568588257</t>
+    <t xml:space="preserve">7.73275327682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37392473220825</t>
   </si>
   <si>
     <t xml:space="preserve">7.3147177696228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45466232299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47798585891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54436826705933</t>
+    <t xml:space="preserve">7.45466184616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47798490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54436922073364</t>
   </si>
   <si>
     <t xml:space="preserve">7.61434030532837</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73634099960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65201711654663</t>
+    <t xml:space="preserve">7.73634147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65201616287231</t>
   </si>
   <si>
     <t xml:space="preserve">7.74172449111938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61792755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60357570648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53539705276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4797797203064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44748449325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70404767990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65022277832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77760696411133</t>
+    <t xml:space="preserve">7.61792802810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60357522964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53539752960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47977924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44748401641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404720306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65022230148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77760601043701</t>
   </si>
   <si>
     <t xml:space="preserve">7.52822113037109</t>
@@ -3899,31 +3899,31 @@
     <t xml:space="preserve">7.24654102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62331056594849</t>
+    <t xml:space="preserve">7.62331104278564</t>
   </si>
   <si>
     <t xml:space="preserve">7.6843113899231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72378349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98393249511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625759124756</t>
+    <t xml:space="preserve">7.72378253936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98393297195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625568389893</t>
   </si>
   <si>
     <t xml:space="preserve">8.01084518432617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15617179870605</t>
+    <t xml:space="preserve">8.15617084503174</t>
   </si>
   <si>
     <t xml:space="preserve">8.14540576934814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37146759033203</t>
+    <t xml:space="preserve">8.37146854400635</t>
   </si>
   <si>
     <t xml:space="preserve">8.09517002105713</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">8.59932422637939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80385589599609</t>
+    <t xml:space="preserve">8.80385684967041</t>
   </si>
   <si>
     <t xml:space="preserve">8.65673637390137</t>
@@ -3944,61 +3944,61 @@
     <t xml:space="preserve">8.54370498657227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59035205841064</t>
+    <t xml:space="preserve">8.59035396575928</t>
   </si>
   <si>
     <t xml:space="preserve">8.85947513580322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80744552612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91868114471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07387447357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8971529006958</t>
+    <t xml:space="preserve">8.80744457244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91868209838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07387351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89715099334717</t>
   </si>
   <si>
     <t xml:space="preserve">8.84691524505615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02902221679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02005100250244</t>
+    <t xml:space="preserve">9.02902126312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02005004882812</t>
   </si>
   <si>
     <t xml:space="preserve">8.88100433349609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63520812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63879585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87203502655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83794498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72491455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27123069763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52689552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78256034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73322296142578</t>
+    <t xml:space="preserve">8.6352071762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63879489898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87203407287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83794403076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72491359710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27122974395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52689456939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78255939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73322200775146</t>
   </si>
   <si>
     <t xml:space="preserve">9.41027545928955</t>
@@ -4007,40 +4007,40 @@
     <t xml:space="preserve">9.311598777771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20843505859375</t>
+    <t xml:space="preserve">9.20843601226807</t>
   </si>
   <si>
     <t xml:space="preserve">9.18600845336914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99313640594482</t>
+    <t xml:space="preserve">8.99313735961914</t>
   </si>
   <si>
     <t xml:space="preserve">8.73926639556885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51500034332275</t>
+    <t xml:space="preserve">8.51499938964844</t>
   </si>
   <si>
     <t xml:space="preserve">8.71873378753662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6623420715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76420974731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65506649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11480712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87832927703857</t>
+    <t xml:space="preserve">8.66234302520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76420879364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65506553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0420446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11480617523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87832975387573</t>
   </si>
   <si>
     <t xml:space="preserve">8.20394134521484</t>
@@ -4052,22 +4052,22 @@
     <t xml:space="preserve">8.14936923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26942729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45315170288086</t>
+    <t xml:space="preserve">8.26942539215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45314979553223</t>
   </si>
   <si>
     <t xml:space="preserve">8.34946632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18211269378662</t>
+    <t xml:space="preserve">8.1821117401123</t>
   </si>
   <si>
     <t xml:space="preserve">8.11116886138916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03840732574463</t>
+    <t xml:space="preserve">8.038405418396</t>
   </si>
   <si>
     <t xml:space="preserve">8.30762672424316</t>
@@ -4076,25 +4076,25 @@
     <t xml:space="preserve">8.05113983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28215885162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21121788024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02749156951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29125690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28943634033203</t>
+    <t xml:space="preserve">8.28215980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21121597290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02749252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29125595092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28943824768066</t>
   </si>
   <si>
     <t xml:space="preserve">8.30398845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39312171936035</t>
+    <t xml:space="preserve">8.39312267303467</t>
   </si>
   <si>
     <t xml:space="preserve">8.46042823791504</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">8.37675094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70781993865967</t>
+    <t xml:space="preserve">8.70781898498535</t>
   </si>
   <si>
     <t xml:space="preserve">8.82787704467773</t>
@@ -4115,25 +4115,25 @@
     <t xml:space="preserve">8.89518165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89699935913086</t>
+    <t xml:space="preserve">8.89700031280518</t>
   </si>
   <si>
     <t xml:space="preserve">8.91155338287354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8660774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04798221588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12711048126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14985084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33175468444824</t>
+    <t xml:space="preserve">8.86607646942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04798316955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12711143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1498498916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33175563812256</t>
   </si>
   <si>
     <t xml:space="preserve">9.55458927154541</t>
@@ -4148,10 +4148,10 @@
     <t xml:space="preserve">9.42270851135254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95884799957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37268447875977</t>
+    <t xml:space="preserve">8.95884895324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37268352508545</t>
   </si>
   <si>
     <t xml:space="preserve">10.0730199813843</t>
@@ -4163,16 +4163,16 @@
     <t xml:space="preserve">10.3731641769409</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3140449523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1821632385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3868083953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959016799927</t>
+    <t xml:space="preserve">10.3140459060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1821641921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3868074417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3959035873413</t>
   </si>
   <si>
     <t xml:space="preserve">10.304949760437</t>
@@ -4181,103 +4181,103 @@
     <t xml:space="preserve">10.4140930175781</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5186891555786</t>
+    <t xml:space="preserve">10.5186882019043</t>
   </si>
   <si>
     <t xml:space="preserve">10.6278324127197</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4641180038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5414266586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7824506759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4777603149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2822103500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95932960510254</t>
+    <t xml:space="preserve">10.4641170501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5414276123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7824516296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4777593612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2822113037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95933055877686</t>
   </si>
   <si>
     <t xml:space="preserve">10.0411863327026</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93659210205078</t>
+    <t xml:space="preserve">9.93659114837646</t>
   </si>
   <si>
     <t xml:space="preserve">9.82744789123535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1321401596069</t>
+    <t xml:space="preserve">10.1321411132812</t>
   </si>
   <si>
     <t xml:space="preserve">10.4959516525269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4049978256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9188814163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6960477828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5050449371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8738861083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2558870315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5782871246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7601957321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7556476593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645967483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0825967788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3190727233887</t>
+    <t xml:space="preserve">10.4049968719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9188804626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6960468292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5050458908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8738851547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2558860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5782890319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7601947784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7556467056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645977020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0825958251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.319073677063</t>
   </si>
   <si>
     <t xml:space="preserve">11.5009794235229</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2013158798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2695293426514</t>
+    <t xml:space="preserve">12.2013149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.26953125</t>
   </si>
   <si>
     <t xml:space="preserve">12.6106023788452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6469831466675</t>
+    <t xml:space="preserve">12.6469841003418</t>
   </si>
   <si>
     <t xml:space="preserve">12.9607706069946</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6651744842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3195533752441</t>
+    <t xml:space="preserve">12.6651735305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3195543289185</t>
   </si>
   <si>
     <t xml:space="preserve">12.5287446975708</t>
@@ -4286,7 +4286,7 @@
     <t xml:space="preserve">12.5105543136597</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6333408355713</t>
+    <t xml:space="preserve">12.6333417892456</t>
   </si>
   <si>
     <t xml:space="preserve">12.6242456436157</t>
@@ -4295,25 +4295,25 @@
     <t xml:space="preserve">12.7288417816162</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5878648757935</t>
+    <t xml:space="preserve">12.5878639221191</t>
   </si>
   <si>
     <t xml:space="preserve">12.6424360275269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2108917236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0881042480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5110349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6247253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6974878311157</t>
+    <t xml:space="preserve">13.2108898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0881052017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5110340118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6247262954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.69748878479</t>
   </si>
   <si>
     <t xml:space="preserve">13.6656541824341</t>
@@ -4322,13 +4322,13 @@
     <t xml:space="preserve">13.6338214874268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2654628753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3604831695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7970561981201</t>
+    <t xml:space="preserve">13.2654619216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3604822158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7970552444458</t>
   </si>
   <si>
     <t xml:space="preserve">12.7379369735718</t>
@@ -4340,22 +4340,22 @@
     <t xml:space="preserve">12.9516754150391</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5428695678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3882493972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245820999146</t>
+    <t xml:space="preserve">13.5428686141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3882484436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245811462402</t>
   </si>
   <si>
     <t xml:space="preserve">13.2199869155884</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7151985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8425321578979</t>
+    <t xml:space="preserve">12.7151975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8425331115723</t>
   </si>
   <si>
     <t xml:space="preserve">13.2836532592773</t>
@@ -4364,13 +4364,13 @@
     <t xml:space="preserve">12.9334859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4200811386108</t>
+    <t xml:space="preserve">13.4200830459595</t>
   </si>
   <si>
     <t xml:space="preserve">13.9930849075317</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1795377731323</t>
+    <t xml:space="preserve">14.1795387268066</t>
   </si>
   <si>
     <t xml:space="preserve">14.0931329727173</t>
@@ -4379,25 +4379,25 @@
     <t xml:space="preserve">13.7293224334717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9112281799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2216014862061</t>
+    <t xml:space="preserve">13.9112272262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2216005325317</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270376205444</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2818231582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6709470748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8516130447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0276441574097</t>
+    <t xml:space="preserve">14.2818222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6709480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8516139984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.027645111084</t>
   </si>
   <si>
     <t xml:space="preserve">14.4763851165771</t>
@@ -4406,7 +4406,7 @@
     <t xml:space="preserve">14.5875635147095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6199903488159</t>
+    <t xml:space="preserve">14.6199913024902</t>
   </si>
   <si>
     <t xml:space="preserve">14.5736665725708</t>
@@ -4418,43 +4418,43 @@
     <t xml:space="preserve">14.8284502029419</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7867593765259</t>
+    <t xml:space="preserve">14.7867584228516</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382179260254</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7120323181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4989395141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.383129119873</t>
+    <t xml:space="preserve">13.7120313644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4989404678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3831281661987</t>
   </si>
   <si>
     <t xml:space="preserve">12.9847393035889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.192590713501</t>
+    <t xml:space="preserve">12.1925897598267</t>
   </si>
   <si>
     <t xml:space="preserve">12.0119256973267</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2389154434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3084020614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6737575531006</t>
+    <t xml:space="preserve">12.2389163970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3084011077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6737565994263</t>
   </si>
   <si>
     <t xml:space="preserve">11.3216924667358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5347833633423</t>
+    <t xml:space="preserve">11.5347843170166</t>
   </si>
   <si>
     <t xml:space="preserve">11.5533142089844</t>
@@ -4469,7 +4469,7 @@
     <t xml:space="preserve">11.368016242981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1549243927002</t>
+    <t xml:space="preserve">11.1549234390259</t>
   </si>
   <si>
     <t xml:space="preserve">11.5625782012939</t>
@@ -4478,19 +4478,19 @@
     <t xml:space="preserve">10.6082954406738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2886562347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3309564590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7478761672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8173637390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7154502868652</t>
+    <t xml:space="preserve">10.2886552810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3309555053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.747875213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8173627853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7154493331909</t>
   </si>
   <si>
     <t xml:space="preserve">11.5811080932617</t>
@@ -4499,7 +4499,7 @@
     <t xml:space="preserve">11.1132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938957214355</t>
+    <t xml:space="preserve">11.2938966751099</t>
   </si>
   <si>
     <t xml:space="preserve">11.7525091171265</t>
@@ -4508,16 +4508,16 @@
     <t xml:space="preserve">11.789568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6691246032715</t>
+    <t xml:space="preserve">11.6691236495972</t>
   </si>
   <si>
     <t xml:space="preserve">11.4421348571777</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5718431472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6969194412231</t>
+    <t xml:space="preserve">11.5718421936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6969184875488</t>
   </si>
   <si>
     <t xml:space="preserve">12.0628824234009</t>
@@ -4526,7 +4526,7 @@
     <t xml:space="preserve">12.2157535552979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6048774719238</t>
+    <t xml:space="preserve">12.6048784255981</t>
   </si>
   <si>
     <t xml:space="preserve">12.2667102813721</t>
@@ -4538,10 +4538,10 @@
     <t xml:space="preserve">12.1555309295654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.692286491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.914644241333</t>
+    <t xml:space="preserve">11.6922874450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9146432876587</t>
   </si>
   <si>
     <t xml:space="preserve">12.0350866317749</t>
@@ -4553,19 +4553,19 @@
     <t xml:space="preserve">12.1972227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1694278717041</t>
+    <t xml:space="preserve">12.1694288253784</t>
   </si>
   <si>
     <t xml:space="preserve">11.9378061294556</t>
   </si>
   <si>
-    <t xml:space="preserve">12.317666053772</t>
+    <t xml:space="preserve">12.3176679611206</t>
   </si>
   <si>
     <t xml:space="preserve">11.8961143493652</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9476795196533</t>
+    <t xml:space="preserve">12.947678565979</t>
   </si>
   <si>
     <t xml:space="preserve">12.8318681716919</t>
@@ -4577,13 +4577,13 @@
     <t xml:space="preserve">12.8828248977661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7484846115112</t>
+    <t xml:space="preserve">12.7484827041626</t>
   </si>
   <si>
     <t xml:space="preserve">12.739218711853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6836290359497</t>
+    <t xml:space="preserve">12.683629989624</t>
   </si>
   <si>
     <t xml:space="preserve">13.1144466400146</t>
@@ -4592,19 +4592,19 @@
     <t xml:space="preserve">13.2348909378052</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7809104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3778886795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3825206756592</t>
+    <t xml:space="preserve">12.7809114456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3778877258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3825197219849</t>
   </si>
   <si>
     <t xml:space="preserve">12.9986352920532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2626848220825</t>
+    <t xml:space="preserve">13.2626857757568</t>
   </si>
   <si>
     <t xml:space="preserve">13.2024631500244</t>
@@ -4613,19 +4613,19 @@
     <t xml:space="preserve">13.1978302001953</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9059867858887</t>
+    <t xml:space="preserve">12.905987739563</t>
   </si>
   <si>
     <t xml:space="preserve">12.5770835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5492877960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4288463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7855424880981</t>
+    <t xml:space="preserve">12.5492897033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4288454055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7855443954468</t>
   </si>
   <si>
     <t xml:space="preserve">11.5579462051392</t>
@@ -4634,10 +4634,10 @@
     <t xml:space="preserve">11.8080978393555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1647958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5214939117432</t>
+    <t xml:space="preserve">12.1647968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5214948654175</t>
   </si>
   <si>
     <t xml:space="preserve">12.2898731231689</t>
@@ -4649,25 +4649,25 @@
     <t xml:space="preserve">13.4433507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7212972640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9019632339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4248208999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7948093414307</t>
+    <t xml:space="preserve">13.7212982177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9019622802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4248199462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7948083877563</t>
   </si>
   <si>
     <t xml:space="preserve">12.9106197357178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5128374099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2441549301147</t>
+    <t xml:space="preserve">13.5128364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2441558837891</t>
   </si>
   <si>
     <t xml:space="preserve">13.6240158081055</t>
@@ -4676,7 +4676,7 @@
     <t xml:space="preserve">13.9297571182251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741674423218</t>
+    <t xml:space="preserve">13.8741683959961</t>
   </si>
   <si>
     <t xml:space="preserve">14.0455684661865</t>
@@ -4691,22 +4691,22 @@
     <t xml:space="preserve">14.6477861404419</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1845407485962</t>
+    <t xml:space="preserve">14.1845417022705</t>
   </si>
   <si>
     <t xml:space="preserve">14.5505037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9257316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7589645385742</t>
+    <t xml:space="preserve">14.9257326126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7589635848999</t>
   </si>
   <si>
     <t xml:space="preserve">14.9674243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.421404838562</t>
+    <t xml:space="preserve">15.4214038848877</t>
   </si>
   <si>
     <t xml:space="preserve">15.5557460784912</t>
@@ -4715,25 +4715,25 @@
     <t xml:space="preserve">15.2407398223877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1388244628906</t>
+    <t xml:space="preserve">15.1388254165649</t>
   </si>
   <si>
     <t xml:space="preserve">14.5134449005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8191862106323</t>
+    <t xml:space="preserve">14.819185256958</t>
   </si>
   <si>
     <t xml:space="preserve">14.7543315887451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4538297653198</t>
+    <t xml:space="preserve">15.4538307189941</t>
   </si>
   <si>
     <t xml:space="preserve">15.5279502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0878667831421</t>
+    <t xml:space="preserve">15.0878677368164</t>
   </si>
   <si>
     <t xml:space="preserve">15.2083129882812</t>
@@ -4742,13 +4742,13 @@
     <t xml:space="preserve">14.5342578887939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4891662597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1380968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2317171096802</t>
+    <t xml:space="preserve">15.4891653060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1380977630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2317152023315</t>
   </si>
   <si>
     <t xml:space="preserve">15.315972328186</t>
@@ -4757,19 +4757,19 @@
     <t xml:space="preserve">14.8993701934814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3346939086914</t>
+    <t xml:space="preserve">15.33469581604</t>
   </si>
   <si>
     <t xml:space="preserve">15.6483173370361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2832069396973</t>
+    <t xml:space="preserve">15.2832059860229</t>
   </si>
   <si>
     <t xml:space="preserve">15.0304365158081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8010721206665</t>
+    <t xml:space="preserve">14.8010711669922</t>
   </si>
   <si>
     <t xml:space="preserve">14.6700048446655</t>
@@ -4781,10 +4781,10 @@
     <t xml:space="preserve">14.5295782089233</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4031925201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627639770508</t>
+    <t xml:space="preserve">14.4031934738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627649307251</t>
   </si>
   <si>
     <t xml:space="preserve">14.7495813369751</t>
@@ -4793,25 +4793,25 @@
     <t xml:space="preserve">14.7776660919189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.492130279541</t>
+    <t xml:space="preserve">14.4921293258667</t>
   </si>
   <si>
     <t xml:space="preserve">14.3891496658325</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7074518203735</t>
+    <t xml:space="preserve">14.7074527740479</t>
   </si>
   <si>
     <t xml:space="preserve">14.9087324142456</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2504405975342</t>
+    <t xml:space="preserve">15.2504396438599</t>
   </si>
   <si>
     <t xml:space="preserve">15.521933555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5827856063843</t>
+    <t xml:space="preserve">15.5827865600586</t>
   </si>
   <si>
     <t xml:space="preserve">15.4657621383667</t>
@@ -4823,37 +4823,37 @@
     <t xml:space="preserve">15.2457580566406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7466163635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.203631401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1317005157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5436201095581</t>
+    <t xml:space="preserve">15.7466173171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2036304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1316995620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5436191558838</t>
   </si>
   <si>
     <t xml:space="preserve">14.7683038711548</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8244752883911</t>
+    <t xml:space="preserve">14.8244762420654</t>
   </si>
   <si>
     <t xml:space="preserve">14.8338375091553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0117120742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2270336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1240549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023498535156</t>
+    <t xml:space="preserve">15.0117130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2270345687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1240539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023508071899</t>
   </si>
   <si>
     <t xml:space="preserve">15.4563999176025</t>
@@ -4862,7 +4862,7 @@
     <t xml:space="preserve">16.0976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3066101074219</t>
+    <t xml:space="preserve">15.3066110610962</t>
   </si>
   <si>
     <t xml:space="preserve">15.4938459396362</t>
@@ -4871,7 +4871,7 @@
     <t xml:space="preserve">15.2083120346069</t>
   </si>
   <si>
-    <t xml:space="preserve">15.016393661499</t>
+    <t xml:space="preserve">15.0163946151733</t>
   </si>
   <si>
     <t xml:space="preserve">15.0444784164429</t>
@@ -4880,28 +4880,28 @@
     <t xml:space="preserve">15.072564125061</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4142713546753</t>
+    <t xml:space="preserve">15.4142723083496</t>
   </si>
   <si>
     <t xml:space="preserve">15.1802253723145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2129926681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8853273391724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3704261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2861700057983</t>
+    <t xml:space="preserve">15.2129917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8853282928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3704271316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.286169052124</t>
   </si>
   <si>
     <t xml:space="preserve">14.1691465377808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2768087387085</t>
+    <t xml:space="preserve">14.2768077850342</t>
   </si>
   <si>
     <t xml:space="preserve">14.6419200897217</t>
@@ -4916,37 +4916,37 @@
     <t xml:space="preserve">15.1615009307861</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2381134033203</t>
+    <t xml:space="preserve">16.2381114959717</t>
   </si>
   <si>
     <t xml:space="preserve">15.4610805511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.222354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7308568954468</t>
+    <t xml:space="preserve">15.2223539352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7308559417725</t>
   </si>
   <si>
     <t xml:space="preserve">14.9976692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6793670654297</t>
+    <t xml:space="preserve">14.6793661117554</t>
   </si>
   <si>
     <t xml:space="preserve">15.0397987365723</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1053314208984</t>
+    <t xml:space="preserve">15.1053304672241</t>
   </si>
   <si>
     <t xml:space="preserve">15.152138710022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2598009109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3393774032593</t>
+    <t xml:space="preserve">15.2597999572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.339376449585</t>
   </si>
   <si>
     <t xml:space="preserve">14.7636241912842</t>
@@ -4958,19 +4958,19 @@
     <t xml:space="preserve">13.612117767334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8087148666382</t>
+    <t xml:space="preserve">13.8087158203125</t>
   </si>
   <si>
     <t xml:space="preserve">12.5729532241821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6057186126709</t>
+    <t xml:space="preserve">12.6057195663452</t>
   </si>
   <si>
     <t xml:space="preserve">12.3763542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4091205596924</t>
+    <t xml:space="preserve">12.4091196060181</t>
   </si>
   <si>
     <t xml:space="preserve">12.8257217407227</t>
@@ -4979,7 +4979,7 @@
     <t xml:space="preserve">12.6899757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4044399261475</t>
+    <t xml:space="preserve">12.4044389724731</t>
   </si>
   <si>
     <t xml:space="preserve">12.0065603256226</t>
@@ -5000,22 +5000,22 @@
     <t xml:space="preserve">12.264012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6338043212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3201837539673</t>
+    <t xml:space="preserve">12.6338052749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.320182800293</t>
   </si>
   <si>
     <t xml:space="preserve">12.1657123565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1329460144043</t>
+    <t xml:space="preserve">12.1329469680786</t>
   </si>
   <si>
     <t xml:space="preserve">12.4606103897095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6244421005249</t>
+    <t xml:space="preserve">12.6244430541992</t>
   </si>
   <si>
     <t xml:space="preserve">12.582314491272</t>
@@ -5027,10 +5027,10 @@
     <t xml:space="preserve">12.4231643676758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2874164581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2686929702759</t>
+    <t xml:space="preserve">12.2874174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2686920166016</t>
   </si>
   <si>
     <t xml:space="preserve">12.2172021865845</t>
@@ -5039,19 +5039,19 @@
     <t xml:space="preserve">12.1282653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8801765441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5618734359741</t>
+    <t xml:space="preserve">11.8801755905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5618743896484</t>
   </si>
   <si>
     <t xml:space="preserve">11.4869794845581</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3278284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6274061203003</t>
+    <t xml:space="preserve">11.3278274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274070739746</t>
   </si>
   <si>
     <t xml:space="preserve">11.7210254669189</t>
@@ -5063,7 +5063,7 @@
     <t xml:space="preserve">11.4682559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3371887207031</t>
+    <t xml:space="preserve">11.3371906280518</t>
   </si>
   <si>
     <t xml:space="preserve">11.472936630249</t>
@@ -5075,7 +5075,7 @@
     <t xml:space="preserve">11.3559141159058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5103845596313</t>
+    <t xml:space="preserve">11.510383605957</t>
   </si>
   <si>
     <t xml:space="preserve">11.5478315353394</t>
@@ -5087,16 +5087,16 @@
     <t xml:space="preserve">11.8414611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8703422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323043823242</t>
+    <t xml:space="preserve">11.870343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323053359985</t>
   </si>
   <si>
     <t xml:space="preserve">11.533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7548170089722</t>
+    <t xml:space="preserve">11.7548160552979</t>
   </si>
   <si>
     <t xml:space="preserve">11.4371185302734</t>
@@ -5111,7 +5111,7 @@
     <t xml:space="preserve">11.884783744812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9618015289307</t>
+    <t xml:space="preserve">11.9618005752563</t>
   </si>
   <si>
     <t xml:space="preserve">12.2361764907837</t>
@@ -5120,7 +5120,7 @@
     <t xml:space="preserve">12.3324489593506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3950252532959</t>
+    <t xml:space="preserve">12.3950262069702</t>
   </si>
   <si>
     <t xml:space="preserve">12.3468885421753</t>
@@ -5135,7 +5135,7 @@
     <t xml:space="preserve">12.4479761123657</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5394334793091</t>
+    <t xml:space="preserve">12.5394325256348</t>
   </si>
   <si>
     <t xml:space="preserve">12.0484457015991</t>
@@ -5153,7 +5153,7 @@
     <t xml:space="preserve">12.4720430374146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4768562316895</t>
+    <t xml:space="preserve">12.4768571853638</t>
   </si>
   <si>
     <t xml:space="preserve">12.5105514526367</t>
@@ -5165,10 +5165,10 @@
     <t xml:space="preserve">13.2037105560303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1988964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2711009979248</t>
+    <t xml:space="preserve">13.1988973617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2711000442505</t>
   </si>
   <si>
     <t xml:space="preserve">13.1603879928589</t>
@@ -5177,19 +5177,19 @@
     <t xml:space="preserve">12.789740562439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266927719116</t>
+    <t xml:space="preserve">13.1266937255859</t>
   </si>
   <si>
     <t xml:space="preserve">13.0978107452393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4636449813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7091388702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7235794067383</t>
+    <t xml:space="preserve">13.46364402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7091379165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7235803604126</t>
   </si>
   <si>
     <t xml:space="preserve">13.6610021591187</t>
@@ -5219,7 +5219,7 @@
     <t xml:space="preserve">14.3541612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4456205368042</t>
+    <t xml:space="preserve">14.4456195831299</t>
   </si>
   <si>
     <t xml:space="preserve">14.440806388855</t>
@@ -5249,16 +5249,16 @@
     <t xml:space="preserve">14.835521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8499631881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8066396713257</t>
+    <t xml:space="preserve">14.8499622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.806640625</t>
   </si>
   <si>
     <t xml:space="preserve">14.8114538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7873849868774</t>
+    <t xml:space="preserve">14.7873859405518</t>
   </si>
   <si>
     <t xml:space="preserve">14.7248086929321</t>
@@ -5279,25 +5279,25 @@
     <t xml:space="preserve">14.4167385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5900268554688</t>
+    <t xml:space="preserve">14.5900278091431</t>
   </si>
   <si>
     <t xml:space="preserve">14.7199954986572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.68630027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.209753036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.349347114563</t>
+    <t xml:space="preserve">14.6862993240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2097539901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3493480682373</t>
   </si>
   <si>
     <t xml:space="preserve">14.2867708206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5081958770752</t>
+    <t xml:space="preserve">14.5081968307495</t>
   </si>
   <si>
     <t xml:space="preserve">14.4071111679077</t>
@@ -5309,7 +5309,7 @@
     <t xml:space="preserve">14.5996551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4889421463013</t>
+    <t xml:space="preserve">14.4889430999756</t>
   </si>
   <si>
     <t xml:space="preserve">14.8595905303955</t>
@@ -5324,19 +5324,19 @@
     <t xml:space="preserve">14.5274515151978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1231079101562</t>
+    <t xml:space="preserve">14.1231088638306</t>
   </si>
   <si>
     <t xml:space="preserve">14.1134805679321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1616172790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.166431427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5226383209229</t>
+    <t xml:space="preserve">14.1616182327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1664304733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5226373672485</t>
   </si>
   <si>
     <t xml:space="preserve">14.4263648986816</t>
@@ -5366,10 +5366,10 @@
     <t xml:space="preserve">14.7970123291016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772880554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713882446289</t>
+    <t xml:space="preserve">15.1772871017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713872909546</t>
   </si>
   <si>
     <t xml:space="preserve">15.2831859588623</t>
@@ -5381,7 +5381,7 @@
     <t xml:space="preserve">15.0425062179565</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6911144256592</t>
+    <t xml:space="preserve">14.6911134719849</t>
   </si>
   <si>
     <t xml:space="preserve">14.821081161499</t>
@@ -5390,16 +5390,16 @@
     <t xml:space="preserve">14.8644027709961</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5467052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7501058578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7096719741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0832061767578</t>
+    <t xml:space="preserve">14.5467042922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7501068115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7096729278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0832080841064</t>
   </si>
   <si>
     <t xml:space="preserve">15.586443901062</t>
@@ -5414,16 +5414,16 @@
     <t xml:space="preserve">15.4901714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7164125442505</t>
+    <t xml:space="preserve">15.7164115905762</t>
   </si>
   <si>
     <t xml:space="preserve">15.4997987747192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5190534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8980979919434</t>
+    <t xml:space="preserve">15.5190544128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8980989456177</t>
   </si>
   <si>
     <t xml:space="preserve">15.081015586853</t>
@@ -5802,6 +5802,9 @@
   </si>
   <si>
     <t xml:space="preserve">15.0299997329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8050003051758</t>
   </si>
 </sst>
 </file>
@@ -61965,7 +61968,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6498958333</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>2230812</v>
@@ -61986,6 +61989,32 @@
         <v>1929</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6493287037</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>2699488</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>15.0950002670288</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>14.7700004577637</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>15.0749998092651</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>14.8050003051758</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1934">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,145 +38,145 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30197811126709</t>
+    <t xml:space="preserve">8.30197906494141</t>
   </si>
   <si>
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735229492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1174898147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88687944412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58708524703979</t>
+    <t xml:space="preserve">8.31735324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11748790740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88687801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58708620071411</t>
   </si>
   <si>
     <t xml:space="preserve">7.50252819061279</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46409273147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5102162361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4564061164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98749828338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92600250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7415132522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99518442153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17583036422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892387390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26423025131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729009628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19889116287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84528875350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86834955215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797161102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78379154205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64158391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17198705673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33341312408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1066460609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53711986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44487428665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20273447036743</t>
+    <t xml:space="preserve">7.46409368515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021432876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45640563964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98749780654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92600154876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14508152008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74151420593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99518537521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17582988739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892530441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26422929763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19889211654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84528779983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86834859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41797018051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78379201889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64158296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17198610305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33341503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10664701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53711938858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44487714767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20273542404175</t>
   </si>
   <si>
     <t xml:space="preserve">7.50637245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23348188400269</t>
+    <t xml:space="preserve">7.23348236083984</t>
   </si>
   <si>
     <t xml:space="preserve">6.89909744262695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91062831878662</t>
+    <t xml:space="preserve">6.91062784194946</t>
   </si>
   <si>
     <t xml:space="preserve">7.55633640289307</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72545194625854</t>
+    <t xml:space="preserve">7.7254524230957</t>
   </si>
   <si>
     <t xml:space="preserve">7.90993928909302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85613107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02524280548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34810066223145</t>
+    <t xml:space="preserve">7.85613012313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02524566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34809970855713</t>
   </si>
   <si>
     <t xml:space="preserve">8.44034385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1328649520874</t>
+    <t xml:space="preserve">8.13286399841309</t>
   </si>
   <si>
     <t xml:space="preserve">8.28660488128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00218486785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24816989898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15592479705811</t>
+    <t xml:space="preserve">8.00218391418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24816799163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15592384338379</t>
   </si>
   <si>
     <t xml:space="preserve">8.39422225952148</t>
@@ -185,16 +185,16 @@
     <t xml:space="preserve">8.24048233032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20204448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38653469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14054870605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08674144744873</t>
+    <t xml:space="preserve">8.20204639434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38653373718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.140549659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0867395401001</t>
   </si>
   <si>
     <t xml:space="preserve">8.4172830581665</t>
@@ -203,103 +203,103 @@
     <t xml:space="preserve">8.25585556030273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94068717956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0790548324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05599498748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51721286773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55564975738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61714649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87850379943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87081718444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90925216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17061138153076</t>
+    <t xml:space="preserve">7.94068622589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07905387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05599308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51721382141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55565071105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61714553833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87850475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87081813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90925121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17060947418213</t>
   </si>
   <si>
     <t xml:space="preserve">9.3089771270752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.347412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40122222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10911655426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27823066711426</t>
+    <t xml:space="preserve">9.34741306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40121936798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10911464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27822875976562</t>
   </si>
   <si>
     <t xml:space="preserve">9.28591632843018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05530452728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93231201171875</t>
+    <t xml:space="preserve">9.05530548095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93231391906738</t>
   </si>
   <si>
     <t xml:space="preserve">8.45571804046631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40959453582764</t>
+    <t xml:space="preserve">8.40959548950195</t>
   </si>
   <si>
     <t xml:space="preserve">8.85544300079346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.694016456604</t>
+    <t xml:space="preserve">8.69401550292969</t>
   </si>
   <si>
     <t xml:space="preserve">8.66326808929443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74782562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75551128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9169397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11680316925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14754867553711</t>
+    <t xml:space="preserve">8.74782371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75551223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91693878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11680221557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14755058288574</t>
   </si>
   <si>
     <t xml:space="preserve">8.84775733947754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03224277496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09535026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20578861236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22945499420166</t>
+    <t xml:space="preserve">9.03224468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09534931182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20579147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22945404052734</t>
   </si>
   <si>
     <t xml:space="preserve">9.44244289398193</t>
@@ -308,28 +308,28 @@
     <t xml:space="preserve">9.46610832214355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47399520874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39511108398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2846736907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1505708694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11901664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57654571533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0498495101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233963012695</t>
+    <t xml:space="preserve">9.47399616241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39511013031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28467559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15056991577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11901473999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57654666900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0498514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233972549438</t>
   </si>
   <si>
     <t xml:space="preserve">10.0419626235962</t>
@@ -347,25 +347,25 @@
     <t xml:space="preserve">9.85263919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67120552062988</t>
+    <t xml:space="preserve">9.67120742797852</t>
   </si>
   <si>
     <t xml:space="preserve">9.91574668884277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1918430328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93941211700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3338346481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81319904327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53710269927979</t>
+    <t xml:space="preserve">10.1918420791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93941497802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.333833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81319713592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5371036529541</t>
   </si>
   <si>
     <t xml:space="preserve">9.63965129852295</t>
@@ -374,58 +374,58 @@
     <t xml:space="preserve">10.136622428894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628383636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048290252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3653898239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1208467483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82897472381592</t>
+    <t xml:space="preserve">10.2628393173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048299789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3653860092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1208477020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82897567749023</t>
   </si>
   <si>
     <t xml:space="preserve">9.90785980224609</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0261850357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.183952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786130905151</t>
+    <t xml:space="preserve">10.0261840820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1839551925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786149978638</t>
   </si>
   <si>
     <t xml:space="preserve">9.99463081359863</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1129598617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71853637695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88419342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68698215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56076717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6633186340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59232234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30833911895752</t>
+    <t xml:space="preserve">10.1129560470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71853733062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88419246673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68698310852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56076812744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66331768035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59232330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30834007263184</t>
   </si>
   <si>
     <t xml:space="preserve">9.43455410003662</t>
@@ -434,49 +434,49 @@
     <t xml:space="preserve">9.18212413787842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04013252258301</t>
+    <t xml:space="preserve">9.04013347625732</t>
   </si>
   <si>
     <t xml:space="preserve">9.22156715393066</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48977279663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69487190246582</t>
+    <t xml:space="preserve">9.48977088928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69486999511719</t>
   </si>
   <si>
     <t xml:space="preserve">9.89997100830078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87630653381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0025196075439</t>
+    <t xml:space="preserve">9.87630558013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0025205612183</t>
   </si>
   <si>
     <t xml:space="preserve">10.2312860488892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1760663986206</t>
+    <t xml:space="preserve">10.1760654449463</t>
   </si>
   <si>
     <t xml:space="preserve">10.1523990631104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0340747833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97096633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58443450927734</t>
+    <t xml:space="preserve">10.0340719223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9709644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58443260192871</t>
   </si>
   <si>
     <t xml:space="preserve">9.72642517089844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80531120300293</t>
+    <t xml:space="preserve">9.80530834197998</t>
   </si>
   <si>
     <t xml:space="preserve">9.60021114349365</t>
@@ -485,31 +485,31 @@
     <t xml:space="preserve">9.33989334106445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13479137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19001007080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36355876922607</t>
+    <t xml:space="preserve">9.13479232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19001293182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36355590820312</t>
   </si>
   <si>
     <t xml:space="preserve">9.24523162841797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1426830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16634750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38722229003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17423534393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90602970123291</t>
+    <t xml:space="preserve">9.14268207550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16634845733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3872241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17423629760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90602874755859</t>
   </si>
   <si>
     <t xml:space="preserve">9.0243558883667</t>
@@ -521,25 +521,25 @@
     <t xml:space="preserve">10.0182971954346</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1681756973267</t>
+    <t xml:space="preserve">10.1681785583496</t>
   </si>
   <si>
     <t xml:space="preserve">10.2943906784058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2707271575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.491602897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1602878570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3732748031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.349609375</t>
+    <t xml:space="preserve">10.2707262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4916038513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.16028881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3732757568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496122360229</t>
   </si>
   <si>
     <t xml:space="preserve">10.4837131500244</t>
@@ -548,181 +548,181 @@
     <t xml:space="preserve">10.5862617492676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5389318466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547113418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5073795318604</t>
+    <t xml:space="preserve">10.538932800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5073804855347</t>
   </si>
   <si>
     <t xml:space="preserve">10.6099290847778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3022813796997</t>
+    <t xml:space="preserve">10.3022785186768</t>
   </si>
   <si>
     <t xml:space="preserve">10.4363832473755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3969430923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7974214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386926651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567796707153</t>
+    <t xml:space="preserve">10.3969421386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79742240905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386917114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2567806243896</t>
   </si>
   <si>
     <t xml:space="preserve">11.1936712265015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3987712860107</t>
+    <t xml:space="preserve">11.3987703323364</t>
   </si>
   <si>
     <t xml:space="preserve">11.5328750610352</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5249853134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041095733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7260255813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3916759490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6304950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6703004837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4235191345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25634765625</t>
+    <t xml:space="preserve">11.5249843597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092096328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041076660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7260236740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3916778564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6304979324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.670298576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4235200881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2563467025757</t>
   </si>
   <si>
     <t xml:space="preserve">11.9966850280762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4902458190918</t>
+    <t xml:space="preserve">12.4902439117432</t>
   </si>
   <si>
     <t xml:space="preserve">12.3787965774536</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6892614364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8564348220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.737024307251</t>
+    <t xml:space="preserve">12.6892604827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8564329147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7370262145996</t>
   </si>
   <si>
     <t xml:space="preserve">12.888277053833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2385444641113</t>
+    <t xml:space="preserve">13.23854637146</t>
   </si>
   <si>
     <t xml:space="preserve">13.0474901199341</t>
   </si>
   <si>
-    <t xml:space="preserve">12.959921836853</t>
+    <t xml:space="preserve">12.9599237442017</t>
   </si>
   <si>
     <t xml:space="preserve">13.0952548980713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9838047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0395269393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2226266860962</t>
+    <t xml:space="preserve">12.9838066101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.039529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2226257324219</t>
   </si>
   <si>
     <t xml:space="preserve">13.1270971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2783498764038</t>
+    <t xml:space="preserve">13.2783479690552</t>
   </si>
   <si>
     <t xml:space="preserve">13.525128364563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6843423843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7082252502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092058181763</t>
+    <t xml:space="preserve">13.6843414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7082223892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092067718506</t>
   </si>
   <si>
     <t xml:space="preserve">13.732105255127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6763801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6524991989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5808525085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5649318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4694051742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3659162521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5171661376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4534826278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2146644592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4614419937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5569725036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.389799118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6923036575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7161855697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5490121841431</t>
+    <t xml:space="preserve">13.6763820648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6524982452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5808534622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5649347305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4694042205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3659181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5171670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4534816741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2146654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4614429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5569734573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.389796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3499956130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6923027038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7161836624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490102767944</t>
   </si>
   <si>
     <t xml:space="preserve">12.8803176879883</t>
@@ -731,25 +731,25 @@
     <t xml:space="preserve">12.8723564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7847900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.951961517334</t>
+    <t xml:space="preserve">12.7847890853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9519624710083</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768287658691</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8086709976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5220861434937</t>
+    <t xml:space="preserve">12.8086729049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5220880508423</t>
   </si>
   <si>
     <t xml:space="preserve">12.7290649414062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.816632270813</t>
+    <t xml:space="preserve">12.8166313171387</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201202392578</t>
@@ -758,25 +758,25 @@
     <t xml:space="preserve">12.6255769729614</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4982051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8484735488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9041967391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4265604019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628721237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5539312362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2991886138916</t>
+    <t xml:space="preserve">12.4982061386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8484764099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9041996002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4265613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628740310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5539321899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2991895675659</t>
   </si>
   <si>
     <t xml:space="preserve">12.1399774551392</t>
@@ -794,70 +794,70 @@
     <t xml:space="preserve">11.7180643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7658252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6782598495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9489221572876</t>
+    <t xml:space="preserve">11.7658262252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6782608032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9489212036133</t>
   </si>
   <si>
     <t xml:space="preserve">12.0285291671753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1240558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9091176986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7499055862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7737865447998</t>
+    <t xml:space="preserve">12.1240539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9091186523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7499046325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7737894058228</t>
   </si>
   <si>
     <t xml:space="preserve">11.8533945083618</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5906953811646</t>
+    <t xml:space="preserve">11.5906944274902</t>
   </si>
   <si>
     <t xml:space="preserve">12.4822854995728</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4026784896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927494049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6972236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8643960952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8405122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5857734680176</t>
+    <t xml:space="preserve">12.4026775360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927503585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6972227096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8643951416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8405132293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5857744216919</t>
   </si>
   <si>
     <t xml:space="preserve">12.0046453475952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.108136177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8931951522827</t>
+    <t xml:space="preserve">12.10813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.893196105957</t>
   </si>
   <si>
     <t xml:space="preserve">11.9648427963257</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9728050231934</t>
+    <t xml:space="preserve">11.972804069519</t>
   </si>
   <si>
     <t xml:space="preserve">11.9568843841553</t>
@@ -869,94 +869,94 @@
     <t xml:space="preserve">11.463321685791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4474010467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4951658248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3757581710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652914047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2245035171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2404251098633</t>
+    <t xml:space="preserve">11.4474029541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4951648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3757553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652904510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2324628829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2245025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.240424156189</t>
   </si>
   <si>
     <t xml:space="preserve">11.4155597686768</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4712820053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3279905319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5747718811035</t>
+    <t xml:space="preserve">11.471284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3279914855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5747737884521</t>
   </si>
   <si>
     <t xml:space="preserve">11.2961492538452</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4872074127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6170959472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5683870315552</t>
+    <t xml:space="preserve">11.4872045516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6170949935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5683879852295</t>
   </si>
   <si>
     <t xml:space="preserve">11.6252126693726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5196771621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3491945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2193040847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787157058716</t>
+    <t xml:space="preserve">11.5196781158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3491954803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2193050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787147521973</t>
   </si>
   <si>
     <t xml:space="preserve">10.9189319610596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0488243103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082330703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9838771820068</t>
+    <t xml:space="preserve">11.0488224029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082321166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9838781356812</t>
   </si>
   <si>
     <t xml:space="preserve">10.7971611022949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9676427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3735485076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0650596618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1137685775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8783407211304</t>
+    <t xml:space="preserve">10.9676418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3735504150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0650606155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.11376953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8783416748047</t>
   </si>
   <si>
     <t xml:space="preserve">10.9351692199707</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">10.8377504348755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8458681106567</t>
+    <t xml:space="preserve">10.8458700180054</t>
   </si>
   <si>
     <t xml:space="preserve">10.8945779800415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0812950134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4222564697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4466133117676</t>
+    <t xml:space="preserve">11.0812969207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4222583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4466123580933</t>
   </si>
   <si>
     <t xml:space="preserve">11.2923679351807</t>
@@ -989,28 +989,28 @@
     <t xml:space="preserve">10.9026966094971</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0407047271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3654308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5034427642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6089773178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5359153747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3410787582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0975341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2030687332153</t>
+    <t xml:space="preserve">11.0407066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3654327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5034399032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6089763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5359125137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3410778045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0975313186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2030696868896</t>
   </si>
   <si>
     <t xml:space="preserve">10.8702249526978</t>
@@ -1019,76 +1019,76 @@
     <t xml:space="preserve">10.6429147720337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5373792648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85545253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70932674407959</t>
+    <t xml:space="preserve">10.5373783111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427101135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85545349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70932579040527</t>
   </si>
   <si>
     <t xml:space="preserve">9.79862689971924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66061687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72556304931641</t>
+    <t xml:space="preserve">9.66061782836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72556209564209</t>
   </si>
   <si>
     <t xml:space="preserve">9.46578121185303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49825191497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44954395294189</t>
+    <t xml:space="preserve">9.49825382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44954586029053</t>
   </si>
   <si>
     <t xml:space="preserve">9.40895366668701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36024284362793</t>
+    <t xml:space="preserve">9.36024475097656</t>
   </si>
   <si>
     <t xml:space="preserve">9.2790641784668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33589172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30341720581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26282691955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19788074493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10858154296875</t>
+    <t xml:space="preserve">9.3358907699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30341911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26282596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19788265228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10858249664307</t>
   </si>
   <si>
     <t xml:space="preserve">8.98680877685547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09234428405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11670017242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0761079788208</t>
+    <t xml:space="preserve">9.09234523773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11669826507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07610988616943</t>
   </si>
   <si>
     <t xml:space="preserve">9.22223567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52260780334473</t>
+    <t xml:space="preserve">9.52260875701904</t>
   </si>
   <si>
     <t xml:space="preserve">9.61190795898438</t>
@@ -1097,34 +1097,34 @@
     <t xml:space="preserve">9.62814426422119</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41707324981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65249824523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88792705535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80674457550049</t>
+    <t xml:space="preserve">9.41707134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65250015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88792610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80674648284912</t>
   </si>
   <si>
     <t xml:space="preserve">9.83109855651855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83921813964844</t>
+    <t xml:space="preserve">9.83921718597412</t>
   </si>
   <si>
     <t xml:space="preserve">9.78238964080811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76615333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991893768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74180030822754</t>
+    <t xml:space="preserve">9.76615238189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74179840087891</t>
   </si>
   <si>
     <t xml:space="preserve">9.70120811462402</t>
@@ -1133,49 +1133,49 @@
     <t xml:space="preserve">9.60378932952881</t>
   </si>
   <si>
-    <t xml:space="preserve">9.352126121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32777214050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44142532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21411895751953</t>
+    <t xml:space="preserve">9.35212802886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32777309417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44142627716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21411800384521</t>
   </si>
   <si>
     <t xml:space="preserve">9.10046482086182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12481880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18164539337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27094459533691</t>
+    <t xml:space="preserve">9.12481784820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18164443969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27094554901123</t>
   </si>
   <si>
     <t xml:space="preserve">9.49013519287109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53884315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6023254394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6835060119629</t>
+    <t xml:space="preserve">9.53884506225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6023244857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6835050582886</t>
   </si>
   <si>
     <t xml:space="preserve">10.6510324478149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5617341995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4805526733398</t>
+    <t xml:space="preserve">10.5617322921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4805517196655</t>
   </si>
   <si>
     <t xml:space="preserve">10.3587808609009</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">10.2288885116577</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96910762786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81486225128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84733390808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92939758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2576398849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2001962661743</t>
+    <t xml:space="preserve">9.96910667419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81486034393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84733486175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92939567565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2576389312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2001972198486</t>
   </si>
   <si>
     <t xml:space="preserve">9.95401382446289</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">10.0196647644043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248163223267</t>
+    <t xml:space="preserve">10.224817276001</t>
   </si>
   <si>
     <t xml:space="preserve">10.4545869827271</t>
@@ -1220,67 +1220,67 @@
     <t xml:space="preserve">10.3397016525269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1673746109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2986717224121</t>
+    <t xml:space="preserve">10.1673736572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2986698150635</t>
   </si>
   <si>
     <t xml:space="preserve">10.397144317627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6843595504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0043973922729</t>
+    <t xml:space="preserve">10.6843585968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0043954849243</t>
   </si>
   <si>
     <t xml:space="preserve">10.7418003082275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.594090461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956197738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7007694244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776786804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7089757919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8730974197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9551610946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9059219360352</t>
+    <t xml:space="preserve">10.5940914154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7007703781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776796340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7089776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8730993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9551601409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9059228897095</t>
   </si>
   <si>
     <t xml:space="preserve">10.799243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9961891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1931381225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1685190200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2669916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2587862014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459985733032</t>
+    <t xml:space="preserve">10.9961910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931390762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1685180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2669906616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2587852478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459995269775</t>
   </si>
   <si>
     <t xml:space="preserve">11.6526794433594</t>
@@ -1289,10 +1289,10 @@
     <t xml:space="preserve">11.7183294296265</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4803504943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4229078292847</t>
+    <t xml:space="preserve">11.4803514480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.422908782959</t>
   </si>
   <si>
     <t xml:space="preserve">11.5952367782593</t>
@@ -1301,73 +1301,73 @@
     <t xml:space="preserve">11.6855039596558</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9070682525635</t>
+    <t xml:space="preserve">11.9070692062378</t>
   </si>
   <si>
     <t xml:space="preserve">11.9152755737305</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7921829223633</t>
+    <t xml:space="preserve">11.7921838760376</t>
   </si>
   <si>
     <t xml:space="preserve">11.866039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9316883087158</t>
+    <t xml:space="preserve">11.9316873550415</t>
   </si>
   <si>
     <t xml:space="preserve">11.7675657272339</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5542058944702</t>
+    <t xml:space="preserve">11.5542068481445</t>
   </si>
   <si>
     <t xml:space="preserve">11.509072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2834053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1603126525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8648920059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0249109268188</t>
+    <t xml:space="preserve">11.2834043502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1603116989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8648929595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0249137878418</t>
   </si>
   <si>
     <t xml:space="preserve">10.5981931686401</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5366468429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.438175201416</t>
+    <t xml:space="preserve">10.5366477966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4381742477417</t>
   </si>
   <si>
     <t xml:space="preserve">10.6105031967163</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6679468154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8197603225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1480026245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2464771270752</t>
+    <t xml:space="preserve">10.6679458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8197584152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.148003578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2464780807495</t>
   </si>
   <si>
     <t xml:space="preserve">11.1192817687988</t>
   </si>
   <si>
-    <t xml:space="preserve">11.463939666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9645118713379</t>
+    <t xml:space="preserve">11.4639377593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9645109176636</t>
   </si>
   <si>
     <t xml:space="preserve">11.8537282943726</t>
@@ -1376,49 +1376,49 @@
     <t xml:space="preserve">11.541895866394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6937103271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7552556991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6198558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9193801879883</t>
+    <t xml:space="preserve">11.6937112808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.755256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6198530197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9193773269653</t>
   </si>
   <si>
     <t xml:space="preserve">12.354302406311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1737689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0876045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8085956573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7060203552246</t>
+    <t xml:space="preserve">12.1737670898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0876035690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8085966110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7060194015503</t>
   </si>
   <si>
     <t xml:space="preserve">11.8906574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7429475784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768218994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4035387039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.644474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1726217269897</t>
+    <t xml:space="preserve">11.7429466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768209457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4035396575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6444730758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1726198196411</t>
   </si>
   <si>
     <t xml:space="preserve">11.2013425827026</t>
@@ -1430,25 +1430,25 @@
     <t xml:space="preserve">11.2259616851807</t>
   </si>
   <si>
-    <t xml:space="preserve">11.447527885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4885559082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.414701461792</t>
+    <t xml:space="preserve">11.4475269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4885578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4147033691406</t>
   </si>
   <si>
     <t xml:space="preserve">11.9398937225342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7019166946411</t>
+    <t xml:space="preserve">11.7019157409668</t>
   </si>
   <si>
     <t xml:space="preserve">11.7347421646118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0670890808105</t>
+    <t xml:space="preserve">12.0670871734619</t>
   </si>
   <si>
     <t xml:space="preserve">12.2763433456421</t>
@@ -1457,79 +1457,79 @@
     <t xml:space="preserve">12.3050661087036</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2230043411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2106952667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4363622665405</t>
+    <t xml:space="preserve">12.2230052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2106943130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4363641738892</t>
   </si>
   <si>
     <t xml:space="preserve">12.5102186203003</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5471458435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7276802062988</t>
+    <t xml:space="preserve">12.5471448898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7276811599731</t>
   </si>
   <si>
     <t xml:space="preserve">12.8220510482788</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5389404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5881767272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4814958572388</t>
+    <t xml:space="preserve">12.5389385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5881757736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4814987182617</t>
   </si>
   <si>
     <t xml:space="preserve">12.7769165039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2241506576538</t>
+    <t xml:space="preserve">13.2241497039795</t>
   </si>
   <si>
     <t xml:space="preserve">13.2118406295776</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2405614852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5318794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2364587783813</t>
+    <t xml:space="preserve">13.2405633926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5318784713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2364597320557</t>
   </si>
   <si>
     <t xml:space="preserve">13.4539222717285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3513431549072</t>
+    <t xml:space="preserve">13.3513450622559</t>
   </si>
   <si>
     <t xml:space="preserve">13.3964796066284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.330828666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3923768997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6385593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0857934951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283479690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.186861038208</t>
+    <t xml:space="preserve">13.3308305740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3923749923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6385612487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0857944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283470153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1868600845337</t>
   </si>
   <si>
     <t xml:space="preserve">14.1952028274536</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">13.8698377609253</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5653257369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2316160202026</t>
+    <t xml:space="preserve">13.5653266906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2316150665283</t>
   </si>
   <si>
     <t xml:space="preserve">13.0939598083496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1648721694946</t>
+    <t xml:space="preserve">13.1648731231689</t>
   </si>
   <si>
     <t xml:space="preserve">13.2357873916626</t>
   </si>
   <si>
-    <t xml:space="preserve">12.806134223938</t>
+    <t xml:space="preserve">12.8061361312866</t>
   </si>
   <si>
     <t xml:space="preserve">12.9646472930908</t>
@@ -1565,43 +1565,43 @@
     <t xml:space="preserve">12.6517944335938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0188760757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9813327789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0689325332642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0981311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9396190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.156530380249</t>
+    <t xml:space="preserve">13.0188751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9813318252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0689315795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0981330871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9396200180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1565313339233</t>
   </si>
   <si>
     <t xml:space="preserve">12.5475091934204</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5683650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4390516281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4807662963867</t>
+    <t xml:space="preserve">12.5683660507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4390525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4807653427124</t>
   </si>
   <si>
     <t xml:space="preserve">13.0856170654297</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5266532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5767087936401</t>
+    <t xml:space="preserve">12.5266523361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5767107009888</t>
   </si>
   <si>
     <t xml:space="preserve">13.2191009521484</t>
@@ -1610,25 +1610,25 @@
     <t xml:space="preserve">13.1440162658691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1106443405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0480756759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2566452026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2941875457764</t>
+    <t xml:space="preserve">13.1106452941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.04807472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2566442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2941865921021</t>
   </si>
   <si>
     <t xml:space="preserve">13.2900152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3567590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988105773926</t>
+    <t xml:space="preserve">13.3567571640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988096237183</t>
   </si>
   <si>
     <t xml:space="preserve">13.7613821029663</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">13.4276685714722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2858438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.227442741394</t>
+    <t xml:space="preserve">13.2858448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2274436950684</t>
   </si>
   <si>
     <t xml:space="preserve">13.2399587631226</t>
@@ -1655,16 +1655,16 @@
     <t xml:space="preserve">13.1356735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.914589881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9896755218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0397329330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2263135910034</t>
+    <t xml:space="preserve">12.9145889282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9896745681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0397319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2263107299805</t>
   </si>
   <si>
     <t xml:space="preserve">12.4015111923218</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">12.6809930801392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4640817642212</t>
+    <t xml:space="preserve">12.4640827178955</t>
   </si>
   <si>
     <t xml:space="preserve">12.159571647644</t>
@@ -1691,73 +1691,73 @@
     <t xml:space="preserve">12.0636291503906</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428861618042</t>
+    <t xml:space="preserve">12.1428871154785</t>
   </si>
   <si>
     <t xml:space="preserve">12.2471704483032</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2221431732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3514547348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7435646057129</t>
+    <t xml:space="preserve">12.2221412658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3514556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7435636520386</t>
   </si>
   <si>
     <t xml:space="preserve">12.5349950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5391654968262</t>
+    <t xml:space="preserve">12.5391664505005</t>
   </si>
   <si>
     <t xml:space="preserve">11.8383750915527</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0552864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.026086807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9468297958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922651290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4963207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3086090087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2001552581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2710666656494</t>
+    <t xml:space="preserve">12.0552854537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260858535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9468307495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.592264175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4963216781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3086080551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2710676193237</t>
   </si>
   <si>
     <t xml:space="preserve">11.5380363464355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5255212783813</t>
+    <t xml:space="preserve">11.525520324707</t>
   </si>
   <si>
     <t xml:space="preserve">11.529691696167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5964345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7507762908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7591180801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6882057189941</t>
+    <t xml:space="preserve">11.5964336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7507772445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7591171264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6882047653198</t>
   </si>
   <si>
     <t xml:space="preserve">11.6047773361206</t>
@@ -1769,46 +1769,46 @@
     <t xml:space="preserve">12.3681402206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2721977233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2138004302979</t>
+    <t xml:space="preserve">12.2721996307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2137994766235</t>
   </si>
   <si>
     <t xml:space="preserve">12.0386009216309</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3639678955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4223699569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5975675582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2596836090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2012844085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6100807189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2555131912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.738260269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7466058731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7966623306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9259738922119</t>
+    <t xml:space="preserve">12.3639698028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4223690032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5975666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2596845626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2012853622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6100816726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2555122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7382621765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7466049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7966613769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9259748458862</t>
   </si>
   <si>
     <t xml:space="preserve">11.8508892059326</t>
@@ -1817,91 +1817,91 @@
     <t xml:space="preserve">11.6965484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6840333938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4212379455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9707288742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8581018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8205585479736</t>
+    <t xml:space="preserve">11.6840343475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4212369918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9707279205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8581008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8205595016479</t>
   </si>
   <si>
     <t xml:space="preserve">10.7246150970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7579879760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6411895751953</t>
+    <t xml:space="preserve">10.7579870223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.641188621521</t>
   </si>
   <si>
     <t xml:space="preserve">10.9582147598267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.137580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.20432472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2084970474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1959829330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0916976928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0541563034058</t>
+    <t xml:space="preserve">11.1375827789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2043266296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1959819793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0916967391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0541553497314</t>
   </si>
   <si>
     <t xml:space="preserve">10.7997007369995</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7121019363403</t>
+    <t xml:space="preserve">10.7121028900146</t>
   </si>
   <si>
     <t xml:space="preserve">10.3867349624634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2866201400757</t>
+    <t xml:space="preserve">10.2866230010986</t>
   </si>
   <si>
     <t xml:space="preserve">10.4117622375488</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3116483688354</t>
+    <t xml:space="preserve">10.3116493225098</t>
   </si>
   <si>
     <t xml:space="preserve">10.2062559127808</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91958808898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1092939376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96596050262451</t>
+    <t xml:space="preserve">9.91958713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1092948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9659595489502</t>
   </si>
   <si>
     <t xml:space="preserve">9.80154800415039</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0797853469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89007568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19026756286621</t>
+    <t xml:space="preserve">10.0797843933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89007759094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19026660919189</t>
   </si>
   <si>
     <t xml:space="preserve">9.13124942779541</t>
@@ -1910,61 +1910,61 @@
     <t xml:space="preserve">8.95840454101562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26615047454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14389514923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97105121612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67595100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69702911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43143844604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54947948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64644050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6253604888916</t>
+    <t xml:space="preserve">9.26615142822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14389610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9710521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.675950050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69703006744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43143939971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54948043823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64643955230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62536144256592</t>
   </si>
   <si>
     <t xml:space="preserve">8.320143699646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13127899169922</t>
+    <t xml:space="preserve">8.13127994537354</t>
   </si>
   <si>
     <t xml:space="preserve">8.13296604156494</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78221797943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79570913314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74174642562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927572250366</t>
+    <t xml:space="preserve">7.78221702575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79570817947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74174547195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927762985229</t>
   </si>
   <si>
     <t xml:space="preserve">8.02504348754883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01155281066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31339836120605</t>
+    <t xml:space="preserve">8.01155376434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31339740753174</t>
   </si>
   <si>
     <t xml:space="preserve">8.44830226898193</t>
@@ -1973,16 +1973,16 @@
     <t xml:space="preserve">8.4946756362915</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74761867523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76869583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68859767913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61271476745605</t>
+    <t xml:space="preserve">8.74761772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76869773864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6885986328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61271572113037</t>
   </si>
   <si>
     <t xml:space="preserve">8.67173480987549</t>
@@ -1991,10 +1991,10 @@
     <t xml:space="preserve">8.98369789123535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91203117370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77291202545166</t>
+    <t xml:space="preserve">8.91203212738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77291297912598</t>
   </si>
   <si>
     <t xml:space="preserve">8.8530101776123</t>
@@ -2012,52 +2012,52 @@
     <t xml:space="preserve">9.17340564727783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24507141113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23242664337158</t>
+    <t xml:space="preserve">9.24507236480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23242568969727</t>
   </si>
   <si>
     <t xml:space="preserve">9.41791725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47693634033203</t>
+    <t xml:space="preserve">9.47693729400635</t>
   </si>
   <si>
     <t xml:space="preserve">9.2408561706543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03007125854492</t>
+    <t xml:space="preserve">9.03007221221924</t>
   </si>
   <si>
     <t xml:space="preserve">9.2197790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43899631500244</t>
+    <t xml:space="preserve">9.43899726867676</t>
   </si>
   <si>
     <t xml:space="preserve">9.70880126953125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72144985198975</t>
+    <t xml:space="preserve">9.72144889831543</t>
   </si>
   <si>
     <t xml:space="preserve">9.94909858703613</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0081186294556</t>
+    <t xml:space="preserve">10.0081176757812</t>
   </si>
   <si>
     <t xml:space="preserve">10.0713539123535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1177263259888</t>
+    <t xml:space="preserve">10.1177272796631</t>
   </si>
   <si>
     <t xml:space="preserve">10.28635597229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1556692123413</t>
+    <t xml:space="preserve">10.1556673049927</t>
   </si>
   <si>
     <t xml:space="preserve">10.1388063430786</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">10.0291976928711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83948993682861</t>
+    <t xml:space="preserve">9.83948802947998</t>
   </si>
   <si>
     <t xml:space="preserve">9.90272521972656</t>
@@ -2084,31 +2084,31 @@
     <t xml:space="preserve">9.75517463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60762500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93223476409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3791007995605</t>
+    <t xml:space="preserve">9.60762405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9322338104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3790998458862</t>
   </si>
   <si>
     <t xml:space="preserve">10.4339056015015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3833160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4043941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.526650428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5814571380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.868124961853</t>
+    <t xml:space="preserve">10.3833169937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4043951034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5266494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5814561843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8681259155273</t>
   </si>
   <si>
     <t xml:space="preserve">10.7585172653198</t>
@@ -2117,13 +2117,13 @@
     <t xml:space="preserve">10.6151809692383</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3622379302979</t>
+    <t xml:space="preserve">10.3622369766235</t>
   </si>
   <si>
     <t xml:space="preserve">10.5519466400146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8343992233276</t>
+    <t xml:space="preserve">10.8343982696533</t>
   </si>
   <si>
     <t xml:space="preserve">10.7247905731201</t>
@@ -2132,43 +2132,43 @@
     <t xml:space="preserve">10.6952800750732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4971418380737</t>
+    <t xml:space="preserve">10.4971408843994</t>
   </si>
   <si>
     <t xml:space="preserve">10.8133201599121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8807697296143</t>
+    <t xml:space="preserve">10.8807706832886</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898885726929</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4760627746582</t>
+    <t xml:space="preserve">10.4760637283325</t>
   </si>
   <si>
     <t xml:space="preserve">10.5477313995361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6025352478027</t>
+    <t xml:space="preserve">10.6025342941284</t>
   </si>
   <si>
     <t xml:space="preserve">10.9608707427979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0999908447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9945955276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782262802124</t>
+    <t xml:space="preserve">11.0999898910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9945964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782272338867</t>
   </si>
   <si>
     <t xml:space="preserve">11.1337146759033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8976345062256</t>
+    <t xml:space="preserve">10.8976354598999</t>
   </si>
   <si>
     <t xml:space="preserve">10.4676313400269</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">10.2694931030273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1261587142944</t>
+    <t xml:space="preserve">10.1261577606201</t>
   </si>
   <si>
     <t xml:space="preserve">9.95331478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1303739547729</t>
+    <t xml:space="preserve">10.1303749084473</t>
   </si>
   <si>
     <t xml:space="preserve">9.92380428314209</t>
@@ -2198,19 +2198,19 @@
     <t xml:space="preserve">9.79733180999756</t>
   </si>
   <si>
-    <t xml:space="preserve">10.058705329895</t>
+    <t xml:space="preserve">10.0587072372437</t>
   </si>
   <si>
     <t xml:space="preserve">10.1345901489258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5055732727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5603771209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690011978149</t>
+    <t xml:space="preserve">10.5055751800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5603761672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690021514893</t>
   </si>
   <si>
     <t xml:space="preserve">10.7285499572754</t>
@@ -2219,46 +2219,46 @@
     <t xml:space="preserve">10.392204284668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95236778259277</t>
+    <t xml:space="preserve">9.95236968994141</t>
   </si>
   <si>
     <t xml:space="preserve">9.83162879943848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65914535522461</t>
+    <t xml:space="preserve">9.65914630889893</t>
   </si>
   <si>
     <t xml:space="preserve">9.65052032470703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50390911102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47372341156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09856796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35729598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58152770996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2667407989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27536582946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25811672210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55565547943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69795417785645</t>
+    <t xml:space="preserve">9.50391006469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47372436523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0985689163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35729503631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58152675628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26674175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27536678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25811767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55565357208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69795513153076</t>
   </si>
   <si>
     <t xml:space="preserve">9.43060302734375</t>
@@ -2267,10 +2267,10 @@
     <t xml:space="preserve">9.31417655944824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36160850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54271602630615</t>
+    <t xml:space="preserve">9.36160755157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54271697998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.80144500732422</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">9.90493488311768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75401306152344</t>
+    <t xml:space="preserve">9.75401210784912</t>
   </si>
   <si>
     <t xml:space="preserve">9.64620876312256</t>
@@ -2291,34 +2291,34 @@
     <t xml:space="preserve">9.89199924468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9264965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1765985488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93943309783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96099281311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0644836425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0601720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.28440284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1852235794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3404598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5301923751831</t>
+    <t xml:space="preserve">9.92649745941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1765995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93943214416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96099472045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0644826889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0601711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2844018936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1852245330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3404588699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5301933288574</t>
   </si>
   <si>
     <t xml:space="preserve">10.482759475708</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">9.96530532836914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79281902313232</t>
+    <t xml:space="preserve">9.79281997680664</t>
   </si>
   <si>
     <t xml:space="preserve">9.6160249710083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74538707733154</t>
+    <t xml:space="preserve">9.74538612365723</t>
   </si>
   <si>
     <t xml:space="preserve">9.81869411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1119165420532</t>
+    <t xml:space="preserve">10.1119184494019</t>
   </si>
   <si>
     <t xml:space="preserve">10.0256748199463</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">9.77125930786133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41766548156738</t>
+    <t xml:space="preserve">9.41766452789307</t>
   </si>
   <si>
     <t xml:space="preserve">9.18912410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02957534790039</t>
+    <t xml:space="preserve">9.02957439422607</t>
   </si>
   <si>
     <t xml:space="preserve">8.81828212738037</t>
@@ -2369,13 +2369,13 @@
     <t xml:space="preserve">8.74497699737549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90452289581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72772789001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44485282897949</t>
+    <t xml:space="preserve">8.9045238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72772884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44485187530518</t>
   </si>
   <si>
     <t xml:space="preserve">8.58456611633301</t>
@@ -2390,10 +2390,10 @@
     <t xml:space="preserve">8.48969841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31721305847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41725635528564</t>
+    <t xml:space="preserve">8.317214012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41725540161133</t>
   </si>
   <si>
     <t xml:space="preserve">8.52764415740967</t>
@@ -2402,10 +2402,10 @@
     <t xml:space="preserve">8.39655685424805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50867176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56559181213379</t>
+    <t xml:space="preserve">8.5086727142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56558990478516</t>
   </si>
   <si>
     <t xml:space="preserve">8.66304492950439</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">8.55006885528564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50349712371826</t>
+    <t xml:space="preserve">8.50349617004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.28789043426514</t>
@@ -2438,13 +2438,13 @@
     <t xml:space="preserve">8.97351837158203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89589881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76653671264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82690715789795</t>
+    <t xml:space="preserve">8.89590072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76653575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82690620422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.07269668579102</t>
@@ -2453,16 +2453,16 @@
     <t xml:space="preserve">8.9002103805542</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77084827423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6673583984375</t>
+    <t xml:space="preserve">8.77084922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66735744476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.64579772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40518188476562</t>
+    <t xml:space="preserve">8.40517997741699</t>
   </si>
   <si>
     <t xml:space="preserve">8.28444290161133</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">8.27926731109619</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14990329742432</t>
+    <t xml:space="preserve">8.14990139007568</t>
   </si>
   <si>
     <t xml:space="preserve">8.4431266784668</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">7.89462757110596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97396993637085</t>
+    <t xml:space="preserve">7.97396898269653</t>
   </si>
   <si>
     <t xml:space="preserve">7.95844507217407</t>
@@ -2495,10 +2495,10 @@
     <t xml:space="preserve">8.05158710479736</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91704797744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95326900482178</t>
+    <t xml:space="preserve">7.91704988479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95326995849609</t>
   </si>
   <si>
     <t xml:space="preserve">8.02916526794434</t>
@@ -2510,34 +2510,34 @@
     <t xml:space="preserve">8.08953475952148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1964750289917</t>
+    <t xml:space="preserve">8.19647407531738</t>
   </si>
   <si>
     <t xml:space="preserve">8.1637020111084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06366157531738</t>
+    <t xml:space="preserve">8.06366062164307</t>
   </si>
   <si>
     <t xml:space="preserve">8.02054023742676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07918357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09988212585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12058162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03261375427246</t>
+    <t xml:space="preserve">8.07918453216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09988307952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12058258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03261470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.11023235321045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23441982269287</t>
+    <t xml:space="preserve">8.2344217300415</t>
   </si>
   <si>
     <t xml:space="preserve">8.31376457214355</t>
@@ -2546,34 +2546,34 @@
     <t xml:space="preserve">8.07401084899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80838298797607</t>
+    <t xml:space="preserve">7.80838251113892</t>
   </si>
   <si>
     <t xml:space="preserve">8.47417449951172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62078762054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77515983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62854957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64148616790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68460655212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54489421844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54316806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53971862792969</t>
+    <t xml:space="preserve">8.62078666687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62854862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6414852142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68460750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54489326477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54316902160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.539719581604</t>
   </si>
   <si>
     <t xml:space="preserve">8.46631145477295</t>
@@ -2582,22 +2582,22 @@
     <t xml:space="preserve">8.39115524291992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52923202514648</t>
+    <t xml:space="preserve">8.5292329788208</t>
   </si>
   <si>
     <t xml:space="preserve">8.47854614257812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61312580108643</t>
+    <t xml:space="preserve">8.61312675476074</t>
   </si>
   <si>
     <t xml:space="preserve">8.59389972686768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59914398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52573680877686</t>
+    <t xml:space="preserve">8.59914302825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52573585510254</t>
   </si>
   <si>
     <t xml:space="preserve">8.43485164642334</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">8.28279304504395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22511672973633</t>
+    <t xml:space="preserve">8.22511577606201</t>
   </si>
   <si>
     <t xml:space="preserve">8.39989471435547</t>
@@ -2618,25 +2618,25 @@
     <t xml:space="preserve">8.6585693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69177722930908</t>
+    <t xml:space="preserve">8.69177627563477</t>
   </si>
   <si>
     <t xml:space="preserve">8.71799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74770641326904</t>
+    <t xml:space="preserve">8.74770832061768</t>
   </si>
   <si>
     <t xml:space="preserve">8.99676704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90063762664795</t>
+    <t xml:space="preserve">8.90063953399658</t>
   </si>
   <si>
     <t xml:space="preserve">8.9224853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86568164825439</t>
+    <t xml:space="preserve">8.86568355560303</t>
   </si>
   <si>
     <t xml:space="preserve">8.84820461273193</t>
@@ -2645,43 +2645,43 @@
     <t xml:space="preserve">8.83509540557861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88752841949463</t>
+    <t xml:space="preserve">8.88753032684326</t>
   </si>
   <si>
     <t xml:space="preserve">8.95744037628174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81761741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7826623916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82635879516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94433212280273</t>
+    <t xml:space="preserve">8.81761837005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78266334533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94433307647705</t>
   </si>
   <si>
     <t xml:space="preserve">9.18465518951416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17154502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15406894683838</t>
+    <t xml:space="preserve">9.17154598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15406799316406</t>
   </si>
   <si>
     <t xml:space="preserve">9.07541751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104873657227</t>
+    <t xml:space="preserve">9.07104778289795</t>
   </si>
   <si>
     <t xml:space="preserve">8.9093770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85694408416748</t>
+    <t xml:space="preserve">8.85694313049316</t>
   </si>
   <si>
     <t xml:space="preserve">8.91374588012695</t>
@@ -2693,16 +2693,16 @@
     <t xml:space="preserve">8.96617984771729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93122482299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87442016601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83072471618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4960241317749</t>
+    <t xml:space="preserve">8.93122386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87442111968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83072566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49602317810059</t>
   </si>
   <si>
     <t xml:space="preserve">8.63235092163086</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">8.73721885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30901050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05732822418213</t>
+    <t xml:space="preserve">8.30900955200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15170955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05732917785645</t>
   </si>
   <si>
     <t xml:space="preserve">8.22686195373535</t>
@@ -2732,13 +2732,13 @@
     <t xml:space="preserve">8.21113300323486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26182079315186</t>
+    <t xml:space="preserve">8.26181888580322</t>
   </si>
   <si>
     <t xml:space="preserve">8.32998275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44184112548828</t>
+    <t xml:space="preserve">8.44184017181396</t>
   </si>
   <si>
     <t xml:space="preserve">8.41562461853027</t>
@@ -2747,19 +2747,19 @@
     <t xml:space="preserve">8.22861194610596</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26706218719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57292747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19190788269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77767992019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67281293869019</t>
+    <t xml:space="preserve">8.26706314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5729284286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1919059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77768039703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6728138923645</t>
   </si>
   <si>
     <t xml:space="preserve">7.69029092788696</t>
@@ -2780,16 +2780,16 @@
     <t xml:space="preserve">6.93349695205688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80590772628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41440296173096</t>
+    <t xml:space="preserve">6.805908203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41440200805664</t>
   </si>
   <si>
     <t xml:space="preserve">5.0423846244812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91129875183105</t>
+    <t xml:space="preserve">4.91129922866821</t>
   </si>
   <si>
     <t xml:space="preserve">4.80992746353149</t>
@@ -2801,67 +2801,67 @@
     <t xml:space="preserve">4.1938304901123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204785346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06012439727783</t>
+    <t xml:space="preserve">3.92204833030701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06012392044067</t>
   </si>
   <si>
     <t xml:space="preserve">4.15974855422974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38521289825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56174039840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49532508850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67534732818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70331192016602</t>
+    <t xml:space="preserve">4.38521385192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56174087524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49532413482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67534685134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70331239700317</t>
   </si>
   <si>
     <t xml:space="preserve">4.96373271942139</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8658561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83964014053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87634420394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79244995117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01267194747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0476279258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17346858978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41116905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28707504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24862337112427</t>
+    <t xml:space="preserve">4.86585664749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83964061737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87634325027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79244947433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01267147064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04762744903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17346811294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41116857528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28707551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24862384796143</t>
   </si>
   <si>
     <t xml:space="preserve">5.17871236801147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94625520706177</t>
+    <t xml:space="preserve">4.94625473022461</t>
   </si>
   <si>
     <t xml:space="preserve">5.03714036941528</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">4.78720617294312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93576860427856</t>
+    <t xml:space="preserve">4.93576812744141</t>
   </si>
   <si>
     <t xml:space="preserve">5.13152122497559</t>
@@ -2891,19 +2891,19 @@
     <t xml:space="preserve">5.26260614395142</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57021760940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58769655227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27833557128906</t>
+    <t xml:space="preserve">5.57021808624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58769607543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27833652496338</t>
   </si>
   <si>
     <t xml:space="preserve">5.53176593780518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31853532791138</t>
+    <t xml:space="preserve">5.31853580474854</t>
   </si>
   <si>
     <t xml:space="preserve">5.39893436431885</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">5.25211954116821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02315759658813</t>
+    <t xml:space="preserve">5.02315807342529</t>
   </si>
   <si>
     <t xml:space="preserve">5.05461835861206</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">5.11404418945312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86236095428467</t>
+    <t xml:space="preserve">4.86236143112183</t>
   </si>
   <si>
     <t xml:space="preserve">4.84837865829468</t>
@@ -2945,37 +2945,37 @@
     <t xml:space="preserve">4.97072505950928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771501541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10006093978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88683032989502</t>
+    <t xml:space="preserve">4.97771549224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10006141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88683080673218</t>
   </si>
   <si>
     <t xml:space="preserve">5.10705184936523</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32028245925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58594846725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6436243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93900203704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02639102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91977739334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83588218688965</t>
+    <t xml:space="preserve">5.32028293609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58594799041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64362525939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93900156021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02639150619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91977691650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83588171005249</t>
   </si>
   <si>
     <t xml:space="preserve">5.46535015106201</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">5.47059392929077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46360158920288</t>
+    <t xml:space="preserve">5.46360206604004</t>
   </si>
   <si>
     <t xml:space="preserve">5.40942096710205</t>
@@ -2993,13 +2993,13 @@
     <t xml:space="preserve">5.40767335891724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31503963470459</t>
+    <t xml:space="preserve">5.31503915786743</t>
   </si>
   <si>
     <t xml:space="preserve">5.42165517807007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08607912063599</t>
+    <t xml:space="preserve">5.08607864379883</t>
   </si>
   <si>
     <t xml:space="preserve">5.15249490737915</t>
@@ -3008,28 +3008,28 @@
     <t xml:space="preserve">5.01966238021851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07559251785278</t>
+    <t xml:space="preserve">5.07559204101562</t>
   </si>
   <si>
     <t xml:space="preserve">4.96198606491089</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1157922744751</t>
+    <t xml:space="preserve">5.11579179763794</t>
   </si>
   <si>
     <t xml:space="preserve">5.02141046524048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19793796539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10880041122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02665328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84663105010986</t>
+    <t xml:space="preserve">5.19793748855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10879993438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02665424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84663152694702</t>
   </si>
   <si>
     <t xml:space="preserve">4.87284851074219</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">5.01616716384888</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02490615844727</t>
+    <t xml:space="preserve">5.02490663528442</t>
   </si>
   <si>
     <t xml:space="preserve">5.15948629379272</t>
@@ -3050,46 +3050,46 @@
     <t xml:space="preserve">5.04413270950317</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95848989486694</t>
+    <t xml:space="preserve">4.95848941802979</t>
   </si>
   <si>
     <t xml:space="preserve">4.92178630828857</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82915306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73477220535278</t>
+    <t xml:space="preserve">4.82915353775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73477268218994</t>
   </si>
   <si>
     <t xml:space="preserve">4.50406360626221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42016983032227</t>
+    <t xml:space="preserve">4.42016935348511</t>
   </si>
   <si>
     <t xml:space="preserve">4.31005907058716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51455020904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52678442001343</t>
+    <t xml:space="preserve">4.51455068588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52678489685059</t>
   </si>
   <si>
     <t xml:space="preserve">4.72952938079834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44289112091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52329015731812</t>
+    <t xml:space="preserve">4.44289016723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52328968048096</t>
   </si>
   <si>
     <t xml:space="preserve">4.67709541320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65437412261963</t>
+    <t xml:space="preserve">4.65437459945679</t>
   </si>
   <si>
     <t xml:space="preserve">4.55649757385254</t>
@@ -3098,16 +3098,16 @@
     <t xml:space="preserve">4.50930690765381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46910762786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42541313171387</t>
+    <t xml:space="preserve">4.46910810470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42541217803955</t>
   </si>
   <si>
     <t xml:space="preserve">4.32753705978394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30831098556519</t>
+    <t xml:space="preserve">4.30831003189087</t>
   </si>
   <si>
     <t xml:space="preserve">4.45337820053101</t>
@@ -3116,31 +3116,31 @@
     <t xml:space="preserve">4.40269184112549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35812330245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27859830856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3048152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2995719909668</t>
+    <t xml:space="preserve">4.35812282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27859878540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30481481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29957151412964</t>
   </si>
   <si>
     <t xml:space="preserve">4.21742582321167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17722654342651</t>
+    <t xml:space="preserve">4.17722606658936</t>
   </si>
   <si>
     <t xml:space="preserve">4.20606517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2182993888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19208240509033</t>
+    <t xml:space="preserve">4.21829986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19208288192749</t>
   </si>
   <si>
     <t xml:space="preserve">4.04788970947266</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">4.0531325340271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03390741348267</t>
+    <t xml:space="preserve">4.03390693664551</t>
   </si>
   <si>
     <t xml:space="preserve">3.98496890068054</t>
@@ -3158,16 +3158,16 @@
     <t xml:space="preserve">3.95088720321655</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00768995285034</t>
+    <t xml:space="preserve">4.0076904296875</t>
   </si>
   <si>
     <t xml:space="preserve">4.17460489273071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1781005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06274604797363</t>
+    <t xml:space="preserve">4.17810010910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06274557113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.79620718955994</t>
@@ -3176,37 +3176,37 @@
     <t xml:space="preserve">3.75426030158997</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72280025482178</t>
+    <t xml:space="preserve">3.7228000164032</t>
   </si>
   <si>
     <t xml:space="preserve">3.64677095413208</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58210229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72979140281677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61006736755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72367382049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62841939926147</t>
+    <t xml:space="preserve">3.58210253715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72979116439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61006712913513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72367358207703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6284191608429</t>
   </si>
   <si>
     <t xml:space="preserve">3.71231341362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74901652336121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85213661193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77523374557495</t>
+    <t xml:space="preserve">3.74901700019836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85213685035706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77523398399353</t>
   </si>
   <si>
     <t xml:space="preserve">3.89058804512024</t>
@@ -3215,37 +3215,37 @@
     <t xml:space="preserve">3.86349725723267</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79882907867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70444798469543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80319857597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61356329917908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74377369880676</t>
+    <t xml:space="preserve">3.79882884025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70444750785828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80319833755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6135630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74377346038818</t>
   </si>
   <si>
     <t xml:space="preserve">3.82329773902893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91243577003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81543350219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83553290367126</t>
+    <t xml:space="preserve">3.91243529319763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81543397903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83553266525269</t>
   </si>
   <si>
     <t xml:space="preserve">3.87048840522766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76824235916138</t>
+    <t xml:space="preserve">3.76824259757996</t>
   </si>
   <si>
     <t xml:space="preserve">3.66337513923645</t>
@@ -3254,40 +3254,40 @@
     <t xml:space="preserve">3.55326390266418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34527659416199</t>
+    <t xml:space="preserve">3.34527683258057</t>
   </si>
   <si>
     <t xml:space="preserve">3.55850768089294</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74464750289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83291172981262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42191696166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39919567108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81866645812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88857841491699</t>
+    <t xml:space="preserve">3.74464774131775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83291149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42191791534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3991961479187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81866598129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88857793807983</t>
   </si>
   <si>
     <t xml:space="preserve">4.8990650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9305248260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0039324760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39194202423096</t>
+    <t xml:space="preserve">4.93052530288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00393199920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39194250106812</t>
   </si>
   <si>
     <t xml:space="preserve">5.49506235122681</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">5.55973148345947</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47583675384521</t>
+    <t xml:space="preserve">5.47583627700806</t>
   </si>
   <si>
     <t xml:space="preserve">5.46185445785522</t>
@@ -3308,22 +3308,22 @@
     <t xml:space="preserve">6.04515981674194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98683023452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90551948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92496347427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73229598999023</t>
+    <t xml:space="preserve">5.98682928085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90551996231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92496299743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73229646682739</t>
   </si>
   <si>
     <t xml:space="preserve">5.82067489624023</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84895658493042</t>
+    <t xml:space="preserve">5.84895706176758</t>
   </si>
   <si>
     <t xml:space="preserve">5.88430881500244</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">6.12470102310181</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01334238052368</t>
+    <t xml:space="preserve">6.01334285736084</t>
   </si>
   <si>
     <t xml:space="preserve">6.02218055725098</t>
@@ -3344,34 +3344,34 @@
     <t xml:space="preserve">6.11763095855713</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00980758666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93203353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0045051574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97445631027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03278684616089</t>
+    <t xml:space="preserve">6.00980806350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93203401565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00450563430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97445583343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03278636932373</t>
   </si>
   <si>
     <t xml:space="preserve">5.94440650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78885889053345</t>
+    <t xml:space="preserve">5.78885936737061</t>
   </si>
   <si>
     <t xml:space="preserve">5.77295064926147</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93380165100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89137983322144</t>
+    <t xml:space="preserve">5.93380117416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89137935638428</t>
   </si>
   <si>
     <t xml:space="preserve">5.8118371963501</t>
@@ -3380,16 +3380,16 @@
     <t xml:space="preserve">5.85425996780396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77648496627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98329401016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30322790145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29438972473145</t>
+    <t xml:space="preserve">5.77648544311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98329448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30322694778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2943902015686</t>
   </si>
   <si>
     <t xml:space="preserve">6.25903844833374</t>
@@ -3401,13 +3401,13 @@
     <t xml:space="preserve">6.32267141342163</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23429107666016</t>
+    <t xml:space="preserve">6.23429155349731</t>
   </si>
   <si>
     <t xml:space="preserve">6.28908681869507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96561765670776</t>
+    <t xml:space="preserve">5.96561813354492</t>
   </si>
   <si>
     <t xml:space="preserve">5.94970989227295</t>
@@ -3416,16 +3416,16 @@
     <t xml:space="preserve">5.75881004333496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55907154083252</t>
+    <t xml:space="preserve">5.55907201766968</t>
   </si>
   <si>
     <t xml:space="preserve">5.46008729934692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53255891799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62800884246826</t>
+    <t xml:space="preserve">5.53255844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6280083656311</t>
   </si>
   <si>
     <t xml:space="preserve">5.79946422576904</t>
@@ -3446,22 +3446,22 @@
     <t xml:space="preserve">6.12293338775635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25196695327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14060926437378</t>
+    <t xml:space="preserve">6.25196743011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14060878753662</t>
   </si>
   <si>
     <t xml:space="preserve">6.21484804153442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22191905975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28378438949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65497875213623</t>
+    <t xml:space="preserve">6.2219181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28378391265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65497827529907</t>
   </si>
   <si>
     <t xml:space="preserve">6.66558361053467</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">6.51533842086792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36332559585571</t>
+    <t xml:space="preserve">6.36332654953003</t>
   </si>
   <si>
     <t xml:space="preserve">6.3951416015625</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">6.63553428649902</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5665979385376</t>
+    <t xml:space="preserve">6.56659841537476</t>
   </si>
   <si>
     <t xml:space="preserve">6.79461765289307</t>
@@ -3491,7 +3491,7 @@
     <t xml:space="preserve">7.64129304885864</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81805181503296</t>
+    <t xml:space="preserve">7.81805276870728</t>
   </si>
   <si>
     <t xml:space="preserve">7.94531917572021</t>
@@ -3503,22 +3503,22 @@
     <t xml:space="preserve">8.20869064331055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46322345733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58695220947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4402437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55160236358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75841045379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76371574401855</t>
+    <t xml:space="preserve">8.46322441101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58695316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44024467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55160140991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75840950012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76371479034424</t>
   </si>
   <si>
     <t xml:space="preserve">8.54629993438721</t>
@@ -3527,52 +3527,52 @@
     <t xml:space="preserve">8.57104682922363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53746128082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43140697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24050807952881</t>
+    <t xml:space="preserve">8.53746223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43140602111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24050712585449</t>
   </si>
   <si>
     <t xml:space="preserve">8.17157173156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03369808197021</t>
+    <t xml:space="preserve">8.03369903564453</t>
   </si>
   <si>
     <t xml:space="preserve">8.33242225646973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10970497131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40489292144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45084953308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53569412231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49503993988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099750518799</t>
+    <t xml:space="preserve">8.10970401763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40489196777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45085048675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53569507598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49504089355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54099655151367</t>
   </si>
   <si>
     <t xml:space="preserve">8.54983425140381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41549777984619</t>
+    <t xml:space="preserve">8.41549873352051</t>
   </si>
   <si>
     <t xml:space="preserve">8.19985198974609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11324119567871</t>
+    <t xml:space="preserve">8.11323928833008</t>
   </si>
   <si>
     <t xml:space="preserve">8.05490970611572</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">8.04430484771729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43317413330078</t>
+    <t xml:space="preserve">8.43317317962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.12561416625977</t>
@@ -3593,16 +3593,16 @@
     <t xml:space="preserve">8.15919780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79684066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87638282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86931228637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84810161590576</t>
+    <t xml:space="preserve">7.79684162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87638235092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86931180953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84810256958008</t>
   </si>
   <si>
     <t xml:space="preserve">8.11854362487793</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">8.21575927734375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65896940231323</t>
+    <t xml:space="preserve">7.65896987915039</t>
   </si>
   <si>
     <t xml:space="preserve">7.91703748703003</t>
@@ -3623,13 +3623,13 @@
     <t xml:space="preserve">7.98774147033691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05314254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41373062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56751155853271</t>
+    <t xml:space="preserve">8.05314350128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41373157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5675106048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.6541223526001</t>
@@ -3641,10 +3641,10 @@
     <t xml:space="preserve">8.73366355895996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64175033569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66119194030762</t>
+    <t xml:space="preserve">8.64174938201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66119289398193</t>
   </si>
   <si>
     <t xml:space="preserve">8.56927871704102</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">8.33418941497803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28292942047119</t>
+    <t xml:space="preserve">8.28292846679688</t>
   </si>
   <si>
     <t xml:space="preserve">8.36070251464844</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">8.39120388031006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22614097595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25125980377197</t>
+    <t xml:space="preserve">8.22614192962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25126075744629</t>
   </si>
   <si>
     <t xml:space="preserve">8.48270511627197</t>
@@ -3674,37 +3674,37 @@
     <t xml:space="preserve">8.3929967880249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36967372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59573650360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69441509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76797294616699</t>
+    <t xml:space="preserve">8.36967277526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59573554992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69441413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76797389984131</t>
   </si>
   <si>
     <t xml:space="preserve">8.63700103759766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64776706695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61546993255615</t>
+    <t xml:space="preserve">8.64776611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61547088623047</t>
   </si>
   <si>
     <t xml:space="preserve">8.55447101593018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56702899932861</t>
+    <t xml:space="preserve">8.56702995300293</t>
   </si>
   <si>
     <t xml:space="preserve">8.74106216430664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.583176612854</t>
+    <t xml:space="preserve">8.58317565917969</t>
   </si>
   <si>
     <t xml:space="preserve">8.57241153717041</t>
@@ -3713,19 +3713,19 @@
     <t xml:space="preserve">8.38043880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2404956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35352611541748</t>
+    <t xml:space="preserve">8.24049472808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27099704742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3535270690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.40914440155029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46117687225342</t>
+    <t xml:space="preserve">8.4611759185791</t>
   </si>
   <si>
     <t xml:space="preserve">8.50961780548096</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">8.22793579101562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22973155975342</t>
+    <t xml:space="preserve">8.2297306060791</t>
   </si>
   <si>
     <t xml:space="preserve">8.24587821960449</t>
@@ -3746,25 +3746,25 @@
     <t xml:space="preserve">8.39838027954102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45758819580078</t>
+    <t xml:space="preserve">8.45758628845215</t>
   </si>
   <si>
     <t xml:space="preserve">8.05928707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93907880783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82963752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07543468475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04672908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87449073791504</t>
+    <t xml:space="preserve">7.93907976150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82963609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07543563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04672813415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87449026107788</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263999938965</t>
@@ -3779,10 +3779,10 @@
     <t xml:space="preserve">7.38289546966553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51027965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65739965438843</t>
+    <t xml:space="preserve">7.51027917861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65740013122559</t>
   </si>
   <si>
     <t xml:space="preserve">7.57128000259399</t>
@@ -3791,25 +3791,25 @@
     <t xml:space="preserve">7.65919351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87987470626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80990123748779</t>
+    <t xml:space="preserve">7.87987375259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80990076065063</t>
   </si>
   <si>
     <t xml:space="preserve">7.8762845993042</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87269687652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69328212738037</t>
+    <t xml:space="preserve">7.87269735336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69328165054321</t>
   </si>
   <si>
     <t xml:space="preserve">7.75787019729614</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80810785293579</t>
+    <t xml:space="preserve">7.80810737609863</t>
   </si>
   <si>
     <t xml:space="preserve">7.70584154129028</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">7.67893028259277</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88884258270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84578418731689</t>
+    <t xml:space="preserve">7.88884353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84578371047974</t>
   </si>
   <si>
     <t xml:space="preserve">7.89243221282959</t>
@@ -3830,7 +3830,7 @@
     <t xml:space="preserve">7.90319633483887</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69866418838501</t>
+    <t xml:space="preserve">7.69866371154785</t>
   </si>
   <si>
     <t xml:space="preserve">7.73275375366211</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">7.37392520904541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31471824645996</t>
+    <t xml:space="preserve">7.3147177696228</t>
   </si>
   <si>
     <t xml:space="preserve">7.45466184616089</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">7.47798538208008</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54436874389648</t>
+    <t xml:space="preserve">7.54436826705933</t>
   </si>
   <si>
     <t xml:space="preserve">7.61433982849121</t>
@@ -3863,13 +3863,13 @@
     <t xml:space="preserve">7.74172449111938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61792802810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60357522964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53539752960205</t>
+    <t xml:space="preserve">7.61792755126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60357475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53539705276489</t>
   </si>
   <si>
     <t xml:space="preserve">7.47977924346924</t>
@@ -3878,16 +3878,16 @@
     <t xml:space="preserve">7.44748497009277</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70404815673828</t>
+    <t xml:space="preserve">7.70404767990112</t>
   </si>
   <si>
     <t xml:space="preserve">7.65022230148315</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77760744094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52822160720825</t>
+    <t xml:space="preserve">7.77760791778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52822208404541</t>
   </si>
   <si>
     <t xml:space="preserve">7.2483344078064</t>
@@ -3896,55 +3896,55 @@
     <t xml:space="preserve">7.24654054641724</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62331056594849</t>
+    <t xml:space="preserve">7.62331104278564</t>
   </si>
   <si>
     <t xml:space="preserve">7.68431186676025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72378253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98393201828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625568389893</t>
+    <t xml:space="preserve">7.72378206253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98393297195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625663757324</t>
   </si>
   <si>
     <t xml:space="preserve">8.01084613800049</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15617179870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14540672302246</t>
+    <t xml:space="preserve">8.15617084503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14540481567383</t>
   </si>
   <si>
     <t xml:space="preserve">8.37146759033203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09517097473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22255420684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59932518005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80385684967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65673732757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54370594024658</t>
+    <t xml:space="preserve">8.09517002105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22255516052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59932422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80385589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65673637390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5437068939209</t>
   </si>
   <si>
     <t xml:space="preserve">8.59035301208496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85947418212891</t>
+    <t xml:space="preserve">8.85947513580322</t>
   </si>
   <si>
     <t xml:space="preserve">8.80744361877441</t>
@@ -3968,13 +3968,13 @@
     <t xml:space="preserve">9.02005004882812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88100337982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6352071762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63879585266113</t>
+    <t xml:space="preserve">8.88100433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63520812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63879680633545</t>
   </si>
   <si>
     <t xml:space="preserve">8.87203407287598</t>
@@ -3986,13 +3986,13 @@
     <t xml:space="preserve">8.72491359710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27122974395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52689552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78256130218506</t>
+    <t xml:space="preserve">9.27123069763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52689456939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78256034851074</t>
   </si>
   <si>
     <t xml:space="preserve">9.73322105407715</t>
@@ -4007,10 +4007,10 @@
     <t xml:space="preserve">9.20843505859375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18600940704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99313735961914</t>
+    <t xml:space="preserve">9.18600845336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99313831329346</t>
   </si>
   <si>
     <t xml:space="preserve">8.73926734924316</t>
@@ -4019,13 +4019,13 @@
     <t xml:space="preserve">8.51499938964844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71873474121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66234302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76421070098877</t>
+    <t xml:space="preserve">8.71873378753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66234397888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76420974731445</t>
   </si>
   <si>
     <t xml:space="preserve">8.65506649017334</t>
@@ -4034,64 +4034,64 @@
     <t xml:space="preserve">8.0420446395874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11480617523193</t>
+    <t xml:space="preserve">8.11480712890625</t>
   </si>
   <si>
     <t xml:space="preserve">7.87832975387573</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20394134521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1257209777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14936828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26942729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45315074920654</t>
+    <t xml:space="preserve">8.20394039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12572193145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14936923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2694263458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45314979553223</t>
   </si>
   <si>
     <t xml:space="preserve">8.34946537017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18211269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11116981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03840732574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30762767791748</t>
+    <t xml:space="preserve">8.1821117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11116886138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03840637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30762672424316</t>
   </si>
   <si>
     <t xml:space="preserve">8.05113887786865</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28216075897217</t>
+    <t xml:space="preserve">8.28215980529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.21121692657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02749347686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2912540435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28943538665771</t>
+    <t xml:space="preserve">8.02749252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29125499725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28943634033203</t>
   </si>
   <si>
     <t xml:space="preserve">8.30398845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39312171936035</t>
+    <t xml:space="preserve">8.39312076568604</t>
   </si>
   <si>
     <t xml:space="preserve">8.46042728424072</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">8.37675094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70781803131104</t>
+    <t xml:space="preserve">8.70781898498535</t>
   </si>
   <si>
     <t xml:space="preserve">8.82787704467773</t>
@@ -4112,16 +4112,16 @@
     <t xml:space="preserve">8.89518165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89700126647949</t>
+    <t xml:space="preserve">8.89700031280518</t>
   </si>
   <si>
     <t xml:space="preserve">8.91155338287354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8660774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04798316955566</t>
+    <t xml:space="preserve">8.86607646942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04798221588135</t>
   </si>
   <si>
     <t xml:space="preserve">9.12711048126221</t>
@@ -4142,22 +4142,22 @@
     <t xml:space="preserve">9.79106712341309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42270660400391</t>
+    <t xml:space="preserve">9.42270755767822</t>
   </si>
   <si>
     <t xml:space="preserve">8.95884895324707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37268447875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.07301902771</t>
+    <t xml:space="preserve">9.37268352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730199813843</t>
   </si>
   <si>
     <t xml:space="preserve">9.88656711578369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3731632232666</t>
+    <t xml:space="preserve">10.3731641769409</t>
   </si>
   <si>
     <t xml:space="preserve">10.3140449523926</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">10.3049507141113</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4140920639038</t>
+    <t xml:space="preserve">10.4140930175781</t>
   </si>
   <si>
     <t xml:space="preserve">10.5186882019043</t>
@@ -4184,16 +4184,16 @@
     <t xml:space="preserve">10.627833366394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4641170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5414266586304</t>
+    <t xml:space="preserve">10.4641160964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5414276123047</t>
   </si>
   <si>
     <t xml:space="preserve">10.7824516296387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4777603149414</t>
+    <t xml:space="preserve">10.4777612686157</t>
   </si>
   <si>
     <t xml:space="preserve">10.2822113037109</t>
@@ -4232,40 +4232,40 @@
     <t xml:space="preserve">11.8738861083984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2558879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5782890319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7601938247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7556457519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645977020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0825958251953</t>
+    <t xml:space="preserve">12.2558870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5782880783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7601947784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7556467056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645967483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0825967788696</t>
   </si>
   <si>
     <t xml:space="preserve">11.319073677063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5009784698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2013158798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2695293426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6106033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6469841003418</t>
+    <t xml:space="preserve">11.5009794235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2013149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2695302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6106023788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6469831466675</t>
   </si>
   <si>
     <t xml:space="preserve">12.9607715606689</t>
@@ -4283,19 +4283,19 @@
     <t xml:space="preserve">12.510555267334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6333408355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6242446899414</t>
+    <t xml:space="preserve">12.6333417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6242456436157</t>
   </si>
   <si>
     <t xml:space="preserve">12.7288408279419</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5878639221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6424369812012</t>
+    <t xml:space="preserve">12.5878648757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6424360275269</t>
   </si>
   <si>
     <t xml:space="preserve">13.2108907699585</t>
@@ -4304,16 +4304,16 @@
     <t xml:space="preserve">13.0881052017212</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5110349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6247262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6974897384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6656551361084</t>
+    <t xml:space="preserve">13.5110340118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6247253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.69748878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6656541824341</t>
   </si>
   <si>
     <t xml:space="preserve">13.6338214874268</t>
@@ -4325,43 +4325,43 @@
     <t xml:space="preserve">12.3604831695557</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7970552444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379369735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701061248779</t>
+    <t xml:space="preserve">12.7970542907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701070785522</t>
   </si>
   <si>
     <t xml:space="preserve">12.9516754150391</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5428695678711</t>
+    <t xml:space="preserve">13.5428686141968</t>
   </si>
   <si>
     <t xml:space="preserve">13.3882493972778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2199869155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7151985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8425312042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.283652305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4200820922852</t>
+    <t xml:space="preserve">13.3245820999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2199859619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.71519947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8425321578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2836532592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4200830459595</t>
   </si>
   <si>
     <t xml:space="preserve">13.9930849075317</t>
@@ -4373,13 +4373,13 @@
     <t xml:space="preserve">14.0931329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7293224334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9112272262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2216005325317</t>
+    <t xml:space="preserve">13.7293214797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.911226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2216014862061</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270376205444</t>
@@ -4391,31 +4391,31 @@
     <t xml:space="preserve">14.6709480285645</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8516139984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0276441574097</t>
+    <t xml:space="preserve">14.8516149520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.027645111084</t>
   </si>
   <si>
     <t xml:space="preserve">14.4763851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5875644683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6199913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5736665725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7219038009644</t>
+    <t xml:space="preserve">14.5875635147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6199903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5736656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7219047546387</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284502029419</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7867593765259</t>
+    <t xml:space="preserve">14.7867584228516</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382169723511</t>
@@ -4424,13 +4424,13 @@
     <t xml:space="preserve">13.7120313644409</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4989395141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3831281661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9847383499146</t>
+    <t xml:space="preserve">13.4989404678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.383129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9847393035889</t>
   </si>
   <si>
     <t xml:space="preserve">12.192590713501</t>
@@ -4454,7 +4454,7 @@
     <t xml:space="preserve">11.5347833633423</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5533142089844</t>
+    <t xml:space="preserve">11.5533132553101</t>
   </si>
   <si>
     <t xml:space="preserve">11.8405246734619</t>
@@ -4463,13 +4463,13 @@
     <t xml:space="preserve">11.6644926071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1549224853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5625782012939</t>
+    <t xml:space="preserve">11.368016242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1549234390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5625772476196</t>
   </si>
   <si>
     <t xml:space="preserve">10.6082944869995</t>
@@ -4481,7 +4481,7 @@
     <t xml:space="preserve">11.3309564590454</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7478771209717</t>
+    <t xml:space="preserve">11.7478761672974</t>
   </si>
   <si>
     <t xml:space="preserve">11.8173627853394</t>
@@ -4490,7 +4490,7 @@
     <t xml:space="preserve">11.7154493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">11.581109046936</t>
+    <t xml:space="preserve">11.5811080932617</t>
   </si>
   <si>
     <t xml:space="preserve">11.1132316589355</t>
@@ -4499,13 +4499,13 @@
     <t xml:space="preserve">11.2938966751099</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7525091171265</t>
+    <t xml:space="preserve">11.7525081634521</t>
   </si>
   <si>
     <t xml:space="preserve">11.789568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6691246032715</t>
+    <t xml:space="preserve">11.6691255569458</t>
   </si>
   <si>
     <t xml:space="preserve">11.4421358108521</t>
@@ -4520,7 +4520,7 @@
     <t xml:space="preserve">12.0628824234009</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2157535552979</t>
+    <t xml:space="preserve">12.2157526016235</t>
   </si>
   <si>
     <t xml:space="preserve">12.6048774719238</t>
@@ -4541,7 +4541,7 @@
     <t xml:space="preserve">11.914644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0350866317749</t>
+    <t xml:space="preserve">12.0350875854492</t>
   </si>
   <si>
     <t xml:space="preserve">11.9053792953491</t>
@@ -4553,13 +4553,13 @@
     <t xml:space="preserve">12.1694288253784</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9378070831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.317666053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8961153030396</t>
+    <t xml:space="preserve">11.9378061294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3176670074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8961143493652</t>
   </si>
   <si>
     <t xml:space="preserve">12.9476795196533</t>
@@ -4574,10 +4574,10 @@
     <t xml:space="preserve">12.8828239440918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7484846115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7392196655273</t>
+    <t xml:space="preserve">12.7484836578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.739218711853</t>
   </si>
   <si>
     <t xml:space="preserve">12.683629989624</t>
@@ -4586,7 +4586,7 @@
     <t xml:space="preserve">13.1144466400146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2348909378052</t>
+    <t xml:space="preserve">13.2348899841309</t>
   </si>
   <si>
     <t xml:space="preserve">12.7809114456177</t>
@@ -4595,28 +4595,28 @@
     <t xml:space="preserve">12.3778877258301</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3825216293335</t>
+    <t xml:space="preserve">12.3825206756592</t>
   </si>
   <si>
     <t xml:space="preserve">12.9986362457275</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2626848220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2024631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1978302001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.905987739563</t>
+    <t xml:space="preserve">13.2626838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2024641036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1978311538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9059867858887</t>
   </si>
   <si>
     <t xml:space="preserve">12.5770835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5492887496948</t>
+    <t xml:space="preserve">12.5492897033691</t>
   </si>
   <si>
     <t xml:space="preserve">12.4288454055786</t>
@@ -4637,7 +4637,7 @@
     <t xml:space="preserve">12.5214939117432</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2898721694946</t>
+    <t xml:space="preserve">12.2898731231689</t>
   </si>
   <si>
     <t xml:space="preserve">13.1376094818115</t>
@@ -4646,7 +4646,7 @@
     <t xml:space="preserve">13.4433507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7212963104248</t>
+    <t xml:space="preserve">13.7212972640991</t>
   </si>
   <si>
     <t xml:space="preserve">13.9019632339478</t>
@@ -4667,7 +4667,7 @@
     <t xml:space="preserve">13.2441558837891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6240158081055</t>
+    <t xml:space="preserve">13.6240148544312</t>
   </si>
   <si>
     <t xml:space="preserve">13.9297571182251</t>
@@ -4676,7 +4676,7 @@
     <t xml:space="preserve">13.8741674423218</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0455675125122</t>
+    <t xml:space="preserve">14.0455684661865</t>
   </si>
   <si>
     <t xml:space="preserve">13.939022064209</t>
@@ -4685,34 +4685,34 @@
     <t xml:space="preserve">14.2540283203125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6477870941162</t>
+    <t xml:space="preserve">14.6477861404419</t>
   </si>
   <si>
     <t xml:space="preserve">14.1845417022705</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5505037307739</t>
+    <t xml:space="preserve">14.5505046844482</t>
   </si>
   <si>
     <t xml:space="preserve">14.9257335662842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7589645385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9674243927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4214038848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5557460784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2407388687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1388244628906</t>
+    <t xml:space="preserve">14.7589635848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9674253463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4214029312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5557451248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2407398223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1388254165649</t>
   </si>
   <si>
     <t xml:space="preserve">14.5134439468384</t>
@@ -4721,16 +4721,16 @@
     <t xml:space="preserve">14.8191862106323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7543334960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538326263428</t>
+    <t xml:space="preserve">14.7543325424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538316726685</t>
   </si>
   <si>
     <t xml:space="preserve">15.5279493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0878686904907</t>
+    <t xml:space="preserve">15.0878677368164</t>
   </si>
   <si>
     <t xml:space="preserve">15.2083120346069</t>
@@ -5811,6 +5811,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.3999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6149997711182</t>
   </si>
 </sst>
 </file>
@@ -62104,7 +62107,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6500347222</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>3052810</v>
@@ -62125,6 +62128,32 @@
         <v>1932</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6495949074</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>2264204</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>14.7749996185303</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>14.5450000762939</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>14.625</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>14.6149997711182</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="1941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1942">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,130 +38,130 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30197811126709</t>
+    <t xml:space="preserve">8.30197715759277</t>
   </si>
   <si>
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735038757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11749172210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88687801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58708572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50252819061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46409320831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021671295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45640659332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98749923706055</t>
+    <t xml:space="preserve">8.31735324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1174898147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88687753677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58708381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50252866744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46409225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021432876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45640516281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98749780654907</t>
   </si>
   <si>
     <t xml:space="preserve">6.92600250244141</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14508199691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74151372909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99518537521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17583036422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26423168182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729104995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19889068603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84528779983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86834955215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797065734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78379011154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64158153533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1719856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33341407775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10664749145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53712129592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44487619400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20273447036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50637292861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.233482837677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89909744262695</t>
+    <t xml:space="preserve">7.14508295059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74151420593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99518489837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17583084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892530441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2642297744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28729152679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19888925552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84528875350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8683500289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41797161102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78379106521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64158201217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17198657989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33341360092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10664701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53712034225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44487571716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20273399353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50637245178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23348236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89909839630127</t>
   </si>
   <si>
     <t xml:space="preserve">6.91062784194946</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55633544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72545194625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90993881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85613107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02524375915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34810066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44034290313721</t>
+    <t xml:space="preserve">7.55633783340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72545385360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90993928909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85613203048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02524566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34809970855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44034481048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.13286304473877</t>
@@ -170,55 +170,55 @@
     <t xml:space="preserve">8.2866039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00218391418457</t>
+    <t xml:space="preserve">8.00218486785889</t>
   </si>
   <si>
     <t xml:space="preserve">8.24816799163818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15592479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3942232131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24048042297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20204639434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38653564453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14055156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08674240112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4172830581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25585651397705</t>
+    <t xml:space="preserve">8.15592384338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39422035217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24048233032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20204544067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38653469085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14054870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08674049377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41728115081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25585556030273</t>
   </si>
   <si>
     <t xml:space="preserve">7.94068765640259</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07905387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05599308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51721382141113</t>
+    <t xml:space="preserve">8.0790548324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05599212646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51721477508545</t>
   </si>
   <si>
     <t xml:space="preserve">8.55564880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61714744567871</t>
+    <t xml:space="preserve">8.61714649200439</t>
   </si>
   <si>
     <t xml:space="preserve">8.87850379943848</t>
@@ -227,73 +227,73 @@
     <t xml:space="preserve">8.87081718444824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90925025939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17061042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3089771270752</t>
+    <t xml:space="preserve">8.90925121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17060947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30897617340088</t>
   </si>
   <si>
     <t xml:space="preserve">9.347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40122127532959</t>
+    <t xml:space="preserve">9.40122222900391</t>
   </si>
   <si>
     <t xml:space="preserve">9.10911464691162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27822971343994</t>
+    <t xml:space="preserve">9.27822780609131</t>
   </si>
   <si>
     <t xml:space="preserve">9.28591632843018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05530643463135</t>
+    <t xml:space="preserve">9.05530548095703</t>
   </si>
   <si>
     <t xml:space="preserve">8.93231296539307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45571899414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40959644317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85544300079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.694016456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66326713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74782562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75551223754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91693878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11680221557617</t>
+    <t xml:space="preserve">8.45571804046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40959548950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85544490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69401550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66326808929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74782466888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7555103302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91693782806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11680030822754</t>
   </si>
   <si>
     <t xml:space="preserve">9.14754962921143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84775447845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0322437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09535026550293</t>
+    <t xml:space="preserve">8.84775638580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03224468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09534931182861</t>
   </si>
   <si>
     <t xml:space="preserve">9.20578956604004</t>
@@ -305,49 +305,49 @@
     <t xml:space="preserve">9.44244194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46610736846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47399616241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39511203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28467178344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15057182312012</t>
+    <t xml:space="preserve">9.46610546112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47399520874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39511299133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28467464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15056991577148</t>
   </si>
   <si>
     <t xml:space="preserve">9.11901760101318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57654571533203</t>
+    <t xml:space="preserve">9.57654476165771</t>
   </si>
   <si>
     <t xml:space="preserve">10.0498504638672</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2233963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0419607162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0104093551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78953266143799</t>
+    <t xml:space="preserve">10.2233972549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0419626235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0104084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78953170776367</t>
   </si>
   <si>
     <t xml:space="preserve">9.65542888641357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85263919830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6712064743042</t>
+    <t xml:space="preserve">9.85263824462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67120552062988</t>
   </si>
   <si>
     <t xml:space="preserve">9.91574668884277</t>
@@ -356,49 +356,49 @@
     <t xml:space="preserve">10.1918420791626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93941116333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3338327407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81319808959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53710556030273</t>
+    <t xml:space="preserve">9.93941211700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.333833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81319713592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53710269927979</t>
   </si>
   <si>
     <t xml:space="preserve">9.6396541595459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.136622428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2628374099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048299789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3653879165649</t>
+    <t xml:space="preserve">10.1366243362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2628383636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048290252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3653898239136</t>
   </si>
   <si>
     <t xml:space="preserve">10.1208467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82897567749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90786075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261850357056</t>
+    <t xml:space="preserve">9.82897663116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90785884857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261859893799</t>
   </si>
   <si>
     <t xml:space="preserve">10.1839532852173</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2786149978638</t>
+    <t xml:space="preserve">10.2786130905151</t>
   </si>
   <si>
     <t xml:space="preserve">9.99463272094727</t>
@@ -407,85 +407,85 @@
     <t xml:space="preserve">10.1129579544067</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71853542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88419246673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68698024749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56076908111572</t>
+    <t xml:space="preserve">9.71853828430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88419437408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68698215484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56077003479004</t>
   </si>
   <si>
     <t xml:space="preserve">9.6633186340332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59232044219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43455123901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18212413787842</t>
+    <t xml:space="preserve">9.59232234954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30833911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43455410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1821231842041</t>
   </si>
   <si>
     <t xml:space="preserve">9.04013347625732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22156715393066</t>
+    <t xml:space="preserve">9.22156620025635</t>
   </si>
   <si>
     <t xml:space="preserve">9.48977184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6948709487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89997005462646</t>
+    <t xml:space="preserve">9.69487190246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89996910095215</t>
   </si>
   <si>
     <t xml:space="preserve">9.87630558013916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0025224685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2312850952148</t>
+    <t xml:space="preserve">10.0025196075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2312860488892</t>
   </si>
   <si>
     <t xml:space="preserve">10.1760654449463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1524000167847</t>
+    <t xml:space="preserve">10.1524019241333</t>
   </si>
   <si>
     <t xml:space="preserve">10.0340738296509</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97096824645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58443355560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72642612457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80531120300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60021018981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33989143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13479423522949</t>
+    <t xml:space="preserve">9.97096729278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58443450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72642707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80530834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60021114349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33989334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13479328155518</t>
   </si>
   <si>
     <t xml:space="preserve">9.19001293182373</t>
@@ -494,49 +494,49 @@
     <t xml:space="preserve">9.36355876922607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24523258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14268112182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16634559631348</t>
+    <t xml:space="preserve">9.2452335357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14268207550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16634654998779</t>
   </si>
   <si>
     <t xml:space="preserve">9.3872241973877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17423534393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90602874755859</t>
+    <t xml:space="preserve">9.17423629760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90602970123291</t>
   </si>
   <si>
     <t xml:space="preserve">9.02435493469238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86841773986816</t>
+    <t xml:space="preserve">9.86841678619385</t>
   </si>
   <si>
     <t xml:space="preserve">10.0182971954346</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1681785583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2943916320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707271575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4916019439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1602897644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3732748031616</t>
+    <t xml:space="preserve">10.168176651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2943906784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4916038513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.16028881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3732757568359</t>
   </si>
   <si>
     <t xml:space="preserve">10.3496103286743</t>
@@ -545,61 +545,61 @@
     <t xml:space="preserve">10.4837121963501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5862627029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5389318466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547094345093</t>
+    <t xml:space="preserve">10.5862636566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5389308929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547113418579</t>
   </si>
   <si>
     <t xml:space="preserve">10.5073795318604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6099281311035</t>
+    <t xml:space="preserve">10.6099300384521</t>
   </si>
   <si>
     <t xml:space="preserve">10.3022794723511</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4363822937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3969430923462</t>
+    <t xml:space="preserve">10.4363832473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3969421386719</t>
   </si>
   <si>
     <t xml:space="preserve">9.7974214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8386926651001</t>
+    <t xml:space="preserve">10.8386936187744</t>
   </si>
   <si>
     <t xml:space="preserve">11.256778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1936702728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3987703323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5328722000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5249862670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041086196899</t>
+    <t xml:space="preserve">11.1936721801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3987712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5328750610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5249872207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092096328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041114807129</t>
   </si>
   <si>
     <t xml:space="preserve">11.7260236740112</t>
   </si>
   <si>
-    <t xml:space="preserve">11.391676902771</t>
+    <t xml:space="preserve">11.3916778564453</t>
   </si>
   <si>
     <t xml:space="preserve">11.6304960250854</t>
@@ -608,52 +608,52 @@
     <t xml:space="preserve">11.6703004837036</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4235210418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2563447952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966859817505</t>
+    <t xml:space="preserve">11.4235219955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966850280762</t>
   </si>
   <si>
     <t xml:space="preserve">12.4902458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3787956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6892604827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8564338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7370281219482</t>
+    <t xml:space="preserve">12.3787975311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6892595291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8564348220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7370252609253</t>
   </si>
   <si>
     <t xml:space="preserve">12.888277053833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2385444641113</t>
+    <t xml:space="preserve">13.2385473251343</t>
   </si>
   <si>
     <t xml:space="preserve">13.0474901199341</t>
   </si>
   <si>
-    <t xml:space="preserve">12.959921836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0952568054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9838037490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0395278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2226257324219</t>
+    <t xml:space="preserve">12.9599256515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0952548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9838056564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0395288467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2226266860962</t>
   </si>
   <si>
     <t xml:space="preserve">13.1270971298218</t>
@@ -662,118 +662,118 @@
     <t xml:space="preserve">13.2783479690552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.525128364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6843423843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7082223892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.732102394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.676381111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6524972915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5808525085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5649318695068</t>
+    <t xml:space="preserve">13.5251264572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6843433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7082252502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.732105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763792037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6525001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5808544158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5649309158325</t>
   </si>
   <si>
     <t xml:space="preserve">13.4694042205811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659181594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.517165184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.453483581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2146635055542</t>
+    <t xml:space="preserve">13.3659172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5171670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4534826278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2146663665771</t>
   </si>
   <si>
     <t xml:space="preserve">13.4614448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5569696426392</t>
+    <t xml:space="preserve">13.5569715499878</t>
   </si>
   <si>
     <t xml:space="preserve">13.3897981643677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3499946594238</t>
+    <t xml:space="preserve">13.3499965667725</t>
   </si>
   <si>
     <t xml:space="preserve">13.6923007965088</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7161836624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5490121841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8803186416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8723564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7847881317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.951961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8086719512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5220861434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7290639877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8166303634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201202392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6255769729614</t>
+    <t xml:space="preserve">13.7161855697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490102767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.880316734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8723554611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7847900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9519634246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768268585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8086709976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5220880508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7290658950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8166313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201183319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6255760192871</t>
   </si>
   <si>
     <t xml:space="preserve">12.4982061386108</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8484735488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9041986465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4265594482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5539293289185</t>
+    <t xml:space="preserve">12.8484745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9041967391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4265604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628749847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5539302825928</t>
   </si>
   <si>
     <t xml:space="preserve">12.2991905212402</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">12.1399784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1718196868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0842533111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7021427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7180643081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658262252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6782608032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9489231109619</t>
+    <t xml:space="preserve">12.1718187332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0842542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7021417617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7180624008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658281326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.678258895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9489221572876</t>
   </si>
   <si>
     <t xml:space="preserve">12.028528213501</t>
@@ -812,31 +812,31 @@
     <t xml:space="preserve">11.9091196060181</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7499074935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7737903594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8533935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5906925201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4822874069214</t>
+    <t xml:space="preserve">11.7499055862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7737884521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8533954620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5906934738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4822864532471</t>
   </si>
   <si>
     <t xml:space="preserve">12.4026784896851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7927484512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6972217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8643932342529</t>
+    <t xml:space="preserve">12.7927503585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6972208023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8643951416016</t>
   </si>
   <si>
     <t xml:space="preserve">12.8405132293701</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">12.0046463012695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1081342697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8931970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9648418426514</t>
+    <t xml:space="preserve">12.1081352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8931980133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.96484375</t>
   </si>
   <si>
     <t xml:space="preserve">11.972804069519</t>
@@ -866,70 +866,70 @@
     <t xml:space="preserve">12.1320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4633235931396</t>
+    <t xml:space="preserve">11.463321685791</t>
   </si>
   <si>
     <t xml:space="preserve">11.4474020004272</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4951639175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3757562637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2324628829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2245044708252</t>
+    <t xml:space="preserve">11.4951648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3757543563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652914047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2324638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2245035171509</t>
   </si>
   <si>
     <t xml:space="preserve">11.2404251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4155597686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4712839126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3279905319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5747728347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2961463928223</t>
+    <t xml:space="preserve">11.4155578613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4712829589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.32799243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5747709274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2961492538452</t>
   </si>
   <si>
     <t xml:space="preserve">11.4872045516968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.617094039917</t>
+    <t xml:space="preserve">11.6170959472656</t>
   </si>
   <si>
     <t xml:space="preserve">11.5683860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6252136230469</t>
+    <t xml:space="preserve">11.6252126693726</t>
   </si>
   <si>
     <t xml:space="preserve">11.5196762084961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3491954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2193050384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9189319610596</t>
+    <t xml:space="preserve">11.3491945266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2193031311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787137985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9189329147339</t>
   </si>
   <si>
     <t xml:space="preserve">11.0488224029541</t>
@@ -938,13 +938,13 @@
     <t xml:space="preserve">11.0082330703735</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9838781356812</t>
+    <t xml:space="preserve">10.9838771820068</t>
   </si>
   <si>
     <t xml:space="preserve">10.7971601486206</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9676427841187</t>
+    <t xml:space="preserve">10.9676418304443</t>
   </si>
   <si>
     <t xml:space="preserve">11.3735504150391</t>
@@ -959,40 +959,40 @@
     <t xml:space="preserve">10.878342628479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.935170173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8377532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8458700180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8945789337158</t>
+    <t xml:space="preserve">10.9351682662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8377523422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8458690643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8945798873901</t>
   </si>
   <si>
     <t xml:space="preserve">11.0812950134277</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4222593307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4466152191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.292368888855</t>
+    <t xml:space="preserve">11.4222602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4466123580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2923679351807</t>
   </si>
   <si>
     <t xml:space="preserve">11.1949510574341</t>
   </si>
   <si>
-    <t xml:space="preserve">10.90269947052</t>
+    <t xml:space="preserve">10.9026975631714</t>
   </si>
   <si>
     <t xml:space="preserve">11.0407056808472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3654317855835</t>
+    <t xml:space="preserve">11.3654327392578</t>
   </si>
   <si>
     <t xml:space="preserve">11.5034418106079</t>
@@ -1001,70 +1001,70 @@
     <t xml:space="preserve">11.6089773178101</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5359144210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3410778045654</t>
+    <t xml:space="preserve">11.5359153747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3410787582397</t>
   </si>
   <si>
     <t xml:space="preserve">11.0975332260132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2030696868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8702249526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6429147720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373802185059</t>
+    <t xml:space="preserve">11.2030687332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8702230453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.642915725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373783111572</t>
   </si>
   <si>
     <t xml:space="preserve">9.77427196502686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85545349121094</t>
+    <t xml:space="preserve">9.8554515838623</t>
   </si>
   <si>
     <t xml:space="preserve">9.70932579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79862499237061</t>
+    <t xml:space="preserve">9.79862403869629</t>
   </si>
   <si>
     <t xml:space="preserve">9.66061687469482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72556304931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46578121185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49825286865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44954586029053</t>
+    <t xml:space="preserve">9.72556209564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46577930450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49825382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44954299926758</t>
   </si>
   <si>
     <t xml:space="preserve">9.40895366668701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36024570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27906513214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33589172363281</t>
+    <t xml:space="preserve">9.36024379730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27906322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33588981628418</t>
   </si>
   <si>
     <t xml:space="preserve">9.30341815948486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26282691955566</t>
+    <t xml:space="preserve">9.26282596588135</t>
   </si>
   <si>
     <t xml:space="preserve">9.19788074493408</t>
@@ -1073,28 +1073,28 @@
     <t xml:space="preserve">9.10858249664307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98680877685547</t>
+    <t xml:space="preserve">8.98680782318115</t>
   </si>
   <si>
     <t xml:space="preserve">9.09234523773193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11669826507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07610988616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22223472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52260684967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61190891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62814617156982</t>
+    <t xml:space="preserve">9.11670112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07611083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22223567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52260780334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61190795898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62814331054688</t>
   </si>
   <si>
     <t xml:space="preserve">9.41707134246826</t>
@@ -1103,151 +1103,151 @@
     <t xml:space="preserve">9.65250015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88792610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80674457550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83109951019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83921813964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78239059448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76615333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991607666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74180126190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70120811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60379028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.352126121521</t>
+    <t xml:space="preserve">9.88792514801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8067455291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83109664916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8392162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78238964080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76615238189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74179840087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70120525360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60378932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35212707519531</t>
   </si>
   <si>
     <t xml:space="preserve">9.32777214050293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44142913818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21411991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1004638671875</t>
+    <t xml:space="preserve">9.44142723083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21411800384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10046291351318</t>
   </si>
   <si>
     <t xml:space="preserve">9.12481784820557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1816463470459</t>
+    <t xml:space="preserve">9.18164539337158</t>
   </si>
   <si>
     <t xml:space="preserve">9.27094554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49013614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53884601593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6023244857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6835060119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6510343551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5617341995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4805507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587789535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2288885116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96910667419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81486129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84733486175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9293966293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2576398849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2001972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95401287078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94580841064453</t>
+    <t xml:space="preserve">9.49013328552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53884506225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6023235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6835069656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6510334014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5617332458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4805498123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587779998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96910762786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81486225128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84733581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92939472198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.257640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2001962661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95401573181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94580745697021</t>
   </si>
   <si>
     <t xml:space="preserve">10.01966381073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.224817276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4545888900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3396997451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673746109009</t>
+    <t xml:space="preserve">10.2248163223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4545860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3397016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673736572266</t>
   </si>
   <si>
     <t xml:space="preserve">10.2986707687378</t>
   </si>
   <si>
-    <t xml:space="preserve">10.397144317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843595504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0043964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7418012619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5940895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7007703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776805877686</t>
+    <t xml:space="preserve">10.3971433639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843585968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0043973922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7418022155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5940914154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7007713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776796340942</t>
   </si>
   <si>
     <t xml:space="preserve">10.7089767456055</t>
@@ -1256,22 +1256,22 @@
     <t xml:space="preserve">10.8730993270874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9551601409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9059228897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7992420196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.996190071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1931371688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1685209274292</t>
+    <t xml:space="preserve">10.9551610946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9059238433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7992448806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9961910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931381225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1685199737549</t>
   </si>
   <si>
     <t xml:space="preserve">11.2669925689697</t>
@@ -1280,31 +1280,31 @@
     <t xml:space="preserve">11.2587862014771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5459985733032</t>
+    <t xml:space="preserve">11.5459995269775</t>
   </si>
   <si>
     <t xml:space="preserve">11.6526794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7183275222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4803514480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4229097366333</t>
+    <t xml:space="preserve">11.7183294296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4803504943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4229078292847</t>
   </si>
   <si>
     <t xml:space="preserve">11.5952377319336</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6855039596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9070682525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9152774810791</t>
+    <t xml:space="preserve">11.6855049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9070692062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9152746200562</t>
   </si>
   <si>
     <t xml:space="preserve">11.7921838760376</t>
@@ -1319,22 +1319,22 @@
     <t xml:space="preserve">11.7675647735596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5542068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5090732574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2834033966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1603116989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8648929595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0249118804932</t>
+    <t xml:space="preserve">11.5542058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.509072303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2834043502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1603126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8648920059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0249128341675</t>
   </si>
   <si>
     <t xml:space="preserve">10.5981941223145</t>
@@ -1343,46 +1343,46 @@
     <t xml:space="preserve">10.5366477966309</t>
   </si>
   <si>
-    <t xml:space="preserve">10.438175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6105041503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6679439544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8197603225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.148003578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2464771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1192808151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4639406204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9645118713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8537292480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5418977737427</t>
+    <t xml:space="preserve">10.4381742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6105031967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6679458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8197593688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1480045318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2464761734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1192798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.463939666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9645099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8537311553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5418949127197</t>
   </si>
   <si>
     <t xml:space="preserve">11.6937103271484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7552576065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.619854927063</t>
+    <t xml:space="preserve">11.7552556991577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6198558807373</t>
   </si>
   <si>
     <t xml:space="preserve">11.9193773269653</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">12.0876026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8085947036743</t>
+    <t xml:space="preserve">11.8085956573486</t>
   </si>
   <si>
     <t xml:space="preserve">11.7060194015503</t>
@@ -1409,37 +1409,37 @@
     <t xml:space="preserve">11.7429475784302</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9768199920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4035387039185</t>
+    <t xml:space="preserve">11.9768218994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4035377502441</t>
   </si>
   <si>
     <t xml:space="preserve">11.6444730758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1726217269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2013425827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3490533828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.225962638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4885568618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4147005081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9398927688599</t>
+    <t xml:space="preserve">11.1726207733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2013416290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3490543365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2259607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.447527885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4885559082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4147024154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9398937225342</t>
   </si>
   <si>
     <t xml:space="preserve">11.7019166946411</t>
@@ -1451,58 +1451,58 @@
     <t xml:space="preserve">12.0670881271362</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2763442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3050651550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2230062484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2106962203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4363613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5102167129517</t>
+    <t xml:space="preserve">12.276346206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3050661087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2230043411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2106952667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4363622665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5102186203003</t>
   </si>
   <si>
     <t xml:space="preserve">12.5471448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7276802062988</t>
+    <t xml:space="preserve">12.7276821136475</t>
   </si>
   <si>
     <t xml:space="preserve">12.8220510482788</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5389413833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5881757736206</t>
+    <t xml:space="preserve">12.5389394760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5881767272949</t>
   </si>
   <si>
     <t xml:space="preserve">12.4814968109131</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7769155502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241497039795</t>
+    <t xml:space="preserve">12.7769174575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241487503052</t>
   </si>
   <si>
     <t xml:space="preserve">13.211841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2405624389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5318794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.236457824707</t>
+    <t xml:space="preserve">13.2405614852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5318813323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2364597320557</t>
   </si>
   <si>
     <t xml:space="preserve">13.4539213180542</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">13.3513450622559</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3964796066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.33083152771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3923759460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6385593414307</t>
+    <t xml:space="preserve">13.3964805603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.330828666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3923749923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6385612487793</t>
   </si>
   <si>
     <t xml:space="preserve">14.0857934951782</t>
@@ -1529,28 +1529,28 @@
     <t xml:space="preserve">14.0283479690552</t>
   </si>
   <si>
-    <t xml:space="preserve">14.186861038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1952047348022</t>
+    <t xml:space="preserve">14.1868600845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1952037811279</t>
   </si>
   <si>
     <t xml:space="preserve">13.8698358535767</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5653257369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.231616973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0939598083496</t>
+    <t xml:space="preserve">13.5653266906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2316160202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0939588546753</t>
   </si>
   <si>
     <t xml:space="preserve">13.1648721694946</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2357845306396</t>
+    <t xml:space="preserve">13.2357873916626</t>
   </si>
   <si>
     <t xml:space="preserve">12.8061351776123</t>
@@ -1559,31 +1559,31 @@
     <t xml:space="preserve">12.9646472930908</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6935081481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6517934799194</t>
+    <t xml:space="preserve">12.6935091018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6517944335938</t>
   </si>
   <si>
     <t xml:space="preserve">13.0188751220703</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9813346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0689325332642</t>
+    <t xml:space="preserve">12.981333732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0689315795898</t>
   </si>
   <si>
     <t xml:space="preserve">13.0981311798096</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9396190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1565322875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5475101470947</t>
+    <t xml:space="preserve">12.9396209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1565313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5475091934204</t>
   </si>
   <si>
     <t xml:space="preserve">12.5683660507202</t>
@@ -1592,76 +1592,76 @@
     <t xml:space="preserve">12.4390525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.480767250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.085618019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5266532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5767078399658</t>
+    <t xml:space="preserve">12.4807691574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0856170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5266523361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5767087936401</t>
   </si>
   <si>
     <t xml:space="preserve">13.2191009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1440153121948</t>
+    <t xml:space="preserve">13.1440162658691</t>
   </si>
   <si>
     <t xml:space="preserve">13.1106462478638</t>
   </si>
   <si>
-    <t xml:space="preserve">13.04807472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2566442489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2941875457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2900152206421</t>
+    <t xml:space="preserve">13.0480737686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2566432952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2941856384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2900142669678</t>
   </si>
   <si>
     <t xml:space="preserve">13.3567581176758</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6988086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.761381149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3651008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4276704788208</t>
+    <t xml:space="preserve">13.6988115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7613821029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3650999069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4276695251465</t>
   </si>
   <si>
     <t xml:space="preserve">13.2858438491821</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2274446487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2399568557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1315021514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1356735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9145917892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.989673614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0397319793701</t>
+    <t xml:space="preserve">13.2274436950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2399578094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1315011978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1356744766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9145908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9896755218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0397310256958</t>
   </si>
   <si>
     <t xml:space="preserve">12.2263135910034</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">12.4098529815674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.626766204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5808801651001</t>
+    <t xml:space="preserve">12.6267652511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5808792114258</t>
   </si>
   <si>
     <t xml:space="preserve">12.6809940338135</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4640798568726</t>
+    <t xml:space="preserve">12.4640817642212</t>
   </si>
   <si>
     <t xml:space="preserve">12.1595706939697</t>
@@ -1691,19 +1691,19 @@
     <t xml:space="preserve">12.0636291503906</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428852081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2471714019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2221431732178</t>
+    <t xml:space="preserve">12.1428861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2471704483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2221412658691</t>
   </si>
   <si>
     <t xml:space="preserve">12.3514537811279</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7435636520386</t>
+    <t xml:space="preserve">12.7435646057129</t>
   </si>
   <si>
     <t xml:space="preserve">12.5349950790405</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">12.5391664505005</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8383741378784</t>
+    <t xml:space="preserve">11.8383750915527</t>
   </si>
   <si>
     <t xml:space="preserve">12.055287361145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.026086807251</t>
+    <t xml:space="preserve">12.0260877609253</t>
   </si>
   <si>
     <t xml:space="preserve">11.9468307495117</t>
@@ -1730,49 +1730,49 @@
     <t xml:space="preserve">11.4963216781616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3086090087891</t>
+    <t xml:space="preserve">11.3086099624634</t>
   </si>
   <si>
     <t xml:space="preserve">11.2001543045044</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2710676193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5380353927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5255212783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.529691696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5964336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7507743835449</t>
+    <t xml:space="preserve">11.2710666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5380363464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5255222320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5296926498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5964365005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7507762908936</t>
   </si>
   <si>
     <t xml:space="preserve">11.7591190338135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6882057189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6047763824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7215776443481</t>
+    <t xml:space="preserve">11.6882047653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6047773361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7215766906738</t>
   </si>
   <si>
     <t xml:space="preserve">12.3681392669678</t>
   </si>
   <si>
-    <t xml:space="preserve">12.272198677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2137985229492</t>
+    <t xml:space="preserve">12.2721977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2138004302979</t>
   </si>
   <si>
     <t xml:space="preserve">12.0386009216309</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">12.3639688491821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4223670959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5975656509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2596845626831</t>
+    <t xml:space="preserve">12.4223680496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5975666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2596836090088</t>
   </si>
   <si>
     <t xml:space="preserve">12.2012853622437</t>
@@ -1796,58 +1796,58 @@
     <t xml:space="preserve">12.6100797653198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2555122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.738260269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7466058731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7966604232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9259748458862</t>
+    <t xml:space="preserve">12.2555131912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7382621765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7466049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7966632843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9259729385376</t>
   </si>
   <si>
     <t xml:space="preserve">11.8508892059326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6965484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.421236038208</t>
+    <t xml:space="preserve">11.6965475082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840333938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4212369918823</t>
   </si>
   <si>
     <t xml:space="preserve">10.9707279205322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8581018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8205585479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7246170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7579870223999</t>
+    <t xml:space="preserve">10.8581008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8205595016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7246160507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7579851150513</t>
   </si>
   <si>
     <t xml:space="preserve">10.6411895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9582138061523</t>
+    <t xml:space="preserve">10.958212852478</t>
   </si>
   <si>
     <t xml:space="preserve">11.137583732605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2043256759644</t>
+    <t xml:space="preserve">11.20432472229</t>
   </si>
   <si>
     <t xml:space="preserve">11.2084970474243</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">11.0916986465454</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0541553497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7996997833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.712100982666</t>
+    <t xml:space="preserve">11.0541572570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7997016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7121028900146</t>
   </si>
   <si>
     <t xml:space="preserve">10.3867340087891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2866230010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4117631912231</t>
+    <t xml:space="preserve">10.2866220474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4117622375488</t>
   </si>
   <si>
     <t xml:space="preserve">10.3116493225098</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">10.2062559127808</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91958999633789</t>
+    <t xml:space="preserve">9.91958808898926</t>
   </si>
   <si>
     <t xml:space="preserve">10.1092948913574</t>
@@ -1892,34 +1892,34 @@
     <t xml:space="preserve">9.96596050262451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80154800415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0797843933105</t>
+    <t xml:space="preserve">9.80154895782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0797853469849</t>
   </si>
   <si>
     <t xml:space="preserve">9.89007759094238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19026756286621</t>
+    <t xml:space="preserve">9.19026851654053</t>
   </si>
   <si>
     <t xml:space="preserve">9.13124752044678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95840454101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26615142822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14389514923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9710521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67595100402832</t>
+    <t xml:space="preserve">8.95840549468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26615047454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14389610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97105121612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.675950050354</t>
   </si>
   <si>
     <t xml:space="preserve">8.69702816009521</t>
@@ -1928,37 +1928,37 @@
     <t xml:space="preserve">8.43143844604492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54947757720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64644145965576</t>
+    <t xml:space="preserve">8.54947853088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64643955230713</t>
   </si>
   <si>
     <t xml:space="preserve">8.62536144256592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32014465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13127994537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13296413421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78221750259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79570865631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74174642562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927715301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02504444122314</t>
+    <t xml:space="preserve">8.320143699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13128089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13296699523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78221654891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79570817947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74174737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927906036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02504253387451</t>
   </si>
   <si>
     <t xml:space="preserve">8.01155376434326</t>
@@ -1967,19 +1967,19 @@
     <t xml:space="preserve">8.31339836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44830226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49467277526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74761867523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76869678497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68859767913818</t>
+    <t xml:space="preserve">8.44830131530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49467468261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7476167678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76869487762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6885986328125</t>
   </si>
   <si>
     <t xml:space="preserve">8.61271476745605</t>
@@ -1988,43 +1988,43 @@
     <t xml:space="preserve">8.67173480987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98369884490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91203022003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77291107177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85301208496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9963436126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30409240722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05536460876465</t>
+    <t xml:space="preserve">8.98369789123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91203117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77291202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85301113128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99634552001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30409145355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05536556243896</t>
   </si>
   <si>
     <t xml:space="preserve">9.17340469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24507427215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23242568969727</t>
+    <t xml:space="preserve">9.24507141113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23242473602295</t>
   </si>
   <si>
     <t xml:space="preserve">9.41791725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47693634033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24085712432861</t>
+    <t xml:space="preserve">9.47693729400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24085807800293</t>
   </si>
   <si>
     <t xml:space="preserve">9.03007125854492</t>
@@ -2036,94 +2036,94 @@
     <t xml:space="preserve">9.43899631500244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70880222320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72144889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94909763336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0081186294556</t>
+    <t xml:space="preserve">9.70880126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72144794464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94909858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0081176757812</t>
   </si>
   <si>
     <t xml:space="preserve">10.0713539123535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1177282333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2863540649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.155668258667</t>
+    <t xml:space="preserve">10.1177272796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2863550186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1556692123413</t>
   </si>
   <si>
     <t xml:space="preserve">10.1388053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0334119796753</t>
+    <t xml:space="preserve">10.0334129333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.0291976928711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8394889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90272426605225</t>
+    <t xml:space="preserve">9.83948993682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90272521972656</t>
   </si>
   <si>
     <t xml:space="preserve">9.87321472167969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99968528747559</t>
+    <t xml:space="preserve">9.9996862411499</t>
   </si>
   <si>
     <t xml:space="preserve">9.75517463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60762405395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9322338104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3791017532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4339046478271</t>
+    <t xml:space="preserve">9.60762596130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93223476409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3791007995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4339056015015</t>
   </si>
   <si>
     <t xml:space="preserve">10.3833160400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4043960571289</t>
+    <t xml:space="preserve">10.4043951034546</t>
   </si>
   <si>
     <t xml:space="preserve">10.5266513824463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5814552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8681259155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7585153579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.615180015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3622379302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5519456863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8343992233276</t>
+    <t xml:space="preserve">10.5814561843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.868124961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7585163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3622388839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.551944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.834400177002</t>
   </si>
   <si>
     <t xml:space="preserve">10.7247896194458</t>
@@ -2135,130 +2135,130 @@
     <t xml:space="preserve">10.4971408843994</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8133192062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807725906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5898866653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4760627746582</t>
+    <t xml:space="preserve">10.8133211135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807716369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5898885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4760618209839</t>
   </si>
   <si>
     <t xml:space="preserve">10.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6025333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9608688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0999898910522</t>
+    <t xml:space="preserve">10.6025342941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9608697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0999879837036</t>
   </si>
   <si>
     <t xml:space="preserve">10.9945974349976</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3782272338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1337156295776</t>
+    <t xml:space="preserve">11.378228187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.133713722229</t>
   </si>
   <si>
     <t xml:space="preserve">10.8976354598999</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4676313400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.43812084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2694931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95331382751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303749084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92380332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84792137145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79733180999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0587062835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1345891952515</t>
+    <t xml:space="preserve">10.4676303863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4381198883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2694911956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1261587142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95331478118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303730010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92380428314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84792041778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79732990264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0587072372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1345901489258</t>
   </si>
   <si>
     <t xml:space="preserve">10.5055732727051</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5603771209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690031051636</t>
+    <t xml:space="preserve">10.560378074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690011978149</t>
   </si>
   <si>
     <t xml:space="preserve">10.7285490036011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.392204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95236778259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83163070678711</t>
+    <t xml:space="preserve">10.3922052383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95236968994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83163166046143</t>
   </si>
   <si>
     <t xml:space="preserve">9.65914440155029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65051937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50390815734863</t>
+    <t xml:space="preserve">9.65052032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50390911102295</t>
   </si>
   <si>
     <t xml:space="preserve">9.47372341156006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0985689163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35729789733887</t>
+    <t xml:space="preserve">9.09856986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35729694366455</t>
   </si>
   <si>
     <t xml:space="preserve">9.5815258026123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26674175262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27536582946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25811576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5556526184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69795322418213</t>
+    <t xml:space="preserve">9.2667407989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27536487579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25811767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55565452575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69795513153076</t>
   </si>
   <si>
     <t xml:space="preserve">9.43060302734375</t>
@@ -2267,85 +2267,85 @@
     <t xml:space="preserve">9.31417560577393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36160850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54271697998047</t>
+    <t xml:space="preserve">9.36160945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54271602630615</t>
   </si>
   <si>
     <t xml:space="preserve">9.80144500732422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90493583679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75401210784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64620780944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93512058258057</t>
+    <t xml:space="preserve">9.90493679046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7540111541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64620971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93512153625488</t>
   </si>
   <si>
     <t xml:space="preserve">9.89199924468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92649555206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1765995025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93943119049072</t>
+    <t xml:space="preserve">9.92649745941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1765985488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93943214416504</t>
   </si>
   <si>
     <t xml:space="preserve">9.96099281311035</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0644826889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0601711273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.28440284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1852245330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3404607772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5301933288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4827585220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.362021446228</t>
+    <t xml:space="preserve">10.0644836425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0601720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2844018936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1852235794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3404588699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5301942825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4827604293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3620195388794</t>
   </si>
   <si>
     <t xml:space="preserve">9.96530628204346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79282093048096</t>
+    <t xml:space="preserve">9.79281997680664</t>
   </si>
   <si>
     <t xml:space="preserve">9.61602306365967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74538803100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81869411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1119184494019</t>
+    <t xml:space="preserve">9.74538707733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81869316101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1119194030762</t>
   </si>
   <si>
     <t xml:space="preserve">10.0256748199463</t>
@@ -2357,49 +2357,49 @@
     <t xml:space="preserve">9.41766548156738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18912506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02957534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81828117370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74497604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90452480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72772693634033</t>
+    <t xml:space="preserve">9.18912315368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02957439422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81828212738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74497509002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90452289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72772884368896</t>
   </si>
   <si>
     <t xml:space="preserve">8.44485187530518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58456611633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13782978057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17922687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48969841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31721305847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4172534942627</t>
+    <t xml:space="preserve">8.58456516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1378288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17922592163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48969745635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.317214012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41725635528564</t>
   </si>
   <si>
     <t xml:space="preserve">8.52764415740967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39655590057373</t>
+    <t xml:space="preserve">8.39655494689941</t>
   </si>
   <si>
     <t xml:space="preserve">8.50867176055908</t>
@@ -2408,16 +2408,16 @@
     <t xml:space="preserve">8.56559181213379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66304492950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60698795318604</t>
+    <t xml:space="preserve">8.66304588317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60698890686035</t>
   </si>
   <si>
     <t xml:space="preserve">8.55006694793701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50349712371826</t>
+    <t xml:space="preserve">8.50349617004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.28789043426514</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">8.43967819213867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65873432159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61561298370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87002754211426</t>
+    <t xml:space="preserve">8.65873336791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6156120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87002849578857</t>
   </si>
   <si>
     <t xml:space="preserve">8.97351741790771</t>
@@ -2441,13 +2441,13 @@
     <t xml:space="preserve">8.89589881896973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76653480529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82690525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07269763946533</t>
+    <t xml:space="preserve">8.76653575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82690715789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07269668579102</t>
   </si>
   <si>
     <t xml:space="preserve">8.90021133422852</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">8.66735744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64579677581787</t>
+    <t xml:space="preserve">8.64579582214355</t>
   </si>
   <si>
     <t xml:space="preserve">8.40518093109131</t>
@@ -2471,82 +2471,82 @@
     <t xml:space="preserve">8.27926635742188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14990425109863</t>
+    <t xml:space="preserve">8.14990329742432</t>
   </si>
   <si>
     <t xml:space="preserve">8.4431266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39483165740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23787307739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89462471008301</t>
+    <t xml:space="preserve">8.39483261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23787021636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8946270942688</t>
   </si>
   <si>
     <t xml:space="preserve">7.97396945953369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95844602584839</t>
+    <t xml:space="preserve">7.95844507217407</t>
   </si>
   <si>
     <t xml:space="preserve">8.05158805847168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91704845428467</t>
+    <t xml:space="preserve">7.91704940795898</t>
   </si>
   <si>
     <t xml:space="preserve">7.95327043533325</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0291633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30858898162842</t>
+    <t xml:space="preserve">8.02916526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30858993530273</t>
   </si>
   <si>
     <t xml:space="preserve">8.08953380584717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19647312164307</t>
+    <t xml:space="preserve">8.1964750289917</t>
   </si>
   <si>
     <t xml:space="preserve">8.1637020111084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06366348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02053928375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07918357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09988212585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12058162689209</t>
+    <t xml:space="preserve">8.06366157531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02054023742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07918548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09988403320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12058258056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.03261375427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11023139953613</t>
+    <t xml:space="preserve">8.11023235321045</t>
   </si>
   <si>
     <t xml:space="preserve">8.23442077636719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31376361846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07401180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80838394165039</t>
+    <t xml:space="preserve">8.31376457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07401084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80838346481323</t>
   </si>
   <si>
     <t xml:space="preserve">8.47417449951172</t>
@@ -2555,82 +2555,82 @@
     <t xml:space="preserve">8.62078666687012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77516078948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62854862213135</t>
+    <t xml:space="preserve">8.77516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62854766845703</t>
   </si>
   <si>
     <t xml:space="preserve">8.6414852142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68460559844971</t>
+    <t xml:space="preserve">8.68460750579834</t>
   </si>
   <si>
     <t xml:space="preserve">8.54489326477051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54316902160645</t>
+    <t xml:space="preserve">8.54316806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.539719581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46631050109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39115619659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52923202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47854518890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61312580108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59390068054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59914493560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52573680877686</t>
   </si>
   <si>
     <t xml:space="preserve">8.53971862792969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46631145477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39115715026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52923107147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47854614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61312580108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59389877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59914493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52573585510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53971767425537</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.43485164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28279209136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2251148223877</t>
+    <t xml:space="preserve">8.28279304504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22511672973633</t>
   </si>
   <si>
     <t xml:space="preserve">8.39989566802979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47679615020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65856838226318</t>
+    <t xml:space="preserve">8.47679710388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65856742858887</t>
   </si>
   <si>
     <t xml:space="preserve">8.69177627563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71799468994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74770736694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99676895141602</t>
+    <t xml:space="preserve">8.71799373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74770641326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99676609039307</t>
   </si>
   <si>
     <t xml:space="preserve">8.90063858032227</t>
@@ -2639,37 +2639,37 @@
     <t xml:space="preserve">8.9224853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86568164825439</t>
+    <t xml:space="preserve">8.86568450927734</t>
   </si>
   <si>
     <t xml:space="preserve">8.84820461273193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83509540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88752937316895</t>
+    <t xml:space="preserve">8.8350944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88753128051758</t>
   </si>
   <si>
     <t xml:space="preserve">8.95744132995605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81761837005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78266143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8263578414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94433212280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18465518951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17154502868652</t>
+    <t xml:space="preserve">8.81761741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78266048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82635593414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94433307647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18465423583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17154598236084</t>
   </si>
   <si>
     <t xml:space="preserve">9.15406894683838</t>
@@ -2678,13 +2678,13 @@
     <t xml:space="preserve">9.07541847229004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104969024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9093770980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85694217681885</t>
+    <t xml:space="preserve">9.07104778289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90937614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85694313049316</t>
   </si>
   <si>
     <t xml:space="preserve">8.91374778747559</t>
@@ -2693,16 +2693,16 @@
     <t xml:space="preserve">8.99239730834961</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96617984771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93122386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87441921234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83072566986084</t>
+    <t xml:space="preserve">8.9661808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93122482299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87442016601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83072471618652</t>
   </si>
   <si>
     <t xml:space="preserve">8.4960241317749</t>
@@ -2711,37 +2711,37 @@
     <t xml:space="preserve">8.63235282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73721981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30901145935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15170955657959</t>
+    <t xml:space="preserve">8.73722076416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30901050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15170764923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.05732822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22686386108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33872413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36319065093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21113395690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26181888580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32998371124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4418420791626</t>
+    <t xml:space="preserve">8.22686195373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33872127532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36319160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21113300323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26182174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32998275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44184398651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.41562557220459</t>
@@ -2750,64 +2750,64 @@
     <t xml:space="preserve">8.22861194610596</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26706409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5729284286499</t>
+    <t xml:space="preserve">8.26706218719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57292747497559</t>
   </si>
   <si>
     <t xml:space="preserve">8.19190788269043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77768135070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67281198501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6902904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35471487045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13798904418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08380746841431</t>
+    <t xml:space="preserve">7.77768039703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67281293869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69028997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35471534729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13798856735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08380699157715</t>
   </si>
   <si>
     <t xml:space="preserve">7.11701488494873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93349647521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80590724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4144024848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04238367080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91129970550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80992746353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08983707427979</t>
+    <t xml:space="preserve">6.93349599838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80590772628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41440153121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04238414764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91129922866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80992841720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08983612060547</t>
   </si>
   <si>
     <t xml:space="preserve">4.1938304901123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204880714417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06012439727783</t>
+    <t xml:space="preserve">3.92204809188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06012344360352</t>
   </si>
   <si>
     <t xml:space="preserve">4.15974855422974</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">4.56174039840698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49532508850098</t>
+    <t xml:space="preserve">4.49532413482666</t>
   </si>
   <si>
     <t xml:space="preserve">4.67534732818604</t>
@@ -2837,124 +2837,124 @@
     <t xml:space="preserve">4.83964014053345</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87634325027466</t>
+    <t xml:space="preserve">4.87634372711182</t>
   </si>
   <si>
     <t xml:space="preserve">4.79244947433472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01267242431641</t>
+    <t xml:space="preserve">5.01267147064209</t>
   </si>
   <si>
     <t xml:space="preserve">5.04762744903564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17346858978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41116809844971</t>
+    <t xml:space="preserve">5.17346906661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41116857528687</t>
   </si>
   <si>
     <t xml:space="preserve">5.28707504272461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24862384796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17871141433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94625473022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03714084625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06860065460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03888893127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78720617294312</t>
+    <t xml:space="preserve">5.24862289428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17871189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0371413230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06860113143921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0388879776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78720712661743</t>
   </si>
   <si>
     <t xml:space="preserve">4.93576860427856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1315221786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1717209815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16298198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2626051902771</t>
+    <t xml:space="preserve">5.13152122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17172145843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16298151016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26260614395142</t>
   </si>
   <si>
     <t xml:space="preserve">5.57021713256836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58769607543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27833557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53176641464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31853580474854</t>
+    <t xml:space="preserve">5.58769559860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27833604812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53176546096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31853532791138</t>
   </si>
   <si>
     <t xml:space="preserve">5.39893388748169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44437694549561</t>
+    <t xml:space="preserve">5.44437742233276</t>
   </si>
   <si>
     <t xml:space="preserve">5.34650039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25211954116821</t>
+    <t xml:space="preserve">5.25211906433105</t>
   </si>
   <si>
     <t xml:space="preserve">5.02315902709961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05461931228638</t>
+    <t xml:space="preserve">5.05461835861206</t>
   </si>
   <si>
     <t xml:space="preserve">5.43913316726685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95499420166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11404371261597</t>
+    <t xml:space="preserve">4.95499467849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11404418945312</t>
   </si>
   <si>
     <t xml:space="preserve">4.86236143112183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84837913513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89382123947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97072410583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97771501541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10006093978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88683032989502</t>
+    <t xml:space="preserve">4.84837865829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89382171630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97072458267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97771596908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10006141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88683080673218</t>
   </si>
   <si>
     <t xml:space="preserve">5.10705280303955</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">5.32028293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58594799041748</t>
+    <t xml:space="preserve">5.58594751358032</t>
   </si>
   <si>
     <t xml:space="preserve">5.64362525939941</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">6.02639150619507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91977691650391</t>
+    <t xml:space="preserve">5.91977596282959</t>
   </si>
   <si>
     <t xml:space="preserve">5.83588218688965</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46535062789917</t>
+    <t xml:space="preserve">5.46535015106201</t>
   </si>
   <si>
     <t xml:space="preserve">5.47059345245361</t>
@@ -2990,46 +2990,46 @@
     <t xml:space="preserve">5.46360206604004</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40942096710205</t>
+    <t xml:space="preserve">5.40942144393921</t>
   </si>
   <si>
     <t xml:space="preserve">5.40767288208008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31504011154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42165517807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08607912063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15249490737915</t>
+    <t xml:space="preserve">5.31503915786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42165470123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08607816696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15249443054199</t>
   </si>
   <si>
     <t xml:space="preserve">5.01966238021851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07559251785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96198558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11579179763794</t>
+    <t xml:space="preserve">5.07559204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96198606491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11579132080078</t>
   </si>
   <si>
     <t xml:space="preserve">5.02141046524048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19793701171875</t>
+    <t xml:space="preserve">5.19793748855591</t>
   </si>
   <si>
     <t xml:space="preserve">5.10880041122437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02665328979492</t>
+    <t xml:space="preserve">5.02665376663208</t>
   </si>
   <si>
     <t xml:space="preserve">4.84663105010986</t>
@@ -3038,13 +3038,13 @@
     <t xml:space="preserve">4.87284898757935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93227386474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01616716384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02490568161011</t>
+    <t xml:space="preserve">4.93227338790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01616764068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02490615844727</t>
   </si>
   <si>
     <t xml:space="preserve">5.15948581695557</t>
@@ -3062,70 +3062,70 @@
     <t xml:space="preserve">4.82915353775024</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73477220535278</t>
+    <t xml:space="preserve">4.73477268218994</t>
   </si>
   <si>
     <t xml:space="preserve">4.50406360626221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42016887664795</t>
+    <t xml:space="preserve">4.42016983032227</t>
   </si>
   <si>
     <t xml:space="preserve">4.31005907058716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51455020904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52678489685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7295298576355</t>
+    <t xml:space="preserve">4.51454973220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52678537368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72952890396118</t>
   </si>
   <si>
     <t xml:space="preserve">4.44289112091064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52328872680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67709636688232</t>
+    <t xml:space="preserve">4.52328968048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67709589004517</t>
   </si>
   <si>
     <t xml:space="preserve">4.65437412261963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55649709701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50930690765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46910762786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42541313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32753705978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30831098556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45337772369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40269231796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35812282562256</t>
+    <t xml:space="preserve">4.55649757385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50930643081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46910810470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42541265487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32753610610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30831003189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45337867736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40269184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35812330245972</t>
   </si>
   <si>
     <t xml:space="preserve">4.27859830856323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3048152923584</t>
+    <t xml:space="preserve">4.30481576919556</t>
   </si>
   <si>
     <t xml:space="preserve">4.29957246780396</t>
@@ -3134,16 +3134,16 @@
     <t xml:space="preserve">4.21742582321167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17722654342651</t>
+    <t xml:space="preserve">4.17722606658936</t>
   </si>
   <si>
     <t xml:space="preserve">4.20606470108032</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21829986572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19208288192749</t>
+    <t xml:space="preserve">4.2182993888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19208240509033</t>
   </si>
   <si>
     <t xml:space="preserve">4.04788970947266</t>
@@ -3152,16 +3152,16 @@
     <t xml:space="preserve">4.05313301086426</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03390693664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98496866226196</t>
+    <t xml:space="preserve">4.03390836715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98496913909912</t>
   </si>
   <si>
     <t xml:space="preserve">3.95088672637939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0076904296875</t>
+    <t xml:space="preserve">4.00769090652466</t>
   </si>
   <si>
     <t xml:space="preserve">4.17460441589355</t>
@@ -3170,16 +3170,16 @@
     <t xml:space="preserve">4.17810010910034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06274604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79620742797852</t>
+    <t xml:space="preserve">4.06274652481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79620718955994</t>
   </si>
   <si>
     <t xml:space="preserve">3.75426006317139</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72280025482178</t>
+    <t xml:space="preserve">3.72280049324036</t>
   </si>
   <si>
     <t xml:space="preserve">3.64677095413208</t>
@@ -3188,97 +3188,97 @@
     <t xml:space="preserve">3.58210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72979164123535</t>
+    <t xml:space="preserve">3.72979140281677</t>
   </si>
   <si>
     <t xml:space="preserve">3.61006712913513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72367429733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6284191608429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71231317520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7490177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85213661193848</t>
+    <t xml:space="preserve">3.72367405891418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62841939926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71231341362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74901700019836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8521363735199</t>
   </si>
   <si>
     <t xml:space="preserve">3.77523398399353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89058899879456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86349749565125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7988293170929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70444774627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80319929122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61356329917908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74377369880676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82329845428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91243624687195</t>
+    <t xml:space="preserve">3.8905885219574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8634979724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79882907867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70444798469543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80319833755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6135630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74377346038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82329797744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91243577003479</t>
   </si>
   <si>
     <t xml:space="preserve">3.81543326377869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83553290367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8704879283905</t>
+    <t xml:space="preserve">3.83553242683411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87048888206482</t>
   </si>
   <si>
     <t xml:space="preserve">3.76824259757996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66337466239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55326390266418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34527707099915</t>
+    <t xml:space="preserve">3.66337490081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55326414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34527659416199</t>
   </si>
   <si>
     <t xml:space="preserve">3.55850744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74464750289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83291149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42191743850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39919567108154</t>
+    <t xml:space="preserve">3.74464726448059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8329119682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42191791534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3991961479187</t>
   </si>
   <si>
     <t xml:space="preserve">4.81866693496704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88857793807983</t>
+    <t xml:space="preserve">4.88857841491699</t>
   </si>
   <si>
     <t xml:space="preserve">4.89906454086304</t>
@@ -3287,40 +3287,40 @@
     <t xml:space="preserve">4.93052530288696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0039324760437</t>
+    <t xml:space="preserve">5.00393295288086</t>
   </si>
   <si>
     <t xml:space="preserve">5.39194297790527</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49506235122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55973052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47583675384521</t>
+    <t xml:space="preserve">5.49506282806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55973100662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47583723068237</t>
   </si>
   <si>
     <t xml:space="preserve">5.46185445785522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68633794784546</t>
+    <t xml:space="preserve">5.68633842468262</t>
   </si>
   <si>
     <t xml:space="preserve">6.04515981674194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98682928085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90552043914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92496347427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73229551315308</t>
+    <t xml:space="preserve">5.98682880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90551948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92496395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73229598999023</t>
   </si>
   <si>
     <t xml:space="preserve">5.82067584991455</t>
@@ -3332,34 +3332,34 @@
     <t xml:space="preserve">5.88430881500244</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12470102310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01334238052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02218055725098</t>
+    <t xml:space="preserve">6.12470054626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01334190368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02218151092529</t>
   </si>
   <si>
     <t xml:space="preserve">6.02571582794189</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11763048171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00980806350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93203401565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00450420379639</t>
+    <t xml:space="preserve">6.11763000488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00980758666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93203353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0045051574707</t>
   </si>
   <si>
     <t xml:space="preserve">5.97445631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03278684616089</t>
+    <t xml:space="preserve">6.03278636932373</t>
   </si>
   <si>
     <t xml:space="preserve">5.94440650939941</t>
@@ -3371,40 +3371,40 @@
     <t xml:space="preserve">5.77295112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93380069732666</t>
+    <t xml:space="preserve">5.93380117416382</t>
   </si>
   <si>
     <t xml:space="preserve">5.89137887954712</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81183767318726</t>
+    <t xml:space="preserve">5.8118371963501</t>
   </si>
   <si>
     <t xml:space="preserve">5.8542594909668</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77648496627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98329448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30322742462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29438972473145</t>
+    <t xml:space="preserve">5.77648591995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9832935333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30322790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29438924789429</t>
   </si>
   <si>
     <t xml:space="preserve">6.25903749465942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14591217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32267045974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23429203033447</t>
+    <t xml:space="preserve">6.14591264724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32267093658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23429155349731</t>
   </si>
   <si>
     <t xml:space="preserve">6.28908729553223</t>
@@ -3413,43 +3413,43 @@
     <t xml:space="preserve">5.96561765670776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94970893859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75880908966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55907201766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46008634567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53255796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6280083656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79946374893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6828031539917</t>
+    <t xml:space="preserve">5.94970941543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75881004333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55907154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46008729934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53255844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62800788879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79946422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68280363082886</t>
   </si>
   <si>
     <t xml:space="preserve">5.67396545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90905475616455</t>
+    <t xml:space="preserve">5.90905427932739</t>
   </si>
   <si>
     <t xml:space="preserve">6.00273704528809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12293291091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25196695327759</t>
+    <t xml:space="preserve">6.12293386459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25196743011475</t>
   </si>
   <si>
     <t xml:space="preserve">6.14060926437378</t>
@@ -3461,103 +3461,103 @@
     <t xml:space="preserve">6.2219181060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28378391265869</t>
+    <t xml:space="preserve">6.28378438949585</t>
   </si>
   <si>
     <t xml:space="preserve">6.65497827529907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66558361053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51533842086792</t>
+    <t xml:space="preserve">6.66558408737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51533889770508</t>
   </si>
   <si>
     <t xml:space="preserve">6.36332559585571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39514207839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63553476333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56659841537476</t>
+    <t xml:space="preserve">6.39514255523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63553380966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5665979385376</t>
   </si>
   <si>
     <t xml:space="preserve">6.79461812973022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7279052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64129400253296</t>
+    <t xml:space="preserve">7.72790622711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64129447937012</t>
   </si>
   <si>
     <t xml:space="preserve">7.81805276870728</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94531965255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92764329910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20869064331055</t>
+    <t xml:space="preserve">7.94531869888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92764186859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20868968963623</t>
   </si>
   <si>
     <t xml:space="preserve">8.46322345733643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58695507049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44024562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55160236358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75840950012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76371288299561</t>
+    <t xml:space="preserve">8.58695411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44024467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55160427093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75841045379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76371383666992</t>
   </si>
   <si>
     <t xml:space="preserve">8.54629993438721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57104587554932</t>
+    <t xml:space="preserve">8.57104682922363</t>
   </si>
   <si>
     <t xml:space="preserve">8.53746318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43140697479248</t>
+    <t xml:space="preserve">8.43140506744385</t>
   </si>
   <si>
     <t xml:space="preserve">8.24050617218018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17157173156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03369903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33242130279541</t>
+    <t xml:space="preserve">8.17157077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03369998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33242225646973</t>
   </si>
   <si>
     <t xml:space="preserve">8.10970401763916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40489196777344</t>
+    <t xml:space="preserve">8.40489292144775</t>
   </si>
   <si>
     <t xml:space="preserve">8.45084953308105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53569316864014</t>
+    <t xml:space="preserve">8.53569507598877</t>
   </si>
   <si>
     <t xml:space="preserve">8.49503993988037</t>
@@ -3566,10 +3566,10 @@
     <t xml:space="preserve">8.54099655151367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54983520507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41549968719482</t>
+    <t xml:space="preserve">8.54983425140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41549873352051</t>
   </si>
   <si>
     <t xml:space="preserve">8.19985198974609</t>
@@ -3578,10 +3578,10 @@
     <t xml:space="preserve">8.11324024200439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05490970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04430484771729</t>
+    <t xml:space="preserve">8.05490875244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04430294036865</t>
   </si>
   <si>
     <t xml:space="preserve">8.43317317962646</t>
@@ -3590,37 +3590,37 @@
     <t xml:space="preserve">8.12561321258545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10086727142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1591968536377</t>
+    <t xml:space="preserve">8.10086631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15919971466064</t>
   </si>
   <si>
     <t xml:space="preserve">7.79684066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87638282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86931419372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84810209274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11854267120361</t>
+    <t xml:space="preserve">7.87638235092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86931371688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84810161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11854362487793</t>
   </si>
   <si>
     <t xml:space="preserve">7.94885492324829</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21576023101807</t>
+    <t xml:space="preserve">8.21576118469238</t>
   </si>
   <si>
     <t xml:space="preserve">7.65896987915039</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91703701019287</t>
+    <t xml:space="preserve">7.91703748703003</t>
   </si>
   <si>
     <t xml:space="preserve">7.98774147033691</t>
@@ -3632,19 +3632,19 @@
     <t xml:space="preserve">8.41373157501221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5675106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6541223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44908332824707</t>
+    <t xml:space="preserve">8.56751251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65412330627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44908237457275</t>
   </si>
   <si>
     <t xml:space="preserve">8.73366451263428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64175033569336</t>
+    <t xml:space="preserve">8.64174938201904</t>
   </si>
   <si>
     <t xml:space="preserve">8.66119289398193</t>
@@ -3656,13 +3656,13 @@
     <t xml:space="preserve">8.33418941497803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28292942047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36070346832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39120388031006</t>
+    <t xml:space="preserve">8.28292751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36070251464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39120292663574</t>
   </si>
   <si>
     <t xml:space="preserve">8.22614288330078</t>
@@ -3674,28 +3674,28 @@
     <t xml:space="preserve">8.48270511627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3929967880249</t>
+    <t xml:space="preserve">8.39299774169922</t>
   </si>
   <si>
     <t xml:space="preserve">8.36967468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59573459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69441509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76797294616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63700103759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64776515960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61547183990479</t>
+    <t xml:space="preserve">8.59573554992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69441413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76797485351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63700008392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64776611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61547088623047</t>
   </si>
   <si>
     <t xml:space="preserve">8.55447101593018</t>
@@ -3707,37 +3707,37 @@
     <t xml:space="preserve">8.74106216430664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.583176612854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57241058349609</t>
+    <t xml:space="preserve">8.58317565917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57241153717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.38043880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2404956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27099704742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35352611541748</t>
+    <t xml:space="preserve">8.24049472808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3535270690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.40914535522461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46117496490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50961685180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22793674468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22973155975342</t>
+    <t xml:space="preserve">8.46117401123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50961780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22793769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22972965240479</t>
   </si>
   <si>
     <t xml:space="preserve">8.24587726593018</t>
@@ -3746,37 +3746,37 @@
     <t xml:space="preserve">8.40376281738281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39838027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45758628845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05928802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82963609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07543468475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04672908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87448930740356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01264095306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8709020614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64842891693115</t>
+    <t xml:space="preserve">8.39838123321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45758724212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05928707122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93907928466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82963752746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0754337310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04672813415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87449073791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01263999938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87090253829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64842844009399</t>
   </si>
   <si>
     <t xml:space="preserve">7.38289546966553</t>
@@ -3785,64 +3785,64 @@
     <t xml:space="preserve">7.51027965545654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65740013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57128000259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65919351577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87987279891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80990219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87628316879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87269687652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69328212738037</t>
+    <t xml:space="preserve">7.65739965438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57128143310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65919399261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87987327575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80990171432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87628412246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87269592285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69328165054321</t>
   </si>
   <si>
     <t xml:space="preserve">7.75787162780762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80810832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70584106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6789288520813</t>
+    <t xml:space="preserve">7.80810737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70584058761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67892932891846</t>
   </si>
   <si>
     <t xml:space="preserve">7.88884305953979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84578514099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89243221282959</t>
+    <t xml:space="preserve">7.84578418731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89243173599243</t>
   </si>
   <si>
     <t xml:space="preserve">7.90319776535034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69866514205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73275279998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37392568588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3147177696228</t>
+    <t xml:space="preserve">7.69866418838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73275327682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37392520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31471824645996</t>
   </si>
   <si>
     <t xml:space="preserve">7.45466184616089</t>
@@ -3851,10 +3851,10 @@
     <t xml:space="preserve">7.47798538208008</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54436779022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61433982849121</t>
+    <t xml:space="preserve">7.54436826705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61434030532837</t>
   </si>
   <si>
     <t xml:space="preserve">7.73634147644043</t>
@@ -3866,28 +3866,28 @@
     <t xml:space="preserve">7.74172449111938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61792802810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60357475280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53539752960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47977924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44748449325562</t>
+    <t xml:space="preserve">7.61792755126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60357570648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53539705276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4797797203064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44748544692993</t>
   </si>
   <si>
     <t xml:space="preserve">7.70404767990112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65022230148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77760696411133</t>
+    <t xml:space="preserve">7.650221824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77760648727417</t>
   </si>
   <si>
     <t xml:space="preserve">7.52822113037109</t>
@@ -3899,22 +3899,22 @@
     <t xml:space="preserve">7.24654102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62331104278564</t>
+    <t xml:space="preserve">7.62331056594849</t>
   </si>
   <si>
     <t xml:space="preserve">7.6843113899231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72378301620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98393297195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01084518432617</t>
+    <t xml:space="preserve">7.72378206253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98393249511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625663757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01084613800049</t>
   </si>
   <si>
     <t xml:space="preserve">8.15617179870605</t>
@@ -3923,25 +3923,25 @@
     <t xml:space="preserve">8.14540576934814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37146759033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09516906738281</t>
+    <t xml:space="preserve">8.37146854400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09517097473145</t>
   </si>
   <si>
     <t xml:space="preserve">8.22255420684814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59932422637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80385589599609</t>
+    <t xml:space="preserve">8.59932327270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80385494232178</t>
   </si>
   <si>
     <t xml:space="preserve">8.65673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54370498657227</t>
+    <t xml:space="preserve">8.54370403289795</t>
   </si>
   <si>
     <t xml:space="preserve">8.59035301208496</t>
@@ -3950,49 +3950,49 @@
     <t xml:space="preserve">8.85947418212891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80744457244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91868209838867</t>
+    <t xml:space="preserve">8.80744552612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91868019104004</t>
   </si>
   <si>
     <t xml:space="preserve">9.07387447357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8971529006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84691715240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02902030944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02005100250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88100337982178</t>
+    <t xml:space="preserve">8.89715194702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84691524505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02902126312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02005004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88100433349609</t>
   </si>
   <si>
     <t xml:space="preserve">8.6352071762085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63879585266113</t>
+    <t xml:space="preserve">8.63879489898682</t>
   </si>
   <si>
     <t xml:space="preserve">8.87203407287598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83794498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72491359710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27123165130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52689552307129</t>
+    <t xml:space="preserve">8.83794593811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72491455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27123069763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52689456939697</t>
   </si>
   <si>
     <t xml:space="preserve">9.78256034851074</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">9.41027545928955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.311598777771</t>
+    <t xml:space="preserve">9.31159782409668</t>
   </si>
   <si>
     <t xml:space="preserve">9.20843505859375</t>
@@ -4016,22 +4016,22 @@
     <t xml:space="preserve">8.99313735961914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73926639556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51499843597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71873378753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66234111785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76421070098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65506553649902</t>
+    <t xml:space="preserve">8.73926734924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51499938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7187328338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6623420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76420879364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65506744384766</t>
   </si>
   <si>
     <t xml:space="preserve">8.04204559326172</t>
@@ -4040,22 +4040,22 @@
     <t xml:space="preserve">8.11480712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87833023071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20394229888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12572193145752</t>
+    <t xml:space="preserve">7.87832975387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20394039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1257209777832</t>
   </si>
   <si>
     <t xml:space="preserve">8.14936923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2694263458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45315074920654</t>
+    <t xml:space="preserve">8.26942825317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45315170288086</t>
   </si>
   <si>
     <t xml:space="preserve">8.34946537017822</t>
@@ -4064,13 +4064,13 @@
     <t xml:space="preserve">8.18211269378662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11116981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.038405418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30762767791748</t>
+    <t xml:space="preserve">8.11116886138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03840732574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30762577056885</t>
   </si>
   <si>
     <t xml:space="preserve">8.05114078521729</t>
@@ -4079,28 +4079,28 @@
     <t xml:space="preserve">8.28215980529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21121692657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02749347686768</t>
+    <t xml:space="preserve">8.21121788024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02749156951904</t>
   </si>
   <si>
     <t xml:space="preserve">8.29125595092773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28943538665771</t>
+    <t xml:space="preserve">8.28943634033203</t>
   </si>
   <si>
     <t xml:space="preserve">8.30398845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39312267303467</t>
+    <t xml:space="preserve">8.39312171936035</t>
   </si>
   <si>
     <t xml:space="preserve">8.46042728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44587516784668</t>
+    <t xml:space="preserve">8.445876121521</t>
   </si>
   <si>
     <t xml:space="preserve">8.37675094604492</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">8.70781898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82787799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89518070220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89700126647949</t>
+    <t xml:space="preserve">8.82787704467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89518165588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89699935913086</t>
   </si>
   <si>
     <t xml:space="preserve">8.91155338287354</t>
@@ -4124,13 +4124,13 @@
     <t xml:space="preserve">8.8660774230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04798316955566</t>
+    <t xml:space="preserve">9.04798221588135</t>
   </si>
   <si>
     <t xml:space="preserve">9.12711048126221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1498498916626</t>
+    <t xml:space="preserve">9.14985084533691</t>
   </si>
   <si>
     <t xml:space="preserve">9.33175563812256</t>
@@ -4139,16 +4139,16 @@
     <t xml:space="preserve">9.55458927154541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7546854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7910680770874</t>
+    <t xml:space="preserve">9.75468635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79106712341309</t>
   </si>
   <si>
     <t xml:space="preserve">9.42270851135254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95884990692139</t>
+    <t xml:space="preserve">8.95884895324707</t>
   </si>
   <si>
     <t xml:space="preserve">9.37268352508545</t>
@@ -4160,7 +4160,7 @@
     <t xml:space="preserve">9.88656711578369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3731641769409</t>
+    <t xml:space="preserve">10.3731632232666</t>
   </si>
   <si>
     <t xml:space="preserve">10.3140449523926</t>
@@ -4169,7 +4169,7 @@
     <t xml:space="preserve">10.1821632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3868074417114</t>
+    <t xml:space="preserve">10.3868083953857</t>
   </si>
   <si>
     <t xml:space="preserve">10.395902633667</t>
@@ -4181,25 +4181,25 @@
     <t xml:space="preserve">10.4140930175781</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5186882019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6278324127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4641170501709</t>
+    <t xml:space="preserve">10.5186891555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.627833366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4641180038452</t>
   </si>
   <si>
     <t xml:space="preserve">10.5414276123047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7824516296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4777612686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2822113037109</t>
+    <t xml:space="preserve">10.7824506759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4777593612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2822103500366</t>
   </si>
   <si>
     <t xml:space="preserve">9.95932865142822</t>
@@ -4223,61 +4223,61 @@
     <t xml:space="preserve">10.4049968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9188814163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6960468292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5050449371338</t>
+    <t xml:space="preserve">10.9188804626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6960458755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5050458908081</t>
   </si>
   <si>
     <t xml:space="preserve">11.8738861083984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2558870315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5782890319824</t>
+    <t xml:space="preserve">12.2558860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5782880783081</t>
   </si>
   <si>
     <t xml:space="preserve">11.7601947784424</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7556467056274</t>
+    <t xml:space="preserve">11.7556476593018</t>
   </si>
   <si>
     <t xml:space="preserve">11.4645967483521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0825967788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3190727233887</t>
+    <t xml:space="preserve">11.0825958251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.319073677063</t>
   </si>
   <si>
     <t xml:space="preserve">11.5009794235229</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2013149261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2695293426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6106033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6469841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9607706069946</t>
+    <t xml:space="preserve">12.2013168334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2695302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6106023788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6469831466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9607715606689</t>
   </si>
   <si>
     <t xml:space="preserve">12.6651744842529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3195552825928</t>
+    <t xml:space="preserve">12.3195533752441</t>
   </si>
   <si>
     <t xml:space="preserve">12.5287446975708</t>
@@ -4289,34 +4289,34 @@
     <t xml:space="preserve">12.6333417892456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6242456436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7288408279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5878639221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6424360275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2108907699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0881042480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5110349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6247253417969</t>
+    <t xml:space="preserve">12.6242437362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7288417816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5878648757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6424369812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2108917236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0881052017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5110359191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6247262954712</t>
   </si>
   <si>
     <t xml:space="preserve">13.69748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6656560897827</t>
+    <t xml:space="preserve">13.6656541824341</t>
   </si>
   <si>
     <t xml:space="preserve">13.6338214874268</t>
@@ -4328,49 +4328,49 @@
     <t xml:space="preserve">12.3604822158813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7970561981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701061248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9516754150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5428695678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3882493972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245820999146</t>
+    <t xml:space="preserve">12.7970552444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701070785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9516744613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5428686141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3882503509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245811462402</t>
   </si>
   <si>
     <t xml:space="preserve">13.2199859619141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7151966094971</t>
+    <t xml:space="preserve">12.7151985168457</t>
   </si>
   <si>
     <t xml:space="preserve">12.8425321578979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.283652305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4200830459595</t>
+    <t xml:space="preserve">13.2836532592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4200820922852</t>
   </si>
   <si>
     <t xml:space="preserve">13.9930858612061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1795377731323</t>
+    <t xml:space="preserve">14.1795387268066</t>
   </si>
   <si>
     <t xml:space="preserve">14.0931329727173</t>
@@ -4388,13 +4388,13 @@
     <t xml:space="preserve">14.0270376205444</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2818222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6709489822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8516139984131</t>
+    <t xml:space="preserve">14.2818231582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6709480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8516130447388</t>
   </si>
   <si>
     <t xml:space="preserve">15.0276441574097</t>
@@ -4412,25 +4412,25 @@
     <t xml:space="preserve">14.5736665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7219047546387</t>
+    <t xml:space="preserve">14.721905708313</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284502029419</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7867593765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1382160186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7120313644409</t>
+    <t xml:space="preserve">14.7867584228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1382179260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7120323181152</t>
   </si>
   <si>
     <t xml:space="preserve">13.4989395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3831281661987</t>
+    <t xml:space="preserve">13.383129119873</t>
   </si>
   <si>
     <t xml:space="preserve">12.9847383499146</t>
@@ -4439,13 +4439,13 @@
     <t xml:space="preserve">12.192590713501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0119247436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2389154434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3084020614624</t>
+    <t xml:space="preserve">12.0119256973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2389144897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3084011077881</t>
   </si>
   <si>
     <t xml:space="preserve">11.6737575531006</t>
@@ -4454,7 +4454,7 @@
     <t xml:space="preserve">11.3216915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5347843170166</t>
+    <t xml:space="preserve">11.5347833633423</t>
   </si>
   <si>
     <t xml:space="preserve">11.5533142089844</t>
@@ -4463,25 +4463,25 @@
     <t xml:space="preserve">11.8405246734619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.664493560791</t>
+    <t xml:space="preserve">11.6644916534424</t>
   </si>
   <si>
     <t xml:space="preserve">11.368016242981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1549224853516</t>
+    <t xml:space="preserve">11.1549243927002</t>
   </si>
   <si>
     <t xml:space="preserve">11.5625782012939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6082944869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2886562347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3309555053711</t>
+    <t xml:space="preserve">10.6082954406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2886571884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3309564590454</t>
   </si>
   <si>
     <t xml:space="preserve">11.7478761672974</t>
@@ -4490,7 +4490,7 @@
     <t xml:space="preserve">11.8173627853394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7154493331909</t>
+    <t xml:space="preserve">11.7154502868652</t>
   </si>
   <si>
     <t xml:space="preserve">11.5811080932617</t>
@@ -4511,13 +4511,13 @@
     <t xml:space="preserve">11.6691246032715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4421358108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5718421936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6969184875488</t>
+    <t xml:space="preserve">11.4421348571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5718431472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6969194412231</t>
   </si>
   <si>
     <t xml:space="preserve">12.0628824234009</t>
@@ -4529,13 +4529,13 @@
     <t xml:space="preserve">12.6048784255981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2667093276978</t>
+    <t xml:space="preserve">12.2667102813721</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945051193237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1555299758911</t>
+    <t xml:space="preserve">12.1555309295654</t>
   </si>
   <si>
     <t xml:space="preserve">11.6922874450684</t>
@@ -4544,22 +4544,22 @@
     <t xml:space="preserve">11.914644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0350875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053783416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1972227096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1694288253784</t>
+    <t xml:space="preserve">12.0350866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053792953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1972236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1694278717041</t>
   </si>
   <si>
     <t xml:space="preserve">11.9378070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3176670074463</t>
+    <t xml:space="preserve">12.317666053772</t>
   </si>
   <si>
     <t xml:space="preserve">11.8961143493652</t>
@@ -4571,19 +4571,19 @@
     <t xml:space="preserve">12.8318681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0681219100952</t>
+    <t xml:space="preserve">13.0681209564209</t>
   </si>
   <si>
     <t xml:space="preserve">12.8828248977661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7484836578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7392196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.683629989624</t>
+    <t xml:space="preserve">12.7484846115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.739218711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6836280822754</t>
   </si>
   <si>
     <t xml:space="preserve">13.1144466400146</t>
@@ -4592,19 +4592,19 @@
     <t xml:space="preserve">13.2348909378052</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7809104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3778867721558</t>
+    <t xml:space="preserve">12.7809114456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3778886795044</t>
   </si>
   <si>
     <t xml:space="preserve">12.3825206756592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9986362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2626857757568</t>
+    <t xml:space="preserve">12.9986352920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2626848220825</t>
   </si>
   <si>
     <t xml:space="preserve">13.2024631500244</t>
@@ -4619,25 +4619,25 @@
     <t xml:space="preserve">12.5770835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5492897033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4288444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7855443954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579471588135</t>
+    <t xml:space="preserve">12.5492887496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4288463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7855424880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5579462051392</t>
   </si>
   <si>
     <t xml:space="preserve">11.8080978393555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1647968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5214948654175</t>
+    <t xml:space="preserve">12.1647958755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5214939117432</t>
   </si>
   <si>
     <t xml:space="preserve">12.2898731231689</t>
@@ -4646,22 +4646,22 @@
     <t xml:space="preserve">13.1376085281372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4433507919312</t>
+    <t xml:space="preserve">13.4433498382568</t>
   </si>
   <si>
     <t xml:space="preserve">13.7212972640991</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9019622802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4248199462891</t>
+    <t xml:space="preserve">13.9019632339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4248208999634</t>
   </si>
   <si>
     <t xml:space="preserve">12.7948093414307</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9106206893921</t>
+    <t xml:space="preserve">12.9106197357178</t>
   </si>
   <si>
     <t xml:space="preserve">13.5128374099731</t>
@@ -4676,7 +4676,7 @@
     <t xml:space="preserve">13.9297571182251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741683959961</t>
+    <t xml:space="preserve">13.8741674423218</t>
   </si>
   <si>
     <t xml:space="preserve">14.0455684661865</t>
@@ -4697,19 +4697,19 @@
     <t xml:space="preserve">14.5505037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9257335662842</t>
+    <t xml:space="preserve">14.9257316589355</t>
   </si>
   <si>
     <t xml:space="preserve">14.7589645385742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9674234390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4214057922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5557460784912</t>
+    <t xml:space="preserve">14.9674253463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.421404838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5557451248169</t>
   </si>
   <si>
     <t xml:space="preserve">15.2407388687134</t>
@@ -4721,19 +4721,19 @@
     <t xml:space="preserve">14.5134449005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.819185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7543325424194</t>
+    <t xml:space="preserve">14.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7543315887451</t>
   </si>
   <si>
     <t xml:space="preserve">15.4538307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5279512405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0878677368164</t>
+    <t xml:space="preserve">15.5279502868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0878667831421</t>
   </si>
   <si>
     <t xml:space="preserve">15.2083120346069</t>
@@ -4742,13 +4742,13 @@
     <t xml:space="preserve">14.5342578887939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4891653060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1380977630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2317152023315</t>
+    <t xml:space="preserve">15.4891662597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1380968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2317171096802</t>
   </si>
   <si>
     <t xml:space="preserve">15.315972328186</t>
@@ -4757,19 +4757,19 @@
     <t xml:space="preserve">14.8993701934814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.33469581604</t>
+    <t xml:space="preserve">15.3346939086914</t>
   </si>
   <si>
     <t xml:space="preserve">15.6483173370361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2832059860229</t>
+    <t xml:space="preserve">15.2832069396973</t>
   </si>
   <si>
     <t xml:space="preserve">15.0304365158081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8010711669922</t>
+    <t xml:space="preserve">14.8010721206665</t>
   </si>
   <si>
     <t xml:space="preserve">14.6700048446655</t>
@@ -4781,10 +4781,10 @@
     <t xml:space="preserve">14.5295782089233</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4031934738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627649307251</t>
+    <t xml:space="preserve">14.4031925201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627639770508</t>
   </si>
   <si>
     <t xml:space="preserve">14.7495813369751</t>
@@ -4793,25 +4793,25 @@
     <t xml:space="preserve">14.7776660919189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4921293258667</t>
+    <t xml:space="preserve">14.492130279541</t>
   </si>
   <si>
     <t xml:space="preserve">14.3891496658325</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7074527740479</t>
+    <t xml:space="preserve">14.7074518203735</t>
   </si>
   <si>
     <t xml:space="preserve">14.9087324142456</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2504396438599</t>
+    <t xml:space="preserve">15.2504405975342</t>
   </si>
   <si>
     <t xml:space="preserve">15.521933555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5827865600586</t>
+    <t xml:space="preserve">15.5827856063843</t>
   </si>
   <si>
     <t xml:space="preserve">15.4657621383667</t>
@@ -4823,37 +4823,37 @@
     <t xml:space="preserve">15.2457580566406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7466173171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2036304473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1316995620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5436191558838</t>
+    <t xml:space="preserve">15.7466163635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.203631401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1317005157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5436201095581</t>
   </si>
   <si>
     <t xml:space="preserve">14.7683038711548</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8244762420654</t>
+    <t xml:space="preserve">14.8244752883911</t>
   </si>
   <si>
     <t xml:space="preserve">14.8338375091553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0117130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2270345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1240539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023508071899</t>
+    <t xml:space="preserve">15.0117120742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2270336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1240549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023498535156</t>
   </si>
   <si>
     <t xml:space="preserve">15.4563999176025</t>
@@ -4862,13 +4862,13 @@
     <t xml:space="preserve">16.0976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3066110610962</t>
+    <t xml:space="preserve">15.3066101074219</t>
   </si>
   <si>
     <t xml:space="preserve">15.4938459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0163946151733</t>
+    <t xml:space="preserve">15.016393661499</t>
   </si>
   <si>
     <t xml:space="preserve">15.0444784164429</t>
@@ -4877,28 +4877,28 @@
     <t xml:space="preserve">15.072564125061</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4142723083496</t>
+    <t xml:space="preserve">15.4142713546753</t>
   </si>
   <si>
     <t xml:space="preserve">15.1802253723145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2129917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8853282928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3704271316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.286169052124</t>
+    <t xml:space="preserve">15.2129926681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8853273391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3704261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2861700057983</t>
   </si>
   <si>
     <t xml:space="preserve">14.1691465377808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2768077850342</t>
+    <t xml:space="preserve">14.2768087387085</t>
   </si>
   <si>
     <t xml:space="preserve">14.6419200897217</t>
@@ -4913,37 +4913,37 @@
     <t xml:space="preserve">15.1615009307861</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2381114959717</t>
+    <t xml:space="preserve">16.2381134033203</t>
   </si>
   <si>
     <t xml:space="preserve">15.4610805511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2223539352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7308559417725</t>
+    <t xml:space="preserve">15.222354888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7308568954468</t>
   </si>
   <si>
     <t xml:space="preserve">14.9976692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6793661117554</t>
+    <t xml:space="preserve">14.6793670654297</t>
   </si>
   <si>
     <t xml:space="preserve">15.0397987365723</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1053304672241</t>
+    <t xml:space="preserve">15.1053314208984</t>
   </si>
   <si>
     <t xml:space="preserve">15.152138710022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2597999572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.339376449585</t>
+    <t xml:space="preserve">15.2598009109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3393774032593</t>
   </si>
   <si>
     <t xml:space="preserve">14.7636241912842</t>
@@ -4955,19 +4955,19 @@
     <t xml:space="preserve">13.612117767334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8087158203125</t>
+    <t xml:space="preserve">13.8087148666382</t>
   </si>
   <si>
     <t xml:space="preserve">12.5729532241821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6057195663452</t>
+    <t xml:space="preserve">12.6057186126709</t>
   </si>
   <si>
     <t xml:space="preserve">12.3763542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4091196060181</t>
+    <t xml:space="preserve">12.4091205596924</t>
   </si>
   <si>
     <t xml:space="preserve">12.8257217407227</t>
@@ -4976,7 +4976,7 @@
     <t xml:space="preserve">12.6899757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4044389724731</t>
+    <t xml:space="preserve">12.4044399261475</t>
   </si>
   <si>
     <t xml:space="preserve">12.0065603256226</t>
@@ -4997,22 +4997,22 @@
     <t xml:space="preserve">12.264012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6338052749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.320182800293</t>
+    <t xml:space="preserve">12.6338043212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3201837539673</t>
   </si>
   <si>
     <t xml:space="preserve">12.1657123565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1329469680786</t>
+    <t xml:space="preserve">12.1329460144043</t>
   </si>
   <si>
     <t xml:space="preserve">12.4606103897095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6244430541992</t>
+    <t xml:space="preserve">12.6244421005249</t>
   </si>
   <si>
     <t xml:space="preserve">12.582314491272</t>
@@ -5024,10 +5024,10 @@
     <t xml:space="preserve">12.4231643676758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2874174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2686920166016</t>
+    <t xml:space="preserve">12.2874164581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2686929702759</t>
   </si>
   <si>
     <t xml:space="preserve">12.2172021865845</t>
@@ -5036,19 +5036,19 @@
     <t xml:space="preserve">12.1282653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8801755905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5618743896484</t>
+    <t xml:space="preserve">11.8801765441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5618734359741</t>
   </si>
   <si>
     <t xml:space="preserve">11.4869794845581</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3278274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6274070739746</t>
+    <t xml:space="preserve">11.3278284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274061203003</t>
   </si>
   <si>
     <t xml:space="preserve">11.7210254669189</t>
@@ -5060,7 +5060,7 @@
     <t xml:space="preserve">11.4682559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3371906280518</t>
+    <t xml:space="preserve">11.3371887207031</t>
   </si>
   <si>
     <t xml:space="preserve">11.472936630249</t>
@@ -5072,7 +5072,7 @@
     <t xml:space="preserve">11.3559141159058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.510383605957</t>
+    <t xml:space="preserve">11.5103845596313</t>
   </si>
   <si>
     <t xml:space="preserve">11.5478315353394</t>
@@ -5084,16 +5084,16 @@
     <t xml:space="preserve">11.8414611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.870343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323053359985</t>
+    <t xml:space="preserve">11.8703422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323043823242</t>
   </si>
   <si>
     <t xml:space="preserve">11.533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7548160552979</t>
+    <t xml:space="preserve">11.7548170089722</t>
   </si>
   <si>
     <t xml:space="preserve">11.4371185302734</t>
@@ -5108,7 +5108,7 @@
     <t xml:space="preserve">11.884783744812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9618005752563</t>
+    <t xml:space="preserve">11.9618015289307</t>
   </si>
   <si>
     <t xml:space="preserve">12.2361764907837</t>
@@ -5117,7 +5117,7 @@
     <t xml:space="preserve">12.3324489593506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3950262069702</t>
+    <t xml:space="preserve">12.3950252532959</t>
   </si>
   <si>
     <t xml:space="preserve">12.3468885421753</t>
@@ -5132,7 +5132,7 @@
     <t xml:space="preserve">12.4479761123657</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5394325256348</t>
+    <t xml:space="preserve">12.5394334793091</t>
   </si>
   <si>
     <t xml:space="preserve">12.0484457015991</t>
@@ -5150,7 +5150,7 @@
     <t xml:space="preserve">12.4720430374146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4768571853638</t>
+    <t xml:space="preserve">12.4768562316895</t>
   </si>
   <si>
     <t xml:space="preserve">12.5105514526367</t>
@@ -5162,10 +5162,10 @@
     <t xml:space="preserve">13.2037105560303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1988973617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2711000442505</t>
+    <t xml:space="preserve">13.1988964080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2711009979248</t>
   </si>
   <si>
     <t xml:space="preserve">13.1603879928589</t>
@@ -5174,19 +5174,19 @@
     <t xml:space="preserve">12.789740562439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266937255859</t>
+    <t xml:space="preserve">13.1266927719116</t>
   </si>
   <si>
     <t xml:space="preserve">13.0978107452393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.46364402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7091379165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7235803604126</t>
+    <t xml:space="preserve">13.4636449813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7091388702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7235794067383</t>
   </si>
   <si>
     <t xml:space="preserve">13.6610021591187</t>
@@ -5216,7 +5216,7 @@
     <t xml:space="preserve">14.3541612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4456195831299</t>
+    <t xml:space="preserve">14.4456205368042</t>
   </si>
   <si>
     <t xml:space="preserve">14.440806388855</t>
@@ -5246,16 +5246,16 @@
     <t xml:space="preserve">14.835521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8499622344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.806640625</t>
+    <t xml:space="preserve">14.8499631881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8066396713257</t>
   </si>
   <si>
     <t xml:space="preserve">14.8114538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7873859405518</t>
+    <t xml:space="preserve">14.7873849868774</t>
   </si>
   <si>
     <t xml:space="preserve">14.7248086929321</t>
@@ -5276,25 +5276,25 @@
     <t xml:space="preserve">14.4167385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5900278091431</t>
+    <t xml:space="preserve">14.5900268554688</t>
   </si>
   <si>
     <t xml:space="preserve">14.7199954986572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6862993240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2097539901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3493480682373</t>
+    <t xml:space="preserve">14.68630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.209753036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.349347114563</t>
   </si>
   <si>
     <t xml:space="preserve">14.2867708206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5081968307495</t>
+    <t xml:space="preserve">14.5081958770752</t>
   </si>
   <si>
     <t xml:space="preserve">14.4071111679077</t>
@@ -5306,7 +5306,7 @@
     <t xml:space="preserve">14.5996551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4889430999756</t>
+    <t xml:space="preserve">14.4889421463013</t>
   </si>
   <si>
     <t xml:space="preserve">14.8595905303955</t>
@@ -5321,19 +5321,19 @@
     <t xml:space="preserve">14.5274515151978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1231088638306</t>
+    <t xml:space="preserve">14.1231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">14.1134805679321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1616182327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1664304733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5226373672485</t>
+    <t xml:space="preserve">14.1616172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.166431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5226383209229</t>
   </si>
   <si>
     <t xml:space="preserve">14.4263648986816</t>
@@ -5363,10 +5363,10 @@
     <t xml:space="preserve">14.7970123291016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772871017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713872909546</t>
+    <t xml:space="preserve">15.1772880554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713882446289</t>
   </si>
   <si>
     <t xml:space="preserve">15.2831859588623</t>
@@ -5378,7 +5378,7 @@
     <t xml:space="preserve">15.0425062179565</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6911134719849</t>
+    <t xml:space="preserve">14.6911144256592</t>
   </si>
   <si>
     <t xml:space="preserve">14.821081161499</t>
@@ -5387,16 +5387,16 @@
     <t xml:space="preserve">14.8644027709961</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5467042922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7501068115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7096729278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0832080841064</t>
+    <t xml:space="preserve">14.5467052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7501058578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7096719741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0832061767578</t>
   </si>
   <si>
     <t xml:space="preserve">15.586443901062</t>
@@ -5411,16 +5411,16 @@
     <t xml:space="preserve">15.4901714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7164115905762</t>
+    <t xml:space="preserve">15.7164125442505</t>
   </si>
   <si>
     <t xml:space="preserve">15.4997987747192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5190544128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8980989456177</t>
+    <t xml:space="preserve">15.5190534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8980979919434</t>
   </si>
   <si>
     <t xml:space="preserve">15.081015586853</t>
@@ -5835,6 +5835,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.085000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0200004577637</t>
   </si>
 </sst>
 </file>
@@ -62310,7 +62313,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6495023148</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>2988070</v>
@@ -62331,6 +62334,32 @@
         <v>1940</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6493171296</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>2725384</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>14.2349996566772</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>13.9799995422363</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>14.1099996566772</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>14.0200004577637</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1943">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,55 +38,55 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30197715759277</t>
+    <t xml:space="preserve">8.30197906494141</t>
   </si>
   <si>
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735324859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1174898147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88687753677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58708381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50252866744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46409225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021432876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45640516281128</t>
+    <t xml:space="preserve">8.31734943389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11749076843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88687896728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58708477020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50252771377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46409273147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5102162361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45640563964844</t>
   </si>
   <si>
     <t xml:space="preserve">6.98749780654907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92600250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508295059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74151420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99518489837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17583084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892530441284</t>
+    <t xml:space="preserve">6.92600059509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14508199691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7415132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99518442153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17582941055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892482757568</t>
   </si>
   <si>
     <t xml:space="preserve">7.2642297744751</t>
@@ -95,130 +95,130 @@
     <t xml:space="preserve">7.28729152679443</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19888925552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84528875350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8683500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797161102295</t>
+    <t xml:space="preserve">7.19889116287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84528779983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86834907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41797018051147</t>
   </si>
   <si>
     <t xml:space="preserve">6.78379106521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64158201217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17198657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33341360092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10664701461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53712034225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44487571716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20273399353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50637245178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23348236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89909839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91062784194946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55633783340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72545385360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90993928909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85613203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02524566650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34809970855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44034481048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13286304473877</t>
+    <t xml:space="preserve">6.64158296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17198705673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33341407775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10664749145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53711891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44487714767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20273590087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50637197494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.233482837677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89909791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9106273651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5563383102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7254524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90994071960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85613059997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3480978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44034385681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13286399841309</t>
   </si>
   <si>
     <t xml:space="preserve">8.2866039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00218486785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24816799163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15592384338379</t>
+    <t xml:space="preserve">8.00218391418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2481689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15592575073242</t>
   </si>
   <si>
     <t xml:space="preserve">8.39422035217285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24048233032227</t>
+    <t xml:space="preserve">8.24048137664795</t>
   </si>
   <si>
     <t xml:space="preserve">8.20204544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38653469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14054870605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08674049377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41728115081787</t>
+    <t xml:space="preserve">8.38653373718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14055156707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08674335479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41728401184082</t>
   </si>
   <si>
     <t xml:space="preserve">8.25585556030273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94068765640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0790548324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05599212646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51721477508545</t>
+    <t xml:space="preserve">7.9406886100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07905387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05599403381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51721382141113</t>
   </si>
   <si>
     <t xml:space="preserve">8.55564880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61714649200439</t>
+    <t xml:space="preserve">8.61714458465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.87850379943848</t>
@@ -227,34 +227,34 @@
     <t xml:space="preserve">8.87081718444824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90925121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17060947418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30897617340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.347412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40122222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10911464691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27822780609131</t>
+    <t xml:space="preserve">8.90925216674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17061042785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3089771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34741020202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40122032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10911560058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27823066711426</t>
   </si>
   <si>
     <t xml:space="preserve">9.28591632843018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05530548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93231296539307</t>
+    <t xml:space="preserve">9.05530643463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93231391906738</t>
   </si>
   <si>
     <t xml:space="preserve">8.45571804046631</t>
@@ -263,268 +263,268 @@
     <t xml:space="preserve">8.40959548950195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85544490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69401550292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66326808929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74782466888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7555103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91693782806396</t>
+    <t xml:space="preserve">8.85544395446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69401741027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66326999664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74782371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75551223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9169397354126</t>
   </si>
   <si>
     <t xml:space="preserve">9.11680030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14754962921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84775638580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03224468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09534931182861</t>
+    <t xml:space="preserve">9.14754772186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84775733947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03224658966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09535217285156</t>
   </si>
   <si>
     <t xml:space="preserve">9.20578956604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22945499420166</t>
+    <t xml:space="preserve">9.22945404052734</t>
   </si>
   <si>
     <t xml:space="preserve">9.44244194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46610546112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47399520874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39511299133301</t>
+    <t xml:space="preserve">9.46610641479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47399711608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39511394500732</t>
   </si>
   <si>
     <t xml:space="preserve">9.28467464447021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15056991577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11901760101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57654476165771</t>
+    <t xml:space="preserve">9.1505708694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1190185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57654571533203</t>
   </si>
   <si>
     <t xml:space="preserve">10.0498504638672</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2233972549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0419626235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0104084014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78953170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65542888641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85263824462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67120552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91574668884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1918420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93941211700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.333833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81319713592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53710269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6396541595459</t>
+    <t xml:space="preserve">10.2233953475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0419616699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0104074478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78953266143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65542984008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85264015197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6712064743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91574859619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1918411254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93941402435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3338346481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81319808959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5371036529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63965225219727</t>
   </si>
   <si>
     <t xml:space="preserve">10.1366243362427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628383636475</t>
+    <t xml:space="preserve">10.2628374099731</t>
   </si>
   <si>
     <t xml:space="preserve">10.4048290252686</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3653898239136</t>
+    <t xml:space="preserve">10.3653869628906</t>
   </si>
   <si>
     <t xml:space="preserve">10.1208467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82897663116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90785884857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1839532852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786130905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99463272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1129579544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71853828430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88419437408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68698215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56077003479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6633186340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59232234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30833911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43455410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1821231842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04013347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22156620025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48977184295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69487190246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89996910095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87630558013916</t>
+    <t xml:space="preserve">9.82897567749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90785789489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261831283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.183952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786149978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99463176727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1129570007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71853637695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88419342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68698501586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56076717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66331672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59232139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30834007263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43455219268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18212413787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04013156890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2215633392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48977375030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69487285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8999719619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87630653381348</t>
   </si>
   <si>
     <t xml:space="preserve">10.0025196075439</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2312860488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1760654449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1524019241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0340738296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97096729278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58443450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72642707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80530834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60021114349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33989334106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13479328155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19001293182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36355876922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2452335357666</t>
+    <t xml:space="preserve">10.2312850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1760673522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523990631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0340747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97096633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58443260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72642517089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80531024932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60021018981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33989238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13479423522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19001197814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36355686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24523162841797</t>
   </si>
   <si>
     <t xml:space="preserve">9.14268207550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16634654998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3872241973877</t>
+    <t xml:space="preserve">9.16634750366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38722133636475</t>
   </si>
   <si>
     <t xml:space="preserve">9.17423629760742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90602970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02435493469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86841678619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0182971954346</t>
+    <t xml:space="preserve">8.90602779388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02435398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86841773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0182981491089</t>
   </si>
   <si>
     <t xml:space="preserve">10.168176651001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2943906784058</t>
+    <t xml:space="preserve">10.2943925857544</t>
   </si>
   <si>
     <t xml:space="preserve">10.2707262039185</t>
@@ -536,31 +536,31 @@
     <t xml:space="preserve">10.16028881073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3732757568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3496103286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4837121963501</t>
+    <t xml:space="preserve">10.3732767105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496112823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4837141036987</t>
   </si>
   <si>
     <t xml:space="preserve">10.5862636566162</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5389308929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547113418579</t>
+    <t xml:space="preserve">10.5389347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547103881836</t>
   </si>
   <si>
     <t xml:space="preserve">10.5073795318604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6099300384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022794723511</t>
+    <t xml:space="preserve">10.6099281311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022804260254</t>
   </si>
   <si>
     <t xml:space="preserve">10.4363832473755</t>
@@ -569,64 +569,64 @@
     <t xml:space="preserve">10.3969421386719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7974214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.256778717041</t>
+    <t xml:space="preserve">9.79741954803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386917114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2567796707153</t>
   </si>
   <si>
     <t xml:space="preserve">11.1936721801758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3987712860107</t>
+    <t xml:space="preserve">11.3987703323364</t>
   </si>
   <si>
     <t xml:space="preserve">11.5328750610352</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5249872207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092096328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7260236740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3916778564453</t>
+    <t xml:space="preserve">11.5249853134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041095733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7260227203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3916788101196</t>
   </si>
   <si>
     <t xml:space="preserve">11.6304960250854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6703004837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4235219955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4902458190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3787975311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6892595291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8564348220825</t>
+    <t xml:space="preserve">11.6702995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4235200881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2563457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966859817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4902439117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3787965774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6892623901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8564357757568</t>
   </si>
   <si>
     <t xml:space="preserve">12.7370252609253</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">12.888277053833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2385473251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0474901199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9599256515503</t>
+    <t xml:space="preserve">13.23854637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0474910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9599227905273</t>
   </si>
   <si>
     <t xml:space="preserve">13.0952548980713</t>
@@ -650,64 +650,64 @@
     <t xml:space="preserve">12.9838056564331</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0395288467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2226266860962</t>
+    <t xml:space="preserve">13.0395269393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2226238250732</t>
   </si>
   <si>
     <t xml:space="preserve">13.1270971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2783479690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5251264572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6843433380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7082252502441</t>
+    <t xml:space="preserve">13.2783489227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.525128364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6843423843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7082204818726</t>
   </si>
   <si>
     <t xml:space="preserve">13.5092067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">13.732105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763792037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6525001525879</t>
+    <t xml:space="preserve">13.7321062088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763830184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6524982452393</t>
   </si>
   <si>
     <t xml:space="preserve">13.5808544158936</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5649309158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4694042205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3659172058105</t>
+    <t xml:space="preserve">13.5649337768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4694032669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3659152984619</t>
   </si>
   <si>
     <t xml:space="preserve">13.5171670913696</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4534826278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2146663665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4614448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5569715499878</t>
+    <t xml:space="preserve">13.4534816741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2146625518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4614429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5569696426392</t>
   </si>
   <si>
     <t xml:space="preserve">13.3897981643677</t>
@@ -716,55 +716,55 @@
     <t xml:space="preserve">13.3499965667725</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6923007965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7161855697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5490102767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.880316734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8723554611206</t>
+    <t xml:space="preserve">13.6923036575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7161836624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490131378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8803157806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8723564147949</t>
   </si>
   <si>
     <t xml:space="preserve">12.7847900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9519634246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768268585205</t>
+    <t xml:space="preserve">12.951961517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768278121948</t>
   </si>
   <si>
     <t xml:space="preserve">12.8086709976196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5220880508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7290658950806</t>
+    <t xml:space="preserve">12.5220861434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7290630340576</t>
   </si>
   <si>
     <t xml:space="preserve">12.8166313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9201183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6255760192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4982061386108</t>
+    <t xml:space="preserve">12.9201202392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6255769729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4982051849365</t>
   </si>
   <si>
     <t xml:space="preserve">12.8484745025635</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9041967391968</t>
+    <t xml:space="preserve">12.9041996002197</t>
   </si>
   <si>
     <t xml:space="preserve">12.4265604019165</t>
@@ -773,46 +773,46 @@
     <t xml:space="preserve">12.3628749847412</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5539302825928</t>
+    <t xml:space="preserve">12.5539312362671</t>
   </si>
   <si>
     <t xml:space="preserve">12.2991905212402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1399784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1718187332153</t>
+    <t xml:space="preserve">12.1399774551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1718196868896</t>
   </si>
   <si>
     <t xml:space="preserve">12.0842542648315</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7021417617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7180624008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658281326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.678258895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9489221572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.028528213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1240549087524</t>
+    <t xml:space="preserve">11.7021408081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7180643081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658271789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.678261756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9489212036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0285291671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1240558624268</t>
   </si>
   <si>
     <t xml:space="preserve">11.9091196060181</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7499055862427</t>
+    <t xml:space="preserve">11.749906539917</t>
   </si>
   <si>
     <t xml:space="preserve">11.7737884521484</t>
@@ -821,19 +821,19 @@
     <t xml:space="preserve">11.8533954620361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5906934738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4822864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4026784896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927503585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6972208023071</t>
+    <t xml:space="preserve">11.5906925201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4822854995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4026803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927494049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6972227096558</t>
   </si>
   <si>
     <t xml:space="preserve">12.8643951416016</t>
@@ -842,19 +842,19 @@
     <t xml:space="preserve">12.8405132293701</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5857734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0046463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1081352233887</t>
+    <t xml:space="preserve">12.5857725143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0046472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1081342697144</t>
   </si>
   <si>
     <t xml:space="preserve">11.8931980133057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.96484375</t>
+    <t xml:space="preserve">11.9648418426514</t>
   </si>
   <si>
     <t xml:space="preserve">11.972804069519</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">12.1320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.463321685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474020004272</t>
+    <t xml:space="preserve">11.4633235931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474000930786</t>
   </si>
   <si>
     <t xml:space="preserve">11.4951648712158</t>
@@ -878,115 +878,115 @@
     <t xml:space="preserve">11.3757543563843</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652914047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2245035171509</t>
+    <t xml:space="preserve">11.0652904510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2324647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2245054244995</t>
   </si>
   <si>
     <t xml:space="preserve">11.2404251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4155578613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4712829589844</t>
+    <t xml:space="preserve">11.4155588150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4712839126587</t>
   </si>
   <si>
     <t xml:space="preserve">11.32799243927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5747709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2961492538452</t>
+    <t xml:space="preserve">11.5747728347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2961483001709</t>
   </si>
   <si>
     <t xml:space="preserve">11.4872045516968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6170959472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5683860778809</t>
+    <t xml:space="preserve">11.6170949935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5683851242065</t>
   </si>
   <si>
     <t xml:space="preserve">11.6252126693726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5196762084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3491945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2193031311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787137985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9189329147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0488224029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082330703735</t>
+    <t xml:space="preserve">11.5196771621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3491954803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2193040847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787157058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9189319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0488233566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082321166992</t>
   </si>
   <si>
     <t xml:space="preserve">10.9838771820068</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7971601486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9676418304443</t>
+    <t xml:space="preserve">10.797158241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.96764087677</t>
   </si>
   <si>
     <t xml:space="preserve">11.3735504150391</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0650606155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1137676239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.878342628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9351682662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8377523422241</t>
+    <t xml:space="preserve">11.0650615692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1137685775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8783416748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.935170173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8377513885498</t>
   </si>
   <si>
     <t xml:space="preserve">10.8458690643311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8945798873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0812950134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4222602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4466123580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2923679351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1949510574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9026975631714</t>
+    <t xml:space="preserve">10.8945789337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0812959671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4222583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4466142654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.292368888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1949501037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9026966094971</t>
   </si>
   <si>
     <t xml:space="preserve">11.0407056808472</t>
@@ -998,40 +998,40 @@
     <t xml:space="preserve">11.5034418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6089773178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5359153747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3410787582397</t>
+    <t xml:space="preserve">11.6089763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5359144210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3410768508911</t>
   </si>
   <si>
     <t xml:space="preserve">11.0975332260132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2030687332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8702230453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.642915725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8554515838623</t>
+    <t xml:space="preserve">11.2030696868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8702249526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6429138183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373802185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427101135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85545253753662</t>
   </si>
   <si>
     <t xml:space="preserve">9.70932579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79862403869629</t>
+    <t xml:space="preserve">9.79862594604492</t>
   </si>
   <si>
     <t xml:space="preserve">9.66061687469482</t>
@@ -1040,52 +1040,52 @@
     <t xml:space="preserve">9.72556209564209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46577930450439</t>
+    <t xml:space="preserve">9.46578216552734</t>
   </si>
   <si>
     <t xml:space="preserve">9.49825382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44954299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40895366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36024379730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27906322479248</t>
+    <t xml:space="preserve">9.44954490661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40895462036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36024475097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27906513214111</t>
   </si>
   <si>
     <t xml:space="preserve">9.33588981628418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30341815948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26282596588135</t>
+    <t xml:space="preserve">9.30341911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26282691955566</t>
   </si>
   <si>
     <t xml:space="preserve">9.19788074493408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10858249664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98680782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09234523773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11670112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07611083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22223567962646</t>
+    <t xml:space="preserve">9.10858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98680877685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09234619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07610988616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22223663330078</t>
   </si>
   <si>
     <t xml:space="preserve">9.52260780334473</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">9.61190795898438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62814331054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41707134246826</t>
+    <t xml:space="preserve">9.62814617156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41707324981689</t>
   </si>
   <si>
     <t xml:space="preserve">9.65250015258789</t>
@@ -1106,43 +1106,43 @@
     <t xml:space="preserve">9.88792514801025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8067455291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83109664916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8392162322998</t>
+    <t xml:space="preserve">9.80674457550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83109855651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83921813964844</t>
   </si>
   <si>
     <t xml:space="preserve">9.78238964080811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76615238189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74179840087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70120525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60378932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35212707519531</t>
+    <t xml:space="preserve">9.76615333557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991607666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74179935455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70120811462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60379028320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.352126121521</t>
   </si>
   <si>
     <t xml:space="preserve">9.32777214050293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44142723083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21411800384521</t>
+    <t xml:space="preserve">9.44142627716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21411991119385</t>
   </si>
   <si>
     <t xml:space="preserve">9.10046291351318</t>
@@ -1151,34 +1151,34 @@
     <t xml:space="preserve">9.12481784820557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18164539337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27094554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49013328552246</t>
+    <t xml:space="preserve">9.18164348602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27094650268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49013614654541</t>
   </si>
   <si>
     <t xml:space="preserve">9.53884506225586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6023235321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6835069656372</t>
+    <t xml:space="preserve">10.6023244857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6835060119629</t>
   </si>
   <si>
     <t xml:space="preserve">10.6510334014893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5617332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4805498123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587779998779</t>
+    <t xml:space="preserve">10.5617351531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4805517196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587789535522</t>
   </si>
   <si>
     <t xml:space="preserve">10.228889465332</t>
@@ -1187,43 +1187,43 @@
     <t xml:space="preserve">9.96910762786865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81486225128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84733581542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92939472198486</t>
+    <t xml:space="preserve">9.81486129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84733486175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9293966293335</t>
   </si>
   <si>
     <t xml:space="preserve">10.257640838623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2001962661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95401573181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94580745697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.01966381073</t>
+    <t xml:space="preserve">10.2001981735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95401382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9458065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0196628570557</t>
   </si>
   <si>
     <t xml:space="preserve">10.2248163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4545860290527</t>
+    <t xml:space="preserve">10.4545869827271</t>
   </si>
   <si>
     <t xml:space="preserve">10.3397016525269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1673736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2986707687378</t>
+    <t xml:space="preserve">10.1673746109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2986717224121</t>
   </si>
   <si>
     <t xml:space="preserve">10.3971433639526</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">10.6843585968018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0043973922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7418022155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5940914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7007713317871</t>
+    <t xml:space="preserve">11.0043964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7418003082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.594090461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7007703781128</t>
   </si>
   <si>
     <t xml:space="preserve">10.5776796340942</t>
@@ -1253,49 +1253,49 @@
     <t xml:space="preserve">10.7089767456055</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8730993270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9551610946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9059238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7992448806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9961910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1931381225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1685199737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2669925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2587862014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459995269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6526794433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7183294296265</t>
+    <t xml:space="preserve">10.8730983734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9551582336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9059228897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.799243927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.996190071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931390762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1685190200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2669916152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2587871551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5460004806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6526803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7183284759521</t>
   </si>
   <si>
     <t xml:space="preserve">11.4803504943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4229078292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5952377319336</t>
+    <t xml:space="preserve">11.4229097366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5952367782593</t>
   </si>
   <si>
     <t xml:space="preserve">11.6855049133301</t>
@@ -1307,28 +1307,28 @@
     <t xml:space="preserve">11.9152746200562</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7921838760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.866039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9316873550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7675647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5542058944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.509072303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2834043502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1603126525879</t>
+    <t xml:space="preserve">11.7921829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8660373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9316883087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7675657272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5542049407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5090713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2834062576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1603136062622</t>
   </si>
   <si>
     <t xml:space="preserve">10.8648920059204</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">11.0249128341675</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5981941223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5366477966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4381742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6105031967163</t>
+    <t xml:space="preserve">10.5981950759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5366497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.438175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6105051040649</t>
   </si>
   <si>
     <t xml:space="preserve">10.6679458618164</t>
@@ -1355,34 +1355,34 @@
     <t xml:space="preserve">10.8197593688965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1480045318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2464761734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1192798614502</t>
+    <t xml:space="preserve">11.148003578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2464780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1192817687988</t>
   </si>
   <si>
     <t xml:space="preserve">11.463939666748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9645099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8537311553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5418949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6937103271484</t>
+    <t xml:space="preserve">11.9645128250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8537292480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5418977737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6937093734741</t>
   </si>
   <si>
     <t xml:space="preserve">11.7552556991577</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6198558807373</t>
+    <t xml:space="preserve">11.619854927063</t>
   </si>
   <si>
     <t xml:space="preserve">11.9193773269653</t>
@@ -1391,22 +1391,22 @@
     <t xml:space="preserve">12.354302406311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1737670898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0876026153564</t>
+    <t xml:space="preserve">12.1737651824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0876035690308</t>
   </si>
   <si>
     <t xml:space="preserve">11.8085956573486</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7060194015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8906574249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7429475784302</t>
+    <t xml:space="preserve">11.7060213088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8906555175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7429466247559</t>
   </si>
   <si>
     <t xml:space="preserve">11.9768218994141</t>
@@ -1421,76 +1421,76 @@
     <t xml:space="preserve">11.1726207733154</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2013416290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3490543365479</t>
+    <t xml:space="preserve">11.2013425827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3490524291992</t>
   </si>
   <si>
     <t xml:space="preserve">11.2259607315063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.447527885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4885559082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4147024154663</t>
+    <t xml:space="preserve">11.4475269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4885568618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4147033691406</t>
   </si>
   <si>
     <t xml:space="preserve">11.9398937225342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7019166946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7347412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0670881271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.276346206665</t>
+    <t xml:space="preserve">11.7019157409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7347421646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0670890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2763452529907</t>
   </si>
   <si>
     <t xml:space="preserve">12.3050661087036</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2230043411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2106952667236</t>
+    <t xml:space="preserve">12.2230052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2106962203979</t>
   </si>
   <si>
     <t xml:space="preserve">12.4363622665405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5102186203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5471448898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7276821136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8220510482788</t>
+    <t xml:space="preserve">12.5102195739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5471458435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7276802062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8220520019531</t>
   </si>
   <si>
     <t xml:space="preserve">12.5389394760132</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5881767272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4814968109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7769174575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241487503052</t>
+    <t xml:space="preserve">12.5881757736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.481499671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7769165039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241506576538</t>
   </si>
   <si>
     <t xml:space="preserve">13.211841583252</t>
@@ -1499,85 +1499,85 @@
     <t xml:space="preserve">13.2405614852905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5318813323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2364597320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4539213180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3513450622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3964805603027</t>
+    <t xml:space="preserve">13.5318784713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2364587783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4539222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3513441085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3964786529541</t>
   </si>
   <si>
     <t xml:space="preserve">13.330828666687</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923749923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6385612487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0857934951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283479690552</t>
+    <t xml:space="preserve">13.3923759460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6385593414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0857915878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283470153809</t>
   </si>
   <si>
     <t xml:space="preserve">14.1868600845337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1952037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698358535767</t>
+    <t xml:space="preserve">14.1952028274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.869836807251</t>
   </si>
   <si>
     <t xml:space="preserve">13.5653266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2316160202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0939588546753</t>
+    <t xml:space="preserve">13.2316150665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0939598083496</t>
   </si>
   <si>
     <t xml:space="preserve">13.1648721694946</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2357873916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8061351776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9646472930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6935091018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6517944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0188751220703</t>
+    <t xml:space="preserve">13.2357864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.806134223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9646453857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6935081481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6517934799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.018874168396</t>
   </si>
   <si>
     <t xml:space="preserve">12.981333732605</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0689315795898</t>
+    <t xml:space="preserve">13.0689325332642</t>
   </si>
   <si>
     <t xml:space="preserve">13.0981311798096</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9396209716797</t>
+    <t xml:space="preserve">12.9396190643311</t>
   </si>
   <si>
     <t xml:space="preserve">13.1565313339233</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">12.5475091934204</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5683660507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4390525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4807691574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0856170654297</t>
+    <t xml:space="preserve">12.5683650970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4390535354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.480767250061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0856189727783</t>
   </si>
   <si>
     <t xml:space="preserve">12.5266523361206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5767087936401</t>
+    <t xml:space="preserve">12.5767097473145</t>
   </si>
   <si>
     <t xml:space="preserve">13.2191009521484</t>
@@ -1610,49 +1610,49 @@
     <t xml:space="preserve">13.1440162658691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1106462478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0480737686157</t>
+    <t xml:space="preserve">13.1106452941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.04807472229</t>
   </si>
   <si>
     <t xml:space="preserve">13.2566432952881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2941856384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2900142669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3567581176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7613821029663</t>
+    <t xml:space="preserve">13.2941865921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2900152206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3567571640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988096237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.761381149292</t>
   </si>
   <si>
     <t xml:space="preserve">13.3650999069214</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4276695251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2858438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2274436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2399578094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1315011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1356744766235</t>
+    <t xml:space="preserve">13.4276685714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2858419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2274446487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2399587631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1315031051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1356735229492</t>
   </si>
   <si>
     <t xml:space="preserve">12.9145908355713</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">12.9896755218506</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0397310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2263135910034</t>
+    <t xml:space="preserve">13.0397338867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2263126373291</t>
   </si>
   <si>
     <t xml:space="preserve">12.4015111923218</t>
@@ -1673,91 +1673,91 @@
     <t xml:space="preserve">12.4098529815674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6267652511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5808792114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809940338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4640817642212</t>
+    <t xml:space="preserve">12.626766204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5808801651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4640798568726</t>
   </si>
   <si>
     <t xml:space="preserve">12.1595706939697</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0636291503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428861618042</t>
+    <t xml:space="preserve">12.0636301040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428852081299</t>
   </si>
   <si>
     <t xml:space="preserve">12.2471704483032</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2221412658691</t>
+    <t xml:space="preserve">12.2221422195435</t>
   </si>
   <si>
     <t xml:space="preserve">12.3514537811279</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7435646057129</t>
+    <t xml:space="preserve">12.7435636520386</t>
   </si>
   <si>
     <t xml:space="preserve">12.5349950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5391664505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8383750915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.055287361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260877609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9468307495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922651290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4963216781616</t>
+    <t xml:space="preserve">12.5391645431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8383741378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0552864074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260848999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9468297958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5922632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4963226318359</t>
   </si>
   <si>
     <t xml:space="preserve">11.3086099624634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2001543045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2710666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5380363464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5255222320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5296926498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5964365005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7507762908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7591190338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6882047653198</t>
+    <t xml:space="preserve">11.2001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2710657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5380344390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.525520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.529691696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5964345932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7507753372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7591180801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6882057189941</t>
   </si>
   <si>
     <t xml:space="preserve">11.6047773361206</t>
@@ -1766,37 +1766,37 @@
     <t xml:space="preserve">11.7215766906738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3681392669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2721977233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2138004302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0386009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3639688491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4223680496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5975666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2596836090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2012853622437</t>
+    <t xml:space="preserve">12.3681402206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.272198677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2137994766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0386018753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3639678955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4223690032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5975675582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2596845626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2012844085693</t>
   </si>
   <si>
     <t xml:space="preserve">12.6100797653198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2555131912231</t>
+    <t xml:space="preserve">12.2555122375488</t>
   </si>
   <si>
     <t xml:space="preserve">11.7382621765137</t>
@@ -1805,91 +1805,91 @@
     <t xml:space="preserve">11.7466049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7966632843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9259729385376</t>
+    <t xml:space="preserve">11.7966604232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9259748458862</t>
   </si>
   <si>
     <t xml:space="preserve">11.8508892059326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6965475082397</t>
+    <t xml:space="preserve">11.6965484619141</t>
   </si>
   <si>
     <t xml:space="preserve">11.6840333938599</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4212369918823</t>
+    <t xml:space="preserve">11.4212379455566</t>
   </si>
   <si>
     <t xml:space="preserve">10.9707279205322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8581008911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8205595016479</t>
+    <t xml:space="preserve">10.858099937439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8205585479736</t>
   </si>
   <si>
     <t xml:space="preserve">10.7246160507202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7579851150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6411895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.958212852478</t>
+    <t xml:space="preserve">10.7579879760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.641188621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9582138061523</t>
   </si>
   <si>
     <t xml:space="preserve">11.137583732605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.20432472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2084970474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1959819793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0916986465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0541572570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7997016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7121028900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3867340087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2866220474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4117622375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3116493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2062559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91958808898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1092948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96596050262451</t>
+    <t xml:space="preserve">11.2043256759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1959829330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0916996002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0541563034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7997026443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.712103843689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3867349624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.28662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4117641448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3116502761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2062568664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91958713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1092958450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9659595489502</t>
   </si>
   <si>
     <t xml:space="preserve">9.80154895782471</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">10.0797853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89007759094238</t>
+    <t xml:space="preserve">9.89007949829102</t>
   </si>
   <si>
     <t xml:space="preserve">9.19026851654053</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">9.13124752044678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95840549468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26615047454834</t>
+    <t xml:space="preserve">8.95840454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26615142822266</t>
   </si>
   <si>
     <t xml:space="preserve">9.14389610290527</t>
@@ -1925,13 +1925,13 @@
     <t xml:space="preserve">8.69702816009521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43143844604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54947853088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64643955230713</t>
+    <t xml:space="preserve">8.43143749237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54947948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64644050598145</t>
   </si>
   <si>
     <t xml:space="preserve">8.62536144256592</t>
@@ -1943,106 +1943,106 @@
     <t xml:space="preserve">8.13128089904785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13296699523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78221654891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79570817947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74174737930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02504253387451</t>
+    <t xml:space="preserve">8.13296508789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78221702575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79570960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74174690246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02504348754883</t>
   </si>
   <si>
     <t xml:space="preserve">8.01155376434326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31339836120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44830131530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49467468261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7476167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76869487762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6885986328125</t>
+    <t xml:space="preserve">8.31339740753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44830226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49467372894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74761867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76869773864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68859767913818</t>
   </si>
   <si>
     <t xml:space="preserve">8.61271476745605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67173480987549</t>
+    <t xml:space="preserve">8.67173671722412</t>
   </si>
   <si>
     <t xml:space="preserve">8.98369789123535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91203117370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77291202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85301113128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99634552001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30409145355225</t>
+    <t xml:space="preserve">8.91203022003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77291107177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8530101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99634456634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30409240722656</t>
   </si>
   <si>
     <t xml:space="preserve">9.05536556243896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17340469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24507141113281</t>
+    <t xml:space="preserve">9.17340564727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24507331848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.23242473602295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41791725158691</t>
+    <t xml:space="preserve">9.41791915893555</t>
   </si>
   <si>
     <t xml:space="preserve">9.47693729400635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24085807800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03007125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21977996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43899631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70880126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72144794464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94909858703613</t>
+    <t xml:space="preserve">9.24085712432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03007221221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2197790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43899536132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70880222320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72144889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94909763336182</t>
   </si>
   <si>
     <t xml:space="preserve">10.0081176757812</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">10.0713539123535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1177272796631</t>
+    <t xml:space="preserve">10.1177253723145</t>
   </si>
   <si>
     <t xml:space="preserve">10.2863550186157</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1556692123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1388053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0334129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0291976928711</t>
+    <t xml:space="preserve">10.155668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.13880443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.033411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0291967391968</t>
   </si>
   <si>
     <t xml:space="preserve">9.83948993682861</t>
@@ -2075,79 +2075,79 @@
     <t xml:space="preserve">9.90272521972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87321472167969</t>
+    <t xml:space="preserve">9.873215675354</t>
   </si>
   <si>
     <t xml:space="preserve">9.9996862411499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75517463684082</t>
+    <t xml:space="preserve">9.75517559051514</t>
   </si>
   <si>
     <t xml:space="preserve">9.60762596130371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93223476409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3791007995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4339056015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3833160400391</t>
+    <t xml:space="preserve">9.9322338104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3791017532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4339065551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3833150863647</t>
   </si>
   <si>
     <t xml:space="preserve">10.4043951034546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5266513824463</t>
+    <t xml:space="preserve">10.5266523361206</t>
   </si>
   <si>
     <t xml:space="preserve">10.5814561843872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.868124961853</t>
+    <t xml:space="preserve">10.8681240081787</t>
   </si>
   <si>
     <t xml:space="preserve">10.7585163116455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3622388839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.551944732666</t>
+    <t xml:space="preserve">10.615180015564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3622369766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5519456863403</t>
   </si>
   <si>
     <t xml:space="preserve">10.834400177002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7247896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6952810287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971408843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8133211135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807716369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5898885726929</t>
+    <t xml:space="preserve">10.7247915267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6952800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971399307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8133201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5898876190186</t>
   </si>
   <si>
     <t xml:space="preserve">10.4760618209839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5477294921875</t>
+    <t xml:space="preserve">10.5477304458618</t>
   </si>
   <si>
     <t xml:space="preserve">10.6025342941284</t>
@@ -2156,16 +2156,16 @@
     <t xml:space="preserve">10.9608697891235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0999879837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9945974349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.378228187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.133713722229</t>
+    <t xml:space="preserve">11.0999898910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9945964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782272338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1337146759033</t>
   </si>
   <si>
     <t xml:space="preserve">10.8976354598999</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">10.4676303863525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4381198883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2694911956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261587142944</t>
+    <t xml:space="preserve">10.4381217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2694940567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1261577606201</t>
   </si>
   <si>
     <t xml:space="preserve">9.95331478118896</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">9.92380428314209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84792041778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79732990264893</t>
+    <t xml:space="preserve">9.84792137145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79733085632324</t>
   </si>
   <si>
     <t xml:space="preserve">10.0587072372437</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">10.5055732727051</t>
   </si>
   <si>
-    <t xml:space="preserve">10.560378074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690011978149</t>
+    <t xml:space="preserve">10.5603761672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690021514893</t>
   </si>
   <si>
     <t xml:space="preserve">10.7285490036011</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">10.3922052383423</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95236968994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83163166046143</t>
+    <t xml:space="preserve">9.95236778259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83162879943848</t>
   </si>
   <si>
     <t xml:space="preserve">9.65914440155029</t>
@@ -2234,61 +2234,61 @@
     <t xml:space="preserve">9.50390911102295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47372341156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09856986999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35729694366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5815258026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2667407989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27536487579346</t>
+    <t xml:space="preserve">9.47372245788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09857082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35729598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58152675628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26674175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27536678314209</t>
   </si>
   <si>
     <t xml:space="preserve">9.25811767578125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55565452575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69795513153076</t>
+    <t xml:space="preserve">9.55565547943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69795322418213</t>
   </si>
   <si>
     <t xml:space="preserve">9.43060302734375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31417560577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36160945892334</t>
+    <t xml:space="preserve">9.31417465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36160850524902</t>
   </si>
   <si>
     <t xml:space="preserve">9.54271602630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80144500732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90493679046631</t>
+    <t xml:space="preserve">9.8014440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90493583679199</t>
   </si>
   <si>
     <t xml:space="preserve">9.7540111541748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64620971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93512153625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89199924468994</t>
+    <t xml:space="preserve">9.64620876312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93512058258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89200019836426</t>
   </si>
   <si>
     <t xml:space="preserve">9.92649745941162</t>
@@ -2297,13 +2297,13 @@
     <t xml:space="preserve">10.1765985488892</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93943214416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96099281311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0644836425781</t>
+    <t xml:space="preserve">9.93943309783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96099376678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0644845962524</t>
   </si>
   <si>
     <t xml:space="preserve">10.0601720809937</t>
@@ -2315,28 +2315,28 @@
     <t xml:space="preserve">10.1852235794067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3404588699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5301942825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4827604293823</t>
+    <t xml:space="preserve">10.3404607772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5301923751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4827585220337</t>
   </si>
   <si>
     <t xml:space="preserve">10.3663320541382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3620195388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96530628204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79281997680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61602306365967</t>
+    <t xml:space="preserve">10.3620204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96530532836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79282093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61602401733398</t>
   </si>
   <si>
     <t xml:space="preserve">9.74538707733154</t>
@@ -2345,106 +2345,106 @@
     <t xml:space="preserve">9.81869316101074</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1119194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0256748199463</t>
+    <t xml:space="preserve">10.1119174957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0256757736206</t>
   </si>
   <si>
     <t xml:space="preserve">9.77126026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41766548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18912315368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02957439422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81828212738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74497509002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90452289581299</t>
+    <t xml:space="preserve">9.4176664352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18912220001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02957630157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81828117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74497699737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90452575683594</t>
   </si>
   <si>
     <t xml:space="preserve">8.72772884368896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44485187530518</t>
+    <t xml:space="preserve">8.44485282897949</t>
   </si>
   <si>
     <t xml:space="preserve">8.58456516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1378288269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17922592163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48969745635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.317214012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41725635528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52764415740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39655494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50867176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56559181213379</t>
+    <t xml:space="preserve">8.13782978057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17922687530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48969841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31721496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41725540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52764511108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39655590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5086727142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56559085845947</t>
   </si>
   <si>
     <t xml:space="preserve">8.66304588317871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60698890686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55006694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50349617004395</t>
+    <t xml:space="preserve">8.60698795318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55006885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50349521636963</t>
   </si>
   <si>
     <t xml:space="preserve">8.28789043426514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43967819213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65873336791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6156120300293</t>
+    <t xml:space="preserve">8.43967723846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65873432159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61561107635498</t>
   </si>
   <si>
     <t xml:space="preserve">8.87002849578857</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97351741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89589881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76653575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82690715789795</t>
+    <t xml:space="preserve">8.97351837158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89589977264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76653671264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82690620422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.07269668579102</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">8.90021133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77084827423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66735744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64579582214355</t>
+    <t xml:space="preserve">8.77084922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6673583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64579677581787</t>
   </si>
   <si>
     <t xml:space="preserve">8.40518093109131</t>
@@ -2468,25 +2468,25 @@
     <t xml:space="preserve">8.28444194793701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27926635742188</t>
+    <t xml:space="preserve">8.27926731109619</t>
   </si>
   <si>
     <t xml:space="preserve">8.14990329742432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4431266784668</t>
+    <t xml:space="preserve">8.44312763214111</t>
   </si>
   <si>
     <t xml:space="preserve">8.39483261108398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23787021636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8946270942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97396945953369</t>
+    <t xml:space="preserve">8.23787212371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89462661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97397041320801</t>
   </si>
   <si>
     <t xml:space="preserve">7.95844507217407</t>
@@ -2495,91 +2495,91 @@
     <t xml:space="preserve">8.05158805847168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91704940795898</t>
+    <t xml:space="preserve">7.91704893112183</t>
   </si>
   <si>
     <t xml:space="preserve">7.95327043533325</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02916526794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30858993530273</t>
+    <t xml:space="preserve">8.0291633605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30858898162842</t>
   </si>
   <si>
     <t xml:space="preserve">8.08953380584717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1964750289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1637020111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06366157531738</t>
+    <t xml:space="preserve">8.19647407531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16370105743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0636625289917</t>
   </si>
   <si>
     <t xml:space="preserve">8.02054023742676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07918548583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09988403320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12058258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03261375427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11023235321045</t>
+    <t xml:space="preserve">8.07918453216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09988307952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12058067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03261566162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11023330688477</t>
   </si>
   <si>
     <t xml:space="preserve">8.23442077636719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31376457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07401084899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80838346481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47417449951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62078666687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77516174316406</t>
+    <t xml:space="preserve">8.31376361846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07401180267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80838441848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47417545318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62078762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77515983581543</t>
   </si>
   <si>
     <t xml:space="preserve">8.62854766845703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6414852142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68460750579834</t>
+    <t xml:space="preserve">8.64148426055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68460559844971</t>
   </si>
   <si>
     <t xml:space="preserve">8.54489326477051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54316806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.539719581604</t>
+    <t xml:space="preserve">8.54316902160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53971862792969</t>
   </si>
   <si>
     <t xml:space="preserve">8.46631050109863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39115619659424</t>
+    <t xml:space="preserve">8.39115715026855</t>
   </si>
   <si>
     <t xml:space="preserve">8.52923202514648</t>
@@ -2594,37 +2594,37 @@
     <t xml:space="preserve">8.59390068054199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59914493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52573680877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53971862792969</t>
+    <t xml:space="preserve">8.59914302825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52573585510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53971672058105</t>
   </si>
   <si>
     <t xml:space="preserve">8.43485164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28279304504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22511672973633</t>
+    <t xml:space="preserve">8.28279209136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22511577606201</t>
   </si>
   <si>
     <t xml:space="preserve">8.39989566802979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47679710388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65856742858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69177627563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71799373626709</t>
+    <t xml:space="preserve">8.47679805755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65856838226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6917781829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71799278259277</t>
   </si>
   <si>
     <t xml:space="preserve">8.74770641326904</t>
@@ -2633,13 +2633,13 @@
     <t xml:space="preserve">8.99676609039307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90063858032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9224853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86568450927734</t>
+    <t xml:space="preserve">8.90063762664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92248630523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86568355560303</t>
   </si>
   <si>
     <t xml:space="preserve">8.84820461273193</t>
@@ -2648,46 +2648,46 @@
     <t xml:space="preserve">8.8350944519043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88753128051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744132995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81761741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78266048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82635593414307</t>
+    <t xml:space="preserve">8.88753032684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744037628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81761837005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7826623916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82635688781738</t>
   </si>
   <si>
     <t xml:space="preserve">8.94433307647705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18465423583984</t>
+    <t xml:space="preserve">9.18465518951416</t>
   </si>
   <si>
     <t xml:space="preserve">9.17154598236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15406894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07541847229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07104778289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90937614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85694313049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91374778747559</t>
+    <t xml:space="preserve">9.15406799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07541656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07104682922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9093770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85694408416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91374492645264</t>
   </si>
   <si>
     <t xml:space="preserve">8.99239730834961</t>
@@ -2696,19 +2696,19 @@
     <t xml:space="preserve">8.9661808013916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93122482299805</t>
+    <t xml:space="preserve">8.93122673034668</t>
   </si>
   <si>
     <t xml:space="preserve">8.87442016601562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83072471618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4960241317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63235282897949</t>
+    <t xml:space="preserve">8.83072566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49602317810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63235187530518</t>
   </si>
   <si>
     <t xml:space="preserve">8.73722076416016</t>
@@ -2720,13 +2720,13 @@
     <t xml:space="preserve">8.15170764923096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05732822418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22686195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33872127532959</t>
+    <t xml:space="preserve">8.05732727050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22686290740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33872222900391</t>
   </si>
   <si>
     <t xml:space="preserve">8.36319160461426</t>
@@ -2735,73 +2735,73 @@
     <t xml:space="preserve">8.21113300323486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26182174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32998275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44184398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41562557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22861194610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26706218719482</t>
+    <t xml:space="preserve">8.26182079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32998371124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4418420791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41562461853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22861003875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26706314086914</t>
   </si>
   <si>
     <t xml:space="preserve">8.57292747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19190788269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77768039703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67281293869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69028997421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35471534729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13798856735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08380699157715</t>
+    <t xml:space="preserve">8.1919059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77768087387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67281246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6902904510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3547158241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13798809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08380651473999</t>
   </si>
   <si>
     <t xml:space="preserve">7.11701488494873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93349599838257</t>
+    <t xml:space="preserve">6.93349647521973</t>
   </si>
   <si>
     <t xml:space="preserve">6.80590772628784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41440153121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04238414764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91129922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80992841720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08983612060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1938304901123</t>
+    <t xml:space="preserve">6.41440200805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04238367080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91130018234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80992698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08983659744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19383001327515</t>
   </si>
   <si>
     <t xml:space="preserve">3.92204809188843</t>
@@ -2813,16 +2813,16 @@
     <t xml:space="preserve">4.15974855422974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38521385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56174039840698</t>
+    <t xml:space="preserve">4.38521337509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5617413520813</t>
   </si>
   <si>
     <t xml:space="preserve">4.49532413482666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67534732818604</t>
+    <t xml:space="preserve">4.67534780502319</t>
   </si>
   <si>
     <t xml:space="preserve">4.70331192016602</t>
@@ -2831,25 +2831,25 @@
     <t xml:space="preserve">4.96373319625854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86585664749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83964014053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87634372711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79244947433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01267147064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04762744903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17346906661987</t>
+    <t xml:space="preserve">4.86585712432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83964061737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87634420394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79244995117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01267194747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0476279258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17346858978271</t>
   </si>
   <si>
     <t xml:space="preserve">5.41116857528687</t>
@@ -2858,25 +2858,25 @@
     <t xml:space="preserve">5.28707504272461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24862289428711</t>
+    <t xml:space="preserve">5.24862337112427</t>
   </si>
   <si>
     <t xml:space="preserve">5.17871189117432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0371413230896</t>
+    <t xml:space="preserve">4.94625520706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03714084625244</t>
   </si>
   <si>
     <t xml:space="preserve">5.06860113143921</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0388879776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78720712661743</t>
+    <t xml:space="preserve">5.03888845443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78720664978027</t>
   </si>
   <si>
     <t xml:space="preserve">4.93576860427856</t>
@@ -2888,34 +2888,34 @@
     <t xml:space="preserve">5.17172145843506</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16298151016235</t>
+    <t xml:space="preserve">5.16298198699951</t>
   </si>
   <si>
     <t xml:space="preserve">5.26260614395142</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57021713256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58769559860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27833604812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53176546096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31853532791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39893388748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44437742233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34650039672852</t>
+    <t xml:space="preserve">5.57021760940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58769607543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27833652496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53176593780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31853580474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39893436431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44437694549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34649991989136</t>
   </si>
   <si>
     <t xml:space="preserve">5.25211906433105</t>
@@ -2936,13 +2936,13 @@
     <t xml:space="preserve">5.11404418945312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86236143112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84837865829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89382171630859</t>
+    <t xml:space="preserve">4.86236190795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84837818145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89382123947144</t>
   </si>
   <si>
     <t xml:space="preserve">4.97072458267212</t>
@@ -2951,22 +2951,22 @@
     <t xml:space="preserve">4.97771596908569</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10006141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88683080673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10705280303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32028293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58594751358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64362525939941</t>
+    <t xml:space="preserve">5.10006093978882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88683032989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10705232620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32028341293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58594799041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64362478256226</t>
   </si>
   <si>
     <t xml:space="preserve">5.93900203704834</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">6.02639150619507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91977596282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83588218688965</t>
+    <t xml:space="preserve">5.91977691650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83588266372681</t>
   </si>
   <si>
     <t xml:space="preserve">5.46535015106201</t>
@@ -2993,46 +2993,46 @@
     <t xml:space="preserve">5.40942144393921</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40767288208008</t>
+    <t xml:space="preserve">5.40767335891724</t>
   </si>
   <si>
     <t xml:space="preserve">5.31503915786743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42165470123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08607816696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15249443054199</t>
+    <t xml:space="preserve">5.42165422439575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08607864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15249490737915</t>
   </si>
   <si>
     <t xml:space="preserve">5.01966238021851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07559204101562</t>
+    <t xml:space="preserve">5.07559156417847</t>
   </si>
   <si>
     <t xml:space="preserve">4.96198606491089</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11579132080078</t>
+    <t xml:space="preserve">5.11579084396362</t>
   </si>
   <si>
     <t xml:space="preserve">5.02141046524048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19793748855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10880041122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02665376663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84663105010986</t>
+    <t xml:space="preserve">5.19793701171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10880088806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02665424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84663200378418</t>
   </si>
   <si>
     <t xml:space="preserve">4.87284898757935</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">4.93227338790894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01616764068604</t>
+    <t xml:space="preserve">5.01616716384888</t>
   </si>
   <si>
     <t xml:space="preserve">5.02490615844727</t>
@@ -3050,94 +3050,94 @@
     <t xml:space="preserve">5.15948581695557</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04413175582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95848989486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92178630828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82915353775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73477268218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50406360626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42016983032227</t>
+    <t xml:space="preserve">5.04413223266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9584903717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92178678512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82915306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73477220535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50406408309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42016935348511</t>
   </si>
   <si>
     <t xml:space="preserve">4.31005907058716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51454973220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52678537368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72952890396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44289112091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52328968048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67709589004517</t>
+    <t xml:space="preserve">4.51455020904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52678489685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72952938079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44289064407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52329015731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67709541320801</t>
   </si>
   <si>
     <t xml:space="preserve">4.65437412261963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55649757385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50930643081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46910810470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42541265487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32753610610962</t>
+    <t xml:space="preserve">4.5564980506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50930690765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46910762786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42541360855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32753658294678</t>
   </si>
   <si>
     <t xml:space="preserve">4.30831003189087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45337867736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40269184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35812330245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27859830856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30481576919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29957246780396</t>
+    <t xml:space="preserve">4.45337772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40269136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3581223487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27859878540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3048152923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29957151412964</t>
   </si>
   <si>
     <t xml:space="preserve">4.21742582321167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17722606658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20606470108032</t>
+    <t xml:space="preserve">4.17722702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20606517791748</t>
   </si>
   <si>
     <t xml:space="preserve">4.2182993888855</t>
@@ -3149,82 +3149,82 @@
     <t xml:space="preserve">4.04788970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05313301086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03390836715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98496913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95088672637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00769090652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17460441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17810010910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06274652481079</t>
+    <t xml:space="preserve">4.05313348770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03390789031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98496890068054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95088696479797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0076904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17460489273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1781005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06274557113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.79620718955994</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75426006317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72280049324036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64677095413208</t>
+    <t xml:space="preserve">3.75426077842712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72280025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6467707157135</t>
   </si>
   <si>
     <t xml:space="preserve">3.58210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72979140281677</t>
+    <t xml:space="preserve">3.72979092597961</t>
   </si>
   <si>
     <t xml:space="preserve">3.61006712913513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72367405891418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62841939926147</t>
+    <t xml:space="preserve">3.72367358207703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6284191608429</t>
   </si>
   <si>
     <t xml:space="preserve">3.71231341362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74901700019836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8521363735199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77523398399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8905885219574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8634979724884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79882907867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70444798469543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80319833755493</t>
+    <t xml:space="preserve">3.74901676177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85213613510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77523350715637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89058828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86349725723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79882860183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70444822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80319857597351</t>
   </si>
   <si>
     <t xml:space="preserve">3.6135630607605</t>
@@ -3239,16 +3239,16 @@
     <t xml:space="preserve">3.91243577003479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81543326377869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83553242683411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87048888206482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76824259757996</t>
+    <t xml:space="preserve">3.81543302536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83553266525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87048840522766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7682421207428</t>
   </si>
   <si>
     <t xml:space="preserve">3.66337490081787</t>
@@ -3257,28 +3257,28 @@
     <t xml:space="preserve">3.55326414108276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34527659416199</t>
+    <t xml:space="preserve">3.34527683258057</t>
   </si>
   <si>
     <t xml:space="preserve">3.55850744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74464726448059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8329119682312</t>
+    <t xml:space="preserve">3.74464750289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83291101455688</t>
   </si>
   <si>
     <t xml:space="preserve">4.42191791534424</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3991961479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81866693496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88857841491699</t>
+    <t xml:space="preserve">4.39919567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81866645812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88857793807983</t>
   </si>
   <si>
     <t xml:space="preserve">4.89906454086304</t>
@@ -3287,49 +3287,49 @@
     <t xml:space="preserve">4.93052530288696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00393295288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39194297790527</t>
+    <t xml:space="preserve">5.00393199920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39194250106812</t>
   </si>
   <si>
     <t xml:space="preserve">5.49506282806396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55973100662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47583723068237</t>
+    <t xml:space="preserve">5.55973148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47583675384521</t>
   </si>
   <si>
     <t xml:space="preserve">5.46185445785522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68633842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04515981674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98682880401611</t>
+    <t xml:space="preserve">5.68633890151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04515933990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98682928085327</t>
   </si>
   <si>
     <t xml:space="preserve">5.90551948547363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92496395111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73229598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82067584991455</t>
+    <t xml:space="preserve">5.92496299743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73229551315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82067537307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.84895706176758</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88430881500244</t>
+    <t xml:space="preserve">5.88430833816528</t>
   </si>
   <si>
     <t xml:space="preserve">6.12470054626465</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">6.01334190368652</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02218151092529</t>
+    <t xml:space="preserve">6.02218103408813</t>
   </si>
   <si>
     <t xml:space="preserve">6.02571582794189</t>
@@ -3359,16 +3359,16 @@
     <t xml:space="preserve">5.97445631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03278636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94440650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78885889053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77295112609863</t>
+    <t xml:space="preserve">6.03278684616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94440603256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78885936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77295064926147</t>
   </si>
   <si>
     <t xml:space="preserve">5.93380117416382</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">5.89137887954712</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8118371963501</t>
+    <t xml:space="preserve">5.81183767318726</t>
   </si>
   <si>
     <t xml:space="preserve">5.8542594909668</t>
@@ -3392,22 +3392,22 @@
     <t xml:space="preserve">6.30322790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29438924789429</t>
+    <t xml:space="preserve">6.29438972473145</t>
   </si>
   <si>
     <t xml:space="preserve">6.25903749465942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14591264724731</t>
+    <t xml:space="preserve">6.14591217041016</t>
   </si>
   <si>
     <t xml:space="preserve">6.32267093658447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23429155349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28908729553223</t>
+    <t xml:space="preserve">6.23429107666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28908681869507</t>
   </si>
   <si>
     <t xml:space="preserve">5.96561765670776</t>
@@ -3416,19 +3416,19 @@
     <t xml:space="preserve">5.94970941543579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75881004333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55907154083252</t>
+    <t xml:space="preserve">5.7588095664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55907201766968</t>
   </si>
   <si>
     <t xml:space="preserve">5.46008729934692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53255844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62800788879395</t>
+    <t xml:space="preserve">5.53255796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6280083656311</t>
   </si>
   <si>
     <t xml:space="preserve">5.79946422576904</t>
@@ -3440,22 +3440,22 @@
     <t xml:space="preserve">5.67396545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90905427932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00273704528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12293386459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25196743011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14060926437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21484804153442</t>
+    <t xml:space="preserve">5.90905523300171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00273752212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12293338775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2519679069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14060974121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21484851837158</t>
   </si>
   <si>
     <t xml:space="preserve">6.2219181060791</t>
@@ -3470,28 +3470,28 @@
     <t xml:space="preserve">6.66558408737183</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51533889770508</t>
+    <t xml:space="preserve">6.51533937454224</t>
   </si>
   <si>
     <t xml:space="preserve">6.36332559585571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39514255523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63553380966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5665979385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79461812973022</t>
+    <t xml:space="preserve">6.39514207839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63553476333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56659841537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79461860656738</t>
   </si>
   <si>
     <t xml:space="preserve">7.72790622711182</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64129447937012</t>
+    <t xml:space="preserve">7.6412935256958</t>
   </si>
   <si>
     <t xml:space="preserve">7.81805276870728</t>
@@ -3500,10 +3500,10 @@
     <t xml:space="preserve">7.94531869888306</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92764186859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20868968963623</t>
+    <t xml:space="preserve">7.92764329910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20869064331055</t>
   </si>
   <si>
     <t xml:space="preserve">8.46322345733643</t>
@@ -3512,58 +3512,58 @@
     <t xml:space="preserve">8.58695411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44024467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55160427093506</t>
+    <t xml:space="preserve">8.4402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55160331726074</t>
   </si>
   <si>
     <t xml:space="preserve">8.75841045379639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76371383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54629993438721</t>
+    <t xml:space="preserve">8.76371479034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54630088806152</t>
   </si>
   <si>
     <t xml:space="preserve">8.57104682922363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53746318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43140506744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24050617218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17157077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03369998931885</t>
+    <t xml:space="preserve">8.53746223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4314079284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24050712585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17157173156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03369903564453</t>
   </si>
   <si>
     <t xml:space="preserve">8.33242225646973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10970401763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40489292144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45084953308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53569507598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49503993988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099655151367</t>
+    <t xml:space="preserve">8.10970497131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40489387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45085048675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53569602966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49504089355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54099559783936</t>
   </si>
   <si>
     <t xml:space="preserve">8.54983425140381</t>
@@ -3572,43 +3572,43 @@
     <t xml:space="preserve">8.41549873352051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19985198974609</t>
+    <t xml:space="preserve">8.19985103607178</t>
   </si>
   <si>
     <t xml:space="preserve">8.11324024200439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05490875244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04430294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43317317962646</t>
+    <t xml:space="preserve">8.05490970611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04430484771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43317222595215</t>
   </si>
   <si>
     <t xml:space="preserve">8.12561321258545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10086631774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15919971466064</t>
+    <t xml:space="preserve">8.10086727142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15919780731201</t>
   </si>
   <si>
     <t xml:space="preserve">7.79684066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87638235092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86931371688843</t>
+    <t xml:space="preserve">7.87638282775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86931324005127</t>
   </si>
   <si>
     <t xml:space="preserve">7.84810161590576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11854362487793</t>
+    <t xml:space="preserve">8.11854267120361</t>
   </si>
   <si>
     <t xml:space="preserve">7.94885492324829</t>
@@ -3620,19 +3620,19 @@
     <t xml:space="preserve">7.65896987915039</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91703748703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98774147033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05314350128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41373157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56751251220703</t>
+    <t xml:space="preserve">7.91703796386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9877405166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05314254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41372966766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56751155853271</t>
   </si>
   <si>
     <t xml:space="preserve">8.65412330627441</t>
@@ -3641,7 +3641,7 @@
     <t xml:space="preserve">8.44908237457275</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73366451263428</t>
+    <t xml:space="preserve">8.73366355895996</t>
   </si>
   <si>
     <t xml:space="preserve">8.64174938201904</t>
@@ -3650,16 +3650,16 @@
     <t xml:space="preserve">8.66119289398193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56927871704102</t>
+    <t xml:space="preserve">8.5692777633667</t>
   </si>
   <si>
     <t xml:space="preserve">8.33418941497803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28292751312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36070251464844</t>
+    <t xml:space="preserve">8.28292846679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36070346832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.39120292663574</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">8.22614288330078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25125980377197</t>
+    <t xml:space="preserve">8.25126075744629</t>
   </si>
   <si>
     <t xml:space="preserve">8.48270511627197</t>
@@ -3683,16 +3683,16 @@
     <t xml:space="preserve">8.59573554992676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69441413879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76797485351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64776611328125</t>
+    <t xml:space="preserve">8.69441318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76797389984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63700103759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64776706695557</t>
   </si>
   <si>
     <t xml:space="preserve">8.61547088623047</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">8.55447101593018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56702899932861</t>
+    <t xml:space="preserve">8.5670280456543</t>
   </si>
   <si>
     <t xml:space="preserve">8.74106216430664</t>
@@ -3716,7 +3716,7 @@
     <t xml:space="preserve">8.38043880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24049472808838</t>
+    <t xml:space="preserve">8.2404956817627</t>
   </si>
   <si>
     <t xml:space="preserve">8.27099609375</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">8.3535270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40914535522461</t>
+    <t xml:space="preserve">8.40914344787598</t>
   </si>
   <si>
     <t xml:space="preserve">8.46117401123047</t>
@@ -3734,40 +3734,40 @@
     <t xml:space="preserve">8.50961780548096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22793769836426</t>
+    <t xml:space="preserve">8.22793674468994</t>
   </si>
   <si>
     <t xml:space="preserve">8.22972965240479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24587726593018</t>
+    <t xml:space="preserve">8.24587821960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.40376281738281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39838123321533</t>
+    <t xml:space="preserve">8.39838027954102</t>
   </si>
   <si>
     <t xml:space="preserve">8.45758724212646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05928707122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93907928466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82963752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0754337310791</t>
+    <t xml:space="preserve">8.05928802490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908071517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8296365737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07543468475342</t>
   </si>
   <si>
     <t xml:space="preserve">8.04672813415527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87449073791504</t>
+    <t xml:space="preserve">7.87449026107788</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263999938965</t>
@@ -3779,55 +3779,55 @@
     <t xml:space="preserve">7.64842844009399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38289546966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51027965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65739965438843</t>
+    <t xml:space="preserve">7.38289594650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5102801322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65739870071411</t>
   </si>
   <si>
     <t xml:space="preserve">7.57128143310547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65919399261475</t>
+    <t xml:space="preserve">7.65919351577759</t>
   </si>
   <si>
     <t xml:space="preserve">7.87987327575684</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80990171432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87628412246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87269592285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69328165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75787162780762</t>
+    <t xml:space="preserve">7.80990123748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8762845993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87269639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69328117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75787115097046</t>
   </si>
   <si>
     <t xml:space="preserve">7.80810737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70584058761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67892932891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88884305953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84578418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89243173599243</t>
+    <t xml:space="preserve">7.70584011077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67892980575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88884210586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84578514099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89243078231812</t>
   </si>
   <si>
     <t xml:space="preserve">7.90319776535034</t>
@@ -3836,28 +3836,28 @@
     <t xml:space="preserve">7.69866418838501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73275327682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37392520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31471824645996</t>
+    <t xml:space="preserve">7.73275375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37392473220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3147177696228</t>
   </si>
   <si>
     <t xml:space="preserve">7.45466184616089</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47798538208008</t>
+    <t xml:space="preserve">7.47798490524292</t>
   </si>
   <si>
     <t xml:space="preserve">7.54436826705933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61434030532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73634147644043</t>
+    <t xml:space="preserve">7.61433982849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73634052276611</t>
   </si>
   <si>
     <t xml:space="preserve">7.65201711654663</t>
@@ -3866,64 +3866,64 @@
     <t xml:space="preserve">7.74172449111938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61792755126953</t>
+    <t xml:space="preserve">7.61792707443237</t>
   </si>
   <si>
     <t xml:space="preserve">7.60357570648193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53539705276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4797797203064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44748544692993</t>
+    <t xml:space="preserve">7.53539752960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47977924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44748449325562</t>
   </si>
   <si>
     <t xml:space="preserve">7.70404767990112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.650221824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77760648727417</t>
+    <t xml:space="preserve">7.65022277832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77760696411133</t>
   </si>
   <si>
     <t xml:space="preserve">7.52822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24833536148071</t>
+    <t xml:space="preserve">7.24833488464355</t>
   </si>
   <si>
     <t xml:space="preserve">7.24654102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62331056594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6843113899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72378206253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98393249511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625663757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01084613800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15617179870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14540576934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37146854400635</t>
+    <t xml:space="preserve">7.62331104278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68431234359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72378301620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9839334487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625616073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01084518432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15617084503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14540672302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37146759033203</t>
   </si>
   <si>
     <t xml:space="preserve">8.09517097473145</t>
@@ -3932,16 +3932,16 @@
     <t xml:space="preserve">8.22255420684814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59932327270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80385494232178</t>
+    <t xml:space="preserve">8.59932422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80385589599609</t>
   </si>
   <si>
     <t xml:space="preserve">8.65673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54370403289795</t>
+    <t xml:space="preserve">8.54370498657227</t>
   </si>
   <si>
     <t xml:space="preserve">8.59035301208496</t>
@@ -3950,28 +3950,28 @@
     <t xml:space="preserve">8.85947418212891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80744552612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91868019104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07387447357178</t>
+    <t xml:space="preserve">8.80744361877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91868209838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07387351989746</t>
   </si>
   <si>
     <t xml:space="preserve">8.89715194702148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84691524505615</t>
+    <t xml:space="preserve">8.84691619873047</t>
   </si>
   <si>
     <t xml:space="preserve">9.02902126312256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02005004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88100433349609</t>
+    <t xml:space="preserve">9.02005100250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88100528717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.6352071762085</t>
@@ -3983,13 +3983,13 @@
     <t xml:space="preserve">8.87203407287598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83794593811035</t>
+    <t xml:space="preserve">8.83794498443604</t>
   </si>
   <si>
     <t xml:space="preserve">8.72491455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27123069763184</t>
+    <t xml:space="preserve">9.27122974395752</t>
   </si>
   <si>
     <t xml:space="preserve">9.52689456939697</t>
@@ -4001,13 +4001,13 @@
     <t xml:space="preserve">9.73322200775146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41027545928955</t>
+    <t xml:space="preserve">9.41027641296387</t>
   </si>
   <si>
     <t xml:space="preserve">9.31159782409668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20843505859375</t>
+    <t xml:space="preserve">9.20843601226807</t>
   </si>
   <si>
     <t xml:space="preserve">9.18600845336914</t>
@@ -4019,43 +4019,43 @@
     <t xml:space="preserve">8.73926734924316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51499938964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7187328338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6623420715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76420879364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65506744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204559326172</t>
+    <t xml:space="preserve">8.51499843597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71873378753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66234111785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76420974731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65506649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0420446395874</t>
   </si>
   <si>
     <t xml:space="preserve">8.11480712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87832975387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20394039154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1257209777832</t>
+    <t xml:space="preserve">7.87832927703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20394134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12572002410889</t>
   </si>
   <si>
     <t xml:space="preserve">8.14936923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26942825317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45315170288086</t>
+    <t xml:space="preserve">8.26942729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45315074920654</t>
   </si>
   <si>
     <t xml:space="preserve">8.34946537017822</t>
@@ -4067,10 +4067,10 @@
     <t xml:space="preserve">8.11116886138916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03840732574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30762577056885</t>
+    <t xml:space="preserve">8.03840637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30762672424316</t>
   </si>
   <si>
     <t xml:space="preserve">8.05114078521729</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">8.21121788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02749156951904</t>
+    <t xml:space="preserve">8.02749252319336</t>
   </si>
   <si>
     <t xml:space="preserve">8.29125595092773</t>
@@ -4094,10 +4094,10 @@
     <t xml:space="preserve">8.30398845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39312171936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46042728424072</t>
+    <t xml:space="preserve">8.39312267303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46042633056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.445876121521</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">8.82787704467773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89518165588379</t>
+    <t xml:space="preserve">8.89518070220947</t>
   </si>
   <si>
     <t xml:space="preserve">8.89699935913086</t>
@@ -4127,13 +4127,13 @@
     <t xml:space="preserve">9.04798221588135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12711048126221</t>
+    <t xml:space="preserve">9.12711143493652</t>
   </si>
   <si>
     <t xml:space="preserve">9.14985084533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33175563812256</t>
+    <t xml:space="preserve">9.33175468444824</t>
   </si>
   <si>
     <t xml:space="preserve">9.55458927154541</t>
@@ -4151,7 +4151,7 @@
     <t xml:space="preserve">8.95884895324707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37268352508545</t>
+    <t xml:space="preserve">9.37268447875977</t>
   </si>
   <si>
     <t xml:space="preserve">10.0730199813843</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">10.3731632232666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3140449523926</t>
+    <t xml:space="preserve">10.3140459060669</t>
   </si>
   <si>
     <t xml:space="preserve">10.1821632385254</t>
@@ -4172,34 +4172,34 @@
     <t xml:space="preserve">10.3868083953857</t>
   </si>
   <si>
-    <t xml:space="preserve">10.395902633667</t>
+    <t xml:space="preserve">10.3959016799927</t>
   </si>
   <si>
     <t xml:space="preserve">10.304949760437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4140930175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5186891555786</t>
+    <t xml:space="preserve">10.4140939712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5186882019043</t>
   </si>
   <si>
     <t xml:space="preserve">10.627833366394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4641180038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5414276123047</t>
+    <t xml:space="preserve">10.4641170501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5414266586304</t>
   </si>
   <si>
     <t xml:space="preserve">10.7824506759644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4777593612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2822103500366</t>
+    <t xml:space="preserve">10.4777603149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2822113037109</t>
   </si>
   <si>
     <t xml:space="preserve">9.95932865142822</t>
@@ -4211,34 +4211,34 @@
     <t xml:space="preserve">9.93659114837646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82744884490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1321392059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4959506988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4049968719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9188804626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6960458755493</t>
+    <t xml:space="preserve">9.82744789123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1321382522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4959497451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4049978256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9188814163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6960468292236</t>
   </si>
   <si>
     <t xml:space="preserve">10.5050458908081</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8738861083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2558860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5782880783081</t>
+    <t xml:space="preserve">11.8738851547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2558870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5782890319824</t>
   </si>
   <si>
     <t xml:space="preserve">11.7601947784424</t>
@@ -4253,13 +4253,13 @@
     <t xml:space="preserve">11.0825958251953</t>
   </si>
   <si>
-    <t xml:space="preserve">11.319073677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5009794235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2013168334961</t>
+    <t xml:space="preserve">11.3190727233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5009803771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2013158798218</t>
   </si>
   <si>
     <t xml:space="preserve">12.2695302963257</t>
@@ -4271,10 +4271,10 @@
     <t xml:space="preserve">12.6469831466675</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9607715606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6651744842529</t>
+    <t xml:space="preserve">12.9607706069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6651754379272</t>
   </si>
   <si>
     <t xml:space="preserve">12.3195533752441</t>
@@ -4310,19 +4310,19 @@
     <t xml:space="preserve">13.5110359191895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6247262954712</t>
+    <t xml:space="preserve">13.6247253417969</t>
   </si>
   <si>
     <t xml:space="preserve">13.69748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6656541824341</t>
+    <t xml:space="preserve">13.6656551361084</t>
   </si>
   <si>
     <t xml:space="preserve">13.6338214874268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2654628753662</t>
+    <t xml:space="preserve">13.2654619216919</t>
   </si>
   <si>
     <t xml:space="preserve">12.3604822158813</t>
@@ -4331,19 +4331,19 @@
     <t xml:space="preserve">12.7970552444458</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7379360198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701070785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9516744613647</t>
+    <t xml:space="preserve">12.7379369735718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701061248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9516763687134</t>
   </si>
   <si>
     <t xml:space="preserve">13.5428686141968</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3882503509521</t>
+    <t xml:space="preserve">13.3882493972778</t>
   </si>
   <si>
     <t xml:space="preserve">13.3245811462402</t>
@@ -4373,13 +4373,13 @@
     <t xml:space="preserve">14.1795387268066</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0931329727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7293224334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9112272262573</t>
+    <t xml:space="preserve">14.0931339263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.729323387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.911226272583</t>
   </si>
   <si>
     <t xml:space="preserve">14.2216014862061</t>
@@ -4394,10 +4394,10 @@
     <t xml:space="preserve">14.6709480285645</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8516130447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0276441574097</t>
+    <t xml:space="preserve">14.8516139984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.027645111084</t>
   </si>
   <si>
     <t xml:space="preserve">14.4763851165771</t>
@@ -4406,7 +4406,7 @@
     <t xml:space="preserve">14.5875635147095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6199913024902</t>
+    <t xml:space="preserve">14.6199903488159</t>
   </si>
   <si>
     <t xml:space="preserve">14.5736665725708</t>
@@ -4424,7 +4424,7 @@
     <t xml:space="preserve">14.1382179260254</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7120323181152</t>
+    <t xml:space="preserve">13.7120313644409</t>
   </si>
   <si>
     <t xml:space="preserve">13.4989395141602</t>
@@ -4448,7 +4448,7 @@
     <t xml:space="preserve">12.3084011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6737575531006</t>
+    <t xml:space="preserve">11.6737565994263</t>
   </si>
   <si>
     <t xml:space="preserve">11.3216915130615</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">11.5347833633423</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5533142089844</t>
+    <t xml:space="preserve">11.5533132553101</t>
   </si>
   <si>
     <t xml:space="preserve">11.8405246734619</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">11.3309564590454</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7478761672974</t>
+    <t xml:space="preserve">11.747875213623</t>
   </si>
   <si>
     <t xml:space="preserve">11.8173627853394</t>
@@ -4493,13 +4493,13 @@
     <t xml:space="preserve">11.7154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5811080932617</t>
+    <t xml:space="preserve">11.5811071395874</t>
   </si>
   <si>
     <t xml:space="preserve">11.1132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938966751099</t>
+    <t xml:space="preserve">11.2938957214355</t>
   </si>
   <si>
     <t xml:space="preserve">11.7525091171265</t>
@@ -4508,7 +4508,7 @@
     <t xml:space="preserve">11.789568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6691246032715</t>
+    <t xml:space="preserve">11.6691255569458</t>
   </si>
   <si>
     <t xml:space="preserve">11.4421348571777</t>
@@ -4523,7 +4523,7 @@
     <t xml:space="preserve">12.0628824234009</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2157535552979</t>
+    <t xml:space="preserve">12.2157526016235</t>
   </si>
   <si>
     <t xml:space="preserve">12.6048784255981</t>
@@ -4541,13 +4541,13 @@
     <t xml:space="preserve">11.6922874450684</t>
   </si>
   <si>
-    <t xml:space="preserve">11.914644241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0350866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053792953491</t>
+    <t xml:space="preserve">11.9146451950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0350875854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053802490234</t>
   </si>
   <si>
     <t xml:space="preserve">12.1972236633301</t>
@@ -4559,10 +4559,10 @@
     <t xml:space="preserve">11.9378070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">12.317666053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8961143493652</t>
+    <t xml:space="preserve">12.3176670074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8961133956909</t>
   </si>
   <si>
     <t xml:space="preserve">12.9476795196533</t>
@@ -4571,31 +4571,31 @@
     <t xml:space="preserve">12.8318681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0681209564209</t>
+    <t xml:space="preserve">13.0681219100952</t>
   </si>
   <si>
     <t xml:space="preserve">12.8828248977661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7484846115112</t>
+    <t xml:space="preserve">12.7484836578369</t>
   </si>
   <si>
     <t xml:space="preserve">12.739218711853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6836280822754</t>
+    <t xml:space="preserve">12.6836290359497</t>
   </si>
   <si>
     <t xml:space="preserve">13.1144466400146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2348909378052</t>
+    <t xml:space="preserve">13.2348899841309</t>
   </si>
   <si>
     <t xml:space="preserve">12.7809114456177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3778886795044</t>
+    <t xml:space="preserve">12.3778877258301</t>
   </si>
   <si>
     <t xml:space="preserve">12.3825206756592</t>
@@ -4610,7 +4610,7 @@
     <t xml:space="preserve">13.2024631500244</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1978302001953</t>
+    <t xml:space="preserve">13.1978311538696</t>
   </si>
   <si>
     <t xml:space="preserve">12.9059867858887</t>
@@ -4622,10 +4622,10 @@
     <t xml:space="preserve">12.5492887496948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4288463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7855424880981</t>
+    <t xml:space="preserve">12.4288454055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7855434417725</t>
   </si>
   <si>
     <t xml:space="preserve">11.5579462051392</t>
@@ -4643,7 +4643,7 @@
     <t xml:space="preserve">12.2898731231689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1376085281372</t>
+    <t xml:space="preserve">13.1376094818115</t>
   </si>
   <si>
     <t xml:space="preserve">13.4433498382568</t>
@@ -4655,7 +4655,7 @@
     <t xml:space="preserve">13.9019632339478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4248208999634</t>
+    <t xml:space="preserve">13.4248199462891</t>
   </si>
   <si>
     <t xml:space="preserve">12.7948093414307</t>
@@ -4664,10 +4664,10 @@
     <t xml:space="preserve">12.9106197357178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5128374099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2441549301147</t>
+    <t xml:space="preserve">13.5128364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2441558837891</t>
   </si>
   <si>
     <t xml:space="preserve">13.6240158081055</t>
@@ -4676,7 +4676,7 @@
     <t xml:space="preserve">13.9297571182251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741674423218</t>
+    <t xml:space="preserve">13.8741683959961</t>
   </si>
   <si>
     <t xml:space="preserve">14.0455684661865</t>
@@ -4694,10 +4694,10 @@
     <t xml:space="preserve">14.1845417022705</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5505037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9257316589355</t>
+    <t xml:space="preserve">14.5505046844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9257326126099</t>
   </si>
   <si>
     <t xml:space="preserve">14.7589645385742</t>
@@ -4721,7 +4721,7 @@
     <t xml:space="preserve">14.5134449005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8191862106323</t>
+    <t xml:space="preserve">14.819185256958</t>
   </si>
   <si>
     <t xml:space="preserve">14.7543315887451</t>
@@ -4730,13 +4730,13 @@
     <t xml:space="preserve">15.4538307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5279502868652</t>
+    <t xml:space="preserve">15.5279512405396</t>
   </si>
   <si>
     <t xml:space="preserve">15.0878667831421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2083120346069</t>
+    <t xml:space="preserve">15.2083110809326</t>
   </si>
   <si>
     <t xml:space="preserve">14.5342578887939</t>
@@ -4748,22 +4748,22 @@
     <t xml:space="preserve">15.1380968093872</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2317171096802</t>
+    <t xml:space="preserve">15.2317161560059</t>
   </si>
   <si>
     <t xml:space="preserve">15.315972328186</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8993701934814</t>
+    <t xml:space="preserve">14.8993711471558</t>
   </si>
   <si>
     <t xml:space="preserve">15.3346939086914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6483173370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2832069396973</t>
+    <t xml:space="preserve">15.6483182907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2832078933716</t>
   </si>
   <si>
     <t xml:space="preserve">15.0304365158081</t>
@@ -4778,13 +4778,13 @@
     <t xml:space="preserve">14.3517026901245</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5295782089233</t>
+    <t xml:space="preserve">14.529577255249</t>
   </si>
   <si>
     <t xml:space="preserve">14.4031925201416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2627639770508</t>
+    <t xml:space="preserve">14.2627649307251</t>
   </si>
   <si>
     <t xml:space="preserve">14.7495813369751</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">15.521933555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5827856063843</t>
+    <t xml:space="preserve">15.5827865600586</t>
   </si>
   <si>
     <t xml:space="preserve">15.4657621383667</t>
@@ -4823,16 +4823,16 @@
     <t xml:space="preserve">15.2457580566406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7466163635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.203631401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1317005157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5436201095581</t>
+    <t xml:space="preserve">15.7466173171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2036304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1316995620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5436191558838</t>
   </si>
   <si>
     <t xml:space="preserve">14.7683038711548</t>
@@ -4874,7 +4874,7 @@
     <t xml:space="preserve">15.0444784164429</t>
   </si>
   <si>
-    <t xml:space="preserve">15.072564125061</t>
+    <t xml:space="preserve">15.0725650787354</t>
   </si>
   <si>
     <t xml:space="preserve">15.4142713546753</t>
@@ -4901,7 +4901,7 @@
     <t xml:space="preserve">14.2768087387085</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6419200897217</t>
+    <t xml:space="preserve">14.6419191360474</t>
   </si>
   <si>
     <t xml:space="preserve">14.8900079727173</t>
@@ -4919,10 +4919,10 @@
     <t xml:space="preserve">15.4610805511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.222354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7308568954468</t>
+    <t xml:space="preserve">15.2223539352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7308578491211</t>
   </si>
   <si>
     <t xml:space="preserve">14.9976692199707</t>
@@ -4931,7 +4931,7 @@
     <t xml:space="preserve">14.6793670654297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0397987365723</t>
+    <t xml:space="preserve">15.0397977828979</t>
   </si>
   <si>
     <t xml:space="preserve">15.1053314208984</t>
@@ -4949,7 +4949,7 @@
     <t xml:space="preserve">14.7636241912842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4593639373779</t>
+    <t xml:space="preserve">14.4593629837036</t>
   </si>
   <si>
     <t xml:space="preserve">13.612117767334</t>
@@ -4979,7 +4979,7 @@
     <t xml:space="preserve">12.4044399261475</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0065603256226</t>
+    <t xml:space="preserve">12.0065612792969</t>
   </si>
   <si>
     <t xml:space="preserve">12.1189031600952</t>
@@ -5000,10 +5000,10 @@
     <t xml:space="preserve">12.6338043212891</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3201837539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1657123565674</t>
+    <t xml:space="preserve">12.320182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1657114028931</t>
   </si>
   <si>
     <t xml:space="preserve">12.1329460144043</t>
@@ -5012,7 +5012,7 @@
     <t xml:space="preserve">12.4606103897095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6244421005249</t>
+    <t xml:space="preserve">12.6244430541992</t>
   </si>
   <si>
     <t xml:space="preserve">12.582314491272</t>
@@ -5021,7 +5021,7 @@
     <t xml:space="preserve">12.4840154647827</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4231643676758</t>
+    <t xml:space="preserve">12.4231634140015</t>
   </si>
   <si>
     <t xml:space="preserve">12.2874164581299</t>
@@ -5030,7 +5030,7 @@
     <t xml:space="preserve">12.2686929702759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2172021865845</t>
+    <t xml:space="preserve">12.2172031402588</t>
   </si>
   <si>
     <t xml:space="preserve">12.1282653808594</t>
@@ -5039,10 +5039,10 @@
     <t xml:space="preserve">11.8801765441895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5618734359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4869794845581</t>
+    <t xml:space="preserve">11.5618743896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4869785308838</t>
   </si>
   <si>
     <t xml:space="preserve">11.3278284072876</t>
@@ -5057,13 +5057,13 @@
     <t xml:space="preserve">11.7023010253906</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4682559967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3371887207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.472936630249</t>
+    <t xml:space="preserve">11.4682550430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3371896743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4729356765747</t>
   </si>
   <si>
     <t xml:space="preserve">11.435489654541</t>
@@ -5838,6 +5838,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.0200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3500003814697</t>
   </si>
 </sst>
 </file>
@@ -62339,7 +62342,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6493171296</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>2725384</v>
@@ -62360,6 +62363,32 @@
         <v>1941</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6502083333</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>3431771</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>14.4499998092651</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>14.0550003051758</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>14.0550003051758</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>14.3500003814697</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1944">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30197906494141</t>
+    <t xml:space="preserve">8.30197715759277</t>
   </si>
   <si>
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31734943389893</t>
+    <t xml:space="preserve">8.31735134124756</t>
   </si>
   <si>
     <t xml:space="preserve">8.11749076843262</t>
@@ -53,112 +53,112 @@
     <t xml:space="preserve">7.88687896728516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58708477020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50252771377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46409273147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5102162361145</t>
+    <t xml:space="preserve">7.58708524703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50253009796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4640941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021480560303</t>
   </si>
   <si>
     <t xml:space="preserve">7.45640563964844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98749780654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92600059509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508199691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7415132522583</t>
+    <t xml:space="preserve">6.98749732971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92600107192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14508295059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74151372909546</t>
   </si>
   <si>
     <t xml:space="preserve">6.99518442153931</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17582941055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2642297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729152679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19889116287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84528779983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86834907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797018051147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78379106521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64158296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17198705673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33341407775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10664749145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53711891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44487714767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20273590087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50637197494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.233482837677</t>
+    <t xml:space="preserve">7.17582988739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892625808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26423072814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28729200363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19889163970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84528732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86835050582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41797161102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78379154205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64158201217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17198514938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33341360092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10664653778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53711986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44487571716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20273351669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50637340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23348140716553</t>
   </si>
   <si>
     <t xml:space="preserve">6.89909791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9106273651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5563383102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7254524230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90994071960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85613059997559</t>
+    <t xml:space="preserve">6.91062641143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55633592605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72545099258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90993881225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85613012313843</t>
   </si>
   <si>
     <t xml:space="preserve">8.02524471282959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3480978012085</t>
+    <t xml:space="preserve">8.34809970855713</t>
   </si>
   <si>
     <t xml:space="preserve">8.44034385681152</t>
@@ -167,49 +167,49 @@
     <t xml:space="preserve">8.13286399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2866039276123</t>
+    <t xml:space="preserve">8.28660202026367</t>
   </si>
   <si>
     <t xml:space="preserve">8.00218391418457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2481689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15592575073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39422035217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24048137664795</t>
+    <t xml:space="preserve">8.24816703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15592479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39422130584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24048233032227</t>
   </si>
   <si>
     <t xml:space="preserve">8.20204544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38653373718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14055156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08674335479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41728401184082</t>
+    <t xml:space="preserve">8.3865327835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.140549659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08674240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41728210449219</t>
   </si>
   <si>
     <t xml:space="preserve">8.25585556030273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9406886100769</t>
+    <t xml:space="preserve">7.94068717956543</t>
   </si>
   <si>
     <t xml:space="preserve">8.07905387878418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05599403381348</t>
+    <t xml:space="preserve">8.05599308013916</t>
   </si>
   <si>
     <t xml:space="preserve">8.51721382141113</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">8.55564880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61714458465576</t>
+    <t xml:space="preserve">8.61714553833008</t>
   </si>
   <si>
     <t xml:space="preserve">8.87850379943848</t>
@@ -227,31 +227,31 @@
     <t xml:space="preserve">8.87081718444824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90925216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17061042785645</t>
+    <t xml:space="preserve">8.90925025939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17061138153076</t>
   </si>
   <si>
     <t xml:space="preserve">9.3089771270752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34741020202637</t>
+    <t xml:space="preserve">9.34741306304932</t>
   </si>
   <si>
     <t xml:space="preserve">9.40122032165527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10911560058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27823066711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28591632843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05530643463135</t>
+    <t xml:space="preserve">9.10911750793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27822685241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28591728210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05530548095703</t>
   </si>
   <si>
     <t xml:space="preserve">8.93231391906738</t>
@@ -260,16 +260,16 @@
     <t xml:space="preserve">8.45571804046631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40959548950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85544395446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69401741027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66326999664307</t>
+    <t xml:space="preserve">8.40959358215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85544300079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.694016456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66326713562012</t>
   </si>
   <si>
     <t xml:space="preserve">8.74782371520996</t>
@@ -278,19 +278,19 @@
     <t xml:space="preserve">8.75551223754883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9169397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11680030822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14754772186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84775733947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03224658966064</t>
+    <t xml:space="preserve">8.91693878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11680126190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14755058288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84775638580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0322437286377</t>
   </si>
   <si>
     <t xml:space="preserve">9.09535217285156</t>
@@ -299,49 +299,49 @@
     <t xml:space="preserve">9.20578956604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22945404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44244194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46610641479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47399711608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39511394500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28467464447021</t>
+    <t xml:space="preserve">9.22945308685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44244289398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46610832214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47399806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39511013031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28467559814453</t>
   </si>
   <si>
     <t xml:space="preserve">9.1505708694458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1190185546875</t>
+    <t xml:space="preserve">9.11901760101318</t>
   </si>
   <si>
     <t xml:space="preserve">9.57654571533203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0498504638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233953475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0419616699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0104074478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78953266143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65542984008789</t>
+    <t xml:space="preserve">10.0498514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233972549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0419645309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0104093551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7895336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65543174743652</t>
   </si>
   <si>
     <t xml:space="preserve">9.85264015197754</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">9.6712064743042</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91574859619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1918411254883</t>
+    <t xml:space="preserve">9.91574764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1918430328369</t>
   </si>
   <si>
     <t xml:space="preserve">9.93941402435303</t>
@@ -365,166 +365,166 @@
     <t xml:space="preserve">9.81319808959961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5371036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63965225219727</t>
+    <t xml:space="preserve">9.53710460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63965511322021</t>
   </si>
   <si>
     <t xml:space="preserve">10.1366243362427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2628374099731</t>
+    <t xml:space="preserve">10.2628402709961</t>
   </si>
   <si>
     <t xml:space="preserve">10.4048290252686</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3653869628906</t>
+    <t xml:space="preserve">10.3653888702393</t>
   </si>
   <si>
     <t xml:space="preserve">10.1208467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82897567749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90785789489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261831283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.183952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786149978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99463176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1129570007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71853637695312</t>
+    <t xml:space="preserve">9.82897472381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90785884857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261840820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1839542388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99463081359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1129589080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71853923797607</t>
   </si>
   <si>
     <t xml:space="preserve">9.88419342041016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68698501586914</t>
+    <t xml:space="preserve">9.68698406219482</t>
   </si>
   <si>
     <t xml:space="preserve">9.56076717376709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66331672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59232139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30834007263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43455219268799</t>
+    <t xml:space="preserve">9.6633186340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59232330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30834102630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43455410003662</t>
   </si>
   <si>
     <t xml:space="preserve">9.18212413787842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04013156890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2215633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48977375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69487285614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8999719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87630653381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0025196075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2312850952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1760673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523990631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0340747833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97096633911133</t>
+    <t xml:space="preserve">9.04013252258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22156620025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48977279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6948709487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89997100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87630558013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0025205612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2312860488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1760654449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1524000167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0340738296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97096729278564</t>
   </si>
   <si>
     <t xml:space="preserve">9.58443260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72642517089844</t>
+    <t xml:space="preserve">9.72642421722412</t>
   </si>
   <si>
     <t xml:space="preserve">9.80531024932861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60021018981934</t>
+    <t xml:space="preserve">9.60021114349365</t>
   </si>
   <si>
     <t xml:space="preserve">9.33989238739014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13479423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19001197814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36355686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24523162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14268207550049</t>
+    <t xml:space="preserve">9.13479328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1900110244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36355781555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24523258209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14268112182617</t>
   </si>
   <si>
     <t xml:space="preserve">9.16634750366211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38722133636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17423629760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90602779388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02435398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86841773986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0182981491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.168176651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2943925857544</t>
+    <t xml:space="preserve">9.3872241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17423534393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90603065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0243558883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86841869354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0182971954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1681795120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2943916320801</t>
   </si>
   <si>
     <t xml:space="preserve">10.2707262039185</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">10.4916038513184</t>
   </si>
   <si>
-    <t xml:space="preserve">10.16028881073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3732767105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3496112823486</t>
+    <t xml:space="preserve">10.1602878570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3732786178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496103286743</t>
   </si>
   <si>
     <t xml:space="preserve">10.4837141036987</t>
@@ -548,64 +548,64 @@
     <t xml:space="preserve">10.5862636566162</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5389347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547103881836</t>
+    <t xml:space="preserve">10.5389318466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547113418579</t>
   </si>
   <si>
     <t xml:space="preserve">10.5073795318604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6099281311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022804260254</t>
+    <t xml:space="preserve">10.6099290847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022813796997</t>
   </si>
   <si>
     <t xml:space="preserve">10.4363832473755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3969421386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79741954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386917114258</t>
+    <t xml:space="preserve">10.3969411849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79742050170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386936187744</t>
   </si>
   <si>
     <t xml:space="preserve">11.2567796707153</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1936721801758</t>
+    <t xml:space="preserve">11.1936712265015</t>
   </si>
   <si>
     <t xml:space="preserve">11.3987703323364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5328750610352</t>
+    <t xml:space="preserve">11.5328731536865</t>
   </si>
   <si>
     <t xml:space="preserve">11.5249853134155</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5092086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041095733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7260227203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3916788101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6304960250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6702995300293</t>
+    <t xml:space="preserve">11.5092096328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7260246276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3916778564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6304979324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.670298576355</t>
   </si>
   <si>
     <t xml:space="preserve">11.4235200881958</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">11.9966859817505</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4902439117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3787965774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6892623901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8564357757568</t>
+    <t xml:space="preserve">12.4902458190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3787984848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6892614364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8564348220825</t>
   </si>
   <si>
     <t xml:space="preserve">12.7370252609253</t>
@@ -638,103 +638,103 @@
     <t xml:space="preserve">13.23854637146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0474910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9599227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0952548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9838056564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0395269393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2226238250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1270971298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2783489227295</t>
+    <t xml:space="preserve">13.0474891662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9599237442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.095253944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9838027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0395288467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2226247787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1270980834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2783498764038</t>
   </si>
   <si>
     <t xml:space="preserve">13.525128364563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6843423843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7082204818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7321062088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763830184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6524982452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5808544158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5649337768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4694032669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3659152984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5171670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4534816741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2146625518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4614429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5569696426392</t>
+    <t xml:space="preserve">13.6843404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7082214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.732105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6524972915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5808534622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5649328231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4694042205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3659172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5171699523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.45348072052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2146635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.461443901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5569725036621</t>
   </si>
   <si>
     <t xml:space="preserve">13.3897981643677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3499965667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6923036575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7161836624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5490131378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8803157806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8723564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7847900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.951961517334</t>
+    <t xml:space="preserve">13.3499946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6923017501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7161827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490121841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8803176879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8723554611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7847881317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9519624710083</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768278121948</t>
@@ -743,28 +743,28 @@
     <t xml:space="preserve">12.8086709976196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5220861434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7290630340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8166313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201202392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6255769729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4982051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8484745025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9041996002197</t>
+    <t xml:space="preserve">12.5220880508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7290649414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.816632270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201211929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6255760192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4982070922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8484725952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9041976928711</t>
   </si>
   <si>
     <t xml:space="preserve">12.4265604019165</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">12.3628749847412</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5539312362671</t>
+    <t xml:space="preserve">12.5539321899414</t>
   </si>
   <si>
     <t xml:space="preserve">12.2991905212402</t>
@@ -785,31 +785,31 @@
     <t xml:space="preserve">12.1718196868896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0842542648315</t>
+    <t xml:space="preserve">12.0842533111572</t>
   </si>
   <si>
     <t xml:space="preserve">11.7021408081055</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7180643081665</t>
+    <t xml:space="preserve">11.7180633544922</t>
   </si>
   <si>
     <t xml:space="preserve">11.7658271789551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.678261756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9489212036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0285291671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1240558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9091196060181</t>
+    <t xml:space="preserve">11.6782608032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9489221572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.028528213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1240549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9091167449951</t>
   </si>
   <si>
     <t xml:space="preserve">11.749906539917</t>
@@ -818,46 +818,46 @@
     <t xml:space="preserve">11.7737884521484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8533954620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5906925201416</t>
+    <t xml:space="preserve">11.8533945083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5906944274902</t>
   </si>
   <si>
     <t xml:space="preserve">12.4822854995728</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4026803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927494049072</t>
+    <t xml:space="preserve">12.4026784896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927503585815</t>
   </si>
   <si>
     <t xml:space="preserve">12.6972227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8643951416016</t>
+    <t xml:space="preserve">12.8643960952759</t>
   </si>
   <si>
     <t xml:space="preserve">12.8405132293701</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5857725143433</t>
+    <t xml:space="preserve">12.5857744216919</t>
   </si>
   <si>
     <t xml:space="preserve">12.0046472549438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1081342697144</t>
+    <t xml:space="preserve">12.10813331604</t>
   </si>
   <si>
     <t xml:space="preserve">11.8931980133057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9648418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972804069519</t>
+    <t xml:space="preserve">11.9648427963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9728050231934</t>
   </si>
   <si>
     <t xml:space="preserve">11.956883430481</t>
@@ -866,67 +866,67 @@
     <t xml:space="preserve">12.1320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4633235931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474000930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4951648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3757543563843</t>
+    <t xml:space="preserve">11.463321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474010467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4951639175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3757562637329</t>
   </si>
   <si>
     <t xml:space="preserve">11.0652904510498</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2324647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2245054244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2404251098633</t>
+    <t xml:space="preserve">11.2324638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2245044708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2404260635376</t>
   </si>
   <si>
     <t xml:space="preserve">11.4155588150024</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4712839126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.32799243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5747728347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2961483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4872045516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6170949935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5683851242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6252126693726</t>
+    <t xml:space="preserve">11.471284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3279914855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5747737884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2961492538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4872055053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6170978546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5683860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6252117156982</t>
   </si>
   <si>
     <t xml:space="preserve">11.5196771621704</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3491954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2193040847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787157058716</t>
+    <t xml:space="preserve">11.3491945266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2193059921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787147521973</t>
   </si>
   <si>
     <t xml:space="preserve">10.9189319610596</t>
@@ -935,46 +935,46 @@
     <t xml:space="preserve">11.0488233566284</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0082321166992</t>
+    <t xml:space="preserve">11.0082330703735</t>
   </si>
   <si>
     <t xml:space="preserve">10.9838771820068</t>
   </si>
   <si>
-    <t xml:space="preserve">10.797158241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.96764087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3735504150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0650615692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1137685775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8783416748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.935170173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8377513885498</t>
+    <t xml:space="preserve">10.7971601486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9676418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3735513687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0650596618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1137666702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.878342628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9351682662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8377523422241</t>
   </si>
   <si>
     <t xml:space="preserve">10.8458690643311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8945789337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0812959671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4222583770752</t>
+    <t xml:space="preserve">10.8945760726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0812950134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4222593307495</t>
   </si>
   <si>
     <t xml:space="preserve">11.4466142654419</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">11.1949501037598</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9026966094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0407056808472</t>
+    <t xml:space="preserve">10.9026975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0407066345215</t>
   </si>
   <si>
     <t xml:space="preserve">11.3654327392578</t>
@@ -998,76 +998,76 @@
     <t xml:space="preserve">11.5034418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6089763641357</t>
+    <t xml:space="preserve">11.6089782714844</t>
   </si>
   <si>
     <t xml:space="preserve">11.5359144210815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3410768508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0975332260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2030696868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8702249526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6429138183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373802185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427101135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85545253753662</t>
+    <t xml:space="preserve">11.3410778045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0975322723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.203070640564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8702230453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.642915725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373764038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427291870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85545349121094</t>
   </si>
   <si>
     <t xml:space="preserve">9.70932579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79862594604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66061687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72556209564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46578216552734</t>
+    <t xml:space="preserve">9.79862499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66061592102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72556304931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46578121185303</t>
   </si>
   <si>
     <t xml:space="preserve">9.49825382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44954490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40895462036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36024475097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27906513214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33588981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30341911315918</t>
+    <t xml:space="preserve">9.44954586029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40895366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36024570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27906322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3358907699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30341815948486</t>
   </si>
   <si>
     <t xml:space="preserve">9.26282691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19788074493408</t>
+    <t xml:space="preserve">9.19788265228271</t>
   </si>
   <si>
     <t xml:space="preserve">9.10858154296875</t>
@@ -1076,16 +1076,16 @@
     <t xml:space="preserve">8.98680877685547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09234619140625</t>
+    <t xml:space="preserve">9.09234523773193</t>
   </si>
   <si>
     <t xml:space="preserve">9.11669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07610988616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22223663330078</t>
+    <t xml:space="preserve">9.0761079788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22223472595215</t>
   </si>
   <si>
     <t xml:space="preserve">9.52260780334473</t>
@@ -1094,16 +1094,16 @@
     <t xml:space="preserve">9.61190795898438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62814617156982</t>
+    <t xml:space="preserve">9.62814331054688</t>
   </si>
   <si>
     <t xml:space="preserve">9.41707324981689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65250015258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88792514801025</t>
+    <t xml:space="preserve">9.65249919891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88792610168457</t>
   </si>
   <si>
     <t xml:space="preserve">9.80674457550049</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">9.83921813964844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78238964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76615333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991607666016</t>
+    <t xml:space="preserve">9.78239059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76615142822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991703033447</t>
   </si>
   <si>
     <t xml:space="preserve">9.74179935455322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70120811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60379028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.352126121521</t>
+    <t xml:space="preserve">9.70120716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60379123687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35212802886963</t>
   </si>
   <si>
     <t xml:space="preserve">9.32777214050293</t>
@@ -1142,22 +1142,22 @@
     <t xml:space="preserve">9.44142627716064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21411991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10046291351318</t>
+    <t xml:space="preserve">9.21411609649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1004638671875</t>
   </si>
   <si>
     <t xml:space="preserve">9.12481784820557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18164348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27094650268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49013614654541</t>
+    <t xml:space="preserve">9.18164539337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27094554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49013423919678</t>
   </si>
   <si>
     <t xml:space="preserve">9.53884506225586</t>
@@ -1166,31 +1166,31 @@
     <t xml:space="preserve">10.6023244857788</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6835060119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6510334014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5617351531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4805517196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587789535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.228889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96910762786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81486129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84733486175537</t>
+    <t xml:space="preserve">10.6835050582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6510324478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5617332458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4805507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587808609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2288904190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96910953521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81486225128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84733581542969</t>
   </si>
   <si>
     <t xml:space="preserve">9.9293966293335</t>
@@ -1199,22 +1199,22 @@
     <t xml:space="preserve">10.257640838623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2001981735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95401382446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9458065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0196628570557</t>
+    <t xml:space="preserve">10.2001991271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95401573181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94580936431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01966381073</t>
   </si>
   <si>
     <t xml:space="preserve">10.2248163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4545869827271</t>
+    <t xml:space="preserve">10.4545879364014</t>
   </si>
   <si>
     <t xml:space="preserve">10.3397016525269</t>
@@ -1223,151 +1223,151 @@
     <t xml:space="preserve">10.1673746109009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2986717224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3971433639526</t>
+    <t xml:space="preserve">10.2986707687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3971452713013</t>
   </si>
   <si>
     <t xml:space="preserve">10.6843585968018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0043964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7418003082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.594090461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956169128418</t>
+    <t xml:space="preserve">11.0043983459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7418022155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5940895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956188201904</t>
   </si>
   <si>
     <t xml:space="preserve">10.7007703781128</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5776796340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7089767456055</t>
+    <t xml:space="preserve">10.5776805877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7089757919312</t>
   </si>
   <si>
     <t xml:space="preserve">10.8730983734131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9551582336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9059228897095</t>
+    <t xml:space="preserve">10.9551591873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9059247970581</t>
   </si>
   <si>
     <t xml:space="preserve">10.799243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.996190071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1931390762329</t>
+    <t xml:space="preserve">10.9961910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931381225586</t>
   </si>
   <si>
     <t xml:space="preserve">11.1685190200806</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2669916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2587871551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5460004806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6526803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7183284759521</t>
+    <t xml:space="preserve">11.2669925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2587862014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459995269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6526794433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7183294296265</t>
   </si>
   <si>
     <t xml:space="preserve">11.4803504943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4229097366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5952367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6855049133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9070692062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9152746200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7921829223633</t>
+    <t xml:space="preserve">11.4229078292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5952348709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6855030059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9070701599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9152755737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7921838760376</t>
   </si>
   <si>
     <t xml:space="preserve">11.8660373687744</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9316883087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7675657272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5542049407959</t>
+    <t xml:space="preserve">11.9316873550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7675647735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5542068481445</t>
   </si>
   <si>
     <t xml:space="preserve">11.5090713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2834062576294</t>
+    <t xml:space="preserve">11.2834053039551</t>
   </si>
   <si>
     <t xml:space="preserve">11.1603136062622</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8648920059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0249128341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5981950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5366497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.438175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6105051040649</t>
+    <t xml:space="preserve">10.8648929595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0249118804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5981931686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5366487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4381761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.610502243042</t>
   </si>
   <si>
     <t xml:space="preserve">10.6679458618164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8197593688965</t>
+    <t xml:space="preserve">10.8197603225708</t>
   </si>
   <si>
     <t xml:space="preserve">11.148003578186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2464780807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1192817687988</t>
+    <t xml:space="preserve">11.2464771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1192827224731</t>
   </si>
   <si>
     <t xml:space="preserve">11.463939666748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9645128250122</t>
+    <t xml:space="preserve">11.9645118713379</t>
   </si>
   <si>
     <t xml:space="preserve">11.8537292480469</t>
@@ -1376,43 +1376,43 @@
     <t xml:space="preserve">11.5418977737427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6937093734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7552556991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.619854927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9193773269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.354302406311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1737651824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0876035690308</t>
+    <t xml:space="preserve">11.6937103271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7552537918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6198539733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9193782806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3543033599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1737680435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0876007080078</t>
   </si>
   <si>
     <t xml:space="preserve">11.8085956573486</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7060213088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8906555175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7429466247559</t>
+    <t xml:space="preserve">11.7060194015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8906564712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7429485321045</t>
   </si>
   <si>
     <t xml:space="preserve">11.9768218994141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4035377502441</t>
+    <t xml:space="preserve">12.4035396575928</t>
   </si>
   <si>
     <t xml:space="preserve">11.6444730758667</t>
@@ -1427,64 +1427,64 @@
     <t xml:space="preserve">11.3490524291992</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2259607315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4885568618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4147033691406</t>
+    <t xml:space="preserve">11.2259616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.447527885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4885597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4147024154663</t>
   </si>
   <si>
     <t xml:space="preserve">11.9398937225342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7019157409668</t>
+    <t xml:space="preserve">11.7019166946411</t>
   </si>
   <si>
     <t xml:space="preserve">11.7347421646118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0670890808105</t>
+    <t xml:space="preserve">12.0670881271362</t>
   </si>
   <si>
     <t xml:space="preserve">12.2763452529907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050661087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2230052947998</t>
+    <t xml:space="preserve">12.305064201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2230043411255</t>
   </si>
   <si>
     <t xml:space="preserve">12.2106962203979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4363622665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5102195739746</t>
+    <t xml:space="preserve">12.4363632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5102186203003</t>
   </si>
   <si>
     <t xml:space="preserve">12.5471458435059</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7276802062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8220520019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5389394760132</t>
+    <t xml:space="preserve">12.7276811599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8220500946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389404296875</t>
   </si>
   <si>
     <t xml:space="preserve">12.5881757736206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.481499671936</t>
+    <t xml:space="preserve">12.4814977645874</t>
   </si>
   <si>
     <t xml:space="preserve">12.7769165039062</t>
@@ -1496,49 +1496,49 @@
     <t xml:space="preserve">13.211841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2405614852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5318784713745</t>
+    <t xml:space="preserve">13.2405624389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5318775177002</t>
   </si>
   <si>
     <t xml:space="preserve">13.2364587783813</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4539222717285</t>
+    <t xml:space="preserve">13.4539213180542</t>
   </si>
   <si>
     <t xml:space="preserve">13.3513441085815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3964786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.330828666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3923759460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6385593414307</t>
+    <t xml:space="preserve">13.3964796066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3308305740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3923749923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.638560295105</t>
   </si>
   <si>
     <t xml:space="preserve">14.0857915878296</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0283470153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1868600845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1952028274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.869836807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5653266906738</t>
+    <t xml:space="preserve">14.0283489227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1868591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1952037811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698377609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5653257369995</t>
   </si>
   <si>
     <t xml:space="preserve">13.2316150665283</t>
@@ -1547,43 +1547,43 @@
     <t xml:space="preserve">13.0939598083496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1648721694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2357864379883</t>
+    <t xml:space="preserve">13.1648740768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2357873916626</t>
   </si>
   <si>
     <t xml:space="preserve">12.806134223938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9646453857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6935081481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6517934799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.018874168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.981333732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0689325332642</t>
+    <t xml:space="preserve">12.9646463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6935091018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6517944335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0188760757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9813346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0689315795898</t>
   </si>
   <si>
     <t xml:space="preserve">13.0981311798096</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9396190643311</t>
+    <t xml:space="preserve">12.9396200180054</t>
   </si>
   <si>
     <t xml:space="preserve">13.1565313339233</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5475091934204</t>
+    <t xml:space="preserve">12.5475082397461</t>
   </si>
   <si>
     <t xml:space="preserve">12.5683650970459</t>
@@ -1592,82 +1592,82 @@
     <t xml:space="preserve">12.4390535354614</t>
   </si>
   <si>
-    <t xml:space="preserve">12.480767250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0856189727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5266523361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5767097473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2191009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1440162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1106452941895</t>
+    <t xml:space="preserve">12.4807682037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0856161117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5266532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5767087936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2191019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440181732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1106462478638</t>
   </si>
   <si>
     <t xml:space="preserve">13.04807472229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2566432952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2941865921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2900152206421</t>
+    <t xml:space="preserve">13.2566442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2941875457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2900142669678</t>
   </si>
   <si>
     <t xml:space="preserve">13.3567571640015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6988096237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.761381149292</t>
+    <t xml:space="preserve">13.6988115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7613801956177</t>
   </si>
   <si>
     <t xml:space="preserve">13.3650999069214</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4276685714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2858419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2274446487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2399587631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1315031051636</t>
+    <t xml:space="preserve">13.4276695251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2858438491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2274436950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2399597167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1315011978149</t>
   </si>
   <si>
     <t xml:space="preserve">13.1356735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9145908355713</t>
+    <t xml:space="preserve">12.914589881897</t>
   </si>
   <si>
     <t xml:space="preserve">12.9896755218506</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0397338867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2263126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4015111923218</t>
+    <t xml:space="preserve">13.0397319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2263135910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4015102386475</t>
   </si>
   <si>
     <t xml:space="preserve">12.4098529815674</t>
@@ -1682,34 +1682,34 @@
     <t xml:space="preserve">12.6809930801392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4640798568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1595706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0636301040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428852081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2471704483032</t>
+    <t xml:space="preserve">12.4640817642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1595697402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0636281967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2471714019775</t>
   </si>
   <si>
     <t xml:space="preserve">12.2221422195435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3514537811279</t>
+    <t xml:space="preserve">12.3514556884766</t>
   </si>
   <si>
     <t xml:space="preserve">12.7435636520386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5349950790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5391645431519</t>
+    <t xml:space="preserve">12.5349960327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5391654968262</t>
   </si>
   <si>
     <t xml:space="preserve">11.8383741378784</t>
@@ -1718,40 +1718,40 @@
     <t xml:space="preserve">12.0552864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0260848999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9468297958374</t>
+    <t xml:space="preserve">12.0260877609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9468307495117</t>
   </si>
   <si>
     <t xml:space="preserve">11.5922632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4963226318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3086099624634</t>
+    <t xml:space="preserve">11.4963216781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.308611869812</t>
   </si>
   <si>
     <t xml:space="preserve">11.2001533508301</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2710657119751</t>
+    <t xml:space="preserve">11.2710666656494</t>
   </si>
   <si>
     <t xml:space="preserve">11.5380344390869</t>
   </si>
   <si>
-    <t xml:space="preserve">11.525520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.529691696167</t>
+    <t xml:space="preserve">11.5255212783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5296936035156</t>
   </si>
   <si>
     <t xml:space="preserve">11.5964345932007</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7507753372192</t>
+    <t xml:space="preserve">11.7507762908936</t>
   </si>
   <si>
     <t xml:space="preserve">11.7591180801392</t>
@@ -1769,106 +1769,106 @@
     <t xml:space="preserve">12.3681402206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.272198677063</t>
+    <t xml:space="preserve">12.2721977233887</t>
   </si>
   <si>
     <t xml:space="preserve">12.2137994766235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0386018753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3639678955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4223690032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5975675582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2596845626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2012844085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6100797653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2555122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7382621765137</t>
+    <t xml:space="preserve">12.0385999679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3639688491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4223680496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5975656509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2596836090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.201283454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6100807189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2555131912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7382612228394</t>
   </si>
   <si>
     <t xml:space="preserve">11.7466049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7966604232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9259748458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8508892059326</t>
+    <t xml:space="preserve">11.7966613769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9259738922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8508911132812</t>
   </si>
   <si>
     <t xml:space="preserve">11.6965484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6840333938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4212379455566</t>
+    <t xml:space="preserve">11.6840343475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4212369918823</t>
   </si>
   <si>
     <t xml:space="preserve">10.9707279205322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.858099937439</t>
+    <t xml:space="preserve">10.8581008911133</t>
   </si>
   <si>
     <t xml:space="preserve">10.8205585479736</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7246160507202</t>
+    <t xml:space="preserve">10.7246170043945</t>
   </si>
   <si>
     <t xml:space="preserve">10.7579879760742</t>
   </si>
   <si>
-    <t xml:space="preserve">10.641188621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9582138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.137583732605</t>
+    <t xml:space="preserve">10.6411876678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9582147598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1375827789307</t>
   </si>
   <si>
     <t xml:space="preserve">11.2043256759644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2084980010986</t>
+    <t xml:space="preserve">11.20849609375</t>
   </si>
   <si>
     <t xml:space="preserve">11.1959829330444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0916996002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0541563034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7997026443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.712103843689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3867349624634</t>
+    <t xml:space="preserve">11.0916976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0541553497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7997007369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7121028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3867359161377</t>
   </si>
   <si>
     <t xml:space="preserve">10.28662109375</t>
@@ -1877,52 +1877,52 @@
     <t xml:space="preserve">10.4117641448975</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3116502761841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2062568664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91958713531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1092958450317</t>
+    <t xml:space="preserve">10.3116483688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2062559127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91958904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1092967987061</t>
   </si>
   <si>
     <t xml:space="preserve">9.9659595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80154895782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0797853469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89007949829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19026851654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13124752044678</t>
+    <t xml:space="preserve">9.80154800415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0797843933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89007663726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19026756286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13124942779541</t>
   </si>
   <si>
     <t xml:space="preserve">8.95840454101562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26615142822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14389610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97105121612549</t>
+    <t xml:space="preserve">9.26615047454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14389419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9710521697998</t>
   </si>
   <si>
     <t xml:space="preserve">8.675950050354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69702816009521</t>
+    <t xml:space="preserve">8.69702911376953</t>
   </si>
   <si>
     <t xml:space="preserve">8.43143749237061</t>
@@ -1931,40 +1931,40 @@
     <t xml:space="preserve">8.54947948455811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64644050598145</t>
+    <t xml:space="preserve">8.64643955230713</t>
   </si>
   <si>
     <t xml:space="preserve">8.62536144256592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.320143699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13128089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13296508789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78221702575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79570960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74174690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02504348754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01155376434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31339740753174</t>
+    <t xml:space="preserve">8.32014465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13127994537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13296604156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78221750259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79570770263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74174833297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02504444122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01155185699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31339836120605</t>
   </si>
   <si>
     <t xml:space="preserve">8.44830226898193</t>
@@ -1976,25 +1976,25 @@
     <t xml:space="preserve">8.74761867523193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76869773864746</t>
+    <t xml:space="preserve">8.76869583129883</t>
   </si>
   <si>
     <t xml:space="preserve">8.68859767913818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61271476745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67173671722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98369789123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91203022003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77291107177734</t>
+    <t xml:space="preserve">8.61271572113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67173385620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98369598388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91203117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77291202545166</t>
   </si>
   <si>
     <t xml:space="preserve">8.8530101776123</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">8.99634456634521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30409240722656</t>
+    <t xml:space="preserve">9.30409336090088</t>
   </si>
   <si>
     <t xml:space="preserve">9.05536556243896</t>
@@ -2012,55 +2012,55 @@
     <t xml:space="preserve">9.17340564727783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24507331848145</t>
+    <t xml:space="preserve">9.24507141113281</t>
   </si>
   <si>
     <t xml:space="preserve">9.23242473602295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41791915893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47693729400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24085712432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03007221221924</t>
+    <t xml:space="preserve">9.41791820526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47693634033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2408561706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03007125854492</t>
   </si>
   <si>
     <t xml:space="preserve">9.2197790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43899536132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70880222320557</t>
+    <t xml:space="preserve">9.43899631500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70880317687988</t>
   </si>
   <si>
     <t xml:space="preserve">9.72144889831543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94909763336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0081176757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713539123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177253723145</t>
+    <t xml:space="preserve">9.94909858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0081167221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0713529586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177272796631</t>
   </si>
   <si>
     <t xml:space="preserve">10.2863550186157</t>
   </si>
   <si>
-    <t xml:space="preserve">10.155668258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.13880443573</t>
+    <t xml:space="preserve">10.1556692123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1388063430786</t>
   </si>
   <si>
     <t xml:space="preserve">10.033411026001</t>
@@ -2072,67 +2072,67 @@
     <t xml:space="preserve">9.83948993682861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90272521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.873215675354</t>
+    <t xml:space="preserve">9.90272426605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87321472167969</t>
   </si>
   <si>
     <t xml:space="preserve">9.9996862411499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75517559051514</t>
+    <t xml:space="preserve">9.75517463684082</t>
   </si>
   <si>
     <t xml:space="preserve">9.60762596130371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9322338104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3791017532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4339065551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3833150863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4043951034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5266523361206</t>
+    <t xml:space="preserve">9.93223571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3791007995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4339046478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3833160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4043960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5266513824463</t>
   </si>
   <si>
     <t xml:space="preserve">10.5814561843872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8681240081787</t>
+    <t xml:space="preserve">10.868124961853</t>
   </si>
   <si>
     <t xml:space="preserve">10.7585163116455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.615180015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3622369766235</t>
+    <t xml:space="preserve">10.6151838302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3622379302979</t>
   </si>
   <si>
     <t xml:space="preserve">10.5519456863403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.834400177002</t>
+    <t xml:space="preserve">10.8343982696533</t>
   </si>
   <si>
     <t xml:space="preserve">10.7247915267944</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6952800750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971399307251</t>
+    <t xml:space="preserve">10.6952810287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971418380737</t>
   </si>
   <si>
     <t xml:space="preserve">10.8133201599121</t>
@@ -2141,67 +2141,67 @@
     <t xml:space="preserve">10.8807706832886</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5898876190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4760618209839</t>
+    <t xml:space="preserve">10.5898866653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4760608673096</t>
   </si>
   <si>
     <t xml:space="preserve">10.5477304458618</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6025342941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9608697891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0999898910522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9945964813232</t>
+    <t xml:space="preserve">10.6025333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9608707427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0999889373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9945955276489</t>
   </si>
   <si>
     <t xml:space="preserve">11.3782272338867</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1337146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8976354598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4676303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4381217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2694940567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95331478118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303730010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92380428314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84792137145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79733085632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0587072372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1345901489258</t>
+    <t xml:space="preserve">11.1337156295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8976345062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4676322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4381227493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2694931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1261587142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95331382751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303739547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92380237579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84792232513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79733180999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.058708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1345891952515</t>
   </si>
   <si>
     <t xml:space="preserve">10.5055732727051</t>
@@ -2210,22 +2210,22 @@
     <t xml:space="preserve">10.5603761672974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5690021514893</t>
+    <t xml:space="preserve">10.5690031051636</t>
   </si>
   <si>
     <t xml:space="preserve">10.7285490036011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3922052383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95236778259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83162879943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65914440155029</t>
+    <t xml:space="preserve">10.3922061920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95236873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83162975311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65914535522461</t>
   </si>
   <si>
     <t xml:space="preserve">9.65052032470703</t>
@@ -2234,73 +2234,73 @@
     <t xml:space="preserve">9.50390911102295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47372245788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09857082366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35729598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58152675628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26674175262451</t>
+    <t xml:space="preserve">9.47372341156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09856986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35729789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5815258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2667407989502</t>
   </si>
   <si>
     <t xml:space="preserve">9.27536678314209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25811767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55565547943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69795322418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43060302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31417465209961</t>
+    <t xml:space="preserve">9.25811672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5556526184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69795417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43060207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31417560577393</t>
   </si>
   <si>
     <t xml:space="preserve">9.36160850524902</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54271602630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8014440536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90493583679199</t>
+    <t xml:space="preserve">9.54271697998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80144309997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90493488311768</t>
   </si>
   <si>
     <t xml:space="preserve">9.7540111541748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64620876312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93512058258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89200019836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92649745941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1765985488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93943309783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96099376678467</t>
+    <t xml:space="preserve">9.64620780944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93512153625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89199733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9264965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1765995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93943119049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96099281311035</t>
   </si>
   <si>
     <t xml:space="preserve">10.0644845962524</t>
@@ -2309,16 +2309,16 @@
     <t xml:space="preserve">10.0601720809937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2844018936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1852235794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3404607772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5301923751831</t>
+    <t xml:space="preserve">10.28440284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1852216720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3404588699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5301933288574</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827585220337</t>
@@ -2330,34 +2330,34 @@
     <t xml:space="preserve">10.3620204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96530532836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79282093048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61602401733398</t>
+    <t xml:space="preserve">9.96530342102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79281997680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61602306365967</t>
   </si>
   <si>
     <t xml:space="preserve">9.74538707733154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81869316101074</t>
+    <t xml:space="preserve">9.81869411468506</t>
   </si>
   <si>
     <t xml:space="preserve">10.1119174957275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0256757736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77126026153564</t>
+    <t xml:space="preserve">10.0256748199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77125930786133</t>
   </si>
   <si>
     <t xml:space="preserve">9.4176664352417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18912220001221</t>
+    <t xml:space="preserve">9.18912410736084</t>
   </si>
   <si>
     <t xml:space="preserve">9.02957630157471</t>
@@ -2366,22 +2366,22 @@
     <t xml:space="preserve">8.81828117370605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74497699737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90452575683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72772884368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44485282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58456516265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13782978057861</t>
+    <t xml:space="preserve">8.74497509002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90452480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72772693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44485378265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58456611633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1378288269043</t>
   </si>
   <si>
     <t xml:space="preserve">8.17922687530518</t>
@@ -2390,121 +2390,121 @@
     <t xml:space="preserve">8.48969841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31721496582031</t>
+    <t xml:space="preserve">8.317214012146</t>
   </si>
   <si>
     <t xml:space="preserve">8.41725540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52764511108398</t>
+    <t xml:space="preserve">8.52764320373535</t>
   </si>
   <si>
     <t xml:space="preserve">8.39655590057373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5086727142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56559085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66304588317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60698795318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55006885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50349521636963</t>
+    <t xml:space="preserve">8.50867080688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56559181213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66304492950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60698699951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55006694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50349617004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.28789043426514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43967723846436</t>
+    <t xml:space="preserve">8.43967914581299</t>
   </si>
   <si>
     <t xml:space="preserve">8.65873432159424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61561107635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87002849578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97351837158203</t>
+    <t xml:space="preserve">8.6156120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87002658843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97351741790771</t>
   </si>
   <si>
     <t xml:space="preserve">8.89589977264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76653671264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82690620422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07269668579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90021133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77084922790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6673583984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64579677581787</t>
+    <t xml:space="preserve">8.76653575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82690525054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07269859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9002103805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77084827423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66735649108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64579772949219</t>
   </si>
   <si>
     <t xml:space="preserve">8.40518093109131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28444194793701</t>
+    <t xml:space="preserve">8.2844409942627</t>
   </si>
   <si>
     <t xml:space="preserve">8.27926731109619</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14990329742432</t>
+    <t xml:space="preserve">8.14990234375</t>
   </si>
   <si>
     <t xml:space="preserve">8.44312763214111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39483261108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23787212371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89462661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97397041320801</t>
+    <t xml:space="preserve">8.39483165740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23786926269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89462566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97396945953369</t>
   </si>
   <si>
     <t xml:space="preserve">7.95844507217407</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05158805847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91704893112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95327043533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0291633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30858898162842</t>
+    <t xml:space="preserve">8.051589012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91704845428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95327186584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02916431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3085880279541</t>
   </si>
   <si>
     <t xml:space="preserve">8.08953380584717</t>
@@ -2513,13 +2513,13 @@
     <t xml:space="preserve">8.19647407531738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16370105743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0636625289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02054023742676</t>
+    <t xml:space="preserve">8.1637020111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06366157531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02054119110107</t>
   </si>
   <si>
     <t xml:space="preserve">8.07918453216553</t>
@@ -2528,43 +2528,43 @@
     <t xml:space="preserve">8.09988307952881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12058067321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03261566162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11023330688477</t>
+    <t xml:space="preserve">8.12057971954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03261375427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11023235321045</t>
   </si>
   <si>
     <t xml:space="preserve">8.23442077636719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31376361846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07401180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80838441848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47417545318604</t>
+    <t xml:space="preserve">8.31376266479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07400989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80838298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47417449951172</t>
   </si>
   <si>
     <t xml:space="preserve">8.62078762054443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77515983581543</t>
+    <t xml:space="preserve">8.77516078948975</t>
   </si>
   <si>
     <t xml:space="preserve">8.62854766845703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64148426055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68460559844971</t>
+    <t xml:space="preserve">8.6414852142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68460655212402</t>
   </si>
   <si>
     <t xml:space="preserve">8.54489326477051</t>
@@ -2576,10 +2576,10 @@
     <t xml:space="preserve">8.53971862792969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46631050109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39115715026855</t>
+    <t xml:space="preserve">8.46631145477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39115619659424</t>
   </si>
   <si>
     <t xml:space="preserve">8.52923202514648</t>
@@ -2591,103 +2591,103 @@
     <t xml:space="preserve">8.61312580108643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59390068054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59914302825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52573585510254</t>
+    <t xml:space="preserve">8.59389972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59914398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52573490142822</t>
   </si>
   <si>
     <t xml:space="preserve">8.53971672058105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43485164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28279209136963</t>
+    <t xml:space="preserve">8.43485260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28279304504395</t>
   </si>
   <si>
     <t xml:space="preserve">8.22511577606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39989566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47679805755615</t>
+    <t xml:space="preserve">8.39989471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47679710388184</t>
   </si>
   <si>
     <t xml:space="preserve">8.65856838226318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6917781829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71799278259277</t>
+    <t xml:space="preserve">8.69177532196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71799373626709</t>
   </si>
   <si>
     <t xml:space="preserve">8.74770641326904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99676609039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90063762664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92248630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86568355560303</t>
+    <t xml:space="preserve">8.9967679977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90063953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9224853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86568164825439</t>
   </si>
   <si>
     <t xml:space="preserve">8.84820461273193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8350944519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88753032684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744037628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81761837005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7826623916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82635688781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94433307647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18465518951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17154598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15406799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07541656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07104682922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9093770980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85694408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91374492645264</t>
+    <t xml:space="preserve">8.83509540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88752841949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81761932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78266143798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94433212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18465328216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17154693603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15406894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07541751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07104873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90937614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85694313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91374683380127</t>
   </si>
   <si>
     <t xml:space="preserve">8.99239730834961</t>
@@ -2696,148 +2696,148 @@
     <t xml:space="preserve">8.9661808013916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93122673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87442016601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83072566986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49602317810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63235187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73722076416016</t>
+    <t xml:space="preserve">8.93122482299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87442207336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83072662353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4960241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63235282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73721885681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.30901050567627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15170764923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05732727050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22686290740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33872222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36319160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21113300323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26182079315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32998371124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4418420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41562461853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22861003875732</t>
+    <t xml:space="preserve">8.15170955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05732917785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22686386108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33872318267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36319065093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2111349105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26181983947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32998275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44184112548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41562557220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22861099243164</t>
   </si>
   <si>
     <t xml:space="preserve">8.26706314086914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57292747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1919059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77768087387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67281246185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6902904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3547158241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13798809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08380651473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11701488494873</t>
+    <t xml:space="preserve">8.57292652130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19190692901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77768135070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67281198501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69029092788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35471487045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13798856735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08380699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11701536178589</t>
   </si>
   <si>
     <t xml:space="preserve">6.93349647521973</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80590772628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41440200805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04238367080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91130018234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80992698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08983659744263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19383001327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92204809188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06012344360352</t>
+    <t xml:space="preserve">6.80590724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4144024848938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04238414764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91129970550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80992794036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08983707427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19383096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92204785346985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06012392044067</t>
   </si>
   <si>
     <t xml:space="preserve">4.15974855422974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38521337509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5617413520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49532413482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67534780502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70331192016602</t>
+    <t xml:space="preserve">4.38521385192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56174087524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49532508850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67534732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70331239700317</t>
   </si>
   <si>
     <t xml:space="preserve">4.96373319625854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86585712432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83964061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87634420394897</t>
+    <t xml:space="preserve">4.86585664749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83964014053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87634325027466</t>
   </si>
   <si>
     <t xml:space="preserve">4.79244995117188</t>
@@ -2846,46 +2846,46 @@
     <t xml:space="preserve">5.01267194747925</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0476279258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17346858978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41116857528687</t>
+    <t xml:space="preserve">5.04762744903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17346811294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41116905212402</t>
   </si>
   <si>
     <t xml:space="preserve">5.28707504272461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24862337112427</t>
+    <t xml:space="preserve">5.24862384796143</t>
   </si>
   <si>
     <t xml:space="preserve">5.17871189117432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94625520706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03714084625244</t>
+    <t xml:space="preserve">4.94625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03714036941528</t>
   </si>
   <si>
     <t xml:space="preserve">5.06860113143921</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03888845443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78720664978027</t>
+    <t xml:space="preserve">5.03888893127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78720569610596</t>
   </si>
   <si>
     <t xml:space="preserve">4.93576860427856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13152122497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17172145843506</t>
+    <t xml:space="preserve">5.1315221786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1717209815979</t>
   </si>
   <si>
     <t xml:space="preserve">5.16298198699951</t>
@@ -2906,43 +2906,43 @@
     <t xml:space="preserve">5.53176593780518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31853580474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39893436431885</t>
+    <t xml:space="preserve">5.31853532791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39893388748169</t>
   </si>
   <si>
     <t xml:space="preserve">5.44437694549561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34649991989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25211906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02315902709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05461835861206</t>
+    <t xml:space="preserve">5.34650039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25211954116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02315807342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05461883544922</t>
   </si>
   <si>
     <t xml:space="preserve">5.43913316726685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95499467849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11404418945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86236190795898</t>
+    <t xml:space="preserve">4.95499420166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11404371261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86236143112183</t>
   </si>
   <si>
     <t xml:space="preserve">4.84837818145752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89382123947144</t>
+    <t xml:space="preserve">4.89382171630859</t>
   </si>
   <si>
     <t xml:space="preserve">4.97072458267212</t>
@@ -2957,10 +2957,10 @@
     <t xml:space="preserve">4.88683032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10705232620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32028341293335</t>
+    <t xml:space="preserve">5.10705280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32028293609619</t>
   </si>
   <si>
     <t xml:space="preserve">5.58594799041748</t>
@@ -2981,100 +2981,100 @@
     <t xml:space="preserve">5.83588266372681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46535015106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47059345245361</t>
+    <t xml:space="preserve">5.46535062789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47059392929077</t>
   </si>
   <si>
     <t xml:space="preserve">5.46360206604004</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40942144393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40767335891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31503915786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42165422439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08607864379883</t>
+    <t xml:space="preserve">5.40942096710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40767240524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31504011154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42165565490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08607912063599</t>
   </si>
   <si>
     <t xml:space="preserve">5.15249490737915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01966238021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07559156417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96198606491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11579084396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02141046524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19793701171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10880088806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02665424346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84663200378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87284898757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93227338790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01616716384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02490615844727</t>
+    <t xml:space="preserve">5.01966285705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07559204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96198558807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11579132080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02140998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19793748855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10880041122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02665376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84663105010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87284803390503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93227386474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01616668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02490568161011</t>
   </si>
   <si>
     <t xml:space="preserve">5.15948581695557</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04413223266602</t>
+    <t xml:space="preserve">5.04413175582886</t>
   </si>
   <si>
     <t xml:space="preserve">4.9584903717041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92178678512573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82915306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73477220535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50406408309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42016935348511</t>
+    <t xml:space="preserve">4.92178630828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82915353775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73477268218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50406312942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42016887664795</t>
   </si>
   <si>
     <t xml:space="preserve">4.31005907058716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51455020904541</t>
+    <t xml:space="preserve">4.51455116271973</t>
   </si>
   <si>
     <t xml:space="preserve">4.52678489685059</t>
@@ -3083,22 +3083,22 @@
     <t xml:space="preserve">4.72952938079834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44289064407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52329015731812</t>
+    <t xml:space="preserve">4.44289112091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52328968048096</t>
   </si>
   <si>
     <t xml:space="preserve">4.67709541320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65437412261963</t>
+    <t xml:space="preserve">4.65437364578247</t>
   </si>
   <si>
     <t xml:space="preserve">4.5564980506897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50930690765381</t>
+    <t xml:space="preserve">4.50930643081665</t>
   </si>
   <si>
     <t xml:space="preserve">4.46910762786865</t>
@@ -3110,16 +3110,16 @@
     <t xml:space="preserve">4.32753658294678</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30831003189087</t>
+    <t xml:space="preserve">4.30831050872803</t>
   </si>
   <si>
     <t xml:space="preserve">4.45337772369385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40269136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3581223487854</t>
+    <t xml:space="preserve">4.40269184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35812282562256</t>
   </si>
   <si>
     <t xml:space="preserve">4.27859878540039</t>
@@ -3128,73 +3128,73 @@
     <t xml:space="preserve">4.3048152923584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29957151412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21742582321167</t>
+    <t xml:space="preserve">4.2995719909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21742630004883</t>
   </si>
   <si>
     <t xml:space="preserve">4.17722702026367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20606517791748</t>
+    <t xml:space="preserve">4.20606422424316</t>
   </si>
   <si>
     <t xml:space="preserve">4.2182993888855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19208240509033</t>
+    <t xml:space="preserve">4.19208288192749</t>
   </si>
   <si>
     <t xml:space="preserve">4.04788970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05313348770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03390789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98496890068054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95088696479797</t>
+    <t xml:space="preserve">4.05313301086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03390645980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98496842384338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95088672637939</t>
   </si>
   <si>
     <t xml:space="preserve">4.0076904296875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17460489273071</t>
+    <t xml:space="preserve">4.1746039390564</t>
   </si>
   <si>
     <t xml:space="preserve">4.1781005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06274557113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79620718955994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75426077842712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72280025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6467707157135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58210277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72979092597961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61006712913513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72367358207703</t>
+    <t xml:space="preserve">4.06274604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79620742797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75426054000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72280049324036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64677119255066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58210253715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72979116439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61006760597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72367453575134</t>
   </si>
   <si>
     <t xml:space="preserve">3.6284191608429</t>
@@ -3203,43 +3203,43 @@
     <t xml:space="preserve">3.71231341362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74901676177979</t>
+    <t xml:space="preserve">3.74901652336121</t>
   </si>
   <si>
     <t xml:space="preserve">3.85213613510132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77523350715637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89058828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86349725723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79882860183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70444822311401</t>
+    <t xml:space="preserve">3.77523374557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8905885219574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86349749565125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7988293170929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70444798469543</t>
   </si>
   <si>
     <t xml:space="preserve">3.80319857597351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6135630607605</t>
+    <t xml:space="preserve">3.61356258392334</t>
   </si>
   <si>
     <t xml:space="preserve">3.74377346038818</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82329797744751</t>
+    <t xml:space="preserve">3.82329845428467</t>
   </si>
   <si>
     <t xml:space="preserve">3.91243577003479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81543302536011</t>
+    <t xml:space="preserve">3.81543374061584</t>
   </si>
   <si>
     <t xml:space="preserve">3.83553266525269</t>
@@ -3248,10 +3248,10 @@
     <t xml:space="preserve">3.87048840522766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7682421207428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66337490081787</t>
+    <t xml:space="preserve">3.76824235916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66337466239929</t>
   </si>
   <si>
     <t xml:space="preserve">3.55326414108276</t>
@@ -3260,19 +3260,19 @@
     <t xml:space="preserve">3.34527683258057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55850744247437</t>
+    <t xml:space="preserve">3.55850768089294</t>
   </si>
   <si>
     <t xml:space="preserve">3.74464750289917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83291101455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42191791534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39919567108154</t>
+    <t xml:space="preserve">3.83291149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42191743850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3991961479187</t>
   </si>
   <si>
     <t xml:space="preserve">4.81866645812988</t>
@@ -3290,85 +3290,85 @@
     <t xml:space="preserve">5.00393199920654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39194250106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49506282806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55973148345947</t>
+    <t xml:space="preserve">5.39194297790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49506235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55973052978516</t>
   </si>
   <si>
     <t xml:space="preserve">5.47583675384521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46185445785522</t>
+    <t xml:space="preserve">5.46185398101807</t>
   </si>
   <si>
     <t xml:space="preserve">5.68633890151978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04515933990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98682928085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90551948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92496299743652</t>
+    <t xml:space="preserve">6.04515981674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98682880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90551996231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92496395111084</t>
   </si>
   <si>
     <t xml:space="preserve">5.73229551315308</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82067537307739</t>
+    <t xml:space="preserve">5.82067584991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.84895706176758</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88430833816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12470054626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01334190368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02218103408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02571582794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11763000488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00980758666992</t>
+    <t xml:space="preserve">5.88430881500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12470102310181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01334285736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02218055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02571630477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11763048171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00980806350708</t>
   </si>
   <si>
     <t xml:space="preserve">5.93203353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0045051574707</t>
+    <t xml:space="preserve">6.00450468063354</t>
   </si>
   <si>
     <t xml:space="preserve">5.97445631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03278684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94440603256226</t>
+    <t xml:space="preserve">6.03278636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94440650939941</t>
   </si>
   <si>
     <t xml:space="preserve">5.78885936737061</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77295064926147</t>
+    <t xml:space="preserve">5.77295112609863</t>
   </si>
   <si>
     <t xml:space="preserve">5.93380117416382</t>
@@ -3383,13 +3383,13 @@
     <t xml:space="preserve">5.8542594909668</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77648591995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9832935333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30322790145874</t>
+    <t xml:space="preserve">5.77648544311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98329401016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30322742462158</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438972473145</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">6.25903749465942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14591217041016</t>
+    <t xml:space="preserve">6.145911693573</t>
   </si>
   <si>
     <t xml:space="preserve">6.32267093658447</t>
@@ -3407,88 +3407,88 @@
     <t xml:space="preserve">6.23429107666016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28908681869507</t>
+    <t xml:space="preserve">6.28908777236938</t>
   </si>
   <si>
     <t xml:space="preserve">5.96561765670776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94970941543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7588095664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55907201766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46008729934692</t>
+    <t xml:space="preserve">5.94970989227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75881004333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55907249450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46008682250977</t>
   </si>
   <si>
     <t xml:space="preserve">5.53255796432495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6280083656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79946422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68280363082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67396545410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90905523300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00273752212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12293338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2519679069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14060974121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21484851837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2219181060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28378438949585</t>
+    <t xml:space="preserve">5.62800741195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7994647026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6828031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6739649772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90905475616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00273704528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12293291091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25196743011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14060926437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21484804153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22191905975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28378486633301</t>
   </si>
   <si>
     <t xml:space="preserve">6.65497827529907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66558408737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51533937454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36332559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39514207839966</t>
+    <t xml:space="preserve">6.66558361053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51533842086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36332511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39514255523682</t>
   </si>
   <si>
     <t xml:space="preserve">6.63553476333618</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56659841537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79461860656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72790622711182</t>
+    <t xml:space="preserve">6.5665979385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79461812973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72790670394897</t>
   </si>
   <si>
     <t xml:space="preserve">7.6412935256958</t>
@@ -3497,22 +3497,22 @@
     <t xml:space="preserve">7.81805276870728</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94531869888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92764329910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20869064331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46322345733643</t>
+    <t xml:space="preserve">7.94531965255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9276442527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20868968963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46322250366211</t>
   </si>
   <si>
     <t xml:space="preserve">8.58695411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4402437210083</t>
+    <t xml:space="preserve">8.44024562835693</t>
   </si>
   <si>
     <t xml:space="preserve">8.55160331726074</t>
@@ -3521,70 +3521,70 @@
     <t xml:space="preserve">8.75841045379639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76371479034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54630088806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57104682922363</t>
+    <t xml:space="preserve">8.76371383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54629993438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.571044921875</t>
   </si>
   <si>
     <t xml:space="preserve">8.53746223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4314079284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24050712585449</t>
+    <t xml:space="preserve">8.43140602111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24050521850586</t>
   </si>
   <si>
     <t xml:space="preserve">8.17157173156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03369903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33242225646973</t>
+    <t xml:space="preserve">8.03369808197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33242130279541</t>
   </si>
   <si>
     <t xml:space="preserve">8.10970497131348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40489387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45085048675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53569602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49504089355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099559783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54983425140381</t>
+    <t xml:space="preserve">8.40489196777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45084953308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53569412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49503993988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54099655151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54983520507812</t>
   </si>
   <si>
     <t xml:space="preserve">8.41549873352051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19985103607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11324024200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05490970611572</t>
+    <t xml:space="preserve">8.19985198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11324119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05490875244141</t>
   </si>
   <si>
     <t xml:space="preserve">8.04430484771729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43317222595215</t>
+    <t xml:space="preserve">8.43317317962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.12561321258545</t>
@@ -3593,31 +3593,31 @@
     <t xml:space="preserve">8.10086727142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15919780731201</t>
+    <t xml:space="preserve">8.1591968536377</t>
   </si>
   <si>
     <t xml:space="preserve">7.79684066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87638282775879</t>
+    <t xml:space="preserve">7.87638378143311</t>
   </si>
   <si>
     <t xml:space="preserve">7.86931324005127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84810161590576</t>
+    <t xml:space="preserve">7.8481011390686</t>
   </si>
   <si>
     <t xml:space="preserve">8.11854267120361</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94885492324829</t>
+    <t xml:space="preserve">7.94885587692261</t>
   </si>
   <si>
     <t xml:space="preserve">8.21576118469238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65896987915039</t>
+    <t xml:space="preserve">7.65896940231323</t>
   </si>
   <si>
     <t xml:space="preserve">7.91703796386719</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">8.05314254760742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41372966766357</t>
+    <t xml:space="preserve">8.41373062133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.56751155853271</t>
@@ -3638,34 +3638,34 @@
     <t xml:space="preserve">8.65412330627441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44908237457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73366355895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64174938201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66119289398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5692777633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33418941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28292846679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36070346832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39120292663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22614288330078</t>
+    <t xml:space="preserve">8.44908332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73366451263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64174842834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66119384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56927967071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33418846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28292942047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36070251464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39120483398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2261438369751</t>
   </si>
   <si>
     <t xml:space="preserve">8.25126075744629</t>
@@ -3674,97 +3674,97 @@
     <t xml:space="preserve">8.48270511627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39299774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36967468261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59573554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69441318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76797389984131</t>
+    <t xml:space="preserve">8.3929967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36967277526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59573459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69441509246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76797294616699</t>
   </si>
   <si>
     <t xml:space="preserve">8.63700103759766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64776706695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61547088623047</t>
+    <t xml:space="preserve">8.64776611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61547183990479</t>
   </si>
   <si>
     <t xml:space="preserve">8.55447101593018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5670280456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74106216430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58317565917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57241153717041</t>
+    <t xml:space="preserve">8.56702995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74106121063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58317756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57241058349609</t>
   </si>
   <si>
     <t xml:space="preserve">8.38043880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2404956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27099609375</t>
+    <t xml:space="preserve">8.24049377441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27099704742432</t>
   </si>
   <si>
     <t xml:space="preserve">8.3535270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40914344787598</t>
+    <t xml:space="preserve">8.40914440155029</t>
   </si>
   <si>
     <t xml:space="preserve">8.46117401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50961780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22793674468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22972965240479</t>
+    <t xml:space="preserve">8.50961589813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22793769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2297306060791</t>
   </si>
   <si>
     <t xml:space="preserve">8.24587821960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40376281738281</t>
+    <t xml:space="preserve">8.40376377105713</t>
   </si>
   <si>
     <t xml:space="preserve">8.39838027954102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45758724212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05928802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908071517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8296365737915</t>
+    <t xml:space="preserve">8.45758628845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05928707122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908023834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82963705062866</t>
   </si>
   <si>
     <t xml:space="preserve">8.07543468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04672813415527</t>
+    <t xml:space="preserve">8.04672908782959</t>
   </si>
   <si>
     <t xml:space="preserve">7.87449026107788</t>
@@ -3773,112 +3773,112 @@
     <t xml:space="preserve">8.01263999938965</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87090253829956</t>
+    <t xml:space="preserve">7.87090301513672</t>
   </si>
   <si>
     <t xml:space="preserve">7.64842844009399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38289594650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5102801322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65739870071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57128143310547</t>
+    <t xml:space="preserve">7.38289546966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51027965545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65739965438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57127952575684</t>
   </si>
   <si>
     <t xml:space="preserve">7.65919351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87987327575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80990123748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8762845993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87269639968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69328117370605</t>
+    <t xml:space="preserve">7.87987279891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80990219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87628412246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87269687652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69328308105469</t>
   </si>
   <si>
     <t xml:space="preserve">7.75787115097046</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80810737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70584011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67892980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88884210586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84578514099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89243078231812</t>
+    <t xml:space="preserve">7.80810832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70584106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67892932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88884401321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84578418731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89243221282959</t>
   </si>
   <si>
     <t xml:space="preserve">7.90319776535034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69866418838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73275375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37392473220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3147177696228</t>
+    <t xml:space="preserve">7.69866371154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73275327682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37392520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31471824645996</t>
   </si>
   <si>
     <t xml:space="preserve">7.45466184616089</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47798490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54436826705933</t>
+    <t xml:space="preserve">7.47798585891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54436874389648</t>
   </si>
   <si>
     <t xml:space="preserve">7.61433982849121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73634052276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65201711654663</t>
+    <t xml:space="preserve">7.73634147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65201616287231</t>
   </si>
   <si>
     <t xml:space="preserve">7.74172449111938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61792707443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60357570648193</t>
+    <t xml:space="preserve">7.61792802810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60357427597046</t>
   </si>
   <si>
     <t xml:space="preserve">7.53539752960205</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47977924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44748449325562</t>
+    <t xml:space="preserve">7.4797797203064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44748401641846</t>
   </si>
   <si>
     <t xml:space="preserve">7.70404767990112</t>
@@ -3896,25 +3896,25 @@
     <t xml:space="preserve">7.24833488464355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24654102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62331104278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68431234359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72378301620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9839334487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625616073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01084518432617</t>
+    <t xml:space="preserve">7.24654054641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62331056594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6843113899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72378253936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98393297195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01084423065186</t>
   </si>
   <si>
     <t xml:space="preserve">8.15617084503174</t>
@@ -3923,19 +3923,19 @@
     <t xml:space="preserve">8.14540672302246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37146759033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09517097473145</t>
+    <t xml:space="preserve">8.37146854400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09517002105713</t>
   </si>
   <si>
     <t xml:space="preserve">8.22255420684814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59932422637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80385589599609</t>
+    <t xml:space="preserve">8.59932518005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80385684967041</t>
   </si>
   <si>
     <t xml:space="preserve">8.65673637390137</t>
@@ -3947,16 +3947,16 @@
     <t xml:space="preserve">8.59035301208496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85947418212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80744361877441</t>
+    <t xml:space="preserve">8.85947513580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80744457244873</t>
   </si>
   <si>
     <t xml:space="preserve">8.91868209838867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07387351989746</t>
+    <t xml:space="preserve">9.07387447357178</t>
   </si>
   <si>
     <t xml:space="preserve">8.89715194702148</t>
@@ -3965,31 +3965,31 @@
     <t xml:space="preserve">8.84691619873047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02902126312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02005100250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88100528717041</t>
+    <t xml:space="preserve">9.02902030944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02005004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88100433349609</t>
   </si>
   <si>
     <t xml:space="preserve">8.6352071762085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63879489898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87203407287598</t>
+    <t xml:space="preserve">8.63879585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87203311920166</t>
   </si>
   <si>
     <t xml:space="preserve">8.83794498443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72491455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27122974395752</t>
+    <t xml:space="preserve">8.72491359710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27123069763184</t>
   </si>
   <si>
     <t xml:space="preserve">9.52689456939697</t>
@@ -3998,25 +3998,25 @@
     <t xml:space="preserve">9.78256034851074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73322200775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41027641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31159782409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20843601226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18600845336914</t>
+    <t xml:space="preserve">9.73322296142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41027545928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.311598777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20843505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18600940704346</t>
   </si>
   <si>
     <t xml:space="preserve">8.99313735961914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73926734924316</t>
+    <t xml:space="preserve">8.73926639556885</t>
   </si>
   <si>
     <t xml:space="preserve">8.51499843597412</t>
@@ -4028,31 +4028,31 @@
     <t xml:space="preserve">8.66234111785889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76420974731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65506649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0420446395874</t>
+    <t xml:space="preserve">8.76421070098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65506553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04204559326172</t>
   </si>
   <si>
     <t xml:space="preserve">8.11480712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87832927703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20394134521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12572002410889</t>
+    <t xml:space="preserve">7.87833023071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20394229888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12572193145752</t>
   </si>
   <si>
     <t xml:space="preserve">8.14936923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26942729949951</t>
+    <t xml:space="preserve">8.2694263458252</t>
   </si>
   <si>
     <t xml:space="preserve">8.45315074920654</t>
@@ -4064,13 +4064,13 @@
     <t xml:space="preserve">8.18211269378662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11116886138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03840637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30762672424316</t>
+    <t xml:space="preserve">8.11116981506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.038405418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30762767791748</t>
   </si>
   <si>
     <t xml:space="preserve">8.05114078521729</t>
@@ -4079,16 +4079,16 @@
     <t xml:space="preserve">8.28215980529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21121788024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02749252319336</t>
+    <t xml:space="preserve">8.21121692657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02749347686768</t>
   </si>
   <si>
     <t xml:space="preserve">8.29125595092773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28943634033203</t>
+    <t xml:space="preserve">8.28943538665771</t>
   </si>
   <si>
     <t xml:space="preserve">8.30398845672607</t>
@@ -4097,10 +4097,10 @@
     <t xml:space="preserve">8.39312267303467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46042633056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.445876121521</t>
+    <t xml:space="preserve">8.46042728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44587516784668</t>
   </si>
   <si>
     <t xml:space="preserve">8.37675094604492</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">8.70781898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82787704467773</t>
+    <t xml:space="preserve">8.82787799835205</t>
   </si>
   <si>
     <t xml:space="preserve">8.89518070220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89699935913086</t>
+    <t xml:space="preserve">8.89700126647949</t>
   </si>
   <si>
     <t xml:space="preserve">8.91155338287354</t>
@@ -4124,34 +4124,34 @@
     <t xml:space="preserve">8.8660774230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04798221588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12711143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14985084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33175468444824</t>
+    <t xml:space="preserve">9.04798316955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12711048126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1498498916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33175563812256</t>
   </si>
   <si>
     <t xml:space="preserve">9.55458927154541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75468635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79106712341309</t>
+    <t xml:space="preserve">9.7546854019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7910680770874</t>
   </si>
   <si>
     <t xml:space="preserve">9.42270851135254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95884895324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37268447875977</t>
+    <t xml:space="preserve">8.95884990692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37268352508545</t>
   </si>
   <si>
     <t xml:space="preserve">10.0730199813843</t>
@@ -4160,43 +4160,43 @@
     <t xml:space="preserve">9.88656711578369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3731632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3140459060669</t>
+    <t xml:space="preserve">10.3731641769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3140449523926</t>
   </si>
   <si>
     <t xml:space="preserve">10.1821632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3868083953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959016799927</t>
+    <t xml:space="preserve">10.3868074417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.395902633667</t>
   </si>
   <si>
     <t xml:space="preserve">10.304949760437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4140939712524</t>
+    <t xml:space="preserve">10.4140930175781</t>
   </si>
   <si>
     <t xml:space="preserve">10.5186882019043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.627833366394</t>
+    <t xml:space="preserve">10.6278324127197</t>
   </si>
   <si>
     <t xml:space="preserve">10.4641170501709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5414266586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7824506759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4777603149414</t>
+    <t xml:space="preserve">10.5414276123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7824516296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4777612686157</t>
   </si>
   <si>
     <t xml:space="preserve">10.2822113037109</t>
@@ -4211,16 +4211,16 @@
     <t xml:space="preserve">9.93659114837646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82744789123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1321382522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4959497451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4049978256226</t>
+    <t xml:space="preserve">9.82744884490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1321392059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4959506988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4049968719482</t>
   </si>
   <si>
     <t xml:space="preserve">10.9188814163208</t>
@@ -4229,10 +4229,10 @@
     <t xml:space="preserve">10.6960468292236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5050458908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8738851547241</t>
+    <t xml:space="preserve">10.5050449371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8738861083984</t>
   </si>
   <si>
     <t xml:space="preserve">12.2558870315552</t>
@@ -4244,40 +4244,40 @@
     <t xml:space="preserve">11.7601947784424</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7556476593018</t>
+    <t xml:space="preserve">11.7556467056274</t>
   </si>
   <si>
     <t xml:space="preserve">11.4645967483521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0825958251953</t>
+    <t xml:space="preserve">11.0825967788696</t>
   </si>
   <si>
     <t xml:space="preserve">11.3190727233887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5009803771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2013158798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2695302963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6106023788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6469831466675</t>
+    <t xml:space="preserve">11.5009794235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2013149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2695293426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6106033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6469841003418</t>
   </si>
   <si>
     <t xml:space="preserve">12.9607706069946</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6651754379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3195533752441</t>
+    <t xml:space="preserve">12.6651744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3195552825928</t>
   </si>
   <si>
     <t xml:space="preserve">12.5287446975708</t>
@@ -4289,25 +4289,25 @@
     <t xml:space="preserve">12.6333417892456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6242437362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7288417816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5878648757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6424369812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2108917236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0881052017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5110359191895</t>
+    <t xml:space="preserve">12.6242456436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7288408279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5878639221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6424360275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2108907699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0881042480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5110349655151</t>
   </si>
   <si>
     <t xml:space="preserve">13.6247253417969</t>
@@ -4316,70 +4316,70 @@
     <t xml:space="preserve">13.69748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6656551361084</t>
+    <t xml:space="preserve">13.6656560897827</t>
   </si>
   <si>
     <t xml:space="preserve">13.6338214874268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2654619216919</t>
+    <t xml:space="preserve">13.2654628753662</t>
   </si>
   <si>
     <t xml:space="preserve">12.3604822158813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7970552444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379369735718</t>
+    <t xml:space="preserve">12.7970561981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379379272461</t>
   </si>
   <si>
     <t xml:space="preserve">13.4701061248779</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9516763687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5428686141968</t>
+    <t xml:space="preserve">12.9516754150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5428695678711</t>
   </si>
   <si>
     <t xml:space="preserve">13.3882493972778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245811462402</t>
+    <t xml:space="preserve">13.3245820999146</t>
   </si>
   <si>
     <t xml:space="preserve">13.2199859619141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7151985168457</t>
+    <t xml:space="preserve">12.7151966094971</t>
   </si>
   <si>
     <t xml:space="preserve">12.8425321578979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2836532592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9334850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4200820922852</t>
+    <t xml:space="preserve">13.283652305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9334859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4200830459595</t>
   </si>
   <si>
     <t xml:space="preserve">13.9930858612061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1795387268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0931339263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.729323387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.911226272583</t>
+    <t xml:space="preserve">14.1795377731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0931329727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7293224334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9112272262573</t>
   </si>
   <si>
     <t xml:space="preserve">14.2216014862061</t>
@@ -4388,16 +4388,16 @@
     <t xml:space="preserve">14.0270376205444</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2818231582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6709480285645</t>
+    <t xml:space="preserve">14.2818222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6709489822388</t>
   </si>
   <si>
     <t xml:space="preserve">14.8516139984131</t>
   </si>
   <si>
-    <t xml:space="preserve">15.027645111084</t>
+    <t xml:space="preserve">15.0276441574097</t>
   </si>
   <si>
     <t xml:space="preserve">14.4763851165771</t>
@@ -4406,22 +4406,22 @@
     <t xml:space="preserve">14.5875635147095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6199903488159</t>
+    <t xml:space="preserve">14.6199913024902</t>
   </si>
   <si>
     <t xml:space="preserve">14.5736665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.721905708313</t>
+    <t xml:space="preserve">14.7219047546387</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284502029419</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7867584228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1382179260254</t>
+    <t xml:space="preserve">14.7867593765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1382160186768</t>
   </si>
   <si>
     <t xml:space="preserve">13.7120313644409</t>
@@ -4430,7 +4430,7 @@
     <t xml:space="preserve">13.4989395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.383129119873</t>
+    <t xml:space="preserve">13.3831281661987</t>
   </si>
   <si>
     <t xml:space="preserve">12.9847383499146</t>
@@ -4439,67 +4439,67 @@
     <t xml:space="preserve">12.192590713501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0119256973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2389144897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3084011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6737565994263</t>
+    <t xml:space="preserve">12.0119247436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2389154434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3084020614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6737575531006</t>
   </si>
   <si>
     <t xml:space="preserve">11.3216915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5347833633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5533132553101</t>
+    <t xml:space="preserve">11.5347843170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5533142089844</t>
   </si>
   <si>
     <t xml:space="preserve">11.8405246734619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6644916534424</t>
+    <t xml:space="preserve">11.664493560791</t>
   </si>
   <si>
     <t xml:space="preserve">11.368016242981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1549243927002</t>
+    <t xml:space="preserve">11.1549224853516</t>
   </si>
   <si>
     <t xml:space="preserve">11.5625782012939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6082954406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2886571884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3309564590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.747875213623</t>
+    <t xml:space="preserve">10.6082944869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2886562347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3309555053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7478761672974</t>
   </si>
   <si>
     <t xml:space="preserve">11.8173627853394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7154502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5811071395874</t>
+    <t xml:space="preserve">11.7154493331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5811080932617</t>
   </si>
   <si>
     <t xml:space="preserve">11.1132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938957214355</t>
+    <t xml:space="preserve">11.2938966751099</t>
   </si>
   <si>
     <t xml:space="preserve">11.7525091171265</t>
@@ -4508,52 +4508,52 @@
     <t xml:space="preserve">11.789568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6691255569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4421348571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5718431472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6969194412231</t>
+    <t xml:space="preserve">11.6691246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4421358108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5718421936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6969184875488</t>
   </si>
   <si>
     <t xml:space="preserve">12.0628824234009</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2157526016235</t>
+    <t xml:space="preserve">12.2157535552979</t>
   </si>
   <si>
     <t xml:space="preserve">12.6048784255981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2667102813721</t>
+    <t xml:space="preserve">12.2667093276978</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945051193237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1555309295654</t>
+    <t xml:space="preserve">12.1555299758911</t>
   </si>
   <si>
     <t xml:space="preserve">11.6922874450684</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9146451950073</t>
+    <t xml:space="preserve">11.914644241333</t>
   </si>
   <si>
     <t xml:space="preserve">12.0350875854492</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9053802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1972236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1694278717041</t>
+    <t xml:space="preserve">11.9053783416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1972227096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1694288253784</t>
   </si>
   <si>
     <t xml:space="preserve">11.9378070831299</t>
@@ -4562,7 +4562,7 @@
     <t xml:space="preserve">12.3176670074463</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8961133956909</t>
+    <t xml:space="preserve">11.8961143493652</t>
   </si>
   <si>
     <t xml:space="preserve">12.9476795196533</t>
@@ -4580,37 +4580,37 @@
     <t xml:space="preserve">12.7484836578369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.739218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6836290359497</t>
+    <t xml:space="preserve">12.7392196655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.683629989624</t>
   </si>
   <si>
     <t xml:space="preserve">13.1144466400146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2348899841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7809114456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3778877258301</t>
+    <t xml:space="preserve">13.2348909378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7809104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3778867721558</t>
   </si>
   <si>
     <t xml:space="preserve">12.3825206756592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9986352920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2626848220825</t>
+    <t xml:space="preserve">12.9986362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2626857757568</t>
   </si>
   <si>
     <t xml:space="preserve">13.2024631500244</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1978311538696</t>
+    <t xml:space="preserve">13.1978302001953</t>
   </si>
   <si>
     <t xml:space="preserve">12.9059867858887</t>
@@ -4619,40 +4619,40 @@
     <t xml:space="preserve">12.5770835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5492887496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4288454055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7855434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579462051392</t>
+    <t xml:space="preserve">12.5492897033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4288444519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7855443954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5579471588135</t>
   </si>
   <si>
     <t xml:space="preserve">11.8080978393555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1647958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5214939117432</t>
+    <t xml:space="preserve">12.1647968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5214948654175</t>
   </si>
   <si>
     <t xml:space="preserve">12.2898731231689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1376094818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4433498382568</t>
+    <t xml:space="preserve">13.1376085281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4433507919312</t>
   </si>
   <si>
     <t xml:space="preserve">13.7212972640991</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9019632339478</t>
+    <t xml:space="preserve">13.9019622802734</t>
   </si>
   <si>
     <t xml:space="preserve">13.4248199462891</t>
@@ -4661,13 +4661,13 @@
     <t xml:space="preserve">12.7948093414307</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9106197357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5128364562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2441558837891</t>
+    <t xml:space="preserve">12.9106206893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5128374099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2441549301147</t>
   </si>
   <si>
     <t xml:space="preserve">13.6240158081055</t>
@@ -4694,22 +4694,22 @@
     <t xml:space="preserve">14.1845417022705</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5505046844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9257326126099</t>
+    <t xml:space="preserve">14.5505037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9257335662842</t>
   </si>
   <si>
     <t xml:space="preserve">14.7589645385742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9674253463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.421404838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5557451248169</t>
+    <t xml:space="preserve">14.9674234390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4214057922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5557460784912</t>
   </si>
   <si>
     <t xml:space="preserve">15.2407388687134</t>
@@ -4724,7 +4724,7 @@
     <t xml:space="preserve">14.819185256958</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7543315887451</t>
+    <t xml:space="preserve">14.7543325424194</t>
   </si>
   <si>
     <t xml:space="preserve">15.4538307189941</t>
@@ -4733,43 +4733,43 @@
     <t xml:space="preserve">15.5279512405396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0878667831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2083110809326</t>
+    <t xml:space="preserve">15.0878677368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2083120346069</t>
   </si>
   <si>
     <t xml:space="preserve">14.5342578887939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4891662597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1380968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2317161560059</t>
+    <t xml:space="preserve">15.4891653060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1380977630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2317152023315</t>
   </si>
   <si>
     <t xml:space="preserve">15.315972328186</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8993711471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3346939086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6483182907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2832078933716</t>
+    <t xml:space="preserve">14.8993701934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.33469581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6483173370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2832059860229</t>
   </si>
   <si>
     <t xml:space="preserve">15.0304365158081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8010721206665</t>
+    <t xml:space="preserve">14.8010711669922</t>
   </si>
   <si>
     <t xml:space="preserve">14.6700048446655</t>
@@ -4778,10 +4778,10 @@
     <t xml:space="preserve">14.3517026901245</t>
   </si>
   <si>
-    <t xml:space="preserve">14.529577255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4031925201416</t>
+    <t xml:space="preserve">14.5295782089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4031934738159</t>
   </si>
   <si>
     <t xml:space="preserve">14.2627649307251</t>
@@ -4793,19 +4793,19 @@
     <t xml:space="preserve">14.7776660919189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.492130279541</t>
+    <t xml:space="preserve">14.4921293258667</t>
   </si>
   <si>
     <t xml:space="preserve">14.3891496658325</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7074518203735</t>
+    <t xml:space="preserve">14.7074527740479</t>
   </si>
   <si>
     <t xml:space="preserve">14.9087324142456</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2504405975342</t>
+    <t xml:space="preserve">15.2504396438599</t>
   </si>
   <si>
     <t xml:space="preserve">15.521933555603</t>
@@ -4838,22 +4838,22 @@
     <t xml:space="preserve">14.7683038711548</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8244752883911</t>
+    <t xml:space="preserve">14.8244762420654</t>
   </si>
   <si>
     <t xml:space="preserve">14.8338375091553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0117120742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2270336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1240549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023498535156</t>
+    <t xml:space="preserve">15.0117130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2270345687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1240539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023508071899</t>
   </si>
   <si>
     <t xml:space="preserve">15.4563999176025</t>
@@ -4862,46 +4862,46 @@
     <t xml:space="preserve">16.0976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3066101074219</t>
+    <t xml:space="preserve">15.3066110610962</t>
   </si>
   <si>
     <t xml:space="preserve">15.4938459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.016393661499</t>
+    <t xml:space="preserve">15.0163946151733</t>
   </si>
   <si>
     <t xml:space="preserve">15.0444784164429</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0725650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4142713546753</t>
+    <t xml:space="preserve">15.072564125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4142723083496</t>
   </si>
   <si>
     <t xml:space="preserve">15.1802253723145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2129926681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8853273391724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3704261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2861700057983</t>
+    <t xml:space="preserve">15.2129917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8853282928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3704271316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.286169052124</t>
   </si>
   <si>
     <t xml:space="preserve">14.1691465377808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2768087387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6419191360474</t>
+    <t xml:space="preserve">14.2768077850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6419200897217</t>
   </si>
   <si>
     <t xml:space="preserve">14.8900079727173</t>
@@ -4913,7 +4913,7 @@
     <t xml:space="preserve">15.1615009307861</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2381134033203</t>
+    <t xml:space="preserve">16.2381114959717</t>
   </si>
   <si>
     <t xml:space="preserve">15.4610805511475</t>
@@ -4922,52 +4922,52 @@
     <t xml:space="preserve">15.2223539352417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7308578491211</t>
+    <t xml:space="preserve">14.7308559417725</t>
   </si>
   <si>
     <t xml:space="preserve">14.9976692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6793670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0397977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1053314208984</t>
+    <t xml:space="preserve">14.6793661117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0397987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1053304672241</t>
   </si>
   <si>
     <t xml:space="preserve">15.152138710022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2598009109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3393774032593</t>
+    <t xml:space="preserve">15.2597999572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.339376449585</t>
   </si>
   <si>
     <t xml:space="preserve">14.7636241912842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4593629837036</t>
+    <t xml:space="preserve">14.4593639373779</t>
   </si>
   <si>
     <t xml:space="preserve">13.612117767334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8087148666382</t>
+    <t xml:space="preserve">13.8087158203125</t>
   </si>
   <si>
     <t xml:space="preserve">12.5729532241821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6057186126709</t>
+    <t xml:space="preserve">12.6057195663452</t>
   </si>
   <si>
     <t xml:space="preserve">12.3763542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4091205596924</t>
+    <t xml:space="preserve">12.4091196060181</t>
   </si>
   <si>
     <t xml:space="preserve">12.8257217407227</t>
@@ -4976,10 +4976,10 @@
     <t xml:space="preserve">12.6899757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4044399261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0065612792969</t>
+    <t xml:space="preserve">12.4044389724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0065603256226</t>
   </si>
   <si>
     <t xml:space="preserve">12.1189031600952</t>
@@ -4997,16 +4997,16 @@
     <t xml:space="preserve">12.264012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6338043212891</t>
+    <t xml:space="preserve">12.6338052749634</t>
   </si>
   <si>
     <t xml:space="preserve">12.320182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1657114028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1329460144043</t>
+    <t xml:space="preserve">12.1657123565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1329469680786</t>
   </si>
   <si>
     <t xml:space="preserve">12.4606103897095</t>
@@ -5021,34 +5021,34 @@
     <t xml:space="preserve">12.4840154647827</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4231634140015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2874164581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2686929702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2172031402588</t>
+    <t xml:space="preserve">12.4231643676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2874174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2686920166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2172021865845</t>
   </si>
   <si>
     <t xml:space="preserve">12.1282653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8801765441895</t>
+    <t xml:space="preserve">11.8801755905151</t>
   </si>
   <si>
     <t xml:space="preserve">11.5618743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4869785308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3278284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6274061203003</t>
+    <t xml:space="preserve">11.4869794845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3278274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274070739746</t>
   </si>
   <si>
     <t xml:space="preserve">11.7210254669189</t>
@@ -5057,13 +5057,13 @@
     <t xml:space="preserve">11.7023010253906</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4682550430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3371896743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4729356765747</t>
+    <t xml:space="preserve">11.4682559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3371906280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.472936630249</t>
   </si>
   <si>
     <t xml:space="preserve">11.435489654541</t>
@@ -5072,7 +5072,7 @@
     <t xml:space="preserve">11.3559141159058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5103845596313</t>
+    <t xml:space="preserve">11.510383605957</t>
   </si>
   <si>
     <t xml:space="preserve">11.5478315353394</t>
@@ -5084,16 +5084,16 @@
     <t xml:space="preserve">11.8414611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8703422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323043823242</t>
+    <t xml:space="preserve">11.870343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323053359985</t>
   </si>
   <si>
     <t xml:space="preserve">11.533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7548170089722</t>
+    <t xml:space="preserve">11.7548160552979</t>
   </si>
   <si>
     <t xml:space="preserve">11.4371185302734</t>
@@ -5108,7 +5108,7 @@
     <t xml:space="preserve">11.884783744812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9618015289307</t>
+    <t xml:space="preserve">11.9618005752563</t>
   </si>
   <si>
     <t xml:space="preserve">12.2361764907837</t>
@@ -5117,7 +5117,7 @@
     <t xml:space="preserve">12.3324489593506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3950252532959</t>
+    <t xml:space="preserve">12.3950262069702</t>
   </si>
   <si>
     <t xml:space="preserve">12.3468885421753</t>
@@ -5132,7 +5132,7 @@
     <t xml:space="preserve">12.4479761123657</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5394334793091</t>
+    <t xml:space="preserve">12.5394325256348</t>
   </si>
   <si>
     <t xml:space="preserve">12.0484457015991</t>
@@ -5150,7 +5150,7 @@
     <t xml:space="preserve">12.4720430374146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4768562316895</t>
+    <t xml:space="preserve">12.4768571853638</t>
   </si>
   <si>
     <t xml:space="preserve">12.5105514526367</t>
@@ -5162,10 +5162,10 @@
     <t xml:space="preserve">13.2037105560303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1988964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2711009979248</t>
+    <t xml:space="preserve">13.1988973617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2711000442505</t>
   </si>
   <si>
     <t xml:space="preserve">13.1603879928589</t>
@@ -5174,19 +5174,19 @@
     <t xml:space="preserve">12.789740562439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266927719116</t>
+    <t xml:space="preserve">13.1266937255859</t>
   </si>
   <si>
     <t xml:space="preserve">13.0978107452393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4636449813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7091388702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7235794067383</t>
+    <t xml:space="preserve">13.46364402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7091379165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7235803604126</t>
   </si>
   <si>
     <t xml:space="preserve">13.6610021591187</t>
@@ -5216,7 +5216,7 @@
     <t xml:space="preserve">14.3541612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4456205368042</t>
+    <t xml:space="preserve">14.4456195831299</t>
   </si>
   <si>
     <t xml:space="preserve">14.440806388855</t>
@@ -5246,16 +5246,16 @@
     <t xml:space="preserve">14.835521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8499631881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8066396713257</t>
+    <t xml:space="preserve">14.8499622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.806640625</t>
   </si>
   <si>
     <t xml:space="preserve">14.8114538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7873849868774</t>
+    <t xml:space="preserve">14.7873859405518</t>
   </si>
   <si>
     <t xml:space="preserve">14.7248086929321</t>
@@ -5276,25 +5276,25 @@
     <t xml:space="preserve">14.4167385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5900268554688</t>
+    <t xml:space="preserve">14.5900278091431</t>
   </si>
   <si>
     <t xml:space="preserve">14.7199954986572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.68630027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.209753036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.349347114563</t>
+    <t xml:space="preserve">14.6862993240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2097539901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3493480682373</t>
   </si>
   <si>
     <t xml:space="preserve">14.2867708206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5081958770752</t>
+    <t xml:space="preserve">14.5081968307495</t>
   </si>
   <si>
     <t xml:space="preserve">14.4071111679077</t>
@@ -5306,7 +5306,7 @@
     <t xml:space="preserve">14.5996551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4889421463013</t>
+    <t xml:space="preserve">14.4889430999756</t>
   </si>
   <si>
     <t xml:space="preserve">14.8595905303955</t>
@@ -5321,19 +5321,19 @@
     <t xml:space="preserve">14.5274515151978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1231079101562</t>
+    <t xml:space="preserve">14.1231088638306</t>
   </si>
   <si>
     <t xml:space="preserve">14.1134805679321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1616172790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.166431427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5226383209229</t>
+    <t xml:space="preserve">14.1616182327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1664304733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5226373672485</t>
   </si>
   <si>
     <t xml:space="preserve">14.4263648986816</t>
@@ -5363,10 +5363,10 @@
     <t xml:space="preserve">14.7970123291016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772880554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713882446289</t>
+    <t xml:space="preserve">15.1772871017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713872909546</t>
   </si>
   <si>
     <t xml:space="preserve">15.2831859588623</t>
@@ -5378,7 +5378,7 @@
     <t xml:space="preserve">15.0425062179565</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6911144256592</t>
+    <t xml:space="preserve">14.6911134719849</t>
   </si>
   <si>
     <t xml:space="preserve">14.821081161499</t>
@@ -5387,16 +5387,16 @@
     <t xml:space="preserve">14.8644027709961</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5467052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7501058578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7096719741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0832061767578</t>
+    <t xml:space="preserve">14.5467042922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7501068115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7096729278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0832080841064</t>
   </si>
   <si>
     <t xml:space="preserve">15.586443901062</t>
@@ -5411,16 +5411,16 @@
     <t xml:space="preserve">15.4901714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7164125442505</t>
+    <t xml:space="preserve">15.7164115905762</t>
   </si>
   <si>
     <t xml:space="preserve">15.4997987747192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5190534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8980979919434</t>
+    <t xml:space="preserve">15.5190544128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8980989456177</t>
   </si>
   <si>
     <t xml:space="preserve">15.081015586853</t>
@@ -5841,6 +5841,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.3500003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2449998855591</t>
   </si>
 </sst>
 </file>
@@ -62368,7 +62371,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6502083333</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>3431771</v>
@@ -62389,6 +62392,32 @@
         <v>1942</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6495949074</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>2830883</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>14.5600004196167</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>14.2200002670288</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>14.4499998092651</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>14.2449998855591</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1945">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30197715759277</t>
+    <t xml:space="preserve">8.30197811126709</t>
   </si>
   <si>
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11749076843262</t>
+    <t xml:space="preserve">8.31735038757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1174898147583</t>
   </si>
   <si>
     <t xml:space="preserve">7.88687896728516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58708524703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50253009796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4640941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021480560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45640563964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98749732971191</t>
+    <t xml:space="preserve">7.58708572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50252962112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46409463882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021671295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45640659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98749780654907</t>
   </si>
   <si>
     <t xml:space="preserve">6.92600107192993</t>
@@ -77,133 +77,133 @@
     <t xml:space="preserve">7.14508295059204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74151372909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99518442153931</t>
+    <t xml:space="preserve">6.7415132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9951868057251</t>
   </si>
   <si>
     <t xml:space="preserve">7.17582988739014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14892625808716</t>
+    <t xml:space="preserve">7.14892435073853</t>
   </si>
   <si>
     <t xml:space="preserve">7.26423072814941</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28729200363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19889163970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84528732299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86835050582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797161102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78379154205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64158201217651</t>
+    <t xml:space="preserve">7.28729009628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19889068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84528779983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86834907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41796970367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78379201889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64158153533936</t>
   </si>
   <si>
     <t xml:space="preserve">7.17198514938354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33341360092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10664653778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53711986541748</t>
+    <t xml:space="preserve">7.33341312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10664701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53711891174316</t>
   </si>
   <si>
     <t xml:space="preserve">7.44487571716309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20273351669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50637340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23348140716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89909791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91062641143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55633592605591</t>
+    <t xml:space="preserve">7.20273494720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50637102127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23348379135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89909696578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9106273651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55633640289307</t>
   </si>
   <si>
     <t xml:space="preserve">7.72545099258423</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90993881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85613012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02524471282959</t>
+    <t xml:space="preserve">7.90994071960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8561315536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02524566650391</t>
   </si>
   <si>
     <t xml:space="preserve">8.34809970855713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44034385681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13286399841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28660202026367</t>
+    <t xml:space="preserve">8.44034194946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13286209106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28660297393799</t>
   </si>
   <si>
     <t xml:space="preserve">8.00218391418457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24816703796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15592479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39422130584717</t>
+    <t xml:space="preserve">8.24816608428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15592384338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3942232131958</t>
   </si>
   <si>
     <t xml:space="preserve">8.24048233032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20204544067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3865327835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.140549659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08674240112305</t>
+    <t xml:space="preserve">8.2020435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38653564453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14055156707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08674144744873</t>
   </si>
   <si>
     <t xml:space="preserve">8.41728210449219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25585556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94068717956543</t>
+    <t xml:space="preserve">8.25585651397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94068908691406</t>
   </si>
   <si>
     <t xml:space="preserve">8.07905387878418</t>
@@ -212,64 +212,64 @@
     <t xml:space="preserve">8.05599308013916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51721382141113</t>
+    <t xml:space="preserve">8.51721286773682</t>
   </si>
   <si>
     <t xml:space="preserve">8.55564880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61714553833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87850379943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87081718444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90925025939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17061138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3089771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34741306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40122032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10911750793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27822685241699</t>
+    <t xml:space="preserve">8.61714458465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87850475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87081813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90925312042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17060947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30897808074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.347412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40121936798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1091136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27822875976562</t>
   </si>
   <si>
     <t xml:space="preserve">9.28591728210449</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05530548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93231391906738</t>
+    <t xml:space="preserve">9.05530452728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93231201171875</t>
   </si>
   <si>
     <t xml:space="preserve">8.45571804046631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40959358215332</t>
+    <t xml:space="preserve">8.40959644317627</t>
   </si>
   <si>
     <t xml:space="preserve">8.85544300079346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.694016456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66326713562012</t>
+    <t xml:space="preserve">8.69401550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66326808929443</t>
   </si>
   <si>
     <t xml:space="preserve">8.74782371520996</t>
@@ -281,115 +281,115 @@
     <t xml:space="preserve">8.91693878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11680126190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14755058288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84775638580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0322437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09535217285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20578956604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22945308685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44244289398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46610832214355</t>
+    <t xml:space="preserve">9.11680316925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14754867553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84775543212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03224468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09535121917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20578861236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22945499420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44244194030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46610736846924</t>
   </si>
   <si>
     <t xml:space="preserve">9.47399806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39511013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28467559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1505708694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11901760101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57654571533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0498514175415</t>
+    <t xml:space="preserve">9.39511108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28467464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15056991577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11901569366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57654476165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0498504638672</t>
   </si>
   <si>
     <t xml:space="preserve">10.2233972549438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0419645309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0104093551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7895336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65543174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85264015197754</t>
+    <t xml:space="preserve">10.0419616699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0104074478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78953170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65542984008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85263919830322</t>
   </si>
   <si>
     <t xml:space="preserve">9.6712064743042</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91574764251709</t>
+    <t xml:space="preserve">9.91574668884277</t>
   </si>
   <si>
     <t xml:space="preserve">10.1918430328369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93941402435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3338346481323</t>
+    <t xml:space="preserve">9.93941116333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3338356018066</t>
   </si>
   <si>
     <t xml:space="preserve">9.81319808959961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53710460662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63965511322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1366243362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2628402709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048290252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3653888702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1208467483521</t>
+    <t xml:space="preserve">9.5371036529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6396541595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.136622428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2628393173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048299789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3653898239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1208477020264</t>
   </si>
   <si>
     <t xml:space="preserve">9.82897472381592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90785884857178</t>
+    <t xml:space="preserve">9.90785980224609</t>
   </si>
   <si>
     <t xml:space="preserve">10.0261840820312</t>
@@ -404,37 +404,37 @@
     <t xml:space="preserve">9.99463081359863</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1129589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71853923797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88419342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68698406219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56076717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6633186340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59232330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30834102630615</t>
+    <t xml:space="preserve">10.1129570007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71853637695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88419532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68698310852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56076812744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66331768035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59232234954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30833911895752</t>
   </si>
   <si>
     <t xml:space="preserve">9.43455410003662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18212413787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04013252258301</t>
+    <t xml:space="preserve">9.18212509155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04013156890869</t>
   </si>
   <si>
     <t xml:space="preserve">9.22156620025635</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">9.89997100830078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87630558013916</t>
+    <t xml:space="preserve">9.87630748748779</t>
   </si>
   <si>
     <t xml:space="preserve">10.0025205612183</t>
@@ -458,85 +458,85 @@
     <t xml:space="preserve">10.2312860488892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1760654449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1524000167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0340738296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97096729278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58443260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72642421722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80531024932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60021114349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33989238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13479328155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1900110244751</t>
+    <t xml:space="preserve">10.1760663986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.152400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0340728759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97096633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58443355560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72642517089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80531215667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60021209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33989334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13479518890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19001197814941</t>
   </si>
   <si>
     <t xml:space="preserve">9.36355781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24523258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14268112182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16634750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3872241973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17423534393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90603065490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0243558883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86841869354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0182971954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1681795120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2943916320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4916038513184</t>
+    <t xml:space="preserve">9.24522972106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1426830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16634654998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38722324371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17423629760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90602970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02435493469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86841583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0182991027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1681776046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2943935394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707271575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.491602897644</t>
   </si>
   <si>
     <t xml:space="preserve">10.1602878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3732786178589</t>
+    <t xml:space="preserve">10.3732738494873</t>
   </si>
   <si>
     <t xml:space="preserve">10.3496103286743</t>
@@ -548,70 +548,70 @@
     <t xml:space="preserve">10.5862636566162</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5389318466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547113418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5073795318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6099290847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022813796997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4363832473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3969411849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79742050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567796707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936712265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3987703323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5328731536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5249853134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092096328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7260246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3916778564453</t>
+    <t xml:space="preserve">10.5389337539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.554708480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.507378578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6099309921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022794723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4363842010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3969430923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.256778717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936731338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3987712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5328741073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5249872207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041105270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7260217666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.391676902771</t>
   </si>
   <si>
     <t xml:space="preserve">11.6304979324341</t>
   </si>
   <si>
-    <t xml:space="preserve">11.670298576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4235200881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2563457489014</t>
+    <t xml:space="preserve">11.6703004837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4235210418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2563467025757</t>
   </si>
   <si>
     <t xml:space="preserve">11.9966859817505</t>
@@ -620,121 +620,121 @@
     <t xml:space="preserve">12.4902458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3787984848022</t>
+    <t xml:space="preserve">12.3787956237793</t>
   </si>
   <si>
     <t xml:space="preserve">12.6892614364624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8564348220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7370252609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.888277053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.23854637146</t>
+    <t xml:space="preserve">12.8564338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7370262145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8882780075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2385444641113</t>
   </si>
   <si>
     <t xml:space="preserve">13.0474891662598</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9599237442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.095253944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9838027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0395288467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2226247787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1270980834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2783498764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.525128364563</t>
+    <t xml:space="preserve">12.959924697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0952558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9838047027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.039529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2226257324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1270971298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2783479690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5251302719116</t>
   </si>
   <si>
     <t xml:space="preserve">13.6843404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7082214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.732105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6524972915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5808534622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5649328231812</t>
+    <t xml:space="preserve">13.7082233428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092039108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7321081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763820648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6524991989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5808515548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5649347305298</t>
   </si>
   <si>
     <t xml:space="preserve">13.4694042205811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659172058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5171699523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.45348072052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2146635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.461443901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5569725036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3897981643677</t>
+    <t xml:space="preserve">13.3659162521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5171670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4534816741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2146644592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4614448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5569715499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.389799118042</t>
   </si>
   <si>
     <t xml:space="preserve">13.3499946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6923017501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7161827087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5490121841431</t>
+    <t xml:space="preserve">13.6923027038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7161817550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490102767944</t>
   </si>
   <si>
     <t xml:space="preserve">12.8803176879883</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8723554611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7847881317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9519624710083</t>
+    <t xml:space="preserve">12.8723573684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7847890853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9519634246826</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768278121948</t>
@@ -743,52 +743,52 @@
     <t xml:space="preserve">12.8086709976196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5220880508423</t>
+    <t xml:space="preserve">12.5220861434937</t>
   </si>
   <si>
     <t xml:space="preserve">12.7290649414062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.816632270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201211929321</t>
+    <t xml:space="preserve">12.8166303634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201192855835</t>
   </si>
   <si>
     <t xml:space="preserve">12.6255760192871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4982070922852</t>
+    <t xml:space="preserve">12.4982061386108</t>
   </si>
   <si>
     <t xml:space="preserve">12.8484725952148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9041976928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4265604019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628749847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5539321899414</t>
+    <t xml:space="preserve">12.9041996002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4265613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628740310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5539302825928</t>
   </si>
   <si>
     <t xml:space="preserve">12.2991905212402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1399774551392</t>
+    <t xml:space="preserve">12.1399765014648</t>
   </si>
   <si>
     <t xml:space="preserve">12.1718196868896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0842533111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7021408081055</t>
+    <t xml:space="preserve">12.0842542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7021427154541</t>
   </si>
   <si>
     <t xml:space="preserve">11.7180633544922</t>
@@ -797,109 +797,109 @@
     <t xml:space="preserve">11.7658271789551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6782608032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9489221572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.028528213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1240549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9091167449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.749906539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7737884521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8533945083618</t>
+    <t xml:space="preserve">11.6782598495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9489231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0285272598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1240568161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9091176986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7499046325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7737874984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8533935546875</t>
   </si>
   <si>
     <t xml:space="preserve">11.5906944274902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4822854995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4026784896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927503585815</t>
+    <t xml:space="preserve">12.4822845458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4026794433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927494049072</t>
   </si>
   <si>
     <t xml:space="preserve">12.6972227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8643960952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8405132293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5857744216919</t>
+    <t xml:space="preserve">12.8643970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8405122756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5857734680176</t>
   </si>
   <si>
     <t xml:space="preserve">12.0046472549438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.10813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8931980133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9648427963257</t>
+    <t xml:space="preserve">12.1081342697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.893196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.96484375</t>
   </si>
   <si>
     <t xml:space="preserve">11.9728050231934</t>
   </si>
   <si>
-    <t xml:space="preserve">11.956883430481</t>
+    <t xml:space="preserve">11.9568815231323</t>
   </si>
   <si>
     <t xml:space="preserve">12.1320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.463321685791</t>
+    <t xml:space="preserve">11.463324546814</t>
   </si>
   <si>
     <t xml:space="preserve">11.4474010467529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4951639175415</t>
+    <t xml:space="preserve">11.4951648712158</t>
   </si>
   <si>
     <t xml:space="preserve">11.3757562637329</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652904510498</t>
+    <t xml:space="preserve">11.0652894973755</t>
   </si>
   <si>
     <t xml:space="preserve">11.2324638366699</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2245044708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2404260635376</t>
+    <t xml:space="preserve">11.2245025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2404251098633</t>
   </si>
   <si>
     <t xml:space="preserve">11.4155588150024</t>
   </si>
   <si>
-    <t xml:space="preserve">11.471284866333</t>
+    <t xml:space="preserve">11.4712839126587</t>
   </si>
   <si>
     <t xml:space="preserve">11.3279914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5747737884521</t>
+    <t xml:space="preserve">11.5747709274292</t>
   </si>
   <si>
     <t xml:space="preserve">11.2961492538452</t>
@@ -911,118 +911,118 @@
     <t xml:space="preserve">11.6170978546143</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5683860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6252117156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5196771621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3491945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2193059921265</t>
+    <t xml:space="preserve">11.5683870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6252126693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5196781158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.349193572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2193040847778</t>
   </si>
   <si>
     <t xml:space="preserve">11.1787147521973</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9189319610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0488233566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082330703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9838771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7971601486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9676418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3735513687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0650596618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1137666702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.878342628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9351682662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8377523422241</t>
+    <t xml:space="preserve">10.9189338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0488243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082340240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9838781356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7971611022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.96764087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3735504150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0650606155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1137676239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8783407211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9351711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8377513885498</t>
   </si>
   <si>
     <t xml:space="preserve">10.8458690643311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8945760726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0812950134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4222593307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4466142654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.292368888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1949501037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9026975631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0407066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3654327392578</t>
+    <t xml:space="preserve">10.8945789337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0812959671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4222612380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4466133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2923698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1949520111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9026966094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0407056808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3654298782349</t>
   </si>
   <si>
     <t xml:space="preserve">11.5034418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6089782714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5359144210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3410778045654</t>
+    <t xml:space="preserve">11.6089773178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5359125137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3410768508911</t>
   </si>
   <si>
     <t xml:space="preserve">11.0975322723389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.203070640564</t>
+    <t xml:space="preserve">11.2030687332153</t>
   </si>
   <si>
     <t xml:space="preserve">10.8702230453491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.642915725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373764038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427291870117</t>
+    <t xml:space="preserve">10.6429147720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373802185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427196502686</t>
   </si>
   <si>
     <t xml:space="preserve">9.85545349121094</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">9.70932579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79862499237061</t>
+    <t xml:space="preserve">9.79862689971924</t>
   </si>
   <si>
     <t xml:space="preserve">9.66061592102051</t>
@@ -1043,22 +1043,22 @@
     <t xml:space="preserve">9.46578121185303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49825382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44954586029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40895366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36024570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27906322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3358907699585</t>
+    <t xml:space="preserve">9.49825286865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44954395294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40895462036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36024284362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2790641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33589172363281</t>
   </si>
   <si>
     <t xml:space="preserve">9.30341815948486</t>
@@ -1067,235 +1067,235 @@
     <t xml:space="preserve">9.26282691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19788265228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10858154296875</t>
+    <t xml:space="preserve">9.1978816986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10858345031738</t>
   </si>
   <si>
     <t xml:space="preserve">8.98680877685547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09234523773193</t>
+    <t xml:space="preserve">9.09234619140625</t>
   </si>
   <si>
     <t xml:space="preserve">9.11669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0761079788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22223472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52260780334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61190795898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62814331054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41707324981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65249919891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88792610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80674457550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83109855651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83921813964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78239059448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76615142822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74179935455322</t>
+    <t xml:space="preserve">9.07610988616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2222375869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52260589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61190700531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62814521789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41707229614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65249824523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88792514801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80674362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83109760284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83921718597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78238964080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76615238189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991798400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74179744720459</t>
   </si>
   <si>
     <t xml:space="preserve">9.70120716094971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60379123687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35212802886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32777214050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44142627716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21411609649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1004638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12481784820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18164539337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27094554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49013423919678</t>
+    <t xml:space="preserve">9.60378932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35212707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32777118682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44142723083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21411895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10046291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12481880187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1816463470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27094650268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49013614654541</t>
   </si>
   <si>
     <t xml:space="preserve">9.53884506225586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6023244857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6835050582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6510324478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5617332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4805507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587808609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2288904190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96910953521729</t>
+    <t xml:space="preserve">10.6023263931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6835060119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6510334014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5617322921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4805526733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587789535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2288885116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96910667419434</t>
   </si>
   <si>
     <t xml:space="preserve">9.81486225128174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84733581542969</t>
+    <t xml:space="preserve">9.84733390808105</t>
   </si>
   <si>
     <t xml:space="preserve">9.9293966293335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.257640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2001991271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95401573181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94580936431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.01966381073</t>
+    <t xml:space="preserve">10.2576398849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2001972198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95401382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94580745697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0196628570557</t>
   </si>
   <si>
     <t xml:space="preserve">10.2248163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4545879364014</t>
+    <t xml:space="preserve">10.4545869827271</t>
   </si>
   <si>
     <t xml:space="preserve">10.3397016525269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1673746109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2986707687378</t>
+    <t xml:space="preserve">10.1673736572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2986717224121</t>
   </si>
   <si>
     <t xml:space="preserve">10.3971452713013</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6843585968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0043983459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7418022155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5940895080566</t>
+    <t xml:space="preserve">10.6843595504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0043964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7418012619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5940914154053</t>
   </si>
   <si>
     <t xml:space="preserve">10.4956188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7007703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776805877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7089757919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8730983734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9551591873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9059247970581</t>
+    <t xml:space="preserve">10.7007694244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776777267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7089767456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8730993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9551601409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9059228897095</t>
   </si>
   <si>
     <t xml:space="preserve">10.799243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9961910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1931381225586</t>
+    <t xml:space="preserve">10.9961891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931371688843</t>
   </si>
   <si>
     <t xml:space="preserve">11.1685190200806</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2669925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2587862014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5459995269775</t>
+    <t xml:space="preserve">11.2669906616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2587852478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5460023880005</t>
   </si>
   <si>
     <t xml:space="preserve">11.6526794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7183294296265</t>
+    <t xml:space="preserve">11.7183284759521</t>
   </si>
   <si>
     <t xml:space="preserve">11.4803504943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4229078292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5952348709106</t>
+    <t xml:space="preserve">11.4229097366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5952377319336</t>
   </si>
   <si>
     <t xml:space="preserve">11.6855030059814</t>
@@ -1304,28 +1304,28 @@
     <t xml:space="preserve">11.9070701599121</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9152755737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7921838760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8660373687744</t>
+    <t xml:space="preserve">11.9152765274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7921829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8660383224487</t>
   </si>
   <si>
     <t xml:space="preserve">11.9316873550415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7675647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5542068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5090713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2834053039551</t>
+    <t xml:space="preserve">11.7675666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5542058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.509072303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2834033966064</t>
   </si>
   <si>
     <t xml:space="preserve">11.1603136062622</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">10.8648929595947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0249118804932</t>
+    <t xml:space="preserve">11.0249128341675</t>
   </si>
   <si>
     <t xml:space="preserve">10.5981931686401</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">10.5366487503052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4381761550903</t>
+    <t xml:space="preserve">10.4381742477417</t>
   </si>
   <si>
     <t xml:space="preserve">10.610502243042</t>
@@ -1352,22 +1352,22 @@
     <t xml:space="preserve">10.6679458618164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8197603225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.148003578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2464771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1192827224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.463939666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9645118713379</t>
+    <t xml:space="preserve">10.8197574615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1480026245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2464761734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1192836761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4639387130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9645099639893</t>
   </si>
   <si>
     <t xml:space="preserve">11.8537292480469</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">11.5418977737427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6937103271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7552537918091</t>
+    <t xml:space="preserve">11.6937112808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7552576065063</t>
   </si>
   <si>
     <t xml:space="preserve">11.6198539733887</t>
@@ -1388,55 +1388,55 @@
     <t xml:space="preserve">11.9193782806396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3543033599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1737680435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0876007080078</t>
+    <t xml:space="preserve">12.354302406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1737670898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0876026153564</t>
   </si>
   <si>
     <t xml:space="preserve">11.8085956573486</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7060194015503</t>
+    <t xml:space="preserve">11.7060213088989</t>
   </si>
   <si>
     <t xml:space="preserve">11.8906564712524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7429485321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768218994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4035396575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6444730758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1726207733154</t>
+    <t xml:space="preserve">11.7429494857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768199920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4035387039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.644474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1726226806641</t>
   </si>
   <si>
     <t xml:space="preserve">11.2013425827026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3490524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2259616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.447527885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4885597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4147024154663</t>
+    <t xml:space="preserve">11.3490533828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2259635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4885559082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4147043228149</t>
   </si>
   <si>
     <t xml:space="preserve">11.9398937225342</t>
@@ -1445,73 +1445,73 @@
     <t xml:space="preserve">11.7019166946411</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7347421646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0670881271362</t>
+    <t xml:space="preserve">11.7347412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0670890808105</t>
   </si>
   <si>
     <t xml:space="preserve">12.2763452529907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.305064201355</t>
+    <t xml:space="preserve">12.3050661087036</t>
   </si>
   <si>
     <t xml:space="preserve">12.2230043411255</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2106962203979</t>
+    <t xml:space="preserve">12.2106952667236</t>
   </si>
   <si>
     <t xml:space="preserve">12.4363632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5102186203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5471458435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7276811599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8220500946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5389404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5881757736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4814977645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7769165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241506576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.211841583252</t>
+    <t xml:space="preserve">12.510217666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5471467971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7276802062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8220491409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5881748199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4814968109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7769184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2118396759033</t>
   </si>
   <si>
     <t xml:space="preserve">13.2405624389648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5318775177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2364587783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4539213180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3513441085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3964796066284</t>
+    <t xml:space="preserve">13.5318794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.236457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4539232254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3513460159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3964786529541</t>
   </si>
   <si>
     <t xml:space="preserve">13.3308305740356</t>
@@ -1526,67 +1526,67 @@
     <t xml:space="preserve">14.0857915878296</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0283489227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1868591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1952037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698377609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5653257369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2316150665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0939598083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1648740768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2357873916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.806134223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9646463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6935091018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6517944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0188760757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9813346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0689315795898</t>
+    <t xml:space="preserve">14.0283470153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.186861038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1952018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.869836807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5653247833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.231614112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0939617156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1648731231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2357883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8061361312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9646472930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6935081481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6517925262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.018874168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9813327789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0689325332642</t>
   </si>
   <si>
     <t xml:space="preserve">13.0981311798096</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9396200180054</t>
+    <t xml:space="preserve">12.9396190643311</t>
   </si>
   <si>
     <t xml:space="preserve">13.1565313339233</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5475082397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5683650970459</t>
+    <t xml:space="preserve">12.5475091934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5683660507202</t>
   </si>
   <si>
     <t xml:space="preserve">12.4390535354614</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">12.4807682037354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0856161117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5266532897949</t>
+    <t xml:space="preserve">13.0856170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5266523361206</t>
   </si>
   <si>
     <t xml:space="preserve">12.5767087936401</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">13.2191019058228</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1440181732178</t>
+    <t xml:space="preserve">13.1440162658691</t>
   </si>
   <si>
     <t xml:space="preserve">13.1106462478638</t>
@@ -1616,22 +1616,22 @@
     <t xml:space="preserve">13.04807472229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2566442489624</t>
+    <t xml:space="preserve">13.2566452026367</t>
   </si>
   <si>
     <t xml:space="preserve">13.2941875457764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2900142669678</t>
+    <t xml:space="preserve">13.2900161743164</t>
   </si>
   <si>
     <t xml:space="preserve">13.3567571640015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6988115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7613801956177</t>
+    <t xml:space="preserve">13.6988096237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.761381149292</t>
   </si>
   <si>
     <t xml:space="preserve">13.3650999069214</t>
@@ -1643,28 +1643,28 @@
     <t xml:space="preserve">13.2858438491821</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2274436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2399597167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1315011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1356735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.914589881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9896755218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0397319793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2263135910034</t>
+    <t xml:space="preserve">13.227442741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2399587631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1315021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1356716156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9145908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9896745681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0397329330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2263145446777</t>
   </si>
   <si>
     <t xml:space="preserve">12.4015102386475</t>
@@ -1676,115 +1676,115 @@
     <t xml:space="preserve">12.626766204834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5808801651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809930801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4640817642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1595697402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0636281967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428861618042</t>
+    <t xml:space="preserve">12.5808811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4640808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1595706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0636291503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428852081299</t>
   </si>
   <si>
     <t xml:space="preserve">12.2471714019775</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2221422195435</t>
+    <t xml:space="preserve">12.2221412658691</t>
   </si>
   <si>
     <t xml:space="preserve">12.3514556884766</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7435636520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5349960327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5391654968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8383741378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0552864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260877609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9468307495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922632217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4963216781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.308611869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2001533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2710666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5380344390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5255212783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5296936035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5964345932007</t>
+    <t xml:space="preserve">12.7435646057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5349941253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5391674041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8383760452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0552854537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.026086807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9468297958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5922660827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4963207244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3086099624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2001543045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2710676193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5380363464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.525520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.529691696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5964336395264</t>
   </si>
   <si>
     <t xml:space="preserve">11.7507762908936</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7591180801392</t>
+    <t xml:space="preserve">11.7591190338135</t>
   </si>
   <si>
     <t xml:space="preserve">11.6882057189941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6047773361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7215766906738</t>
+    <t xml:space="preserve">11.6047782897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7215747833252</t>
   </si>
   <si>
     <t xml:space="preserve">12.3681402206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2721977233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2137994766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0385999679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3639688491821</t>
+    <t xml:space="preserve">12.272198677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2137985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0386009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3639669418335</t>
   </si>
   <si>
     <t xml:space="preserve">12.4223680496216</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5975656509399</t>
+    <t xml:space="preserve">12.5975646972656</t>
   </si>
   <si>
     <t xml:space="preserve">12.2596836090088</t>
@@ -1799,34 +1799,34 @@
     <t xml:space="preserve">12.2555131912231</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382612228394</t>
+    <t xml:space="preserve">11.738263130188</t>
   </si>
   <si>
     <t xml:space="preserve">11.7466049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7966613769531</t>
+    <t xml:space="preserve">11.7966623306274</t>
   </si>
   <si>
     <t xml:space="preserve">11.9259738922119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8508911132812</t>
+    <t xml:space="preserve">11.8508901596069</t>
   </si>
   <si>
     <t xml:space="preserve">11.6965484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6840343475342</t>
+    <t xml:space="preserve">11.6840333938599</t>
   </si>
   <si>
     <t xml:space="preserve">11.4212369918823</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9707279205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8581008911133</t>
+    <t xml:space="preserve">10.9707269668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8581018447876</t>
   </si>
   <si>
     <t xml:space="preserve">10.8205585479736</t>
@@ -1835,88 +1835,88 @@
     <t xml:space="preserve">10.7246170043945</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7579879760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6411876678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9582147598267</t>
+    <t xml:space="preserve">10.7579898834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.641188621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.958215713501</t>
   </si>
   <si>
     <t xml:space="preserve">11.1375827789307</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2043256759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.20849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1959829330444</t>
+    <t xml:space="preserve">11.20432472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084970474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1959848403931</t>
   </si>
   <si>
     <t xml:space="preserve">11.0916976928711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0541553497314</t>
+    <t xml:space="preserve">11.0541563034058</t>
   </si>
   <si>
     <t xml:space="preserve">10.7997007369995</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7121028900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3867359161377</t>
+    <t xml:space="preserve">10.7121019363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3867340087891</t>
   </si>
   <si>
     <t xml:space="preserve">10.28662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4117641448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3116483688354</t>
+    <t xml:space="preserve">10.4117622375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3116493225098</t>
   </si>
   <si>
     <t xml:space="preserve">10.2062559127808</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91958904266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1092967987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9659595489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80154800415039</t>
+    <t xml:space="preserve">9.91958808898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1092939376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96596145629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80154895782471</t>
   </si>
   <si>
     <t xml:space="preserve">10.0797843933105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89007663726807</t>
+    <t xml:space="preserve">9.89007568359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.19026756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13124942779541</t>
+    <t xml:space="preserve">9.13124656677246</t>
   </si>
   <si>
     <t xml:space="preserve">8.95840454101562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26615047454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14389419555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9710521697998</t>
+    <t xml:space="preserve">9.26615142822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14389514923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97105121612549</t>
   </si>
   <si>
     <t xml:space="preserve">8.675950050354</t>
@@ -1925,70 +1925,70 @@
     <t xml:space="preserve">8.69702911376953</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43143749237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54947948455811</t>
+    <t xml:space="preserve">8.43143844604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54948043823242</t>
   </si>
   <si>
     <t xml:space="preserve">8.64643955230713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62536144256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32014465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13127994537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13296604156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78221750259399</t>
+    <t xml:space="preserve">8.62536239624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.320143699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13127899169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13296508789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78221893310547</t>
   </si>
   <si>
     <t xml:space="preserve">7.79570770263672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74174833297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927715301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02504444122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01155185699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31339836120605</t>
+    <t xml:space="preserve">7.74174737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927619934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02504348754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01155376434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31339740753174</t>
   </si>
   <si>
     <t xml:space="preserve">8.44830226898193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49467372894287</t>
+    <t xml:space="preserve">8.4946756362915</t>
   </si>
   <si>
     <t xml:space="preserve">8.74761867523193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76869583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68859767913818</t>
+    <t xml:space="preserve">8.76869487762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68859672546387</t>
   </si>
   <si>
     <t xml:space="preserve">8.61271572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67173385620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98369598388672</t>
+    <t xml:space="preserve">8.67173480987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98369789123535</t>
   </si>
   <si>
     <t xml:space="preserve">8.91203117370605</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">8.77291202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8530101776123</t>
+    <t xml:space="preserve">8.85300922393799</t>
   </si>
   <si>
     <t xml:space="preserve">8.99634456634521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30409336090088</t>
+    <t xml:space="preserve">9.30409240722656</t>
   </si>
   <si>
     <t xml:space="preserve">9.05536556243896</t>
@@ -2012,64 +2012,64 @@
     <t xml:space="preserve">9.17340564727783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24507141113281</t>
+    <t xml:space="preserve">9.24507331848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.23242473602295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41791820526123</t>
+    <t xml:space="preserve">9.41791725158691</t>
   </si>
   <si>
     <t xml:space="preserve">9.47693634033203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2408561706543</t>
+    <t xml:space="preserve">9.24085521697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.03007125854492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2197790145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43899631500244</t>
+    <t xml:space="preserve">9.21977996826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43899536132812</t>
   </si>
   <si>
     <t xml:space="preserve">9.70880317687988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72144889831543</t>
+    <t xml:space="preserve">9.72144794464111</t>
   </si>
   <si>
     <t xml:space="preserve">9.94909858703613</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0081167221069</t>
+    <t xml:space="preserve">10.0081176757812</t>
   </si>
   <si>
     <t xml:space="preserve">10.0713529586792</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1177272796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2863550186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1556692123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1388063430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.033411026001</t>
+    <t xml:space="preserve">10.1177253723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.28635597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.155668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.13880443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0334129333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.0291967391968</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83948993682861</t>
+    <t xml:space="preserve">9.8394889831543</t>
   </si>
   <si>
     <t xml:space="preserve">9.90272426605225</t>
@@ -2078,43 +2078,43 @@
     <t xml:space="preserve">9.87321472167969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9996862411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75517463684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60762596130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93223571777344</t>
+    <t xml:space="preserve">9.99968814849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7551736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60762691497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93223476409912</t>
   </si>
   <si>
     <t xml:space="preserve">10.3791007995605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4339046478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3833160400391</t>
+    <t xml:space="preserve">10.4339056015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3833169937134</t>
   </si>
   <si>
     <t xml:space="preserve">10.4043960571289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5266513824463</t>
+    <t xml:space="preserve">10.5266523361206</t>
   </si>
   <si>
     <t xml:space="preserve">10.5814561843872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.868124961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7585163116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151838302612</t>
+    <t xml:space="preserve">10.8681230545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7585153579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151819229126</t>
   </si>
   <si>
     <t xml:space="preserve">10.3622379302979</t>
@@ -2126,40 +2126,40 @@
     <t xml:space="preserve">10.8343982696533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7247915267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6952810287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971418380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8133201599121</t>
+    <t xml:space="preserve">10.7247896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6952800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971408843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8133211135864</t>
   </si>
   <si>
     <t xml:space="preserve">10.8807706832886</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5898866653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4760608673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5477304458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6025333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9608707427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0999889373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9945955276489</t>
+    <t xml:space="preserve">10.5898876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4760618209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5477313995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6025342941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9608697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0999898910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9945945739746</t>
   </si>
   <si>
     <t xml:space="preserve">11.3782272338867</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">11.1337156295776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8976345062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4676322937012</t>
+    <t xml:space="preserve">10.8976335525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4676313400269</t>
   </si>
   <si>
     <t xml:space="preserve">10.4381227493286</t>
@@ -2189,43 +2189,43 @@
     <t xml:space="preserve">10.1303739547729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92380237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84792232513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79733180999756</t>
+    <t xml:space="preserve">9.92380332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84792041778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79733371734619</t>
   </si>
   <si>
     <t xml:space="preserve">10.058708190918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1345891952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055732727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5603761672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690031051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7285490036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3922061920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95236873626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83162975311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65914535522461</t>
+    <t xml:space="preserve">10.1345901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055723190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5603771209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7285499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3922052383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95236968994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83163070678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65914440155029</t>
   </si>
   <si>
     <t xml:space="preserve">9.65052032470703</t>
@@ -2234,28 +2234,28 @@
     <t xml:space="preserve">9.50390911102295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47372341156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09856986999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35729789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5815258026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2667407989502</t>
+    <t xml:space="preserve">9.47372245788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09857082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35729598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58152675628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26674175262451</t>
   </si>
   <si>
     <t xml:space="preserve">9.27536678314209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25811672210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5556526184082</t>
+    <t xml:space="preserve">9.25811862945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55565452575684</t>
   </si>
   <si>
     <t xml:space="preserve">9.69795417785645</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">9.31417560577393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36160850524902</t>
+    <t xml:space="preserve">9.36160755157471</t>
   </si>
   <si>
     <t xml:space="preserve">9.54271697998047</t>
@@ -2276,28 +2276,28 @@
     <t xml:space="preserve">9.80144309997559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90493488311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7540111541748</t>
+    <t xml:space="preserve">9.90493392944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75401210784912</t>
   </si>
   <si>
     <t xml:space="preserve">9.64620780944824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93512153625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89199733734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9264965057373</t>
+    <t xml:space="preserve">9.93512058258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89199924468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92649745941162</t>
   </si>
   <si>
     <t xml:space="preserve">10.1765995025635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93943119049072</t>
+    <t xml:space="preserve">9.93943214416504</t>
   </si>
   <si>
     <t xml:space="preserve">9.96099281311035</t>
@@ -2306,40 +2306,40 @@
     <t xml:space="preserve">10.0644845962524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0601720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.28440284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1852216720581</t>
+    <t xml:space="preserve">10.0601711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2844018936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1852235794067</t>
   </si>
   <si>
     <t xml:space="preserve">10.3404588699341</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5301933288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4827585220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3663320541382</t>
+    <t xml:space="preserve">10.5301923751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.482759475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3663330078125</t>
   </si>
   <si>
     <t xml:space="preserve">10.3620204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96530342102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79281997680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61602306365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74538707733154</t>
+    <t xml:space="preserve">9.96530532836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79282093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61602401733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74538612365723</t>
   </si>
   <si>
     <t xml:space="preserve">9.81869411468506</t>
@@ -2351,13 +2351,13 @@
     <t xml:space="preserve">10.0256748199463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77125930786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4176664352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18912410736084</t>
+    <t xml:space="preserve">9.77125835418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41766548156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18912315368652</t>
   </si>
   <si>
     <t xml:space="preserve">9.02957630157471</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">8.81828117370605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74497509002686</t>
+    <t xml:space="preserve">8.74497604370117</t>
   </si>
   <si>
     <t xml:space="preserve">8.90452480316162</t>
@@ -2375,19 +2375,19 @@
     <t xml:space="preserve">8.72772693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44485378265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58456611633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1378288269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17922687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48969841003418</t>
+    <t xml:space="preserve">8.44485282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58456516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13782978057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17922592163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4896993637085</t>
   </si>
   <si>
     <t xml:space="preserve">8.317214012146</t>
@@ -2399,19 +2399,19 @@
     <t xml:space="preserve">8.52764320373535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39655590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50867080688477</t>
+    <t xml:space="preserve">8.39655685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50867176055908</t>
   </si>
   <si>
     <t xml:space="preserve">8.56559181213379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66304492950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60698699951172</t>
+    <t xml:space="preserve">8.66304683685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60698795318604</t>
   </si>
   <si>
     <t xml:space="preserve">8.55006694793701</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">8.28789043426514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43967914581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65873432159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6156120300293</t>
+    <t xml:space="preserve">8.43967819213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65873336791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61561298370361</t>
   </si>
   <si>
     <t xml:space="preserve">8.87002658843994</t>
@@ -2444,10 +2444,10 @@
     <t xml:space="preserve">8.76653575897217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82690525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07269859313965</t>
+    <t xml:space="preserve">8.82690811157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07269763946533</t>
   </si>
   <si>
     <t xml:space="preserve">8.9002103805542</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">8.77084827423096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66735649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64579772949219</t>
+    <t xml:space="preserve">8.66735744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64579582214355</t>
   </si>
   <si>
     <t xml:space="preserve">8.40518093109131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2844409942627</t>
+    <t xml:space="preserve">8.28444004058838</t>
   </si>
   <si>
     <t xml:space="preserve">8.27926731109619</t>
@@ -2477,28 +2477,28 @@
     <t xml:space="preserve">8.44312763214111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39483165740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23786926269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89462566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97396945953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95844507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.051589012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91704845428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95327186584473</t>
+    <t xml:space="preserve">8.39483261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23787021636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89462661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97396755218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95844602584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05158710479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91704940795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95326900482178</t>
   </si>
   <si>
     <t xml:space="preserve">8.02916431427002</t>
@@ -2507,64 +2507,64 @@
     <t xml:space="preserve">8.3085880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08953380584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19647407531738</t>
+    <t xml:space="preserve">8.08953475952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19647216796875</t>
   </si>
   <si>
     <t xml:space="preserve">8.1637020111084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06366157531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02054119110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07918453216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09988307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12057971954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03261375427246</t>
+    <t xml:space="preserve">8.0636625289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02054023742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07918357849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09988212585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12058162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03261470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.11023235321045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23442077636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31376266479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07400989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80838298797607</t>
+    <t xml:space="preserve">8.2344217300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31376457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07401084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80838394165039</t>
   </si>
   <si>
     <t xml:space="preserve">8.47417449951172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62078762054443</t>
+    <t xml:space="preserve">8.6207857131958</t>
   </si>
   <si>
     <t xml:space="preserve">8.77516078948975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62854766845703</t>
+    <t xml:space="preserve">8.62854957580566</t>
   </si>
   <si>
     <t xml:space="preserve">8.6414852142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68460655212402</t>
+    <t xml:space="preserve">8.68460559844971</t>
   </si>
   <si>
     <t xml:space="preserve">8.54489326477051</t>
@@ -2573,36 +2573,36 @@
     <t xml:space="preserve">8.54316902160645</t>
   </si>
   <si>
+    <t xml:space="preserve">8.539719581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46631145477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39115524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52923202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47854614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61312675476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59389972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59914398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52573585510254</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.53971862792969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46631145477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39115619659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52923202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47854518890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61312580108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59389972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59914398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52573490142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53971672058105</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.43485260009766</t>
   </si>
   <si>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">8.39989471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47679710388184</t>
+    <t xml:space="preserve">8.47679805755615</t>
   </si>
   <si>
     <t xml:space="preserve">8.65856838226318</t>
@@ -2624,37 +2624,37 @@
     <t xml:space="preserve">8.69177532196045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71799373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74770641326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9967679977417</t>
+    <t xml:space="preserve">8.71799468994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74770545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99676704406738</t>
   </si>
   <si>
     <t xml:space="preserve">8.90063953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9224853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86568164825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84820461273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83509540557861</t>
+    <t xml:space="preserve">8.92248439788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86568260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84820556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83509635925293</t>
   </si>
   <si>
     <t xml:space="preserve">8.88752841949463</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95744132995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81761932373047</t>
+    <t xml:space="preserve">8.95744037628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81761741638184</t>
   </si>
   <si>
     <t xml:space="preserve">8.78266143798828</t>
@@ -2663,34 +2663,34 @@
     <t xml:space="preserve">8.8263578414917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94433212280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18465328216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17154693603516</t>
+    <t xml:space="preserve">8.94433403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18465518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17154502868652</t>
   </si>
   <si>
     <t xml:space="preserve">9.15406894683838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07541751861572</t>
+    <t xml:space="preserve">9.07541656494141</t>
   </si>
   <si>
     <t xml:space="preserve">9.07104873657227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90937614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85694313049316</t>
+    <t xml:space="preserve">8.90937805175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85694217681885</t>
   </si>
   <si>
     <t xml:space="preserve">8.91374683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99239730834961</t>
+    <t xml:space="preserve">8.99239635467529</t>
   </si>
   <si>
     <t xml:space="preserve">8.9661808013916</t>
@@ -2699,40 +2699,40 @@
     <t xml:space="preserve">8.93122482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87442207336426</t>
+    <t xml:space="preserve">8.87442111968994</t>
   </si>
   <si>
     <t xml:space="preserve">8.83072662353516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4960241317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63235282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73721885681152</t>
+    <t xml:space="preserve">8.49602317810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63235187530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73721790313721</t>
   </si>
   <si>
     <t xml:space="preserve">8.30901050567627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15170955657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05732917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22686386108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33872318267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36319065093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2111349105835</t>
+    <t xml:space="preserve">8.15170860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05732727050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22686290740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33872413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36319160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21113395690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.26181983947754</t>
@@ -2741,37 +2741,37 @@
     <t xml:space="preserve">8.32998275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44184112548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41562557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22861099243164</t>
+    <t xml:space="preserve">8.44184398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41562461853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22861194610596</t>
   </si>
   <si>
     <t xml:space="preserve">8.26706314086914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57292652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19190692901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77768135070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67281198501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69029092788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35471487045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13798856735229</t>
+    <t xml:space="preserve">8.57292747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19190883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77767992019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67281246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69029140472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35471534729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13798809051514</t>
   </si>
   <si>
     <t xml:space="preserve">7.08380699157715</t>
@@ -2780,10 +2780,10 @@
     <t xml:space="preserve">7.11701536178589</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93349647521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80590724945068</t>
+    <t xml:space="preserve">6.93349695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80590772628784</t>
   </si>
   <si>
     <t xml:space="preserve">6.4144024848938</t>
@@ -2795,19 +2795,19 @@
     <t xml:space="preserve">4.91129970550537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80992794036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08983707427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19383096694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92204785346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06012392044067</t>
+    <t xml:space="preserve">4.80992746353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08983659744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1938304901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92204833030701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06012439727783</t>
   </si>
   <si>
     <t xml:space="preserve">4.15974855422974</t>
@@ -2816,22 +2816,22 @@
     <t xml:space="preserve">4.38521385192871</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56174087524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49532508850098</t>
+    <t xml:space="preserve">4.56173992156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49532461166382</t>
   </si>
   <si>
     <t xml:space="preserve">4.67534732818604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70331239700317</t>
+    <t xml:space="preserve">4.70331144332886</t>
   </si>
   <si>
     <t xml:space="preserve">4.96373319625854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86585664749146</t>
+    <t xml:space="preserve">4.86585712432861</t>
   </si>
   <si>
     <t xml:space="preserve">4.83964014053345</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">4.87634325027466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79244995117188</t>
+    <t xml:space="preserve">4.79244947433472</t>
   </si>
   <si>
     <t xml:space="preserve">5.01267194747925</t>
@@ -2852,46 +2852,46 @@
     <t xml:space="preserve">5.17346811294556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41116905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28707504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24862384796143</t>
+    <t xml:space="preserve">5.41116857528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28707551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24862337112427</t>
   </si>
   <si>
     <t xml:space="preserve">5.17871189117432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03714036941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06860113143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03888893127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78720569610596</t>
+    <t xml:space="preserve">4.94625520706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03713989257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06860065460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03888845443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78720617294312</t>
   </si>
   <si>
     <t xml:space="preserve">4.93576860427856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1315221786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1717209815979</t>
+    <t xml:space="preserve">5.13152170181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17172145843506</t>
   </si>
   <si>
     <t xml:space="preserve">5.16298198699951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26260614395142</t>
+    <t xml:space="preserve">5.2626051902771</t>
   </si>
   <si>
     <t xml:space="preserve">5.57021760940552</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">5.27833652496338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53176593780518</t>
+    <t xml:space="preserve">5.53176641464233</t>
   </si>
   <si>
     <t xml:space="preserve">5.31853532791138</t>
@@ -2924,43 +2924,43 @@
     <t xml:space="preserve">5.02315807342529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05461883544922</t>
+    <t xml:space="preserve">5.05461835861206</t>
   </si>
   <si>
     <t xml:space="preserve">5.43913316726685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95499420166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11404371261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86236143112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84837818145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89382171630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97072458267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97771596908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10006093978882</t>
+    <t xml:space="preserve">4.95499467849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11404418945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86236095428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84837913513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89382123947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97072505950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97771549224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10006141662598</t>
   </si>
   <si>
     <t xml:space="preserve">4.88683032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10705280303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32028293609619</t>
+    <t xml:space="preserve">5.10705232620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32028341293335</t>
   </si>
   <si>
     <t xml:space="preserve">5.58594799041748</t>
@@ -2969,22 +2969,22 @@
     <t xml:space="preserve">5.64362478256226</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93900203704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02639150619507</t>
+    <t xml:space="preserve">5.93900156021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02639198303223</t>
   </si>
   <si>
     <t xml:space="preserve">5.91977691650391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83588266372681</t>
+    <t xml:space="preserve">5.83588218688965</t>
   </si>
   <si>
     <t xml:space="preserve">5.46535062789917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47059392929077</t>
+    <t xml:space="preserve">5.47059345245361</t>
   </si>
   <si>
     <t xml:space="preserve">5.46360206604004</t>
@@ -2996,10 +2996,10 @@
     <t xml:space="preserve">5.40767240524292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31504011154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42165565490723</t>
+    <t xml:space="preserve">5.31503963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42165517807007</t>
   </si>
   <si>
     <t xml:space="preserve">5.08607912063599</t>
@@ -3011,10 +3011,10 @@
     <t xml:space="preserve">5.01966285705566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07559204101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96198558807373</t>
+    <t xml:space="preserve">5.07559251785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96198463439941</t>
   </si>
   <si>
     <t xml:space="preserve">5.11579132080078</t>
@@ -3023,28 +3023,28 @@
     <t xml:space="preserve">5.02140998840332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19793748855591</t>
+    <t xml:space="preserve">5.19793796539307</t>
   </si>
   <si>
     <t xml:space="preserve">5.10880041122437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02665376663208</t>
+    <t xml:space="preserve">5.02665328979492</t>
   </si>
   <si>
     <t xml:space="preserve">4.84663105010986</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87284803390503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93227386474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01616668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02490568161011</t>
+    <t xml:space="preserve">4.87284851074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93227338790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01616716384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02490663528442</t>
   </si>
   <si>
     <t xml:space="preserve">5.15948581695557</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">5.04413175582886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9584903717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92178630828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82915353775024</t>
+    <t xml:space="preserve">4.95848989486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92178678512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82915306091309</t>
   </si>
   <si>
     <t xml:space="preserve">4.73477268218994</t>
@@ -3074,28 +3074,28 @@
     <t xml:space="preserve">4.31005907058716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51455116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52678489685059</t>
+    <t xml:space="preserve">4.51455020904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52678442001343</t>
   </si>
   <si>
     <t xml:space="preserve">4.72952938079834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44289112091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52328968048096</t>
+    <t xml:space="preserve">4.44289064407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5232892036438</t>
   </si>
   <si>
     <t xml:space="preserve">4.67709541320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65437364578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5564980506897</t>
+    <t xml:space="preserve">4.65437412261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55649757385254</t>
   </si>
   <si>
     <t xml:space="preserve">4.50930643081665</t>
@@ -3104,10 +3104,10 @@
     <t xml:space="preserve">4.46910762786865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42541360855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32753658294678</t>
+    <t xml:space="preserve">4.42541217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32753610610962</t>
   </si>
   <si>
     <t xml:space="preserve">4.30831050872803</t>
@@ -3119,13 +3119,13 @@
     <t xml:space="preserve">4.40269184112549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35812282562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27859878540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3048152923584</t>
+    <t xml:space="preserve">4.35812330245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27859830856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30481576919556</t>
   </si>
   <si>
     <t xml:space="preserve">4.2995719909668</t>
@@ -3134,10 +3134,10 @@
     <t xml:space="preserve">4.21742630004883</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17722702026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20606422424316</t>
+    <t xml:space="preserve">4.17722606658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20606517791748</t>
   </si>
   <si>
     <t xml:space="preserve">4.2182993888855</t>
@@ -3146,67 +3146,67 @@
     <t xml:space="preserve">4.19208288192749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04788970947266</t>
+    <t xml:space="preserve">4.04789018630981</t>
   </si>
   <si>
     <t xml:space="preserve">4.05313301086426</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03390645980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98496842384338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95088672637939</t>
+    <t xml:space="preserve">4.03390693664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98496866226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95088648796082</t>
   </si>
   <si>
     <t xml:space="preserve">4.0076904296875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1746039390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1781005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06274604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79620742797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75426054000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72280049324036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64677119255066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58210253715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72979116439819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61006760597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72367453575134</t>
+    <t xml:space="preserve">4.17460441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17810010910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06274557113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79620718955994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75426030158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72280025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64677095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58210277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72979187965393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61006736755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72367358207703</t>
   </si>
   <si>
     <t xml:space="preserve">3.6284191608429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71231341362</t>
+    <t xml:space="preserve">3.71231389045715</t>
   </si>
   <si>
     <t xml:space="preserve">3.74901652336121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85213613510132</t>
+    <t xml:space="preserve">3.85213708877563</t>
   </si>
   <si>
     <t xml:space="preserve">3.77523374557495</t>
@@ -3215,49 +3215,49 @@
     <t xml:space="preserve">3.8905885219574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86349749565125</t>
+    <t xml:space="preserve">3.86349701881409</t>
   </si>
   <si>
     <t xml:space="preserve">3.7988293170929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70444798469543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80319857597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61356258392334</t>
+    <t xml:space="preserve">3.70444822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80319881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6135630607605</t>
   </si>
   <si>
     <t xml:space="preserve">3.74377346038818</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82329845428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91243577003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81543374061584</t>
+    <t xml:space="preserve">3.82329773902893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91243553161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81543350219727</t>
   </si>
   <si>
     <t xml:space="preserve">3.83553266525269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87048840522766</t>
+    <t xml:space="preserve">3.87048816680908</t>
   </si>
   <si>
     <t xml:space="preserve">3.76824235916138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66337466239929</t>
+    <t xml:space="preserve">3.66337513923645</t>
   </si>
   <si>
     <t xml:space="preserve">3.55326414108276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34527683258057</t>
+    <t xml:space="preserve">3.34527659416199</t>
   </si>
   <si>
     <t xml:space="preserve">3.55850768089294</t>
@@ -3266,28 +3266,28 @@
     <t xml:space="preserve">3.74464750289917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83291149139404</t>
+    <t xml:space="preserve">3.83291125297546</t>
   </si>
   <si>
     <t xml:space="preserve">4.42191743850708</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3991961479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81866645812988</t>
+    <t xml:space="preserve">4.39919662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81866693496704</t>
   </si>
   <si>
     <t xml:space="preserve">4.88857793807983</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89906454086304</t>
+    <t xml:space="preserve">4.89906406402588</t>
   </si>
   <si>
     <t xml:space="preserve">4.93052530288696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00393199920654</t>
+    <t xml:space="preserve">5.0039324760437</t>
   </si>
   <si>
     <t xml:space="preserve">5.39194297790527</t>
@@ -3299,46 +3299,46 @@
     <t xml:space="preserve">5.55973052978516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47583675384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46185398101807</t>
+    <t xml:space="preserve">5.47583627700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46185445785522</t>
   </si>
   <si>
     <t xml:space="preserve">5.68633890151978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04515981674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98682880401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90551996231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92496395111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73229551315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82067584991455</t>
+    <t xml:space="preserve">6.04515933990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98682928085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90552043914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92496347427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73229598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82067537307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.84895706176758</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88430881500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12470102310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01334285736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02218055725098</t>
+    <t xml:space="preserve">5.88430833816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12470054626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01334238052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02218103408813</t>
   </si>
   <si>
     <t xml:space="preserve">6.02571630477905</t>
@@ -3350,10 +3350,10 @@
     <t xml:space="preserve">6.00980806350708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93203353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00450468063354</t>
+    <t xml:space="preserve">5.93203401565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00450563430786</t>
   </si>
   <si>
     <t xml:space="preserve">5.97445631027222</t>
@@ -3368,10 +3368,10 @@
     <t xml:space="preserve">5.78885936737061</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77295112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93380117416382</t>
+    <t xml:space="preserve">5.77295064926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93380165100098</t>
   </si>
   <si>
     <t xml:space="preserve">5.89137887954712</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">5.77648544311523</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98329401016235</t>
+    <t xml:space="preserve">5.9832935333252</t>
   </si>
   <si>
     <t xml:space="preserve">6.30322742462158</t>
@@ -3398,40 +3398,40 @@
     <t xml:space="preserve">6.25903749465942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.145911693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32267093658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23429107666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28908777236938</t>
+    <t xml:space="preserve">6.14591217041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32267141342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23429155349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28908729553223</t>
   </si>
   <si>
     <t xml:space="preserve">5.96561765670776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94970989227295</t>
+    <t xml:space="preserve">5.94970941543579</t>
   </si>
   <si>
     <t xml:space="preserve">5.75881004333496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55907249450684</t>
+    <t xml:space="preserve">5.55907201766968</t>
   </si>
   <si>
     <t xml:space="preserve">5.46008682250977</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53255796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62800741195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7994647026062</t>
+    <t xml:space="preserve">5.53255891799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62800788879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79946422576904</t>
   </si>
   <si>
     <t xml:space="preserve">5.6828031539917</t>
@@ -3440,28 +3440,28 @@
     <t xml:space="preserve">5.6739649772644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90905475616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00273704528809</t>
+    <t xml:space="preserve">5.90905427932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00273752212524</t>
   </si>
   <si>
     <t xml:space="preserve">6.12293291091919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25196743011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14060926437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21484804153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22191905975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28378486633301</t>
+    <t xml:space="preserve">6.25196695327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14060878753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21484851837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22191858291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28378391265869</t>
   </si>
   <si>
     <t xml:space="preserve">6.65497827529907</t>
@@ -3485,16 +3485,16 @@
     <t xml:space="preserve">6.5665979385376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79461812973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72790670394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6412935256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81805276870728</t>
+    <t xml:space="preserve">6.79461765289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72790622711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64129400253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81805229187012</t>
   </si>
   <si>
     <t xml:space="preserve">7.94531965255737</t>
@@ -3503,10 +3503,10 @@
     <t xml:space="preserve">7.9276442527771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20868968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46322250366211</t>
+    <t xml:space="preserve">8.20869064331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46322345733643</t>
   </si>
   <si>
     <t xml:space="preserve">8.58695411682129</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">8.44024562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55160331726074</t>
+    <t xml:space="preserve">8.55160236358643</t>
   </si>
   <si>
     <t xml:space="preserve">8.75841045379639</t>
@@ -3527,25 +3527,25 @@
     <t xml:space="preserve">8.54629993438721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.571044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53746223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43140602111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24050521850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17157173156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03369808197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33242130279541</t>
+    <t xml:space="preserve">8.57104587554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53746318817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4314079284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24050712585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17156982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03369998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33242225646973</t>
   </si>
   <si>
     <t xml:space="preserve">8.10970497131348</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">8.45084953308105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53569412231445</t>
+    <t xml:space="preserve">8.53569507598877</t>
   </si>
   <si>
     <t xml:space="preserve">8.49503993988037</t>
@@ -3566,13 +3566,13 @@
     <t xml:space="preserve">8.54099655151367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54983520507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41549873352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19985198974609</t>
+    <t xml:space="preserve">8.54983425140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41549777984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19985103607178</t>
   </si>
   <si>
     <t xml:space="preserve">8.11324119567871</t>
@@ -3581,13 +3581,13 @@
     <t xml:space="preserve">8.05490875244141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04430484771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43317317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12561321258545</t>
+    <t xml:space="preserve">8.04430389404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4331750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12561416625977</t>
   </si>
   <si>
     <t xml:space="preserve">8.10086727142334</t>
@@ -3596,37 +3596,37 @@
     <t xml:space="preserve">8.1591968536377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79684066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87638378143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86931324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8481011390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11854267120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94885587692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21576118469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65896940231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91703796386719</t>
+    <t xml:space="preserve">7.79684162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87638235092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86931419372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84810209274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11854362487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94885492324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21576023101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65896892547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91703748703003</t>
   </si>
   <si>
     <t xml:space="preserve">7.9877405166626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05314254760742</t>
+    <t xml:space="preserve">8.05314159393311</t>
   </si>
   <si>
     <t xml:space="preserve">8.41373062133789</t>
@@ -3638,16 +3638,16 @@
     <t xml:space="preserve">8.65412330627441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44908332824707</t>
+    <t xml:space="preserve">8.44908237457275</t>
   </si>
   <si>
     <t xml:space="preserve">8.73366451263428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64174842834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66119384765625</t>
+    <t xml:space="preserve">8.64174938201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66119289398193</t>
   </si>
   <si>
     <t xml:space="preserve">8.56927967071533</t>
@@ -3662,22 +3662,22 @@
     <t xml:space="preserve">8.36070251464844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39120483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2261438369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25126075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48270511627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3929967880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36967277526855</t>
+    <t xml:space="preserve">8.39120388031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22614288330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25125980377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48270416259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39299774169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36967372894287</t>
   </si>
   <si>
     <t xml:space="preserve">8.59573459625244</t>
@@ -3689,13 +3689,13 @@
     <t xml:space="preserve">8.76797294616699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63700103759766</t>
+    <t xml:space="preserve">8.63700199127197</t>
   </si>
   <si>
     <t xml:space="preserve">8.64776611328125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61547183990479</t>
+    <t xml:space="preserve">8.61547088623047</t>
   </si>
   <si>
     <t xml:space="preserve">8.55447101593018</t>
@@ -3704,19 +3704,19 @@
     <t xml:space="preserve">8.56702995300293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74106121063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58317756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57241058349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38043880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24049377441406</t>
+    <t xml:space="preserve">8.74106311798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.583176612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57241153717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38043785095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2404956817627</t>
   </si>
   <si>
     <t xml:space="preserve">8.27099704742432</t>
@@ -3725,25 +3725,25 @@
     <t xml:space="preserve">8.3535270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40914440155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46117401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50961589813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22793769836426</t>
+    <t xml:space="preserve">8.40914535522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4611759185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50961685180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22793579101562</t>
   </si>
   <si>
     <t xml:space="preserve">8.2297306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24587821960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40376377105713</t>
+    <t xml:space="preserve">8.24587726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40376281738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.39838027954102</t>
@@ -3755,64 +3755,64 @@
     <t xml:space="preserve">8.05928707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93908023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82963705062866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07543468475342</t>
+    <t xml:space="preserve">7.93907928466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82963609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07543563842773</t>
   </si>
   <si>
     <t xml:space="preserve">8.04672908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87449026107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01263999938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87090301513672</t>
+    <t xml:space="preserve">7.87449073791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01264095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87090253829956</t>
   </si>
   <si>
     <t xml:space="preserve">7.64842844009399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38289546966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51027965545654</t>
+    <t xml:space="preserve">7.38289499282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51027917861938</t>
   </si>
   <si>
     <t xml:space="preserve">7.65739965438843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57127952575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65919351577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87987279891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80990219116211</t>
+    <t xml:space="preserve">7.57128000259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65919399261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87987422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80990171432495</t>
   </si>
   <si>
     <t xml:space="preserve">7.87628412246704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87269687652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69328308105469</t>
+    <t xml:space="preserve">7.87269735336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69328117370605</t>
   </si>
   <si>
     <t xml:space="preserve">7.75787115097046</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80810832977295</t>
+    <t xml:space="preserve">7.80810785293579</t>
   </si>
   <si>
     <t xml:space="preserve">7.70584106445312</t>
@@ -3821,16 +3821,16 @@
     <t xml:space="preserve">7.67892932891846</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88884401321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84578418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90319776535034</t>
+    <t xml:space="preserve">7.88884305953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84578371047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89243125915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90319681167603</t>
   </si>
   <si>
     <t xml:space="preserve">7.69866371154785</t>
@@ -3848,10 +3848,10 @@
     <t xml:space="preserve">7.45466184616089</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47798585891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54436874389648</t>
+    <t xml:space="preserve">7.47798538208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54436826705933</t>
   </si>
   <si>
     <t xml:space="preserve">7.61433982849121</t>
@@ -3860,34 +3860,34 @@
     <t xml:space="preserve">7.73634147644043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65201616287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74172449111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61792802810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60357427597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53539752960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4797797203064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44748401641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70404767990112</t>
+    <t xml:space="preserve">7.65201663970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74172401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61792755126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60357570648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53539705276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47977924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44748497009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404720306396</t>
   </si>
   <si>
     <t xml:space="preserve">7.65022277832031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77760696411133</t>
+    <t xml:space="preserve">7.77760791778564</t>
   </si>
   <si>
     <t xml:space="preserve">7.52822113037109</t>
@@ -3896,58 +3896,58 @@
     <t xml:space="preserve">7.24833488464355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24654054641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62331056594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6843113899231</t>
+    <t xml:space="preserve">7.24654102325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62331104278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68431234359741</t>
   </si>
   <si>
     <t xml:space="preserve">7.72378253936768</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98393297195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01084423065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15617084503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14540672302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37146854400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09517002105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22255420684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59932518005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80385684967041</t>
+    <t xml:space="preserve">7.98393201828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625663757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01084518432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15617179870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14540576934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37146663665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09516906738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22255516052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59932422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80385780334473</t>
   </si>
   <si>
     <t xml:space="preserve">8.65673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54370498657227</t>
+    <t xml:space="preserve">8.54370594024658</t>
   </si>
   <si>
     <t xml:space="preserve">8.59035301208496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85947513580322</t>
+    <t xml:space="preserve">8.85947418212891</t>
   </si>
   <si>
     <t xml:space="preserve">8.80744457244873</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">9.07387447357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89715194702148</t>
+    <t xml:space="preserve">8.8971529006958</t>
   </si>
   <si>
     <t xml:space="preserve">8.84691619873047</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">9.02005004882812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88100433349609</t>
+    <t xml:space="preserve">8.88100337982178</t>
   </si>
   <si>
     <t xml:space="preserve">8.6352071762085</t>
@@ -3983,7 +3983,7 @@
     <t xml:space="preserve">8.87203311920166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83794498443604</t>
+    <t xml:space="preserve">8.83794593811035</t>
   </si>
   <si>
     <t xml:space="preserve">8.72491359710693</t>
@@ -3992,67 +3992,67 @@
     <t xml:space="preserve">9.27123069763184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52689456939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78256034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73322296142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41027545928955</t>
+    <t xml:space="preserve">9.52689647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78255939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73322200775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41027641296387</t>
   </si>
   <si>
     <t xml:space="preserve">9.311598777771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20843505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18600940704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99313735961914</t>
+    <t xml:space="preserve">9.20843601226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18600845336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99313831329346</t>
   </si>
   <si>
     <t xml:space="preserve">8.73926639556885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51499843597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71873378753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66234111785889</t>
+    <t xml:space="preserve">8.51499938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71873474121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66234302520752</t>
   </si>
   <si>
     <t xml:space="preserve">8.76421070098877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65506553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11480712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87833023071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20394229888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12572193145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14936923980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2694263458252</t>
+    <t xml:space="preserve">8.65506649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0420446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11480617523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87832975387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20394134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1257209777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14936828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26942729949951</t>
   </si>
   <si>
     <t xml:space="preserve">8.45315074920654</t>
@@ -4067,16 +4067,16 @@
     <t xml:space="preserve">8.11116981506348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.038405418396</t>
+    <t xml:space="preserve">8.03840732574463</t>
   </si>
   <si>
     <t xml:space="preserve">8.30762767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05114078521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28215980529785</t>
+    <t xml:space="preserve">8.05113887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28216075897217</t>
   </si>
   <si>
     <t xml:space="preserve">8.21121692657471</t>
@@ -4085,7 +4085,7 @@
     <t xml:space="preserve">8.02749347686768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29125595092773</t>
+    <t xml:space="preserve">8.2912540435791</t>
   </si>
   <si>
     <t xml:space="preserve">8.28943538665771</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">8.30398845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39312267303467</t>
+    <t xml:space="preserve">8.39312171936035</t>
   </si>
   <si>
     <t xml:space="preserve">8.46042728424072</t>
@@ -4106,13 +4106,13 @@
     <t xml:space="preserve">8.37675094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70781898498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82787799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89518070220947</t>
+    <t xml:space="preserve">8.70781803131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82787704467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89518165588379</t>
   </si>
   <si>
     <t xml:space="preserve">8.89700126647949</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">9.1498498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33175563812256</t>
+    <t xml:space="preserve">9.33175468444824</t>
   </si>
   <si>
     <t xml:space="preserve">9.55458927154541</t>
@@ -4142,25 +4142,25 @@
     <t xml:space="preserve">9.7546854019165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7910680770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42270851135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95884990692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37268352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730199813843</t>
+    <t xml:space="preserve">9.79106712341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42270660400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95884895324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37268447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.07301902771</t>
   </si>
   <si>
     <t xml:space="preserve">9.88656711578369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3731641769409</t>
+    <t xml:space="preserve">10.3731632232666</t>
   </si>
   <si>
     <t xml:space="preserve">10.3140449523926</t>
@@ -4172,37 +4172,37 @@
     <t xml:space="preserve">10.3868074417114</t>
   </si>
   <si>
-    <t xml:space="preserve">10.395902633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.304949760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4140930175781</t>
+    <t xml:space="preserve">10.3959035873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3049507141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4140920639038</t>
   </si>
   <si>
     <t xml:space="preserve">10.5186882019043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6278324127197</t>
+    <t xml:space="preserve">10.627833366394</t>
   </si>
   <si>
     <t xml:space="preserve">10.4641170501709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5414276123047</t>
+    <t xml:space="preserve">10.5414266586304</t>
   </si>
   <si>
     <t xml:space="preserve">10.7824516296387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4777612686157</t>
+    <t xml:space="preserve">10.4777603149414</t>
   </si>
   <si>
     <t xml:space="preserve">10.2822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95932865142822</t>
+    <t xml:space="preserve">9.95932960510254</t>
   </si>
   <si>
     <t xml:space="preserve">10.0411863327026</t>
@@ -4211,13 +4211,13 @@
     <t xml:space="preserve">9.93659114837646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82744884490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1321392059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4959506988525</t>
+    <t xml:space="preserve">9.82744789123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1321401596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4959516525269</t>
   </si>
   <si>
     <t xml:space="preserve">10.4049968719482</t>
@@ -4226,40 +4226,40 @@
     <t xml:space="preserve">10.9188814163208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6960468292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5050449371338</t>
+    <t xml:space="preserve">10.6960477828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5050458908081</t>
   </si>
   <si>
     <t xml:space="preserve">11.8738861083984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2558870315552</t>
+    <t xml:space="preserve">12.2558879852295</t>
   </si>
   <si>
     <t xml:space="preserve">11.5782890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7601947784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7556467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4645967483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0825967788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3190727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5009794235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2013149261475</t>
+    <t xml:space="preserve">11.7601938247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7556457519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4645977020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0825958251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.319073677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5009784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2013158798218</t>
   </si>
   <si>
     <t xml:space="preserve">12.2695293426514</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">12.6469841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9607706069946</t>
+    <t xml:space="preserve">12.9607715606689</t>
   </si>
   <si>
     <t xml:space="preserve">12.6651744842529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3195552825928</t>
+    <t xml:space="preserve">12.3195543289185</t>
   </si>
   <si>
     <t xml:space="preserve">12.5287446975708</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">12.510555267334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6333417892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6242456436157</t>
+    <t xml:space="preserve">12.6333408355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6242446899414</t>
   </si>
   <si>
     <t xml:space="preserve">12.7288408279419</t>
@@ -4298,40 +4298,40 @@
     <t xml:space="preserve">12.5878639221191</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6424360275269</t>
+    <t xml:space="preserve">12.6424369812012</t>
   </si>
   <si>
     <t xml:space="preserve">13.2108907699585</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0881042480469</t>
+    <t xml:space="preserve">13.0881052017212</t>
   </si>
   <si>
     <t xml:space="preserve">13.5110349655151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6247253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.69748878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6656560897827</t>
+    <t xml:space="preserve">13.6247262954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6974897384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6656551361084</t>
   </si>
   <si>
     <t xml:space="preserve">13.6338214874268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2654628753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3604822158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7970561981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379379272461</t>
+    <t xml:space="preserve">13.2654619216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3604831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7970552444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379369735718</t>
   </si>
   <si>
     <t xml:space="preserve">13.4701061248779</t>
@@ -4346,16 +4346,16 @@
     <t xml:space="preserve">13.3882493972778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245820999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2199859619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7151966094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8425321578979</t>
+    <t xml:space="preserve">13.3245811462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2199869155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7151985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8425312042236</t>
   </si>
   <si>
     <t xml:space="preserve">13.283652305603</t>
@@ -4364,13 +4364,13 @@
     <t xml:space="preserve">12.9334859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4200830459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9930858612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1795377731323</t>
+    <t xml:space="preserve">13.4200820922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9930849075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1795387268066</t>
   </si>
   <si>
     <t xml:space="preserve">14.0931329727173</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">13.9112272262573</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2216014862061</t>
+    <t xml:space="preserve">14.2216005325317</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270376205444</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">14.2818222045898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6709489822388</t>
+    <t xml:space="preserve">14.6709480285645</t>
   </si>
   <si>
     <t xml:space="preserve">14.8516139984131</t>
@@ -4403,7 +4403,7 @@
     <t xml:space="preserve">14.4763851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5875635147095</t>
+    <t xml:space="preserve">14.5875644683838</t>
   </si>
   <si>
     <t xml:space="preserve">14.6199913024902</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">14.5736665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7219047546387</t>
+    <t xml:space="preserve">14.7219038009644</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284502029419</t>
@@ -4421,7 +4421,7 @@
     <t xml:space="preserve">14.7867593765259</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1382160186768</t>
+    <t xml:space="preserve">14.1382169723511</t>
   </si>
   <si>
     <t xml:space="preserve">13.7120313644409</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">12.2389154434204</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3084020614624</t>
+    <t xml:space="preserve">12.3084011077881</t>
   </si>
   <si>
     <t xml:space="preserve">11.6737575531006</t>
@@ -4454,7 +4454,7 @@
     <t xml:space="preserve">11.3216915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5347843170166</t>
+    <t xml:space="preserve">11.5347833633423</t>
   </si>
   <si>
     <t xml:space="preserve">11.5533142089844</t>
@@ -4463,10 +4463,10 @@
     <t xml:space="preserve">11.8405246734619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.664493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.368016242981</t>
+    <t xml:space="preserve">11.6644926071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3680152893066</t>
   </si>
   <si>
     <t xml:space="preserve">11.1549224853516</t>
@@ -4481,10 +4481,10 @@
     <t xml:space="preserve">10.2886562347412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3309555053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7478761672974</t>
+    <t xml:space="preserve">11.3309564590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7478771209717</t>
   </si>
   <si>
     <t xml:space="preserve">11.8173627853394</t>
@@ -4493,7 +4493,7 @@
     <t xml:space="preserve">11.7154493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5811080932617</t>
+    <t xml:space="preserve">11.581109046936</t>
   </si>
   <si>
     <t xml:space="preserve">11.1132316589355</t>
@@ -4514,10 +4514,10 @@
     <t xml:space="preserve">11.4421358108521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5718421936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6969184875488</t>
+    <t xml:space="preserve">11.5718431472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6969194412231</t>
   </si>
   <si>
     <t xml:space="preserve">12.0628824234009</t>
@@ -4526,7 +4526,7 @@
     <t xml:space="preserve">12.2157535552979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6048784255981</t>
+    <t xml:space="preserve">12.6048774719238</t>
   </si>
   <si>
     <t xml:space="preserve">12.2667093276978</t>
@@ -4544,10 +4544,10 @@
     <t xml:space="preserve">11.914644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0350875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053783416748</t>
+    <t xml:space="preserve">12.0350866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053792953491</t>
   </si>
   <si>
     <t xml:space="preserve">12.1972227096558</t>
@@ -4559,10 +4559,10 @@
     <t xml:space="preserve">11.9378070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3176670074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8961143493652</t>
+    <t xml:space="preserve">12.317666053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8961153030396</t>
   </si>
   <si>
     <t xml:space="preserve">12.9476795196533</t>
@@ -4574,10 +4574,10 @@
     <t xml:space="preserve">13.0681219100952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8828248977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7484836578369</t>
+    <t xml:space="preserve">12.8828239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7484846115112</t>
   </si>
   <si>
     <t xml:space="preserve">12.7392196655273</t>
@@ -4592,19 +4592,19 @@
     <t xml:space="preserve">13.2348909378052</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7809104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3778867721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3825206756592</t>
+    <t xml:space="preserve">12.7809114456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3778877258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3825216293335</t>
   </si>
   <si>
     <t xml:space="preserve">12.9986362457275</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2626857757568</t>
+    <t xml:space="preserve">13.2626848220825</t>
   </si>
   <si>
     <t xml:space="preserve">13.2024631500244</t>
@@ -4613,46 +4613,46 @@
     <t xml:space="preserve">13.1978302001953</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9059867858887</t>
+    <t xml:space="preserve">12.905987739563</t>
   </si>
   <si>
     <t xml:space="preserve">12.5770835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5492897033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4288444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7855443954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579471588135</t>
+    <t xml:space="preserve">12.5492887496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4288454055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7855434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5579462051392</t>
   </si>
   <si>
     <t xml:space="preserve">11.8080978393555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1647968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5214948654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2898731231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1376085281372</t>
+    <t xml:space="preserve">12.1647958755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5214939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2898721694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1376094818115</t>
   </si>
   <si>
     <t xml:space="preserve">13.4433507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7212972640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9019622802734</t>
+    <t xml:space="preserve">13.7212963104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9019632339478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4248199462891</t>
@@ -4661,13 +4661,13 @@
     <t xml:space="preserve">12.7948093414307</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9106206893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5128374099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2441549301147</t>
+    <t xml:space="preserve">12.9106197357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5128364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2441558837891</t>
   </si>
   <si>
     <t xml:space="preserve">13.6240158081055</t>
@@ -4676,10 +4676,10 @@
     <t xml:space="preserve">13.9297571182251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741683959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0455684661865</t>
+    <t xml:space="preserve">13.8741674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0455675125122</t>
   </si>
   <si>
     <t xml:space="preserve">13.939022064209</t>
@@ -4688,7 +4688,7 @@
     <t xml:space="preserve">14.2540283203125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6477861404419</t>
+    <t xml:space="preserve">14.6477870941162</t>
   </si>
   <si>
     <t xml:space="preserve">14.1845417022705</t>
@@ -4703,10 +4703,10 @@
     <t xml:space="preserve">14.7589645385742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9674234390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4214057922363</t>
+    <t xml:space="preserve">14.9674243927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4214038848877</t>
   </si>
   <si>
     <t xml:space="preserve">15.5557460784912</t>
@@ -4718,22 +4718,22 @@
     <t xml:space="preserve">15.1388244628906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5134449005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.819185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7543325424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538307189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5279512405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0878677368164</t>
+    <t xml:space="preserve">14.5134439468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7543334960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538326263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5279493331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0878686904907</t>
   </si>
   <si>
     <t xml:space="preserve">15.2083120346069</t>
@@ -4751,25 +4751,25 @@
     <t xml:space="preserve">15.2317152023315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.315972328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8993701934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.33469581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6483173370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2832059860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0304365158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8010711669922</t>
+    <t xml:space="preserve">15.3159732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8993711471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3346948623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6483182907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2832069396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0304355621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8010721206665</t>
   </si>
   <si>
     <t xml:space="preserve">14.6700048446655</t>
@@ -4778,7 +4778,7 @@
     <t xml:space="preserve">14.3517026901245</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5295782089233</t>
+    <t xml:space="preserve">14.529577255249</t>
   </si>
   <si>
     <t xml:space="preserve">14.4031934738159</t>
@@ -4796,64 +4796,64 @@
     <t xml:space="preserve">14.4921293258667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3891496658325</t>
+    <t xml:space="preserve">14.3891506195068</t>
   </si>
   <si>
     <t xml:space="preserve">14.7074527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9087324142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2504396438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.521933555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5827865600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4657621383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5125713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2457580566406</t>
+    <t xml:space="preserve">14.9087333679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2504405975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5219326019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.58278465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.465763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5125703811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2457590103149</t>
   </si>
   <si>
     <t xml:space="preserve">15.7466173171997</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2036304473877</t>
+    <t xml:space="preserve">15.2036294937134</t>
   </si>
   <si>
     <t xml:space="preserve">14.1316995620728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5436191558838</t>
+    <t xml:space="preserve">14.5436201095581</t>
   </si>
   <si>
     <t xml:space="preserve">14.7683038711548</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8244762420654</t>
+    <t xml:space="preserve">14.8244752883911</t>
   </si>
   <si>
     <t xml:space="preserve">14.8338375091553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0117130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2270345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1240539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023508071899</t>
+    <t xml:space="preserve">15.0117120742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2270336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1240549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023498535156</t>
   </si>
   <si>
     <t xml:space="preserve">15.4563999176025</t>
@@ -4868,16 +4868,16 @@
     <t xml:space="preserve">15.4938459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0163946151733</t>
+    <t xml:space="preserve">15.016393661499</t>
   </si>
   <si>
     <t xml:space="preserve">15.0444784164429</t>
   </si>
   <si>
-    <t xml:space="preserve">15.072564125061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4142723083496</t>
+    <t xml:space="preserve">15.0725650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4142732620239</t>
   </si>
   <si>
     <t xml:space="preserve">15.1802253723145</t>
@@ -4886,13 +4886,13 @@
     <t xml:space="preserve">15.2129917144775</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8853282928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3704271316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.286169052124</t>
+    <t xml:space="preserve">14.885326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3704261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2861700057983</t>
   </si>
   <si>
     <t xml:space="preserve">14.1691465377808</t>
@@ -4910,7 +4910,7 @@
     <t xml:space="preserve">14.84787940979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1615009307861</t>
+    <t xml:space="preserve">15.1615018844604</t>
   </si>
   <si>
     <t xml:space="preserve">16.2381114959717</t>
@@ -4919,28 +4919,28 @@
     <t xml:space="preserve">15.4610805511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2223539352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7308559417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9976692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6793661117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0397987365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1053304672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.152138710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2597999572754</t>
+    <t xml:space="preserve">15.2223529815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7308568954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.997670173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6793670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0397977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1053314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1521396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2598009109497</t>
   </si>
   <si>
     <t xml:space="preserve">15.339376449585</t>
@@ -4949,10 +4949,10 @@
     <t xml:space="preserve">14.7636241912842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4593639373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.612117767334</t>
+    <t xml:space="preserve">14.4593629837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6121168136597</t>
   </si>
   <si>
     <t xml:space="preserve">13.8087158203125</t>
@@ -4964,10 +4964,10 @@
     <t xml:space="preserve">12.6057195663452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3763542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4091196060181</t>
+    <t xml:space="preserve">12.3763551712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4091205596924</t>
   </si>
   <si>
     <t xml:space="preserve">12.8257217407227</t>
@@ -4976,16 +4976,16 @@
     <t xml:space="preserve">12.6899757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4044389724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0065603256226</t>
+    <t xml:space="preserve">12.4044399261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0065612792969</t>
   </si>
   <si>
     <t xml:space="preserve">12.1189031600952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4793338775635</t>
+    <t xml:space="preserve">12.4793348312378</t>
   </si>
   <si>
     <t xml:space="preserve">12.4138021469116</t>
@@ -4997,7 +4997,7 @@
     <t xml:space="preserve">12.264012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6338052749634</t>
+    <t xml:space="preserve">12.6338043212891</t>
   </si>
   <si>
     <t xml:space="preserve">12.320182800293</t>
@@ -5006,10 +5006,10 @@
     <t xml:space="preserve">12.1657123565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1329469680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4606103897095</t>
+    <t xml:space="preserve">12.1329460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4606113433838</t>
   </si>
   <si>
     <t xml:space="preserve">12.6244430541992</t>
@@ -5018,22 +5018,22 @@
     <t xml:space="preserve">12.582314491272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4840154647827</t>
+    <t xml:space="preserve">12.4840145111084</t>
   </si>
   <si>
     <t xml:space="preserve">12.4231643676758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2874174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2686920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2172021865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1282653808594</t>
+    <t xml:space="preserve">12.2874164581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2686929702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2172031402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1282644271851</t>
   </si>
   <si>
     <t xml:space="preserve">11.8801755905151</t>
@@ -5042,37 +5042,37 @@
     <t xml:space="preserve">11.5618743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4869794845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3278274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6274070739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7210254669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023010253906</t>
+    <t xml:space="preserve">11.4869785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3278284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7210264205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023019790649</t>
   </si>
   <si>
     <t xml:space="preserve">11.4682559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3371906280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.472936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.435489654541</t>
+    <t xml:space="preserve">11.3371896743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4729356765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4354887008667</t>
   </si>
   <si>
     <t xml:space="preserve">11.3559141159058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.510383605957</t>
+    <t xml:space="preserve">11.5103845596313</t>
   </si>
   <si>
     <t xml:space="preserve">11.5478315353394</t>
@@ -5084,16 +5084,16 @@
     <t xml:space="preserve">11.8414611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.870343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323053359985</t>
+    <t xml:space="preserve">11.8703422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323043823242</t>
   </si>
   <si>
     <t xml:space="preserve">11.533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7548160552979</t>
+    <t xml:space="preserve">11.7548170089722</t>
   </si>
   <si>
     <t xml:space="preserve">11.4371185302734</t>
@@ -5108,7 +5108,7 @@
     <t xml:space="preserve">11.884783744812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9618005752563</t>
+    <t xml:space="preserve">11.9618015289307</t>
   </si>
   <si>
     <t xml:space="preserve">12.2361764907837</t>
@@ -5117,7 +5117,7 @@
     <t xml:space="preserve">12.3324489593506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3950262069702</t>
+    <t xml:space="preserve">12.3950252532959</t>
   </si>
   <si>
     <t xml:space="preserve">12.3468885421753</t>
@@ -5132,7 +5132,7 @@
     <t xml:space="preserve">12.4479761123657</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5394325256348</t>
+    <t xml:space="preserve">12.5394334793091</t>
   </si>
   <si>
     <t xml:space="preserve">12.0484457015991</t>
@@ -5150,7 +5150,7 @@
     <t xml:space="preserve">12.4720430374146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4768571853638</t>
+    <t xml:space="preserve">12.4768562316895</t>
   </si>
   <si>
     <t xml:space="preserve">12.5105514526367</t>
@@ -5162,10 +5162,10 @@
     <t xml:space="preserve">13.2037105560303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1988973617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2711000442505</t>
+    <t xml:space="preserve">13.1988964080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2711009979248</t>
   </si>
   <si>
     <t xml:space="preserve">13.1603879928589</t>
@@ -5174,19 +5174,19 @@
     <t xml:space="preserve">12.789740562439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266937255859</t>
+    <t xml:space="preserve">13.1266927719116</t>
   </si>
   <si>
     <t xml:space="preserve">13.0978107452393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.46364402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7091379165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7235803604126</t>
+    <t xml:space="preserve">13.4636449813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7091388702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7235794067383</t>
   </si>
   <si>
     <t xml:space="preserve">13.6610021591187</t>
@@ -5216,7 +5216,7 @@
     <t xml:space="preserve">14.3541612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4456195831299</t>
+    <t xml:space="preserve">14.4456205368042</t>
   </si>
   <si>
     <t xml:space="preserve">14.440806388855</t>
@@ -5246,16 +5246,16 @@
     <t xml:space="preserve">14.835521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8499622344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.806640625</t>
+    <t xml:space="preserve">14.8499631881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8066396713257</t>
   </si>
   <si>
     <t xml:space="preserve">14.8114538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7873859405518</t>
+    <t xml:space="preserve">14.7873849868774</t>
   </si>
   <si>
     <t xml:space="preserve">14.7248086929321</t>
@@ -5276,25 +5276,25 @@
     <t xml:space="preserve">14.4167385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5900278091431</t>
+    <t xml:space="preserve">14.5900268554688</t>
   </si>
   <si>
     <t xml:space="preserve">14.7199954986572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6862993240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2097539901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3493480682373</t>
+    <t xml:space="preserve">14.68630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.209753036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.349347114563</t>
   </si>
   <si>
     <t xml:space="preserve">14.2867708206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5081968307495</t>
+    <t xml:space="preserve">14.5081958770752</t>
   </si>
   <si>
     <t xml:space="preserve">14.4071111679077</t>
@@ -5306,7 +5306,7 @@
     <t xml:space="preserve">14.5996551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4889430999756</t>
+    <t xml:space="preserve">14.4889421463013</t>
   </si>
   <si>
     <t xml:space="preserve">14.8595905303955</t>
@@ -5321,19 +5321,19 @@
     <t xml:space="preserve">14.5274515151978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1231088638306</t>
+    <t xml:space="preserve">14.1231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">14.1134805679321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1616182327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1664304733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5226373672485</t>
+    <t xml:space="preserve">14.1616172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.166431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5226383209229</t>
   </si>
   <si>
     <t xml:space="preserve">14.4263648986816</t>
@@ -5363,10 +5363,10 @@
     <t xml:space="preserve">14.7970123291016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772871017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713872909546</t>
+    <t xml:space="preserve">15.1772880554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713882446289</t>
   </si>
   <si>
     <t xml:space="preserve">15.2831859588623</t>
@@ -5378,7 +5378,7 @@
     <t xml:space="preserve">15.0425062179565</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6911134719849</t>
+    <t xml:space="preserve">14.6911144256592</t>
   </si>
   <si>
     <t xml:space="preserve">14.821081161499</t>
@@ -5387,16 +5387,16 @@
     <t xml:space="preserve">14.8644027709961</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5467042922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7501068115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7096729278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0832080841064</t>
+    <t xml:space="preserve">14.5467052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7501058578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7096719741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0832061767578</t>
   </si>
   <si>
     <t xml:space="preserve">15.586443901062</t>
@@ -5411,16 +5411,16 @@
     <t xml:space="preserve">15.4901714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7164115905762</t>
+    <t xml:space="preserve">15.7164125442505</t>
   </si>
   <si>
     <t xml:space="preserve">15.4997987747192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5190544128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8980989456177</t>
+    <t xml:space="preserve">15.5190534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8980979919434</t>
   </si>
   <si>
     <t xml:space="preserve">15.081015586853</t>
@@ -5844,6 +5844,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.2449998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3850002288818</t>
   </si>
 </sst>
 </file>
@@ -62397,7 +62400,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6495949074</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>2830883</v>
@@ -62418,6 +62421,32 @@
         <v>1943</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6496064815</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>3034272</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>14.4949998855591</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>14.3599996566772</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>14.3850002288818</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1947">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,58 +44,58 @@
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735229492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11749076843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88687896728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58708620071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50252866744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46409368515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021528244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4564061164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98749971389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92600250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508390426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74151420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9951868057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17583084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892530441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26423072814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729152679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19888973236084</t>
+    <t xml:space="preserve">8.31735038757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11748886108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88688039779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58708524703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50252914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46409320831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021432876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45640420913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98749876022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92600107192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14507961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74151277542114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99518632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17582941055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892482757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26422882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19889116287231</t>
   </si>
   <si>
     <t xml:space="preserve">6.84528827667236</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">6.8683500289917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41797161102295</t>
+    <t xml:space="preserve">7.41796970367432</t>
   </si>
   <si>
     <t xml:space="preserve">6.78379201889038</t>
@@ -113,127 +113,127 @@
     <t xml:space="preserve">6.64158248901367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17198657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33341455459595</t>
+    <t xml:space="preserve">7.17198705673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33341312408447</t>
   </si>
   <si>
     <t xml:space="preserve">7.10664749145508</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53712034225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44487619400024</t>
+    <t xml:space="preserve">7.53711938858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4448766708374</t>
   </si>
   <si>
     <t xml:space="preserve">7.20273399353027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50637149810791</t>
+    <t xml:space="preserve">7.50637245178223</t>
   </si>
   <si>
     <t xml:space="preserve">7.233482837677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89909744262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9106273651123</t>
+    <t xml:space="preserve">6.89909791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91062831878662</t>
   </si>
   <si>
     <t xml:space="preserve">7.55633687973022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72545194625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90994119644165</t>
+    <t xml:space="preserve">7.72545289993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90993976593018</t>
   </si>
   <si>
     <t xml:space="preserve">7.85613107681274</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02524566650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34809970855713</t>
+    <t xml:space="preserve">8.02524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34809875488281</t>
   </si>
   <si>
     <t xml:space="preserve">8.44034290313721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13286209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28660202026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00218677520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24816799163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15592479705811</t>
+    <t xml:space="preserve">8.13286399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28660297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00218296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24816703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15592384338379</t>
   </si>
   <si>
     <t xml:space="preserve">8.3942232131958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24048233032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20204639434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38653469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14055156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08674335479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4172830581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25585651397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94068813323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07905387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05599117279053</t>
+    <t xml:space="preserve">8.24048042297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20204925537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38653659820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14055061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08674144744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41728401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25585556030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94068717956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0790548324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05599403381348</t>
   </si>
   <si>
     <t xml:space="preserve">8.51721477508545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55564975738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61714649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87850284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87081718444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90925121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17061042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3089771270752</t>
+    <t xml:space="preserve">8.55564880371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61714458465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87850379943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87081813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90925216674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17061138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30897521972656</t>
   </si>
   <si>
     <t xml:space="preserve">9.347412109375</t>
@@ -245,16 +245,16 @@
     <t xml:space="preserve">9.10911560058594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27822971343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28591537475586</t>
+    <t xml:space="preserve">9.27822780609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28591632843018</t>
   </si>
   <si>
     <t xml:space="preserve">9.05530452728271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93231296539307</t>
+    <t xml:space="preserve">8.9323148727417</t>
   </si>
   <si>
     <t xml:space="preserve">8.45571899414062</t>
@@ -263,28 +263,28 @@
     <t xml:space="preserve">8.40959644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85544395446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.694016456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66326904296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74782466888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75551223754883</t>
+    <t xml:space="preserve">8.85544300079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69401741027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66326713562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74782562255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75551128387451</t>
   </si>
   <si>
     <t xml:space="preserve">8.9169397354126</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11680221557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14754962921143</t>
+    <t xml:space="preserve">9.11680126190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14754867553711</t>
   </si>
   <si>
     <t xml:space="preserve">8.84775638580322</t>
@@ -293,22 +293,22 @@
     <t xml:space="preserve">9.03224468231201</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09535121917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20578861236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22945499420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44244480133057</t>
+    <t xml:space="preserve">9.09535026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20578956604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22945308685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44244289398193</t>
   </si>
   <si>
     <t xml:space="preserve">9.46610736846924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47399616241455</t>
+    <t xml:space="preserve">9.47399711608887</t>
   </si>
   <si>
     <t xml:space="preserve">9.39511108398438</t>
@@ -320,25 +320,25 @@
     <t xml:space="preserve">9.1505708694458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11901760101318</t>
+    <t xml:space="preserve">9.11901664733887</t>
   </si>
   <si>
     <t xml:space="preserve">9.57654476165771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0498523712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233963012695</t>
+    <t xml:space="preserve">10.0498504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233934402466</t>
   </si>
   <si>
     <t xml:space="preserve">10.0419616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0104093551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78953266143799</t>
+    <t xml:space="preserve">10.0104084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7895336151123</t>
   </si>
   <si>
     <t xml:space="preserve">9.65542888641357</t>
@@ -347,19 +347,19 @@
     <t xml:space="preserve">9.85264015197754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67120742797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91574764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1918430328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93941211700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3338346481323</t>
+    <t xml:space="preserve">9.6712064743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91574668884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1918420791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93941402435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3338317871094</t>
   </si>
   <si>
     <t xml:space="preserve">9.81319713592529</t>
@@ -368,115 +368,115 @@
     <t xml:space="preserve">9.53710460662842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6396541595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.136622428894</t>
+    <t xml:space="preserve">9.63965320587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1366233825684</t>
   </si>
   <si>
     <t xml:space="preserve">10.2628383636475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4048290252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3653888702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1208457946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82897567749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90785884857178</t>
+    <t xml:space="preserve">10.4048299789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3653879165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1208467483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8289737701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90785789489746</t>
   </si>
   <si>
     <t xml:space="preserve">10.0261869430542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1839542388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786149978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99463367462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1129579544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71853542327881</t>
+    <t xml:space="preserve">10.1839532852173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99463272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1129589080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71853733062744</t>
   </si>
   <si>
     <t xml:space="preserve">9.88419342041016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68698215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56076812744141</t>
+    <t xml:space="preserve">9.68698406219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56076908111572</t>
   </si>
   <si>
     <t xml:space="preserve">9.66331768035889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59232139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30833911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43455505371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18212699890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04013442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22156620025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48977375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69487190246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89997100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87630367279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0025196075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2312841415405</t>
+    <t xml:space="preserve">9.59232234954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3083381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43455410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18212509155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04013252258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22156524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48977184295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69487285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89997005462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87630558013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0025215148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2312860488892</t>
   </si>
   <si>
     <t xml:space="preserve">10.1760654449463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1524019241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0340728759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97096633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58443450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72642612457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80531120300293</t>
+    <t xml:space="preserve">10.1523990631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0340747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97096729278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58443164825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72642517089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80531024932861</t>
   </si>
   <si>
     <t xml:space="preserve">9.60021114349365</t>
@@ -485,43 +485,43 @@
     <t xml:space="preserve">9.33989334106445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13479423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19001197814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36355781555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24523258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14268112182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16634750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38722324371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17423534393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90602970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02435493469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86841869354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0182962417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.168176651001</t>
+    <t xml:space="preserve">9.13479232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19001388549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36355686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24523162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14268398284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16634654998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38722229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17423629760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90603160858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0243558883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86841583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0182971954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1681776046753</t>
   </si>
   <si>
     <t xml:space="preserve">10.2943925857544</t>
@@ -530,73 +530,73 @@
     <t xml:space="preserve">10.2707271575928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.491602897644</t>
+    <t xml:space="preserve">10.4916019439697</t>
   </si>
   <si>
     <t xml:space="preserve">10.1602878570557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3732757568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3496103286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4837141036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862627029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5389318466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547113418579</t>
+    <t xml:space="preserve">10.3732767105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3496122360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4837131500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862636566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5389337539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547103881836</t>
   </si>
   <si>
     <t xml:space="preserve">10.507378578186</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6099290847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022813796997</t>
+    <t xml:space="preserve">10.6099281311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022794723511</t>
   </si>
   <si>
     <t xml:space="preserve">10.4363832473755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3969421386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7974214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567806243896</t>
+    <t xml:space="preserve">10.3969402313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79742050170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2567796707153</t>
   </si>
   <si>
     <t xml:space="preserve">11.1936731338501</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3987703323364</t>
+    <t xml:space="preserve">11.3987712860107</t>
   </si>
   <si>
     <t xml:space="preserve">11.5328731536865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5249862670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092096328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041095733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7260236740112</t>
+    <t xml:space="preserve">11.5249853134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041105270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7260246276855</t>
   </si>
   <si>
     <t xml:space="preserve">11.3916778564453</t>
@@ -611,79 +611,79 @@
     <t xml:space="preserve">11.4235200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2563447952271</t>
+    <t xml:space="preserve">11.2563467025757</t>
   </si>
   <si>
     <t xml:space="preserve">11.9966850280762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4902448654175</t>
+    <t xml:space="preserve">12.4902467727661</t>
   </si>
   <si>
     <t xml:space="preserve">12.3787975311279</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6892623901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8564338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.737024307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8882789611816</t>
+    <t xml:space="preserve">12.6892604827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8564357757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7370262145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.888277053833</t>
   </si>
   <si>
     <t xml:space="preserve">13.2385454177856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0474910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9599237442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.095253944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9838066101074</t>
+    <t xml:space="preserve">13.0474901199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9599256515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0952548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9838047027588</t>
   </si>
   <si>
     <t xml:space="preserve">13.0395288467407</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226238250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1270961761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2783479690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5251302719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6843395233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7082242965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7321071624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.676381111145</t>
+    <t xml:space="preserve">13.2226247787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1270971298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2783489227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.525128364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6843414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7082233428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7321043014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763792037964</t>
   </si>
   <si>
     <t xml:space="preserve">13.6524982452393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5808525085449</t>
+    <t xml:space="preserve">13.5808544158936</t>
   </si>
   <si>
     <t xml:space="preserve">13.5649318695068</t>
@@ -692,31 +692,31 @@
     <t xml:space="preserve">13.4694042205811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659162521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5171661376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.453483581543</t>
+    <t xml:space="preserve">13.3659172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5171689987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.45348072052</t>
   </si>
   <si>
     <t xml:space="preserve">13.2146644592285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4614458084106</t>
+    <t xml:space="preserve">13.4614410400391</t>
   </si>
   <si>
     <t xml:space="preserve">13.5569715499878</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3897972106934</t>
+    <t xml:space="preserve">13.389796257019</t>
   </si>
   <si>
     <t xml:space="preserve">13.3499946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6922998428345</t>
+    <t xml:space="preserve">13.6923027038574</t>
   </si>
   <si>
     <t xml:space="preserve">13.7161846160889</t>
@@ -725,28 +725,28 @@
     <t xml:space="preserve">13.5490121841431</t>
   </si>
   <si>
-    <t xml:space="preserve">12.880316734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8723545074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7847890853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9519624710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768259048462</t>
+    <t xml:space="preserve">12.8803176879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8723564147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7847881317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9519634246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768278121948</t>
   </si>
   <si>
     <t xml:space="preserve">12.8086700439453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5220861434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7290639877319</t>
+    <t xml:space="preserve">12.522087097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7290658950806</t>
   </si>
   <si>
     <t xml:space="preserve">12.816632270813</t>
@@ -755,49 +755,49 @@
     <t xml:space="preserve">12.9201192855835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6255769729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4982051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8484735488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9041976928711</t>
+    <t xml:space="preserve">12.6255760192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4982070922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8484754562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9041967391968</t>
   </si>
   <si>
     <t xml:space="preserve">12.4265604019165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3628749847412</t>
+    <t xml:space="preserve">12.3628740310669</t>
   </si>
   <si>
     <t xml:space="preserve">12.5539312362671</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2991905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1399774551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1718196868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0842514038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7021417617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7180643081665</t>
+    <t xml:space="preserve">12.2991895675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1399784088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.171820640564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0842542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7021408081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7180633544922</t>
   </si>
   <si>
     <t xml:space="preserve">11.7658271789551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6782598495483</t>
+    <t xml:space="preserve">11.6782608032227</t>
   </si>
   <si>
     <t xml:space="preserve">11.9489231109619</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">12.1240568161011</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9091196060181</t>
+    <t xml:space="preserve">11.9091176986694</t>
   </si>
   <si>
     <t xml:space="preserve">11.749906539917</t>
@@ -818,127 +818,127 @@
     <t xml:space="preserve">11.7737874984741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8533964157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5906934738159</t>
+    <t xml:space="preserve">11.8533945083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5906953811646</t>
   </si>
   <si>
     <t xml:space="preserve">12.4822835922241</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4026784896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927513122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6972227096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8643951416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8405132293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5857744216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0046463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.10813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8931970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9648408889771</t>
+    <t xml:space="preserve">12.4026794433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927494049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6972208023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8643941879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8405151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5857725143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0046472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1081352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8931980133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9648427963257</t>
   </si>
   <si>
     <t xml:space="preserve">11.9728050231934</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9568824768066</t>
+    <t xml:space="preserve">11.956883430481</t>
   </si>
   <si>
     <t xml:space="preserve">12.1320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4633235931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474010467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4951639175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3757562637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652894973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2324647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2245035171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2404260635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4155607223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4712829589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3279914855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5747718811035</t>
+    <t xml:space="preserve">11.4633226394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474020004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4951658248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3757553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652914047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2324628829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2245044708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2404251098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4155597686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.471284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3279933929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5747737884521</t>
   </si>
   <si>
     <t xml:space="preserve">11.2961492538452</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4872045516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6170949935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5683870315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6252126693726</t>
+    <t xml:space="preserve">11.4872055053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6170969009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5683860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6252136230469</t>
   </si>
   <si>
     <t xml:space="preserve">11.5196771621704</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3491954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2193050384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9189338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0488233566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082340240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9838781356812</t>
+    <t xml:space="preserve">11.3491945266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2193040847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787157058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9189329147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0488243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082330703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9838771820068</t>
   </si>
   <si>
     <t xml:space="preserve">10.7971611022949</t>
@@ -947,28 +947,28 @@
     <t xml:space="preserve">10.9676418304443</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3735523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0650615692139</t>
+    <t xml:space="preserve">11.3735494613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0650596618652</t>
   </si>
   <si>
     <t xml:space="preserve">11.1137685775757</t>
   </si>
   <si>
-    <t xml:space="preserve">10.878342628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9351692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8377513885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8458690643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8945770263672</t>
+    <t xml:space="preserve">10.8783416748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9351682662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8377523422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8458700180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8945779800415</t>
   </si>
   <si>
     <t xml:space="preserve">11.0812969207764</t>
@@ -977,76 +977,76 @@
     <t xml:space="preserve">11.4222593307495</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4466142654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2923679351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1949501037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9026956558228</t>
+    <t xml:space="preserve">11.4466133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.292368888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1949510574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9026975631714</t>
   </si>
   <si>
     <t xml:space="preserve">11.0407056808472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3654317855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5034418106079</t>
+    <t xml:space="preserve">11.3654327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5034408569336</t>
   </si>
   <si>
     <t xml:space="preserve">11.6089763641357</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5359134674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3410787582397</t>
+    <t xml:space="preserve">11.5359115600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3410797119141</t>
   </si>
   <si>
     <t xml:space="preserve">11.0975332260132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2030696868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8702239990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.642915725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373802185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427101135254</t>
+    <t xml:space="preserve">11.2030687332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8702249526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6429147720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373792648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427196502686</t>
   </si>
   <si>
     <t xml:space="preserve">9.85545349121094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70932674407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79862689971924</t>
+    <t xml:space="preserve">9.70932579040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79862594604492</t>
   </si>
   <si>
     <t xml:space="preserve">9.66061687469482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72556209564209</t>
+    <t xml:space="preserve">9.72556304931641</t>
   </si>
   <si>
     <t xml:space="preserve">9.46578311920166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49825477600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44954681396484</t>
+    <t xml:space="preserve">9.49825286865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44954490661621</t>
   </si>
   <si>
     <t xml:space="preserve">9.4089527130127</t>
@@ -1064,52 +1064,52 @@
     <t xml:space="preserve">9.30341815948486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26282596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19788265228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10858249664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9868106842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09234619140625</t>
+    <t xml:space="preserve">9.26282787322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19788074493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98680782318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09234523773193</t>
   </si>
   <si>
     <t xml:space="preserve">9.11669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07610893249512</t>
+    <t xml:space="preserve">9.07610988616943</t>
   </si>
   <si>
     <t xml:space="preserve">9.22223663330078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52260684967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61190891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62814331054688</t>
+    <t xml:space="preserve">9.52260780334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61190700531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62814426422119</t>
   </si>
   <si>
     <t xml:space="preserve">9.41707324981689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65250110626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88792610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80674362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83109760284424</t>
+    <t xml:space="preserve">9.65249824523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88792705535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80674457550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83109664916992</t>
   </si>
   <si>
     <t xml:space="preserve">9.83921813964844</t>
@@ -1118,28 +1118,28 @@
     <t xml:space="preserve">9.78239154815674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76615428924561</t>
+    <t xml:space="preserve">9.76615333557129</t>
   </si>
   <si>
     <t xml:space="preserve">9.74991798400879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74179840087891</t>
+    <t xml:space="preserve">9.74180030822754</t>
   </si>
   <si>
     <t xml:space="preserve">9.70120811462402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60379028320312</t>
+    <t xml:space="preserve">9.60378932952881</t>
   </si>
   <si>
     <t xml:space="preserve">9.35212802886963</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32777214050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44142723083496</t>
+    <t xml:space="preserve">9.32777309417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44142627716064</t>
   </si>
   <si>
     <t xml:space="preserve">9.21411895751953</t>
@@ -1154,55 +1154,55 @@
     <t xml:space="preserve">9.1816463470459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27094554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49013519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53884410858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6023254394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6835050582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6510324478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5617332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4805517196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587779998779</t>
+    <t xml:space="preserve">9.27094459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49013710021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53884506225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6023244857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6835060119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6510334014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5617341995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4805498123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587799072266</t>
   </si>
   <si>
     <t xml:space="preserve">10.228889465332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96910858154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81486415863037</t>
+    <t xml:space="preserve">9.96910572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81486225128174</t>
   </si>
   <si>
     <t xml:space="preserve">9.84733581542969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92939567565918</t>
+    <t xml:space="preserve">9.9293966293335</t>
   </si>
   <si>
     <t xml:space="preserve">10.257640838623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2002000808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95401573181152</t>
+    <t xml:space="preserve">10.2001972198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95401477813721</t>
   </si>
   <si>
     <t xml:space="preserve">9.94580745697021</t>
@@ -1211,28 +1211,28 @@
     <t xml:space="preserve">10.0196628570557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248163223267</t>
+    <t xml:space="preserve">10.2248153686523</t>
   </si>
   <si>
     <t xml:space="preserve">10.4545888900757</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3397006988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2986707687378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3971452713013</t>
+    <t xml:space="preserve">10.3397016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673746109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2986717224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.397144317627</t>
   </si>
   <si>
     <t xml:space="preserve">10.6843585968018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0043964385986</t>
+    <t xml:space="preserve">11.0043973922729</t>
   </si>
   <si>
     <t xml:space="preserve">10.7418012619019</t>
@@ -1241,19 +1241,19 @@
     <t xml:space="preserve">10.594090461731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4956188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7007703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776767730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7089767456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8730974197388</t>
+    <t xml:space="preserve">10.4956169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7007684707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776796340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7089757919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8730983734131</t>
   </si>
   <si>
     <t xml:space="preserve">10.9551610946655</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">10.9059228897095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7992429733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9961891174316</t>
+    <t xml:space="preserve">10.7992448806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9961910247803</t>
   </si>
   <si>
     <t xml:space="preserve">11.1931371688843</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1685171127319</t>
+    <t xml:space="preserve">11.1685199737549</t>
   </si>
   <si>
     <t xml:space="preserve">11.2669916152954</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">11.2587862014771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5459995269775</t>
+    <t xml:space="preserve">11.5460014343262</t>
   </si>
   <si>
     <t xml:space="preserve">11.6526794433594</t>
@@ -1295,28 +1295,28 @@
     <t xml:space="preserve">11.422908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5952367782593</t>
+    <t xml:space="preserve">11.595235824585</t>
   </si>
   <si>
     <t xml:space="preserve">11.6855039596558</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9070672988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9152774810791</t>
+    <t xml:space="preserve">11.9070692062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9152755737305</t>
   </si>
   <si>
     <t xml:space="preserve">11.7921838760376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8660383224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9316864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7675666809082</t>
+    <t xml:space="preserve">11.8660402297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9316873550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7675638198853</t>
   </si>
   <si>
     <t xml:space="preserve">11.5542058944702</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">11.5090713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2834043502808</t>
+    <t xml:space="preserve">11.2834053039551</t>
   </si>
   <si>
     <t xml:space="preserve">11.1603126525879</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">11.0249118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5981941223145</t>
+    <t xml:space="preserve">10.5981931686401</t>
   </si>
   <si>
     <t xml:space="preserve">10.5366477966309</t>
@@ -1346,169 +1346,169 @@
     <t xml:space="preserve">10.438175201416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6105031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6679468154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8197603225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1480045318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2464761734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1192817687988</t>
+    <t xml:space="preserve">10.610502243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6679449081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8197593688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1480026245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2464780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1192836761475</t>
   </si>
   <si>
     <t xml:space="preserve">11.4639387130737</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9645109176636</t>
+    <t xml:space="preserve">11.9645118713379</t>
   </si>
   <si>
     <t xml:space="preserve">11.8537282943726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5418968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6937112808228</t>
+    <t xml:space="preserve">11.541895866394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6937093734741</t>
   </si>
   <si>
     <t xml:space="preserve">11.755256652832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6198558807373</t>
+    <t xml:space="preserve">11.619854927063</t>
   </si>
   <si>
     <t xml:space="preserve">11.9193773269653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3543033599854</t>
+    <t xml:space="preserve">12.354302406311</t>
   </si>
   <si>
     <t xml:space="preserve">12.1737670898438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0876035690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.80859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7060174942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8906564712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7429456710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768199920654</t>
+    <t xml:space="preserve">12.0876026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8085956573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7060194015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8906574249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7429466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768218994141</t>
   </si>
   <si>
     <t xml:space="preserve">12.4035396575928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6444721221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1726198196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.201343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3490543365479</t>
+    <t xml:space="preserve">11.644474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1726207733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2013425827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3490533828735</t>
   </si>
   <si>
     <t xml:space="preserve">11.2259616851807</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4475259780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4885568618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.414701461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9398927688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7019147872925</t>
+    <t xml:space="preserve">11.4475269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4885578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4147024154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9398937225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7019157409668</t>
   </si>
   <si>
     <t xml:space="preserve">11.7347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0670862197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2763442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3050661087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2230043411255</t>
+    <t xml:space="preserve">12.0670871734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2763452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3050651550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2230052947998</t>
   </si>
   <si>
     <t xml:space="preserve">12.2106962203979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4363622665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5102186203003</t>
+    <t xml:space="preserve">12.4363632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.510217666626</t>
   </si>
   <si>
     <t xml:space="preserve">12.5471458435059</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7276811599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8220520019531</t>
+    <t xml:space="preserve">12.7276792526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8220510482788</t>
   </si>
   <si>
     <t xml:space="preserve">12.5389385223389</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5881757736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4814958572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7769165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241477966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2118425369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2405643463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5318784713745</t>
+    <t xml:space="preserve">12.5881767272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4814987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7769174575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.211841583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2405614852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5318794250488</t>
   </si>
   <si>
     <t xml:space="preserve">13.236457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4539213180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3513450622559</t>
+    <t xml:space="preserve">13.4539222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3513441085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.3964786529541</t>
@@ -1517,22 +1517,22 @@
     <t xml:space="preserve">13.3308296203613</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923749923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.638560295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0857944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283479690552</t>
+    <t xml:space="preserve">13.3923759460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6385583877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0857925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283489227295</t>
   </si>
   <si>
     <t xml:space="preserve">14.186861038208</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1952028274536</t>
+    <t xml:space="preserve">14.1952037811279</t>
   </si>
   <si>
     <t xml:space="preserve">13.869836807251</t>
@@ -1541,43 +1541,43 @@
     <t xml:space="preserve">13.5653266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2316160202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0939607620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1648721694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2357873916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8061370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9646472930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6935062408447</t>
+    <t xml:space="preserve">13.231614112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0939598083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1648740768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2357864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8061351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9646463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.693507194519</t>
   </si>
   <si>
     <t xml:space="preserve">12.6517934799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0188760757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.981333732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0689306259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0981292724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9396200180054</t>
+    <t xml:space="preserve">13.0188751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9813327789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0689325332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0981311798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9396181106567</t>
   </si>
   <si>
     <t xml:space="preserve">13.1565313339233</t>
@@ -1589,49 +1589,49 @@
     <t xml:space="preserve">12.5683660507202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4390525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4807662963867</t>
+    <t xml:space="preserve">12.4390535354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4807682037354</t>
   </si>
   <si>
     <t xml:space="preserve">13.085618019104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5266532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5767097473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2191019058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1440162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1106472015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0480766296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2566452026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2941865921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2900142669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3567562103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988096237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.761381149292</t>
+    <t xml:space="preserve">12.5266542434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5767078399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2191009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440181732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1106452941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.04807472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2566432952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2941856384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2900161743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3567571640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7613821029663</t>
   </si>
   <si>
     <t xml:space="preserve">13.3650999069214</t>
@@ -1640,25 +1640,25 @@
     <t xml:space="preserve">13.4276695251465</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2858438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2274436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2399578094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1315011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1356725692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9145917892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9896745681763</t>
+    <t xml:space="preserve">13.2858428955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.227442741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2399587631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1315040588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1356735229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9145908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9896764755249</t>
   </si>
   <si>
     <t xml:space="preserve">13.0397329330444</t>
@@ -1667,40 +1667,40 @@
     <t xml:space="preserve">12.2263126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4015111923218</t>
+    <t xml:space="preserve">12.4015092849731</t>
   </si>
   <si>
     <t xml:space="preserve">12.4098539352417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6267652511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5808801651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809940338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4640817642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.159571647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0636291503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2471694946289</t>
+    <t xml:space="preserve">12.6267642974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5808792114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4640827178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1595706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0636310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428852081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2471704483032</t>
   </si>
   <si>
     <t xml:space="preserve">12.2221412658691</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3514537811279</t>
+    <t xml:space="preserve">12.3514556884766</t>
   </si>
   <si>
     <t xml:space="preserve">12.7435636520386</t>
@@ -1712,34 +1712,34 @@
     <t xml:space="preserve">12.5391664505005</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8383741378784</t>
+    <t xml:space="preserve">11.8383750915527</t>
   </si>
   <si>
     <t xml:space="preserve">12.0552864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0260877609253</t>
+    <t xml:space="preserve">12.026086807251</t>
   </si>
   <si>
     <t xml:space="preserve">11.9468297958374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5922632217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4963216781616</t>
+    <t xml:space="preserve">11.592264175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4963226318359</t>
   </si>
   <si>
     <t xml:space="preserve">11.3086109161377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2001552581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2710676193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5380344390869</t>
+    <t xml:space="preserve">11.2001543045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.271068572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5380353927612</t>
   </si>
   <si>
     <t xml:space="preserve">11.5255212783813</t>
@@ -1748,82 +1748,82 @@
     <t xml:space="preserve">11.5296926498413</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5964345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7507753372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7591180801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6882057189941</t>
+    <t xml:space="preserve">11.5964326858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7507772445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7591190338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6882047653198</t>
   </si>
   <si>
     <t xml:space="preserve">11.6047773361206</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7215776443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3681402206421</t>
+    <t xml:space="preserve">11.7215757369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3681392669678</t>
   </si>
   <si>
     <t xml:space="preserve">12.2721977233887</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2137994766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0386009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3639688491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4223690032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5975666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2596855163574</t>
+    <t xml:space="preserve">12.2138004302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0385999679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3639678955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4223699569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5975656509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2596845626831</t>
   </si>
   <si>
     <t xml:space="preserve">12.2012844085693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6100788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2555141448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7382621765137</t>
+    <t xml:space="preserve">12.6100807189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2555131912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.738263130188</t>
   </si>
   <si>
     <t xml:space="preserve">11.7466039657593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7966623306274</t>
+    <t xml:space="preserve">11.7966613769531</t>
   </si>
   <si>
     <t xml:space="preserve">11.9259738922119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8508901596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840324401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.421236038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9707279205322</t>
+    <t xml:space="preserve">11.8508892059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965475082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840353012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4212369918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9707269668579</t>
   </si>
   <si>
     <t xml:space="preserve">10.8581008911133</t>
@@ -1832,22 +1832,22 @@
     <t xml:space="preserve">10.8205585479736</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7246170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7579879760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6411895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9582138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.137583732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.20432472229</t>
+    <t xml:space="preserve">10.7246160507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7579889297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6411914825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9582147598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1375846862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.204327583313</t>
   </si>
   <si>
     <t xml:space="preserve">11.20849609375</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">11.1959829330444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0916996002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0541543960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7997007369995</t>
+    <t xml:space="preserve">11.0916976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0541553497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7997026443481</t>
   </si>
   <si>
     <t xml:space="preserve">10.7121019363403</t>
@@ -1880,85 +1880,85 @@
     <t xml:space="preserve">10.3116502761841</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2062559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91958713531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1092948913574</t>
+    <t xml:space="preserve">10.2062578201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91958904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1092939376831</t>
   </si>
   <si>
     <t xml:space="preserve">9.9659595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80154705047607</t>
+    <t xml:space="preserve">9.80154800415039</t>
   </si>
   <si>
     <t xml:space="preserve">10.0797853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89007663726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19026851654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13124752044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95840358734131</t>
+    <t xml:space="preserve">9.8900785446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19026756286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13124847412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95840263366699</t>
   </si>
   <si>
     <t xml:space="preserve">9.26615142822266</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14389705657959</t>
+    <t xml:space="preserve">9.14389610290527</t>
   </si>
   <si>
     <t xml:space="preserve">8.97105121612549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.675950050354</t>
+    <t xml:space="preserve">8.67594909667969</t>
   </si>
   <si>
     <t xml:space="preserve">8.69702911376953</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43143844604492</t>
+    <t xml:space="preserve">8.43143939971924</t>
   </si>
   <si>
     <t xml:space="preserve">8.54947948455811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64644145965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62536239624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32014465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13127899169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13296413421631</t>
+    <t xml:space="preserve">8.64643955230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6253604888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.320143699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13127994537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13296508789062</t>
   </si>
   <si>
     <t xml:space="preserve">7.78221797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79570913314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74174642562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927762985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02504444122314</t>
+    <t xml:space="preserve">7.79570817947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74174737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02504348754883</t>
   </si>
   <si>
     <t xml:space="preserve">8.01155281066895</t>
@@ -1970,70 +1970,70 @@
     <t xml:space="preserve">8.44830131530762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4946756362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7476167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76869487762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6885986328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61271381378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6717357635498</t>
+    <t xml:space="preserve">8.49467468261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74761772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76869583129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68859767913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61271476745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67173671722412</t>
   </si>
   <si>
     <t xml:space="preserve">8.98369789123535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91203022003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77291297912598</t>
+    <t xml:space="preserve">8.91203117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77291202545166</t>
   </si>
   <si>
     <t xml:space="preserve">8.85301113128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99634552001953</t>
+    <t xml:space="preserve">8.99634647369385</t>
   </si>
   <si>
     <t xml:space="preserve">9.30409240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05536556243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17340755462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24507236480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23242568969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41791820526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47693634033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2408561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03007030487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21977806091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43899440765381</t>
+    <t xml:space="preserve">9.05536460876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17340469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24507331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23242473602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41791725158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47693824768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24085712432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03007125854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2197790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43899536132812</t>
   </si>
   <si>
     <t xml:space="preserve">9.70880222320557</t>
@@ -2057,25 +2057,25 @@
     <t xml:space="preserve">10.2863550186157</t>
   </si>
   <si>
-    <t xml:space="preserve">10.155668258667</t>
+    <t xml:space="preserve">10.1556673049927</t>
   </si>
   <si>
     <t xml:space="preserve">10.13880443573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0334119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0291967391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83948802947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90272521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.873215675354</t>
+    <t xml:space="preserve">10.0334100723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0291976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8394889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90272617340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87321472167969</t>
   </si>
   <si>
     <t xml:space="preserve">9.9996862411499</t>
@@ -2090,67 +2090,67 @@
     <t xml:space="preserve">9.93223476409912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3791017532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4339065551758</t>
+    <t xml:space="preserve">10.3791007995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4339046478271</t>
   </si>
   <si>
     <t xml:space="preserve">10.3833169937134</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4043960571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5266513824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5814561843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8681240081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7585163116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3622360229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5519456863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8343982696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7247905731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6952819824219</t>
+    <t xml:space="preserve">10.4043951034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5266523361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5814552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8681259155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7585153579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151809692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3622398376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5519466400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8343992233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7247924804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6952800750732</t>
   </si>
   <si>
     <t xml:space="preserve">10.4971418380737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8133182525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807716369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5898876190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4760637283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5477304458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6025352478027</t>
+    <t xml:space="preserve">10.8133201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5898866653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4760618209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5477285385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6025333404541</t>
   </si>
   <si>
     <t xml:space="preserve">10.9608697891235</t>
@@ -2159,82 +2159,82 @@
     <t xml:space="preserve">11.0999898910522</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9945964813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782272338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1337156295776</t>
+    <t xml:space="preserve">10.9945955276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.133716583252</t>
   </si>
   <si>
     <t xml:space="preserve">10.8976345062256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4676303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4381217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.269492149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95331287384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303749084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92380523681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84792041778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79733276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0587062835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1345911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055732727051</t>
+    <t xml:space="preserve">10.4676313400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.43812084198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2694931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1261587142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95331382751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303739547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92380428314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84792137145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79733085632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0587072372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1345901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055713653564</t>
   </si>
   <si>
     <t xml:space="preserve">10.5603761672974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5690011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7285509109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.392204284668</t>
+    <t xml:space="preserve">10.5690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7285499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3922061920166</t>
   </si>
   <si>
     <t xml:space="preserve">9.95236873626709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83162879943848</t>
+    <t xml:space="preserve">9.83162784576416</t>
   </si>
   <si>
     <t xml:space="preserve">9.65914535522461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65051937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50390911102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47372341156006</t>
+    <t xml:space="preserve">9.65052032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50391006469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47372436523438</t>
   </si>
   <si>
     <t xml:space="preserve">9.0985689163208</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">9.35729694366455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5815258026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2667407989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27536582946777</t>
+    <t xml:space="preserve">9.58152770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26674175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27536773681641</t>
   </si>
   <si>
     <t xml:space="preserve">9.25811672210693</t>
@@ -2261,28 +2261,28 @@
     <t xml:space="preserve">9.69795417785645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43060302734375</t>
+    <t xml:space="preserve">9.43060207366943</t>
   </si>
   <si>
     <t xml:space="preserve">9.31417560577393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36160850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54271697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80144500732422</t>
+    <t xml:space="preserve">9.36160659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54271793365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8014440536499</t>
   </si>
   <si>
     <t xml:space="preserve">9.90493488311768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75401306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64620971679688</t>
+    <t xml:space="preserve">9.75401210784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64620876312256</t>
   </si>
   <si>
     <t xml:space="preserve">9.93512153625488</t>
@@ -2291,13 +2291,13 @@
     <t xml:space="preserve">9.89199924468994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92649555206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1765985488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93943309783936</t>
+    <t xml:space="preserve">9.9264965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1765995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93943119049072</t>
   </si>
   <si>
     <t xml:space="preserve">9.96099281311035</t>
@@ -2315,25 +2315,25 @@
     <t xml:space="preserve">10.1852235794067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3404598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5301914215088</t>
+    <t xml:space="preserve">10.3404588699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5301923751831</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827585220337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3663320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.362021446228</t>
+    <t xml:space="preserve">10.3663330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3620204925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.96530532836914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79282093048096</t>
+    <t xml:space="preserve">9.79281902313232</t>
   </si>
   <si>
     <t xml:space="preserve">9.61602306365967</t>
@@ -2342,19 +2342,19 @@
     <t xml:space="preserve">9.74538707733154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81869316101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1119165420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0256757736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77125930786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41766548156738</t>
+    <t xml:space="preserve">9.81869220733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1119184494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.025673866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77126026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4176664352417</t>
   </si>
   <si>
     <t xml:space="preserve">9.18912315368652</t>
@@ -2363,85 +2363,85 @@
     <t xml:space="preserve">9.02957630157471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81828308105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74497604370117</t>
+    <t xml:space="preserve">8.81828212738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74497509002686</t>
   </si>
   <si>
     <t xml:space="preserve">8.9045238494873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72772789001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44485187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58456707000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1378288269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17922496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48969841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31721305847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41725540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52764511108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39655685424805</t>
+    <t xml:space="preserve">8.72772693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44485282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58456516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13782978057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17922592163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4896993637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31721496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41725444793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52764415740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39655590057373</t>
   </si>
   <si>
     <t xml:space="preserve">8.50867176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56559276580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66304492950439</t>
+    <t xml:space="preserve">8.56559181213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66304683685303</t>
   </si>
   <si>
     <t xml:space="preserve">8.60698699951172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55006694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50349617004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28789234161377</t>
+    <t xml:space="preserve">8.55006790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50349712371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28789138793945</t>
   </si>
   <si>
     <t xml:space="preserve">8.43967914581299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65873432159424</t>
+    <t xml:space="preserve">8.65873336791992</t>
   </si>
   <si>
     <t xml:space="preserve">8.6156120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87002754211426</t>
+    <t xml:space="preserve">8.87002849578857</t>
   </si>
   <si>
     <t xml:space="preserve">8.97351837158203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89589881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7665376663208</t>
+    <t xml:space="preserve">8.89589977264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76653671264648</t>
   </si>
   <si>
     <t xml:space="preserve">8.82690620422363</t>
@@ -2450,16 +2450,16 @@
     <t xml:space="preserve">9.07269859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9002103805542</t>
+    <t xml:space="preserve">8.90021228790283</t>
   </si>
   <si>
     <t xml:space="preserve">8.77084922790527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66735744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64579677581787</t>
+    <t xml:space="preserve">8.6673583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64579582214355</t>
   </si>
   <si>
     <t xml:space="preserve">8.40518093109131</t>
@@ -2468,40 +2468,40 @@
     <t xml:space="preserve">8.2844409942627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27926731109619</t>
+    <t xml:space="preserve">8.27926635742188</t>
   </si>
   <si>
     <t xml:space="preserve">8.14990329742432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4431266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3948335647583</t>
+    <t xml:space="preserve">8.44312763214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39483165740967</t>
   </si>
   <si>
     <t xml:space="preserve">8.23787021636963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89462614059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97396993637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95844650268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05158805847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91705083847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95327186584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02916431427002</t>
+    <t xml:space="preserve">7.89462566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97396945953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95844554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05158710479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91704893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95327043533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02916526794434</t>
   </si>
   <si>
     <t xml:space="preserve">8.30858898162842</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">8.08953380584717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19647216796875</t>
+    <t xml:space="preserve">8.1964750289917</t>
   </si>
   <si>
     <t xml:space="preserve">8.16370105743408</t>
@@ -2519,61 +2519,61 @@
     <t xml:space="preserve">8.06366062164307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02054023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07918453216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09988307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12057971954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03261566162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11023139953613</t>
+    <t xml:space="preserve">8.02053928375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07918548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09988212585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12058162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03261375427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11023330688477</t>
   </si>
   <si>
     <t xml:space="preserve">8.2344217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31376457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07400989532471</t>
+    <t xml:space="preserve">8.31376552581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07401084899902</t>
   </si>
   <si>
     <t xml:space="preserve">7.80838441848755</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47417449951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62078666687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77516078948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62854957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64148616790771</t>
+    <t xml:space="preserve">8.47417545318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6207857131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77515888214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62854862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64148330688477</t>
   </si>
   <si>
     <t xml:space="preserve">8.68460559844971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54489326477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54316902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.539719581604</t>
+    <t xml:space="preserve">8.54489421844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54316806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53971862792969</t>
   </si>
   <si>
     <t xml:space="preserve">8.46631240844727</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">8.39115715026855</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5292329788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47854709625244</t>
+    <t xml:space="preserve">8.52923107147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47854614257812</t>
   </si>
   <si>
     <t xml:space="preserve">8.61312580108643</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">8.59390068054199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59914493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52573585510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43485260009766</t>
+    <t xml:space="preserve">8.59914398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52573680877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43485164642334</t>
   </si>
   <si>
     <t xml:space="preserve">8.28279209136963</t>
@@ -2609,43 +2609,43 @@
     <t xml:space="preserve">8.22511577606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3998966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47679805755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65856838226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69177436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71799468994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74770641326904</t>
+    <t xml:space="preserve">8.39989471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47679710388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6585693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69177627563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71799373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74770450592041</t>
   </si>
   <si>
     <t xml:space="preserve">8.9967679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90063667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92248439788818</t>
+    <t xml:space="preserve">8.90063953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9224853515625</t>
   </si>
   <si>
     <t xml:space="preserve">8.86568355560303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84820461273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83509635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88753128051758</t>
+    <t xml:space="preserve">8.84820365905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83509540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88753032684326</t>
   </si>
   <si>
     <t xml:space="preserve">8.95744228363037</t>
@@ -2654,34 +2654,34 @@
     <t xml:space="preserve">8.81761837005615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78266143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82635593414307</t>
+    <t xml:space="preserve">8.78266334533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82635688781738</t>
   </si>
   <si>
     <t xml:space="preserve">8.94433307647705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18465423583984</t>
+    <t xml:space="preserve">9.18465518951416</t>
   </si>
   <si>
     <t xml:space="preserve">9.17154598236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15406894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07541751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07104873657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90937614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85694313049316</t>
+    <t xml:space="preserve">9.15406608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07541847229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07104969024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9093770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85694408416748</t>
   </si>
   <si>
     <t xml:space="preserve">8.91374588012695</t>
@@ -2693,16 +2693,16 @@
     <t xml:space="preserve">8.9661808013916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93122386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87442111968994</t>
+    <t xml:space="preserve">8.93122482299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87442016601562</t>
   </si>
   <si>
     <t xml:space="preserve">8.83072566986084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4960241317749</t>
+    <t xml:space="preserve">8.49602508544922</t>
   </si>
   <si>
     <t xml:space="preserve">8.63235187530518</t>
@@ -2711,88 +2711,88 @@
     <t xml:space="preserve">8.73721885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30901145935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15170860290527</t>
+    <t xml:space="preserve">8.30901050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15170764923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.05732822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22686386108398</t>
+    <t xml:space="preserve">8.22686290740967</t>
   </si>
   <si>
     <t xml:space="preserve">8.33872222900391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36319160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21113395690918</t>
+    <t xml:space="preserve">8.36319065093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2111349105835</t>
   </si>
   <si>
     <t xml:space="preserve">8.26181983947754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32998371124268</t>
+    <t xml:space="preserve">8.32998275756836</t>
   </si>
   <si>
     <t xml:space="preserve">8.44184303283691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41562557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22861099243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26706409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57292747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19190788269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77767992019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67281198501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69029140472412</t>
+    <t xml:space="preserve">8.41562461853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22861194610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26706314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5729284286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19190692901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77768135070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67281246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69029092788696</t>
   </si>
   <si>
     <t xml:space="preserve">7.35471534729004</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13798856735229</t>
+    <t xml:space="preserve">7.13798904418945</t>
   </si>
   <si>
     <t xml:space="preserve">7.08380651473999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11701488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93349695205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.805908203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41440200805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04238414764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91129922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80992746353149</t>
+    <t xml:space="preserve">7.11701536178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93349599838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80590724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41440153121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04238367080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91129970550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80992698669434</t>
   </si>
   <si>
     <t xml:space="preserve">4.08983659744263</t>
@@ -2801,76 +2801,76 @@
     <t xml:space="preserve">4.19383001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204880714417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06012439727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15974903106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38521337509155</t>
+    <t xml:space="preserve">3.92204856872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06012392044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15974807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38521432876587</t>
   </si>
   <si>
     <t xml:space="preserve">4.56174087524414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49532413482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67534780502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70331192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9637336730957</t>
+    <t xml:space="preserve">4.49532461166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67534732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70331144332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96373319625854</t>
   </si>
   <si>
     <t xml:space="preserve">4.86585712432861</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83964014053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87634325027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79244947433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01267147064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0476279258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17346906661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41116809844971</t>
+    <t xml:space="preserve">4.83964061737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87634372711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79244995117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01267194747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04762744903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17346858978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41116857528687</t>
   </si>
   <si>
     <t xml:space="preserve">5.28707551956177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24862384796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17871189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94625520706177</t>
+    <t xml:space="preserve">5.24862337112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17871236801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94625568389893</t>
   </si>
   <si>
     <t xml:space="preserve">5.03714036941528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06860113143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03888845443726</t>
+    <t xml:space="preserve">5.06860160827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0388879776001</t>
   </si>
   <si>
     <t xml:space="preserve">4.78720664978027</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">5.13152170181274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17172050476074</t>
+    <t xml:space="preserve">5.17172145843506</t>
   </si>
   <si>
     <t xml:space="preserve">5.16298246383667</t>
@@ -2894,16 +2894,16 @@
     <t xml:space="preserve">5.57021760940552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58769607543945</t>
+    <t xml:space="preserve">5.58769559860229</t>
   </si>
   <si>
     <t xml:space="preserve">5.27833652496338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53176593780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31853485107422</t>
+    <t xml:space="preserve">5.53176736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31853580474854</t>
   </si>
   <si>
     <t xml:space="preserve">5.39893388748169</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">5.44437646865845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34650039672852</t>
+    <t xml:space="preserve">5.34649991989136</t>
   </si>
   <si>
     <t xml:space="preserve">5.25212001800537</t>
@@ -2921,22 +2921,22 @@
     <t xml:space="preserve">5.02315855026245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05461835861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43913269042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95499420166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11404371261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86236143112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84837913513184</t>
+    <t xml:space="preserve">5.05461883544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43913316726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95499515533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11404323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86236190795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84837865829468</t>
   </si>
   <si>
     <t xml:space="preserve">4.89382171630859</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">4.97072458267212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771501541138</t>
+    <t xml:space="preserve">4.97771549224854</t>
   </si>
   <si>
     <t xml:space="preserve">5.10006141662598</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">4.88683032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10705232620239</t>
+    <t xml:space="preserve">5.10705280303955</t>
   </si>
   <si>
     <t xml:space="preserve">5.32028245925903</t>
@@ -2963,46 +2963,46 @@
     <t xml:space="preserve">5.58594799041748</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64362478256226</t>
+    <t xml:space="preserve">5.64362621307373</t>
   </si>
   <si>
     <t xml:space="preserve">5.9390025138855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02639102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91977691650391</t>
+    <t xml:space="preserve">6.02639150619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91977596282959</t>
   </si>
   <si>
     <t xml:space="preserve">5.83588266372681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46535062789917</t>
+    <t xml:space="preserve">5.46535015106201</t>
   </si>
   <si>
     <t xml:space="preserve">5.47059345245361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46360158920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40942096710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40767240524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31503963470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42165565490723</t>
+    <t xml:space="preserve">5.46360206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40942049026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40767383575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31504011154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42165517807007</t>
   </si>
   <si>
     <t xml:space="preserve">5.08607912063599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15249538421631</t>
+    <t xml:space="preserve">5.15249490737915</t>
   </si>
   <si>
     <t xml:space="preserve">5.01966238021851</t>
@@ -3014,16 +3014,16 @@
     <t xml:space="preserve">4.96198511123657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11579132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02140998840332</t>
+    <t xml:space="preserve">5.11579179763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02141046524048</t>
   </si>
   <si>
     <t xml:space="preserve">5.19793748855591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10880088806152</t>
+    <t xml:space="preserve">5.10879993438721</t>
   </si>
   <si>
     <t xml:space="preserve">5.02665376663208</t>
@@ -3032,25 +3032,25 @@
     <t xml:space="preserve">4.84663105010986</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87284803390503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93227291107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01616668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02490615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15948534011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0441312789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95848941802979</t>
+    <t xml:space="preserve">4.87284851074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93227386474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01616716384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02490520477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15948581695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04413223266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95848989486694</t>
   </si>
   <si>
     <t xml:space="preserve">4.92178630828857</t>
@@ -3059,10 +3059,10 @@
     <t xml:space="preserve">4.82915306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73477268218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50406408309937</t>
+    <t xml:space="preserve">4.73477220535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50406360626221</t>
   </si>
   <si>
     <t xml:space="preserve">4.42016935348511</t>
@@ -3071,19 +3071,19 @@
     <t xml:space="preserve">4.31005907058716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51455020904541</t>
+    <t xml:space="preserve">4.51455068588257</t>
   </si>
   <si>
     <t xml:space="preserve">4.52678489685059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72952938079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44289112091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52329015731812</t>
+    <t xml:space="preserve">4.72952890396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44289064407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52328968048096</t>
   </si>
   <si>
     <t xml:space="preserve">4.67709541320801</t>
@@ -3092,16 +3092,16 @@
     <t xml:space="preserve">4.65437412261963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55649709701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50930643081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46910858154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42541265487671</t>
+    <t xml:space="preserve">4.5564980506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50930690765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46910762786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42541313171387</t>
   </si>
   <si>
     <t xml:space="preserve">4.32753658294678</t>
@@ -3110,175 +3110,175 @@
     <t xml:space="preserve">4.30831050872803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45337820053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40269231796265</t>
+    <t xml:space="preserve">4.45337772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40269088745117</t>
   </si>
   <si>
     <t xml:space="preserve">4.35812282562256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27859830856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30481481552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29957246780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21742630004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17722606658936</t>
+    <t xml:space="preserve">4.27859783172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30481576919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2995719909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21742582321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17722702026367</t>
   </si>
   <si>
     <t xml:space="preserve">4.20606517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21829986572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19208240509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0478892326355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05313205718994</t>
+    <t xml:space="preserve">4.21829891204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19208288192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04788970947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05313301086426</t>
   </si>
   <si>
     <t xml:space="preserve">4.03390741348267</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98496866226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95088720321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0076904296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17460441589355</t>
+    <t xml:space="preserve">3.98496890068054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95088744163513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00768995285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17460489273071</t>
   </si>
   <si>
     <t xml:space="preserve">4.17810010910034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06274557113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79620742797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75425982475281</t>
+    <t xml:space="preserve">4.06274604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79620718955994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75426006317139</t>
   </si>
   <si>
     <t xml:space="preserve">3.72280049324036</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64677095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58210325241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72979164123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61006665229797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72367429733276</t>
+    <t xml:space="preserve">3.64677047729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58210229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72979140281677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61006712913513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72367405891418</t>
   </si>
   <si>
     <t xml:space="preserve">3.62841892242432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71231341362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74901676177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85213661193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77523398399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89058876037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86349749565125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79882836341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70444750785828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80319857597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61356353759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74377298355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82329797744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91243577003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81543350219727</t>
+    <t xml:space="preserve">3.71231365203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74901700019836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85213708877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77523374557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89058899879456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86349701881409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79882884025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70444822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80319786071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61356282234192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74377346038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82329821586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91243624687195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81543326377869</t>
   </si>
   <si>
     <t xml:space="preserve">3.83553218841553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87048816680908</t>
+    <t xml:space="preserve">3.87048864364624</t>
   </si>
   <si>
     <t xml:space="preserve">3.76824259757996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66337466239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55326390266418</t>
+    <t xml:space="preserve">3.66337442398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55326414108276</t>
   </si>
   <si>
     <t xml:space="preserve">3.34527683258057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55850744247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74464726448059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83291101455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42191791534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3991961479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81866645812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88857841491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8990650177002</t>
+    <t xml:space="preserve">3.55850768089294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74464750289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83291149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42191696166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39919567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81866693496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88857793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89906454086304</t>
   </si>
   <si>
     <t xml:space="preserve">4.93052530288696</t>
@@ -3287,49 +3287,49 @@
     <t xml:space="preserve">5.0039324760437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39194250106812</t>
+    <t xml:space="preserve">5.39194297790527</t>
   </si>
   <si>
     <t xml:space="preserve">5.49506282806396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55973052978516</t>
+    <t xml:space="preserve">5.55973148345947</t>
   </si>
   <si>
     <t xml:space="preserve">5.47583675384521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46185493469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68633890151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04515981674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98682880401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90551996231079</t>
+    <t xml:space="preserve">5.46185445785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68633842468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04515933990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98682832717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90552043914795</t>
   </si>
   <si>
     <t xml:space="preserve">5.92496299743652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73229598999023</t>
+    <t xml:space="preserve">5.73229551315308</t>
   </si>
   <si>
     <t xml:space="preserve">5.82067537307739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84895706176758</t>
+    <t xml:space="preserve">5.84895658493042</t>
   </si>
   <si>
     <t xml:space="preserve">5.88430833816528</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12470149993896</t>
+    <t xml:space="preserve">6.12470102310181</t>
   </si>
   <si>
     <t xml:space="preserve">6.01334285736084</t>
@@ -3338,37 +3338,37 @@
     <t xml:space="preserve">6.02218055725098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02571535110474</t>
+    <t xml:space="preserve">6.02571630477905</t>
   </si>
   <si>
     <t xml:space="preserve">6.11763095855713</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00980758666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9320330619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00450563430786</t>
+    <t xml:space="preserve">6.00980806350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93203353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0045051574707</t>
   </si>
   <si>
     <t xml:space="preserve">5.97445631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03278636932373</t>
+    <t xml:space="preserve">6.03278684616089</t>
   </si>
   <si>
     <t xml:space="preserve">5.94440650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78885936737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77295017242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93380165100098</t>
+    <t xml:space="preserve">5.78885841369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77294969558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93380117416382</t>
   </si>
   <si>
     <t xml:space="preserve">5.89137887954712</t>
@@ -3380,22 +3380,22 @@
     <t xml:space="preserve">5.8542594909668</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77648544311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98329305648804</t>
+    <t xml:space="preserve">5.77648496627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98329401016235</t>
   </si>
   <si>
     <t xml:space="preserve">6.30322790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2943902015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25903844833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.145911693573</t>
+    <t xml:space="preserve">6.29438972473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25903749465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14591217041016</t>
   </si>
   <si>
     <t xml:space="preserve">6.32267093658447</t>
@@ -3404,52 +3404,52 @@
     <t xml:space="preserve">6.23429107666016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28908729553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96561813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94970989227295</t>
+    <t xml:space="preserve">6.28908634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96561765670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94970941543579</t>
   </si>
   <si>
     <t xml:space="preserve">5.7588095664978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55907249450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46008682250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53255796432495</t>
+    <t xml:space="preserve">5.55907201766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46008634567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53255891799927</t>
   </si>
   <si>
     <t xml:space="preserve">5.62800788879395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79946374893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6828031539917</t>
+    <t xml:space="preserve">5.79946422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68280363082886</t>
   </si>
   <si>
     <t xml:space="preserve">5.67396545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90905523300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00273656845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12293291091919</t>
+    <t xml:space="preserve">5.90905475616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00273752212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12293338775635</t>
   </si>
   <si>
     <t xml:space="preserve">6.25196743011475</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14060878753662</t>
+    <t xml:space="preserve">6.14060974121094</t>
   </si>
   <si>
     <t xml:space="preserve">6.21484851837158</t>
@@ -3458,64 +3458,64 @@
     <t xml:space="preserve">6.2219181060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28378534317017</t>
+    <t xml:space="preserve">6.28378438949585</t>
   </si>
   <si>
     <t xml:space="preserve">6.65497827529907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66558361053467</t>
+    <t xml:space="preserve">6.66558313369751</t>
   </si>
   <si>
     <t xml:space="preserve">6.51533842086792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36332559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39514303207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63553428649902</t>
+    <t xml:space="preserve">6.36332511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39514207839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63553476333618</t>
   </si>
   <si>
     <t xml:space="preserve">6.56659841537476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79461812973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72790670394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6412935256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81805229187012</t>
+    <t xml:space="preserve">6.79461765289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72790622711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64129257202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81805181503296</t>
   </si>
   <si>
     <t xml:space="preserve">7.94531869888306</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92764377593994</t>
+    <t xml:space="preserve">7.92764329910278</t>
   </si>
   <si>
     <t xml:space="preserve">8.20869064331055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46322250366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58695411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44024467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55160236358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75840950012207</t>
+    <t xml:space="preserve">8.46322345733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58695507049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55160140991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7584114074707</t>
   </si>
   <si>
     <t xml:space="preserve">8.76371383666992</t>
@@ -3539,19 +3539,19 @@
     <t xml:space="preserve">8.17157077789307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03369808197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33242034912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10970592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40489196777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45085048675537</t>
+    <t xml:space="preserve">8.03369903564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33242130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10970497131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40489292144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45084953308105</t>
   </si>
   <si>
     <t xml:space="preserve">8.53569412231445</t>
@@ -3560,13 +3560,13 @@
     <t xml:space="preserve">8.49503993988037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5409984588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54983615875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41549873352051</t>
+    <t xml:space="preserve">8.54099655151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54983520507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41549777984619</t>
   </si>
   <si>
     <t xml:space="preserve">8.19985198974609</t>
@@ -3575,13 +3575,13 @@
     <t xml:space="preserve">8.11324024200439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05491161346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04430484771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43317317962646</t>
+    <t xml:space="preserve">8.05490970611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04430389404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43317413330078</t>
   </si>
   <si>
     <t xml:space="preserve">8.12561321258545</t>
@@ -3590,19 +3590,19 @@
     <t xml:space="preserve">8.10086727142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15919876098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79684019088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87638235092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86931371688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8481011390686</t>
+    <t xml:space="preserve">8.15919780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79684162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87638282775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86931324005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84810161590576</t>
   </si>
   <si>
     <t xml:space="preserve">8.11854267120361</t>
@@ -3611,19 +3611,19 @@
     <t xml:space="preserve">7.94885492324829</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21575927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65897035598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91703748703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98774242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05314254760742</t>
+    <t xml:space="preserve">8.21576023101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65896987915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91703701019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98773956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05314350128174</t>
   </si>
   <si>
     <t xml:space="preserve">8.41373062133789</t>
@@ -3635,67 +3635,67 @@
     <t xml:space="preserve">8.65412330627441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44908332824707</t>
+    <t xml:space="preserve">8.44908237457275</t>
   </si>
   <si>
     <t xml:space="preserve">8.73366451263428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64175033569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66119289398193</t>
+    <t xml:space="preserve">8.64174938201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66119384765625</t>
   </si>
   <si>
     <t xml:space="preserve">8.56927871704102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33418941497803</t>
+    <t xml:space="preserve">8.33419036865234</t>
   </si>
   <si>
     <t xml:space="preserve">8.28292751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36070251464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39120388031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22614288330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25126075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48270606994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39299774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36967372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59573554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69441413879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76797389984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64776611328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61547088623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55447101593018</t>
+    <t xml:space="preserve">8.36070346832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39120292663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22614192962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25126171112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48270416259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3929967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36967277526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59573650360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69441223144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76797294616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63700103759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64776706695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61547183990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55447006225586</t>
   </si>
   <si>
     <t xml:space="preserve">8.56702995300293</t>
@@ -3707,22 +3707,22 @@
     <t xml:space="preserve">8.583176612854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57241058349609</t>
+    <t xml:space="preserve">8.57241153717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.38043880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2404956817627</t>
+    <t xml:space="preserve">8.24049472808838</t>
   </si>
   <si>
     <t xml:space="preserve">8.27099704742432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35352611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40914440155029</t>
+    <t xml:space="preserve">8.3535270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40914344787598</t>
   </si>
   <si>
     <t xml:space="preserve">8.4611759185791</t>
@@ -3737,34 +3737,34 @@
     <t xml:space="preserve">8.2297306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24587726593018</t>
+    <t xml:space="preserve">8.24587821960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.40376281738281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3983793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45758628845215</t>
+    <t xml:space="preserve">8.39838027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45758819580078</t>
   </si>
   <si>
     <t xml:space="preserve">8.05928707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93907976150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8296365737915</t>
+    <t xml:space="preserve">7.93908071517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82963752746582</t>
   </si>
   <si>
     <t xml:space="preserve">8.0754337310791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04672908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87448930740356</t>
+    <t xml:space="preserve">8.04672813415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8744912147522</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263999938965</t>
@@ -3779,97 +3779,97 @@
     <t xml:space="preserve">7.38289546966553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5102801322937</t>
+    <t xml:space="preserve">7.51027917861938</t>
   </si>
   <si>
     <t xml:space="preserve">7.65739965438843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57128047943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6591944694519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87987232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80990171432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87628412246704</t>
+    <t xml:space="preserve">7.57128000259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65919351577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87987422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80990123748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8762845993042</t>
   </si>
   <si>
     <t xml:space="preserve">7.87269639968872</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69328260421753</t>
+    <t xml:space="preserve">7.69328212738037</t>
   </si>
   <si>
     <t xml:space="preserve">7.7578706741333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80810689926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70584154129028</t>
+    <t xml:space="preserve">7.80810642242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70584201812744</t>
   </si>
   <si>
     <t xml:space="preserve">7.67892932891846</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88884353637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84578466415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89243173599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90319728851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69866466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73275327682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37392568588257</t>
+    <t xml:space="preserve">7.88884305953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84578418731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89243268966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90319776535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69866371154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73275375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37392520904541</t>
   </si>
   <si>
     <t xml:space="preserve">7.3147177696228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45466136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47798585891724</t>
+    <t xml:space="preserve">7.45466089248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47798538208008</t>
   </si>
   <si>
     <t xml:space="preserve">7.54436826705933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61433982849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73634243011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65201711654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74172449111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61792802810669</t>
+    <t xml:space="preserve">7.61434030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73634052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65201759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74172401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61792850494385</t>
   </si>
   <si>
     <t xml:space="preserve">7.60357475280762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53539800643921</t>
+    <t xml:space="preserve">7.53539752960205</t>
   </si>
   <si>
     <t xml:space="preserve">7.4797797203064</t>
@@ -3878,52 +3878,52 @@
     <t xml:space="preserve">7.44748449325562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70404767990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65022230148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77760648727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52822065353394</t>
+    <t xml:space="preserve">7.70404672622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65022325515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77760696411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52822208404541</t>
   </si>
   <si>
     <t xml:space="preserve">7.2483344078064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24654150009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62330961227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68431234359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72378301620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98393297195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625663757324</t>
+    <t xml:space="preserve">7.24654102325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62331056594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68431091308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72378206253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98393249511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625520706177</t>
   </si>
   <si>
     <t xml:space="preserve">8.01084518432617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15617084503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14540576934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37146854400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09517002105713</t>
+    <t xml:space="preserve">8.15617179870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14540672302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37146759033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09516906738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.22255420684814</t>
@@ -3932,19 +3932,19 @@
     <t xml:space="preserve">8.59932422637939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80385684967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65673732757568</t>
+    <t xml:space="preserve">8.80385589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65673542022705</t>
   </si>
   <si>
     <t xml:space="preserve">8.54370594024658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59035396575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85947513580322</t>
+    <t xml:space="preserve">8.59035301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85947418212891</t>
   </si>
   <si>
     <t xml:space="preserve">8.80744457244873</t>
@@ -3953,28 +3953,28 @@
     <t xml:space="preserve">8.91868209838867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07387351989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8971529006958</t>
+    <t xml:space="preserve">9.07387542724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89715099334717</t>
   </si>
   <si>
     <t xml:space="preserve">8.84691619873047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02902126312256</t>
+    <t xml:space="preserve">9.02902030944824</t>
   </si>
   <si>
     <t xml:space="preserve">9.02005004882812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88100433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63520812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63879585266113</t>
+    <t xml:space="preserve">8.88100528717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6352071762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63879489898682</t>
   </si>
   <si>
     <t xml:space="preserve">8.87203407287598</t>
@@ -3992,40 +3992,40 @@
     <t xml:space="preserve">9.52689552307129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78256034851074</t>
+    <t xml:space="preserve">9.78256130218506</t>
   </si>
   <si>
     <t xml:space="preserve">9.73322296142578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41027641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.311598777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20843505859375</t>
+    <t xml:space="preserve">9.4102783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31159782409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20843601226807</t>
   </si>
   <si>
     <t xml:space="preserve">9.18600749969482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99313831329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73926639556885</t>
+    <t xml:space="preserve">8.99313735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73926830291748</t>
   </si>
   <si>
     <t xml:space="preserve">8.51499843597412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7187328338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66234302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76420879364014</t>
+    <t xml:space="preserve">8.71873378753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6623420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76420974731445</t>
   </si>
   <si>
     <t xml:space="preserve">8.65506649017334</t>
@@ -4034,25 +4034,25 @@
     <t xml:space="preserve">8.0420446395874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11480617523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87832975387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20394039154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12572193145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14936828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2694263458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45315074920654</t>
+    <t xml:space="preserve">8.11480712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87832927703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20394134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1257209777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14936923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26942729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45314979553223</t>
   </si>
   <si>
     <t xml:space="preserve">8.34946537017822</t>
@@ -4064,10 +4064,10 @@
     <t xml:space="preserve">8.11116981506348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03840732574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30762672424316</t>
+    <t xml:space="preserve">8.03840637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30762767791748</t>
   </si>
   <si>
     <t xml:space="preserve">8.05113983154297</t>
@@ -4079,16 +4079,16 @@
     <t xml:space="preserve">8.21121692657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02749347686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2912540435791</t>
+    <t xml:space="preserve">8.02749252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29125595092773</t>
   </si>
   <si>
     <t xml:space="preserve">8.28943634033203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30398845672607</t>
+    <t xml:space="preserve">8.30398941040039</t>
   </si>
   <si>
     <t xml:space="preserve">8.39312171936035</t>
@@ -4100,13 +4100,13 @@
     <t xml:space="preserve">8.44587516784668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37675094604492</t>
+    <t xml:space="preserve">8.37675189971924</t>
   </si>
   <si>
     <t xml:space="preserve">8.70781898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82787704467773</t>
+    <t xml:space="preserve">8.82787609100342</t>
   </si>
   <si>
     <t xml:space="preserve">8.89518165588379</t>
@@ -4115,40 +4115,40 @@
     <t xml:space="preserve">8.89700031280518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91155338287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86607646942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04798126220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12711238861084</t>
+    <t xml:space="preserve">8.91155433654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8660774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04798221588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12711143493652</t>
   </si>
   <si>
     <t xml:space="preserve">9.1498498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33175563812256</t>
+    <t xml:space="preserve">9.33175468444824</t>
   </si>
   <si>
     <t xml:space="preserve">9.55459022521973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7546854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79106616973877</t>
+    <t xml:space="preserve">9.75468635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79106521606445</t>
   </si>
   <si>
     <t xml:space="preserve">9.42270755767822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95884990692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37268447875977</t>
+    <t xml:space="preserve">8.95884895324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37268352508545</t>
   </si>
   <si>
     <t xml:space="preserve">10.0730209350586</t>
@@ -4157,19 +4157,19 @@
     <t xml:space="preserve">9.88656711578369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3731641769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3140459060669</t>
+    <t xml:space="preserve">10.3731632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3140449523926</t>
   </si>
   <si>
     <t xml:space="preserve">10.1821641921997</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3868074417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3959035873413</t>
+    <t xml:space="preserve">10.3868064880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.395902633667</t>
   </si>
   <si>
     <t xml:space="preserve">10.304949760437</t>
@@ -4190,46 +4190,46 @@
     <t xml:space="preserve">10.5414276123047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7824516296387</t>
+    <t xml:space="preserve">10.7824506759644</t>
   </si>
   <si>
     <t xml:space="preserve">10.4777603149414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2822113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95932865142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.041187286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93659114837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82744884490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1321401596069</t>
+    <t xml:space="preserve">10.2822122573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95932960510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0411863327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93659210205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82744789123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1321392059326</t>
   </si>
   <si>
     <t xml:space="preserve">10.4959506988525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4049968719482</t>
+    <t xml:space="preserve">10.4049978256226</t>
   </si>
   <si>
     <t xml:space="preserve">10.9188804626465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6960458755493</t>
+    <t xml:space="preserve">10.6960468292236</t>
   </si>
   <si>
     <t xml:space="preserve">10.5050458908081</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8738851547241</t>
+    <t xml:space="preserve">11.8738861083984</t>
   </si>
   <si>
     <t xml:space="preserve">12.2558870315552</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">11.5782880783081</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7601938247681</t>
+    <t xml:space="preserve">11.7601947784424</t>
   </si>
   <si>
     <t xml:space="preserve">11.7556476593018</t>
@@ -4247,28 +4247,28 @@
     <t xml:space="preserve">11.4645967483521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0825977325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3190727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5009794235229</t>
+    <t xml:space="preserve">11.0825967788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3190717697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5009784698486</t>
   </si>
   <si>
     <t xml:space="preserve">12.2013158798218</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2695302963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6106023788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6469850540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9607706069946</t>
+    <t xml:space="preserve">12.2695293426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6106033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6469841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9607715606689</t>
   </si>
   <si>
     <t xml:space="preserve">12.6651744842529</t>
@@ -4277,22 +4277,22 @@
     <t xml:space="preserve">12.3195533752441</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5287446975708</t>
+    <t xml:space="preserve">12.5287437438965</t>
   </si>
   <si>
     <t xml:space="preserve">12.5105543136597</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6333408355713</t>
+    <t xml:space="preserve">12.6333417892456</t>
   </si>
   <si>
     <t xml:space="preserve">12.6242456436157</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7288398742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5878648757935</t>
+    <t xml:space="preserve">12.7288408279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5878639221191</t>
   </si>
   <si>
     <t xml:space="preserve">12.6424360275269</t>
@@ -4307,13 +4307,13 @@
     <t xml:space="preserve">13.5110349655151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6247253417969</t>
+    <t xml:space="preserve">13.6247262954712</t>
   </si>
   <si>
     <t xml:space="preserve">13.69748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6656541824341</t>
+    <t xml:space="preserve">13.6656551361084</t>
   </si>
   <si>
     <t xml:space="preserve">13.6338214874268</t>
@@ -4331,10 +4331,10 @@
     <t xml:space="preserve">12.7379369735718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4701070785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9516754150391</t>
+    <t xml:space="preserve">13.4701061248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9516763687134</t>
   </si>
   <si>
     <t xml:space="preserve">13.5428695678711</t>
@@ -4343,7 +4343,7 @@
     <t xml:space="preserve">13.3882493972778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245811462402</t>
+    <t xml:space="preserve">13.3245820999146</t>
   </si>
   <si>
     <t xml:space="preserve">13.2199859619141</t>
@@ -4352,16 +4352,16 @@
     <t xml:space="preserve">12.7151985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8425321578979</t>
+    <t xml:space="preserve">12.8425331115723</t>
   </si>
   <si>
     <t xml:space="preserve">13.2836532592773</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4200820922852</t>
+    <t xml:space="preserve">12.9334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4200830459595</t>
   </si>
   <si>
     <t xml:space="preserve">13.9930849075317</t>
@@ -4373,10 +4373,10 @@
     <t xml:space="preserve">14.0931329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">13.729323387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9112272262573</t>
+    <t xml:space="preserve">13.7293224334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9112281799316</t>
   </si>
   <si>
     <t xml:space="preserve">14.2216014862061</t>
@@ -4385,16 +4385,16 @@
     <t xml:space="preserve">14.0270376205444</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2818231582642</t>
+    <t xml:space="preserve">14.2818222045898</t>
   </si>
   <si>
     <t xml:space="preserve">14.6709480285645</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8516130447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.027645111084</t>
+    <t xml:space="preserve">14.8516139984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0276460647583</t>
   </si>
   <si>
     <t xml:space="preserve">14.4763851165771</t>
@@ -4403,13 +4403,13 @@
     <t xml:space="preserve">14.5875635147095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6199913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5736665725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.721905708313</t>
+    <t xml:space="preserve">14.6199903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5736656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7219066619873</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284502029419</t>
@@ -4421,7 +4421,7 @@
     <t xml:space="preserve">14.1382169723511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7120323181152</t>
+    <t xml:space="preserve">13.7120313644409</t>
   </si>
   <si>
     <t xml:space="preserve">13.4989395141602</t>
@@ -4436,13 +4436,13 @@
     <t xml:space="preserve">12.192590713501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0119256973267</t>
+    <t xml:space="preserve">12.0119247436523</t>
   </si>
   <si>
     <t xml:space="preserve">12.2389154434204</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3084011077881</t>
+    <t xml:space="preserve">12.3084020614624</t>
   </si>
   <si>
     <t xml:space="preserve">11.6737575531006</t>
@@ -4457,31 +4457,31 @@
     <t xml:space="preserve">11.5533142089844</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8405246734619</t>
+    <t xml:space="preserve">11.8405237197876</t>
   </si>
   <si>
     <t xml:space="preserve">11.6644926071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3680171966553</t>
+    <t xml:space="preserve">11.368016242981</t>
   </si>
   <si>
     <t xml:space="preserve">11.1549234390259</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5625772476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6082954406738</t>
+    <t xml:space="preserve">11.5625782012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6082944869995</t>
   </si>
   <si>
     <t xml:space="preserve">10.2886562347412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3309564590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7478771209717</t>
+    <t xml:space="preserve">11.3309555053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7478761672974</t>
   </si>
   <si>
     <t xml:space="preserve">11.8173637390137</t>
@@ -4490,16 +4490,16 @@
     <t xml:space="preserve">11.7154493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5811080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1132316589355</t>
+    <t xml:space="preserve">11.5811071395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1132307052612</t>
   </si>
   <si>
     <t xml:space="preserve">11.2938957214355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7525081634521</t>
+    <t xml:space="preserve">11.7525091171265</t>
   </si>
   <si>
     <t xml:space="preserve">11.789568901062</t>
@@ -4511,19 +4511,19 @@
     <t xml:space="preserve">11.4421358108521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5718441009521</t>
+    <t xml:space="preserve">11.5718431472778</t>
   </si>
   <si>
     <t xml:space="preserve">11.6969194412231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0628824234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2157535552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6048774719238</t>
+    <t xml:space="preserve">12.0628833770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2157526016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6048784255981</t>
   </si>
   <si>
     <t xml:space="preserve">12.2667093276978</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">12.2945051193237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1555309295654</t>
+    <t xml:space="preserve">12.1555299758911</t>
   </si>
   <si>
     <t xml:space="preserve">11.692286491394</t>
@@ -4541,7 +4541,7 @@
     <t xml:space="preserve">11.914644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0350866317749</t>
+    <t xml:space="preserve">12.0350875854492</t>
   </si>
   <si>
     <t xml:space="preserve">11.9053792953491</t>
@@ -4553,13 +4553,13 @@
     <t xml:space="preserve">12.1694278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9378070831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.317666053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8961153030396</t>
+    <t xml:space="preserve">11.9378061294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3176679611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8961143493652</t>
   </si>
   <si>
     <t xml:space="preserve">12.947678565979</t>
@@ -4568,40 +4568,40 @@
     <t xml:space="preserve">12.8318681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0681219100952</t>
+    <t xml:space="preserve">13.0681228637695</t>
   </si>
   <si>
     <t xml:space="preserve">12.8828258514404</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7484846115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.739218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6836280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1144466400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2348909378052</t>
+    <t xml:space="preserve">12.7484836578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7392196655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6836290359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.114447593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2348899841309</t>
   </si>
   <si>
     <t xml:space="preserve">12.7809114456177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3778886795044</t>
+    <t xml:space="preserve">12.3778877258301</t>
   </si>
   <si>
     <t xml:space="preserve">12.3825206756592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9986362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2626848220825</t>
+    <t xml:space="preserve">12.9986352920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2626838684082</t>
   </si>
   <si>
     <t xml:space="preserve">13.2024631500244</t>
@@ -4616,10 +4616,10 @@
     <t xml:space="preserve">12.5770835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5492887496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4288463592529</t>
+    <t xml:space="preserve">12.5492897033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4288454055786</t>
   </si>
   <si>
     <t xml:space="preserve">12.7855434417725</t>
@@ -4628,10 +4628,10 @@
     <t xml:space="preserve">11.5579471588135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8080968856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1647968292236</t>
+    <t xml:space="preserve">11.8080978393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1647958755493</t>
   </si>
   <si>
     <t xml:space="preserve">12.5214948654175</t>
@@ -4640,7 +4640,7 @@
     <t xml:space="preserve">12.2898731231689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1376085281372</t>
+    <t xml:space="preserve">13.1376094818115</t>
   </si>
   <si>
     <t xml:space="preserve">13.4433507919312</t>
@@ -4649,13 +4649,13 @@
     <t xml:space="preserve">13.7212972640991</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9019622802734</t>
+    <t xml:space="preserve">13.9019632339478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4248208999634</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7948083877563</t>
+    <t xml:space="preserve">12.7948093414307</t>
   </si>
   <si>
     <t xml:space="preserve">12.9106197357178</t>
@@ -4670,13 +4670,13 @@
     <t xml:space="preserve">13.6240158081055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9297561645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8741674423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0455675125122</t>
+    <t xml:space="preserve">13.9297571182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8741683959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0455684661865</t>
   </si>
   <si>
     <t xml:space="preserve">13.939022064209</t>
@@ -4685,7 +4685,7 @@
     <t xml:space="preserve">14.2540283203125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6477861404419</t>
+    <t xml:space="preserve">14.6477851867676</t>
   </si>
   <si>
     <t xml:space="preserve">14.1845417022705</t>
@@ -4694,43 +4694,43 @@
     <t xml:space="preserve">14.5505046844482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9257316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7589645385742</t>
+    <t xml:space="preserve">14.9257326126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7589635848999</t>
   </si>
   <si>
     <t xml:space="preserve">14.9674253463745</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4214029312134</t>
+    <t xml:space="preserve">15.4214038848877</t>
   </si>
   <si>
     <t xml:space="preserve">15.5557451248169</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2407388687134</t>
+    <t xml:space="preserve">15.2407398223877</t>
   </si>
   <si>
     <t xml:space="preserve">15.1388244628906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5134449005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8191862106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7543315887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538307189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5279502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0878667831421</t>
+    <t xml:space="preserve">14.5134439468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.819185256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7543325424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538297653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5279512405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0878677368164</t>
   </si>
   <si>
     <t xml:space="preserve">15.2083120346069</t>
@@ -4739,31 +4739,31 @@
     <t xml:space="preserve">14.5342578887939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4891662597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1380968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2317171096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.315972328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8993701934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3346939086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6483173370361</t>
+    <t xml:space="preserve">15.4891653060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1380977630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2317152023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3159732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8993711471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3346948623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6483182907104</t>
   </si>
   <si>
     <t xml:space="preserve">15.2832069396973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0304365158081</t>
+    <t xml:space="preserve">15.0304355621338</t>
   </si>
   <si>
     <t xml:space="preserve">14.8010721206665</t>
@@ -4775,13 +4775,13 @@
     <t xml:space="preserve">14.3517026901245</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5295782089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4031925201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627639770508</t>
+    <t xml:space="preserve">14.529577255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4031934738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627649307251</t>
   </si>
   <si>
     <t xml:space="preserve">14.7495813369751</t>
@@ -4790,43 +4790,43 @@
     <t xml:space="preserve">14.7776660919189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.492130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3891496658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7074518203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9087324142456</t>
+    <t xml:space="preserve">14.4921293258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3891506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7074527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9087333679199</t>
   </si>
   <si>
     <t xml:space="preserve">15.2504405975342</t>
   </si>
   <si>
-    <t xml:space="preserve">15.521933555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5827856063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4657621383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5125713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2457580566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7466163635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.203631401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1317005157471</t>
+    <t xml:space="preserve">15.5219326019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.58278465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.465763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5125703811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2457590103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7466173171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2036294937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1316995620728</t>
   </si>
   <si>
     <t xml:space="preserve">14.5436201095581</t>
@@ -4859,7 +4859,7 @@
     <t xml:space="preserve">16.0976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3066101074219</t>
+    <t xml:space="preserve">15.3066110610962</t>
   </si>
   <si>
     <t xml:space="preserve">15.4938459396362</t>
@@ -4871,19 +4871,19 @@
     <t xml:space="preserve">15.0444784164429</t>
   </si>
   <si>
-    <t xml:space="preserve">15.072564125061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4142713546753</t>
+    <t xml:space="preserve">15.0725650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4142732620239</t>
   </si>
   <si>
     <t xml:space="preserve">15.1802253723145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2129926681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8853273391724</t>
+    <t xml:space="preserve">15.2129917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.885326385498</t>
   </si>
   <si>
     <t xml:space="preserve">14.3704261779785</t>
@@ -4895,7 +4895,7 @@
     <t xml:space="preserve">14.1691465377808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2768087387085</t>
+    <t xml:space="preserve">14.2768077850342</t>
   </si>
   <si>
     <t xml:space="preserve">14.6419200897217</t>
@@ -4907,61 +4907,61 @@
     <t xml:space="preserve">14.84787940979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1615009307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2381134033203</t>
+    <t xml:space="preserve">15.1615018844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2381114959717</t>
   </si>
   <si>
     <t xml:space="preserve">15.4610805511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.222354888916</t>
+    <t xml:space="preserve">15.2223529815674</t>
   </si>
   <si>
     <t xml:space="preserve">14.7308568954468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9976692199707</t>
+    <t xml:space="preserve">14.997670173645</t>
   </si>
   <si>
     <t xml:space="preserve">14.6793670654297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0397987365723</t>
+    <t xml:space="preserve">15.0397977828979</t>
   </si>
   <si>
     <t xml:space="preserve">15.1053314208984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.152138710022</t>
+    <t xml:space="preserve">15.1521396636963</t>
   </si>
   <si>
     <t xml:space="preserve">15.2598009109497</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3393774032593</t>
+    <t xml:space="preserve">15.339376449585</t>
   </si>
   <si>
     <t xml:space="preserve">14.7636241912842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4593639373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.612117767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8087148666382</t>
+    <t xml:space="preserve">14.4593629837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6121168136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8087158203125</t>
   </si>
   <si>
     <t xml:space="preserve">12.5729532241821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6057186126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3763542175293</t>
+    <t xml:space="preserve">12.6057195663452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3763551712036</t>
   </si>
   <si>
     <t xml:space="preserve">12.4091205596924</t>
@@ -4976,13 +4976,13 @@
     <t xml:space="preserve">12.4044399261475</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0065603256226</t>
+    <t xml:space="preserve">12.0065612792969</t>
   </si>
   <si>
     <t xml:space="preserve">12.1189031600952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4793338775635</t>
+    <t xml:space="preserve">12.4793348312378</t>
   </si>
   <si>
     <t xml:space="preserve">12.4138021469116</t>
@@ -4997,7 +4997,7 @@
     <t xml:space="preserve">12.6338043212891</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3201837539673</t>
+    <t xml:space="preserve">12.320182800293</t>
   </si>
   <si>
     <t xml:space="preserve">12.1657123565674</t>
@@ -5006,16 +5006,16 @@
     <t xml:space="preserve">12.1329460144043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4606103897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6244421005249</t>
+    <t xml:space="preserve">12.4606113433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6244430541992</t>
   </si>
   <si>
     <t xml:space="preserve">12.582314491272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4840154647827</t>
+    <t xml:space="preserve">12.4840145111084</t>
   </si>
   <si>
     <t xml:space="preserve">12.4231643676758</t>
@@ -5027,19 +5027,19 @@
     <t xml:space="preserve">12.2686929702759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2172021865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1282653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8801765441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5618734359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4869794845581</t>
+    <t xml:space="preserve">12.2172031402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1282644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8801755905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5618743896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4869785308838</t>
   </si>
   <si>
     <t xml:space="preserve">11.3278284072876</t>
@@ -5048,22 +5048,22 @@
     <t xml:space="preserve">11.6274061203003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7210254669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023010253906</t>
+    <t xml:space="preserve">11.7210264205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023019790649</t>
   </si>
   <si>
     <t xml:space="preserve">11.4682559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3371887207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.472936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.435489654541</t>
+    <t xml:space="preserve">11.3371896743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4729356765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4354887008667</t>
   </si>
   <si>
     <t xml:space="preserve">11.3559141159058</t>
@@ -5850,6 +5850,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.289999961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.125</t>
   </si>
 </sst>
 </file>
@@ -62507,7 +62510,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6494907407</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>1935331</v>
@@ -62528,6 +62531,32 @@
         <v>1945</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6495023148</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>2145159</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>14.2700004577637</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>14.1099996566772</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>14.210000038147</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>14.125</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1949">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,145 +38,145 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30197715759277</t>
+    <t xml:space="preserve">8.30197906494141</t>
   </si>
   <si>
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735134124756</t>
+    <t xml:space="preserve">8.31735229492188</t>
   </si>
   <si>
     <t xml:space="preserve">8.11748886108398</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88687658309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58708620071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50252866744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46409225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021671295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45640420913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98749828338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92600154876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508247375488</t>
+    <t xml:space="preserve">7.88687801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58708763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50252819061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46409320831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021528244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45640659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98749732971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92600250244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14508199691772</t>
   </si>
   <si>
     <t xml:space="preserve">6.74151420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99518489837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17583084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892530441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26423025131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729200363159</t>
+    <t xml:space="preserve">6.99518442153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17582893371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892625808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26422929763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28729152679443</t>
   </si>
   <si>
     <t xml:space="preserve">7.198890209198</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84528779983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86834955215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797018051147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78379154205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64158344268799</t>
+    <t xml:space="preserve">6.84528875350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86834907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41797065734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78379106521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64158153533936</t>
   </si>
   <si>
     <t xml:space="preserve">7.17198610305786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33341312408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10664796829224</t>
+    <t xml:space="preserve">7.33341455459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10664653778076</t>
   </si>
   <si>
     <t xml:space="preserve">7.53712034225464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44487571716309</t>
+    <t xml:space="preserve">7.44487714767456</t>
   </si>
   <si>
     <t xml:space="preserve">7.20273447036743</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50637102127075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23348331451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89909696578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91062784194946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55633783340454</t>
+    <t xml:space="preserve">7.50637197494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23348188400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89909887313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91062831878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55633497238159</t>
   </si>
   <si>
     <t xml:space="preserve">7.72545194625854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90993976593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85613203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02524566650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34809875488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44034385681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13286209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28660488128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00218391418457</t>
+    <t xml:space="preserve">7.9099383354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85613107681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02524662017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34810066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44034290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13286304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2866039276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00218486785889</t>
   </si>
   <si>
     <t xml:space="preserve">8.2481689453125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15592384338379</t>
+    <t xml:space="preserve">8.15592479705811</t>
   </si>
   <si>
     <t xml:space="preserve">8.39422225952148</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">8.24048137664795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20204544067383</t>
+    <t xml:space="preserve">8.20204639434814</t>
   </si>
   <si>
     <t xml:space="preserve">8.38653469085693</t>
@@ -194,25 +194,25 @@
     <t xml:space="preserve">8.14055061340332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08674144744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41728115081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25585556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94068956375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0790548324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05599308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51721477508545</t>
+    <t xml:space="preserve">8.08674240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4172830581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25585651397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94068813323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07905387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05599117279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51721286773682</t>
   </si>
   <si>
     <t xml:space="preserve">8.55564975738525</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">8.61714458465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87850379943848</t>
+    <t xml:space="preserve">8.87850570678711</t>
   </si>
   <si>
     <t xml:space="preserve">8.87081718444824</t>
@@ -236,28 +236,28 @@
     <t xml:space="preserve">9.3089771270752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34741306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40122127532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10911560058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27822780609131</t>
+    <t xml:space="preserve">9.34741115570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40122222900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10911464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27822875976562</t>
   </si>
   <si>
     <t xml:space="preserve">9.28591632843018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05530548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9323148727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45571804046631</t>
+    <t xml:space="preserve">9.05530452728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93231296539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45571708679199</t>
   </si>
   <si>
     <t xml:space="preserve">8.40959548950195</t>
@@ -266,64 +266,64 @@
     <t xml:space="preserve">8.85544395446777</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69401454925537</t>
+    <t xml:space="preserve">8.69401741027832</t>
   </si>
   <si>
     <t xml:space="preserve">8.66326904296875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74782562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75551319122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91693878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11680126190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14754962921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84775733947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03224468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09535026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20578670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22945213317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44244003295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46610641479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47399616241455</t>
+    <t xml:space="preserve">8.74782371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75551128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9169397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11680221557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14754867553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84775638580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03224563598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09535217285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20578956604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22945308685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44244194030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46610736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47399520874023</t>
   </si>
   <si>
     <t xml:space="preserve">9.39511108398438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28467273712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15056991577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11901664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5765438079834</t>
+    <t xml:space="preserve">9.2846736907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15056896209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11901569366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57654476165771</t>
   </si>
   <si>
     <t xml:space="preserve">10.0498495101929</t>
@@ -332,16 +332,16 @@
     <t xml:space="preserve">10.2233943939209</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0419616699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0104084014893</t>
+    <t xml:space="preserve">10.0419635772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0104055404663</t>
   </si>
   <si>
     <t xml:space="preserve">9.7895336151123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65542984008789</t>
+    <t xml:space="preserve">9.65542888641357</t>
   </si>
   <si>
     <t xml:space="preserve">9.85263919830322</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">9.6712064743042</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91574668884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1918430328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93941307067871</t>
+    <t xml:space="preserve">9.91574573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1918420791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93941402435303</t>
   </si>
   <si>
     <t xml:space="preserve">10.3338346481323</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">9.81319618225098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5371036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63965320587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1366243362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2628374099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048290252686</t>
+    <t xml:space="preserve">9.53710174560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63965129852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1366233825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2628383636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048299789429</t>
   </si>
   <si>
     <t xml:space="preserve">10.3653879165649</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">9.82897472381592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90785789489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261831283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.183952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99463081359863</t>
+    <t xml:space="preserve">9.90785884857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261850357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1839551925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786149978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99463272094727</t>
   </si>
   <si>
     <t xml:space="preserve">10.1129570007324</t>
@@ -410,52 +410,52 @@
     <t xml:space="preserve">9.71853733062744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88419437408447</t>
+    <t xml:space="preserve">9.88419246673584</t>
   </si>
   <si>
     <t xml:space="preserve">9.68698215484619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56076812744141</t>
+    <t xml:space="preserve">9.56076717376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.6633186340332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59232139587402</t>
+    <t xml:space="preserve">9.59232044219971</t>
   </si>
   <si>
     <t xml:space="preserve">9.3083381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4345531463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18212509155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04013156890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22156524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48977375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69487190246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89997100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87630748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0025215148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2312841415405</t>
+    <t xml:space="preserve">9.43455410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1821231842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04013347625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22156620025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48977279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69487285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89997005462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87630462646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0025196075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2312850952148</t>
   </si>
   <si>
     <t xml:space="preserve">10.1760654449463</t>
@@ -464,22 +464,22 @@
     <t xml:space="preserve">10.1524000167847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0340728759766</t>
+    <t xml:space="preserve">10.0340738296509</t>
   </si>
   <si>
     <t xml:space="preserve">9.97096538543701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58443260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72642421722412</t>
+    <t xml:space="preserve">9.58443355560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7264232635498</t>
   </si>
   <si>
     <t xml:space="preserve">9.8053092956543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60020923614502</t>
+    <t xml:space="preserve">9.60021018981934</t>
   </si>
   <si>
     <t xml:space="preserve">9.33989238739014</t>
@@ -488,25 +488,25 @@
     <t xml:space="preserve">9.13479423522949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1900110244751</t>
+    <t xml:space="preserve">9.19001197814941</t>
   </si>
   <si>
     <t xml:space="preserve">9.36355781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24523067474365</t>
+    <t xml:space="preserve">9.24523162841797</t>
   </si>
   <si>
     <t xml:space="preserve">9.14268112182617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16634654998779</t>
+    <t xml:space="preserve">9.16634750366211</t>
   </si>
   <si>
     <t xml:space="preserve">9.38722229003906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17423629760742</t>
+    <t xml:space="preserve">9.17423439025879</t>
   </si>
   <si>
     <t xml:space="preserve">8.90602874755859</t>
@@ -518,22 +518,22 @@
     <t xml:space="preserve">9.86841678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0182962417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1681785583496</t>
+    <t xml:space="preserve">10.0182981491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.168176651001</t>
   </si>
   <si>
     <t xml:space="preserve">10.2943916320801</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2707281112671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4916038513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1602897644043</t>
+    <t xml:space="preserve">10.2707271575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.491602897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1602869033813</t>
   </si>
   <si>
     <t xml:space="preserve">10.3732757568359</t>
@@ -542,103 +542,103 @@
     <t xml:space="preserve">10.3496103286743</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4837160110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862636566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.53892993927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547075271606</t>
+    <t xml:space="preserve">10.4837131500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862627029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5389318466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547094345093</t>
   </si>
   <si>
     <t xml:space="preserve">10.5073795318604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6099290847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022813796997</t>
+    <t xml:space="preserve">10.6099281311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022804260254</t>
   </si>
   <si>
     <t xml:space="preserve">10.4363822937012</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3969402313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79742050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386917114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567796707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936712265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3987693786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5328741073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5249853134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092096328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041105270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7260246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3916788101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6304969787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6703004837036</t>
+    <t xml:space="preserve">10.3969421386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.256778717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936721801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3987703323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5328731536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5249843597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041095733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7260208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.391676902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6304950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6702995300293</t>
   </si>
   <si>
     <t xml:space="preserve">11.4235200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2563457489014</t>
+    <t xml:space="preserve">11.2563467025757</t>
   </si>
   <si>
     <t xml:space="preserve">11.9966859817505</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4902439117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.378794670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6892623901367</t>
+    <t xml:space="preserve">12.4902448654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3787965774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6892604827881</t>
   </si>
   <si>
     <t xml:space="preserve">12.8564338684082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7370252609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.888277053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2385444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0474901199341</t>
+    <t xml:space="preserve">12.737024307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.888279914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.23854637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0474882125854</t>
   </si>
   <si>
     <t xml:space="preserve">12.9599237442017</t>
@@ -647,94 +647,94 @@
     <t xml:space="preserve">13.0952548980713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9838056564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0395288467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2226247787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1270942687988</t>
+    <t xml:space="preserve">12.9838047027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.039529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2226257324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1270961761475</t>
   </si>
   <si>
     <t xml:space="preserve">13.2783489227295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.525128364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6843404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7082242965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.509204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7321043014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.676381111145</t>
+    <t xml:space="preserve">13.52512550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6843433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7082233428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.732105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763820648193</t>
   </si>
   <si>
     <t xml:space="preserve">13.6524991989136</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5808544158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5649318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4694032669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3659162521362</t>
+    <t xml:space="preserve">13.5808534622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5649337768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4694042205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3659181594849</t>
   </si>
   <si>
     <t xml:space="preserve">13.5171670913696</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4534797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2146644592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4614429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5569744110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3897972106934</t>
+    <t xml:space="preserve">13.4534845352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2146663665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4614410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5569725036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.389799118042</t>
   </si>
   <si>
     <t xml:space="preserve">13.3499946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6923036575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7161836624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5490121841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.880316734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8723564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7847871780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.951961517334</t>
+    <t xml:space="preserve">13.6923017501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7161846160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490112304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8803176879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8723545074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7847881317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9519634246826</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768278121948</t>
@@ -749,52 +749,52 @@
     <t xml:space="preserve">12.7290639877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8166313171387</t>
+    <t xml:space="preserve">12.816632270813</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201183319092</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6255741119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4982070922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8484745025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9041986465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4265613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628768920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5539302825928</t>
+    <t xml:space="preserve">12.6255760192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4982061386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8484735488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9041967391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4265604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628740310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5539312362671</t>
   </si>
   <si>
     <t xml:space="preserve">12.2991895675659</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1399774551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1718196868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0842523574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7021427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7180643081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658262252808</t>
+    <t xml:space="preserve">12.1399793624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.171820640564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0842542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7021417617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7180633544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658281326294</t>
   </si>
   <si>
     <t xml:space="preserve">11.6782598495483</t>
@@ -806,16 +806,16 @@
     <t xml:space="preserve">12.0285272598267</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1240539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9091186523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7499055862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7737884521484</t>
+    <t xml:space="preserve">12.1240558624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9091196060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7499074935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7737874984741</t>
   </si>
   <si>
     <t xml:space="preserve">11.8533945083618</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">11.5906934738159</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4822854995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4026784896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927484512329</t>
+    <t xml:space="preserve">12.4822845458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4026775360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927513122559</t>
   </si>
   <si>
     <t xml:space="preserve">12.6972227096558</t>
@@ -839,28 +839,28 @@
     <t xml:space="preserve">12.8643941879272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8405122756958</t>
+    <t xml:space="preserve">12.8405113220215</t>
   </si>
   <si>
     <t xml:space="preserve">12.5857734680176</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0046463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1081342697144</t>
+    <t xml:space="preserve">12.0046453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.10813331604</t>
   </si>
   <si>
     <t xml:space="preserve">11.893196105957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9648427963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9728021621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9568824768066</t>
+    <t xml:space="preserve">11.96484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9728050231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9568815231323</t>
   </si>
   <si>
     <t xml:space="preserve">12.1320161819458</t>
@@ -872,28 +872,28 @@
     <t xml:space="preserve">11.4474010467529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4951639175415</t>
+    <t xml:space="preserve">11.4951648712158</t>
   </si>
   <si>
     <t xml:space="preserve">11.3757553100586</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0652914047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2245035171509</t>
+    <t xml:space="preserve">11.0652894973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2324628829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2245054244995</t>
   </si>
   <si>
     <t xml:space="preserve">11.2404251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4155588150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4712820053101</t>
+    <t xml:space="preserve">11.4155597686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4712829589844</t>
   </si>
   <si>
     <t xml:space="preserve">11.3279914855957</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">11.5747718811035</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2961492538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4872035980225</t>
+    <t xml:space="preserve">11.2961473464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4872045516968</t>
   </si>
   <si>
     <t xml:space="preserve">11.6170949935913</t>
@@ -914,16 +914,16 @@
     <t xml:space="preserve">11.5683860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6252145767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5196762084961</t>
+    <t xml:space="preserve">11.6252117156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5196752548218</t>
   </si>
   <si>
     <t xml:space="preserve">11.3491945266724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2193040847778</t>
+    <t xml:space="preserve">11.2193050384521</t>
   </si>
   <si>
     <t xml:space="preserve">11.1787137985229</t>
@@ -932,31 +932,31 @@
     <t xml:space="preserve">10.9189319610596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0488233566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082311630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9838771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7971611022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.96764087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3735504150391</t>
+    <t xml:space="preserve">11.0488252639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082340240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9838781356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7971601486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9676418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3735494613647</t>
   </si>
   <si>
     <t xml:space="preserve">11.0650596618652</t>
   </si>
   <si>
-    <t xml:space="preserve">11.11376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8783407211304</t>
+    <t xml:space="preserve">11.1137676239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8783416748047</t>
   </si>
   <si>
     <t xml:space="preserve">10.9351682662964</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">10.8377513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8458671569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8945760726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0812969207764</t>
+    <t xml:space="preserve">10.8458700180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8945770263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0812959671021</t>
   </si>
   <si>
     <t xml:space="preserve">11.4222593307495</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4466142654419</t>
+    <t xml:space="preserve">11.4466152191162</t>
   </si>
   <si>
     <t xml:space="preserve">11.292368888855</t>
@@ -989,100 +989,100 @@
     <t xml:space="preserve">10.9026966094971</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0407047271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3654308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5034408569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6089773178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5359144210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3410758972168</t>
+    <t xml:space="preserve">11.0407056808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3654317855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5034418106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6089782714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5359125137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3410768508911</t>
   </si>
   <si>
     <t xml:space="preserve">11.0975322723389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.203067779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8702230453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6429138183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427101135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85545253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70932483673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79862499237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66061592102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72556209564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46578121185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49825286865234</t>
+    <t xml:space="preserve">11.2030696868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8702239990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6429147720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373792648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427196502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85545539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70932579040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79862594604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66061687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72556114196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46578216552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49825382232666</t>
   </si>
   <si>
     <t xml:space="preserve">9.44954586029053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4089527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36024570465088</t>
+    <t xml:space="preserve">9.40895462036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36024379730225</t>
   </si>
   <si>
     <t xml:space="preserve">9.2790641784668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3358907699585</t>
+    <t xml:space="preserve">9.33588981628418</t>
   </si>
   <si>
     <t xml:space="preserve">9.30341815948486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26282596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19788074493408</t>
+    <t xml:space="preserve">9.26282787322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19788360595703</t>
   </si>
   <si>
     <t xml:space="preserve">9.10858249664307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98680782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09234428405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11669826507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07610988616943</t>
+    <t xml:space="preserve">8.98680877685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09234714508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11670017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07610893249512</t>
   </si>
   <si>
     <t xml:space="preserve">9.22223567962646</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">9.52260780334473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61190891265869</t>
+    <t xml:space="preserve">9.61190795898438</t>
   </si>
   <si>
     <t xml:space="preserve">9.62814521789551</t>
@@ -1106,37 +1106,37 @@
     <t xml:space="preserve">9.88792610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80674362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83109760284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83921718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78238868713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76615428924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991607666016</t>
+    <t xml:space="preserve">9.80674266815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83109855651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83921813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78238964080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76615238189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991798400879</t>
   </si>
   <si>
     <t xml:space="preserve">9.74179840087891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70120811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60379028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35212802886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32777309417725</t>
+    <t xml:space="preserve">9.70120716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60378932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.352126121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32777118682861</t>
   </si>
   <si>
     <t xml:space="preserve">9.44142723083496</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">9.10046291351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12481784820557</t>
+    <t xml:space="preserve">9.12481880187988</t>
   </si>
   <si>
     <t xml:space="preserve">9.18164539337158</t>
@@ -1157,40 +1157,40 @@
     <t xml:space="preserve">9.27094459533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49013519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53884410858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6023235321045</t>
+    <t xml:space="preserve">9.49013423919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53884506225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6023254394531</t>
   </si>
   <si>
     <t xml:space="preserve">10.6835050582886</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6510334014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5617332458496</t>
+    <t xml:space="preserve">10.6510343551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5617341995239</t>
   </si>
   <si>
     <t xml:space="preserve">10.4805517196655</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3587799072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2288885116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96910667419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81486225128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84733581542969</t>
+    <t xml:space="preserve">10.3587789535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96910858154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81486320495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84733486175537</t>
   </si>
   <si>
     <t xml:space="preserve">9.9293966293335</t>
@@ -1199,31 +1199,31 @@
     <t xml:space="preserve">10.2576398849487</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2001962661743</t>
+    <t xml:space="preserve">10.2001972198486</t>
   </si>
   <si>
     <t xml:space="preserve">9.95401477813721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94580841064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0196647644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2248163223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4545860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3397016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2986717224121</t>
+    <t xml:space="preserve">9.94580745697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01966381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.224817276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4545869827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3397026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673736572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2986698150635</t>
   </si>
   <si>
     <t xml:space="preserve">10.397144317627</t>
@@ -1232,31 +1232,31 @@
     <t xml:space="preserve">10.6843576431274</t>
   </si>
   <si>
-    <t xml:space="preserve">11.00439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7418012619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.594090461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956188201904</t>
+    <t xml:space="preserve">11.0043964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7418022155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5940923690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956178665161</t>
   </si>
   <si>
     <t xml:space="preserve">10.7007703781128</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5776796340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7089767456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8730974197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9551601409912</t>
+    <t xml:space="preserve">10.5776786804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7089757919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8730993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9551610946655</t>
   </si>
   <si>
     <t xml:space="preserve">10.9059228897095</t>
@@ -1265,61 +1265,61 @@
     <t xml:space="preserve">10.7992429733276</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9961891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1931371688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1685190200806</t>
+    <t xml:space="preserve">10.996190071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931381225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1685199737549</t>
   </si>
   <si>
     <t xml:space="preserve">11.2669916152954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2587862014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5460004806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6526784896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7183275222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4803514480591</t>
+    <t xml:space="preserve">11.2587852478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5459985733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6526794433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7183284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4803504943848</t>
   </si>
   <si>
     <t xml:space="preserve">11.4229078292847</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5952367782593</t>
+    <t xml:space="preserve">11.595235824585</t>
   </si>
   <si>
     <t xml:space="preserve">11.6855039596558</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9070692062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9152755737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7921829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8660383224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9316864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7675657272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5542049407959</t>
+    <t xml:space="preserve">11.9070701599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9152746200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7921848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8660373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9316873550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7675666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5542058944702</t>
   </si>
   <si>
     <t xml:space="preserve">11.509072303772</t>
@@ -1328,31 +1328,31 @@
     <t xml:space="preserve">11.2834033966064</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1603126525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8648929595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0249137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5981931686401</t>
+    <t xml:space="preserve">11.1603145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8648920059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0249118804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5981950759888</t>
   </si>
   <si>
     <t xml:space="preserve">10.5366487503052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.438175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6105041503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6679449081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8197584152222</t>
+    <t xml:space="preserve">10.4381761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6105031967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6679458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8197593688965</t>
   </si>
   <si>
     <t xml:space="preserve">11.148003578186</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">11.2464771270752</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1192798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4639377593994</t>
+    <t xml:space="preserve">11.1192827224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.463939666748</t>
   </si>
   <si>
     <t xml:space="preserve">11.9645118713379</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">11.8537292480469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.541898727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6937103271484</t>
+    <t xml:space="preserve">11.5418968200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6937112808228</t>
   </si>
   <si>
     <t xml:space="preserve">11.755256652832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6198539733887</t>
+    <t xml:space="preserve">11.6198558807373</t>
   </si>
   <si>
     <t xml:space="preserve">11.9193782806396</t>
@@ -1391,79 +1391,79 @@
     <t xml:space="preserve">12.354302406311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1737680435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0876035690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8085947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7060203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8906564712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7429466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768199920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4035396575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6444721221924</t>
+    <t xml:space="preserve">12.1737670898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0876016616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8085956573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7060194015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8906555175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7429456710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768218994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4035377502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6444730758667</t>
   </si>
   <si>
     <t xml:space="preserve">11.1726217269897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2013444900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3490524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.225962638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.447527885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4885559082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4147024154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9398946762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7019157409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7347412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0670890808105</t>
+    <t xml:space="preserve">11.201343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3490552902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2259635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475259780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4885568618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.414701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9398937225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7019166946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7347421646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0670881271362</t>
   </si>
   <si>
     <t xml:space="preserve">12.2763433456421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.305064201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2230052947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2106962203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4363632202148</t>
+    <t xml:space="preserve">12.3050661087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2230033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2106943130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4363622665405</t>
   </si>
   <si>
     <t xml:space="preserve">12.510217666626</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">12.5471458435059</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7276792526245</t>
+    <t xml:space="preserve">12.7276821136475</t>
   </si>
   <si>
     <t xml:space="preserve">12.8220500946045</t>
@@ -1481,13 +1481,13 @@
     <t xml:space="preserve">12.5389404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5881767272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4814958572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7769165039062</t>
+    <t xml:space="preserve">12.5881757736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4814968109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7769174575806</t>
   </si>
   <si>
     <t xml:space="preserve">13.2241506576538</t>
@@ -1496,106 +1496,106 @@
     <t xml:space="preserve">13.211841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2405624389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5318775177002</t>
+    <t xml:space="preserve">13.2405633926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5318794250488</t>
   </si>
   <si>
     <t xml:space="preserve">13.2364587783813</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4539222717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3513431549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3964815139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3308324813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3923740386963</t>
+    <t xml:space="preserve">13.4539194107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3513469696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3964776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3308296203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3923759460449</t>
   </si>
   <si>
     <t xml:space="preserve">13.638560295105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0857944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283489227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1868619918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1952037811279</t>
+    <t xml:space="preserve">14.0857925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283479690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1868600845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1952047348022</t>
   </si>
   <si>
     <t xml:space="preserve">13.8698358535767</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5653247833252</t>
+    <t xml:space="preserve">13.5653285980225</t>
   </si>
   <si>
     <t xml:space="preserve">13.2316150665283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0939617156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1648731231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2357873916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8061361312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9646463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6935081481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6517934799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0188751220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9813327789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0689315795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0981311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9396181106567</t>
+    <t xml:space="preserve">13.0939598083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1648721694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2357883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.806134223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9646472930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.693507194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6517944335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.018874168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.981333732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0689306259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0981330871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9396200180054</t>
   </si>
   <si>
     <t xml:space="preserve">13.1565313339233</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5475082397461</t>
+    <t xml:space="preserve">12.5475101470947</t>
   </si>
   <si>
     <t xml:space="preserve">12.5683660507202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4390516281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.480767250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.085618019104</t>
+    <t xml:space="preserve">12.4390525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4807662963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0856170654297</t>
   </si>
   <si>
     <t xml:space="preserve">12.5266532897949</t>
@@ -1607,49 +1607,49 @@
     <t xml:space="preserve">13.2191009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1440181732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1106462478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0480766296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2566442489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2941865921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2900142669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3567571640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988105773926</t>
+    <t xml:space="preserve">13.1440162658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1106472015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.04807472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2566423416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2941856384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2900161743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3567581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988096237183</t>
   </si>
   <si>
     <t xml:space="preserve">13.7613830566406</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3650989532471</t>
+    <t xml:space="preserve">13.3651008605957</t>
   </si>
   <si>
     <t xml:space="preserve">13.4276695251465</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2858448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.227442741394</t>
+    <t xml:space="preserve">13.2858428955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2274446487427</t>
   </si>
   <si>
     <t xml:space="preserve">13.2399578094482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1315002441406</t>
+    <t xml:space="preserve">13.1315021514893</t>
   </si>
   <si>
     <t xml:space="preserve">13.1356735229492</t>
@@ -1658,37 +1658,37 @@
     <t xml:space="preserve">12.914589881897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.989673614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0397310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2263145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4015121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.409854888916</t>
+    <t xml:space="preserve">12.9896755218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0397319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2263126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4015111923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4098539352417</t>
   </si>
   <si>
     <t xml:space="preserve">12.6267652511597</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5808820724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809921264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4640798568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1595706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0636301040649</t>
+    <t xml:space="preserve">12.5808801651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4640808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.159571647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0636291503906</t>
   </si>
   <si>
     <t xml:space="preserve">12.1428852081299</t>
@@ -1697,97 +1697,97 @@
     <t xml:space="preserve">12.2471704483032</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2221422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3514556884766</t>
+    <t xml:space="preserve">12.2221403121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3514547348022</t>
   </si>
   <si>
     <t xml:space="preserve">12.7435636520386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5349941253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5391654968262</t>
+    <t xml:space="preserve">12.5349960327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5391674041748</t>
   </si>
   <si>
     <t xml:space="preserve">11.8383731842041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0552864074707</t>
+    <t xml:space="preserve">12.0552854537964</t>
   </si>
   <si>
     <t xml:space="preserve">12.026086807251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.946831703186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922660827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.496319770813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3086099624634</t>
+    <t xml:space="preserve">11.9468297958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5922632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4963226318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3086109161377</t>
   </si>
   <si>
     <t xml:space="preserve">11.2001543045044</t>
   </si>
   <si>
-    <t xml:space="preserve">11.271068572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5380344390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5255212783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5296926498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.596435546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7507753372192</t>
+    <t xml:space="preserve">11.2710657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5380373001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5255222320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5296936035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5964336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7507762908936</t>
   </si>
   <si>
     <t xml:space="preserve">11.7591199874878</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6882057189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6047763824463</t>
+    <t xml:space="preserve">11.6882047653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6047773361206</t>
   </si>
   <si>
     <t xml:space="preserve">11.7215757369995</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3681402206421</t>
+    <t xml:space="preserve">12.3681411743164</t>
   </si>
   <si>
     <t xml:space="preserve">12.272198677063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2137985229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0385999679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3639678955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4223670959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5975685119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2596855163574</t>
+    <t xml:space="preserve">12.2137994766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0386009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3639688491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4223690032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5975666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2596836090088</t>
   </si>
   <si>
     <t xml:space="preserve">12.201283454895</t>
@@ -1796,247 +1796,247 @@
     <t xml:space="preserve">12.6100797653198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2555122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7382612228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.746603012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7966594696045</t>
+    <t xml:space="preserve">12.2555131912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7382621765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7466049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7966613769531</t>
   </si>
   <si>
     <t xml:space="preserve">11.9259738922119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8508901596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4212379455566</t>
+    <t xml:space="preserve">11.850887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840324401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4212369918823</t>
   </si>
   <si>
     <t xml:space="preserve">10.9707279205322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8581018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8205585479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7246150970459</t>
+    <t xml:space="preserve">10.8581008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8205575942993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7246170043945</t>
   </si>
   <si>
     <t xml:space="preserve">10.7579879760742</t>
   </si>
   <si>
-    <t xml:space="preserve">10.641188621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9582138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1375827789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2043256759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2084989547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1959829330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0916976928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0541563034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7996997833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.712103843689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3867349624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.28662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4117612838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3116493225098</t>
+    <t xml:space="preserve">10.6411895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9582147598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.137583732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.20432472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.20849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1959819793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0916996002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0541553497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7997007369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7121028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3867340087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2866201400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4117631912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3116502761841</t>
   </si>
   <si>
     <t xml:space="preserve">10.2062559127808</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91958808898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1092948913574</t>
+    <t xml:space="preserve">9.91958713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1092939376831</t>
   </si>
   <si>
     <t xml:space="preserve">9.96596050262451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80154705047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0797843933105</t>
+    <t xml:space="preserve">9.80154800415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0797853469849</t>
   </si>
   <si>
     <t xml:space="preserve">9.89007663726807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19026756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13124942779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95840454101562</t>
+    <t xml:space="preserve">9.19026947021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13124847412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95840358734131</t>
   </si>
   <si>
     <t xml:space="preserve">9.26615142822266</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14389514923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97105026245117</t>
+    <t xml:space="preserve">9.14389610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97105121612549</t>
   </si>
   <si>
     <t xml:space="preserve">8.67595100402832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69703006744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43143939971924</t>
+    <t xml:space="preserve">8.69702816009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43143653869629</t>
   </si>
   <si>
     <t xml:space="preserve">8.54947948455811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64643955230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62536239624023</t>
+    <t xml:space="preserve">8.64644145965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62536144256592</t>
   </si>
   <si>
     <t xml:space="preserve">8.320143699646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13127994537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13296604156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78221893310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79570960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74174690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927715301514</t>
+    <t xml:space="preserve">8.13128089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13296508789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78221750259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79570913314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74174737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927762985229</t>
   </si>
   <si>
     <t xml:space="preserve">8.02504348754883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01155281066895</t>
+    <t xml:space="preserve">8.01155185699463</t>
   </si>
   <si>
     <t xml:space="preserve">8.31339836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44830226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49467372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74761867523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76869678497314</t>
+    <t xml:space="preserve">8.44830131530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49467468261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74761772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76869583129883</t>
   </si>
   <si>
     <t xml:space="preserve">8.68859767913818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61271476745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67173480987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98369789123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91203117370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77291107177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8530101776123</t>
+    <t xml:space="preserve">8.61271572113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67173385620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98369693756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91203212738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77291297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85301208496094</t>
   </si>
   <si>
     <t xml:space="preserve">8.99634552001953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30409145355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05536460876465</t>
+    <t xml:space="preserve">9.30409240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05536556243896</t>
   </si>
   <si>
     <t xml:space="preserve">9.17340564727783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24507427215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23242473602295</t>
+    <t xml:space="preserve">9.24507236480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23242568969727</t>
   </si>
   <si>
     <t xml:space="preserve">9.41791725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47693729400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2408561706543</t>
+    <t xml:space="preserve">9.47693634033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24085712432861</t>
   </si>
   <si>
     <t xml:space="preserve">9.03007125854492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2197790145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43899536132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70880126953125</t>
+    <t xml:space="preserve">9.21977996826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43899345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7088041305542</t>
   </si>
   <si>
     <t xml:space="preserve">9.72144889831543</t>
@@ -2051,64 +2051,64 @@
     <t xml:space="preserve">10.0713529586792</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1177253723145</t>
+    <t xml:space="preserve">10.1177272796631</t>
   </si>
   <si>
     <t xml:space="preserve">10.2863550186157</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1556692123413</t>
+    <t xml:space="preserve">10.1556701660156</t>
   </si>
   <si>
     <t xml:space="preserve">10.1388053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.033411026001</t>
+    <t xml:space="preserve">10.0334129333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.0291976928711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8394889831543</t>
+    <t xml:space="preserve">9.83948802947998</t>
   </si>
   <si>
     <t xml:space="preserve">9.90272521972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87321376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99968719482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75517272949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60762500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93223476409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3790998458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4339065551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3833150863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4043941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5266513824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5814552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.868124961853</t>
+    <t xml:space="preserve">9.87321472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99968814849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7551736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60762405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93223571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3791017532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4339056015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3833169937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4043951034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.526650428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5814561843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8681259155273</t>
   </si>
   <si>
     <t xml:space="preserve">10.7585163116455</t>
@@ -2123,40 +2123,40 @@
     <t xml:space="preserve">10.5519456863403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8343982696533</t>
+    <t xml:space="preserve">10.8343992233276</t>
   </si>
   <si>
     <t xml:space="preserve">10.7247905731201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6952810287476</t>
+    <t xml:space="preserve">10.6952800750732</t>
   </si>
   <si>
     <t xml:space="preserve">10.4971418380737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8133201599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807706832886</t>
+    <t xml:space="preserve">10.8133211135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807725906372</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898876190186</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4760627746582</t>
+    <t xml:space="preserve">10.4760637283325</t>
   </si>
   <si>
     <t xml:space="preserve">10.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6025333404541</t>
+    <t xml:space="preserve">10.6025342941284</t>
   </si>
   <si>
     <t xml:space="preserve">10.9608697891235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0999870300293</t>
+    <t xml:space="preserve">11.0999898910522</t>
   </si>
   <si>
     <t xml:space="preserve">10.9945964813232</t>
@@ -2165,58 +2165,58 @@
     <t xml:space="preserve">11.3782272338867</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1337146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8976335525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4676322937012</t>
+    <t xml:space="preserve">11.133713722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8976354598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4676313400269</t>
   </si>
   <si>
     <t xml:space="preserve">10.43812084198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.269492149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261587142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95331478118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303758621216</t>
+    <t xml:space="preserve">10.2694940567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1261577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95331287384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303730010986</t>
   </si>
   <si>
     <t xml:space="preserve">9.92380332946777</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84791946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79733085632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.058705329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1345891952515</t>
+    <t xml:space="preserve">9.84792137145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79733180999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0587072372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1345911026001</t>
   </si>
   <si>
     <t xml:space="preserve">10.5055732727051</t>
   </si>
   <si>
-    <t xml:space="preserve">10.560378074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690031051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7285499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3922061920166</t>
+    <t xml:space="preserve">10.5603761672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7285509109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.392204284668</t>
   </si>
   <si>
     <t xml:space="preserve">9.95236873626709</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">9.50390911102295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47372341156006</t>
+    <t xml:space="preserve">9.47372245788574</t>
   </si>
   <si>
     <t xml:space="preserve">9.09856986999512</t>
@@ -2246,118 +2246,118 @@
     <t xml:space="preserve">9.58152675628662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2667407989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27536582946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25811767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55565452575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43060207366943</t>
+    <t xml:space="preserve">9.26674175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27536678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25811862945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5556526184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69795608520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43060302734375</t>
   </si>
   <si>
     <t xml:space="preserve">9.31417560577393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36160755157471</t>
+    <t xml:space="preserve">9.36160850524902</t>
   </si>
   <si>
     <t xml:space="preserve">9.54271697998047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80144596099854</t>
+    <t xml:space="preserve">9.8014440536499</t>
   </si>
   <si>
     <t xml:space="preserve">9.90493488311768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7540111541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64620780944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93512058258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89199924468994</t>
+    <t xml:space="preserve">9.75401210784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64620971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93511962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89199829101562</t>
   </si>
   <si>
     <t xml:space="preserve">9.9264965057373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1765985488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93943119049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96099376678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0644845962524</t>
+    <t xml:space="preserve">10.1765995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93943214416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96099281311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0644836425781</t>
   </si>
   <si>
     <t xml:space="preserve">10.0601720809937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.28440284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1852235794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3404588699341</t>
+    <t xml:space="preserve">10.2844018936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1852226257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3404579162598</t>
   </si>
   <si>
     <t xml:space="preserve">10.5301923751831</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4827604293823</t>
+    <t xml:space="preserve">10.482759475708</t>
   </si>
   <si>
     <t xml:space="preserve">10.3663330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.362021446228</t>
+    <t xml:space="preserve">10.3620204925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.96530532836914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79282188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61602306365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74538612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81869316101074</t>
+    <t xml:space="preserve">9.79281997680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6160249710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74538707733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81869411468506</t>
   </si>
   <si>
     <t xml:space="preserve">10.1119174957275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0256748199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77125835418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4176664352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18912410736084</t>
+    <t xml:space="preserve">10.0256767272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77125930786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41766548156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18912315368652</t>
   </si>
   <si>
     <t xml:space="preserve">9.02957630157471</t>
@@ -2366,37 +2366,37 @@
     <t xml:space="preserve">8.81828212738037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74497604370117</t>
+    <t xml:space="preserve">8.74497509002686</t>
   </si>
   <si>
     <t xml:space="preserve">8.9045238494873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72772693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44485378265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58456516265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13782978057861</t>
+    <t xml:space="preserve">8.72772789001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44485092163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58456420898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1378288269043</t>
   </si>
   <si>
     <t xml:space="preserve">8.17922687530518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48970031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.317214012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41725540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52764320373535</t>
+    <t xml:space="preserve">8.4896993637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31721496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41725444793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52764511108398</t>
   </si>
   <si>
     <t xml:space="preserve">8.39655685424805</t>
@@ -2405,19 +2405,19 @@
     <t xml:space="preserve">8.50867176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56559181213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66304588317871</t>
+    <t xml:space="preserve">8.56559276580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66304397583008</t>
   </si>
   <si>
     <t xml:space="preserve">8.60698795318604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55006790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50349617004395</t>
+    <t xml:space="preserve">8.55006694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50349712371826</t>
   </si>
   <si>
     <t xml:space="preserve">8.28789043426514</t>
@@ -2429,34 +2429,34 @@
     <t xml:space="preserve">8.65873432159424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61561298370361</t>
+    <t xml:space="preserve">8.6156120300293</t>
   </si>
   <si>
     <t xml:space="preserve">8.87002658843994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9735164642334</t>
+    <t xml:space="preserve">8.97351741790771</t>
   </si>
   <si>
     <t xml:space="preserve">8.89589977264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76653575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82690620422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07269763946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90021133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77084922790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66735744476318</t>
+    <t xml:space="preserve">8.76653671264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82690715789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07269668579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90021228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77084827423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6673583984375</t>
   </si>
   <si>
     <t xml:space="preserve">8.64579677581787</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">8.28444194793701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27926731109619</t>
+    <t xml:space="preserve">8.27926635742188</t>
   </si>
   <si>
     <t xml:space="preserve">8.14990234375</t>
@@ -2480,43 +2480,43 @@
     <t xml:space="preserve">8.39483261108398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23787021636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89462661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97396850585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95844602584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05158710479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91704940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95326995849609</t>
+    <t xml:space="preserve">8.23787117004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89462566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97396898269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95844554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05158805847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91704988479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95327091217041</t>
   </si>
   <si>
     <t xml:space="preserve">8.02916431427002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30858898162842</t>
+    <t xml:space="preserve">8.30858993530273</t>
   </si>
   <si>
     <t xml:space="preserve">8.08953475952148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19647407531738</t>
+    <t xml:space="preserve">8.19647312164307</t>
   </si>
   <si>
     <t xml:space="preserve">8.16370105743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06366157531738</t>
+    <t xml:space="preserve">8.06365966796875</t>
   </si>
   <si>
     <t xml:space="preserve">8.02054119110107</t>
@@ -2525,19 +2525,19 @@
     <t xml:space="preserve">8.07918357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09988212585449</t>
+    <t xml:space="preserve">8.09988403320312</t>
   </si>
   <si>
     <t xml:space="preserve">8.12058162689209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03261375427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11023330688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2344217300415</t>
+    <t xml:space="preserve">8.03261470794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11023235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23442077636719</t>
   </si>
   <si>
     <t xml:space="preserve">8.31376457214355</t>
@@ -2546,49 +2546,49 @@
     <t xml:space="preserve">8.07401084899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80838394165039</t>
+    <t xml:space="preserve">7.80838441848755</t>
   </si>
   <si>
     <t xml:space="preserve">8.47417545318604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6207857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77515983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62854766845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6414852142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68460559844971</t>
+    <t xml:space="preserve">8.62078666687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62854862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64148616790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68460464477539</t>
   </si>
   <si>
     <t xml:space="preserve">8.54489326477051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54316902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53971862792969</t>
+    <t xml:space="preserve">8.54316806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.539719581604</t>
   </si>
   <si>
     <t xml:space="preserve">8.46631145477295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39115619659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52923202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47854709625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61312484741211</t>
+    <t xml:space="preserve">8.39115715026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5292329788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47854614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61312675476074</t>
   </si>
   <si>
     <t xml:space="preserve">8.59389972686768</t>
@@ -2603,151 +2603,151 @@
     <t xml:space="preserve">8.43485164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28279399871826</t>
+    <t xml:space="preserve">8.28279304504395</t>
   </si>
   <si>
     <t xml:space="preserve">8.22511577606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39989376068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47679805755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65856838226318</t>
+    <t xml:space="preserve">8.39989471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47679901123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6585693359375</t>
   </si>
   <si>
     <t xml:space="preserve">8.69177627563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71799468994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74770641326904</t>
+    <t xml:space="preserve">8.71799278259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74770736694336</t>
   </si>
   <si>
     <t xml:space="preserve">8.9967679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9006404876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9224853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86568260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8482027053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83509540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88752841949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95743942260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81761932373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78266143798828</t>
+    <t xml:space="preserve">8.90063762664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92248439788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86568355560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84820461273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8350944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88753032684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81761837005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78266334533691</t>
   </si>
   <si>
     <t xml:space="preserve">8.8263578414917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94433212280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18465328216553</t>
+    <t xml:space="preserve">8.94433307647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18465423583984</t>
   </si>
   <si>
     <t xml:space="preserve">9.17154598236084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15406894683838</t>
+    <t xml:space="preserve">9.15406799316406</t>
   </si>
   <si>
     <t xml:space="preserve">9.07541751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104778289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90937805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85694313049316</t>
+    <t xml:space="preserve">9.07104873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9093770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85694408416748</t>
   </si>
   <si>
     <t xml:space="preserve">8.91374683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99239826202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96617984771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93122386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87442016601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83072662353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49602222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63235187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73721885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30901050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15170955657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0573263168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22686195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33872318267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36319065093994</t>
+    <t xml:space="preserve">8.99239635467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9661808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93122577667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87442111968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83072471618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4960241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63235092163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73721981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30900859832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15170860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05732727050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22686290740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33872222900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36319160461426</t>
   </si>
   <si>
     <t xml:space="preserve">8.21113395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26181983947754</t>
+    <t xml:space="preserve">8.26182079315186</t>
   </si>
   <si>
     <t xml:space="preserve">8.32998275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44184303283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41562652587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22861194610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26706218719482</t>
+    <t xml:space="preserve">8.4418420791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41562557220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22861289978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26706314086914</t>
   </si>
   <si>
     <t xml:space="preserve">8.57292652130127</t>
@@ -2765,160 +2765,160 @@
     <t xml:space="preserve">7.69029140472412</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35471487045288</t>
+    <t xml:space="preserve">7.35471534729004</t>
   </si>
   <si>
     <t xml:space="preserve">7.13798856735229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08380699157715</t>
+    <t xml:space="preserve">7.08380651473999</t>
   </si>
   <si>
     <t xml:space="preserve">7.11701488494873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93349647521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80590724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4144024848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04238414764404</t>
+    <t xml:space="preserve">6.93349695205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80590772628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41440200805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04238367080688</t>
   </si>
   <si>
     <t xml:space="preserve">4.91129922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80992794036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08983707427979</t>
+    <t xml:space="preserve">4.80992746353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08983659744263</t>
   </si>
   <si>
     <t xml:space="preserve">4.1938304901123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204880714417</t>
+    <t xml:space="preserve">3.92204856872559</t>
   </si>
   <si>
     <t xml:space="preserve">4.06012392044067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15974807739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38521337509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56174087524414</t>
+    <t xml:space="preserve">4.15974855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38521385192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56173992156982</t>
   </si>
   <si>
     <t xml:space="preserve">4.49532461166382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67534732818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70331144332886</t>
+    <t xml:space="preserve">4.67534685134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70331192016602</t>
   </si>
   <si>
     <t xml:space="preserve">4.96373271942139</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8658561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83964014053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87634325027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79245042800903</t>
+    <t xml:space="preserve">4.86585712432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83964061737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87634372711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79244947433472</t>
   </si>
   <si>
     <t xml:space="preserve">5.01267194747925</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04762744903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17346858978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41116809844971</t>
+    <t xml:space="preserve">5.0476279258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17346906661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41116905212402</t>
   </si>
   <si>
     <t xml:space="preserve">5.28707551956177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24862384796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17871189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94625520706177</t>
+    <t xml:space="preserve">5.24862337112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17871236801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94625473022461</t>
   </si>
   <si>
     <t xml:space="preserve">5.03714036941528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06860113143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03888893127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78720664978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93576812744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13152122497559</t>
+    <t xml:space="preserve">5.06860208511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03888845443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78720617294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93576860427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13152170181274</t>
   </si>
   <si>
     <t xml:space="preserve">5.17172145843506</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16298151016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2626051902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57021760940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58769655227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27833604812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53176546096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31853580474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39893341064453</t>
+    <t xml:space="preserve">5.16298246383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26260614395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57021808624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58769559860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27833652496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53176641464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31853532791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39893388748169</t>
   </si>
   <si>
     <t xml:space="preserve">5.44437646865845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34650039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25211906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02315855026245</t>
+    <t xml:space="preserve">5.34649991989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25212001800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02315902709961</t>
   </si>
   <si>
     <t xml:space="preserve">5.05461835861206</t>
@@ -2930,10 +2930,10 @@
     <t xml:space="preserve">4.95499467849731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11404323577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86236095428467</t>
+    <t xml:space="preserve">5.11404418945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86236143112183</t>
   </si>
   <si>
     <t xml:space="preserve">4.84837865829468</t>
@@ -2960,19 +2960,19 @@
     <t xml:space="preserve">5.32028293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58594799041748</t>
+    <t xml:space="preserve">5.58594846725464</t>
   </si>
   <si>
     <t xml:space="preserve">5.64362478256226</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9390025138855</t>
+    <t xml:space="preserve">5.93900203704834</t>
   </si>
   <si>
     <t xml:space="preserve">6.02639198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91977691650391</t>
+    <t xml:space="preserve">5.91977643966675</t>
   </si>
   <si>
     <t xml:space="preserve">5.83588171005249</t>
@@ -2981,37 +2981,37 @@
     <t xml:space="preserve">5.46535015106201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47059345245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46360206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40942049026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40767288208008</t>
+    <t xml:space="preserve">5.47059392929077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4636025428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40942096710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40767240524292</t>
   </si>
   <si>
     <t xml:space="preserve">5.31503915786743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42165517807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08607912063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15249490737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01966238021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07559251785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96198463439941</t>
+    <t xml:space="preserve">5.42165565490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08607864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15249443054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01966285705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07559204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96198558807373</t>
   </si>
   <si>
     <t xml:space="preserve">5.11579179763794</t>
@@ -3023,40 +3023,40 @@
     <t xml:space="preserve">5.19793748855591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10879945755005</t>
+    <t xml:space="preserve">5.10880041122437</t>
   </si>
   <si>
     <t xml:space="preserve">5.02665376663208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84663057327271</t>
+    <t xml:space="preserve">4.84663105010986</t>
   </si>
   <si>
     <t xml:space="preserve">4.87284851074219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93227338790894</t>
+    <t xml:space="preserve">4.93227291107178</t>
   </si>
   <si>
     <t xml:space="preserve">5.01616716384888</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02490711212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15948629379272</t>
+    <t xml:space="preserve">5.02490615844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15948581695557</t>
   </si>
   <si>
     <t xml:space="preserve">5.04413175582886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95848989486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92178630828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82915258407593</t>
+    <t xml:space="preserve">4.95848941802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92178583145142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82915353775024</t>
   </si>
   <si>
     <t xml:space="preserve">4.73477268218994</t>
@@ -3065,40 +3065,40 @@
     <t xml:space="preserve">4.50406360626221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42016983032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31005954742432</t>
+    <t xml:space="preserve">4.42016935348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31005907058716</t>
   </si>
   <si>
     <t xml:space="preserve">4.51455020904541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52678442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72952890396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4428915977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52328968048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67709589004517</t>
+    <t xml:space="preserve">4.52678537368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72952938079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44289112091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52329015731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67709636688232</t>
   </si>
   <si>
     <t xml:space="preserve">4.65437364578247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55649757385254</t>
+    <t xml:space="preserve">4.5564980506897</t>
   </si>
   <si>
     <t xml:space="preserve">4.50930690765381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46910762786865</t>
+    <t xml:space="preserve">4.46910810470581</t>
   </si>
   <si>
     <t xml:space="preserve">4.42541313171387</t>
@@ -3107,22 +3107,22 @@
     <t xml:space="preserve">4.32753658294678</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30831050872803</t>
+    <t xml:space="preserve">4.30831098556519</t>
   </si>
   <si>
     <t xml:space="preserve">4.45337820053101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40269136428833</t>
+    <t xml:space="preserve">4.40269088745117</t>
   </si>
   <si>
     <t xml:space="preserve">4.35812282562256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27859878540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30481481552124</t>
+    <t xml:space="preserve">4.27859830856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3048152923584</t>
   </si>
   <si>
     <t xml:space="preserve">4.2995719909668</t>
@@ -3131,61 +3131,61 @@
     <t xml:space="preserve">4.21742582321167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17722606658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20606565475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2182993888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19208240509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04788970947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05313301086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03390693664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98496866226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95088648796082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00769090652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17460441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1781005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06274604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79620742797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75425982475281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7228000164032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64677119255066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58210253715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72979187965393</t>
+    <t xml:space="preserve">4.17722654342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20606517791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21829986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19208335876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04788875579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0531325340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03390789031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98496913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95088672637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0076904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17460489273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17810010910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06274557113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79620766639709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75426077842712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72280025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64677095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58210277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72979140281677</t>
   </si>
   <si>
     <t xml:space="preserve">3.61006736755371</t>
@@ -3194,88 +3194,88 @@
     <t xml:space="preserve">3.72367405891418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6284191608429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71231365203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74901700019836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85213685035706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77523398399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8905885219574</t>
+    <t xml:space="preserve">3.62841939926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71231341362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74901652336121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8521363735199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77523350715637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89058828353882</t>
   </si>
   <si>
     <t xml:space="preserve">3.86349701881409</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79882955551147</t>
+    <t xml:space="preserve">3.79882884025574</t>
   </si>
   <si>
     <t xml:space="preserve">3.70444774627686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80319905281067</t>
+    <t xml:space="preserve">3.80319833755493</t>
   </si>
   <si>
     <t xml:space="preserve">3.6135630607605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74377369880676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82329750061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91243529319763</t>
+    <t xml:space="preserve">3.74377298355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82329797744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91243577003479</t>
   </si>
   <si>
     <t xml:space="preserve">3.81543350219727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83553218841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87048864364624</t>
+    <t xml:space="preserve">3.83553242683411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87048840522766</t>
   </si>
   <si>
     <t xml:space="preserve">3.76824235916138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66337513923645</t>
+    <t xml:space="preserve">3.66337490081787</t>
   </si>
   <si>
     <t xml:space="preserve">3.55326390266418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34527683258057</t>
+    <t xml:space="preserve">3.34527635574341</t>
   </si>
   <si>
     <t xml:space="preserve">3.55850744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74464774131775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83291172981262</t>
+    <t xml:space="preserve">3.74464750289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83291101455688</t>
   </si>
   <si>
     <t xml:space="preserve">4.42191743850708</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3991961479187</t>
+    <t xml:space="preserve">4.39919567108154</t>
   </si>
   <si>
     <t xml:space="preserve">4.81866645812988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88857793807983</t>
+    <t xml:space="preserve">4.88857889175415</t>
   </si>
   <si>
     <t xml:space="preserve">4.89906454086304</t>
@@ -3284,97 +3284,97 @@
     <t xml:space="preserve">4.93052577972412</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00393199920654</t>
+    <t xml:space="preserve">5.00393295288086</t>
   </si>
   <si>
     <t xml:space="preserve">5.39194297790527</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49506235122681</t>
+    <t xml:space="preserve">5.49506282806396</t>
   </si>
   <si>
     <t xml:space="preserve">5.55973148345947</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47583627700806</t>
+    <t xml:space="preserve">5.47583723068237</t>
   </si>
   <si>
     <t xml:space="preserve">5.46185493469238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68633890151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04515981674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98682928085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90552043914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92496299743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73229598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82067584991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84895706176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88430881500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12470102310181</t>
+    <t xml:space="preserve">5.68633842468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04515933990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98682880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90551948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92496347427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73229551315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82067537307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84895610809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8843092918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12470054626465</t>
   </si>
   <si>
     <t xml:space="preserve">6.01334285736084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02218008041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02571582794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11763048171997</t>
+    <t xml:space="preserve">6.02218103408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02571535110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11763095855713</t>
   </si>
   <si>
     <t xml:space="preserve">6.00980806350708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93203401565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00450468063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97445631027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03278732299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94440698623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78885841369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77295112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93380165100098</t>
+    <t xml:space="preserve">5.93203353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0045051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9744553565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03278589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94440650939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78885889053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77295017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93380069732666</t>
   </si>
   <si>
     <t xml:space="preserve">5.89137935638428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8118371963501</t>
+    <t xml:space="preserve">5.81183767318726</t>
   </si>
   <si>
     <t xml:space="preserve">5.8542594909668</t>
@@ -3383,31 +3383,31 @@
     <t xml:space="preserve">5.77648544311523</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98329401016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30322694778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29438924789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25903797149658</t>
+    <t xml:space="preserve">5.98329305648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30322742462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29438972473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25903749465942</t>
   </si>
   <si>
     <t xml:space="preserve">6.14591217041016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32267141342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23429155349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28908729553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96561765670776</t>
+    <t xml:space="preserve">6.32267093658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23429107666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28908634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96561861038208</t>
   </si>
   <si>
     <t xml:space="preserve">5.94970989227295</t>
@@ -3416,76 +3416,76 @@
     <t xml:space="preserve">5.7588095664978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55907154083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46008682250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53255891799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6280083656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79946422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68280267715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6739649772644</t>
+    <t xml:space="preserve">5.55907201766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46008729934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53255844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62800788879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79946374893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6828031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67396545410156</t>
   </si>
   <si>
     <t xml:space="preserve">5.90905523300171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00273704528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12293338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25196743011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14060878753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21484804153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22191858291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28378391265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65497875213623</t>
+    <t xml:space="preserve">6.00273752212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12293386459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25196695327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14060926437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21484851837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2219181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28378438949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65497827529907</t>
   </si>
   <si>
     <t xml:space="preserve">6.66558361053467</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51533889770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36332559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39514207839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63553476333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56659841537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79461812973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72790622711182</t>
+    <t xml:space="preserve">6.51533842086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36332511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3951416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63553428649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56659889221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79461717605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72790575027466</t>
   </si>
   <si>
     <t xml:space="preserve">7.6412935256958</t>
@@ -3494,25 +3494,25 @@
     <t xml:space="preserve">7.81805229187012</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94531965255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9276442527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20869159698486</t>
+    <t xml:space="preserve">7.94531869888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92764472961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20869064331055</t>
   </si>
   <si>
     <t xml:space="preserve">8.46322345733643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58695507049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44024562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55160236358643</t>
+    <t xml:space="preserve">8.58695411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44024467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55160140991211</t>
   </si>
   <si>
     <t xml:space="preserve">8.75841045379639</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">8.76371383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54630088806152</t>
+    <t xml:space="preserve">8.54629993438721</t>
   </si>
   <si>
     <t xml:space="preserve">8.57104587554932</t>
@@ -3542,37 +3542,37 @@
     <t xml:space="preserve">8.03369903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33242321014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10970592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40489196777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45085048675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53569602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49503898620605</t>
+    <t xml:space="preserve">8.33242130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10970497131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40489292144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45084953308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53569507598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49503993988037</t>
   </si>
   <si>
     <t xml:space="preserve">8.54099655151367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54983425140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41549873352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19985198974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11324119567871</t>
+    <t xml:space="preserve">8.54983520507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41549777984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19985008239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11324024200439</t>
   </si>
   <si>
     <t xml:space="preserve">8.05491065979004</t>
@@ -3587,34 +3587,34 @@
     <t xml:space="preserve">8.12561321258545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10086822509766</t>
+    <t xml:space="preserve">8.10086631774902</t>
   </si>
   <si>
     <t xml:space="preserve">8.15919780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79684066772461</t>
+    <t xml:space="preserve">7.79684114456177</t>
   </si>
   <si>
     <t xml:space="preserve">7.87638330459595</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86931324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84810018539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11854362487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94885301589966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21576023101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65896940231323</t>
+    <t xml:space="preserve">7.86931276321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84810161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1185417175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94885396957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21575927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65896892547607</t>
   </si>
   <si>
     <t xml:space="preserve">7.91703748703003</t>
@@ -3626,52 +3626,52 @@
     <t xml:space="preserve">8.05314254760742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41372966766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56751251220703</t>
+    <t xml:space="preserve">8.41373157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5675106048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.65412330627441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44908237457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73366355895996</t>
+    <t xml:space="preserve">8.44908332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73366451263428</t>
   </si>
   <si>
     <t xml:space="preserve">8.64174938201904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66119289398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56927967071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33418941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28292942047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36070251464844</t>
+    <t xml:space="preserve">8.66119384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56927871704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33419036865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28292751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36070346832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.39120388031006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22614288330078</t>
+    <t xml:space="preserve">8.22614192962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.25126075744629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48270511627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39299774169922</t>
+    <t xml:space="preserve">8.48270606994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39299869537354</t>
   </si>
   <si>
     <t xml:space="preserve">8.36967372894287</t>
@@ -3680,49 +3680,49 @@
     <t xml:space="preserve">8.59573554992676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69441509246826</t>
+    <t xml:space="preserve">8.69441318511963</t>
   </si>
   <si>
     <t xml:space="preserve">8.76797389984131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63700199127197</t>
+    <t xml:space="preserve">8.63700103759766</t>
   </si>
   <si>
     <t xml:space="preserve">8.64776611328125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61547183990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55447006225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56702995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74106311798096</t>
+    <t xml:space="preserve">8.61547088623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55447101593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56702899932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74106216430664</t>
   </si>
   <si>
     <t xml:space="preserve">8.583176612854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57241058349609</t>
+    <t xml:space="preserve">8.57241153717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.38043880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2404956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27099704742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35352611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40914535522461</t>
+    <t xml:space="preserve">8.24049472808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3535270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40914440155029</t>
   </si>
   <si>
     <t xml:space="preserve">8.46117496490479</t>
@@ -3731,16 +3731,16 @@
     <t xml:space="preserve">8.50961685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22793579101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22973155975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24587726593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4037618637085</t>
+    <t xml:space="preserve">8.22793674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2297306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24587917327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40376281738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.39838027954102</t>
@@ -3752,28 +3752,28 @@
     <t xml:space="preserve">8.05928707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93908023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82963609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07543563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04672908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87448978424072</t>
+    <t xml:space="preserve">7.93908071517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8296365737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07543468475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04672813415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87449026107788</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263999938965</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87090349197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64842891693115</t>
+    <t xml:space="preserve">7.87090158462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64842796325684</t>
   </si>
   <si>
     <t xml:space="preserve">7.38289546966553</t>
@@ -3782,25 +3782,25 @@
     <t xml:space="preserve">7.51027965545654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65739965438843</t>
+    <t xml:space="preserve">7.65740013122559</t>
   </si>
   <si>
     <t xml:space="preserve">7.57128000259399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65919351577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87987422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80990171432495</t>
+    <t xml:space="preserve">7.65919303894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87987327575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80990076065063</t>
   </si>
   <si>
     <t xml:space="preserve">7.87628412246704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87269639968872</t>
+    <t xml:space="preserve">7.87269735336304</t>
   </si>
   <si>
     <t xml:space="preserve">7.69328165054321</t>
@@ -3809,43 +3809,43 @@
     <t xml:space="preserve">7.75787115097046</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80810785293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70584154129028</t>
+    <t xml:space="preserve">7.80810737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70584058761597</t>
   </si>
   <si>
     <t xml:space="preserve">7.67892932891846</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88884305953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84578466415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90319681167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69866466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73275327682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37392520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31471872329712</t>
+    <t xml:space="preserve">7.88884353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84578514099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89243268966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90319728851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69866371154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73275375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37392425537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31471824645996</t>
   </si>
   <si>
     <t xml:space="preserve">7.45466184616089</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47798538208008</t>
+    <t xml:space="preserve">7.47798585891724</t>
   </si>
   <si>
     <t xml:space="preserve">7.54436779022217</t>
@@ -3860,85 +3860,85 @@
     <t xml:space="preserve">7.65201616287231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74172496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61792755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60357522964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53539705276489</t>
+    <t xml:space="preserve">7.74172401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61792850494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60357475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53539800643921</t>
   </si>
   <si>
     <t xml:space="preserve">7.47977924346924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44748497009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70404720306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65022277832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77760791778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52822065353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24833488464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24654102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62331056594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68431091308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72378253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98393201828003</t>
+    <t xml:space="preserve">7.44748449325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65022373199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77760696411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52822208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2483344078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24654150009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62331008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6843113899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72378158569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98393297195435</t>
   </si>
   <si>
     <t xml:space="preserve">7.94625663757324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01084518432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15617179870605</t>
+    <t xml:space="preserve">8.01084613800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15617084503174</t>
   </si>
   <si>
     <t xml:space="preserve">8.14540481567383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37146759033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09516906738281</t>
+    <t xml:space="preserve">8.37146854400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09517002105713</t>
   </si>
   <si>
     <t xml:space="preserve">8.22255420684814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59932422637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80385684967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65673542022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5437068939209</t>
+    <t xml:space="preserve">8.59932327270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80385589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65673637390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54370594024658</t>
   </si>
   <si>
     <t xml:space="preserve">8.59035301208496</t>
@@ -3953,7 +3953,7 @@
     <t xml:space="preserve">8.91868209838867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07387447357178</t>
+    <t xml:space="preserve">9.07387542724609</t>
   </si>
   <si>
     <t xml:space="preserve">8.8971529006958</t>
@@ -3962,34 +3962,34 @@
     <t xml:space="preserve">8.84691619873047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02902030944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02004909515381</t>
+    <t xml:space="preserve">9.02902126312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02005004882812</t>
   </si>
   <si>
     <t xml:space="preserve">8.88100337982178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6352071762085</t>
+    <t xml:space="preserve">8.63520812988281</t>
   </si>
   <si>
     <t xml:space="preserve">8.63879585266113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87203311920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83794498443604</t>
+    <t xml:space="preserve">8.87203407287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83794403076172</t>
   </si>
   <si>
     <t xml:space="preserve">8.72491359710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27122974395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52689647674561</t>
+    <t xml:space="preserve">9.27123069763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52689552307129</t>
   </si>
   <si>
     <t xml:space="preserve">9.78256034851074</t>
@@ -4001,73 +4001,73 @@
     <t xml:space="preserve">9.41027641296387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31159973144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20843601226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18600749969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99313831329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73926639556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51499938964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71873378753662</t>
+    <t xml:space="preserve">9.311598777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20843696594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18600845336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99313735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73926734924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51499843597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7187328338623</t>
   </si>
   <si>
     <t xml:space="preserve">8.66234302520752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76420974731445</t>
+    <t xml:space="preserve">8.76420879364014</t>
   </si>
   <si>
     <t xml:space="preserve">8.65506649017334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04204368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11480617523193</t>
+    <t xml:space="preserve">8.0420446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11480712890625</t>
   </si>
   <si>
     <t xml:space="preserve">7.87832975387573</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20394229888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1257209777832</t>
+    <t xml:space="preserve">8.20394039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12572193145752</t>
   </si>
   <si>
     <t xml:space="preserve">8.14936923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26942729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45315074920654</t>
+    <t xml:space="preserve">8.2694263458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45314979553223</t>
   </si>
   <si>
     <t xml:space="preserve">8.34946537017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18211269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11116981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03840732574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30762767791748</t>
+    <t xml:space="preserve">8.18211078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11116886138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03840637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30762672424316</t>
   </si>
   <si>
     <t xml:space="preserve">8.05113983154297</t>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">8.21121692657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02749252319336</t>
+    <t xml:space="preserve">8.02749347686768</t>
   </si>
   <si>
     <t xml:space="preserve">8.29125499725342</t>
@@ -4091,28 +4091,28 @@
     <t xml:space="preserve">8.30398845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39312267303467</t>
+    <t xml:space="preserve">8.39312171936035</t>
   </si>
   <si>
     <t xml:space="preserve">8.46042728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44587421417236</t>
+    <t xml:space="preserve">8.44587516784668</t>
   </si>
   <si>
     <t xml:space="preserve">8.37675094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70781803131104</t>
+    <t xml:space="preserve">8.70781993865967</t>
   </si>
   <si>
     <t xml:space="preserve">8.82787704467773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89518165588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89700126647949</t>
+    <t xml:space="preserve">8.89518070220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89700031280518</t>
   </si>
   <si>
     <t xml:space="preserve">8.91155338287354</t>
@@ -4121,19 +4121,19 @@
     <t xml:space="preserve">8.86607646942139</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04798316955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12711048126221</t>
+    <t xml:space="preserve">9.04798126220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12711238861084</t>
   </si>
   <si>
     <t xml:space="preserve">9.1498498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33175563812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55458927154541</t>
+    <t xml:space="preserve">9.33175468444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55459022521973</t>
   </si>
   <si>
     <t xml:space="preserve">9.7546854019165</t>
@@ -4145,34 +4145,34 @@
     <t xml:space="preserve">9.42270755767822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95884799957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37268447875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730199813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88656711578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3731632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3140449523926</t>
+    <t xml:space="preserve">8.95884990692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37268352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730209350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88656806945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3731641769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3140459060669</t>
   </si>
   <si>
     <t xml:space="preserve">10.1821632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3868083953857</t>
+    <t xml:space="preserve">10.3868074417114</t>
   </si>
   <si>
     <t xml:space="preserve">10.3959035873413</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3049507141113</t>
+    <t xml:space="preserve">10.304949760437</t>
   </si>
   <si>
     <t xml:space="preserve">10.4140930175781</t>
@@ -4181,13 +4181,13 @@
     <t xml:space="preserve">10.5186882019043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.627833366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4641170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5414266586304</t>
+    <t xml:space="preserve">10.6278324127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4641160964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5414276123047</t>
   </si>
   <si>
     <t xml:space="preserve">10.7824516296387</t>
@@ -4199,13 +4199,13 @@
     <t xml:space="preserve">10.2822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95932865142822</t>
+    <t xml:space="preserve">9.95932960510254</t>
   </si>
   <si>
     <t xml:space="preserve">10.0411863327026</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93659210205078</t>
+    <t xml:space="preserve">9.93659114837646</t>
   </si>
   <si>
     <t xml:space="preserve">9.82744789123535</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">10.1321401596069</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4959516525269</t>
+    <t xml:space="preserve">10.4959506988525</t>
   </si>
   <si>
     <t xml:space="preserve">10.4049968719482</t>
@@ -4235,22 +4235,22 @@
     <t xml:space="preserve">12.2558870315552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5782890319824</t>
+    <t xml:space="preserve">11.5782880783081</t>
   </si>
   <si>
     <t xml:space="preserve">11.7601938247681</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7556457519531</t>
+    <t xml:space="preserve">11.7556476593018</t>
   </si>
   <si>
     <t xml:space="preserve">11.4645967483521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0825958251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.319073677063</t>
+    <t xml:space="preserve">11.0825967788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3190727233887</t>
   </si>
   <si>
     <t xml:space="preserve">11.5009794235229</t>
@@ -4268,34 +4268,34 @@
     <t xml:space="preserve">12.6469841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9607715606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6651735305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3195543289185</t>
+    <t xml:space="preserve">12.9607706069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6651744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3195533752441</t>
   </si>
   <si>
     <t xml:space="preserve">12.5287446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.510555267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6333417892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6242446899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7288417816162</t>
+    <t xml:space="preserve">12.5105543136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6333408355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6242456436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7288408279419</t>
   </si>
   <si>
     <t xml:space="preserve">12.5878648757935</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6424369812012</t>
+    <t xml:space="preserve">12.6424360275269</t>
   </si>
   <si>
     <t xml:space="preserve">13.2108907699585</t>
@@ -4304,19 +4304,19 @@
     <t xml:space="preserve">13.0881052017212</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5110349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6247262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6974897384644</t>
+    <t xml:space="preserve">13.5110340118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6247253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.69748878479</t>
   </si>
   <si>
     <t xml:space="preserve">13.6656551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6338205337524</t>
+    <t xml:space="preserve">13.6338214874268</t>
   </si>
   <si>
     <t xml:space="preserve">13.2654619216919</t>
@@ -4331,34 +4331,34 @@
     <t xml:space="preserve">12.7379369735718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4701061248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9516744613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5428686141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3882493972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245820999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2199869155884</t>
+    <t xml:space="preserve">13.4701070785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9516754150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5428695678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3882484436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245811462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2199859619141</t>
   </si>
   <si>
     <t xml:space="preserve">12.7151985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8425312042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.283652305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9334859848022</t>
+    <t xml:space="preserve">12.8425321578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2836532592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9334850311279</t>
   </si>
   <si>
     <t xml:space="preserve">13.4200830459595</t>
@@ -4373,19 +4373,19 @@
     <t xml:space="preserve">14.0931329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7293214797974</t>
+    <t xml:space="preserve">13.7293224334717</t>
   </si>
   <si>
     <t xml:space="preserve">13.9112272262573</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2216005325317</t>
+    <t xml:space="preserve">14.2216014862061</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270376205444</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2818222045898</t>
+    <t xml:space="preserve">14.2818231582642</t>
   </si>
   <si>
     <t xml:space="preserve">14.6709480285645</t>
@@ -4394,28 +4394,28 @@
     <t xml:space="preserve">14.8516139984131</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0276441574097</t>
+    <t xml:space="preserve">15.0276460647583</t>
   </si>
   <si>
     <t xml:space="preserve">14.4763851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5875644683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6199913024902</t>
+    <t xml:space="preserve">14.5875635147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6199903488159</t>
   </si>
   <si>
     <t xml:space="preserve">14.5736665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7219038009644</t>
+    <t xml:space="preserve">14.721905708313</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284502029419</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7867593765259</t>
+    <t xml:space="preserve">14.7867584228516</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382169723511</t>
@@ -4436,7 +4436,7 @@
     <t xml:space="preserve">12.192590713501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0119247436523</t>
+    <t xml:space="preserve">12.0119256973267</t>
   </si>
   <si>
     <t xml:space="preserve">12.2389154434204</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">12.3084011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6737575531006</t>
+    <t xml:space="preserve">11.6737565994263</t>
   </si>
   <si>
     <t xml:space="preserve">11.3216915130615</t>
@@ -4454,7 +4454,7 @@
     <t xml:space="preserve">11.5347833633423</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5533142089844</t>
+    <t xml:space="preserve">11.5533132553101</t>
   </si>
   <si>
     <t xml:space="preserve">11.8405246734619</t>
@@ -4463,16 +4463,16 @@
     <t xml:space="preserve">11.6644926071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1549224853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5625782012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6082944869995</t>
+    <t xml:space="preserve">11.3680171966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1549234390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5625772476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6082954406738</t>
   </si>
   <si>
     <t xml:space="preserve">10.2886562347412</t>
@@ -4481,37 +4481,37 @@
     <t xml:space="preserve">11.3309564590454</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7478771209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8173627853394</t>
+    <t xml:space="preserve">11.7478761672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8173637390137</t>
   </si>
   <si>
     <t xml:space="preserve">11.7154493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">11.581109046936</t>
+    <t xml:space="preserve">11.5811071395874</t>
   </si>
   <si>
     <t xml:space="preserve">11.1132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938966751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7525091171265</t>
+    <t xml:space="preserve">11.2938947677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7525081634521</t>
   </si>
   <si>
     <t xml:space="preserve">11.789568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6691246032715</t>
+    <t xml:space="preserve">11.6691255569458</t>
   </si>
   <si>
     <t xml:space="preserve">11.4421358108521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5718431472778</t>
+    <t xml:space="preserve">11.5718441009521</t>
   </si>
   <si>
     <t xml:space="preserve">11.6969194412231</t>
@@ -4520,7 +4520,7 @@
     <t xml:space="preserve">12.0628824234009</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2157535552979</t>
+    <t xml:space="preserve">12.2157526016235</t>
   </si>
   <si>
     <t xml:space="preserve">12.6048774719238</t>
@@ -4532,61 +4532,61 @@
     <t xml:space="preserve">12.2945051193237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1555299758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6922874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.914644241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0350866317749</t>
+    <t xml:space="preserve">12.1555309295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.692286491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9146451950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0350875854492</t>
   </si>
   <si>
     <t xml:space="preserve">11.9053792953491</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1972227096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1694288253784</t>
+    <t xml:space="preserve">12.1972236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1694278717041</t>
   </si>
   <si>
     <t xml:space="preserve">11.9378070831299</t>
   </si>
   <si>
-    <t xml:space="preserve">12.317666053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8961153030396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9476795196533</t>
+    <t xml:space="preserve">12.3176670074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8961143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.947678565979</t>
   </si>
   <si>
     <t xml:space="preserve">12.8318681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0681219100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8828239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7484846115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7392196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.683629989624</t>
+    <t xml:space="preserve">13.0681228637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8828248977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7484836578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.739218711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6836290359497</t>
   </si>
   <si>
     <t xml:space="preserve">13.1144466400146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2348909378052</t>
+    <t xml:space="preserve">13.2348899841309</t>
   </si>
   <si>
     <t xml:space="preserve">12.7809114456177</t>
@@ -4595,7 +4595,7 @@
     <t xml:space="preserve">12.3778877258301</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3825216293335</t>
+    <t xml:space="preserve">12.3825206756592</t>
   </si>
   <si>
     <t xml:space="preserve">12.9986362457275</t>
@@ -4607,10 +4607,10 @@
     <t xml:space="preserve">13.2024631500244</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1978302001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.905987739563</t>
+    <t xml:space="preserve">13.1978311538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9059867858887</t>
   </si>
   <si>
     <t xml:space="preserve">12.5770835876465</t>
@@ -4622,22 +4622,22 @@
     <t xml:space="preserve">12.4288454055786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7855434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579462051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8080978393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1647958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5214939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2898721694946</t>
+    <t xml:space="preserve">12.7855443954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5579471588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8080968856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1647968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5214948654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2898731231689</t>
   </si>
   <si>
     <t xml:space="preserve">13.1376094818115</t>
@@ -4646,16 +4646,16 @@
     <t xml:space="preserve">13.4433507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7212963104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9019632339478</t>
+    <t xml:space="preserve">13.7212972640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9019622802734</t>
   </si>
   <si>
     <t xml:space="preserve">13.4248199462891</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7948093414307</t>
+    <t xml:space="preserve">12.7948083877563</t>
   </si>
   <si>
     <t xml:space="preserve">12.9106197357178</t>
@@ -4670,10 +4670,10 @@
     <t xml:space="preserve">13.6240158081055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9297571182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8741674423218</t>
+    <t xml:space="preserve">13.9297561645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8741683959961</t>
   </si>
   <si>
     <t xml:space="preserve">14.0455675125122</t>
@@ -4685,28 +4685,28 @@
     <t xml:space="preserve">14.2540283203125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6477870941162</t>
+    <t xml:space="preserve">14.6477861404419</t>
   </si>
   <si>
     <t xml:space="preserve">14.1845417022705</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5505037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9257335662842</t>
+    <t xml:space="preserve">14.5505056381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9257326126099</t>
   </si>
   <si>
     <t xml:space="preserve">14.7589645385742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9674243927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4214038848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5557460784912</t>
+    <t xml:space="preserve">14.9674253463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4214029312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5557451248169</t>
   </si>
   <si>
     <t xml:space="preserve">15.2407388687134</t>
@@ -4715,55 +4715,55 @@
     <t xml:space="preserve">15.1388244628906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5134439468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8191862106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7543334960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538326263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5279493331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0878686904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2083120346069</t>
+    <t xml:space="preserve">14.5134449005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.819185256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7543315887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538307189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5279512405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0878667831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2083110809326</t>
   </si>
   <si>
     <t xml:space="preserve">14.5342578887939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4891653060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1380977630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2317152023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3159732818604</t>
+    <t xml:space="preserve">15.4891662597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1380968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2317161560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.315972328186</t>
   </si>
   <si>
     <t xml:space="preserve">14.8993711471558</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3346948623657</t>
+    <t xml:space="preserve">15.3346939086914</t>
   </si>
   <si>
     <t xml:space="preserve">15.6483182907104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2832069396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0304355621338</t>
+    <t xml:space="preserve">15.2832078933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0304365158081</t>
   </si>
   <si>
     <t xml:space="preserve">14.8010721206665</t>
@@ -4778,7 +4778,7 @@
     <t xml:space="preserve">14.529577255249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4031934738159</t>
+    <t xml:space="preserve">14.4031925201416</t>
   </si>
   <si>
     <t xml:space="preserve">14.2627649307251</t>
@@ -4790,46 +4790,46 @@
     <t xml:space="preserve">14.7776660919189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4921293258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3891506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7074527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9087333679199</t>
+    <t xml:space="preserve">14.492130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3891496658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7074518203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9087324142456</t>
   </si>
   <si>
     <t xml:space="preserve">15.2504405975342</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5219326019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.58278465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.465763092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5125703811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2457590103149</t>
+    <t xml:space="preserve">15.521933555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5827865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4657621383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5125713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2457580566406</t>
   </si>
   <si>
     <t xml:space="preserve">15.7466173171997</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2036294937134</t>
+    <t xml:space="preserve">15.2036304473877</t>
   </si>
   <si>
     <t xml:space="preserve">14.1316995620728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5436201095581</t>
+    <t xml:space="preserve">14.5436191558838</t>
   </si>
   <si>
     <t xml:space="preserve">14.7683038711548</t>
@@ -4859,7 +4859,7 @@
     <t xml:space="preserve">16.0976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3066110610962</t>
+    <t xml:space="preserve">15.3066101074219</t>
   </si>
   <si>
     <t xml:space="preserve">15.4938459396362</t>
@@ -4874,16 +4874,16 @@
     <t xml:space="preserve">15.0725650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4142732620239</t>
+    <t xml:space="preserve">15.4142713546753</t>
   </si>
   <si>
     <t xml:space="preserve">15.1802253723145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2129917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.885326385498</t>
+    <t xml:space="preserve">15.2129926681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8853273391724</t>
   </si>
   <si>
     <t xml:space="preserve">14.3704261779785</t>
@@ -4895,10 +4895,10 @@
     <t xml:space="preserve">14.1691465377808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2768077850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6419200897217</t>
+    <t xml:space="preserve">14.2768087387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6419191360474</t>
   </si>
   <si>
     <t xml:space="preserve">14.8900079727173</t>
@@ -4907,22 +4907,22 @@
     <t xml:space="preserve">14.84787940979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1615018844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2381114959717</t>
+    <t xml:space="preserve">15.1615009307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2381134033203</t>
   </si>
   <si>
     <t xml:space="preserve">15.4610805511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2223529815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7308568954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.997670173645</t>
+    <t xml:space="preserve">15.2223539352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7308578491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9976692199707</t>
   </si>
   <si>
     <t xml:space="preserve">14.6793670654297</t>
@@ -4934,13 +4934,13 @@
     <t xml:space="preserve">15.1053314208984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1521396636963</t>
+    <t xml:space="preserve">15.152138710022</t>
   </si>
   <si>
     <t xml:space="preserve">15.2598009109497</t>
   </si>
   <si>
-    <t xml:space="preserve">15.339376449585</t>
+    <t xml:space="preserve">15.3393774032593</t>
   </si>
   <si>
     <t xml:space="preserve">14.7636241912842</t>
@@ -4949,19 +4949,19 @@
     <t xml:space="preserve">14.4593629837036</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6121168136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8087158203125</t>
+    <t xml:space="preserve">13.612117767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8087148666382</t>
   </si>
   <si>
     <t xml:space="preserve">12.5729532241821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6057195663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3763551712036</t>
+    <t xml:space="preserve">12.6057186126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3763542175293</t>
   </si>
   <si>
     <t xml:space="preserve">12.4091205596924</t>
@@ -4982,7 +4982,7 @@
     <t xml:space="preserve">12.1189031600952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4793348312378</t>
+    <t xml:space="preserve">12.4793338775635</t>
   </si>
   <si>
     <t xml:space="preserve">12.4138021469116</t>
@@ -5000,13 +5000,13 @@
     <t xml:space="preserve">12.320182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1657123565674</t>
+    <t xml:space="preserve">12.1657114028931</t>
   </si>
   <si>
     <t xml:space="preserve">12.1329460144043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4606113433838</t>
+    <t xml:space="preserve">12.4606103897095</t>
   </si>
   <si>
     <t xml:space="preserve">12.6244430541992</t>
@@ -5015,10 +5015,10 @@
     <t xml:space="preserve">12.582314491272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4840145111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4231643676758</t>
+    <t xml:space="preserve">12.4840154647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4231634140015</t>
   </si>
   <si>
     <t xml:space="preserve">12.2874164581299</t>
@@ -5030,10 +5030,10 @@
     <t xml:space="preserve">12.2172031402588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1282644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8801755905151</t>
+    <t xml:space="preserve">12.1282653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8801765441895</t>
   </si>
   <si>
     <t xml:space="preserve">11.5618743896484</t>
@@ -5048,13 +5048,13 @@
     <t xml:space="preserve">11.6274061203003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7210264205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023019790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4682559967041</t>
+    <t xml:space="preserve">11.7210254669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4682550430298</t>
   </si>
   <si>
     <t xml:space="preserve">11.3371896743774</t>
@@ -5063,7 +5063,7 @@
     <t xml:space="preserve">11.4729356765747</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4354887008667</t>
+    <t xml:space="preserve">11.435489654541</t>
   </si>
   <si>
     <t xml:space="preserve">11.3559141159058</t>
@@ -5856,6 +5856,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.1450004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2550001144409</t>
   </si>
 </sst>
 </file>
@@ -62591,7 +62594,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6496180556</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>2022194</v>
@@ -62612,6 +62615,32 @@
         <v>1945</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6501388889</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>1925815</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>14.2799997329712</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>14.1300001144409</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>14.2349996566772</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>14.2550001144409</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="1951">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,130 +38,130 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30197906494141</t>
+    <t xml:space="preserve">8.30197811126709</t>
   </si>
   <si>
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735229492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1174898147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88687944412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58708477020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50252819061279</t>
+    <t xml:space="preserve">8.31735134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11748790740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88687992095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58708572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50252771377563</t>
   </si>
   <si>
     <t xml:space="preserve">7.46409225463867</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51021575927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45640516281128</t>
+    <t xml:space="preserve">7.51021671295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45640707015991</t>
   </si>
   <si>
     <t xml:space="preserve">6.98749971389771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92600250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508199691772</t>
+    <t xml:space="preserve">6.92600154876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14508152008057</t>
   </si>
   <si>
     <t xml:space="preserve">6.74151420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99518585205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17582988739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2642297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19888925552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84528875350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8683500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797018051147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78379106521606</t>
+    <t xml:space="preserve">6.99518632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17582941055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14892530441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26422929763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28729152679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19889068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84528827667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86834955215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41797113418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7837929725647</t>
   </si>
   <si>
     <t xml:space="preserve">6.64158201217651</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17198657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33341503143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10664749145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53712177276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44487476348877</t>
+    <t xml:space="preserve">7.1719856262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33341407775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1066460609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53712129592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44487571716309</t>
   </si>
   <si>
     <t xml:space="preserve">7.20273447036743</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50637102127075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23348379135132</t>
+    <t xml:space="preserve">7.50637292861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.233482837677</t>
   </si>
   <si>
     <t xml:space="preserve">6.89909839630127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91062688827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55633783340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72545194625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90993785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85613107681274</t>
+    <t xml:space="preserve">6.91062784194946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55633735656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72545146942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90994071960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85613250732422</t>
   </si>
   <si>
     <t xml:space="preserve">8.02524662017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34810066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44034290313721</t>
+    <t xml:space="preserve">8.34809875488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44034385681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.13286209106445</t>
@@ -173,58 +173,58 @@
     <t xml:space="preserve">8.00218296051025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24816989898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15592288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39422130584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24048328399658</t>
+    <t xml:space="preserve">8.24816799163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15592479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39422225952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24048042297363</t>
   </si>
   <si>
     <t xml:space="preserve">8.20204734802246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38653564453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14055061340332</t>
+    <t xml:space="preserve">8.38653469085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14055156707764</t>
   </si>
   <si>
     <t xml:space="preserve">8.08674144744873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41728401184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25585460662842</t>
+    <t xml:space="preserve">8.41728210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25585556030273</t>
   </si>
   <si>
     <t xml:space="preserve">7.94068765640259</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07905578613281</t>
+    <t xml:space="preserve">8.07905292510986</t>
   </si>
   <si>
     <t xml:space="preserve">8.05599212646484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51721572875977</t>
+    <t xml:space="preserve">8.51721382141113</t>
   </si>
   <si>
     <t xml:space="preserve">8.55564975738525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61714649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87850379943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87081813812256</t>
+    <t xml:space="preserve">8.61714458465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87850475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87081718444824</t>
   </si>
   <si>
     <t xml:space="preserve">8.90925216674805</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">9.17061042785645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30897426605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.347412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40121936798096</t>
+    <t xml:space="preserve">9.30897521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34741020202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40122127532959</t>
   </si>
   <si>
     <t xml:space="preserve">9.10911560058594</t>
@@ -248,55 +248,55 @@
     <t xml:space="preserve">9.27822875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28591537475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05530643463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93231391906738</t>
+    <t xml:space="preserve">9.28591632843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05530738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93231296539307</t>
   </si>
   <si>
     <t xml:space="preserve">8.45571804046631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40959739685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85544490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69401741027832</t>
+    <t xml:space="preserve">8.40959644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85544300079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.694016456604</t>
   </si>
   <si>
     <t xml:space="preserve">8.66326808929443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74782466888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75551319122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91694068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11680221557617</t>
+    <t xml:space="preserve">8.74782562255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75551128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9169397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11680126190186</t>
   </si>
   <si>
     <t xml:space="preserve">9.14755153656006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84775638580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03224658966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09535312652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20578956604004</t>
+    <t xml:space="preserve">8.84775543212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03224563598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09535026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20578861236572</t>
   </si>
   <si>
     <t xml:space="preserve">9.22945404052734</t>
@@ -305,25 +305,25 @@
     <t xml:space="preserve">9.44244384765625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46610641479492</t>
+    <t xml:space="preserve">9.46610736846924</t>
   </si>
   <si>
     <t xml:space="preserve">9.47399711608887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39511203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28467273712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15057182312012</t>
+    <t xml:space="preserve">9.39511108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2846736907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1505708694458</t>
   </si>
   <si>
     <t xml:space="preserve">9.11901664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57654571533203</t>
+    <t xml:space="preserve">9.57654476165771</t>
   </si>
   <si>
     <t xml:space="preserve">10.0498495101929</t>
@@ -332,49 +332,49 @@
     <t xml:space="preserve">10.2233963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0419607162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0104074478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78953266143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65542888641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85264015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6712064743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91574859619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1918430328369</t>
+    <t xml:space="preserve">10.0419626235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0104084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78953170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65542793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85263919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67120552062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91574764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1918420791626</t>
   </si>
   <si>
     <t xml:space="preserve">9.93941402435303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.333833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81319999694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53710174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6396541595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1366243362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2628393173218</t>
+    <t xml:space="preserve">10.3338327407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81319904327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5371036529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63965320587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1366262435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2628383636475</t>
   </si>
   <si>
     <t xml:space="preserve">10.4048299789429</t>
@@ -392,40 +392,40 @@
     <t xml:space="preserve">9.90785884857178</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0261869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1839542388916</t>
+    <t xml:space="preserve">10.0261840820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1839551925659</t>
   </si>
   <si>
     <t xml:space="preserve">10.2786149978638</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99463176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1129570007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71853542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88419246673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68698310852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56076717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66331672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59232330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30834007263184</t>
+    <t xml:space="preserve">9.99463367462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1129579544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71853733062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88419437408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68698215484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56077003479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6633186340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59232234954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30833911895752</t>
   </si>
   <si>
     <t xml:space="preserve">9.43455219268799</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">9.18212413787842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04013156890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22156715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48977279663086</t>
+    <t xml:space="preserve">9.04013252258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22156429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48977184295654</t>
   </si>
   <si>
     <t xml:space="preserve">9.69487190246582</t>
@@ -452,16 +452,16 @@
     <t xml:space="preserve">9.87630653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0025205612183</t>
+    <t xml:space="preserve">10.0025224685669</t>
   </si>
   <si>
     <t xml:space="preserve">10.2312841415405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.176064491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.152400970459</t>
+    <t xml:space="preserve">10.1760654449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523990631104</t>
   </si>
   <si>
     <t xml:space="preserve">10.0340738296509</t>
@@ -470,25 +470,25 @@
     <t xml:space="preserve">9.97096633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58443546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72642517089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80531024932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60021018981934</t>
+    <t xml:space="preserve">9.58443450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7264232635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8053092956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60021209716797</t>
   </si>
   <si>
     <t xml:space="preserve">9.33989238739014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13479423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19001293182373</t>
+    <t xml:space="preserve">9.13479232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19001197814941</t>
   </si>
   <si>
     <t xml:space="preserve">9.36355781555176</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">9.24523067474365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1426830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16634845733643</t>
+    <t xml:space="preserve">9.14268207550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16634750366211</t>
   </si>
   <si>
     <t xml:space="preserve">9.38722324371338</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">9.02435493469238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86841678619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0182962417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1681785583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2943916320801</t>
+    <t xml:space="preserve">9.86841773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0182971954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1681756973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2943925857544</t>
   </si>
   <si>
     <t xml:space="preserve">10.2707262039185</t>
@@ -533,34 +533,34 @@
     <t xml:space="preserve">10.491602897644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1602869033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3732757568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3496103286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4837141036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862636566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.538932800293</t>
+    <t xml:space="preserve">10.1602878570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3732748031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4837131500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862617492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5389337539673</t>
   </si>
   <si>
     <t xml:space="preserve">10.5547094345093</t>
   </si>
   <si>
-    <t xml:space="preserve">10.507378578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6099281311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022804260254</t>
+    <t xml:space="preserve">10.5073776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6099300384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.302282333374</t>
   </si>
   <si>
     <t xml:space="preserve">10.4363842010498</t>
@@ -572,28 +572,28 @@
     <t xml:space="preserve">9.79742050170898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8386936187744</t>
+    <t xml:space="preserve">10.8386926651001</t>
   </si>
   <si>
     <t xml:space="preserve">11.2567806243896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1936712265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3987712860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5328750610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5249872207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092105865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041095733643</t>
+    <t xml:space="preserve">11.1936721801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3987703323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5328731536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5249843597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041105270386</t>
   </si>
   <si>
     <t xml:space="preserve">11.7260236740112</t>
@@ -602,40 +602,40 @@
     <t xml:space="preserve">11.3916778564453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6304979324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6703014373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4235210418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966840744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4902458190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3787975311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6892623901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8564338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7370262145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8882780075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2385444641113</t>
+    <t xml:space="preserve">11.6304950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6702995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4235200881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2563457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966850280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4902467727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3787956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6892614364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8564348220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7370252609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8882761001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.23854637146</t>
   </si>
   <si>
     <t xml:space="preserve">13.0474901199341</t>
@@ -644,25 +644,25 @@
     <t xml:space="preserve">12.9599227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0952548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9838037490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0395288467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2226238250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1270952224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2783489227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5251293182373</t>
+    <t xml:space="preserve">13.0952558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9838056564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0395278930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2226247787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1270980834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2783508300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.525128364563</t>
   </si>
   <si>
     <t xml:space="preserve">13.6843404769897</t>
@@ -671,67 +671,67 @@
     <t xml:space="preserve">13.7082223892212</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5092077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7321043014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763782501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6524982452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5808544158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5649328231812</t>
+    <t xml:space="preserve">13.5092067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.732105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6524991989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5808525085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5649337768555</t>
   </si>
   <si>
     <t xml:space="preserve">13.4694051742554</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659172058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5171670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4534845352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2146635055542</t>
+    <t xml:space="preserve">13.3659181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5171661376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4534816741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2146654129028</t>
   </si>
   <si>
     <t xml:space="preserve">13.4614429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5569734573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.389799118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499965667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6923007965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7161855697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5490102767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.880316734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8723554611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7847890853882</t>
+    <t xml:space="preserve">13.5569725036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.389796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3499937057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6923027038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7161846160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490121841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8803157806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8723564147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7847881317139</t>
   </si>
   <si>
     <t xml:space="preserve">12.9519624710083</t>
@@ -740,13 +740,13 @@
     <t xml:space="preserve">12.7768278121948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.808669090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5220880508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7290658950806</t>
+    <t xml:space="preserve">12.8086709976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.522087097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7290639877319</t>
   </si>
   <si>
     <t xml:space="preserve">12.8166313171387</t>
@@ -755,133 +755,133 @@
     <t xml:space="preserve">12.9201202392578</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6255741119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4982070922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8484745025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9041976928711</t>
+    <t xml:space="preserve">12.6255779266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4982061386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8484735488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9041967391968</t>
   </si>
   <si>
     <t xml:space="preserve">12.4265604019165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3628730773926</t>
+    <t xml:space="preserve">12.3628749847412</t>
   </si>
   <si>
     <t xml:space="preserve">12.5539321899414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2991895675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1399765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.171820640564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0842533111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7021417617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7180624008179</t>
+    <t xml:space="preserve">12.2991905212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1399784088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1718187332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0842542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7021427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7180633544922</t>
   </si>
   <si>
     <t xml:space="preserve">11.7658262252808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6782598495483</t>
+    <t xml:space="preserve">11.6782608032227</t>
   </si>
   <si>
     <t xml:space="preserve">11.9489221572876</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0285272598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1240558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9091176986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7499055862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7737884521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8533954620361</t>
+    <t xml:space="preserve">12.028528213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1240549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9091196060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.749906539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7737865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8533945083618</t>
   </si>
   <si>
     <t xml:space="preserve">11.5906934738159</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4822845458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4026803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927484512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6972217559814</t>
+    <t xml:space="preserve">12.4822854995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4026794433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927503585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6972227096558</t>
   </si>
   <si>
     <t xml:space="preserve">12.8643951416016</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8405103683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5857725143433</t>
+    <t xml:space="preserve">12.8405132293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5857744216919</t>
   </si>
   <si>
     <t xml:space="preserve">12.0046472549438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1081342697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8931970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.96484375</t>
+    <t xml:space="preserve">12.108136177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8931980133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9648418426514</t>
   </si>
   <si>
     <t xml:space="preserve">11.972804069519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9568853378296</t>
+    <t xml:space="preserve">11.956883430481</t>
   </si>
   <si>
     <t xml:space="preserve">12.1320171356201</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4633207321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474000930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4951639175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3757543563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0652923583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2324628829956</t>
+    <t xml:space="preserve">11.4633226394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474029541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4951648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3757591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0652914047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2324638366699</t>
   </si>
   <si>
     <t xml:space="preserve">11.2245035171509</t>
@@ -890,28 +890,28 @@
     <t xml:space="preserve">11.240424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4155607223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4712839126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3279914855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5747718811035</t>
+    <t xml:space="preserve">11.4155578613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.471284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3279895782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5747728347778</t>
   </si>
   <si>
     <t xml:space="preserve">11.2961492538452</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4872035980225</t>
+    <t xml:space="preserve">11.4872045516968</t>
   </si>
   <si>
     <t xml:space="preserve">11.6170959472656</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5683870315552</t>
+    <t xml:space="preserve">11.5683860778809</t>
   </si>
   <si>
     <t xml:space="preserve">11.6252126693726</t>
@@ -923,55 +923,55 @@
     <t xml:space="preserve">11.3491945266724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2193021774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787157058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9189319610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0488233566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082330703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9838771820068</t>
+    <t xml:space="preserve">11.2193040847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9189310073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0488243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082321166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9838762283325</t>
   </si>
   <si>
     <t xml:space="preserve">10.7971591949463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9676418304443</t>
+    <t xml:space="preserve">10.96764087677</t>
   </si>
   <si>
     <t xml:space="preserve">11.3735504150391</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0650606155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1137666702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8783435821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9351673126221</t>
+    <t xml:space="preserve">11.0650596618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1137685775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8783416748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9351692199707</t>
   </si>
   <si>
     <t xml:space="preserve">10.8377513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8458681106567</t>
+    <t xml:space="preserve">10.8458700180054</t>
   </si>
   <si>
     <t xml:space="preserve">10.8945770263672</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0812950134277</t>
+    <t xml:space="preserve">11.0812969207764</t>
   </si>
   <si>
     <t xml:space="preserve">11.4222583770752</t>
@@ -980,67 +980,67 @@
     <t xml:space="preserve">11.4466133117676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.292368888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1949491500854</t>
+    <t xml:space="preserve">11.2923679351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1949501037598</t>
   </si>
   <si>
     <t xml:space="preserve">10.9026966094971</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0407075881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3654317855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5034399032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6089763641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5359134674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3410768508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0975322723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2030696868896</t>
+    <t xml:space="preserve">11.0407056808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3654327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.503438949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6089773178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5359144210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3410787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0975313186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2030668258667</t>
   </si>
   <si>
     <t xml:space="preserve">10.8702239990234</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6429147720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85545349121094</t>
+    <t xml:space="preserve">10.642915725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373792648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427101135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8554515838623</t>
   </si>
   <si>
     <t xml:space="preserve">9.70932579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79862689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66061687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72556304931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46577930450439</t>
+    <t xml:space="preserve">9.79862594604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66061782836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72556209564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46578216552734</t>
   </si>
   <si>
     <t xml:space="preserve">9.49825286865234</t>
@@ -1049,55 +1049,55 @@
     <t xml:space="preserve">9.44954490661621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40895557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36024570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27906227111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33588981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30341720581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26282787322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19788265228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10858249664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98680973052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09234428405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07610893249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22223663330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52260875701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61190795898438</t>
+    <t xml:space="preserve">9.40895366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3602466583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27906322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3358907699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30341625213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26282691955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1978816986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9868106842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09234619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11670112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07611083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22223472595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52260780334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61190891265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.62814426422119</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41707324981689</t>
+    <t xml:space="preserve">9.41707134246826</t>
   </si>
   <si>
     <t xml:space="preserve">9.65250015258789</t>
@@ -1112,31 +1112,31 @@
     <t xml:space="preserve">9.83109664916992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8392162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78238868713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76615238189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991607666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74179840087891</t>
+    <t xml:space="preserve">9.83921718597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78238964080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76615333557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991798400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74180030822754</t>
   </si>
   <si>
     <t xml:space="preserve">9.70120716094971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60379028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.352126121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32777118682861</t>
+    <t xml:space="preserve">9.60378932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35212707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32777214050293</t>
   </si>
   <si>
     <t xml:space="preserve">9.44142627716064</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">9.1004638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12481880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18164443969727</t>
+    <t xml:space="preserve">9.12481784820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18164539337158</t>
   </si>
   <si>
     <t xml:space="preserve">9.27094554901123</t>
@@ -1163,22 +1163,22 @@
     <t xml:space="preserve">9.53884506225586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6023263931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6835041046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6510334014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5617332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4805517196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587799072266</t>
+    <t xml:space="preserve">10.6023244857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6835069656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6510324478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5617341995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4805507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587789535522</t>
   </si>
   <si>
     <t xml:space="preserve">10.228889465332</t>
@@ -1187,73 +1187,73 @@
     <t xml:space="preserve">9.96910762786865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81486225128174</t>
+    <t xml:space="preserve">9.81486320495605</t>
   </si>
   <si>
     <t xml:space="preserve">9.84733486175537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92939853668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2576398849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2001981735229</t>
+    <t xml:space="preserve">9.9293966293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2576417922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2001972198486</t>
   </si>
   <si>
     <t xml:space="preserve">9.95401382446289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94580745697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.01966381073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.224814414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4545860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3397026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673746109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2986707687378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3971433639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843576431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0043954849243</t>
+    <t xml:space="preserve">9.94580841064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0196628570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.224817276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4545869827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3397016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673727035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2986698150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.397144317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843595504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0043964385986</t>
   </si>
   <si>
     <t xml:space="preserve">10.7418003082275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5940914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7007703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776805877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7089776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8730974197388</t>
+    <t xml:space="preserve">10.5940895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956159591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7007694244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776786804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7089767456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8730983734131</t>
   </si>
   <si>
     <t xml:space="preserve">10.9551591873169</t>
@@ -1262,19 +1262,19 @@
     <t xml:space="preserve">10.9059238433838</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7992429733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9961919784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1931371688843</t>
+    <t xml:space="preserve">10.7992448806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.996190071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1931381225586</t>
   </si>
   <si>
     <t xml:space="preserve">11.1685190200806</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2669916152954</t>
+    <t xml:space="preserve">11.2669925689697</t>
   </si>
   <si>
     <t xml:space="preserve">11.2587862014771</t>
@@ -1286,31 +1286,31 @@
     <t xml:space="preserve">11.6526794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7183294296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4803504943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4229097366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5952367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6855039596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9070682525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9152765274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7921829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.866039276123</t>
+    <t xml:space="preserve">11.7183275222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4803514480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.422908782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5952377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6855030059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9070692062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9152755737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7921838760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8660373687744</t>
   </si>
   <si>
     <t xml:space="preserve">11.9316873550415</t>
@@ -1319,19 +1319,19 @@
     <t xml:space="preserve">11.7675657272339</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5542078018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5090713500977</t>
+    <t xml:space="preserve">11.5542068481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.509072303772</t>
   </si>
   <si>
     <t xml:space="preserve">11.2834043502808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1603136062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8648920059204</t>
+    <t xml:space="preserve">11.1603145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.864893913269</t>
   </si>
   <si>
     <t xml:space="preserve">11.0249118804932</t>
@@ -1346,73 +1346,73 @@
     <t xml:space="preserve">10.438175201416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6105041503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6679458618164</t>
+    <t xml:space="preserve">10.6105051040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6679449081421</t>
   </si>
   <si>
     <t xml:space="preserve">10.8197603225708</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148003578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2464771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1192846298218</t>
+    <t xml:space="preserve">11.1480045318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2464761734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1192808151245</t>
   </si>
   <si>
     <t xml:space="preserve">11.4639387130737</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9645128250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8537302017212</t>
+    <t xml:space="preserve">11.9645109176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8537292480469</t>
   </si>
   <si>
     <t xml:space="preserve">11.5418968200684</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6937122344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.755256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6198539733887</t>
+    <t xml:space="preserve">11.6937103271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7552576065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.619854927063</t>
   </si>
   <si>
     <t xml:space="preserve">11.9193782806396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.354302406311</t>
+    <t xml:space="preserve">12.3543014526367</t>
   </si>
   <si>
     <t xml:space="preserve">12.1737670898438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0876035690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8085966110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7060213088989</t>
+    <t xml:space="preserve">12.0876026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8085947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7060194015503</t>
   </si>
   <si>
     <t xml:space="preserve">11.8906564712524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7429475784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768218994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4035387039185</t>
+    <t xml:space="preserve">11.7429466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768228530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4035396575928</t>
   </si>
   <si>
     <t xml:space="preserve">11.6444730758667</t>
@@ -1421,37 +1421,37 @@
     <t xml:space="preserve">11.1726217269897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2013425827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3490524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2259607315063</t>
+    <t xml:space="preserve">11.201343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3490533828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.225962638855</t>
   </si>
   <si>
     <t xml:space="preserve">11.4475269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4885578155518</t>
+    <t xml:space="preserve">11.4885568618774</t>
   </si>
   <si>
     <t xml:space="preserve">11.4147024154663</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9398946762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7019157409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7347393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0670890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2763452529907</t>
+    <t xml:space="preserve">11.9398937225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7019166946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7347412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0670881271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2763442993164</t>
   </si>
   <si>
     <t xml:space="preserve">12.3050651550293</t>
@@ -1460,127 +1460,127 @@
     <t xml:space="preserve">12.2230052947998</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2106943130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4363622665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5102195739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5471458435059</t>
+    <t xml:space="preserve">12.2106962203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4363632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5102167129517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5471448898315</t>
   </si>
   <si>
     <t xml:space="preserve">12.7276802062988</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8220520019531</t>
+    <t xml:space="preserve">12.8220500946045</t>
   </si>
   <si>
     <t xml:space="preserve">12.5389394760132</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5881767272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4814949035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7769184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2118406295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2405633926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5318784713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2364568710327</t>
+    <t xml:space="preserve">12.5881748199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4814968109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7769165039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.211841583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2405614852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5318803787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.236457824707</t>
   </si>
   <si>
     <t xml:space="preserve">13.4539222717285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3513450622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3964796066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3308305740356</t>
+    <t xml:space="preserve">13.3513460159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3964805603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3308296203613</t>
   </si>
   <si>
     <t xml:space="preserve">13.3923759460449</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6385583877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0857915878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283460617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1868619918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1952028274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698377609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5653266906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2316131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0939588546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1648740768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2357864379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.806134223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9646463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6935081481934</t>
+    <t xml:space="preserve">13.638560295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0857906341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283498764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.186861038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1952047348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698358535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5653247833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2316150665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0939607620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1648731231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2357883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8061351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9646472930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.693507194519</t>
   </si>
   <si>
     <t xml:space="preserve">12.6517934799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.018874168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9813327789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0689315795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0981321334839</t>
+    <t xml:space="preserve">13.0188751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.981333732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0689325332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0981311798096</t>
   </si>
   <si>
     <t xml:space="preserve">12.9396190643311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1565313339233</t>
+    <t xml:space="preserve">13.156530380249</t>
   </si>
   <si>
     <t xml:space="preserve">12.5475091934204</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">12.5683660507202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4390525817871</t>
+    <t xml:space="preserve">12.4390544891357</t>
   </si>
   <si>
     <t xml:space="preserve">12.4807691574097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0856189727783</t>
+    <t xml:space="preserve">13.085618019104</t>
   </si>
   <si>
     <t xml:space="preserve">12.5266532897949</t>
@@ -1604,115 +1604,115 @@
     <t xml:space="preserve">12.5767087936401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2190999984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1440162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1106472015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0480766296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2566442489624</t>
+    <t xml:space="preserve">13.2191009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1106443405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0480756759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2566432952881</t>
   </si>
   <si>
     <t xml:space="preserve">13.2941875457764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2900152206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3567581176758</t>
+    <t xml:space="preserve">13.2900161743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3567571640015</t>
   </si>
   <si>
     <t xml:space="preserve">13.6988096237183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7613830566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3651008605957</t>
+    <t xml:space="preserve">13.761381149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3650999069214</t>
   </si>
   <si>
     <t xml:space="preserve">13.4276704788208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2858448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2274446487427</t>
+    <t xml:space="preserve">13.2858419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2274436950684</t>
   </si>
   <si>
     <t xml:space="preserve">13.2399587631226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1315011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1356744766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9145908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9896764755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0397329330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2263135910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4015102386475</t>
+    <t xml:space="preserve">13.1315040588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1356716156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9145889282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9896745681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0397338867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2263126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4015121459961</t>
   </si>
   <si>
     <t xml:space="preserve">12.4098529815674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6267642974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5808811187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809930801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4640808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.159571647644</t>
+    <t xml:space="preserve">12.626766204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5808792114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809940338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4640817642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1595706939697</t>
   </si>
   <si>
     <t xml:space="preserve">12.0636301040649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428871154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2471694946289</t>
+    <t xml:space="preserve">12.1428861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2471714019775</t>
   </si>
   <si>
     <t xml:space="preserve">12.2221422195435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3514547348022</t>
+    <t xml:space="preserve">12.3514537811279</t>
   </si>
   <si>
     <t xml:space="preserve">12.7435646057129</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5349941253662</t>
+    <t xml:space="preserve">12.5349931716919</t>
   </si>
   <si>
     <t xml:space="preserve">12.5391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8383741378784</t>
+    <t xml:space="preserve">11.8383750915527</t>
   </si>
   <si>
     <t xml:space="preserve">12.0552864074707</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">12.026086807251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9468307495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922651290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4963226318359</t>
+    <t xml:space="preserve">11.9468288421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.592264175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4963216781616</t>
   </si>
   <si>
     <t xml:space="preserve">11.3086109161377</t>
@@ -1736,49 +1736,49 @@
     <t xml:space="preserve">11.2001543045044</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2710676193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5380344390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5255212783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5296907424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5964345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7507743835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7591199874878</t>
+    <t xml:space="preserve">11.2710666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5380363464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.525520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.529691696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.596435546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7507753372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7591190338135</t>
   </si>
   <si>
     <t xml:space="preserve">11.6882057189941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6047782897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7215776443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3681392669678</t>
+    <t xml:space="preserve">11.6047763824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7215738296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3681402206421</t>
   </si>
   <si>
     <t xml:space="preserve">12.2721977233887</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2137994766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0385999679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3639688491821</t>
+    <t xml:space="preserve">12.2137985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0386028289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3639678955078</t>
   </si>
   <si>
     <t xml:space="preserve">12.4223680496216</t>
@@ -1787,58 +1787,58 @@
     <t xml:space="preserve">12.5975675582886</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2596836090088</t>
+    <t xml:space="preserve">12.2596855163574</t>
   </si>
   <si>
     <t xml:space="preserve">12.2012844085693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6100807189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2555141448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7382612228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7466068267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7966623306274</t>
+    <t xml:space="preserve">12.6100797653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2555122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.738263130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7466039657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7966613769531</t>
   </si>
   <si>
     <t xml:space="preserve">11.9259748458862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8508901596069</t>
+    <t xml:space="preserve">11.8508911132812</t>
   </si>
   <si>
     <t xml:space="preserve">11.6965484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6840343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4212350845337</t>
+    <t xml:space="preserve">11.6840333938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.421236038208</t>
   </si>
   <si>
     <t xml:space="preserve">10.9707269668579</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8581018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8205585479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7246170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7579870223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6411876678467</t>
+    <t xml:space="preserve">10.8581008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8205595016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7246160507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7579889297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6411905288696</t>
   </si>
   <si>
     <t xml:space="preserve">10.9582138061523</t>
@@ -1847,52 +1847,52 @@
     <t xml:space="preserve">11.1375827789307</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2043256759644</t>
+    <t xml:space="preserve">11.2043266296387</t>
   </si>
   <si>
     <t xml:space="preserve">11.20849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1959810256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0916976928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0541543960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7997026443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7121028900146</t>
+    <t xml:space="preserve">11.1959819793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.091700553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0541553497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7997016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.712100982666</t>
   </si>
   <si>
     <t xml:space="preserve">10.3867330551147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2866220474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4117622375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3116502761841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2062568664551</t>
+    <t xml:space="preserve">10.28662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4117612838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3116493225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2062578201294</t>
   </si>
   <si>
     <t xml:space="preserve">9.91958808898926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1092939376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96596050262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80154705047607</t>
+    <t xml:space="preserve">10.1092958450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9659595489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80154800415039</t>
   </si>
   <si>
     <t xml:space="preserve">10.0797853469849</t>
@@ -1907,16 +1907,16 @@
     <t xml:space="preserve">9.13124752044678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95840263366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26615047454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14389514923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9710521697998</t>
+    <t xml:space="preserve">8.95840454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26615238189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14389705657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97105026245117</t>
   </si>
   <si>
     <t xml:space="preserve">8.67595100402832</t>
@@ -1925,16 +1925,16 @@
     <t xml:space="preserve">8.69703006744385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43143939971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54947948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64643955230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6253604888916</t>
+    <t xml:space="preserve">8.43143844604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54948043823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64644145965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62536144256592</t>
   </si>
   <si>
     <t xml:space="preserve">8.32014465332031</t>
@@ -1943,34 +1943,34 @@
     <t xml:space="preserve">8.13127994537354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13296508789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78221797943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79570817947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74174690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927762985229</t>
+    <t xml:space="preserve">8.13296699523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78221654891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79570865631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74174737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927810668945</t>
   </si>
   <si>
     <t xml:space="preserve">8.02504348754883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01155281066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31339931488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44830131530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49467277526855</t>
+    <t xml:space="preserve">8.01155185699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31339740753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44830226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49467468261719</t>
   </si>
   <si>
     <t xml:space="preserve">8.7476167678833</t>
@@ -1982,16 +1982,16 @@
     <t xml:space="preserve">8.68859767913818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61271381378174</t>
+    <t xml:space="preserve">8.61271572113037</t>
   </si>
   <si>
     <t xml:space="preserve">8.67173480987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98369884490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91203117370605</t>
+    <t xml:space="preserve">8.98369789123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91203022003174</t>
   </si>
   <si>
     <t xml:space="preserve">8.77291202545166</t>
@@ -2000,25 +2000,25 @@
     <t xml:space="preserve">8.85301113128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99634456634521</t>
+    <t xml:space="preserve">8.99634552001953</t>
   </si>
   <si>
     <t xml:space="preserve">9.30409336090088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05536460876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1734037399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24507331848145</t>
+    <t xml:space="preserve">9.05536556243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17340564727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24507236480713</t>
   </si>
   <si>
     <t xml:space="preserve">9.23242473602295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41791820526123</t>
+    <t xml:space="preserve">9.41791725158691</t>
   </si>
   <si>
     <t xml:space="preserve">9.47693634033203</t>
@@ -2027,43 +2027,43 @@
     <t xml:space="preserve">9.2408561706543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03007030487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2197790145874</t>
+    <t xml:space="preserve">9.03007125854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21977806091309</t>
   </si>
   <si>
     <t xml:space="preserve">9.43899536132812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70880317687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72144889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94909858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0081167221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713539123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177253723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2863550186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1556663513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.13880443573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.033411026001</t>
+    <t xml:space="preserve">9.70880222320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72144985198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94909763336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0081176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0713529586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177263259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.28635597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1556673049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1388053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0334119796753</t>
   </si>
   <si>
     <t xml:space="preserve">10.0291967391968</t>
@@ -2072,115 +2072,115 @@
     <t xml:space="preserve">9.83948993682861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90272331237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.873215675354</t>
+    <t xml:space="preserve">9.90272521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87321472167969</t>
   </si>
   <si>
     <t xml:space="preserve">9.9996862411499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75517463684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60762500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93223476409912</t>
+    <t xml:space="preserve">9.75517559051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60762596130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9322338104248</t>
   </si>
   <si>
     <t xml:space="preserve">10.3791007995605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4339046478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3833160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4043970108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5266532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5814561843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8681268692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7585182189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3622379302979</t>
+    <t xml:space="preserve">10.4339056015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3833150863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4043960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.526650428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5814552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8681259155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7585172653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3622398376465</t>
   </si>
   <si>
     <t xml:space="preserve">10.5519456863403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.834400177002</t>
+    <t xml:space="preserve">10.8343992233276</t>
   </si>
   <si>
     <t xml:space="preserve">10.7247915267944</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6952791213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971408843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8133211135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807725906372</t>
+    <t xml:space="preserve">10.6952800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971399307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8133201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807716369629</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898876190186</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4760608673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5477313995361</t>
+    <t xml:space="preserve">10.4760618209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5477294921875</t>
   </si>
   <si>
     <t xml:space="preserve">10.6025342941284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9608697891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0999898910522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9945955276489</t>
+    <t xml:space="preserve">10.9608716964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0999889373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9945945739746</t>
   </si>
   <si>
     <t xml:space="preserve">11.3782262802124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1337146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8976354598999</t>
+    <t xml:space="preserve">11.1337156295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8976364135742</t>
   </si>
   <si>
     <t xml:space="preserve">10.4676303863525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4381227493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2694940567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1261587142944</t>
+    <t xml:space="preserve">10.43812084198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.269492149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1261577606201</t>
   </si>
   <si>
     <t xml:space="preserve">9.95331478118896</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">9.92380332946777</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84792137145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79732990264893</t>
+    <t xml:space="preserve">9.84792041778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79733276367188</t>
   </si>
   <si>
     <t xml:space="preserve">10.0587072372437</t>
@@ -2204,112 +2204,112 @@
     <t xml:space="preserve">10.1345901489258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5055723190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.560378074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7285499572754</t>
+    <t xml:space="preserve">10.5055732727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5603761672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7285480499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.3922052383423</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95237064361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83162784576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65914440155029</t>
+    <t xml:space="preserve">9.95236873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83162975311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65914535522461</t>
   </si>
   <si>
     <t xml:space="preserve">9.65052032470703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50390815734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47372245788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0985689163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35729694366455</t>
+    <t xml:space="preserve">9.50390911102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47372341156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09856986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35729598999023</t>
   </si>
   <si>
     <t xml:space="preserve">9.5815258026123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2667407989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27536678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25811862945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55565357208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69795513153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43060302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31417560577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36160945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54271602630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80144500732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90493583679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75401306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64620876312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93512153625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89200019836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92649745941162</t>
+    <t xml:space="preserve">9.26674175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27536582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25811767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55565452575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69795227050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43060207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31417751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36160755157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54271793365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80144309997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90493488311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7540111541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64620971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93512058258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89199924468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9264965057373</t>
   </si>
   <si>
     <t xml:space="preserve">10.1765995025635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93943309783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96099376678467</t>
+    <t xml:space="preserve">9.93943214416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96099281311035</t>
   </si>
   <si>
     <t xml:space="preserve">10.0644845962524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0601711273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.28440284729</t>
+    <t xml:space="preserve">10.0601720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2844018936157</t>
   </si>
   <si>
     <t xml:space="preserve">10.1852245330811</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">10.5301923751831</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4827604293823</t>
+    <t xml:space="preserve">10.4827566146851</t>
   </si>
   <si>
     <t xml:space="preserve">10.3663330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3620204925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96530532836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79281902313232</t>
+    <t xml:space="preserve">10.3620195388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96530723571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79281997680664</t>
   </si>
   <si>
     <t xml:space="preserve">9.61602401733398</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">9.74538707733154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81869220733643</t>
+    <t xml:space="preserve">9.81869316101074</t>
   </si>
   <si>
     <t xml:space="preserve">10.1119165420532</t>
@@ -2351,16 +2351,16 @@
     <t xml:space="preserve">10.0256748199463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77126026153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4176664352417</t>
+    <t xml:space="preserve">9.77125930786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41766548156738</t>
   </si>
   <si>
     <t xml:space="preserve">9.18912410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02957725524902</t>
+    <t xml:space="preserve">9.02957630157471</t>
   </si>
   <si>
     <t xml:space="preserve">8.81828212738037</t>
@@ -2372,52 +2372,52 @@
     <t xml:space="preserve">8.90452289581299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72772693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44485187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58456420898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13783073425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17922496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4896993637085</t>
+    <t xml:space="preserve">8.72772884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44485282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58456516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13782978057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17922782897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48969841003418</t>
   </si>
   <si>
     <t xml:space="preserve">8.31721305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41725540161133</t>
+    <t xml:space="preserve">8.41725635528564</t>
   </si>
   <si>
     <t xml:space="preserve">8.52764511108398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39655685424805</t>
+    <t xml:space="preserve">8.39655590057373</t>
   </si>
   <si>
     <t xml:space="preserve">8.5086727142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56559181213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66304397583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60698699951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5500659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50349712371826</t>
+    <t xml:space="preserve">8.56559276580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66304588317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60698890686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55006790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50349617004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.28789043426514</t>
@@ -2426,94 +2426,94 @@
     <t xml:space="preserve">8.43967819213867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65873336791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6156120300293</t>
+    <t xml:space="preserve">8.65873527526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61561298370361</t>
   </si>
   <si>
     <t xml:space="preserve">8.87002754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97351837158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89589977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76653671264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82690620422363</t>
+    <t xml:space="preserve">8.97351741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89589881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7665376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82690715789795</t>
   </si>
   <si>
     <t xml:space="preserve">9.07269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90021228790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77084922790527</t>
+    <t xml:space="preserve">8.90021324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77084827423096</t>
   </si>
   <si>
     <t xml:space="preserve">8.66735744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64579772949219</t>
+    <t xml:space="preserve">8.64579486846924</t>
   </si>
   <si>
     <t xml:space="preserve">8.40518093109131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28444194793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27926635742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14990329742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44312858581543</t>
+    <t xml:space="preserve">8.2844409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27926731109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14990425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4431266784668</t>
   </si>
   <si>
     <t xml:space="preserve">8.39483165740967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23787021636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89462661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97396898269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95844507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05158615112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91704893112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95326995849609</t>
+    <t xml:space="preserve">8.23787117004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89462471008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97397041320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95844411849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05158805847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91704797744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95327138900757</t>
   </si>
   <si>
     <t xml:space="preserve">8.02916431427002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30858898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08953380584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1964750289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16370391845703</t>
+    <t xml:space="preserve">8.3085880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08953285217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19647312164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1637020111084</t>
   </si>
   <si>
     <t xml:space="preserve">8.06366157531738</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">8.02053928375244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07918548583984</t>
+    <t xml:space="preserve">8.07918453216553</t>
   </si>
   <si>
     <t xml:space="preserve">8.09988212585449</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">8.12058162689209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03261280059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11023139953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23441982269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31376457214355</t>
+    <t xml:space="preserve">8.03261470794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11023330688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2344217300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31376552581787</t>
   </si>
   <si>
     <t xml:space="preserve">8.07401084899902</t>
@@ -2549,28 +2549,28 @@
     <t xml:space="preserve">7.80838346481323</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47417449951172</t>
+    <t xml:space="preserve">8.47417545318604</t>
   </si>
   <si>
     <t xml:space="preserve">8.62078666687012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77516174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62854862213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64148426055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68460655212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54489421844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54316902160645</t>
+    <t xml:space="preserve">8.77516078948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62854957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64148616790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68460559844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54489231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54316997528076</t>
   </si>
   <si>
     <t xml:space="preserve">8.53971862792969</t>
@@ -2582,22 +2582,22 @@
     <t xml:space="preserve">8.39115715026855</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52923202514648</t>
+    <t xml:space="preserve">8.5292329788208</t>
   </si>
   <si>
     <t xml:space="preserve">8.47854614257812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61312580108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59389972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59914398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52573585510254</t>
+    <t xml:space="preserve">8.61312484741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59389877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59914302825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52573680877686</t>
   </si>
   <si>
     <t xml:space="preserve">8.43485164642334</t>
@@ -2606,19 +2606,19 @@
     <t xml:space="preserve">8.28279304504395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22511577606201</t>
+    <t xml:space="preserve">8.22511672973633</t>
   </si>
   <si>
     <t xml:space="preserve">8.39989471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47679710388184</t>
+    <t xml:space="preserve">8.47679805755615</t>
   </si>
   <si>
     <t xml:space="preserve">8.6585693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69177627563477</t>
+    <t xml:space="preserve">8.6917781829834</t>
   </si>
   <si>
     <t xml:space="preserve">8.71799373626709</t>
@@ -2627,25 +2627,25 @@
     <t xml:space="preserve">8.74770641326904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99676513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90063953399658</t>
+    <t xml:space="preserve">8.99676704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90063762664795</t>
   </si>
   <si>
     <t xml:space="preserve">8.92248630523682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86568164825439</t>
+    <t xml:space="preserve">8.86568260192871</t>
   </si>
   <si>
     <t xml:space="preserve">8.84820461273193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83509635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88753032684326</t>
+    <t xml:space="preserve">8.83509540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88752841949463</t>
   </si>
   <si>
     <t xml:space="preserve">8.95744228363037</t>
@@ -2654,28 +2654,28 @@
     <t xml:space="preserve">8.81761837005615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78266334533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82635879516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94433403015137</t>
+    <t xml:space="preserve">8.78266143798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8263578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94433307647705</t>
   </si>
   <si>
     <t xml:space="preserve">9.18465518951416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17154502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15406894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07541847229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07104778289795</t>
+    <t xml:space="preserve">9.17154693603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15406799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07541751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07104969024658</t>
   </si>
   <si>
     <t xml:space="preserve">8.9093770980835</t>
@@ -2684,43 +2684,43 @@
     <t xml:space="preserve">8.85694408416748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91374683380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99239730834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96618175506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93122482299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87442111968994</t>
+    <t xml:space="preserve">8.91374778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99239635467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9661808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93122386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87442016601562</t>
   </si>
   <si>
     <t xml:space="preserve">8.83072566986084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49602317810059</t>
+    <t xml:space="preserve">8.49602508544922</t>
   </si>
   <si>
     <t xml:space="preserve">8.63235092163086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73721981048584</t>
+    <t xml:space="preserve">8.73721885681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.30900955200195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15170860290527</t>
+    <t xml:space="preserve">8.15170955657959</t>
   </si>
   <si>
     <t xml:space="preserve">8.05732727050781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22686290740967</t>
+    <t xml:space="preserve">8.22686386108398</t>
   </si>
   <si>
     <t xml:space="preserve">8.33872222900391</t>
@@ -2732,31 +2732,31 @@
     <t xml:space="preserve">8.21113300323486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26181983947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32998371124268</t>
+    <t xml:space="preserve">8.26182079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32998275756836</t>
   </si>
   <si>
     <t xml:space="preserve">8.4418420791626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41562557220459</t>
+    <t xml:space="preserve">8.41562461853027</t>
   </si>
   <si>
     <t xml:space="preserve">8.22861194610596</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26706314086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57292747497559</t>
+    <t xml:space="preserve">8.26706218719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57292652130127</t>
   </si>
   <si>
     <t xml:space="preserve">8.19190692901611</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77767992019653</t>
+    <t xml:space="preserve">7.77767944335938</t>
   </si>
   <si>
     <t xml:space="preserve">7.67281293869019</t>
@@ -2765,25 +2765,25 @@
     <t xml:space="preserve">7.6902904510498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3547158241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13798856735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08380603790283</t>
+    <t xml:space="preserve">7.35471534729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13798761367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08380651473999</t>
   </si>
   <si>
     <t xml:space="preserve">7.11701536178589</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93349695205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80590724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41440153121948</t>
+    <t xml:space="preserve">6.93349647521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.805908203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41440200805664</t>
   </si>
   <si>
     <t xml:space="preserve">5.04238414764404</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">4.08983659744263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19383001327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92204880714417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06012392044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15974855422974</t>
+    <t xml:space="preserve">4.1938304901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92204856872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06012344360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15974903106689</t>
   </si>
   <si>
     <t xml:space="preserve">4.38521385192871</t>
@@ -2816,25 +2816,25 @@
     <t xml:space="preserve">4.56174039840698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49532461166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67534780502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70331192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96373319625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8658561706543</t>
+    <t xml:space="preserve">4.49532413482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67534732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70331144332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9637336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86585664749146</t>
   </si>
   <si>
     <t xml:space="preserve">4.83964014053345</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87634372711182</t>
+    <t xml:space="preserve">4.87634325027466</t>
   </si>
   <si>
     <t xml:space="preserve">4.79244995117188</t>
@@ -2852,70 +2852,70 @@
     <t xml:space="preserve">5.41116809844971</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28707504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24862384796143</t>
+    <t xml:space="preserve">5.28707456588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24862432479858</t>
   </si>
   <si>
     <t xml:space="preserve">5.17871236801147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94625520706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03713989257812</t>
+    <t xml:space="preserve">4.94625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03714084625244</t>
   </si>
   <si>
     <t xml:space="preserve">5.06860113143921</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03888845443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78720617294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93576812744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1315221786499</t>
+    <t xml:space="preserve">5.0388879776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78720569610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93576860427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13152170181274</t>
   </si>
   <si>
     <t xml:space="preserve">5.17172145843506</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16298151016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26260614395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57021760940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58769607543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27833557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53176593780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31853580474854</t>
+    <t xml:space="preserve">5.16298246383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26260566711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57021808624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58769512176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27833652496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53176641464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31853532791138</t>
   </si>
   <si>
     <t xml:space="preserve">5.39893388748169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44437551498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34649991989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25211954116821</t>
+    <t xml:space="preserve">5.44437646865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3464994430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25211906433105</t>
   </si>
   <si>
     <t xml:space="preserve">5.02315855026245</t>
@@ -2927,43 +2927,43 @@
     <t xml:space="preserve">5.43913269042969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95499420166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11404371261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86236143112183</t>
+    <t xml:space="preserve">4.954993724823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11404418945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86236190795898</t>
   </si>
   <si>
     <t xml:space="preserve">4.84837865829468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89382123947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97072458267212</t>
+    <t xml:space="preserve">4.89382171630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97072505950928</t>
   </si>
   <si>
     <t xml:space="preserve">4.97771501541138</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10006093978882</t>
+    <t xml:space="preserve">5.10006141662598</t>
   </si>
   <si>
     <t xml:space="preserve">4.88683080673218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10705184936523</t>
+    <t xml:space="preserve">5.10705232620239</t>
   </si>
   <si>
     <t xml:space="preserve">5.32028293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58594751358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64362525939941</t>
+    <t xml:space="preserve">5.58594846725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64362478256226</t>
   </si>
   <si>
     <t xml:space="preserve">5.93900203704834</t>
@@ -2972,28 +2972,28 @@
     <t xml:space="preserve">6.02639150619507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91977691650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83588171005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46535062789917</t>
+    <t xml:space="preserve">5.91977596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83588218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46534967422485</t>
   </si>
   <si>
     <t xml:space="preserve">5.47059392929077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46360301971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40942049026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40767335891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31504011154175</t>
+    <t xml:space="preserve">5.46360206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40942001342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40767288208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31503963470459</t>
   </si>
   <si>
     <t xml:space="preserve">5.42165470123291</t>
@@ -3002,13 +3002,13 @@
     <t xml:space="preserve">5.08607912063599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15249443054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01966285705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07559251785278</t>
+    <t xml:space="preserve">5.15249538421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01966190338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07559204101562</t>
   </si>
   <si>
     <t xml:space="preserve">4.96198606491089</t>
@@ -3026,31 +3026,31 @@
     <t xml:space="preserve">5.10880041122437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02665376663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84663105010986</t>
+    <t xml:space="preserve">5.02665424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84663152694702</t>
   </si>
   <si>
     <t xml:space="preserve">4.87284851074219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93227338790894</t>
+    <t xml:space="preserve">4.93227291107178</t>
   </si>
   <si>
     <t xml:space="preserve">5.01616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02490615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15948629379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04413223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95848941802979</t>
+    <t xml:space="preserve">5.02490568161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15948677062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0441312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95848989486694</t>
   </si>
   <si>
     <t xml:space="preserve">4.92178630828857</t>
@@ -3062,22 +3062,22 @@
     <t xml:space="preserve">4.73477268218994</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50406312942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42016983032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31005907058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51455020904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52678442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72952890396118</t>
+    <t xml:space="preserve">4.50406360626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42016935348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51454973220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52678489685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72952842712402</t>
   </si>
   <si>
     <t xml:space="preserve">4.44289064407349</t>
@@ -3092,46 +3092,46 @@
     <t xml:space="preserve">4.65437412261963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55649709701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50930690765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46910810470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42541360855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32753658294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30831050872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45337820053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40269136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35812330245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27859878540039</t>
+    <t xml:space="preserve">4.55649852752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50930738449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46910762786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42541313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32753705978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30831098556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45337772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40269231796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35812282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27859830856323</t>
   </si>
   <si>
     <t xml:space="preserve">4.3048152923584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2995719909668</t>
+    <t xml:space="preserve">4.29957151412964</t>
   </si>
   <si>
     <t xml:space="preserve">4.21742582321167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17722654342651</t>
+    <t xml:space="preserve">4.17722606658936</t>
   </si>
   <si>
     <t xml:space="preserve">4.20606517791748</t>
@@ -3140,121 +3140,121 @@
     <t xml:space="preserve">4.21829986572266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19208288192749</t>
+    <t xml:space="preserve">4.19208240509033</t>
   </si>
   <si>
     <t xml:space="preserve">4.04788970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0531325340271</t>
+    <t xml:space="preserve">4.05313301086426</t>
   </si>
   <si>
     <t xml:space="preserve">4.03390693664551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9849693775177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95088672637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0076904296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17460489273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17810010910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06274509429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79620718955994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75426054000854</t>
+    <t xml:space="preserve">3.98496842384338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95088744163513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00768995285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17460441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17809963226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06274557113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7962064743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75426030158997</t>
   </si>
   <si>
     <t xml:space="preserve">3.72280049324036</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6467707157135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58210229873657</t>
+    <t xml:space="preserve">3.64677047729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58210253715515</t>
   </si>
   <si>
     <t xml:space="preserve">3.72979116439819</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61006736755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72367453575134</t>
+    <t xml:space="preserve">3.61006784439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72367405891418</t>
   </si>
   <si>
     <t xml:space="preserve">3.62841868400574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71231389045715</t>
+    <t xml:space="preserve">3.71231341362</t>
   </si>
   <si>
     <t xml:space="preserve">3.74901700019836</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85213708877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77523398399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8905885219574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86349773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79882907867432</t>
+    <t xml:space="preserve">3.85213685035706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77523350715637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89058780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86349701881409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79882955551147</t>
   </si>
   <si>
     <t xml:space="preserve">3.70444822311401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80319833755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61356258392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7437732219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82329821586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91243648529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81543326377869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83553290367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87048840522766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7682421207428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66337490081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55326461791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34527659416199</t>
+    <t xml:space="preserve">3.80319905281067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6135630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74377369880676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82329773902893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91243624687195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81543302536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83553266525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87048864364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76824283599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66337537765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55326414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34527707099915</t>
   </si>
   <si>
     <t xml:space="preserve">3.55850768089294</t>
@@ -3266,13 +3266,13 @@
     <t xml:space="preserve">3.83291101455688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42191696166992</t>
+    <t xml:space="preserve">4.42191743850708</t>
   </si>
   <si>
     <t xml:space="preserve">4.39919567108154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81866598129272</t>
+    <t xml:space="preserve">4.81866693496704</t>
   </si>
   <si>
     <t xml:space="preserve">4.88857841491699</t>
@@ -3281,55 +3281,55 @@
     <t xml:space="preserve">4.8990650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93052530288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00393199920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39194297790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49506235122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55973052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47583723068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46185445785522</t>
+    <t xml:space="preserve">4.9305248260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0039324760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39194250106812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49506282806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55973100662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47583627700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46185493469238</t>
   </si>
   <si>
     <t xml:space="preserve">5.68633890151978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04515933990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98682928085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90551996231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92496299743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73229551315308</t>
+    <t xml:space="preserve">6.04515981674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98682880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90552043914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92496347427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73229598999023</t>
   </si>
   <si>
     <t xml:space="preserve">5.82067537307739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84895658493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88430881500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12470149993896</t>
+    <t xml:space="preserve">5.84895753860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88430833816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12470102310181</t>
   </si>
   <si>
     <t xml:space="preserve">6.01334238052368</t>
@@ -3338,31 +3338,31 @@
     <t xml:space="preserve">6.02218103408813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02571630477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11763048171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00980806350708</t>
+    <t xml:space="preserve">6.02571582794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11763095855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00980710983276</t>
   </si>
   <si>
     <t xml:space="preserve">5.93203353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0045051574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97445583343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03278636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94440650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78885936737061</t>
+    <t xml:space="preserve">6.00450563430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97445631027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03278589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94440698623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78885889053345</t>
   </si>
   <si>
     <t xml:space="preserve">5.77295017242432</t>
@@ -3377,16 +3377,16 @@
     <t xml:space="preserve">5.81183767318726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85425901412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77648496627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98329401016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30322790145874</t>
+    <t xml:space="preserve">5.85425996780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77648591995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9832935333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30322742462158</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438972473145</t>
@@ -3398,25 +3398,25 @@
     <t xml:space="preserve">6.14591217041016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32267141342163</t>
+    <t xml:space="preserve">6.32267093658447</t>
   </si>
   <si>
     <t xml:space="preserve">6.23429107666016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28908729553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96561765670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94970989227295</t>
+    <t xml:space="preserve">6.28908634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96561813354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94970941543579</t>
   </si>
   <si>
     <t xml:space="preserve">5.7588095664978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55907154083252</t>
+    <t xml:space="preserve">5.55907201766968</t>
   </si>
   <si>
     <t xml:space="preserve">5.46008682250977</t>
@@ -3425,187 +3425,187 @@
     <t xml:space="preserve">5.53255844116211</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62800788879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79946422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68280363082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67396545410156</t>
+    <t xml:space="preserve">5.6280083656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7994647026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68280267715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6739649772644</t>
   </si>
   <si>
     <t xml:space="preserve">5.90905475616455</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00273704528809</t>
+    <t xml:space="preserve">6.0027379989624</t>
   </si>
   <si>
     <t xml:space="preserve">6.12293338775635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2519679069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14060878753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21484804153442</t>
+    <t xml:space="preserve">6.25196743011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14060926437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21484851837158</t>
   </si>
   <si>
     <t xml:space="preserve">6.22191858291626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28378391265869</t>
+    <t xml:space="preserve">6.28378438949585</t>
   </si>
   <si>
     <t xml:space="preserve">6.65497827529907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66558361053467</t>
+    <t xml:space="preserve">6.66558408737183</t>
   </si>
   <si>
     <t xml:space="preserve">6.51533842086792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36332559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39514207839966</t>
+    <t xml:space="preserve">6.36332511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39514255523682</t>
   </si>
   <si>
     <t xml:space="preserve">6.63553476333618</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56659889221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79461765289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72790670394897</t>
+    <t xml:space="preserve">6.56659841537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79461717605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7279052734375</t>
   </si>
   <si>
     <t xml:space="preserve">7.64129304885864</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81805229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94531917572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92764282226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20869064331055</t>
+    <t xml:space="preserve">7.81805276870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94531869888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92764234542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20868968963623</t>
   </si>
   <si>
     <t xml:space="preserve">8.46322345733643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58695411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44024562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55160331726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75841045379639</t>
+    <t xml:space="preserve">8.58695507049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55160236358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7584114074707</t>
   </si>
   <si>
     <t xml:space="preserve">8.76371383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54629802703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.571044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53746128082275</t>
+    <t xml:space="preserve">8.54630088806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57104587554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53746223449707</t>
   </si>
   <si>
     <t xml:space="preserve">8.43140697479248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24050712585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17157173156738</t>
+    <t xml:space="preserve">8.24050807952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17157077789307</t>
   </si>
   <si>
     <t xml:space="preserve">8.03369903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33242130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10970497131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40489292144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45085048675537</t>
+    <t xml:space="preserve">8.33242225646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10970401763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40489196777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45084953308105</t>
   </si>
   <si>
     <t xml:space="preserve">8.53569412231445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49503993988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099655151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54983615875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41549777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19985294342041</t>
+    <t xml:space="preserve">8.49503898620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54099559783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54983425140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41549873352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19985103607178</t>
   </si>
   <si>
     <t xml:space="preserve">8.11324024200439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05491065979004</t>
+    <t xml:space="preserve">8.05490970611572</t>
   </si>
   <si>
     <t xml:space="preserve">8.04430484771729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43317413330078</t>
+    <t xml:space="preserve">8.4331750869751</t>
   </si>
   <si>
     <t xml:space="preserve">8.12561321258545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10086727142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15919876098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79684114456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87638235092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86931324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84810209274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11854362487793</t>
+    <t xml:space="preserve">8.10086822509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15919780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79684162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87638282775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86931228637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84810161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11854267120361</t>
   </si>
   <si>
     <t xml:space="preserve">7.94885492324829</t>
@@ -3614,37 +3614,37 @@
     <t xml:space="preserve">8.21576023101807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65897035598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91703653335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9877405166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05314350128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41373062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5675106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6541223526001</t>
+    <t xml:space="preserve">7.65896892547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91703844070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98774242401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05314254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41373157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56751155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65412330627441</t>
   </si>
   <si>
     <t xml:space="preserve">8.44908237457275</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73366355895996</t>
+    <t xml:space="preserve">8.73366451263428</t>
   </si>
   <si>
     <t xml:space="preserve">8.64175033569336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66119384765625</t>
+    <t xml:space="preserve">8.66119289398193</t>
   </si>
   <si>
     <t xml:space="preserve">8.56927871704102</t>
@@ -3656,13 +3656,13 @@
     <t xml:space="preserve">8.28292846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36070346832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39120388031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22614192962646</t>
+    <t xml:space="preserve">8.36070251464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39120292663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22614288330078</t>
   </si>
   <si>
     <t xml:space="preserve">8.25125980377197</t>
@@ -3683,13 +3683,13 @@
     <t xml:space="preserve">8.69441318511963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76797485351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63700103759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64776515960693</t>
+    <t xml:space="preserve">8.76797294616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63700199127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64776706695557</t>
   </si>
   <si>
     <t xml:space="preserve">8.61547088623047</t>
@@ -3698,16 +3698,16 @@
     <t xml:space="preserve">8.55447006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56702899932861</t>
+    <t xml:space="preserve">8.5670280456543</t>
   </si>
   <si>
     <t xml:space="preserve">8.74106216430664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58317565917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57241058349609</t>
+    <t xml:space="preserve">8.583176612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57241153717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.38043785095215</t>
@@ -3716,28 +3716,28 @@
     <t xml:space="preserve">8.2404956817627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27099704742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3535270690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40914344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4611759185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50961685180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22793674468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22973155975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24587917327881</t>
+    <t xml:space="preserve">8.27099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35352611541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40914440155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46117496490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50961780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22793579101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2297306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24587821960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.4037618637085</t>
@@ -3749,103 +3749,103 @@
     <t xml:space="preserve">8.45758724212646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05928611755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908071517944</t>
+    <t xml:space="preserve">8.05928802490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93907976150513</t>
   </si>
   <si>
     <t xml:space="preserve">7.8296365737915</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07543277740479</t>
+    <t xml:space="preserve">8.07543468475342</t>
   </si>
   <si>
     <t xml:space="preserve">8.04672813415527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87449073791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01263999938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87090301513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64842844009399</t>
+    <t xml:space="preserve">7.8744912147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01263904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87090158462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64842891693115</t>
   </si>
   <si>
     <t xml:space="preserve">7.38289546966553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51027870178223</t>
+    <t xml:space="preserve">7.51027917861938</t>
   </si>
   <si>
     <t xml:space="preserve">7.65739965438843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57128000259399</t>
+    <t xml:space="preserve">7.57128047943115</t>
   </si>
   <si>
     <t xml:space="preserve">7.65919351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87987422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80990171432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87628412246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87269735336304</t>
+    <t xml:space="preserve">7.87987232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80990219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8762845993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87269639968872</t>
   </si>
   <si>
     <t xml:space="preserve">7.69328165054321</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75787115097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80810689926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70584106445312</t>
+    <t xml:space="preserve">7.7578706741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80810642242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70584058761597</t>
   </si>
   <si>
     <t xml:space="preserve">7.67892932891846</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88884353637695</t>
+    <t xml:space="preserve">7.88884305953979</t>
   </si>
   <si>
     <t xml:space="preserve">7.84578418731689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90319633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69866371154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73275327682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37392473220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31471824645996</t>
+    <t xml:space="preserve">7.89243268966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90319776535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69866466522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73275375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37392520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31471872329712</t>
   </si>
   <si>
     <t xml:space="preserve">7.45466136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47798490524292</t>
+    <t xml:space="preserve">7.47798538208008</t>
   </si>
   <si>
     <t xml:space="preserve">7.54436874389648</t>
@@ -3854,13 +3854,13 @@
     <t xml:space="preserve">7.61433982849121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73634052276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65201711654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74172353744507</t>
+    <t xml:space="preserve">7.73634099960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65201568603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74172449111938</t>
   </si>
   <si>
     <t xml:space="preserve">7.61792850494385</t>
@@ -3872,25 +3872,25 @@
     <t xml:space="preserve">7.53539800643921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47977924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44748449325562</t>
+    <t xml:space="preserve">7.4797797203064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44748497009277</t>
   </si>
   <si>
     <t xml:space="preserve">7.70404767990112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65022277832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77760744094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52822208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24833393096924</t>
+    <t xml:space="preserve">7.65022325515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77760696411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52822113037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24833488464355</t>
   </si>
   <si>
     <t xml:space="preserve">7.24654102325439</t>
@@ -3899,22 +3899,22 @@
     <t xml:space="preserve">7.62331056594849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68431091308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72378158569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98393201828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01084518432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15617084503174</t>
+    <t xml:space="preserve">7.6843113899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72378206253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98393392562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94625616073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01084613800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15616989135742</t>
   </si>
   <si>
     <t xml:space="preserve">8.14540672302246</t>
@@ -3923,25 +3923,25 @@
     <t xml:space="preserve">8.37146759033203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09516906738281</t>
+    <t xml:space="preserve">8.09517002105713</t>
   </si>
   <si>
     <t xml:space="preserve">8.22255516052246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59932327270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80385589599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65673446655273</t>
+    <t xml:space="preserve">8.59932422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80385494232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65673637390137</t>
   </si>
   <si>
     <t xml:space="preserve">8.54370594024658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59035396575928</t>
+    <t xml:space="preserve">8.59035301208496</t>
   </si>
   <si>
     <t xml:space="preserve">8.85947513580322</t>
@@ -3950,16 +3950,16 @@
     <t xml:space="preserve">8.80744457244873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91868114471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07387542724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8971529006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84691524505615</t>
+    <t xml:space="preserve">8.91868209838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07387447357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89715099334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84691619873047</t>
   </si>
   <si>
     <t xml:space="preserve">9.02902126312256</t>
@@ -3968,31 +3968,31 @@
     <t xml:space="preserve">9.02004909515381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88100528717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6352071762085</t>
+    <t xml:space="preserve">8.88100433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63520622253418</t>
   </si>
   <si>
     <t xml:space="preserve">8.63879585266113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87203407287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83794593811035</t>
+    <t xml:space="preserve">8.87203311920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83794403076172</t>
   </si>
   <si>
     <t xml:space="preserve">8.72491359710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27122974395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52689456939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78256034851074</t>
+    <t xml:space="preserve">9.27123069763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52689552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78256130218506</t>
   </si>
   <si>
     <t xml:space="preserve">9.73322200775146</t>
@@ -4001,52 +4001,52 @@
     <t xml:space="preserve">9.41027641296387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31159782409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20843505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18600845336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99313735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73926639556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51499938964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7187328338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66234302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76420879364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65506744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11480617523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87832975387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20394039154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1257209777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1493673324585</t>
+    <t xml:space="preserve">9.311598777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20843601226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18600654602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99313831329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73926734924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51499843597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71873378753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6623420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76421070098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65506649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0420446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11480712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87832927703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20394134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12572002410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14937019348145</t>
   </si>
   <si>
     <t xml:space="preserve">8.2694263458252</t>
@@ -4061,70 +4061,70 @@
     <t xml:space="preserve">8.1821117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11116981506348</t>
+    <t xml:space="preserve">8.11116886138916</t>
   </si>
   <si>
     <t xml:space="preserve">8.03840637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30762672424316</t>
+    <t xml:space="preserve">8.30762767791748</t>
   </si>
   <si>
     <t xml:space="preserve">8.05113983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28216075897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21121597290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02749347686768</t>
+    <t xml:space="preserve">8.28215980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21121788024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02749252319336</t>
   </si>
   <si>
     <t xml:space="preserve">8.29125499725342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28943729400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30398845672607</t>
+    <t xml:space="preserve">8.28943634033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30398941040039</t>
   </si>
   <si>
     <t xml:space="preserve">8.39312171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46042823791504</t>
+    <t xml:space="preserve">8.46042728424072</t>
   </si>
   <si>
     <t xml:space="preserve">8.44587516784668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37675189971924</t>
+    <t xml:space="preserve">8.37675094604492</t>
   </si>
   <si>
     <t xml:space="preserve">8.70781898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82787609100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89518260955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89700126647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91155433654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86607646942139</t>
+    <t xml:space="preserve">8.82787704467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89518070220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89699935913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91155338287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8660774230957</t>
   </si>
   <si>
     <t xml:space="preserve">9.04798221588135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12711143493652</t>
+    <t xml:space="preserve">9.12711048126221</t>
   </si>
   <si>
     <t xml:space="preserve">9.1498498916626</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">9.33175468444824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55459022521973</t>
+    <t xml:space="preserve">9.55458927154541</t>
   </si>
   <si>
     <t xml:space="preserve">9.7546854019165</t>
@@ -4148,19 +4148,19 @@
     <t xml:space="preserve">8.95884895324707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37268352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.07301902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88656806945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3731632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3140449523926</t>
+    <t xml:space="preserve">9.37268447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730209350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88656711578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3731641769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3140459060669</t>
   </si>
   <si>
     <t xml:space="preserve">10.1821632385254</t>
@@ -4169,22 +4169,22 @@
     <t xml:space="preserve">10.3868064880371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.395902633667</t>
+    <t xml:space="preserve">10.3959035873413</t>
   </si>
   <si>
     <t xml:space="preserve">10.304949760437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4140920639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5186891555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6278324127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4641180038452</t>
+    <t xml:space="preserve">10.4140930175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5186882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6278314590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4641170501709</t>
   </si>
   <si>
     <t xml:space="preserve">10.5414276123047</t>
@@ -4193,49 +4193,49 @@
     <t xml:space="preserve">10.7824516296387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4777603149414</t>
+    <t xml:space="preserve">10.4777612686157</t>
   </si>
   <si>
     <t xml:space="preserve">10.2822122573853</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95932865142822</t>
+    <t xml:space="preserve">9.95932960510254</t>
   </si>
   <si>
     <t xml:space="preserve">10.041187286377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93659210205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82744884490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1321401596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4959506988525</t>
+    <t xml:space="preserve">9.93659114837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82744789123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1321392059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4959497451782</t>
   </si>
   <si>
     <t xml:space="preserve">10.4049978256226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9188804626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6960468292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5050458908081</t>
+    <t xml:space="preserve">10.9188823699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6960477828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5050468444824</t>
   </si>
   <si>
     <t xml:space="preserve">11.8738861083984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2558870315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5782880783081</t>
+    <t xml:space="preserve">12.2558879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5782890319824</t>
   </si>
   <si>
     <t xml:space="preserve">11.7601938247681</t>
@@ -4247,70 +4247,70 @@
     <t xml:space="preserve">11.4645977020264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0825967788696</t>
+    <t xml:space="preserve">11.0825958251953</t>
   </si>
   <si>
     <t xml:space="preserve">11.3190717697144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5009784698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2013149261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2695283889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6106033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6469841003418</t>
+    <t xml:space="preserve">11.5009794235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2013158798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2695302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6106023788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6469831466675</t>
   </si>
   <si>
     <t xml:space="preserve">12.9607715606689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6651744842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3195543289185</t>
+    <t xml:space="preserve">12.6651735305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3195533752441</t>
   </si>
   <si>
     <t xml:space="preserve">12.5287437438965</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5105543136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6333417892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6242456436157</t>
+    <t xml:space="preserve">12.510555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6333408355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6242446899414</t>
   </si>
   <si>
     <t xml:space="preserve">12.7288417816162</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5878639221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6424369812012</t>
+    <t xml:space="preserve">12.5878648757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6424360275269</t>
   </si>
   <si>
     <t xml:space="preserve">13.2108907699585</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0881052017212</t>
+    <t xml:space="preserve">13.0881042480469</t>
   </si>
   <si>
     <t xml:space="preserve">13.5110349655151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6247262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6974878311157</t>
+    <t xml:space="preserve">13.6247253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.69748878479</t>
   </si>
   <si>
     <t xml:space="preserve">13.6656551361084</t>
@@ -4322,31 +4322,31 @@
     <t xml:space="preserve">13.2654628753662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3604831695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7970561981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701070785522</t>
+    <t xml:space="preserve">12.360481262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7970552444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701061248779</t>
   </si>
   <si>
     <t xml:space="preserve">12.9516763687134</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5428686141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3882484436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2199869155884</t>
+    <t xml:space="preserve">13.5428695678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3882493972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245820999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2199859619141</t>
   </si>
   <si>
     <t xml:space="preserve">12.7151985168457</t>
@@ -4358,22 +4358,22 @@
     <t xml:space="preserve">13.283652305603</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4200820922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9930858612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1795377731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0931329727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7293224334717</t>
+    <t xml:space="preserve">12.9334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4200830459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9930849075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1795387268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0931339263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7293214797974</t>
   </si>
   <si>
     <t xml:space="preserve">13.9112272262573</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">14.2216014862061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0270385742188</t>
+    <t xml:space="preserve">14.0270376205444</t>
   </si>
   <si>
     <t xml:space="preserve">14.2818222045898</t>
@@ -4394,19 +4394,19 @@
     <t xml:space="preserve">14.8516139984131</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0276460647583</t>
+    <t xml:space="preserve">15.027645111084</t>
   </si>
   <si>
     <t xml:space="preserve">14.4763851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5875625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6199913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5736665725708</t>
+    <t xml:space="preserve">14.5875635147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6199903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5736656188965</t>
   </si>
   <si>
     <t xml:space="preserve">14.721905708313</t>
@@ -4415,10 +4415,10 @@
     <t xml:space="preserve">14.8284502029419</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7867584228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1382179260254</t>
+    <t xml:space="preserve">14.7867593765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1382169723511</t>
   </si>
   <si>
     <t xml:space="preserve">13.7120313644409</t>
@@ -4430,31 +4430,31 @@
     <t xml:space="preserve">13.3831281661987</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9847393035889</t>
+    <t xml:space="preserve">12.9847383499146</t>
   </si>
   <si>
     <t xml:space="preserve">12.192590713501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0119256973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2389163970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3084011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6737575531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3216924667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5347843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5533142089844</t>
+    <t xml:space="preserve">12.0119247436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2389154434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3084020614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6737585067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3216915130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5347833633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5533132553101</t>
   </si>
   <si>
     <t xml:space="preserve">11.8405246734619</t>
@@ -4463,70 +4463,70 @@
     <t xml:space="preserve">11.6644926071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.368016242981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1549224853516</t>
+    <t xml:space="preserve">11.3680152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1549234390259</t>
   </si>
   <si>
     <t xml:space="preserve">11.5625782012939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6082944869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2886552810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3309555053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.747875213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8173627853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7154483795166</t>
+    <t xml:space="preserve">10.6082954406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2886562347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3309564590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7478761672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8173637390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7154493331909</t>
   </si>
   <si>
     <t xml:space="preserve">11.5811080932617</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1132316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2938966751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7525100708008</t>
+    <t xml:space="preserve">11.1132307052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2938957214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7525091171265</t>
   </si>
   <si>
     <t xml:space="preserve">11.789568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6691236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4421348571777</t>
+    <t xml:space="preserve">11.6691246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4421358108521</t>
   </si>
   <si>
     <t xml:space="preserve">11.5718431472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6969184875488</t>
+    <t xml:space="preserve">11.6969194412231</t>
   </si>
   <si>
     <t xml:space="preserve">12.0628824234009</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2157535552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6048774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2667102813721</t>
+    <t xml:space="preserve">12.2157526016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6048784255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2667093276978</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945051193237</t>
@@ -4541,13 +4541,13 @@
     <t xml:space="preserve">11.914644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0350875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053792953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1972236633301</t>
+    <t xml:space="preserve">12.0350866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053802490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1972227096558</t>
   </si>
   <si>
     <t xml:space="preserve">12.1694288253784</t>
@@ -4565,22 +4565,22 @@
     <t xml:space="preserve">12.947678565979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8318681716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0681219100952</t>
+    <t xml:space="preserve">12.8318672180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0681228637695</t>
   </si>
   <si>
     <t xml:space="preserve">12.8828248977661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7484827041626</t>
+    <t xml:space="preserve">12.7484836578369</t>
   </si>
   <si>
     <t xml:space="preserve">12.739218711853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6836290359497</t>
+    <t xml:space="preserve">12.683629989624</t>
   </si>
   <si>
     <t xml:space="preserve">13.114447593689</t>
@@ -4592,16 +4592,16 @@
     <t xml:space="preserve">12.7809114456177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3778886795044</t>
+    <t xml:space="preserve">12.3778877258301</t>
   </si>
   <si>
     <t xml:space="preserve">12.3825206756592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9986352920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2626848220825</t>
+    <t xml:space="preserve">12.9986362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2626838684082</t>
   </si>
   <si>
     <t xml:space="preserve">13.2024631500244</t>
@@ -4616,13 +4616,13 @@
     <t xml:space="preserve">12.5770835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5492897033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4288463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7855443954468</t>
+    <t xml:space="preserve">12.5492887496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4288454055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7855424880981</t>
   </si>
   <si>
     <t xml:space="preserve">11.5579462051392</t>
@@ -4631,13 +4631,13 @@
     <t xml:space="preserve">11.8080978393555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1647968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5214948654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2898731231689</t>
+    <t xml:space="preserve">12.1647958755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5214939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2898721694946</t>
   </si>
   <si>
     <t xml:space="preserve">13.1376094818115</t>
@@ -4646,25 +4646,25 @@
     <t xml:space="preserve">13.4433507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7212982177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9019622802734</t>
+    <t xml:space="preserve">13.7212972640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9019632339478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4248199462891</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7948083877563</t>
+    <t xml:space="preserve">12.7948093414307</t>
   </si>
   <si>
     <t xml:space="preserve">12.9106197357178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5128364562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2441558837891</t>
+    <t xml:space="preserve">13.5128374099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2441549301147</t>
   </si>
   <si>
     <t xml:space="preserve">13.6240158081055</t>
@@ -4673,13 +4673,13 @@
     <t xml:space="preserve">13.9297571182251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741683959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0455675125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.939022064209</t>
+    <t xml:space="preserve">13.8741674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0455684661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9390211105347</t>
   </si>
   <si>
     <t xml:space="preserve">14.2540283203125</t>
@@ -4691,46 +4691,46 @@
     <t xml:space="preserve">14.1845417022705</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5505046844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9257326126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7589645385742</t>
+    <t xml:space="preserve">14.5505037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9257335662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7589635848999</t>
   </si>
   <si>
     <t xml:space="preserve">14.9674243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4214038848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5557460784912</t>
+    <t xml:space="preserve">15.4214019775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5557451248169</t>
   </si>
   <si>
     <t xml:space="preserve">15.2407398223877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1388244628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5134449005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.819185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7543315887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538307189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5279502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0878677368164</t>
+    <t xml:space="preserve">15.1388254165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5134439468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7543325424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538316726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5279493331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0878686904907</t>
   </si>
   <si>
     <t xml:space="preserve">15.2083120346069</t>
@@ -4748,25 +4748,25 @@
     <t xml:space="preserve">15.2317152023315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.315972328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8993701934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.33469581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6483173370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2832059860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0304365158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8010711669922</t>
+    <t xml:space="preserve">15.3159732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8993711471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3346948623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6483182907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2832069396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0304355621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8010721206665</t>
   </si>
   <si>
     <t xml:space="preserve">14.6700048446655</t>
@@ -4775,7 +4775,7 @@
     <t xml:space="preserve">14.3517026901245</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5295782089233</t>
+    <t xml:space="preserve">14.529577255249</t>
   </si>
   <si>
     <t xml:space="preserve">14.4031934738159</t>
@@ -4793,64 +4793,64 @@
     <t xml:space="preserve">14.4921293258667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3891496658325</t>
+    <t xml:space="preserve">14.3891506195068</t>
   </si>
   <si>
     <t xml:space="preserve">14.7074527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9087324142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2504396438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.521933555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5827865600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4657621383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5125713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2457580566406</t>
+    <t xml:space="preserve">14.9087333679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2504405975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5219326019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.58278465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.465763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5125703811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2457590103149</t>
   </si>
   <si>
     <t xml:space="preserve">15.7466173171997</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2036304473877</t>
+    <t xml:space="preserve">15.2036294937134</t>
   </si>
   <si>
     <t xml:space="preserve">14.1316995620728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5436191558838</t>
+    <t xml:space="preserve">14.5436201095581</t>
   </si>
   <si>
     <t xml:space="preserve">14.7683038711548</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8244762420654</t>
+    <t xml:space="preserve">14.8244752883911</t>
   </si>
   <si>
     <t xml:space="preserve">14.8338375091553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0117130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2270345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1240539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023508071899</t>
+    <t xml:space="preserve">15.0117120742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2270336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1240549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023498535156</t>
   </si>
   <si>
     <t xml:space="preserve">15.4563999176025</t>
@@ -4865,16 +4865,16 @@
     <t xml:space="preserve">15.4938459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0163946151733</t>
+    <t xml:space="preserve">15.016393661499</t>
   </si>
   <si>
     <t xml:space="preserve">15.0444784164429</t>
   </si>
   <si>
-    <t xml:space="preserve">15.072564125061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4142723083496</t>
+    <t xml:space="preserve">15.0725650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4142732620239</t>
   </si>
   <si>
     <t xml:space="preserve">15.1802253723145</t>
@@ -4883,13 +4883,13 @@
     <t xml:space="preserve">15.2129917144775</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8853282928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3704271316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.286169052124</t>
+    <t xml:space="preserve">14.885326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3704261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2861700057983</t>
   </si>
   <si>
     <t xml:space="preserve">14.1691465377808</t>
@@ -4907,7 +4907,7 @@
     <t xml:space="preserve">14.84787940979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1615009307861</t>
+    <t xml:space="preserve">15.1615018844604</t>
   </si>
   <si>
     <t xml:space="preserve">16.2381114959717</t>
@@ -4916,28 +4916,28 @@
     <t xml:space="preserve">15.4610805511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2223539352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7308559417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9976692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6793661117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0397987365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1053304672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.152138710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2597999572754</t>
+    <t xml:space="preserve">15.2223529815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7308568954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.997670173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6793670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0397977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1053314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1521396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2598009109497</t>
   </si>
   <si>
     <t xml:space="preserve">15.339376449585</t>
@@ -4946,10 +4946,10 @@
     <t xml:space="preserve">14.7636241912842</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4593639373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.612117767334</t>
+    <t xml:space="preserve">14.4593629837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6121168136597</t>
   </si>
   <si>
     <t xml:space="preserve">13.8087158203125</t>
@@ -4961,10 +4961,10 @@
     <t xml:space="preserve">12.6057195663452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3763542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4091196060181</t>
+    <t xml:space="preserve">12.3763551712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4091205596924</t>
   </si>
   <si>
     <t xml:space="preserve">12.8257217407227</t>
@@ -4973,16 +4973,16 @@
     <t xml:space="preserve">12.6899757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4044389724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0065603256226</t>
+    <t xml:space="preserve">12.4044399261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0065612792969</t>
   </si>
   <si>
     <t xml:space="preserve">12.1189031600952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4793338775635</t>
+    <t xml:space="preserve">12.4793348312378</t>
   </si>
   <si>
     <t xml:space="preserve">12.4138021469116</t>
@@ -4994,7 +4994,7 @@
     <t xml:space="preserve">12.264012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6338052749634</t>
+    <t xml:space="preserve">12.6338043212891</t>
   </si>
   <si>
     <t xml:space="preserve">12.320182800293</t>
@@ -5003,10 +5003,10 @@
     <t xml:space="preserve">12.1657123565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1329469680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4606103897095</t>
+    <t xml:space="preserve">12.1329460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4606113433838</t>
   </si>
   <si>
     <t xml:space="preserve">12.6244430541992</t>
@@ -5015,22 +5015,22 @@
     <t xml:space="preserve">12.582314491272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4840154647827</t>
+    <t xml:space="preserve">12.4840145111084</t>
   </si>
   <si>
     <t xml:space="preserve">12.4231643676758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2874174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2686920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2172021865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1282653808594</t>
+    <t xml:space="preserve">12.2874164581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2686929702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2172031402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1282644271851</t>
   </si>
   <si>
     <t xml:space="preserve">11.8801755905151</t>
@@ -5039,37 +5039,37 @@
     <t xml:space="preserve">11.5618743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4869794845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3278274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6274070739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7210254669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023010253906</t>
+    <t xml:space="preserve">11.4869785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3278284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6274061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7210264205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023019790649</t>
   </si>
   <si>
     <t xml:space="preserve">11.4682559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3371906280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.472936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.435489654541</t>
+    <t xml:space="preserve">11.3371896743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4729356765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4354887008667</t>
   </si>
   <si>
     <t xml:space="preserve">11.3559141159058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.510383605957</t>
+    <t xml:space="preserve">11.5103845596313</t>
   </si>
   <si>
     <t xml:space="preserve">11.5478315353394</t>
@@ -5081,16 +5081,16 @@
     <t xml:space="preserve">11.8414611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.870343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323053359985</t>
+    <t xml:space="preserve">11.8703422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323043823242</t>
   </si>
   <si>
     <t xml:space="preserve">11.533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7548160552979</t>
+    <t xml:space="preserve">11.7548170089722</t>
   </si>
   <si>
     <t xml:space="preserve">11.4371185302734</t>
@@ -5105,7 +5105,7 @@
     <t xml:space="preserve">11.884783744812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9618005752563</t>
+    <t xml:space="preserve">11.9618015289307</t>
   </si>
   <si>
     <t xml:space="preserve">12.2361764907837</t>
@@ -5114,7 +5114,7 @@
     <t xml:space="preserve">12.3324489593506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3950262069702</t>
+    <t xml:space="preserve">12.3950252532959</t>
   </si>
   <si>
     <t xml:space="preserve">12.3468885421753</t>
@@ -5129,7 +5129,7 @@
     <t xml:space="preserve">12.4479761123657</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5394325256348</t>
+    <t xml:space="preserve">12.5394334793091</t>
   </si>
   <si>
     <t xml:space="preserve">12.0484457015991</t>
@@ -5147,7 +5147,7 @@
     <t xml:space="preserve">12.4720430374146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4768571853638</t>
+    <t xml:space="preserve">12.4768562316895</t>
   </si>
   <si>
     <t xml:space="preserve">12.5105514526367</t>
@@ -5159,10 +5159,10 @@
     <t xml:space="preserve">13.2037105560303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1988973617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2711000442505</t>
+    <t xml:space="preserve">13.1988964080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2711009979248</t>
   </si>
   <si>
     <t xml:space="preserve">13.1603879928589</t>
@@ -5171,19 +5171,19 @@
     <t xml:space="preserve">12.789740562439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1266937255859</t>
+    <t xml:space="preserve">13.1266927719116</t>
   </si>
   <si>
     <t xml:space="preserve">13.0978107452393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.46364402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7091379165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7235803604126</t>
+    <t xml:space="preserve">13.4636449813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7091388702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7235794067383</t>
   </si>
   <si>
     <t xml:space="preserve">13.6610021591187</t>
@@ -5213,7 +5213,7 @@
     <t xml:space="preserve">14.3541612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4456195831299</t>
+    <t xml:space="preserve">14.4456205368042</t>
   </si>
   <si>
     <t xml:space="preserve">14.440806388855</t>
@@ -5243,16 +5243,16 @@
     <t xml:space="preserve">14.835521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8499622344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.806640625</t>
+    <t xml:space="preserve">14.8499631881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8066396713257</t>
   </si>
   <si>
     <t xml:space="preserve">14.8114538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7873859405518</t>
+    <t xml:space="preserve">14.7873849868774</t>
   </si>
   <si>
     <t xml:space="preserve">14.7248086929321</t>
@@ -5273,25 +5273,25 @@
     <t xml:space="preserve">14.4167385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5900278091431</t>
+    <t xml:space="preserve">14.5900268554688</t>
   </si>
   <si>
     <t xml:space="preserve">14.7199954986572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6862993240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2097539901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3493480682373</t>
+    <t xml:space="preserve">14.68630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.209753036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.349347114563</t>
   </si>
   <si>
     <t xml:space="preserve">14.2867708206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5081968307495</t>
+    <t xml:space="preserve">14.5081958770752</t>
   </si>
   <si>
     <t xml:space="preserve">14.4071111679077</t>
@@ -5303,7 +5303,7 @@
     <t xml:space="preserve">14.5996551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4889430999756</t>
+    <t xml:space="preserve">14.4889421463013</t>
   </si>
   <si>
     <t xml:space="preserve">14.8595905303955</t>
@@ -5318,19 +5318,19 @@
     <t xml:space="preserve">14.5274515151978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1231088638306</t>
+    <t xml:space="preserve">14.1231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">14.1134805679321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1616182327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1664304733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5226373672485</t>
+    <t xml:space="preserve">14.1616172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.166431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5226383209229</t>
   </si>
   <si>
     <t xml:space="preserve">14.4263648986816</t>
@@ -5360,10 +5360,10 @@
     <t xml:space="preserve">14.7970123291016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772871017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713872909546</t>
+    <t xml:space="preserve">15.1772880554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713882446289</t>
   </si>
   <si>
     <t xml:space="preserve">15.2831859588623</t>
@@ -5375,7 +5375,7 @@
     <t xml:space="preserve">15.0425062179565</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6911134719849</t>
+    <t xml:space="preserve">14.6911144256592</t>
   </si>
   <si>
     <t xml:space="preserve">14.821081161499</t>
@@ -5384,16 +5384,16 @@
     <t xml:space="preserve">14.8644027709961</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5467042922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7501068115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7096729278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0832080841064</t>
+    <t xml:space="preserve">14.5467052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7501058578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7096719741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0832061767578</t>
   </si>
   <si>
     <t xml:space="preserve">15.586443901062</t>
@@ -5408,16 +5408,16 @@
     <t xml:space="preserve">15.4901714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7164115905762</t>
+    <t xml:space="preserve">15.7164125442505</t>
   </si>
   <si>
     <t xml:space="preserve">15.4997987747192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5190544128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8980989456177</t>
+    <t xml:space="preserve">15.5190534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8980979919434</t>
   </si>
   <si>
     <t xml:space="preserve">15.081015586853</t>
@@ -5862,6 +5862,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.5550003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5450000762939</t>
   </si>
 </sst>
 </file>
@@ -62675,7 +62678,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.650625</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>2648887</v>
@@ -62696,6 +62699,32 @@
         <v>1949</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6493287037</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>2314118</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>14.585000038147</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>14.3050003051758</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>14.5450000762939</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>14.5450000762939</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TEN.MI.xlsx
+++ b/data/TEN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="1954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1955">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,76 +38,76 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30197620391846</t>
+    <t xml:space="preserve">8.30197715759277</t>
   </si>
   <si>
     <t xml:space="preserve">TEN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31735134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11748790740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.886878490448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58708477020264</t>
+    <t xml:space="preserve">8.31735229492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11749076843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88687753677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58708524703979</t>
   </si>
   <si>
     <t xml:space="preserve">7.50252771377563</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46409177780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021432876587</t>
+    <t xml:space="preserve">7.46409320831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021528244019</t>
   </si>
   <si>
     <t xml:space="preserve">7.45640563964844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98749732971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92600202560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14508152008057</t>
+    <t xml:space="preserve">6.98749828338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92600154876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14508199691772</t>
   </si>
   <si>
     <t xml:space="preserve">6.74151468276978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99518585205078</t>
+    <t xml:space="preserve">6.99518489837646</t>
   </si>
   <si>
     <t xml:space="preserve">7.17582893371582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2642297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28729057312012</t>
+    <t xml:space="preserve">7.14892625808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26422929763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28729200363159</t>
   </si>
   <si>
     <t xml:space="preserve">7.198890209198</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84528827667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86834859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41797065734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78379249572754</t>
+    <t xml:space="preserve">6.84528779983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86834955215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41797208786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78379201889038</t>
   </si>
   <si>
     <t xml:space="preserve">6.64158248901367</t>
@@ -116,37 +116,37 @@
     <t xml:space="preserve">7.17198610305786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33341360092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10664653778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53711986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44487428665161</t>
+    <t xml:space="preserve">7.33341455459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10664701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5371208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44487619400024</t>
   </si>
   <si>
     <t xml:space="preserve">7.20273399353027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50637197494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23348331451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89909791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9106273651123</t>
+    <t xml:space="preserve">7.50637102127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23348188400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89909648895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91062688827515</t>
   </si>
   <si>
     <t xml:space="preserve">7.55633592605591</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72545146942139</t>
+    <t xml:space="preserve">7.72545099258423</t>
   </si>
   <si>
     <t xml:space="preserve">7.90994024276733</t>
@@ -155,118 +155,118 @@
     <t xml:space="preserve">7.85613203048706</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02524375915527</t>
+    <t xml:space="preserve">8.02524471282959</t>
   </si>
   <si>
     <t xml:space="preserve">8.34809970855713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44034290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1328649520874</t>
+    <t xml:space="preserve">8.44034385681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13286304473877</t>
   </si>
   <si>
     <t xml:space="preserve">8.28660297393799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00218200683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24816799163818</t>
+    <t xml:space="preserve">8.00218296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2481689453125</t>
   </si>
   <si>
     <t xml:space="preserve">8.15592384338379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39422130584717</t>
+    <t xml:space="preserve">8.39422416687012</t>
   </si>
   <si>
     <t xml:space="preserve">8.24048233032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20204734802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38653564453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.140549659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08674049377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41728210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25585556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94068908691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07905578613281</t>
+    <t xml:space="preserve">8.20204639434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38653469085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14055061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08674144744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41728115081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25585651397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94068717956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07905387878418</t>
   </si>
   <si>
     <t xml:space="preserve">8.05599308013916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51721572875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55564880371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61714553833008</t>
+    <t xml:space="preserve">8.51721477508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55564975738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61714649200439</t>
   </si>
   <si>
     <t xml:space="preserve">8.87850475311279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87081718444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90925216674805</t>
+    <t xml:space="preserve">8.87081813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90925312042236</t>
   </si>
   <si>
     <t xml:space="preserve">9.17061138153076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30897617340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.347412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40122127532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10911655426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27822971343994</t>
+    <t xml:space="preserve">9.3089771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34741115570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40121936798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10911464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27822780609131</t>
   </si>
   <si>
     <t xml:space="preserve">9.28591537475586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05530452728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93231296539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45571708679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40959548950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85544204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69401454925537</t>
+    <t xml:space="preserve">9.05530548095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9323148727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45571899414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40959453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85544300079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69401550292969</t>
   </si>
   <si>
     <t xml:space="preserve">8.66326808929443</t>
@@ -275,64 +275,64 @@
     <t xml:space="preserve">8.74782562255859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75551128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9169397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11680126190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14755058288574</t>
+    <t xml:space="preserve">8.75551223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91694068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11680030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14754962921143</t>
   </si>
   <si>
     <t xml:space="preserve">8.84775543212891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0322437286377</t>
+    <t xml:space="preserve">9.03224563598633</t>
   </si>
   <si>
     <t xml:space="preserve">9.09535026550293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20579051971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22945308685303</t>
+    <t xml:space="preserve">9.20578956604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22945499420166</t>
   </si>
   <si>
     <t xml:space="preserve">9.44244289398193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46610546112061</t>
+    <t xml:space="preserve">9.46610641479492</t>
   </si>
   <si>
     <t xml:space="preserve">9.47399616241455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39511013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2846736907959</t>
+    <t xml:space="preserve">9.39511108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28467464447021</t>
   </si>
   <si>
     <t xml:space="preserve">9.1505708694458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11901760101318</t>
+    <t xml:space="preserve">9.11901664733887</t>
   </si>
   <si>
     <t xml:space="preserve">9.57654571533203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0498504638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2233943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0419626235962</t>
+    <t xml:space="preserve">10.0498514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2233963012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0419607162476</t>
   </si>
   <si>
     <t xml:space="preserve">10.0104084014893</t>
@@ -341,94 +341,94 @@
     <t xml:space="preserve">9.78953170776367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65543079376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85263824462891</t>
+    <t xml:space="preserve">9.65542697906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85263919830322</t>
   </si>
   <si>
     <t xml:space="preserve">9.6712064743042</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91574764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1918430328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93941402435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.333833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81319713592529</t>
+    <t xml:space="preserve">9.91574668884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1918411254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93941307067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3338346481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81319618225098</t>
   </si>
   <si>
     <t xml:space="preserve">9.5371036529541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63965225219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1366243362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2628383636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4048290252686</t>
+    <t xml:space="preserve">9.63965320587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1366233825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2628374099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4048309326172</t>
   </si>
   <si>
     <t xml:space="preserve">10.3653869628906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1208467483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82897472381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90785980224609</t>
+    <t xml:space="preserve">10.1208486557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82897567749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90785789489746</t>
   </si>
   <si>
     <t xml:space="preserve">10.0261850357056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1839532852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99463367462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1129570007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71853542327881</t>
+    <t xml:space="preserve">10.1839542388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786169052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99463272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1129598617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71853733062744</t>
   </si>
   <si>
     <t xml:space="preserve">9.88419437408447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68698310852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56077003479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66331768035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59232139587402</t>
+    <t xml:space="preserve">9.68698120117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56076908111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6633186340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59232234954834</t>
   </si>
   <si>
     <t xml:space="preserve">9.30834007263184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43455219268799</t>
+    <t xml:space="preserve">9.43455410003662</t>
   </si>
   <si>
     <t xml:space="preserve">9.18212413787842</t>
@@ -437,178 +437,178 @@
     <t xml:space="preserve">9.04013252258301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22156715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48977375030518</t>
+    <t xml:space="preserve">9.22156620025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48977279663086</t>
   </si>
   <si>
     <t xml:space="preserve">9.69487190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89996910095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87630748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0025186538696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2312850952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.176064491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523990631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0340757369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97096633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58443164825439</t>
+    <t xml:space="preserve">9.8999719619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87630462646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0025205612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2312841415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1760654449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1524019241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0340747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97096538543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58443450927734</t>
   </si>
   <si>
     <t xml:space="preserve">9.72642517089844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80531024932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60021018981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33989143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13479518890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1900110244751</t>
+    <t xml:space="preserve">9.80530834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60020923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33989238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13479423522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19001293182373</t>
   </si>
   <si>
     <t xml:space="preserve">9.36355686187744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24523162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14268207550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16634750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38722229003906</t>
+    <t xml:space="preserve">9.24522972106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14268112182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16634845733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38722324371338</t>
   </si>
   <si>
     <t xml:space="preserve">9.17423534393311</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90602970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02435398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86841583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0182971954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1681785583496</t>
+    <t xml:space="preserve">8.90602779388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02435493469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86841678619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0182981491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1681776046753</t>
   </si>
   <si>
     <t xml:space="preserve">10.2943925857544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2707271575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4916019439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.16028881073</t>
+    <t xml:space="preserve">10.2707281112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.491602897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1602878570557</t>
   </si>
   <si>
     <t xml:space="preserve">10.3732757568359</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3496122360229</t>
+    <t xml:space="preserve">10.3496103286743</t>
   </si>
   <si>
     <t xml:space="preserve">10.4837131500244</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5862617492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5389318466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547113418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.507381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6099290847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022794723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4363822937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3969411849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79742050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8386917114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2567796707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936731338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3987722396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5328731536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5249872207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5092077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3041105270386</t>
+    <t xml:space="preserve">10.5862627029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5389337539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5073795318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6099281311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022813796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4363832473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3969392776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8386926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2567806243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3987712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5328741073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5249862670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5092105865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3041086196899</t>
   </si>
   <si>
     <t xml:space="preserve">11.7260236740112</t>
   </si>
   <si>
-    <t xml:space="preserve">11.391676902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6304941177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6702995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4235210418701</t>
+    <t xml:space="preserve">11.3916778564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6304960250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6702976226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4235191345215</t>
   </si>
   <si>
     <t xml:space="preserve">11.2563457489014</t>
@@ -623,31 +623,31 @@
     <t xml:space="preserve">12.3787965774536</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6892614364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8564348220825</t>
+    <t xml:space="preserve">12.6892595291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8564329147339</t>
   </si>
   <si>
     <t xml:space="preserve">12.7370262145996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8882780075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2385444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0474901199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9599237442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.095253944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9838056564331</t>
+    <t xml:space="preserve">12.888279914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.23854637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0474891662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9599227905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0952558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9838066101074</t>
   </si>
   <si>
     <t xml:space="preserve">13.039529800415</t>
@@ -659,13 +659,13 @@
     <t xml:space="preserve">13.1270971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2783498764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5251302719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6843414306641</t>
+    <t xml:space="preserve">13.2783489227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5251293182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6843423843384</t>
   </si>
   <si>
     <t xml:space="preserve">13.7082214355469</t>
@@ -674,19 +674,19 @@
     <t xml:space="preserve">13.5092067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7321071624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6524982452393</t>
+    <t xml:space="preserve">13.7321081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763792037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6524991989136</t>
   </si>
   <si>
     <t xml:space="preserve">13.5808515548706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5649328231812</t>
+    <t xml:space="preserve">13.5649318695068</t>
   </si>
   <si>
     <t xml:space="preserve">13.4694051742554</t>
@@ -695,28 +695,28 @@
     <t xml:space="preserve">13.3659181594849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5171670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4534826278687</t>
+    <t xml:space="preserve">13.5171680450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.453483581543</t>
   </si>
   <si>
     <t xml:space="preserve">13.2146644592285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4614410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5569705963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3897981643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3499965667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6922998428345</t>
+    <t xml:space="preserve">13.4614448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5569725036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3897953033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3499956130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6923027038574</t>
   </si>
   <si>
     <t xml:space="preserve">13.7161846160889</t>
@@ -728,55 +728,55 @@
     <t xml:space="preserve">12.8803176879883</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8723573684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7847881317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9519624710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768278121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8086700439453</t>
+    <t xml:space="preserve">12.8723564147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7847890853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9519634246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768297195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8086709976196</t>
   </si>
   <si>
     <t xml:space="preserve">12.5220880508423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7290649414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.816632270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201202392578</t>
+    <t xml:space="preserve">12.7290639877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8166313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201192855835</t>
   </si>
   <si>
     <t xml:space="preserve">12.6255769729614</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4982061386108</t>
+    <t xml:space="preserve">12.4982051849365</t>
   </si>
   <si>
     <t xml:space="preserve">12.8484735488892</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9041976928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4265613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628740310669</t>
+    <t xml:space="preserve">12.9041986465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4265594482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628768920898</t>
   </si>
   <si>
     <t xml:space="preserve">12.5539302825928</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2991886138916</t>
+    <t xml:space="preserve">12.2991895675659</t>
   </si>
   <si>
     <t xml:space="preserve">12.1399765014648</t>
@@ -788,25 +788,25 @@
     <t xml:space="preserve">12.0842533111572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7021427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7180643081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658262252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.678258895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.948920249939</t>
+    <t xml:space="preserve">11.7021417617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7180633544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658271789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6782598495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9489212036133</t>
   </si>
   <si>
     <t xml:space="preserve">12.028528213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1240558624268</t>
+    <t xml:space="preserve">12.1240539550781</t>
   </si>
   <si>
     <t xml:space="preserve">11.9091186523438</t>
@@ -815,79 +815,79 @@
     <t xml:space="preserve">11.7499055862427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7737884521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8533935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5906944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4822854995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4026775360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7927494049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6972208023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8643951416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8405141830444</t>
+    <t xml:space="preserve">11.7737865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8533954620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5906925201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4822845458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4026784896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7927503585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6972227096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8643970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8405132293701</t>
   </si>
   <si>
     <t xml:space="preserve">12.5857734680176</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0046491622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1081371307373</t>
+    <t xml:space="preserve">12.0046453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.10813331604</t>
   </si>
   <si>
     <t xml:space="preserve">11.8931980133057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9648427963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972804069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.956883430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1320190429688</t>
+    <t xml:space="preserve">11.9648408889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9728031158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9568824768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1320161819458</t>
   </si>
   <si>
     <t xml:space="preserve">11.463321685791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4474020004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4951648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3757572174072</t>
+    <t xml:space="preserve">11.4474000930786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4951658248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3757562637329</t>
   </si>
   <si>
     <t xml:space="preserve">11.0652914047241</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2245035171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2404232025146</t>
+    <t xml:space="preserve">11.2324628829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2245044708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2404260635376</t>
   </si>
   <si>
     <t xml:space="preserve">11.4155578613281</t>
@@ -896,25 +896,25 @@
     <t xml:space="preserve">11.4712829589844</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3279895782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5747709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2961483001709</t>
+    <t xml:space="preserve">11.3279914855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5747728347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2961492538452</t>
   </si>
   <si>
     <t xml:space="preserve">11.4872035980225</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6170969009399</t>
+    <t xml:space="preserve">11.6170949935913</t>
   </si>
   <si>
     <t xml:space="preserve">11.5683870315552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6252117156982</t>
+    <t xml:space="preserve">11.6252126693726</t>
   </si>
   <si>
     <t xml:space="preserve">11.5196762084961</t>
@@ -923,37 +923,37 @@
     <t xml:space="preserve">11.3491954803467</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2193059921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1787137985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9189329147339</t>
+    <t xml:space="preserve">11.2193050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1787147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9189300537109</t>
   </si>
   <si>
     <t xml:space="preserve">11.0488233566284</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0082340240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9838771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7971601486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.96764087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3735504150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0650587081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1137676239014</t>
+    <t xml:space="preserve">11.0082330703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9838781356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7971611022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9676399230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3735485076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0650606155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1137666702271</t>
   </si>
   <si>
     <t xml:space="preserve">10.8783416748047</t>
@@ -962,37 +962,37 @@
     <t xml:space="preserve">10.9351692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8377513885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8458690643311</t>
+    <t xml:space="preserve">10.8377523422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8458681106567</t>
   </si>
   <si>
     <t xml:space="preserve">10.8945779800415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0812959671021</t>
+    <t xml:space="preserve">11.0812978744507</t>
   </si>
   <si>
     <t xml:space="preserve">11.4222602844238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4466152191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2923679351807</t>
+    <t xml:space="preserve">11.4466142654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2923669815063</t>
   </si>
   <si>
     <t xml:space="preserve">11.1949510574341</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9026975631714</t>
+    <t xml:space="preserve">10.9026966094971</t>
   </si>
   <si>
     <t xml:space="preserve">11.0407056808472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3654327392578</t>
+    <t xml:space="preserve">11.3654317855835</t>
   </si>
   <si>
     <t xml:space="preserve">11.5034408569336</t>
@@ -1001,46 +1001,46 @@
     <t xml:space="preserve">11.6089773178101</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5359153747559</t>
+    <t xml:space="preserve">11.5359144210815</t>
   </si>
   <si>
     <t xml:space="preserve">11.3410758972168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0975341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2030696868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8702249526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6429147720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5373802185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77427101135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85545253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70932579040527</t>
+    <t xml:space="preserve">11.0975313186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2030687332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8702239990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.642915725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5373792648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77427196502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85545349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70932483673096</t>
   </si>
   <si>
     <t xml:space="preserve">9.79862499237061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66061782836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72556209564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46578025817871</t>
+    <t xml:space="preserve">9.66061687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72556114196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46578121185303</t>
   </si>
   <si>
     <t xml:space="preserve">9.49825382232666</t>
@@ -1052,100 +1052,100 @@
     <t xml:space="preserve">9.40895366668701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36024475097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27906322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33588981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30341815948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26282691955566</t>
+    <t xml:space="preserve">9.36024570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27906131744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3358907699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30341720581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26282787322998</t>
   </si>
   <si>
     <t xml:space="preserve">9.19788265228271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10858249664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98680973052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09234523773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07610893249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2222375869751</t>
+    <t xml:space="preserve">9.10858345031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98680877685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09234714508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11670017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07610988616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22223567962646</t>
   </si>
   <si>
     <t xml:space="preserve">9.52260780334473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61190891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62814426422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41707324981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65250015258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88792514801025</t>
+    <t xml:space="preserve">9.61190700531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62814617156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41707229614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65249919891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88792705535889</t>
   </si>
   <si>
     <t xml:space="preserve">9.80674457550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83109951019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83921718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78238964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76615333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74991798400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74180030822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70120716094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60378932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35212802886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32777118682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44142627716064</t>
+    <t xml:space="preserve">9.83109855651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83921813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78239059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76615428924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74991703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74179840087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70120811462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60378837585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35212707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32777214050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44142818450928</t>
   </si>
   <si>
     <t xml:space="preserve">9.21411991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1004638671875</t>
+    <t xml:space="preserve">9.10046291351318</t>
   </si>
   <si>
     <t xml:space="preserve">9.12481784820557</t>
@@ -1154,85 +1154,85 @@
     <t xml:space="preserve">9.1816463470459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27094459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49013328552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53884410858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6023244857788</t>
+    <t xml:space="preserve">9.27094554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49013519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53884315490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6023254394531</t>
   </si>
   <si>
     <t xml:space="preserve">10.6835060119629</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6510324478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5617351531982</t>
+    <t xml:space="preserve">10.6510334014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5617341995239</t>
   </si>
   <si>
     <t xml:space="preserve">10.4805517196655</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3587818145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.228889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96910667419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81486225128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84733581542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92939758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.257640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2001972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95401573181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94580936431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0196619033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2248153686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4545869827271</t>
+    <t xml:space="preserve">10.3587789535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2288885116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96910762786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81486320495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84733486175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92939853668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2576398849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2001981735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95401382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94580841064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01966381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2248163223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4545879364014</t>
   </si>
   <si>
     <t xml:space="preserve">10.3397016525269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1673727035522</t>
+    <t xml:space="preserve">10.1673736572266</t>
   </si>
   <si>
     <t xml:space="preserve">10.2986717224121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3971424102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843585968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0043964385986</t>
+    <t xml:space="preserve">10.3971452713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843595504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0043973922729</t>
   </si>
   <si>
     <t xml:space="preserve">10.7418012619019</t>
@@ -1241,28 +1241,28 @@
     <t xml:space="preserve">10.594090461731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4956178665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7007713317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776786804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7089776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8730983734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9551610946655</t>
+    <t xml:space="preserve">10.4956169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7007684707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776796340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7089767456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8730993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9551601409912</t>
   </si>
   <si>
     <t xml:space="preserve">10.9059238433838</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7992420196533</t>
+    <t xml:space="preserve">10.799243927002</t>
   </si>
   <si>
     <t xml:space="preserve">10.996190071106</t>
@@ -1274,46 +1274,46 @@
     <t xml:space="preserve">11.1685190200806</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2669925689697</t>
+    <t xml:space="preserve">11.2669906616211</t>
   </si>
   <si>
     <t xml:space="preserve">11.2587862014771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5460014343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6526803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7183294296265</t>
+    <t xml:space="preserve">11.5459995269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6526784896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7183284759521</t>
   </si>
   <si>
     <t xml:space="preserve">11.4803504943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.422908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.595235824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6855049133301</t>
+    <t xml:space="preserve">11.4229078292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5952377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6855039596558</t>
   </si>
   <si>
     <t xml:space="preserve">11.9070692062378</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9152765274048</t>
+    <t xml:space="preserve">11.9152755737305</t>
   </si>
   <si>
     <t xml:space="preserve">11.7921829223633</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8660373687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9316873550415</t>
+    <t xml:space="preserve">11.8660383224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9316892623901</t>
   </si>
   <si>
     <t xml:space="preserve">11.7675657272339</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">11.5542058944702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5090732574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2834062576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1603136062622</t>
+    <t xml:space="preserve">11.5090742111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2834043502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1603145599365</t>
   </si>
   <si>
     <t xml:space="preserve">10.8648929595947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0249109268188</t>
+    <t xml:space="preserve">11.0249137878418</t>
   </si>
   <si>
     <t xml:space="preserve">10.5981950759888</t>
@@ -1349,22 +1349,22 @@
     <t xml:space="preserve">10.6105031967163</t>
   </si>
   <si>
-    <t xml:space="preserve">10.667947769165</t>
+    <t xml:space="preserve">10.6679458618164</t>
   </si>
   <si>
     <t xml:space="preserve">10.8197593688965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1480045318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2464761734009</t>
+    <t xml:space="preserve">11.1480026245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2464780807495</t>
   </si>
   <si>
     <t xml:space="preserve">11.1192808151245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4639377593994</t>
+    <t xml:space="preserve">11.4639387130737</t>
   </si>
   <si>
     <t xml:space="preserve">11.9645099639893</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">11.5418968200684</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6937112808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.755256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6198530197144</t>
+    <t xml:space="preserve">11.6937093734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7552576065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6198539733887</t>
   </si>
   <si>
     <t xml:space="preserve">11.9193782806396</t>
@@ -1391,19 +1391,19 @@
     <t xml:space="preserve">12.3543033599854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1737680435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0876026153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8085956573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7060203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8906574249268</t>
+    <t xml:space="preserve">12.1737670898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0876045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8085975646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.706018447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8906555175781</t>
   </si>
   <si>
     <t xml:space="preserve">11.7429466247559</t>
@@ -1412,10 +1412,10 @@
     <t xml:space="preserve">11.9768199920654</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4035367965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.644474029541</t>
+    <t xml:space="preserve">12.4035387039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6444730758667</t>
   </si>
   <si>
     <t xml:space="preserve">11.1726217269897</t>
@@ -1430,85 +1430,85 @@
     <t xml:space="preserve">11.2259616851807</t>
   </si>
   <si>
-    <t xml:space="preserve">11.447527885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4885568618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4147024154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9398956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7019166946411</t>
+    <t xml:space="preserve">11.4475269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4885578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4147033691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9398937225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7019157409668</t>
   </si>
   <si>
     <t xml:space="preserve">11.7347412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0670890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2763442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3050661087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2230043411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.210693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4363632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.510217666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5471448898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7276792526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8220500946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5389394760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5881748199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4814968109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7769155502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241506576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2118396759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2405633926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5318813323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.236457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4539213180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3513450622559</t>
+    <t xml:space="preserve">12.0670871734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2763433456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3050651550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2230033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2106962203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4363641738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5102195739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5471467971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7276811599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8220510482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5881757736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4814958572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7769174575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.211841583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2405624389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5318784713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2364568710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4539194107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3513460159302</t>
   </si>
   <si>
     <t xml:space="preserve">13.3964796066284</t>
@@ -1517,67 +1517,67 @@
     <t xml:space="preserve">13.3308305740356</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923759460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6385593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0857925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283479690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.186861038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1952037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.869836807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5653266906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.231614112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0939598083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1648740768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2357873916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8061351776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9646482467651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6935081481934</t>
+    <t xml:space="preserve">13.3923749923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.638560295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0857915878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283470153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1868572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1952028274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698358535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5653257369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2316131591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0939607620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1648731231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2357864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8061361312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9646472930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6935091018677</t>
   </si>
   <si>
     <t xml:space="preserve">12.6517934799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.018874168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9813327789307</t>
+    <t xml:space="preserve">13.0188760757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9813346862793</t>
   </si>
   <si>
     <t xml:space="preserve">13.0689315795898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0981311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9396190643311</t>
+    <t xml:space="preserve">13.0981302261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9396200180054</t>
   </si>
   <si>
     <t xml:space="preserve">13.156530380249</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">12.5475091934204</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5683650970459</t>
+    <t xml:space="preserve">12.5683660507202</t>
   </si>
   <si>
     <t xml:space="preserve">12.4390535354614</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4807662963867</t>
+    <t xml:space="preserve">12.480767250061</t>
   </si>
   <si>
     <t xml:space="preserve">13.0856170654297</t>
@@ -1610,43 +1610,43 @@
     <t xml:space="preserve">13.1440162658691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1106452941895</t>
+    <t xml:space="preserve">13.1106462478638</t>
   </si>
   <si>
     <t xml:space="preserve">13.04807472229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2566452026367</t>
+    <t xml:space="preserve">13.2566432952881</t>
   </si>
   <si>
     <t xml:space="preserve">13.2941865921021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2900142669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3567571640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988096237183</t>
+    <t xml:space="preserve">13.2900152206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3567581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988115310669</t>
   </si>
   <si>
     <t xml:space="preserve">13.7613821029663</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3651008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4276676177979</t>
+    <t xml:space="preserve">13.3650999069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4276704788208</t>
   </si>
   <si>
     <t xml:space="preserve">13.2858448028564</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2274446487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2399568557739</t>
+    <t xml:space="preserve">13.2274436950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2399578094482</t>
   </si>
   <si>
     <t xml:space="preserve">13.1315031051636</t>
@@ -1655,55 +1655,55 @@
     <t xml:space="preserve">13.1356725692749</t>
   </si>
   <si>
-    <t xml:space="preserve">12.914589881897</t>
+    <t xml:space="preserve">12.9145917892456</t>
   </si>
   <si>
     <t xml:space="preserve">12.9896755218506</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0397319793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2263135910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4015111923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4098539352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6267671585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5808801651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809940338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4640808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.159571647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0636291503906</t>
+    <t xml:space="preserve">13.0397329330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2263126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4015121459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.409854888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.626766204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5808811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4640798568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1595706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0636301040649</t>
   </si>
   <si>
     <t xml:space="preserve">12.1428861618042</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2471704483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2221393585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3514528274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7435646057129</t>
+    <t xml:space="preserve">12.2471694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2221441268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3514556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7435636520386</t>
   </si>
   <si>
     <t xml:space="preserve">12.5349950790405</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">11.8383741378784</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0552864074707</t>
+    <t xml:space="preserve">12.055287361145</t>
   </si>
   <si>
     <t xml:space="preserve">12.0260858535767</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9468307495117</t>
+    <t xml:space="preserve">11.9468297958374</t>
   </si>
   <si>
     <t xml:space="preserve">11.5922632217407</t>
@@ -1730,43 +1730,43 @@
     <t xml:space="preserve">11.4963207244873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3086099624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2001552581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.271068572998</t>
+    <t xml:space="preserve">11.3086090087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2710666656494</t>
   </si>
   <si>
     <t xml:space="preserve">11.5380353927612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.525520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5296926498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5964336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7507753372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7591209411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6882057189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6047773361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7215785980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3681392669678</t>
+    <t xml:space="preserve">11.5255212783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5296936035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5964345932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7507762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7591190338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6882066726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6047782897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7215757369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3681373596191</t>
   </si>
   <si>
     <t xml:space="preserve">12.272198677063</t>
@@ -1775,16 +1775,16 @@
     <t xml:space="preserve">12.2137994766235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0386009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3639688491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4223670959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5975666046143</t>
+    <t xml:space="preserve">12.0386018753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3639698028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4223680496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5975646972656</t>
   </si>
   <si>
     <t xml:space="preserve">12.2596845626831</t>
@@ -1793,10 +1793,10 @@
     <t xml:space="preserve">12.2012844085693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6100807189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2555122375488</t>
+    <t xml:space="preserve">12.6100788116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2555112838745</t>
   </si>
   <si>
     <t xml:space="preserve">11.7382621765137</t>
@@ -1808,61 +1808,61 @@
     <t xml:space="preserve">11.7966623306274</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9259748458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8508892059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.421236038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9707288742065</t>
+    <t xml:space="preserve">11.9259738922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8508901596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840324401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4212369918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9707279205322</t>
   </si>
   <si>
     <t xml:space="preserve">10.8581018447876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8205575942993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7246150970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7579870223999</t>
+    <t xml:space="preserve">10.8205585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7246170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7579879760742</t>
   </si>
   <si>
     <t xml:space="preserve">10.6411895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9582147598267</t>
+    <t xml:space="preserve">10.9582138061523</t>
   </si>
   <si>
     <t xml:space="preserve">11.137583732605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2043237686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.20849609375</t>
+    <t xml:space="preserve">11.2043256759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084980010986</t>
   </si>
   <si>
     <t xml:space="preserve">11.1959819793701</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0916976928711</t>
+    <t xml:space="preserve">11.0916986465454</t>
   </si>
   <si>
     <t xml:space="preserve">11.0541563034058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7996997833252</t>
+    <t xml:space="preserve">10.7997016906738</t>
   </si>
   <si>
     <t xml:space="preserve">10.7121028900146</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">10.3867340087891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2866220474243</t>
+    <t xml:space="preserve">10.2866230010986</t>
   </si>
   <si>
     <t xml:space="preserve">10.4117622375488</t>
@@ -1883,10 +1883,10 @@
     <t xml:space="preserve">10.2062559127808</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91958904266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1092939376831</t>
+    <t xml:space="preserve">9.91958808898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1092948913574</t>
   </si>
   <si>
     <t xml:space="preserve">9.96596050262451</t>
@@ -1895,16 +1895,16 @@
     <t xml:space="preserve">9.80154800415039</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0797843933105</t>
+    <t xml:space="preserve">10.0797853469849</t>
   </si>
   <si>
     <t xml:space="preserve">9.89007663726807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19026756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13124847412109</t>
+    <t xml:space="preserve">9.19026947021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13124752044678</t>
   </si>
   <si>
     <t xml:space="preserve">8.95840263366699</t>
@@ -1913,61 +1913,61 @@
     <t xml:space="preserve">9.26615142822266</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14389705657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9710521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.675950050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69702911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43143844604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54948043823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64643955230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6253604888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32014274597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1312780380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13296604156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78221797943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79570817947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74174642562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95927715301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02504348754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01155376434326</t>
+    <t xml:space="preserve">9.14389514923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97105121612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67595100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69703006744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43143939971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54947853088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64644145965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62536144256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32014179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13128089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13296508789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78221654891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79570960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74174737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95927762985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02504539489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01155185699463</t>
   </si>
   <si>
     <t xml:space="preserve">8.31339836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44830131530762</t>
+    <t xml:space="preserve">8.44830226898193</t>
   </si>
   <si>
     <t xml:space="preserve">8.49467468261719</t>
@@ -1976,16 +1976,16 @@
     <t xml:space="preserve">8.74761772155762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76869773864746</t>
+    <t xml:space="preserve">8.76869583129883</t>
   </si>
   <si>
     <t xml:space="preserve">8.68859958648682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61271572113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6717357635498</t>
+    <t xml:space="preserve">8.61271286010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67173385620117</t>
   </si>
   <si>
     <t xml:space="preserve">8.98369789123535</t>
@@ -1994,22 +1994,22 @@
     <t xml:space="preserve">8.91203022003174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77291297912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8530101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99634456634521</t>
+    <t xml:space="preserve">8.77291202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85301113128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99634552001953</t>
   </si>
   <si>
     <t xml:space="preserve">9.30409240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05536460876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17340469360352</t>
+    <t xml:space="preserve">9.05536556243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17340564727783</t>
   </si>
   <si>
     <t xml:space="preserve">9.24507236480713</t>
@@ -2021,43 +2021,43 @@
     <t xml:space="preserve">9.41791820526123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47693729400635</t>
+    <t xml:space="preserve">9.47693634033203</t>
   </si>
   <si>
     <t xml:space="preserve">9.24085712432861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03007125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21977996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43899440765381</t>
+    <t xml:space="preserve">9.03007030487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2197790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43899536132812</t>
   </si>
   <si>
     <t xml:space="preserve">9.70880222320557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72144889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94909858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0081186294556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713529586792</t>
+    <t xml:space="preserve">9.72144985198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94909763336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0081176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0713539123535</t>
   </si>
   <si>
     <t xml:space="preserve">10.1177282333374</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2863569259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.155668258667</t>
+    <t xml:space="preserve">10.2863550186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1556673049927</t>
   </si>
   <si>
     <t xml:space="preserve">10.1388053894043</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">10.0334119796753</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0291957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83948993682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90272521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87321472167969</t>
+    <t xml:space="preserve">10.0291986465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8394889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90272426605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.873215675354</t>
   </si>
   <si>
     <t xml:space="preserve">9.9996862411499</t>
@@ -2090,37 +2090,37 @@
     <t xml:space="preserve">9.93223571777344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3791007995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4339046478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3833160400391</t>
+    <t xml:space="preserve">10.3791017532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4339056015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3833169937134</t>
   </si>
   <si>
     <t xml:space="preserve">10.4043970108032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5266513824463</t>
+    <t xml:space="preserve">10.5266523361206</t>
   </si>
   <si>
     <t xml:space="preserve">10.5814561843872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8681240081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7585172653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3622388839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.551947593689</t>
+    <t xml:space="preserve">10.868124961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7585163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151809692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3622379302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.551944732666</t>
   </si>
   <si>
     <t xml:space="preserve">10.8343992233276</t>
@@ -2129,55 +2129,55 @@
     <t xml:space="preserve">10.7247905731201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6952800750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971399307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8133211135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5898876190186</t>
+    <t xml:space="preserve">10.6952829360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.497142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8133201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807716369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5898885726929</t>
   </si>
   <si>
     <t xml:space="preserve">10.4760627746582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5477304458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6025352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9608688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0999870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9945964813232</t>
+    <t xml:space="preserve">10.5477313995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6025333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9608707427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0999898910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9945955276489</t>
   </si>
   <si>
     <t xml:space="preserve">11.3782262802124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1337146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8976354598999</t>
+    <t xml:space="preserve">11.1337156295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8976345062256</t>
   </si>
   <si>
     <t xml:space="preserve">10.4676313400269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4381227493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.269492149353</t>
+    <t xml:space="preserve">10.4381217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2694931030273</t>
   </si>
   <si>
     <t xml:space="preserve">10.1261587142944</t>
@@ -2186,13 +2186,13 @@
     <t xml:space="preserve">9.95331382751465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1303758621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92380428314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84792041778564</t>
+    <t xml:space="preserve">10.1303749084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92380523681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84792137145996</t>
   </si>
   <si>
     <t xml:space="preserve">9.79733180999756</t>
@@ -2201,85 +2201,85 @@
     <t xml:space="preserve">10.0587072372437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1345901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5055723190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5603771209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7285480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3922061920166</t>
+    <t xml:space="preserve">10.1345891952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5055732727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5603761672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7285509109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.392204284668</t>
   </si>
   <si>
     <t xml:space="preserve">9.95236873626709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83163070678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65914440155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65052032470703</t>
+    <t xml:space="preserve">9.83162975311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65914535522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6505184173584</t>
   </si>
   <si>
     <t xml:space="preserve">9.50390911102295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47372341156006</t>
+    <t xml:space="preserve">9.47372150421143</t>
   </si>
   <si>
     <t xml:space="preserve">9.09856986999512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35729885101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58152484893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26674270629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27536678314209</t>
+    <t xml:space="preserve">9.35729789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58152675628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26674175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27536582946777</t>
   </si>
   <si>
     <t xml:space="preserve">9.25811672210693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55565357208252</t>
+    <t xml:space="preserve">9.55565452575684</t>
   </si>
   <si>
     <t xml:space="preserve">9.69795417785645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43060398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31417465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36160850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54271793365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80144500732422</t>
+    <t xml:space="preserve">9.43060302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31417560577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36160755157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54271697998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8014440536499</t>
   </si>
   <si>
     <t xml:space="preserve">9.90493488311768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75401306152344</t>
+    <t xml:space="preserve">9.75401210784912</t>
   </si>
   <si>
     <t xml:space="preserve">9.64620876312256</t>
@@ -2291,55 +2291,55 @@
     <t xml:space="preserve">9.89200019836426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92649555206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1765995025635</t>
+    <t xml:space="preserve">9.92649841308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1765985488892</t>
   </si>
   <si>
     <t xml:space="preserve">9.93943214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96099376678467</t>
+    <t xml:space="preserve">9.96099185943604</t>
   </si>
   <si>
     <t xml:space="preserve">10.0644845962524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0601720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2844009399414</t>
+    <t xml:space="preserve">10.060170173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2844018936157</t>
   </si>
   <si>
     <t xml:space="preserve">10.1852245330811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3404579162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5301933288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.482759475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3620204925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96530532836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79281902313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61602306365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.